--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO46"/>
+  <dimension ref="A1:AO48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,7 +679,7 @@
         <v>6.4</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K2" t="n">
         <v>4.1</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G8" t="n">
         <v>2.76</v>
@@ -1492,7 +1492,7 @@
         <v>2.88</v>
       </c>
       <c r="K8" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1510,7 +1510,7 @@
         <v>1.53</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R8" t="n">
         <v>1.18</v>
@@ -1759,7 +1759,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="J10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K10" t="n">
         <v>6.4</v>
@@ -1915,7 +1915,7 @@
         <v>1.64</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2176,7 +2176,7 @@
         <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O13" t="n">
         <v>1.37</v>
@@ -2194,7 +2194,7 @@
         <v>3.8</v>
       </c>
       <c r="T13" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U13" t="n">
         <v>1.98</v>
@@ -2206,7 +2206,7 @@
         <v>1.75</v>
       </c>
       <c r="X13" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y13" t="n">
         <v>15.5</v>
@@ -2215,13 +2215,13 @@
         <v>34</v>
       </c>
       <c r="AA13" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB13" t="n">
         <v>10.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD13" t="n">
         <v>19.5</v>
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>AC Monza</t>
+          <t>Mantova</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sudtirol</t>
+          <t>Reggiana</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.55</v>
+        <v>2.14</v>
       </c>
       <c r="G15" t="n">
-        <v>1.68</v>
+        <v>2.3</v>
       </c>
       <c r="H15" t="n">
-        <v>6.8</v>
+        <v>3.65</v>
       </c>
       <c r="I15" t="n">
-        <v>9.6</v>
+        <v>4.1</v>
       </c>
       <c r="J15" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="K15" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="O15" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="P15" t="n">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.14</v>
+        <v>1.98</v>
       </c>
       <c r="R15" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="S15" t="n">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="T15" t="n">
-        <v>2.12</v>
+        <v>1.76</v>
       </c>
       <c r="U15" t="n">
-        <v>1.61</v>
+        <v>2.1</v>
       </c>
       <c r="V15" t="n">
-        <v>1.13</v>
+        <v>1.32</v>
       </c>
       <c r="W15" t="n">
-        <v>2.46</v>
+        <v>1.78</v>
       </c>
       <c r="X15" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="Z15" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AA15" t="n">
-        <v>340</v>
+        <v>90</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="n">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="AF15" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="AG15" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>34</v>
       </c>
-      <c r="AI15" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AK15" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AL15" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO15" t="n">
         <v>60</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>240</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>290</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Mantova</t>
+          <t>AC Monza</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Reggiana</t>
+          <t>Sudtirol</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.1</v>
+        <v>1.56</v>
       </c>
       <c r="G16" t="n">
-        <v>2.32</v>
+        <v>1.65</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>6.8</v>
       </c>
       <c r="I16" t="n">
-        <v>4.2</v>
+        <v>9.6</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="K16" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="O16" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="P16" t="n">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.96</v>
+        <v>2.14</v>
       </c>
       <c r="R16" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="S16" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="T16" t="n">
-        <v>1.64</v>
+        <v>2.14</v>
       </c>
       <c r="U16" t="n">
-        <v>2.08</v>
+        <v>1.74</v>
       </c>
       <c r="V16" t="n">
-        <v>1.31</v>
+        <v>1.13</v>
       </c>
       <c r="W16" t="n">
-        <v>1.75</v>
+        <v>2.52</v>
       </c>
       <c r="X16" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="Z16" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>340</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH16" t="n">
         <v>34</v>
       </c>
-      <c r="AA16" t="n">
-        <v>90</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE16" t="n">
+      <c r="AI16" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL16" t="n">
         <v>60</v>
       </c>
-      <c r="AF16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>46</v>
-      </c>
       <c r="AM16" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="AN16" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AO16" t="n">
-        <v>60</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17">
@@ -2716,16 +2716,16 @@
         <v>1.12</v>
       </c>
       <c r="N17" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="O17" t="n">
         <v>1.52</v>
       </c>
       <c r="P17" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="R17" t="n">
         <v>1.22</v>
@@ -2758,7 +2758,7 @@
         <v>85</v>
       </c>
       <c r="AB17" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC17" t="n">
         <v>6.8</v>
@@ -2836,10 +2836,10 @@
         <v>2.46</v>
       </c>
       <c r="I18" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="J18" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="K18" t="n">
         <v>3.3</v>
@@ -2875,7 +2875,7 @@
         <v>1.71</v>
       </c>
       <c r="V18" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W18" t="n">
         <v>1.38</v>
@@ -3100,10 +3100,10 @@
         <v>2.26</v>
       </c>
       <c r="G20" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H20" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I20" t="n">
         <v>4.3</v>
@@ -3127,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="Q20" t="n">
         <v>2.4</v>
@@ -3208,7 +3208,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,31 +3223,31 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Uta Arad</t>
+          <t>Farense</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ACS Petrolul 52</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.76</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.98</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.57</v>
+        <v>1.24</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.4</v>
+        <v>1.01</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3370,7 +3370,7 @@
         <v>1.27</v>
       </c>
       <c r="G22" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H22" t="n">
         <v>4</v>
@@ -3478,7 +3478,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3493,31 +3493,31 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Farense</t>
+          <t>Uta Arad</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>ACS Petrolul 52</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.24</v>
+        <v>1.58</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3640,7 +3640,7 @@
         <v>2.72</v>
       </c>
       <c r="G24" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H24" t="n">
         <v>2.74</v>
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G25" t="n">
-        <v>2.42</v>
+        <v>2.62</v>
       </c>
       <c r="H25" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="I25" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="J25" t="n">
         <v>2.82</v>
@@ -3796,22 +3796,22 @@
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="O25" t="n">
         <v>1.01</v>
       </c>
       <c r="P25" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="R25" t="n">
         <v>1.18</v>
       </c>
       <c r="S25" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="T25" t="n">
         <v>1.88</v>
@@ -3820,10 +3820,10 @@
         <v>1.89</v>
       </c>
       <c r="V25" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="W25" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="G26" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="H26" t="n">
         <v>3.65</v>
@@ -3946,7 +3946,7 @@
         <v>1.23</v>
       </c>
       <c r="S26" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T26" t="n">
         <v>1.9</v>
@@ -3955,10 +3955,10 @@
         <v>1.79</v>
       </c>
       <c r="V26" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W26" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="G29" t="n">
         <v>2.9</v>
@@ -4321,13 +4321,13 @@
         <v>2.68</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>2.54</v>
       </c>
       <c r="K29" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -4342,10 +4342,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -4423,7 +4423,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,36 +4433,36 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Gaziantep FK</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="G30" t="n">
-        <v>1.71</v>
+        <v>1.56</v>
       </c>
       <c r="H30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I30" t="n">
-        <v>9.6</v>
+        <v>7.2</v>
       </c>
       <c r="J30" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="K30" t="n">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4477,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.65</v>
+        <v>2.66</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.06</v>
+        <v>1.51</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4558,7 +4558,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,36 +4568,36 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>FC Ashdod</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Ironi Tiberias</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -4612,10 +4612,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.71</v>
+        <v>1.9</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4693,7 +4693,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,36 +4703,36 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Vejle</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Brondby</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>4.4</v>
+        <v>1.6</v>
       </c>
       <c r="G32" t="n">
-        <v>5</v>
+        <v>1.64</v>
       </c>
       <c r="H32" t="n">
-        <v>1.78</v>
+        <v>7</v>
       </c>
       <c r="I32" t="n">
-        <v>1.91</v>
+        <v>9.6</v>
       </c>
       <c r="J32" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="K32" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -4747,10 +4747,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>2.2</v>
+        <v>1.66</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.7</v>
+        <v>2.28</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -4838,36 +4838,36 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>FC Ashdod</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Hapoel Jerusalem</t>
+          <t>Ironi Tiberias</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.39</v>
+        <v>1.86</v>
       </c>
       <c r="G33" t="n">
-        <v>1.62</v>
+        <v>2.4</v>
       </c>
       <c r="H33" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="I33" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="J33" t="n">
         <v>2.6</v>
       </c>
       <c r="K33" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -4882,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.16</v>
+        <v>1.84</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.54</v>
+        <v>1.73</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4993,7 +4993,7 @@
         <v>2.62</v>
       </c>
       <c r="H34" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I34" t="n">
         <v>4.7</v>
@@ -5002,7 +5002,7 @@
         <v>3.1</v>
       </c>
       <c r="K34" t="n">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -5128,16 +5128,16 @@
         <v>3.55</v>
       </c>
       <c r="H35" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="I35" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J35" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="K35" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -5233,7 +5233,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,36 +5243,36 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Botosani</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Rapid Bucharest</t>
+          <t>Hapoel Jerusalem</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.48</v>
+        <v>1.39</v>
       </c>
       <c r="G36" t="n">
-        <v>3.45</v>
+        <v>1.62</v>
       </c>
       <c r="H36" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="I36" t="n">
-        <v>3.6</v>
+        <v>1000</v>
       </c>
       <c r="J36" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="K36" t="n">
-        <v>3.7</v>
+        <v>1000</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -5287,10 +5287,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>1.71</v>
+        <v>2.16</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.87</v>
+        <v>1.54</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,132 +5378,132 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Vejle</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.48</v>
+        <v>4.4</v>
       </c>
       <c r="G37" t="n">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="H37" t="n">
-        <v>3.3</v>
+        <v>1.79</v>
       </c>
       <c r="I37" t="n">
-        <v>3.5</v>
+        <v>1.91</v>
       </c>
       <c r="J37" t="n">
-        <v>3</v>
+        <v>3.85</v>
       </c>
       <c r="K37" t="n">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="L37" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>2.76</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1.59</v>
+        <v>2.18</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="R37" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="Z37" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AA37" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AB37" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC37" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AD37" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AE37" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AF37" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AG37" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AH37" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AI37" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AJ37" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AK37" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AL37" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AM37" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="AN37" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AO37" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,132 +5513,132 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>San Antonio Bulo Bulo</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Real Tomayapo</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.43</v>
+        <v>2.48</v>
       </c>
       <c r="G38" t="n">
-        <v>1.76</v>
+        <v>2.6</v>
       </c>
       <c r="H38" t="n">
-        <v>4.4</v>
+        <v>3.35</v>
       </c>
       <c r="I38" t="n">
-        <v>1000</v>
+        <v>3.5</v>
       </c>
       <c r="J38" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="K38" t="n">
-        <v>1000</v>
+        <v>3.2</v>
       </c>
       <c r="L38" t="n">
         <v>1.01</v>
       </c>
       <c r="M38" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N38" t="n">
-        <v>2.56</v>
+        <v>2.76</v>
       </c>
       <c r="O38" t="n">
-        <v>1.11</v>
+        <v>1.48</v>
       </c>
       <c r="P38" t="n">
-        <v>2.56</v>
+        <v>1.59</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.34</v>
+        <v>2.42</v>
       </c>
       <c r="R38" t="n">
-        <v>1.66</v>
+        <v>1.21</v>
       </c>
       <c r="S38" t="n">
-        <v>1.86</v>
+        <v>4.7</v>
       </c>
       <c r="T38" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="U38" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="V38" t="n">
-        <v>1.06</v>
+        <v>1.4</v>
       </c>
       <c r="W38" t="n">
-        <v>2.3</v>
+        <v>1.62</v>
       </c>
       <c r="X38" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA38" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB38" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC38" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD38" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF38" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG38" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI38" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AK38" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL38" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM38" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN38" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO38" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,36 +5648,36 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Botosani</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Rapid Bucharest</t>
         </is>
       </c>
       <c r="F39" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="I39" t="n">
         <v>3.3</v>
       </c>
-      <c r="G39" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2.32</v>
-      </c>
       <c r="J39" t="n">
-        <v>2.76</v>
+        <v>3.2</v>
       </c>
       <c r="K39" t="n">
-        <v>6.4</v>
+        <v>3.7</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -5692,10 +5692,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>2.64</v>
+        <v>1.81</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.38</v>
+        <v>1.98</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -5773,7 +5773,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,132 +5783,132 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>San Antonio Bulo Bulo</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Real Tomayapo</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.21</v>
+        <v>1.43</v>
       </c>
       <c r="G40" t="n">
-        <v>2.54</v>
+        <v>1.76</v>
       </c>
       <c r="H40" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="I40" t="n">
-        <v>5.7</v>
+        <v>1000</v>
       </c>
       <c r="J40" t="n">
-        <v>2.32</v>
+        <v>4.1</v>
       </c>
       <c r="K40" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="P40" t="n">
-        <v>1.54</v>
+        <v>2.56</v>
       </c>
       <c r="Q40" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="T40" t="n">
         <v>1.01</v>
       </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,36 +5918,36 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.65</v>
+        <v>3.3</v>
       </c>
       <c r="G41" t="n">
-        <v>1.78</v>
+        <v>4.8</v>
       </c>
       <c r="H41" t="n">
-        <v>5</v>
+        <v>1.89</v>
       </c>
       <c r="I41" t="n">
-        <v>7.2</v>
+        <v>2.32</v>
       </c>
       <c r="J41" t="n">
-        <v>3.6</v>
+        <v>2.76</v>
       </c>
       <c r="K41" t="n">
-        <v>4.3</v>
+        <v>6.4</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -5962,10 +5962,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>1.76</v>
+        <v>2.64</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.08</v>
+        <v>1.38</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -6043,7 +6043,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6053,66 +6053,66 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>5.3</v>
+        <v>2.14</v>
       </c>
       <c r="G42" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I42" t="n">
         <v>5.7</v>
       </c>
-      <c r="H42" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1.83</v>
-      </c>
       <c r="J42" t="n">
-        <v>3.65</v>
+        <v>2.3</v>
       </c>
       <c r="K42" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>1.81</v>
+        <v>1.54</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="R42" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -6121,64 +6121,64 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="Z42" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AA42" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AB42" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AC42" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD42" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AE42" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AF42" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AG42" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AH42" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AI42" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AJ42" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="AK42" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AL42" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AM42" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AN42" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AO42" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6188,132 +6188,132 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Estudiantes</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.65</v>
+        <v>1.65</v>
       </c>
       <c r="G43" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+      <c r="I43" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K43" t="n">
         <v>4.3</v>
       </c>
-      <c r="H43" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="I43" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="J43" t="n">
-        <v>3</v>
-      </c>
-      <c r="K43" t="n">
-        <v>3.15</v>
-      </c>
       <c r="L43" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1.5</v>
+        <v>1.76</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.62</v>
+        <v>2.08</v>
       </c>
       <c r="R43" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="Z43" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AA43" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AB43" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AC43" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AD43" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AE43" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AF43" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AG43" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AH43" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AI43" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AJ43" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AK43" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AL43" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AM43" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="AN43" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AO43" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6323,66 +6323,66 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="G44" t="n">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="H44" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="I44" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="J44" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="K44" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N44" t="n">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="O44" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="P44" t="n">
-        <v>2.26</v>
+        <v>1.82</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.75</v>
+        <v>2.16</v>
       </c>
       <c r="R44" t="n">
-        <v>1.5</v>
+        <v>1.31</v>
       </c>
       <c r="S44" t="n">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="T44" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U44" t="n">
-        <v>2.26</v>
+        <v>1.92</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -6391,64 +6391,64 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH44" t="n">
         <v>22</v>
       </c>
-      <c r="Y44" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AI44" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AJ44" t="n">
+        <v>180</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL44" t="n">
         <v>110</v>
       </c>
-      <c r="AK44" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>60</v>
-      </c>
       <c r="AM44" t="n">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="AN44" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="AO44" t="n">
-        <v>9.4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6463,61 +6463,61 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.76</v>
+        <v>4.6</v>
       </c>
       <c r="G45" t="n">
-        <v>1.77</v>
+        <v>4.8</v>
       </c>
       <c r="H45" t="n">
-        <v>5.2</v>
+        <v>1.79</v>
       </c>
       <c r="I45" t="n">
-        <v>5.4</v>
+        <v>1.81</v>
       </c>
       <c r="J45" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K45" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N45" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="O45" t="n">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="P45" t="n">
-        <v>1.94</v>
+        <v>2.26</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.04</v>
+        <v>1.74</v>
       </c>
       <c r="R45" t="n">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="S45" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="T45" t="n">
-        <v>1.97</v>
+        <v>1.75</v>
       </c>
       <c r="U45" t="n">
-        <v>1.97</v>
+        <v>2.26</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -6526,192 +6526,462 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Y45" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH45" t="n">
         <v>19.5</v>
       </c>
-      <c r="Z45" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>23</v>
-      </c>
       <c r="AI45" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM45" t="n">
         <v>85</v>
       </c>
-      <c r="AJ45" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>160</v>
-      </c>
       <c r="AN45" t="n">
-        <v>12.5</v>
+        <v>60</v>
       </c>
       <c r="AO45" t="n">
-        <v>120</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H46" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I46" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K46" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N46" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Gimnasia La Plata</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Estudiantes</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G47" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3</v>
+      </c>
+      <c r="K47" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X47" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>85</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>260</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>130</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
           <t>Portuguese Primeira Liga</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>2025-12-08</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>17:30:00</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>Guimaraes</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>Gil Vicente</t>
         </is>
       </c>
-      <c r="F46" t="n">
+      <c r="F48" t="n">
         <v>2.86</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G48" t="n">
         <v>2.94</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H48" t="n">
         <v>3</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I48" t="n">
         <v>3.1</v>
       </c>
-      <c r="J46" t="n">
+      <c r="J48" t="n">
         <v>3</v>
       </c>
-      <c r="K46" t="n">
+      <c r="K48" t="n">
         <v>3.05</v>
       </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
         <v>1.52</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="Q48" t="n">
         <v>2.56</v>
       </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO46" t="n">
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO48" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO48"/>
+  <dimension ref="A1:AO46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -811,10 +811,10 @@
         <v>1.43</v>
       </c>
       <c r="I3" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="J3" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="K3" t="n">
         <v>6.6</v>
@@ -835,7 +835,7 @@
         <v>2.22</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="G8" t="n">
-        <v>2.76</v>
+        <v>2.64</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="J8" t="n">
-        <v>2.88</v>
+        <v>2.72</v>
       </c>
       <c r="K8" t="n">
-        <v>5.4</v>
+        <v>3.85</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>1.53</v>
+        <v>2.72</v>
       </c>
       <c r="O8" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="P8" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S8" t="n">
-        <v>2.16</v>
+        <v>4.2</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="V8" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="W8" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -1915,7 +1915,7 @@
         <v>1.64</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Mantova</t>
+          <t>AC Monza</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Reggiana</t>
+          <t>Sudtirol</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.14</v>
+        <v>1.56</v>
       </c>
       <c r="G15" t="n">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="H15" t="n">
-        <v>3.65</v>
+        <v>6.8</v>
       </c>
       <c r="I15" t="n">
-        <v>4.1</v>
+        <v>9.4</v>
       </c>
       <c r="J15" t="n">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="K15" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="P15" t="n">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.98</v>
+        <v>2.14</v>
       </c>
       <c r="R15" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="S15" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="T15" t="n">
-        <v>1.76</v>
+        <v>1.95</v>
       </c>
       <c r="U15" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="V15" t="n">
-        <v>1.32</v>
+        <v>1.13</v>
       </c>
       <c r="W15" t="n">
-        <v>1.78</v>
+        <v>2.52</v>
       </c>
       <c r="X15" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="Z15" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>340</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH15" t="n">
         <v>34</v>
       </c>
-      <c r="AA15" t="n">
-        <v>90</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE15" t="n">
+      <c r="AI15" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL15" t="n">
         <v>60</v>
       </c>
-      <c r="AF15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>46</v>
-      </c>
       <c r="AM15" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="AN15" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AO15" t="n">
-        <v>60</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>AC Monza</t>
+          <t>Mantova</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sudtirol</t>
+          <t>Reggiana</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.56</v>
+        <v>2.14</v>
       </c>
       <c r="G16" t="n">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="H16" t="n">
-        <v>6.8</v>
+        <v>3.65</v>
       </c>
       <c r="I16" t="n">
-        <v>9.6</v>
+        <v>4.1</v>
       </c>
       <c r="J16" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="K16" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="O16" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="P16" t="n">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.14</v>
+        <v>1.98</v>
       </c>
       <c r="R16" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="S16" t="n">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="T16" t="n">
-        <v>2.14</v>
+        <v>1.65</v>
       </c>
       <c r="U16" t="n">
-        <v>1.74</v>
+        <v>2.1</v>
       </c>
       <c r="V16" t="n">
-        <v>1.13</v>
+        <v>1.32</v>
       </c>
       <c r="W16" t="n">
-        <v>2.52</v>
+        <v>1.78</v>
       </c>
       <c r="X16" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="Z16" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AA16" t="n">
-        <v>340</v>
+        <v>90</v>
       </c>
       <c r="AB16" t="n">
-        <v>8.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="n">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="AF16" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="AG16" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>34</v>
       </c>
-      <c r="AI16" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AK16" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AL16" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO16" t="n">
         <v>60</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>240</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>14</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>290</v>
       </c>
     </row>
     <row r="17">
@@ -2707,7 +2707,7 @@
         <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>1.52</v>
       </c>
       <c r="P17" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q17" t="n">
         <v>2.58</v>
@@ -3208,7 +3208,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,31 +3223,31 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Farense</t>
+          <t>Uta Arad</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>ACS Petrolul 52</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.24</v>
+        <v>1.58</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q22" t="n">
         <v>1.58</v>
@@ -3478,7 +3478,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3493,31 +3493,31 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Uta Arad</t>
+          <t>Farense</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ACS Petrolul 52</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.82</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.98</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.58</v>
+        <v>1.24</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.26</v>
+        <v>1.01</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3670,7 +3670,7 @@
         <v>1.66</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G25" t="n">
-        <v>2.62</v>
+        <v>2.42</v>
       </c>
       <c r="H25" t="n">
         <v>3.55</v>
       </c>
       <c r="I25" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="J25" t="n">
         <v>2.82</v>
@@ -3790,28 +3790,28 @@
         <v>4.1</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M25" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>1.68</v>
+        <v>2.96</v>
       </c>
       <c r="O25" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="P25" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q25" t="n">
         <v>2.18</v>
       </c>
       <c r="R25" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="S25" t="n">
-        <v>2.18</v>
+        <v>4.1</v>
       </c>
       <c r="T25" t="n">
         <v>1.88</v>
@@ -3823,61 +3823,61 @@
         <v>1.3</v>
       </c>
       <c r="W25" t="n">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC25" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF25" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26">
@@ -4177,16 +4177,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G28" t="n">
         <v>2.66</v>
       </c>
       <c r="H28" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I28" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J28" t="n">
         <v>3</v>
@@ -4201,13 +4201,13 @@
         <v>1.13</v>
       </c>
       <c r="N28" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="O28" t="n">
         <v>1.53</v>
       </c>
       <c r="P28" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q28" t="n">
         <v>2.64</v>
@@ -4315,7 +4315,7 @@
         <v>2.22</v>
       </c>
       <c r="G29" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="H29" t="n">
         <v>2.68</v>
@@ -4324,7 +4324,7 @@
         <v>3.9</v>
       </c>
       <c r="J29" t="n">
-        <v>2.54</v>
+        <v>3</v>
       </c>
       <c r="K29" t="n">
         <v>5.9</v>
@@ -4423,7 +4423,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,36 +4433,36 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Gaziantep FK</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="G30" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="H30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I30" t="n">
-        <v>7.2</v>
+        <v>9.6</v>
       </c>
       <c r="J30" t="n">
-        <v>4.8</v>
+        <v>3.75</v>
       </c>
       <c r="K30" t="n">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4477,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.66</v>
+        <v>1.66</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.51</v>
+        <v>2.28</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4558,7 +4558,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,36 +4568,36 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>FC Ashdod</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Ironi Tiberias</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -4612,10 +4612,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.9</v>
+        <v>1.74</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4693,7 +4693,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,36 +4703,36 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Vejle</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.6</v>
+        <v>4.4</v>
       </c>
       <c r="G32" t="n">
-        <v>1.64</v>
+        <v>5</v>
       </c>
       <c r="H32" t="n">
-        <v>7</v>
+        <v>1.79</v>
       </c>
       <c r="I32" t="n">
-        <v>9.6</v>
+        <v>1.91</v>
       </c>
       <c r="J32" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K32" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -4747,10 +4747,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.66</v>
+        <v>2.18</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.28</v>
+        <v>1.7</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -4838,36 +4838,36 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>FC Ashdod</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Ironi Tiberias</t>
+          <t>Hapoel Jerusalem</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.86</v>
+        <v>1.42</v>
       </c>
       <c r="G33" t="n">
-        <v>2.4</v>
+        <v>1.62</v>
       </c>
       <c r="H33" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="I33" t="n">
-        <v>5.1</v>
+        <v>1000</v>
       </c>
       <c r="J33" t="n">
         <v>2.6</v>
       </c>
       <c r="K33" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -4882,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.84</v>
+        <v>2.16</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.73</v>
+        <v>1.54</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="G34" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="H34" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I34" t="n">
         <v>4.7</v>
       </c>
       <c r="J34" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K34" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -5125,7 +5125,7 @@
         <v>2.42</v>
       </c>
       <c r="G35" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H35" t="n">
         <v>2.32</v>
@@ -5134,7 +5134,7 @@
         <v>3.4</v>
       </c>
       <c r="J35" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="K35" t="n">
         <v>6.6</v>
@@ -5233,7 +5233,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,36 +5243,36 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Botosani</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Hapoel Jerusalem</t>
+          <t>Rapid Bucharest</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.39</v>
+        <v>2.62</v>
       </c>
       <c r="G36" t="n">
-        <v>1.62</v>
+        <v>3.25</v>
       </c>
       <c r="H36" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="I36" t="n">
-        <v>1000</v>
+        <v>3.35</v>
       </c>
       <c r="J36" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="K36" t="n">
-        <v>1000</v>
+        <v>3.7</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -5287,10 +5287,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.16</v>
+        <v>1.81</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.54</v>
+        <v>1.87</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,132 +5378,132 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Vejle</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Brondby</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>4.4</v>
+        <v>2.48</v>
       </c>
       <c r="G37" t="n">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="H37" t="n">
-        <v>1.79</v>
+        <v>3.35</v>
       </c>
       <c r="I37" t="n">
-        <v>1.91</v>
+        <v>3.5</v>
       </c>
       <c r="J37" t="n">
-        <v>3.85</v>
+        <v>3.1</v>
       </c>
       <c r="K37" t="n">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="P37" t="n">
-        <v>2.18</v>
+        <v>1.59</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.7</v>
+        <v>2.42</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AA37" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AB37" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD37" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF37" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AG37" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI37" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ37" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AK37" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AL37" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM37" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AN37" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AO37" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,132 +5513,132 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>San Antonio Bulo Bulo</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Real Tomayapo</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.48</v>
+        <v>1.44</v>
       </c>
       <c r="G38" t="n">
-        <v>2.6</v>
+        <v>1.79</v>
       </c>
       <c r="H38" t="n">
-        <v>3.35</v>
+        <v>4.5</v>
       </c>
       <c r="I38" t="n">
-        <v>3.5</v>
+        <v>1000</v>
       </c>
       <c r="J38" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="K38" t="n">
-        <v>3.2</v>
+        <v>1000</v>
       </c>
       <c r="L38" t="n">
         <v>1.01</v>
       </c>
       <c r="M38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="O38" t="n">
         <v>1.11</v>
       </c>
-      <c r="N38" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.48</v>
-      </c>
       <c r="P38" t="n">
-        <v>1.59</v>
+        <v>2.56</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.42</v>
+        <v>1.33</v>
       </c>
       <c r="R38" t="n">
-        <v>1.21</v>
+        <v>1.67</v>
       </c>
       <c r="S38" t="n">
-        <v>4.7</v>
+        <v>1.87</v>
       </c>
       <c r="T38" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="U38" t="n">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="V38" t="n">
-        <v>1.4</v>
+        <v>1.07</v>
       </c>
       <c r="W38" t="n">
-        <v>1.62</v>
+        <v>2.26</v>
       </c>
       <c r="X38" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y38" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z38" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AA38" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC38" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD38" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AE38" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF38" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AG38" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH38" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI38" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ38" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AK38" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL38" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM38" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AO38" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,36 +5648,36 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Botosani</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Rapid Bucharest</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.62</v>
+        <v>3.3</v>
       </c>
       <c r="G39" t="n">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="H39" t="n">
-        <v>2.68</v>
+        <v>1.89</v>
       </c>
       <c r="I39" t="n">
-        <v>3.3</v>
+        <v>2.32</v>
       </c>
       <c r="J39" t="n">
-        <v>3.2</v>
+        <v>2.76</v>
       </c>
       <c r="K39" t="n">
-        <v>3.7</v>
+        <v>6.4</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -5692,10 +5692,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>1.81</v>
+        <v>2.64</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.98</v>
+        <v>1.38</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -5773,7 +5773,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,132 +5783,132 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>San Antonio Bulo Bulo</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Real Tomayapo</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.43</v>
+        <v>1.21</v>
       </c>
       <c r="G40" t="n">
-        <v>1.76</v>
+        <v>2.54</v>
       </c>
       <c r="H40" t="n">
-        <v>4.4</v>
+        <v>3.85</v>
       </c>
       <c r="I40" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="J40" t="n">
-        <v>4.1</v>
+        <v>2.32</v>
       </c>
       <c r="K40" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q40" t="n">
         <v>1.01</v>
       </c>
-      <c r="M40" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N40" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P40" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1.34</v>
-      </c>
       <c r="R40" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z40" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA40" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB40" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC40" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD40" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE40" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF40" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG40" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH40" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI40" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK40" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL40" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM40" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN40" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO40" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,36 +5918,36 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3.3</v>
+        <v>1.63</v>
       </c>
       <c r="G41" t="n">
-        <v>4.8</v>
+        <v>1.76</v>
       </c>
       <c r="H41" t="n">
-        <v>1.89</v>
+        <v>5.1</v>
       </c>
       <c r="I41" t="n">
-        <v>2.32</v>
+        <v>7.2</v>
       </c>
       <c r="J41" t="n">
-        <v>2.76</v>
+        <v>3.65</v>
       </c>
       <c r="K41" t="n">
-        <v>6.4</v>
+        <v>4.2</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -5962,10 +5962,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>2.64</v>
+        <v>1.76</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.38</v>
+        <v>2.08</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -6043,7 +6043,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6053,66 +6053,66 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.14</v>
+        <v>5.5</v>
       </c>
       <c r="G42" t="n">
-        <v>2.56</v>
+        <v>5.7</v>
       </c>
       <c r="H42" t="n">
-        <v>3.95</v>
+        <v>1.78</v>
       </c>
       <c r="I42" t="n">
-        <v>5.7</v>
+        <v>1.8</v>
       </c>
       <c r="J42" t="n">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="K42" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P42" t="n">
-        <v>1.54</v>
+        <v>1.82</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -6121,64 +6121,64 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="Z42" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AA42" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AB42" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AC42" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD42" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AF42" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AG42" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AH42" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI42" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AJ42" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AK42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL42" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AM42" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AN42" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AO42" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6188,132 +6188,132 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Estudiantes</t>
         </is>
       </c>
       <c r="F43" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G43" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3</v>
+      </c>
+      <c r="K43" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T43" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V43" t="n">
         <v>1.65</v>
       </c>
-      <c r="G43" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="H43" t="n">
-        <v>5</v>
-      </c>
-      <c r="I43" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J43" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K43" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="Z43" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AA43" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AB43" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD43" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE43" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AF43" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AG43" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AH43" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI43" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ43" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AK43" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AL43" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AM43" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="AN43" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AO43" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6323,66 +6323,66 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="G44" t="n">
-        <v>5.6</v>
+        <v>4.8</v>
       </c>
       <c r="H44" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="I44" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="J44" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="K44" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N44" t="n">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="O44" t="n">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="P44" t="n">
-        <v>1.82</v>
+        <v>2.26</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.16</v>
+        <v>1.76</v>
       </c>
       <c r="R44" t="n">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="S44" t="n">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="T44" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U44" t="n">
-        <v>1.92</v>
+        <v>2.26</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -6391,64 +6391,64 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>12.5</v>
+        <v>22</v>
       </c>
       <c r="Y44" t="n">
-        <v>7.8</v>
+        <v>10.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA44" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AB44" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AC44" t="n">
-        <v>8.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AD44" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AE44" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AF44" t="n">
         <v>42</v>
       </c>
       <c r="AG44" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH44" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AI44" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="AJ44" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="AK44" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL44" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AM44" t="n">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="AN44" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="AO44" t="n">
-        <v>14</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6463,61 +6463,61 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>4.6</v>
+        <v>1.76</v>
       </c>
       <c r="G45" t="n">
-        <v>4.8</v>
+        <v>1.78</v>
       </c>
       <c r="H45" t="n">
-        <v>1.79</v>
+        <v>5.3</v>
       </c>
       <c r="I45" t="n">
-        <v>1.81</v>
+        <v>5.6</v>
       </c>
       <c r="J45" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="K45" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N45" t="n">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="O45" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="P45" t="n">
-        <v>2.26</v>
+        <v>1.94</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.74</v>
+        <v>2.04</v>
       </c>
       <c r="R45" t="n">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="S45" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="T45" t="n">
-        <v>1.75</v>
+        <v>1.97</v>
       </c>
       <c r="U45" t="n">
-        <v>2.26</v>
+        <v>1.97</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -6526,64 +6526,64 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="Y45" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF45" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z45" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA45" t="n">
+      <c r="AG45" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK45" t="n">
         <v>21</v>
       </c>
-      <c r="AB45" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>65</v>
-      </c>
       <c r="AL45" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AM45" t="n">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="AN45" t="n">
-        <v>60</v>
+        <v>12.5</v>
       </c>
       <c r="AO45" t="n">
-        <v>9.4</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6593,66 +6593,66 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>Guimaraes</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.75</v>
+        <v>2.84</v>
       </c>
       <c r="G46" t="n">
-        <v>1.77</v>
+        <v>2.94</v>
       </c>
       <c r="H46" t="n">
-        <v>5.2</v>
+        <v>2.92</v>
       </c>
       <c r="I46" t="n">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="J46" t="n">
-        <v>3.95</v>
+        <v>3</v>
       </c>
       <c r="K46" t="n">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>1.94</v>
+        <v>1.52</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.04</v>
+        <v>2.56</v>
       </c>
       <c r="R46" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -6661,327 +6661,57 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Z46" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AA46" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AB46" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC46" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD46" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AE46" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AF46" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AG46" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AH46" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AI46" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AJ46" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AK46" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AL46" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AM46" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AN46" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AO46" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2025-12-08</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Gimnasia La Plata</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Estudiantes</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="G47" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="J47" t="n">
-        <v>3</v>
-      </c>
-      <c r="K47" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N47" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="P47" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="R47" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="S47" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="T47" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U47" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="V47" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="W47" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="X47" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>85</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>260</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>130</v>
-      </c>
-      <c r="AO47" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Portuguese Primeira Liga</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2025-12-08</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>17:30:00</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Guimaraes</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Gil Vicente</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="G48" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="H48" t="n">
-        <v>3</v>
-      </c>
-      <c r="I48" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>3</v>
-      </c>
-      <c r="K48" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="R48" t="n">
-        <v>0</v>
-      </c>
-      <c r="S48" t="n">
-        <v>0</v>
-      </c>
-      <c r="T48" t="n">
-        <v>0</v>
-      </c>
-      <c r="U48" t="n">
-        <v>0</v>
-      </c>
-      <c r="V48" t="n">
-        <v>0</v>
-      </c>
-      <c r="W48" t="n">
-        <v>0</v>
-      </c>
-      <c r="X48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO48" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO46"/>
+  <dimension ref="A1:AO45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Azerbaijan Premier League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>FK Qabala</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sariyer G.K.</t>
+          <t>PFK Turan Tovuz</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="G3" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="H3" t="n">
-        <v>1.43</v>
+        <v>1.6</v>
       </c>
       <c r="I3" t="n">
-        <v>1.56</v>
+        <v>2.04</v>
       </c>
       <c r="J3" t="n">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>2.22</v>
+        <v>1.45</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.46</v>
+        <v>2.26</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Azerbaijan Premier League</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -928,127 +928,127 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FK Qabala</t>
+          <t>CSKA 1948 Sofia</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>PFK Turan Tovuz</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.4</v>
+        <v>1.28</v>
       </c>
       <c r="G4" t="n">
-        <v>8.4</v>
+        <v>1.42</v>
       </c>
       <c r="H4" t="n">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.04</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="K4" t="n">
-        <v>6.8</v>
+        <v>950</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.45</v>
+        <v>2.12</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.26</v>
+        <v>1.54</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,36 +1058,36 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia</t>
+          <t>Albinoleffe</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>AC Ospitaletto</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>950</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.12</v>
+        <v>1.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1198,12 +1198,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Albinoleffe</t>
+          <t>SS Virtus Verona 1921</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>AC Ospitaletto</t>
+          <t>Pergolettese</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SS Virtus Verona 1921</t>
+          <t>Carpi</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pergolettese</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P7" t="n">
-        <v>1.24</v>
+        <v>1.58</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Carpi</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>ASD Alcione</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.58</v>
+        <v>1.24</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="R8" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ASD Alcione</t>
+          <t>Forli</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>1.24</v>
+        <v>1.66</v>
       </c>
       <c r="Q9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T9" t="n">
         <v>1.01</v>
       </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Ascoli</t>
+          <t>Radnik Surdulica</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Forli</t>
+          <t>Mladost Lucani</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="G10" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="H10" t="n">
-        <v>4.8</v>
+        <v>3.45</v>
       </c>
       <c r="I10" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="J10" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="K10" t="n">
-        <v>6.4</v>
+        <v>4.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R10" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,31 +1873,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Radnik Surdulica</t>
+          <t>Giana Erminio</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Mladost Lucani</t>
+          <t>Triestina</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.64</v>
+        <v>1.24</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.9</v>
+        <v>1.01</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Giana Erminio</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Triestina</t>
+          <t>Juve Stabia</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P12" t="n">
-        <v>1.24</v>
+        <v>1.76</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Calcio Avellino SSD</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Juve Stabia</t>
+          <t>Venezia</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.14</v>
+        <v>1.04</v>
       </c>
       <c r="G13" t="n">
-        <v>2.32</v>
+        <v>1000</v>
       </c>
       <c r="H13" t="n">
-        <v>3.65</v>
+        <v>1.04</v>
       </c>
       <c r="I13" t="n">
-        <v>4.3</v>
+        <v>970</v>
       </c>
       <c r="J13" t="n">
-        <v>3.2</v>
+        <v>1.01</v>
       </c>
       <c r="K13" t="n">
-        <v>3.4</v>
+        <v>1000</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>3.2</v>
+        <v>1.02</v>
       </c>
       <c r="O13" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="P13" t="n">
-        <v>1.76</v>
+        <v>1.34</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.1</v>
+        <v>1.32</v>
       </c>
       <c r="R13" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="S13" t="n">
-        <v>3.8</v>
+        <v>1.01</v>
       </c>
       <c r="T13" t="n">
-        <v>1.85</v>
+        <v>1.01</v>
       </c>
       <c r="U13" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="W13" t="n">
-        <v>1.75</v>
+        <v>1.01</v>
       </c>
       <c r="X13" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Calcio Avellino SSD</t>
+          <t>AC Monza</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Venezia</t>
+          <t>Sudtirol</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.04</v>
+        <v>1.56</v>
       </c>
       <c r="G14" t="n">
-        <v>1000</v>
+        <v>1.65</v>
       </c>
       <c r="H14" t="n">
-        <v>1.04</v>
+        <v>6.8</v>
       </c>
       <c r="I14" t="n">
-        <v>970</v>
+        <v>9.4</v>
       </c>
       <c r="J14" t="n">
-        <v>1.01</v>
+        <v>3.8</v>
       </c>
       <c r="K14" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>1.02</v>
+        <v>3.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="P14" t="n">
-        <v>1.34</v>
+        <v>1.73</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.32</v>
+        <v>2.14</v>
       </c>
       <c r="R14" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="S14" t="n">
-        <v>1.01</v>
+        <v>3.95</v>
       </c>
       <c r="T14" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="U14" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="V14" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="W14" t="n">
-        <v>1.01</v>
+        <v>2.52</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>AC Monza</t>
+          <t>Mantova</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sudtirol</t>
+          <t>Reggiana</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.56</v>
+        <v>2.14</v>
       </c>
       <c r="G15" t="n">
-        <v>1.65</v>
+        <v>2.32</v>
       </c>
       <c r="H15" t="n">
-        <v>6.8</v>
+        <v>3.65</v>
       </c>
       <c r="I15" t="n">
-        <v>9.4</v>
+        <v>4.1</v>
       </c>
       <c r="J15" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="K15" t="n">
-        <v>4.4</v>
+        <v>3.65</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="O15" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="P15" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.14</v>
+        <v>1.99</v>
       </c>
       <c r="R15" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="S15" t="n">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="U15" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="V15" t="n">
-        <v>1.13</v>
+        <v>1.32</v>
       </c>
       <c r="W15" t="n">
-        <v>2.52</v>
+        <v>1.76</v>
       </c>
       <c r="X15" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="Y15" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="Z15" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AA15" t="n">
-        <v>340</v>
+        <v>90</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD15" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="n">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="AF15" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="AG15" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>34</v>
       </c>
-      <c r="AI15" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AK15" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AL15" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO15" t="n">
         <v>60</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>240</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>290</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,127 +2548,127 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Mantova</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Reggiana</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.14</v>
+        <v>2.58</v>
       </c>
       <c r="G16" t="n">
-        <v>2.3</v>
+        <v>2.62</v>
       </c>
       <c r="H16" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="I16" t="n">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="J16" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="N16" t="n">
-        <v>3.55</v>
+        <v>2.88</v>
       </c>
       <c r="O16" t="n">
-        <v>1.32</v>
+        <v>1.52</v>
       </c>
       <c r="P16" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U16" t="n">
         <v>1.88</v>
       </c>
-      <c r="Q16" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.1</v>
-      </c>
       <c r="V16" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>16.5</v>
+        <v>9</v>
       </c>
       <c r="Y16" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AA16" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB16" t="n">
-        <v>11.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.6</v>
+        <v>6.8</v>
       </c>
       <c r="AD16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF16" t="n">
         <v>19</v>
       </c>
-      <c r="AE16" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>17</v>
-      </c>
       <c r="AG16" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH16" t="n">
         <v>22</v>
       </c>
       <c r="AI16" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ16" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AK16" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AL16" t="n">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="AM16" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AN16" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="AO16" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Padova</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.58</v>
+        <v>3.3</v>
       </c>
       <c r="G17" t="n">
-        <v>2.62</v>
+        <v>3.65</v>
       </c>
       <c r="H17" t="n">
-        <v>3.45</v>
+        <v>2.5</v>
       </c>
       <c r="I17" t="n">
-        <v>3.55</v>
+        <v>2.68</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="K17" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>2.86</v>
+        <v>1.47</v>
       </c>
       <c r="O17" t="n">
-        <v>1.52</v>
+        <v>1.09</v>
       </c>
       <c r="P17" t="n">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.58</v>
+        <v>2.4</v>
       </c>
       <c r="R17" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="S17" t="n">
-        <v>5.2</v>
+        <v>4.4</v>
       </c>
       <c r="T17" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="U17" t="n">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="X17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y17" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,75 +2813,75 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Padova</t>
+          <t>Siroki Brijeg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Radnik Bijeljina</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.3</v>
+        <v>1.04</v>
       </c>
       <c r="G18" t="n">
-        <v>3.65</v>
+        <v>1000</v>
       </c>
       <c r="H18" t="n">
-        <v>2.46</v>
+        <v>1.04</v>
       </c>
       <c r="I18" t="n">
-        <v>2.68</v>
+        <v>1000</v>
       </c>
       <c r="J18" t="n">
-        <v>2.96</v>
+        <v>1.02</v>
       </c>
       <c r="K18" t="n">
-        <v>3.3</v>
+        <v>950</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
       <c r="O18" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="P18" t="n">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.4</v>
+        <v>1.02</v>
       </c>
       <c r="R18" t="n">
         <v>1.18</v>
       </c>
       <c r="S18" t="n">
-        <v>4.4</v>
+        <v>1.5</v>
       </c>
       <c r="T18" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="U18" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="W18" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="X18" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
         <v>1000</v>
@@ -2938,7 +2938,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:15:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Siroki Brijeg</t>
+          <t>Burgos</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Radnik Bijeljina</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.04</v>
+        <v>2.26</v>
       </c>
       <c r="G19" t="n">
-        <v>1000</v>
+        <v>2.36</v>
       </c>
       <c r="H19" t="n">
-        <v>1.04</v>
+        <v>3.8</v>
       </c>
       <c r="I19" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="J19" t="n">
-        <v>1.02</v>
+        <v>3.1</v>
       </c>
       <c r="K19" t="n">
-        <v>950</v>
+        <v>3.3</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.32</v>
+        <v>1.61</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.02</v>
+        <v>2.4</v>
       </c>
       <c r="R19" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,36 +3083,36 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>12:15:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Burgos</t>
+          <t>Uta Arad</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>ACS Petrolul 52</t>
         </is>
       </c>
       <c r="F20" t="n">
         <v>2.26</v>
       </c>
       <c r="G20" t="n">
-        <v>2.36</v>
+        <v>2.54</v>
       </c>
       <c r="H20" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="I20" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="J20" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.4</v>
+        <v>2.26</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3208,7 +3208,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,31 +3223,31 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Uta Arad</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ACS Petrolul 52</t>
+          <t>Slavia Sofia</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.5</v>
+        <v>1.27</v>
       </c>
       <c r="G21" t="n">
-        <v>2.82</v>
+        <v>1.4</v>
       </c>
       <c r="H21" t="n">
-        <v>3.05</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>3.5</v>
+        <v>1000</v>
       </c>
       <c r="J21" t="n">
-        <v>2.98</v>
+        <v>4.7</v>
       </c>
       <c r="K21" t="n">
-        <v>3.4</v>
+        <v>1000</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q21" t="n">
         <v>1.58</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.26</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3343,7 +3343,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,31 +3358,31 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Farense</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Slavia Sofia</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.1</v>
+        <v>1.24</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,36 +3488,36 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Farense</t>
+          <t>Panserraikos</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Panaitolikos</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.24</v>
+        <v>1.66</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3613,7 +3613,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Azerbaijan Premier League</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,127 +3628,127 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Panserraikos</t>
+          <t>FC Sabah</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Panaitolikos</t>
+          <t>Neftchi Baku</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.72</v>
+        <v>2.1</v>
       </c>
       <c r="G24" t="n">
-        <v>3.05</v>
+        <v>2.42</v>
       </c>
       <c r="H24" t="n">
-        <v>2.74</v>
+        <v>3.55</v>
       </c>
       <c r="I24" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J24" t="n">
         <v>3.1</v>
       </c>
-      <c r="J24" t="n">
-        <v>3.05</v>
-      </c>
       <c r="K24" t="n">
-        <v>3.45</v>
+        <v>4.1</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="P24" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM24" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Azerbaijan Premier League</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>13:15:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>FC Sabah</t>
+          <t>SSD Bari</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Neftchi Baku</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="G25" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="H25" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K25" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S25" t="n">
         <v>3.55</v>
       </c>
-      <c r="I25" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J25" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="K25" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N25" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S25" t="n">
-        <v>4.1</v>
-      </c>
       <c r="T25" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U25" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="V25" t="n">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="W25" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="X25" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD25" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI25" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,36 +3893,36 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>13:15:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SSD Bari</t>
+          <t>Sloga Doboj</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Rudar Prijedor</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.9</v>
+        <v>1.04</v>
       </c>
       <c r="G26" t="n">
-        <v>2.3</v>
+        <v>1000</v>
       </c>
       <c r="H26" t="n">
-        <v>3.65</v>
+        <v>1.04</v>
       </c>
       <c r="I26" t="n">
-        <v>5.2</v>
+        <v>1000</v>
       </c>
       <c r="J26" t="n">
-        <v>3.4</v>
+        <v>1.02</v>
       </c>
       <c r="K26" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
@@ -3931,34 +3931,34 @@
         <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>2.64</v>
+        <v>1.34</v>
       </c>
       <c r="O26" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="P26" t="n">
-        <v>1.64</v>
+        <v>1.34</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.04</v>
+        <v>1.02</v>
       </c>
       <c r="R26" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="S26" t="n">
-        <v>3.55</v>
+        <v>1.02</v>
       </c>
       <c r="T26" t="n">
-        <v>1.9</v>
+        <v>1.01</v>
       </c>
       <c r="U26" t="n">
-        <v>1.79</v>
+        <v>1.01</v>
       </c>
       <c r="V26" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="W26" t="n">
-        <v>1.77</v>
+        <v>1.01</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -4018,7 +4018,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,127 +4033,127 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Sloga Doboj</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Rudar Prijedor</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.04</v>
+        <v>2.6</v>
       </c>
       <c r="G27" t="n">
-        <v>1000</v>
+        <v>2.62</v>
       </c>
       <c r="H27" t="n">
-        <v>1.04</v>
+        <v>3.4</v>
       </c>
       <c r="I27" t="n">
-        <v>1000</v>
+        <v>3.45</v>
       </c>
       <c r="J27" t="n">
-        <v>1.02</v>
+        <v>3.05</v>
       </c>
       <c r="K27" t="n">
-        <v>1000</v>
+        <v>3.15</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="N27" t="n">
-        <v>1.34</v>
+        <v>2.8</v>
       </c>
       <c r="O27" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="P27" t="n">
-        <v>1.34</v>
+        <v>1.58</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.02</v>
+        <v>2.64</v>
       </c>
       <c r="R27" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S27" t="n">
-        <v>1.02</v>
+        <v>5.3</v>
       </c>
       <c r="T27" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="U27" t="n">
-        <v>1.01</v>
+        <v>1.85</v>
       </c>
       <c r="V27" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,61 +4168,61 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Corum Belediyespor</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="F28" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G28" t="n">
         <v>2.62</v>
       </c>
-      <c r="G28" t="n">
-        <v>2.66</v>
-      </c>
       <c r="H28" t="n">
-        <v>3.4</v>
+        <v>2.96</v>
       </c>
       <c r="I28" t="n">
         <v>3.45</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="K28" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.64</v>
+        <v>1.79</v>
       </c>
       <c r="R28" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -4231,64 +4231,64 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AA28" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AE28" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AF28" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AG28" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH28" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AI28" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AJ28" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AK28" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AL28" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AM28" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="AN28" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AO28" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,36 +4298,36 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Corum Belediyespor</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.22</v>
+        <v>1.6</v>
       </c>
       <c r="G29" t="n">
-        <v>2.86</v>
+        <v>1.64</v>
       </c>
       <c r="H29" t="n">
-        <v>2.68</v>
+        <v>7</v>
       </c>
       <c r="I29" t="n">
-        <v>3.9</v>
+        <v>9.6</v>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="K29" t="n">
-        <v>5.9</v>
+        <v>4.2</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -4342,10 +4342,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1.79</v>
+        <v>1.66</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.79</v>
+        <v>2.28</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -4423,7 +4423,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,36 +4433,36 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>FC Ashdod</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Ironi Tiberias</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.6</v>
+        <v>1.98</v>
       </c>
       <c r="G30" t="n">
-        <v>1.64</v>
+        <v>2.22</v>
       </c>
       <c r="H30" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>9.6</v>
+        <v>4.7</v>
       </c>
       <c r="J30" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K30" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4477,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.66</v>
+        <v>1.87</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.28</v>
+        <v>1.74</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4558,7 +4558,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,36 +4568,36 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>FC Ashdod</t>
+          <t>Vejle</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Ironi Tiberias</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.88</v>
+        <v>4.4</v>
       </c>
       <c r="G31" t="n">
-        <v>2.36</v>
+        <v>5</v>
       </c>
       <c r="H31" t="n">
-        <v>3.35</v>
+        <v>1.79</v>
       </c>
       <c r="I31" t="n">
-        <v>4.9</v>
+        <v>1.91</v>
       </c>
       <c r="J31" t="n">
-        <v>2.7</v>
+        <v>3.85</v>
       </c>
       <c r="K31" t="n">
-        <v>6.2</v>
+        <v>4.4</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -4612,10 +4612,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.84</v>
+        <v>2.18</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4693,7 +4693,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4708,31 +4708,31 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Vejle</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Brondby</t>
+          <t>Hapoel Jerusalem</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>4.4</v>
+        <v>1.45</v>
       </c>
       <c r="G32" t="n">
-        <v>5</v>
+        <v>1.65</v>
       </c>
       <c r="H32" t="n">
-        <v>1.79</v>
+        <v>4.2</v>
       </c>
       <c r="I32" t="n">
-        <v>1.91</v>
+        <v>15.5</v>
       </c>
       <c r="J32" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K32" t="n">
-        <v>4.4</v>
+        <v>6.2</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -4747,10 +4747,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -4828,7 +4828,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4843,31 +4843,31 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Hapoel Jerusalem</t>
+          <t>Wisla Plock</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.42</v>
+        <v>2.06</v>
       </c>
       <c r="G33" t="n">
-        <v>1.62</v>
+        <v>2.56</v>
       </c>
       <c r="H33" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="I33" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="J33" t="n">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="K33" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -4882,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.16</v>
+        <v>1.63</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.54</v>
+        <v>2.02</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4978,31 +4978,31 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>FK Spartak</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Wisla Plock</t>
+          <t>FK Backa Topola</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.06</v>
+        <v>2.42</v>
       </c>
       <c r="G34" t="n">
-        <v>2.56</v>
+        <v>3.5</v>
       </c>
       <c r="H34" t="n">
-        <v>3.3</v>
+        <v>2.32</v>
       </c>
       <c r="I34" t="n">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="J34" t="n">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="K34" t="n">
-        <v>5</v>
+        <v>6.6</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -5098,7 +5098,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,36 +5108,36 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>FK Spartak</t>
+          <t>Botosani</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>FK Backa Topola</t>
+          <t>Rapid Bucharest</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.42</v>
+        <v>2.62</v>
       </c>
       <c r="G35" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="H35" t="n">
-        <v>2.32</v>
+        <v>2.72</v>
       </c>
       <c r="I35" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J35" t="n">
-        <v>2.38</v>
+        <v>2.88</v>
       </c>
       <c r="K35" t="n">
-        <v>6.6</v>
+        <v>3.7</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -5152,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5233,7 +5233,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5248,127 +5248,127 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Botosani</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Rapid Bucharest</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.62</v>
+        <v>2.48</v>
       </c>
       <c r="G36" t="n">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="H36" t="n">
-        <v>2.52</v>
+        <v>3.3</v>
       </c>
       <c r="I36" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="J36" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K36" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="P36" t="n">
-        <v>1.81</v>
+        <v>1.59</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.87</v>
+        <v>2.42</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI36" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ36" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AK36" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AL36" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM36" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AN36" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AO36" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,132 +5378,132 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>San Antonio Bulo Bulo</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Real Tomayapo</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.48</v>
+        <v>1.44</v>
       </c>
       <c r="G37" t="n">
-        <v>2.6</v>
+        <v>1.79</v>
       </c>
       <c r="H37" t="n">
-        <v>3.35</v>
+        <v>4.5</v>
       </c>
       <c r="I37" t="n">
-        <v>3.5</v>
+        <v>1000</v>
       </c>
       <c r="J37" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="K37" t="n">
-        <v>3.2</v>
+        <v>1000</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
       </c>
       <c r="M37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="O37" t="n">
         <v>1.11</v>
       </c>
-      <c r="N37" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.48</v>
-      </c>
       <c r="P37" t="n">
-        <v>1.59</v>
+        <v>2.56</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.42</v>
+        <v>1.33</v>
       </c>
       <c r="R37" t="n">
-        <v>1.21</v>
+        <v>1.67</v>
       </c>
       <c r="S37" t="n">
-        <v>4.7</v>
+        <v>1.87</v>
       </c>
       <c r="T37" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="U37" t="n">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="V37" t="n">
-        <v>1.4</v>
+        <v>1.07</v>
       </c>
       <c r="W37" t="n">
-        <v>1.62</v>
+        <v>2.26</v>
       </c>
       <c r="X37" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y37" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z37" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AA37" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC37" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD37" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AE37" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AG37" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH37" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI37" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AK37" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL37" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM37" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AO37" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5518,127 +5518,127 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>San Antonio Bulo Bulo</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Real Tomayapo</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.44</v>
+        <v>3.3</v>
       </c>
       <c r="G38" t="n">
-        <v>1.79</v>
+        <v>4.8</v>
       </c>
       <c r="H38" t="n">
-        <v>4.5</v>
+        <v>1.89</v>
       </c>
       <c r="I38" t="n">
-        <v>1000</v>
+        <v>2.26</v>
       </c>
       <c r="J38" t="n">
-        <v>4.2</v>
+        <v>2.84</v>
       </c>
       <c r="K38" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="L38" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>2.56</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="R38" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z38" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA38" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB38" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC38" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD38" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE38" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF38" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG38" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH38" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI38" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK38" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL38" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM38" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN38" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO38" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,36 +5648,36 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3.3</v>
+        <v>1.21</v>
       </c>
       <c r="G39" t="n">
-        <v>4.8</v>
+        <v>2.54</v>
       </c>
       <c r="H39" t="n">
-        <v>1.89</v>
+        <v>1.65</v>
       </c>
       <c r="I39" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J39" t="n">
         <v>2.32</v>
       </c>
-      <c r="J39" t="n">
-        <v>2.76</v>
-      </c>
       <c r="K39" t="n">
-        <v>6.4</v>
+        <v>950</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -5692,10 +5692,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>2.64</v>
+        <v>1.62</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -5773,7 +5773,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,36 +5783,36 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.21</v>
+        <v>1.63</v>
       </c>
       <c r="G40" t="n">
-        <v>2.54</v>
+        <v>1.76</v>
       </c>
       <c r="H40" t="n">
-        <v>3.85</v>
+        <v>5.1</v>
       </c>
       <c r="I40" t="n">
-        <v>5.7</v>
+        <v>7.2</v>
       </c>
       <c r="J40" t="n">
-        <v>2.32</v>
+        <v>3.65</v>
       </c>
       <c r="K40" t="n">
-        <v>950</v>
+        <v>4.2</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -5827,10 +5827,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -5908,7 +5908,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5923,61 +5923,61 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.63</v>
+        <v>5.5</v>
       </c>
       <c r="G41" t="n">
-        <v>1.76</v>
+        <v>5.6</v>
       </c>
       <c r="H41" t="n">
-        <v>5.1</v>
+        <v>1.79</v>
       </c>
       <c r="I41" t="n">
-        <v>7.2</v>
+        <v>1.8</v>
       </c>
       <c r="J41" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K41" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P41" t="n">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -5986,64 +5986,64 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="Z41" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AA41" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AB41" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AC41" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD41" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AF41" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AG41" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AH41" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI41" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AJ41" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AK41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL41" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AM41" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AN41" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AO41" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6053,132 +6053,132 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Estudiantes</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>5.5</v>
+        <v>3.65</v>
       </c>
       <c r="G42" t="n">
-        <v>5.7</v>
+        <v>4.3</v>
       </c>
       <c r="H42" t="n">
-        <v>1.78</v>
+        <v>2.38</v>
       </c>
       <c r="I42" t="n">
-        <v>1.8</v>
+        <v>2.52</v>
       </c>
       <c r="J42" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="K42" t="n">
-        <v>3.8</v>
+        <v>3.15</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M42" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N42" t="n">
-        <v>3.5</v>
+        <v>2.46</v>
       </c>
       <c r="O42" t="n">
-        <v>1.38</v>
+        <v>1.58</v>
       </c>
       <c r="P42" t="n">
-        <v>1.82</v>
+        <v>1.48</v>
       </c>
       <c r="Q42" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="T42" t="n">
         <v>2.16</v>
       </c>
-      <c r="R42" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S42" t="n">
-        <v>4</v>
-      </c>
-      <c r="T42" t="n">
-        <v>2.02</v>
-      </c>
       <c r="U42" t="n">
-        <v>1.92</v>
+        <v>1.73</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="X42" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB42" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y42" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AC42" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD42" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AE42" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="AF42" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AG42" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH42" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AI42" t="n">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AJ42" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AK42" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AL42" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AM42" t="n">
-        <v>170</v>
+        <v>260</v>
       </c>
       <c r="AN42" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AO42" t="n">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6193,127 +6193,127 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Estudiantes</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.65</v>
+        <v>4.7</v>
       </c>
       <c r="G43" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J43" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K43" t="n">
         <v>4.3</v>
       </c>
-      <c r="H43" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="I43" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="J43" t="n">
-        <v>3</v>
-      </c>
-      <c r="K43" t="n">
-        <v>3.15</v>
-      </c>
       <c r="L43" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="N43" t="n">
-        <v>2.46</v>
+        <v>4.7</v>
       </c>
       <c r="O43" t="n">
-        <v>1.58</v>
+        <v>1.25</v>
       </c>
       <c r="P43" t="n">
-        <v>1.48</v>
+        <v>2.26</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.68</v>
+        <v>1.76</v>
       </c>
       <c r="R43" t="n">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="S43" t="n">
-        <v>5.5</v>
+        <v>2.86</v>
       </c>
       <c r="T43" t="n">
-        <v>2.16</v>
+        <v>1.75</v>
       </c>
       <c r="U43" t="n">
-        <v>1.73</v>
+        <v>2.26</v>
       </c>
       <c r="V43" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>9.800000000000001</v>
+        <v>22</v>
       </c>
       <c r="Y43" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="Z43" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AE43" t="n">
         <v>16.5</v>
       </c>
-      <c r="AA43" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>44</v>
-      </c>
       <c r="AF43" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AG43" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AH43" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI43" t="n">
         <v>30</v>
       </c>
-      <c r="AI43" t="n">
+      <c r="AJ43" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM43" t="n">
         <v>85</v>
       </c>
-      <c r="AJ43" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>85</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>260</v>
-      </c>
       <c r="AN43" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AO43" t="n">
-        <v>48</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6328,61 +6328,61 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>4.7</v>
+        <v>1.76</v>
       </c>
       <c r="G44" t="n">
-        <v>4.8</v>
+        <v>1.78</v>
       </c>
       <c r="H44" t="n">
-        <v>1.79</v>
+        <v>5.3</v>
       </c>
       <c r="I44" t="n">
-        <v>1.81</v>
+        <v>5.6</v>
       </c>
       <c r="J44" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="K44" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N44" t="n">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="O44" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="P44" t="n">
-        <v>2.26</v>
+        <v>1.94</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.76</v>
+        <v>2.04</v>
       </c>
       <c r="R44" t="n">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="S44" t="n">
-        <v>2.88</v>
+        <v>3.7</v>
       </c>
       <c r="T44" t="n">
-        <v>1.75</v>
+        <v>1.96</v>
       </c>
       <c r="U44" t="n">
-        <v>2.26</v>
+        <v>1.97</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -6391,64 +6391,64 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="Y44" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF44" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z44" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB44" t="n">
+      <c r="AG44" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK44" t="n">
         <v>21</v>
       </c>
-      <c r="AC44" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>60</v>
-      </c>
       <c r="AL44" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AM44" t="n">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="AN44" t="n">
-        <v>60</v>
+        <v>12.5</v>
       </c>
       <c r="AO44" t="n">
-        <v>9.4</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6458,66 +6458,66 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>Guimaraes</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.76</v>
+        <v>2.84</v>
       </c>
       <c r="G45" t="n">
-        <v>1.78</v>
+        <v>2.94</v>
       </c>
       <c r="H45" t="n">
-        <v>5.3</v>
+        <v>2.88</v>
       </c>
       <c r="I45" t="n">
-        <v>5.6</v>
+        <v>3.05</v>
       </c>
       <c r="J45" t="n">
-        <v>3.95</v>
+        <v>3</v>
       </c>
       <c r="K45" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>1.94</v>
+        <v>1.52</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.04</v>
+        <v>2.56</v>
       </c>
       <c r="R45" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -6526,192 +6526,57 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Z45" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AA45" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AB45" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC45" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD45" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AE45" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AF45" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AG45" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AH45" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AI45" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AJ45" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AK45" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AL45" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AM45" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AN45" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AO45" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Portuguese Primeira Liga</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2025-12-08</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>17:30:00</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Guimaraes</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Gil Vicente</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="G46" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="I46" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>3</v>
-      </c>
-      <c r="K46" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO46" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO45"/>
+  <dimension ref="A1:AO49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,7 +670,7 @@
         <v>1.7</v>
       </c>
       <c r="G2" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H2" t="n">
         <v>5.5</v>
@@ -685,100 +685,100 @@
         <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P2" t="n">
         <v>1.79</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Azerbaijan Premier League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FK Qabala</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>PFK Turan Tovuz</t>
+          <t>Sariyer G.K.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.4</v>
+        <v>5.7</v>
       </c>
       <c r="G3" t="n">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="H3" t="n">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="I3" t="n">
-        <v>2.04</v>
+        <v>1.55</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="K3" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,94 +826,94 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.45</v>
+        <v>4.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="P3" t="n">
-        <v>1.45</v>
+        <v>2.42</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.26</v>
+        <v>1.54</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.57</v>
       </c>
       <c r="S3" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="V3" t="n">
-        <v>1.96</v>
+        <v>2.8</v>
       </c>
       <c r="W3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Azerbaijan Premier League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -928,127 +928,127 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia</t>
+          <t>FK Qabala</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>PFK Turan Tovuz</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.28</v>
+        <v>4.4</v>
       </c>
       <c r="G4" t="n">
-        <v>1.42</v>
+        <v>8.4</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>2.04</v>
       </c>
       <c r="J4" t="n">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>950</v>
+        <v>6.8</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>2.12</v>
+        <v>1.47</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.54</v>
+        <v>2.26</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,126 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Albinoleffe</t>
+          <t>CSKA 1948 Sofia</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>AC Ospitaletto</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="P5" t="n">
-        <v>1.24</v>
+        <v>2.16</v>
       </c>
       <c r="Q5" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="T5" t="n">
         <v>1.01</v>
       </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SS Virtus Verona 1921</t>
+          <t>Albinoleffe</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pergolettese</t>
+          <t>AC Ospitaletto</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Carpi</t>
+          <t>SS Virtus Verona 1921</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>Pergolettese</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.58</v>
+        <v>1.24</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="R7" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>Carpi</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ASD Alcione</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P8" t="n">
-        <v>1.24</v>
+        <v>1.58</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Ascoli</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Forli</t>
+          <t>ASD Alcione</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q9" t="n">
         <v>1.01</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.98</v>
-      </c>
       <c r="R9" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Radnik Surdulica</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Mladost Lucani</t>
+          <t>Forli</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="G10" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H10" t="n">
-        <v>3.45</v>
+        <v>4.8</v>
       </c>
       <c r="I10" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J10" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K10" t="n">
-        <v>4.6</v>
+        <v>6.2</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P10" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Ukrainian Premier League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Giana Erminio</t>
+          <t>SK Poltava</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Triestina</t>
+          <t>FC Epicentr Dunaivtsi</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P11" t="n">
-        <v>1.24</v>
+        <v>1.86</v>
       </c>
       <c r="Q11" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="T11" t="n">
         <v>1.01</v>
       </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Radnik Surdulica</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Juve Stabia</t>
+          <t>Mladost Lucani</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.14</v>
+        <v>1.71</v>
       </c>
       <c r="G12" t="n">
-        <v>2.32</v>
+        <v>1.95</v>
       </c>
       <c r="H12" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="I12" t="n">
-        <v>4.3</v>
+        <v>8</v>
       </c>
       <c r="J12" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K12" t="n">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.76</v>
+        <v>1.64</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="R12" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AM12" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Calcio Avellino SSD</t>
+          <t>Giana Erminio</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Venezia</t>
+          <t>Triestina</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q13" t="n">
         <v>1.01</v>
       </c>
-      <c r="K13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.32</v>
-      </c>
       <c r="R13" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2278,31 +2278,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>AC Monza</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sudtirol</t>
+          <t>Juve Stabia</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.56</v>
+        <v>2.14</v>
       </c>
       <c r="G14" t="n">
-        <v>1.65</v>
+        <v>2.32</v>
       </c>
       <c r="H14" t="n">
-        <v>6.8</v>
+        <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>9.4</v>
+        <v>4.2</v>
       </c>
       <c r="J14" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="K14" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2314,85 +2314,85 @@
         <v>3.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="P14" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="R14" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S14" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="T14" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="U14" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W14" t="n">
         <v>1.75</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W14" t="n">
-        <v>2.52</v>
       </c>
       <c r="X14" t="n">
         <v>14.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>24</v>
+        <v>15.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AA14" t="n">
-        <v>340</v>
+        <v>95</v>
       </c>
       <c r="AB14" t="n">
-        <v>8.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>36</v>
       </c>
-      <c r="AE14" t="n">
-        <v>170</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AK14" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AL14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM14" t="n">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="AN14" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AO14" t="n">
-        <v>290</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Mantova</t>
+          <t>Calcio Avellino SSD</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Reggiana</t>
+          <t>Venezia</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.14</v>
+        <v>1.04</v>
       </c>
       <c r="G15" t="n">
-        <v>2.32</v>
+        <v>1000</v>
       </c>
       <c r="H15" t="n">
-        <v>3.65</v>
+        <v>1.04</v>
       </c>
       <c r="I15" t="n">
-        <v>4.1</v>
+        <v>970</v>
       </c>
       <c r="J15" t="n">
-        <v>3.2</v>
+        <v>1.01</v>
       </c>
       <c r="K15" t="n">
-        <v>3.65</v>
+        <v>1000</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>3.55</v>
+        <v>1.02</v>
       </c>
       <c r="O15" t="n">
         <v>1.32</v>
       </c>
       <c r="P15" t="n">
-        <v>1.87</v>
+        <v>1.34</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.99</v>
+        <v>1.32</v>
       </c>
       <c r="R15" t="n">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>3.4</v>
+        <v>1.01</v>
       </c>
       <c r="T15" t="n">
-        <v>1.75</v>
+        <v>1.01</v>
       </c>
       <c r="U15" t="n">
-        <v>2.1</v>
+        <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="W15" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="X15" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Mantova</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Reggiana</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.58</v>
+        <v>2.22</v>
       </c>
       <c r="G16" t="n">
-        <v>2.62</v>
+        <v>2.4</v>
       </c>
       <c r="H16" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I16" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N16" t="n">
         <v>3.55</v>
       </c>
-      <c r="J16" t="n">
-        <v>3</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2.88</v>
-      </c>
       <c r="O16" t="n">
-        <v>1.52</v>
+        <v>1.32</v>
       </c>
       <c r="P16" t="n">
-        <v>1.59</v>
+        <v>1.87</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.58</v>
+        <v>1.99</v>
       </c>
       <c r="R16" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="S16" t="n">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
       <c r="T16" t="n">
-        <v>2.08</v>
+        <v>1.76</v>
       </c>
       <c r="U16" t="n">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="X16" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AA16" t="n">
         <v>85</v>
       </c>
       <c r="AB16" t="n">
-        <v>8.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>6.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AE16" t="n">
         <v>55</v>
       </c>
       <c r="AF16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG16" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN16" t="n">
         <v>22</v>
       </c>
-      <c r="AI16" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>38</v>
-      </c>
       <c r="AO16" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
@@ -2683,31 +2683,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Padova</t>
+          <t>AC Monza</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Sudtirol</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.3</v>
+        <v>1.57</v>
       </c>
       <c r="G17" t="n">
-        <v>3.65</v>
+        <v>1.65</v>
       </c>
       <c r="H17" t="n">
-        <v>2.5</v>
+        <v>6.8</v>
       </c>
       <c r="I17" t="n">
-        <v>2.68</v>
+        <v>9.6</v>
       </c>
       <c r="J17" t="n">
-        <v>2.96</v>
+        <v>3.8</v>
       </c>
       <c r="K17" t="n">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2716,94 +2716,94 @@
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>1.47</v>
+        <v>3.2</v>
       </c>
       <c r="O17" t="n">
-        <v>1.09</v>
+        <v>1.39</v>
       </c>
       <c r="P17" t="n">
-        <v>1.47</v>
+        <v>1.73</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.4</v>
+        <v>2.14</v>
       </c>
       <c r="R17" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="S17" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="T17" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="U17" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="V17" t="n">
-        <v>1.59</v>
+        <v>1.13</v>
       </c>
       <c r="W17" t="n">
-        <v>1.38</v>
+        <v>2.52</v>
       </c>
       <c r="X17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>340</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC17" t="n">
         <v>11</v>
       </c>
-      <c r="Y17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>1000</v>
-      </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Siroki Brijeg</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Radnik Bijeljina</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.04</v>
+        <v>2.58</v>
       </c>
       <c r="G18" t="n">
-        <v>1000</v>
+        <v>2.62</v>
       </c>
       <c r="H18" t="n">
-        <v>1.04</v>
+        <v>3.45</v>
       </c>
       <c r="I18" t="n">
-        <v>1000</v>
+        <v>3.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.02</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>950</v>
+        <v>3.1</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N18" t="n">
-        <v>1.32</v>
+        <v>2.88</v>
       </c>
       <c r="O18" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="P18" t="n">
-        <v>1.32</v>
+        <v>1.59</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.02</v>
+        <v>2.58</v>
       </c>
       <c r="R18" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S18" t="n">
-        <v>1.5</v>
+        <v>5.2</v>
       </c>
       <c r="T18" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="U18" t="n">
-        <v>1.01</v>
+        <v>1.88</v>
       </c>
       <c r="V18" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>12:15:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Burgos</t>
+          <t>Padova</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.26</v>
+        <v>3.3</v>
       </c>
       <c r="G19" t="n">
-        <v>2.36</v>
+        <v>3.65</v>
       </c>
       <c r="H19" t="n">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="I19" t="n">
-        <v>4.3</v>
+        <v>2.74</v>
       </c>
       <c r="J19" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="K19" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="P19" t="n">
-        <v>1.61</v>
+        <v>1.48</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Uta Arad</t>
+          <t>Siroki Brijeg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ACS Petrolul 52</t>
+          <t>Radnik Bijeljina</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.26</v>
+        <v>1.04</v>
       </c>
       <c r="G20" t="n">
-        <v>2.54</v>
+        <v>1000</v>
       </c>
       <c r="H20" t="n">
-        <v>3.45</v>
+        <v>1.04</v>
       </c>
       <c r="I20" t="n">
-        <v>4.5</v>
+        <v>1000</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>1.02</v>
       </c>
       <c r="K20" t="n">
-        <v>3.4</v>
+        <v>950</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P20" t="n">
-        <v>1.58</v>
+        <v>1.32</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.26</v>
+        <v>1.02</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,36 +3218,36 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>12:15:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Burgos</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Slavia Sofia</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.27</v>
+        <v>2.28</v>
       </c>
       <c r="G21" t="n">
-        <v>1.4</v>
+        <v>2.38</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="I21" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="J21" t="n">
-        <v>4.7</v>
+        <v>3.1</v>
       </c>
       <c r="K21" t="n">
-        <v>1000</v>
+        <v>3.3</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.1</v>
+        <v>1.59</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.58</v>
+        <v>2.4</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3343,7 +3343,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,31 +3358,31 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Farense</t>
+          <t>Uta Arad</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>ACS Petrolul 52</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.24</v>
+        <v>1.58</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,36 +3488,36 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Panserraikos</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Panaitolikos</t>
+          <t>Slavia Sofia</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.72</v>
+        <v>1.27</v>
       </c>
       <c r="G23" t="n">
-        <v>3.05</v>
+        <v>1.4</v>
       </c>
       <c r="H23" t="n">
-        <v>2.74</v>
+        <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>3.1</v>
+        <v>1000</v>
       </c>
       <c r="J23" t="n">
-        <v>3.05</v>
+        <v>4.7</v>
       </c>
       <c r="K23" t="n">
-        <v>3.45</v>
+        <v>1000</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.66</v>
+        <v>2.1</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.26</v>
+        <v>1.58</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3613,7 +3613,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Azerbaijan Premier League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FC Sabah</t>
+          <t>Farense</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Neftchi Baku</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>2.96</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.67</v>
+        <v>1.24</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="R24" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB24" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC24" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD24" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AF24" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AG24" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH24" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AI24" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AJ24" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AK24" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AL24" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AM24" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AN24" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AO24" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>13:15:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SSD Bari</t>
+          <t>Panserraikos</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Panaitolikos</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.9</v>
+        <v>2.72</v>
       </c>
       <c r="G25" t="n">
-        <v>2.3</v>
+        <v>3.05</v>
       </c>
       <c r="H25" t="n">
-        <v>3.7</v>
+        <v>2.74</v>
       </c>
       <c r="I25" t="n">
-        <v>5.2</v>
+        <v>3.1</v>
       </c>
       <c r="J25" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="K25" t="n">
-        <v>4.2</v>
+        <v>3.45</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>2.66</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.08</v>
+        <v>2.26</v>
       </c>
       <c r="R25" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF25" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Azerbaijan Premier League</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Sloga Doboj</t>
+          <t>FC Sabah</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Rudar Prijedor</t>
+          <t>Neftchi Baku</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.04</v>
+        <v>2.1</v>
       </c>
       <c r="G26" t="n">
-        <v>1000</v>
+        <v>2.42</v>
       </c>
       <c r="H26" t="n">
-        <v>1.04</v>
+        <v>3.45</v>
       </c>
       <c r="I26" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="J26" t="n">
-        <v>1.02</v>
+        <v>2.82</v>
       </c>
       <c r="K26" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M26" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>1.34</v>
+        <v>2.96</v>
       </c>
       <c r="O26" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="P26" t="n">
-        <v>1.34</v>
+        <v>1.67</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.02</v>
+        <v>2.18</v>
       </c>
       <c r="R26" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="S26" t="n">
-        <v>1.02</v>
+        <v>4.1</v>
       </c>
       <c r="T26" t="n">
-        <v>1.01</v>
+        <v>1.88</v>
       </c>
       <c r="U26" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="V26" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="W26" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="X26" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB26" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC26" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD26" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK26" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:15:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>SSD Bari</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="G27" t="n">
-        <v>2.62</v>
+        <v>2.3</v>
       </c>
       <c r="H27" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I27" t="n">
-        <v>3.45</v>
+        <v>5.2</v>
       </c>
       <c r="J27" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K27" t="n">
-        <v>3.15</v>
+        <v>4.2</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>2.8</v>
+        <v>2.66</v>
       </c>
       <c r="O27" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="P27" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.64</v>
+        <v>2.08</v>
       </c>
       <c r="R27" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="S27" t="n">
-        <v>5.3</v>
+        <v>3.55</v>
       </c>
       <c r="T27" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="U27" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="X27" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z27" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA27" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AD27" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH27" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI27" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,127 +4168,127 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Corum Belediyespor</t>
+          <t>Sloga Doboj</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Rudar Prijedor</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.32</v>
+        <v>1.04</v>
       </c>
       <c r="G28" t="n">
-        <v>2.62</v>
+        <v>1000</v>
       </c>
       <c r="H28" t="n">
-        <v>2.96</v>
+        <v>1.04</v>
       </c>
       <c r="I28" t="n">
-        <v>3.45</v>
+        <v>1000</v>
       </c>
       <c r="J28" t="n">
-        <v>3.3</v>
+        <v>1.02</v>
       </c>
       <c r="K28" t="n">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P28" t="n">
-        <v>1.79</v>
+        <v>1.34</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.79</v>
+        <v>2.74</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,66 +4298,66 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.6</v>
+        <v>2.64</v>
       </c>
       <c r="G29" t="n">
-        <v>1.64</v>
+        <v>2.66</v>
       </c>
       <c r="H29" t="n">
-        <v>7</v>
+        <v>3.35</v>
       </c>
       <c r="I29" t="n">
-        <v>9.6</v>
+        <v>3.45</v>
       </c>
       <c r="J29" t="n">
-        <v>3.75</v>
+        <v>3.05</v>
       </c>
       <c r="K29" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="P29" t="n">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.28</v>
+        <v>2.64</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -4366,64 +4366,64 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AK29" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM29" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AO29" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,36 +4433,36 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>FC Ashdod</t>
+          <t>Corum Belediyespor</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Ironi Tiberias</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.98</v>
+        <v>2.32</v>
       </c>
       <c r="G30" t="n">
-        <v>2.22</v>
+        <v>2.8</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="I30" t="n">
-        <v>4.7</v>
+        <v>3.85</v>
       </c>
       <c r="J30" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="K30" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4477,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q30" t="n">
         <v>1.87</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.74</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4558,7 +4558,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,36 +4568,36 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Vejle</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Brondby</t>
+          <t>Gaziantep FK</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>4.4</v>
+        <v>1.52</v>
       </c>
       <c r="G31" t="n">
-        <v>5</v>
+        <v>1.55</v>
       </c>
       <c r="H31" t="n">
-        <v>1.79</v>
+        <v>6</v>
       </c>
       <c r="I31" t="n">
-        <v>1.91</v>
+        <v>7.2</v>
       </c>
       <c r="J31" t="n">
-        <v>3.85</v>
+        <v>4.9</v>
       </c>
       <c r="K31" t="n">
-        <v>4.4</v>
+        <v>5.4</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -4612,10 +4612,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.18</v>
+        <v>2.66</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.7</v>
+        <v>1.51</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4693,7 +4693,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,36 +4703,36 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Hapoel Jerusalem</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.45</v>
+        <v>1.68</v>
       </c>
       <c r="G32" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="H32" t="n">
-        <v>4.2</v>
+        <v>5.7</v>
       </c>
       <c r="I32" t="n">
-        <v>15.5</v>
+        <v>6.6</v>
       </c>
       <c r="J32" t="n">
         <v>4</v>
       </c>
       <c r="K32" t="n">
-        <v>6.2</v>
+        <v>4.3</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -4747,10 +4747,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>2.26</v>
+        <v>1.91</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -4828,7 +4828,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,36 +4838,36 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Wisla Plock</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.06</v>
+        <v>1.6</v>
       </c>
       <c r="G33" t="n">
-        <v>2.56</v>
+        <v>1.64</v>
       </c>
       <c r="H33" t="n">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="I33" t="n">
-        <v>4.7</v>
+        <v>9.6</v>
       </c>
       <c r="J33" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="K33" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -4882,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.02</v>
+        <v>2.28</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,36 +4973,36 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>FK Spartak</t>
+          <t>FC Ashdod</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>FK Backa Topola</t>
+          <t>Ironi Tiberias</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.42</v>
+        <v>1.98</v>
       </c>
       <c r="G34" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J34" t="n">
         <v>3.5</v>
       </c>
-      <c r="H34" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J34" t="n">
-        <v>2.38</v>
-      </c>
       <c r="K34" t="n">
-        <v>6.6</v>
+        <v>4.6</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -5098,7 +5098,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,36 +5108,36 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Botosani</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Rapid Bucharest</t>
+          <t>Wisla Plock</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.62</v>
+        <v>2.06</v>
       </c>
       <c r="G35" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J35" t="n">
         <v>3.25</v>
       </c>
-      <c r="H35" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="I35" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J35" t="n">
-        <v>2.88</v>
-      </c>
       <c r="K35" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -5152,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>1.81</v>
+        <v>1.63</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5233,7 +5233,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,132 +5243,132 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>FK Spartak</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>FK Backa Topola</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="G36" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="H36" t="n">
-        <v>3.3</v>
+        <v>2.32</v>
       </c>
       <c r="I36" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="K36" t="n">
-        <v>3.2</v>
+        <v>6.6</v>
       </c>
       <c r="L36" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>2.76</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.42</v>
+        <v>1.83</v>
       </c>
       <c r="R36" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="Z36" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AA36" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AB36" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AD36" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AE36" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AF36" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AG36" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AH36" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AI36" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AJ36" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AK36" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AL36" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AM36" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="AN36" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AO36" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,132 +5378,132 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>San Antonio Bulo Bulo</t>
+          <t>Vejle</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Real Tomayapo</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.44</v>
+        <v>4.4</v>
       </c>
       <c r="G37" t="n">
-        <v>1.79</v>
+        <v>5</v>
       </c>
       <c r="H37" t="n">
-        <v>4.5</v>
+        <v>1.78</v>
       </c>
       <c r="I37" t="n">
-        <v>1000</v>
+        <v>1.89</v>
       </c>
       <c r="J37" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="K37" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="L37" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>2.56</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.56</v>
+        <v>2.18</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.33</v>
+        <v>1.7</v>
       </c>
       <c r="R37" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z37" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA37" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB37" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC37" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD37" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE37" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF37" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG37" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH37" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI37" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK37" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL37" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM37" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN37" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,36 +5513,36 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Hapoel Jerusalem</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3.3</v>
+        <v>1.44</v>
       </c>
       <c r="G38" t="n">
-        <v>4.8</v>
+        <v>1.64</v>
       </c>
       <c r="H38" t="n">
-        <v>1.89</v>
+        <v>4.2</v>
       </c>
       <c r="I38" t="n">
-        <v>2.26</v>
+        <v>16.5</v>
       </c>
       <c r="J38" t="n">
-        <v>2.84</v>
+        <v>4</v>
       </c>
       <c r="K38" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -5557,10 +5557,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>2.64</v>
+        <v>2.22</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -5638,7 +5638,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,132 +5648,132 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="F39" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3</v>
+      </c>
+      <c r="K39" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R39" t="n">
         <v>1.21</v>
       </c>
-      <c r="G39" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="I39" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J39" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="K39" t="n">
-        <v>950</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
+      <c r="S39" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W39" t="n">
         <v>1.62</v>
       </c>
-      <c r="Q39" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0</v>
-      </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AA39" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AB39" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC39" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD39" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AE39" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF39" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AG39" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI39" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ39" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AK39" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AL39" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM39" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AN39" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AO39" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,36 +5783,36 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Botosani</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Rapid Bucharest</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.63</v>
+        <v>2.66</v>
       </c>
       <c r="G40" t="n">
-        <v>1.76</v>
+        <v>3.25</v>
       </c>
       <c r="H40" t="n">
-        <v>5.1</v>
+        <v>2.72</v>
       </c>
       <c r="I40" t="n">
-        <v>7.2</v>
+        <v>3.35</v>
       </c>
       <c r="J40" t="n">
-        <v>3.65</v>
+        <v>2.88</v>
       </c>
       <c r="K40" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -5827,10 +5827,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.08</v>
+        <v>1.87</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -5908,7 +5908,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,132 +5918,132 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>San Antonio Bulo Bulo</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Real Tomayapo</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>5.5</v>
+        <v>1.44</v>
       </c>
       <c r="G41" t="n">
-        <v>5.6</v>
+        <v>1.79</v>
       </c>
       <c r="H41" t="n">
-        <v>1.79</v>
+        <v>4.5</v>
       </c>
       <c r="I41" t="n">
-        <v>1.8</v>
+        <v>1000</v>
       </c>
       <c r="J41" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="K41" t="n">
-        <v>3.8</v>
+        <v>1000</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M41" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N41" t="n">
-        <v>3.5</v>
+        <v>2.56</v>
       </c>
       <c r="O41" t="n">
-        <v>1.38</v>
+        <v>1.11</v>
       </c>
       <c r="P41" t="n">
-        <v>1.82</v>
+        <v>2.56</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.16</v>
+        <v>1.33</v>
       </c>
       <c r="R41" t="n">
-        <v>1.31</v>
+        <v>1.67</v>
       </c>
       <c r="S41" t="n">
-        <v>4</v>
+        <v>1.87</v>
       </c>
       <c r="T41" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="U41" t="n">
-        <v>1.92</v>
+        <v>1.01</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="X41" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y41" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="Z41" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AA41" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AC41" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD41" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE41" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AF41" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AG41" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AH41" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI41" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ41" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AK41" t="n">
         <v>1000</v>
       </c>
       <c r="AL41" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AM41" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN41" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AO41" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6053,132 +6053,132 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Estudiantes</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="G42" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="H42" t="n">
-        <v>2.38</v>
+        <v>1.89</v>
       </c>
       <c r="I42" t="n">
-        <v>2.52</v>
+        <v>2.26</v>
       </c>
       <c r="J42" t="n">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="K42" t="n">
-        <v>3.15</v>
+        <v>6.4</v>
       </c>
       <c r="L42" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>1.48</v>
+        <v>2.7</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.68</v>
+        <v>1.38</v>
       </c>
       <c r="R42" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="Z42" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AA42" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AB42" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AC42" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AD42" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AE42" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AF42" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AG42" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AH42" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AI42" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AJ42" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AK42" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AL42" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AM42" t="n">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="AN42" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AO42" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6188,66 +6188,66 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>4.7</v>
+        <v>2.16</v>
       </c>
       <c r="G43" t="n">
-        <v>4.8</v>
+        <v>2.32</v>
       </c>
       <c r="H43" t="n">
-        <v>1.78</v>
+        <v>3.75</v>
       </c>
       <c r="I43" t="n">
-        <v>1.8</v>
+        <v>4.3</v>
       </c>
       <c r="J43" t="n">
-        <v>4.2</v>
+        <v>3.15</v>
       </c>
       <c r="K43" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.26</v>
+        <v>1.63</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="R43" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -6256,64 +6256,64 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="Z43" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AA43" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AB43" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AC43" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AD43" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AE43" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AF43" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AG43" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AH43" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AI43" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AJ43" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AK43" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AL43" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AM43" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AN43" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AO43" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6323,66 +6323,66 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="F44" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+      <c r="I44" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K44" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
         <v>1.76</v>
       </c>
-      <c r="G44" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="H44" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="I44" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="J44" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K44" t="n">
-        <v>4</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N44" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P44" t="n">
-        <v>1.94</v>
-      </c>
       <c r="Q44" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="R44" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -6391,192 +6391,732 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Z44" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AA44" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AB44" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC44" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD44" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AE44" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AF44" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AG44" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AH44" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AI44" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AJ44" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AK44" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AL44" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AM44" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AN44" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AO44" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G45" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K45" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N45" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>180</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>140</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H46" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I46" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J46" t="n">
+        <v>4</v>
+      </c>
+      <c r="K46" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N46" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Gimnasia La Plata</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Estudiantes</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G47" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3</v>
+      </c>
+      <c r="K47" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X47" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>250</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>120</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>English Premier League</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G48" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="J48" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K48" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N48" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U48" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
           <t>Portuguese Primeira Liga</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>2025-12-08</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>17:30:00</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>Guimaraes</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>Gil Vicente</t>
         </is>
       </c>
-      <c r="F45" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="G45" t="n">
+      <c r="F49" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="G49" t="n">
         <v>2.94</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H49" t="n">
         <v>2.88</v>
       </c>
-      <c r="I45" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J45" t="n">
+      <c r="I49" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J49" t="n">
         <v>3</v>
       </c>
-      <c r="K45" t="n">
+      <c r="K49" t="n">
         <v>3.25</v>
       </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
         <v>1.52</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="Q49" t="n">
         <v>2.56</v>
       </c>
-      <c r="R45" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" t="n">
-        <v>0</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO45" t="n">
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO49" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-08.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="G2" t="n">
         <v>1.8</v>
@@ -679,19 +679,19 @@
         <v>6.4</v>
       </c>
       <c r="J2" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
         <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O2" t="n">
         <v>1.37</v>
@@ -715,7 +715,7 @@
         <v>1.86</v>
       </c>
       <c r="V2" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W2" t="n">
         <v>2.24</v>
@@ -736,7 +736,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
         <v>28</v>
@@ -748,7 +748,7 @@
         <v>12</v>
       </c>
       <c r="AG2" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
         <v>28</v>
@@ -757,7 +757,7 @@
         <v>120</v>
       </c>
       <c r="AJ2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
         <v>25</v>
@@ -769,7 +769,7 @@
         <v>180</v>
       </c>
       <c r="AN2" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO2" t="n">
         <v>160</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="I3" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="J3" t="n">
-        <v>4.8</v>
+        <v>2.54</v>
       </c>
       <c r="K3" t="n">
-        <v>6.6</v>
+        <v>12</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,88 +826,88 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>4.1</v>
+        <v>1.01</v>
       </c>
       <c r="O3" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
       <c r="R3" t="n">
         <v>1.57</v>
       </c>
       <c r="S3" t="n">
-        <v>2.36</v>
+        <v>2.18</v>
       </c>
       <c r="T3" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>2.8</v>
+        <v>2.52</v>
       </c>
       <c r="W3" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="Z3" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AB3" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AC3" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AE3" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AH3" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AI3" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AJ3" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AM3" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -940,7 +940,7 @@
         <v>4.4</v>
       </c>
       <c r="G4" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="H4" t="n">
         <v>1.6</v>
@@ -955,19 +955,19 @@
         <v>6.8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q4" t="n">
         <v>2.26</v>
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.09</v>
+        <v>1.29</v>
       </c>
       <c r="G5" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="H5" t="n">
-        <v>3.45</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K5" t="n">
-        <v>950</v>
+        <v>6.8</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="Q5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R5" t="n">
         <v>1.54</v>
       </c>
-      <c r="R5" t="n">
-        <v>1.44</v>
-      </c>
       <c r="S5" t="n">
-        <v>2.26</v>
+        <v>2.48</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="W5" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>570</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6">
@@ -1198,121 +1198,121 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Albinoleffe</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>AC Ospitaletto</t>
+          <t>Forli</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P6" t="n">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SS Virtus Verona 1921</t>
+          <t>Albinoleffe</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pergolettese</t>
+          <t>AC Ospitaletto</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="Q7" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="T7" t="n">
         <v>1.01</v>
       </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Carpi</t>
+          <t>SS Virtus Verona 1921</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>Pergolettese</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.28</v>
+        <v>2.62</v>
       </c>
       <c r="G8" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H8" t="n">
         <v>2.74</v>
       </c>
-      <c r="H8" t="n">
-        <v>3.4</v>
-      </c>
       <c r="I8" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="J8" t="n">
-        <v>2.72</v>
+        <v>2.96</v>
       </c>
       <c r="K8" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M8" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="O8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="W8" t="n">
         <v>1.46</v>
       </c>
-      <c r="P8" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S8" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.61</v>
-      </c>
       <c r="X8" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AA8" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="AC8" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD8" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AE8" t="n">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="AF8" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AG8" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AJ8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK8" t="n">
         <v>44</v>
       </c>
-      <c r="AK8" t="n">
-        <v>40</v>
-      </c>
       <c r="AL8" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN8" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AO8" t="n">
-        <v>90</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>Carpi</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ASD Alcione</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P9" t="n">
-        <v>1.24</v>
+        <v>1.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Ascoli</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Forli</t>
+          <t>ASD Alcione</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.6</v>
+        <v>2.18</v>
       </c>
       <c r="G10" t="n">
-        <v>1.91</v>
+        <v>2.54</v>
       </c>
       <c r="H10" t="n">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>9.199999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.3</v>
+        <v>2.82</v>
       </c>
       <c r="K10" t="n">
-        <v>6.2</v>
+        <v>3.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>1.66</v>
+        <v>2.42</v>
       </c>
       <c r="O10" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="P10" t="n">
-        <v>1.66</v>
+        <v>1.48</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.99</v>
+        <v>2.58</v>
       </c>
       <c r="R10" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="S10" t="n">
-        <v>1.99</v>
+        <v>4.9</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="V10" t="n">
-        <v>1.12</v>
+        <v>1.28</v>
       </c>
       <c r="W10" t="n">
-        <v>2.08</v>
+        <v>1.65</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.94</v>
+        <v>3.85</v>
       </c>
       <c r="G11" t="n">
         <v>1000</v>
       </c>
       <c r="H11" t="n">
-        <v>1.63</v>
+        <v>1.04</v>
       </c>
       <c r="I11" t="n">
         <v>2.06</v>
       </c>
       <c r="J11" t="n">
-        <v>1.94</v>
+        <v>3.25</v>
       </c>
       <c r="K11" t="n">
         <v>1000</v>
@@ -1918,7 +1918,7 @@
         <v>1.69</v>
       </c>
       <c r="R11" t="n">
-        <v>1.03</v>
+        <v>1.18</v>
       </c>
       <c r="S11" t="n">
         <v>1.69</v>
@@ -2020,109 +2020,109 @@
         <v>1.71</v>
       </c>
       <c r="G12" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="H12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J12" t="n">
         <v>3.45</v>
-      </c>
-      <c r="I12" t="n">
-        <v>8</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.15</v>
       </c>
       <c r="K12" t="n">
         <v>4.6</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P12" t="n">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2152,112 +2152,112 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P13" t="n">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="Q13" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T13" t="n">
         <v>1.01</v>
       </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2290,10 +2290,10 @@
         <v>2.14</v>
       </c>
       <c r="G14" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H14" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
         <v>4.2</v>
@@ -2305,7 +2305,7 @@
         <v>3.4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
@@ -2338,13 +2338,13 @@
         <v>1.31</v>
       </c>
       <c r="W14" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X14" t="n">
         <v>14.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z14" t="n">
         <v>34</v>
@@ -2443,7 +2443,7 @@
         <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
         <v>1.02</v>
@@ -2461,7 +2461,7 @@
         <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="T15" t="n">
         <v>1.01</v>
@@ -2563,7 +2563,7 @@
         <v>2.4</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I16" t="n">
         <v>3.95</v>
@@ -2572,7 +2572,7 @@
         <v>3.2</v>
       </c>
       <c r="K16" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2590,7 +2590,7 @@
         <v>1.87</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R16" t="n">
         <v>1.33</v>
@@ -2602,16 +2602,16 @@
         <v>1.76</v>
       </c>
       <c r="U16" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V16" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W16" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X16" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="Y16" t="n">
         <v>16.5</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="G17" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="H17" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="I17" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J17" t="n">
         <v>3.8</v>
@@ -2734,7 +2734,7 @@
         <v>3.95</v>
       </c>
       <c r="T17" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U17" t="n">
         <v>1.75</v>
@@ -2743,7 +2743,7 @@
         <v>1.13</v>
       </c>
       <c r="W17" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="X17" t="n">
         <v>14.5</v>
@@ -2755,7 +2755,7 @@
         <v>80</v>
       </c>
       <c r="AA17" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="AB17" t="n">
         <v>8.199999999999999</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G18" t="n">
         <v>2.62</v>
@@ -2839,13 +2839,13 @@
         <v>3.5</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K18" t="n">
         <v>3.1</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="M18" t="n">
         <v>1.12</v>
@@ -2872,25 +2872,25 @@
         <v>2.08</v>
       </c>
       <c r="U18" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="X18" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y18" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z18" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AA18" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AB18" t="n">
         <v>8.199999999999999</v>
@@ -2899,13 +2899,13 @@
         <v>6.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF18" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AG18" t="n">
         <v>12.5</v>
@@ -2917,22 +2917,22 @@
         <v>75</v>
       </c>
       <c r="AJ18" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK18" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AL18" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AM18" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN18" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO18" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19">
@@ -2968,13 +2968,13 @@
         <v>3.65</v>
       </c>
       <c r="H19" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="I19" t="n">
         <v>2.74</v>
       </c>
       <c r="J19" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="K19" t="n">
         <v>3.05</v>
@@ -2983,91 +2983,91 @@
         <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="N19" t="n">
-        <v>2.42</v>
+        <v>2.66</v>
       </c>
       <c r="O19" t="n">
-        <v>1.09</v>
+        <v>1.52</v>
       </c>
       <c r="P19" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.34</v>
+        <v>2.52</v>
       </c>
       <c r="R19" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S19" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T19" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U19" t="n">
-        <v>1.71</v>
+        <v>1.82</v>
       </c>
       <c r="V19" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W19" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X19" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -3235,109 +3235,109 @@
         <v>2.28</v>
       </c>
       <c r="G21" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H21" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I21" t="n">
         <v>4.2</v>
       </c>
       <c r="J21" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K21" t="n">
         <v>3.3</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="P21" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="Q21" t="n">
         <v>2.4</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="G22" t="n">
-        <v>2.54</v>
+        <v>2.72</v>
       </c>
       <c r="H22" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I22" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J22" t="n">
         <v>3</v>
@@ -3385,94 +3385,94 @@
         <v>3.4</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="P22" t="n">
         <v>1.58</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -3505,109 +3505,109 @@
         <v>1.27</v>
       </c>
       <c r="G23" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="I23" t="n">
         <v>1000</v>
       </c>
       <c r="J23" t="n">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="K23" t="n">
         <v>1000</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P23" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
@@ -3637,112 +3637,112 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="P24" t="n">
-        <v>1.24</v>
+        <v>1.61</v>
       </c>
       <c r="Q24" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T24" t="n">
         <v>1.01</v>
       </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -3775,10 +3775,10 @@
         <v>2.72</v>
       </c>
       <c r="G25" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H25" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="I25" t="n">
         <v>3.1</v>
@@ -3805,7 +3805,7 @@
         <v>1.65</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3913,16 +3913,16 @@
         <v>2.42</v>
       </c>
       <c r="H26" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I26" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J26" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="K26" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="L26" t="n">
         <v>1.47</v>
@@ -3958,7 +3958,7 @@
         <v>1.3</v>
       </c>
       <c r="W26" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="X26" t="n">
         <v>13.5</v>
@@ -4042,19 +4042,19 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="G27" t="n">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="H27" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I27" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="J27" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K27" t="n">
         <v>4.2</v>
@@ -4066,34 +4066,34 @@
         <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>2.66</v>
+        <v>3</v>
       </c>
       <c r="O27" t="n">
         <v>1.4</v>
       </c>
       <c r="P27" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R27" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="S27" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="T27" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U27" t="n">
         <v>1.79</v>
       </c>
       <c r="V27" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="W27" t="n">
-        <v>1.76</v>
+        <v>1.86</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4345,7 +4345,7 @@
         <v>1.59</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="R29" t="n">
         <v>1.21</v>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G30" t="n">
         <v>2.8</v>
@@ -4456,13 +4456,13 @@
         <v>2.96</v>
       </c>
       <c r="I30" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="J30" t="n">
         <v>3.3</v>
       </c>
       <c r="K30" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4480,7 +4480,7 @@
         <v>1.9</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4591,7 +4591,7 @@
         <v>6</v>
       </c>
       <c r="I31" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="J31" t="n">
         <v>4.9</v>
@@ -4855,13 +4855,13 @@
         <v>1.6</v>
       </c>
       <c r="G33" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="H33" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="I33" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="J33" t="n">
         <v>3.75</v>
@@ -4990,16 +4990,16 @@
         <v>1.98</v>
       </c>
       <c r="G34" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>2.72</v>
       </c>
       <c r="I34" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J34" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K34" t="n">
         <v>4.6</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="G35" t="n">
-        <v>2.56</v>
+        <v>2.42</v>
       </c>
       <c r="H35" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J35" t="n">
         <v>3.3</v>
       </c>
-      <c r="I35" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.25</v>
-      </c>
       <c r="K35" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -5152,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="G36" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H36" t="n">
         <v>2.32</v>
       </c>
       <c r="I36" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J36" t="n">
-        <v>2.38</v>
+        <v>2.9</v>
       </c>
       <c r="K36" t="n">
-        <v>6.6</v>
+        <v>4.3</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -5287,10 +5287,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -5398,16 +5398,16 @@
         <v>5</v>
       </c>
       <c r="H37" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="I37" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="J37" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K37" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -5530,16 +5530,16 @@
         <v>1.44</v>
       </c>
       <c r="G38" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="H38" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I38" t="n">
+        <v>14</v>
+      </c>
+      <c r="J38" t="n">
         <v>4.2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="J38" t="n">
-        <v>4</v>
       </c>
       <c r="K38" t="n">
         <v>6.2</v>
@@ -5560,7 +5560,7 @@
         <v>2.22</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -5674,13 +5674,13 @@
         <v>3.5</v>
       </c>
       <c r="J39" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K39" t="n">
         <v>3.2</v>
       </c>
       <c r="L39" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="M39" t="n">
         <v>1.11</v>
@@ -5704,7 +5704,7 @@
         <v>4.7</v>
       </c>
       <c r="T39" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="U39" t="n">
         <v>1.84</v>
@@ -5713,31 +5713,31 @@
         <v>1.4</v>
       </c>
       <c r="W39" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="X39" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y39" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z39" t="n">
         <v>28</v>
       </c>
       <c r="AA39" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AB39" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC39" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD39" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AE39" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AF39" t="n">
         <v>18</v>
@@ -5746,10 +5746,10 @@
         <v>14.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AI39" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AJ39" t="n">
         <v>46</v>
@@ -5758,7 +5758,7 @@
         <v>40</v>
       </c>
       <c r="AL39" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM39" t="n">
         <v>190</v>
@@ -5767,7 +5767,7 @@
         <v>40</v>
       </c>
       <c r="AO39" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40">
@@ -5803,10 +5803,10 @@
         <v>3.25</v>
       </c>
       <c r="H40" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="I40" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="J40" t="n">
         <v>2.88</v>
@@ -5827,10 +5827,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -5932,13 +5932,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="G41" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="H41" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I41" t="n">
         <v>1000</v>
@@ -5968,10 +5968,10 @@
         <v>1.33</v>
       </c>
       <c r="R41" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="S41" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="T41" t="n">
         <v>1.01</v>
@@ -6067,22 +6067,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="G42" t="n">
         <v>4.8</v>
       </c>
       <c r="H42" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="I42" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="J42" t="n">
-        <v>2.84</v>
+        <v>2.72</v>
       </c>
       <c r="K42" t="n">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -6097,10 +6097,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -6208,7 +6208,7 @@
         <v>2.32</v>
       </c>
       <c r="H43" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I43" t="n">
         <v>4.3</v>
@@ -6232,7 +6232,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="Q43" t="n">
         <v>1.01</v>
@@ -6340,16 +6340,16 @@
         <v>1.64</v>
       </c>
       <c r="G44" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="H44" t="n">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="I44" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J44" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="K44" t="n">
         <v>4.2</v>
@@ -6367,7 +6367,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q44" t="n">
         <v>2.08</v>
@@ -6478,16 +6478,16 @@
         <v>5.6</v>
       </c>
       <c r="H45" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="I45" t="n">
         <v>1.79</v>
       </c>
-      <c r="I45" t="n">
-        <v>1.8</v>
-      </c>
       <c r="J45" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K45" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y45" t="n">
         <v>7.6</v>
@@ -6565,7 +6565,7 @@
         <v>180</v>
       </c>
       <c r="AK45" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AL45" t="n">
         <v>110</v>
@@ -6613,7 +6613,7 @@
         <v>1.77</v>
       </c>
       <c r="H46" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I46" t="n">
         <v>5.6</v>
@@ -6652,7 +6652,7 @@
         <v>1.96</v>
       </c>
       <c r="U46" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -6667,7 +6667,7 @@
         <v>17</v>
       </c>
       <c r="Z46" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AA46" t="n">
         <v>170</v>
@@ -6784,10 +6784,10 @@
         <v>5.5</v>
       </c>
       <c r="T47" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="U47" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="V47" t="n">
         <v>1.65</v>
@@ -6877,7 +6877,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="G48" t="n">
         <v>4.9</v>
@@ -6886,7 +6886,7 @@
         <v>1.79</v>
       </c>
       <c r="I48" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="J48" t="n">
         <v>4.2</v>
@@ -6916,7 +6916,7 @@
         <v>1.5</v>
       </c>
       <c r="S48" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="T48" t="n">
         <v>1.74</v>
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="X48" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y48" t="n">
         <v>10.5</v>
@@ -6940,13 +6940,13 @@
         <v>12</v>
       </c>
       <c r="AA48" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AB48" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC48" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD48" t="n">
         <v>9.4</v>
@@ -6955,7 +6955,7 @@
         <v>16.5</v>
       </c>
       <c r="AF48" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AG48" t="n">
         <v>19</v>
@@ -6970,7 +6970,7 @@
         <v>110</v>
       </c>
       <c r="AK48" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AL48" t="n">
         <v>55</v>
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="G49" t="n">
         <v>2.94</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-08.xlsx
@@ -721,7 +721,7 @@
         <v>2.24</v>
       </c>
       <c r="X2" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y2" t="n">
         <v>21</v>
@@ -733,7 +733,7 @@
         <v>200</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC2" t="n">
         <v>10</v>
@@ -760,7 +760,7 @@
         <v>21</v>
       </c>
       <c r="AK2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL2" t="n">
         <v>55</v>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="H3" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="I3" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="J3" t="n">
-        <v>2.54</v>
+        <v>1.09</v>
       </c>
       <c r="K3" t="n">
-        <v>12</v>
+        <v>5.7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P3" t="n">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R3" t="n">
         <v>1.57</v>
       </c>
       <c r="S3" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="V3" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="X3" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB3" t="n">
         <v>38</v>
       </c>
-      <c r="Y3" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>46</v>
-      </c>
       <c r="AC3" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AF3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>240</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL3" t="n">
         <v>95</v>
       </c>
-      <c r="AG3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>100</v>
-      </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="4">
@@ -1075,16 +1075,16 @@
         <v>1.29</v>
       </c>
       <c r="G5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="H5" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="I5" t="n">
         <v>14</v>
       </c>
       <c r="J5" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K5" t="n">
         <v>6.8</v>
@@ -1096,16 +1096,16 @@
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="O5" t="n">
         <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R5" t="n">
         <v>1.54</v>
@@ -1123,7 +1123,7 @@
         <v>1.07</v>
       </c>
       <c r="W5" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="X5" t="n">
         <v>29</v>
@@ -1210,7 +1210,7 @@
         <v>1.64</v>
       </c>
       <c r="G6" t="n">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
       <c r="H6" t="n">
         <v>5.5</v>
@@ -1219,13 +1219,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>2.72</v>
+        <v>3.15</v>
       </c>
       <c r="K6" t="n">
         <v>4.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
@@ -1246,7 +1246,7 @@
         <v>1.26</v>
       </c>
       <c r="S6" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="T6" t="n">
         <v>2.02</v>
@@ -1258,7 +1258,7 @@
         <v>1.14</v>
       </c>
       <c r="W6" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1525,7 +1525,7 @@
         <v>1.81</v>
       </c>
       <c r="V8" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W8" t="n">
         <v>1.46</v>
@@ -1615,7 +1615,7 @@
         <v>2.28</v>
       </c>
       <c r="G9" t="n">
-        <v>2.64</v>
+        <v>2.76</v>
       </c>
       <c r="H9" t="n">
         <v>3.4</v>
@@ -1642,13 +1642,13 @@
         <v>1.46</v>
       </c>
       <c r="P9" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="Q9" t="n">
         <v>2.2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S9" t="n">
         <v>4.2</v>
@@ -1660,7 +1660,7 @@
         <v>1.71</v>
       </c>
       <c r="V9" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="W9" t="n">
         <v>1.61</v>
@@ -1765,13 +1765,13 @@
         <v>3.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M10" t="n">
         <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="O10" t="n">
         <v>1.53</v>
@@ -1786,7 +1786,7 @@
         <v>1.18</v>
       </c>
       <c r="S10" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="T10" t="n">
         <v>2.08</v>
@@ -1801,7 +1801,7 @@
         <v>1.65</v>
       </c>
       <c r="X10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y10" t="n">
         <v>13</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="G11" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="H11" t="n">
-        <v>1.04</v>
+        <v>1.73</v>
       </c>
       <c r="I11" t="n">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="J11" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K11" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1915,13 +1915,13 @@
         <v>1.86</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="R11" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S11" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="T11" t="n">
         <v>1.01</v>
@@ -1930,10 +1930,10 @@
         <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="W11" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2020,7 +2020,7 @@
         <v>1.71</v>
       </c>
       <c r="G12" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="H12" t="n">
         <v>4.5</v>
@@ -2068,7 +2068,7 @@
         <v>1.16</v>
       </c>
       <c r="W12" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X12" t="n">
         <v>15.5</v>
@@ -2290,10 +2290,10 @@
         <v>2.14</v>
       </c>
       <c r="G14" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="H14" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I14" t="n">
         <v>4.2</v>
@@ -2320,13 +2320,13 @@
         <v>1.76</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R14" t="n">
         <v>1.28</v>
       </c>
       <c r="S14" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T14" t="n">
         <v>1.85</v>
@@ -2338,34 +2338,34 @@
         <v>1.31</v>
       </c>
       <c r="W14" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="X14" t="n">
         <v>14.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA14" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AB14" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AC14" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AE14" t="n">
         <v>65</v>
       </c>
       <c r="AF14" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG14" t="n">
         <v>13.5</v>
@@ -2377,7 +2377,7 @@
         <v>75</v>
       </c>
       <c r="AJ14" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AK14" t="n">
         <v>32</v>
@@ -2557,25 +2557,25 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G16" t="n">
         <v>2.4</v>
       </c>
       <c r="H16" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I16" t="n">
         <v>3.95</v>
       </c>
       <c r="J16" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K16" t="n">
         <v>3.6</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M16" t="n">
         <v>1.07</v>
@@ -2590,7 +2590,7 @@
         <v>1.87</v>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="R16" t="n">
         <v>1.33</v>
@@ -2608,10 +2608,10 @@
         <v>1.34</v>
       </c>
       <c r="W16" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="X16" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y16" t="n">
         <v>16.5</v>
@@ -2620,10 +2620,10 @@
         <v>32</v>
       </c>
       <c r="AA16" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AB16" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC16" t="n">
         <v>9.199999999999999</v>
@@ -2638,7 +2638,7 @@
         <v>17</v>
       </c>
       <c r="AG16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
         <v>21</v>
@@ -2692,25 +2692,25 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="G17" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="I17" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="J17" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K17" t="n">
         <v>4.4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M17" t="n">
         <v>1.08</v>
@@ -2734,7 +2734,7 @@
         <v>3.95</v>
       </c>
       <c r="T17" t="n">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="U17" t="n">
         <v>1.75</v>
@@ -2743,7 +2743,7 @@
         <v>1.13</v>
       </c>
       <c r="W17" t="n">
-        <v>2.44</v>
+        <v>2.6</v>
       </c>
       <c r="X17" t="n">
         <v>14.5</v>
@@ -2758,7 +2758,7 @@
         <v>330</v>
       </c>
       <c r="AB17" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC17" t="n">
         <v>11</v>
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G18" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="H18" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I18" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J18" t="n">
         <v>3.05</v>
@@ -2851,7 +2851,7 @@
         <v>1.12</v>
       </c>
       <c r="N18" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="O18" t="n">
         <v>1.52</v>
@@ -2869,28 +2869,28 @@
         <v>5.2</v>
       </c>
       <c r="T18" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U18" t="n">
         <v>1.87</v>
       </c>
       <c r="V18" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W18" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="X18" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Y18" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z18" t="n">
         <v>21</v>
       </c>
       <c r="AA18" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB18" t="n">
         <v>8.199999999999999</v>
@@ -2899,7 +2899,7 @@
         <v>6.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE18" t="n">
         <v>50</v>
@@ -2911,28 +2911,28 @@
         <v>12.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI18" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ18" t="n">
         <v>38</v>
       </c>
       <c r="AK18" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL18" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM18" t="n">
         <v>170</v>
       </c>
       <c r="AN18" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AO18" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
@@ -2986,22 +2986,22 @@
         <v>1.12</v>
       </c>
       <c r="N19" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="O19" t="n">
         <v>1.52</v>
       </c>
       <c r="P19" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="R19" t="n">
         <v>1.19</v>
       </c>
       <c r="S19" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="T19" t="n">
         <v>2.04</v>
@@ -3010,7 +3010,7 @@
         <v>1.82</v>
       </c>
       <c r="V19" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W19" t="n">
         <v>1.38</v>
@@ -3256,7 +3256,7 @@
         <v>1.11</v>
       </c>
       <c r="N21" t="n">
-        <v>2.48</v>
+        <v>2.82</v>
       </c>
       <c r="O21" t="n">
         <v>1.47</v>
@@ -3274,7 +3274,7 @@
         <v>4.7</v>
       </c>
       <c r="T21" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="U21" t="n">
         <v>1.84</v>
@@ -3283,7 +3283,7 @@
         <v>1.33</v>
       </c>
       <c r="W21" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X21" t="n">
         <v>9.800000000000001</v>
@@ -3307,13 +3307,13 @@
         <v>17</v>
       </c>
       <c r="AE21" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF21" t="n">
         <v>13</v>
       </c>
       <c r="AG21" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH21" t="n">
         <v>27</v>
@@ -3367,31 +3367,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="G22" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="H22" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I22" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K22" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L22" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N22" t="n">
-        <v>1.01</v>
+        <v>2.7</v>
       </c>
       <c r="O22" t="n">
         <v>1.47</v>
@@ -3400,79 +3400,79 @@
         <v>1.58</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="R22" t="n">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="S22" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T22" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="U22" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="V22" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W22" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="X22" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23">
@@ -3505,43 +3505,43 @@
         <v>1.27</v>
       </c>
       <c r="G23" t="n">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="H23" t="n">
-        <v>3.3</v>
+        <v>13.5</v>
       </c>
       <c r="I23" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="J23" t="n">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="K23" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="L23" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="n">
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="O23" t="n">
         <v>1.23</v>
       </c>
       <c r="P23" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.59</v>
+        <v>1.68</v>
       </c>
       <c r="R23" t="n">
         <v>1.37</v>
       </c>
       <c r="S23" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T23" t="n">
         <v>1.01</v>
@@ -3550,10 +3550,10 @@
         <v>1.01</v>
       </c>
       <c r="V23" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="W23" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -3637,112 +3637,112 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="G24" t="n">
-        <v>2.72</v>
+        <v>2.54</v>
       </c>
       <c r="H24" t="n">
         <v>3.35</v>
       </c>
       <c r="I24" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="J24" t="n">
         <v>2.92</v>
       </c>
       <c r="K24" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>1.61</v>
+        <v>3.15</v>
       </c>
       <c r="O24" t="n">
-        <v>1.07</v>
+        <v>1.39</v>
       </c>
       <c r="P24" t="n">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="R24" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="S24" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="T24" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="U24" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="V24" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="W24" t="n">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25">
@@ -3775,13 +3775,13 @@
         <v>2.72</v>
       </c>
       <c r="G25" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H25" t="n">
         <v>2.76</v>
       </c>
       <c r="I25" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J25" t="n">
         <v>3.05</v>
@@ -3790,16 +3790,16 @@
         <v>3.45</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P25" t="n">
         <v>1.65</v>
@@ -3808,76 +3808,76 @@
         <v>2.24</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN25" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AO25" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26">
@@ -3907,25 +3907,25 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.1</v>
+        <v>1.96</v>
       </c>
       <c r="G26" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H26" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I26" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="J26" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="K26" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="L26" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="M26" t="n">
         <v>1.08</v>
@@ -3934,7 +3934,7 @@
         <v>2.96</v>
       </c>
       <c r="O26" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P26" t="n">
         <v>1.67</v>
@@ -3946,7 +3946,7 @@
         <v>1.25</v>
       </c>
       <c r="S26" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="T26" t="n">
         <v>1.88</v>
@@ -3955,10 +3955,10 @@
         <v>1.89</v>
       </c>
       <c r="V26" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="W26" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="X26" t="n">
         <v>13.5</v>
@@ -3970,7 +3970,7 @@
         <v>34</v>
       </c>
       <c r="AA26" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AB26" t="n">
         <v>10</v>
@@ -3979,7 +3979,7 @@
         <v>9</v>
       </c>
       <c r="AD26" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AE26" t="n">
         <v>70</v>
@@ -3988,31 +3988,31 @@
         <v>16.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH26" t="n">
         <v>25</v>
       </c>
       <c r="AI26" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ26" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AK26" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AL26" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM26" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN26" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AO26" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
@@ -4042,112 +4042,112 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="G27" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="H27" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K27" t="n">
         <v>3.65</v>
       </c>
-      <c r="I27" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K27" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M27" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O27" t="n">
         <v>1.4</v>
       </c>
       <c r="P27" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="R27" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S27" t="n">
         <v>4.1</v>
       </c>
       <c r="T27" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="U27" t="n">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="V27" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W27" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
@@ -4312,16 +4312,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G29" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="H29" t="n">
         <v>3.35</v>
       </c>
       <c r="I29" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J29" t="n">
         <v>3.05</v>
@@ -4330,7 +4330,7 @@
         <v>3.1</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
         <v>1.13</v>
@@ -4360,22 +4360,22 @@
         <v>1.87</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="X29" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z29" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AA29" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB29" t="n">
         <v>8.199999999999999</v>
@@ -4384,16 +4384,16 @@
         <v>6.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE29" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF29" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG29" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH29" t="n">
         <v>22</v>
@@ -4402,22 +4402,22 @@
         <v>75</v>
       </c>
       <c r="AJ29" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK29" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL29" t="n">
         <v>65</v>
       </c>
       <c r="AM29" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AN29" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AO29" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30">
@@ -4456,25 +4456,25 @@
         <v>2.96</v>
       </c>
       <c r="I30" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J30" t="n">
         <v>3.3</v>
       </c>
       <c r="K30" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P30" t="n">
         <v>1.9</v>
@@ -4483,76 +4483,76 @@
         <v>1.88</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="G31" t="n">
         <v>1.55</v>
@@ -4594,100 +4594,100 @@
         <v>6.8</v>
       </c>
       <c r="J31" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K31" t="n">
         <v>5.4</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="P31" t="n">
         <v>2.66</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL31" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM31" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
@@ -4735,94 +4735,94 @@
         <v>4.3</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P32" t="n">
         <v>1.91</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.9</v>
+        <v>1.77</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Z32" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AK32" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL32" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33">
@@ -4858,10 +4858,10 @@
         <v>1.65</v>
       </c>
       <c r="H33" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="I33" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J33" t="n">
         <v>3.75</v>
@@ -4870,16 +4870,16 @@
         <v>4.2</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P33" t="n">
         <v>1.66</v>
@@ -4888,76 +4888,76 @@
         <v>2.28</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z33" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AK33" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AL33" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM33" t="n">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="AN33" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AO33" t="n">
-        <v>0</v>
+        <v>380</v>
       </c>
     </row>
     <row r="34">
@@ -5005,16 +5005,16 @@
         <v>4.6</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P34" t="n">
         <v>1.95</v>
@@ -5023,76 +5023,76 @@
         <v>1.83</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35">
@@ -5122,34 +5122,34 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G35" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H35" t="n">
         <v>3.45</v>
       </c>
       <c r="I35" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="J35" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="K35" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P35" t="n">
         <v>1.7</v>
@@ -5158,76 +5158,76 @@
         <v>2.14</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36">
@@ -5263,7 +5263,7 @@
         <v>3.45</v>
       </c>
       <c r="H36" t="n">
-        <v>2.32</v>
+        <v>2.54</v>
       </c>
       <c r="I36" t="n">
         <v>3.25</v>
@@ -5275,16 +5275,16 @@
         <v>4.3</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P36" t="n">
         <v>1.81</v>
@@ -5293,76 +5293,76 @@
         <v>1.96</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37">
@@ -5398,28 +5398,28 @@
         <v>5</v>
       </c>
       <c r="H37" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="I37" t="n">
         <v>1.88</v>
       </c>
       <c r="J37" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K37" t="n">
         <v>4.3</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="P37" t="n">
         <v>2.18</v>
@@ -5428,76 +5428,76 @@
         <v>1.7</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38">
@@ -5533,10 +5533,10 @@
         <v>1.62</v>
       </c>
       <c r="H38" t="n">
-        <v>4.3</v>
+        <v>6</v>
       </c>
       <c r="I38" t="n">
-        <v>14</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J38" t="n">
         <v>4.2</v>
@@ -5545,16 +5545,16 @@
         <v>6.2</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P38" t="n">
         <v>2.22</v>
@@ -5563,76 +5563,76 @@
         <v>1.57</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Z38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH38" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ38" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AK38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="39">
@@ -5680,7 +5680,7 @@
         <v>3.2</v>
       </c>
       <c r="L39" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="M39" t="n">
         <v>1.11</v>
@@ -5701,7 +5701,7 @@
         <v>1.21</v>
       </c>
       <c r="S39" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T39" t="n">
         <v>2</v>
@@ -5764,7 +5764,7 @@
         <v>190</v>
       </c>
       <c r="AN39" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AO39" t="n">
         <v>70</v>
@@ -5830,7 +5830,7 @@
         <v>1.83</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -6067,23 +6067,23 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="G42" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K42" t="n">
         <v>4.8</v>
       </c>
-      <c r="H42" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="K42" t="n">
-        <v>5.5</v>
-      </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
@@ -6097,10 +6097,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.5</v>
+        <v>2.84</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -6205,7 +6205,7 @@
         <v>2.16</v>
       </c>
       <c r="G43" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="H43" t="n">
         <v>3.85</v>
@@ -6232,10 +6232,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -6343,7 +6343,7 @@
         <v>1.75</v>
       </c>
       <c r="H44" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I44" t="n">
         <v>7</v>
@@ -6514,7 +6514,7 @@
         <v>4</v>
       </c>
       <c r="T45" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U45" t="n">
         <v>1.92</v>
@@ -6607,16 +6607,16 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="G46" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="H46" t="n">
         <v>5.4</v>
       </c>
       <c r="I46" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J46" t="n">
         <v>4</v>
@@ -6661,10 +6661,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z46" t="n">
         <v>48</v>
@@ -6682,7 +6682,7 @@
         <v>21</v>
       </c>
       <c r="AE46" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF46" t="n">
         <v>10.5</v>
@@ -6709,7 +6709,7 @@
         <v>150</v>
       </c>
       <c r="AN46" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO46" t="n">
         <v>120</v>
@@ -6760,7 +6760,7 @@
         <v>3.15</v>
       </c>
       <c r="L47" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M47" t="n">
         <v>1.11</v>
@@ -6781,7 +6781,7 @@
         <v>1.17</v>
       </c>
       <c r="S47" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="T47" t="n">
         <v>2.1</v>
@@ -6817,7 +6817,7 @@
         <v>15</v>
       </c>
       <c r="AE47" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AF47" t="n">
         <v>32</v>
@@ -6829,13 +6829,13 @@
         <v>29</v>
       </c>
       <c r="AI47" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AJ47" t="n">
         <v>110</v>
       </c>
       <c r="AK47" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL47" t="n">
         <v>110</v>
@@ -6880,13 +6880,13 @@
         <v>4.8</v>
       </c>
       <c r="G48" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H48" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="I48" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="J48" t="n">
         <v>4.2</v>
@@ -6910,13 +6910,13 @@
         <v>2.26</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R48" t="n">
         <v>1.5</v>
       </c>
       <c r="S48" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="T48" t="n">
         <v>1.74</v>
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="X48" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y48" t="n">
         <v>10.5</v>
@@ -6940,10 +6940,10 @@
         <v>12</v>
       </c>
       <c r="AA48" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AB48" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC48" t="n">
         <v>9.199999999999999</v>
@@ -6967,7 +6967,7 @@
         <v>30</v>
       </c>
       <c r="AJ48" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AK48" t="n">
         <v>65</v>
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="G49" t="n">
         <v>2.94</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO49"/>
+  <dimension ref="A1:AO53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="G2" t="n">
         <v>1.8</v>
@@ -679,19 +679,19 @@
         <v>6.4</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K2" t="n">
         <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O2" t="n">
         <v>1.37</v>
@@ -709,7 +709,7 @@
         <v>3.85</v>
       </c>
       <c r="T2" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
         <v>1.86</v>
@@ -733,7 +733,7 @@
         <v>200</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC2" t="n">
         <v>10</v>
@@ -811,10 +811,10 @@
         <v>1.43</v>
       </c>
       <c r="I3" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="J3" t="n">
-        <v>1.09</v>
+        <v>3.95</v>
       </c>
       <c r="K3" t="n">
         <v>5.7</v>
@@ -835,13 +835,13 @@
         <v>2.42</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="R3" t="n">
         <v>1.57</v>
       </c>
       <c r="S3" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="T3" t="n">
         <v>1.74</v>
@@ -850,7 +850,7 @@
         <v>2.06</v>
       </c>
       <c r="V3" t="n">
-        <v>2.58</v>
+        <v>2.8</v>
       </c>
       <c r="W3" t="n">
         <v>1.11</v>
@@ -862,7 +862,7 @@
         <v>13.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA3" t="n">
         <v>16.5</v>
@@ -1084,7 +1084,7 @@
         <v>14</v>
       </c>
       <c r="J5" t="n">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="K5" t="n">
         <v>6.8</v>
@@ -1111,7 +1111,7 @@
         <v>1.54</v>
       </c>
       <c r="S5" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T5" t="n">
         <v>2.02</v>
@@ -1210,19 +1210,19 @@
         <v>1.64</v>
       </c>
       <c r="G6" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="H6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>3.15</v>
+        <v>2.72</v>
       </c>
       <c r="K6" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L6" t="n">
         <v>1.44</v>
@@ -1258,7 +1258,7 @@
         <v>1.14</v>
       </c>
       <c r="W6" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G7" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="H7" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="I7" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="J7" t="n">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,13 +1366,13 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="O7" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P7" t="n">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
       <c r="Q7" t="n">
         <v>2.24</v>
@@ -1381,7 +1381,7 @@
         <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="T7" t="n">
         <v>1.01</v>
@@ -1390,10 +1390,10 @@
         <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W7" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1480,58 +1480,58 @@
         <v>2.62</v>
       </c>
       <c r="G8" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
         <v>2.74</v>
       </c>
       <c r="I8" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="J8" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O8" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P8" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="R8" t="n">
         <v>1.26</v>
       </c>
       <c r="S8" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T8" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="U8" t="n">
-        <v>1.81</v>
+        <v>1.96</v>
       </c>
       <c r="V8" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="W8" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X8" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y8" t="n">
         <v>12.5</v>
@@ -1546,7 +1546,7 @@
         <v>12</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
         <v>16</v>
@@ -1579,10 +1579,10 @@
         <v>150</v>
       </c>
       <c r="AN8" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AO8" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
@@ -1615,7 +1615,7 @@
         <v>2.28</v>
       </c>
       <c r="G9" t="n">
-        <v>2.76</v>
+        <v>2.62</v>
       </c>
       <c r="H9" t="n">
         <v>3.4</v>
@@ -1624,13 +1624,13 @@
         <v>4.4</v>
       </c>
       <c r="J9" t="n">
-        <v>2.76</v>
+        <v>2.96</v>
       </c>
       <c r="K9" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="L9" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M9" t="n">
         <v>1.09</v>
@@ -1654,16 +1654,16 @@
         <v>4.2</v>
       </c>
       <c r="T9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U9" t="n">
         <v>1.83</v>
       </c>
-      <c r="U9" t="n">
-        <v>1.71</v>
-      </c>
       <c r="V9" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W9" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="X9" t="n">
         <v>970</v>
@@ -1756,10 +1756,10 @@
         <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="J10" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="K10" t="n">
         <v>3.4</v>
@@ -1768,31 +1768,31 @@
         <v>1.49</v>
       </c>
       <c r="M10" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N10" t="n">
         <v>2.44</v>
       </c>
       <c r="O10" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="P10" t="n">
         <v>1.48</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="R10" t="n">
         <v>1.18</v>
       </c>
       <c r="S10" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="T10" t="n">
         <v>2.08</v>
       </c>
       <c r="U10" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="V10" t="n">
         <v>1.28</v>
@@ -1804,7 +1804,7 @@
         <v>9</v>
       </c>
       <c r="Y10" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Z10" t="n">
         <v>34</v>
@@ -1816,37 +1816,37 @@
         <v>8.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE10" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AF10" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI10" t="n">
         <v>120</v>
       </c>
       <c r="AJ10" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK10" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AL10" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AM10" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AN10" t="n">
         <v>44</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="G11" t="n">
         <v>6.2</v>
@@ -1891,7 +1891,7 @@
         <v>1.73</v>
       </c>
       <c r="I11" t="n">
-        <v>1.91</v>
+        <v>2.06</v>
       </c>
       <c r="J11" t="n">
         <v>3.35</v>
@@ -1906,19 +1906,19 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="O11" t="n">
         <v>1.01</v>
       </c>
       <c r="P11" t="n">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="Q11" t="n">
         <v>1.76</v>
       </c>
       <c r="R11" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="S11" t="n">
         <v>1.76</v>
@@ -1930,7 +1930,7 @@
         <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>2.08</v>
+        <v>1.94</v>
       </c>
       <c r="W11" t="n">
         <v>1.19</v>
@@ -2068,7 +2068,7 @@
         <v>1.16</v>
       </c>
       <c r="W12" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="X12" t="n">
         <v>15.5</v>
@@ -2164,7 +2164,7 @@
         <v>4.5</v>
       </c>
       <c r="J13" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="K13" t="n">
         <v>4.8</v>
@@ -2305,7 +2305,7 @@
         <v>3.4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
@@ -2392,7 +2392,7 @@
         <v>25</v>
       </c>
       <c r="AO14" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Mantova</t>
+          <t>AC Monza</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Reggiana</t>
+          <t>Sudtirol</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.24</v>
+        <v>1.57</v>
       </c>
       <c r="G16" t="n">
-        <v>2.4</v>
+        <v>1.62</v>
       </c>
       <c r="H16" t="n">
-        <v>3.45</v>
+        <v>6.8</v>
       </c>
       <c r="I16" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="J16" t="n">
         <v>3.95</v>
       </c>
-      <c r="J16" t="n">
-        <v>3.25</v>
-      </c>
       <c r="K16" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="O16" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="P16" t="n">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.99</v>
+        <v>2.14</v>
       </c>
       <c r="R16" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="S16" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="T16" t="n">
-        <v>1.76</v>
+        <v>2.12</v>
       </c>
       <c r="U16" t="n">
-        <v>2.12</v>
+        <v>1.75</v>
       </c>
       <c r="V16" t="n">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="W16" t="n">
-        <v>1.71</v>
+        <v>2.6</v>
       </c>
       <c r="X16" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.5</v>
+        <v>24</v>
       </c>
       <c r="Z16" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>330</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD16" t="n">
         <v>32</v>
       </c>
-      <c r="AA16" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB16" t="n">
+      <c r="AE16" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF16" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC16" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD16" t="n">
+      <c r="AG16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>18.5</v>
       </c>
-      <c r="AE16" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH16" t="n">
+      <c r="AK16" t="n">
         <v>21</v>
       </c>
-      <c r="AI16" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>29</v>
-      </c>
       <c r="AL16" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AM16" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="AN16" t="n">
-        <v>22</v>
+        <v>12.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>55</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>AC Monza</t>
+          <t>Mantova</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sudtirol</t>
+          <t>Reggiana</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.57</v>
+        <v>2.28</v>
       </c>
       <c r="G17" t="n">
-        <v>1.62</v>
+        <v>2.46</v>
       </c>
       <c r="H17" t="n">
-        <v>6.8</v>
+        <v>3.4</v>
       </c>
       <c r="I17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="X17" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC17" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="J17" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W17" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="X17" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>330</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>11</v>
-      </c>
       <c r="AD17" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="AE17" t="n">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="AF17" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="AG17" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>34</v>
       </c>
-      <c r="AI17" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AK17" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AL17" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AM17" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="AN17" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AO17" t="n">
-        <v>290</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18">
@@ -2851,10 +2851,10 @@
         <v>1.12</v>
       </c>
       <c r="N18" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="O18" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P18" t="n">
         <v>1.59</v>
@@ -2872,7 +2872,7 @@
         <v>2.1</v>
       </c>
       <c r="U18" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V18" t="n">
         <v>1.41</v>
@@ -2884,7 +2884,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z18" t="n">
         <v>21</v>
@@ -2971,7 +2971,7 @@
         <v>2.52</v>
       </c>
       <c r="I19" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="J19" t="n">
         <v>2.9</v>
@@ -2986,19 +2986,19 @@
         <v>1.12</v>
       </c>
       <c r="N19" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="O19" t="n">
         <v>1.52</v>
       </c>
       <c r="P19" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="R19" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S19" t="n">
         <v>5.1</v>
@@ -3019,7 +3019,7 @@
         <v>10.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z19" t="n">
         <v>18.5</v>
@@ -3028,16 +3028,16 @@
         <v>50</v>
       </c>
       <c r="AB19" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE19" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF19" t="n">
         <v>27</v>
@@ -3046,10 +3046,10 @@
         <v>19</v>
       </c>
       <c r="AH19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI19" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AJ19" t="n">
         <v>90</v>
@@ -3058,16 +3058,16 @@
         <v>65</v>
       </c>
       <c r="AL19" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AM19" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN19" t="n">
         <v>85</v>
       </c>
       <c r="AO19" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
@@ -3244,13 +3244,13 @@
         <v>4.2</v>
       </c>
       <c r="J21" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K21" t="n">
         <v>3.3</v>
       </c>
       <c r="L21" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
         <v>1.11</v>
@@ -3265,7 +3265,7 @@
         <v>1.61</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="R21" t="n">
         <v>1.22</v>
@@ -3280,13 +3280,13 @@
         <v>1.84</v>
       </c>
       <c r="V21" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W21" t="n">
         <v>1.74</v>
       </c>
       <c r="X21" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Y21" t="n">
         <v>12</v>
@@ -3295,7 +3295,7 @@
         <v>27</v>
       </c>
       <c r="AA21" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AB21" t="n">
         <v>7.8</v>
@@ -3319,22 +3319,22 @@
         <v>27</v>
       </c>
       <c r="AI21" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ21" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AK21" t="n">
         <v>30</v>
       </c>
       <c r="AL21" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM21" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO21" t="n">
         <v>85</v>
@@ -3343,7 +3343,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Uta Arad</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ACS Petrolul 52</t>
+          <t>Slavia Sofia</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.32</v>
+        <v>1.27</v>
       </c>
       <c r="G22" t="n">
-        <v>2.62</v>
+        <v>1.35</v>
       </c>
       <c r="H22" t="n">
-        <v>3.4</v>
+        <v>13.5</v>
       </c>
       <c r="I22" t="n">
-        <v>3.85</v>
+        <v>18.5</v>
       </c>
       <c r="J22" t="n">
-        <v>2.98</v>
+        <v>5.5</v>
       </c>
       <c r="K22" t="n">
-        <v>3.45</v>
+        <v>6.8</v>
       </c>
       <c r="L22" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>2.7</v>
+        <v>2.16</v>
       </c>
       <c r="O22" t="n">
-        <v>1.47</v>
+        <v>1.23</v>
       </c>
       <c r="P22" t="n">
-        <v>1.58</v>
+        <v>2.16</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.4</v>
+        <v>1.68</v>
       </c>
       <c r="R22" t="n">
-        <v>1.21</v>
+        <v>1.37</v>
       </c>
       <c r="S22" t="n">
-        <v>4.2</v>
+        <v>2.48</v>
       </c>
       <c r="T22" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="U22" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>1.35</v>
+        <v>1.05</v>
       </c>
       <c r="W22" t="n">
-        <v>1.62</v>
+        <v>3.9</v>
       </c>
       <c r="X22" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD22" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI22" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3493,127 +3493,127 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Farense</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Slavia Sofia</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="F23" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R23" t="n">
         <v>1.27</v>
       </c>
-      <c r="G23" t="n">
+      <c r="S23" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V23" t="n">
         <v>1.35</v>
       </c>
-      <c r="H23" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="I23" t="n">
+      <c r="W23" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="X23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD23" t="n">
         <v>18.5</v>
       </c>
-      <c r="J23" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K23" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W23" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="X23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>1000</v>
-      </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,127 +3628,127 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Farense</t>
+          <t>Uta Arad</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>ACS Petrolul 52</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="G24" t="n">
         <v>2.54</v>
       </c>
       <c r="H24" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J24" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>3.95</v>
+        <v>3.45</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M24" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N24" t="n">
-        <v>3.15</v>
+        <v>2.72</v>
       </c>
       <c r="O24" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="P24" t="n">
-        <v>1.72</v>
+        <v>1.58</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.12</v>
+        <v>2.4</v>
       </c>
       <c r="R24" t="n">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="S24" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="T24" t="n">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="U24" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="V24" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W24" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="X24" t="n">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="Y24" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="Z24" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AA24" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AB24" t="n">
-        <v>11</v>
+        <v>8.4</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AE24" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AF24" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AG24" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH24" t="n">
         <v>23</v>
       </c>
       <c r="AI24" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AJ24" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AK24" t="n">
         <v>34</v>
       </c>
       <c r="AL24" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AM24" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="AN24" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AO24" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Azerbaijan Premier League</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3763,127 +3763,127 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Panserraikos</t>
+          <t>FC Sabah</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Panaitolikos</t>
+          <t>Neftchi Baku</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.72</v>
+        <v>1.99</v>
       </c>
       <c r="G25" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N25" t="n">
         <v>3.05</v>
       </c>
-      <c r="H25" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N25" t="n">
-        <v>2.92</v>
-      </c>
       <c r="O25" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="P25" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="R25" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="S25" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="T25" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="U25" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V25" t="n">
-        <v>1.48</v>
+        <v>1.27</v>
       </c>
       <c r="W25" t="n">
-        <v>1.49</v>
+        <v>1.8</v>
       </c>
       <c r="X25" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Z25" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="AA25" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AB25" t="n">
         <v>10</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="AE25" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="AF25" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AI25" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="AJ25" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL25" t="n">
         <v>55</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>65</v>
       </c>
       <c r="AM25" t="n">
         <v>160</v>
       </c>
       <c r="AN25" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AO25" t="n">
-        <v>42</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Azerbaijan Premier League</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>FC Sabah</t>
+          <t>Panserraikos</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Neftchi Baku</t>
+          <t>Panaitolikos</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.96</v>
+        <v>2.72</v>
       </c>
       <c r="G26" t="n">
-        <v>2.4</v>
+        <v>3.05</v>
       </c>
       <c r="H26" t="n">
-        <v>3.7</v>
+        <v>2.76</v>
       </c>
       <c r="I26" t="n">
-        <v>4.9</v>
+        <v>3.05</v>
       </c>
       <c r="J26" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="K26" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="L26" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="M26" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N26" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="O26" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P26" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="R26" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S26" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="T26" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U26" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="V26" t="n">
-        <v>1.26</v>
+        <v>1.48</v>
       </c>
       <c r="W26" t="n">
-        <v>1.74</v>
+        <v>1.49</v>
       </c>
       <c r="X26" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="Y26" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Z26" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA26" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="AB26" t="n">
         <v>10</v>
       </c>
       <c r="AC26" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>22</v>
+        <v>13.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="AF26" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AG26" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AI26" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AJ26" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AK26" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="AL26" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AM26" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN26" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="AO26" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
@@ -4045,7 +4045,7 @@
         <v>1.98</v>
       </c>
       <c r="G27" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H27" t="n">
         <v>4.2</v>
@@ -4066,7 +4066,7 @@
         <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O27" t="n">
         <v>1.4</v>
@@ -4093,13 +4093,13 @@
         <v>1.27</v>
       </c>
       <c r="W27" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="X27" t="n">
         <v>14</v>
       </c>
       <c r="Y27" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z27" t="n">
         <v>40</v>
@@ -4108,10 +4108,10 @@
         <v>130</v>
       </c>
       <c r="AB27" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD27" t="n">
         <v>22</v>
@@ -4123,7 +4123,7 @@
         <v>14.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH27" t="n">
         <v>25</v>
@@ -4132,7 +4132,7 @@
         <v>75</v>
       </c>
       <c r="AJ27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK27" t="n">
         <v>30</v>
@@ -4144,7 +4144,7 @@
         <v>170</v>
       </c>
       <c r="AN27" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO27" t="n">
         <v>110</v>
@@ -4315,13 +4315,13 @@
         <v>2.66</v>
       </c>
       <c r="G29" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="H29" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I29" t="n">
         <v>3.35</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3.4</v>
       </c>
       <c r="J29" t="n">
         <v>3.05</v>
@@ -4336,7 +4336,7 @@
         <v>1.13</v>
       </c>
       <c r="N29" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="O29" t="n">
         <v>1.53</v>
@@ -4363,7 +4363,7 @@
         <v>1.42</v>
       </c>
       <c r="W29" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="X29" t="n">
         <v>8.6</v>
@@ -4414,7 +4414,7 @@
         <v>170</v>
       </c>
       <c r="AN29" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AO29" t="n">
         <v>65</v>
@@ -4471,7 +4471,7 @@
         <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="O30" t="n">
         <v>1.3</v>
@@ -4480,7 +4480,7 @@
         <v>1.9</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R30" t="n">
         <v>1.29</v>
@@ -4495,7 +4495,7 @@
         <v>1.01</v>
       </c>
       <c r="V30" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W30" t="n">
         <v>1.56</v>
@@ -4585,7 +4585,7 @@
         <v>1.51</v>
       </c>
       <c r="G31" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="H31" t="n">
         <v>6</v>
@@ -4615,19 +4615,19 @@
         <v>2.66</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R31" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S31" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T31" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="U31" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="V31" t="n">
         <v>1.17</v>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="G32" t="n">
         <v>1.75</v>
@@ -4726,7 +4726,7 @@
         <v>5.7</v>
       </c>
       <c r="I32" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="J32" t="n">
         <v>4</v>
@@ -4747,10 +4747,10 @@
         <v>1.3</v>
       </c>
       <c r="P32" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R32" t="n">
         <v>1.29</v>
@@ -4798,13 +4798,13 @@
         <v>15</v>
       </c>
       <c r="AG32" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH32" t="n">
         <v>30</v>
       </c>
       <c r="AI32" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ32" t="n">
         <v>26</v>
@@ -4819,7 +4819,7 @@
         <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AO32" t="n">
         <v>1000</v>
@@ -4918,7 +4918,7 @@
         <v>390</v>
       </c>
       <c r="AB33" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC33" t="n">
         <v>9.6</v>
@@ -4978,73 +4978,73 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>FC Ashdod</t>
+          <t>Maccabi Bnei Raina</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Ironi Tiberias</t>
+          <t>Bnei Sakhnin</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.98</v>
+        <v>1.04</v>
       </c>
       <c r="G34" t="n">
-        <v>2.28</v>
+        <v>3.05</v>
       </c>
       <c r="H34" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="I34" t="n">
-        <v>4.8</v>
+        <v>960</v>
       </c>
       <c r="J34" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="K34" t="n">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N34" t="n">
-        <v>1.95</v>
+        <v>1.02</v>
       </c>
       <c r="O34" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="P34" t="n">
-        <v>1.95</v>
+        <v>1.61</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.83</v>
+        <v>1.02</v>
       </c>
       <c r="R34" t="n">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="S34" t="n">
-        <v>2.72</v>
+        <v>1.06</v>
       </c>
       <c r="T34" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="U34" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="V34" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="W34" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="X34" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y34" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z34" t="n">
         <v>1000</v>
@@ -5056,10 +5056,10 @@
         <v>1000</v>
       </c>
       <c r="AC34" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD34" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE34" t="n">
         <v>1000</v>
@@ -5068,22 +5068,22 @@
         <v>1000</v>
       </c>
       <c r="AG34" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH34" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI34" t="n">
         <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AK34" t="n">
         <v>1000</v>
       </c>
       <c r="AL34" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM34" t="n">
         <v>1000</v>
@@ -5098,7 +5098,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,37 +5108,37 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>FC Ashdod</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Wisla Plock</t>
+          <t>Ironi Tiberias</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.16</v>
+        <v>1.98</v>
       </c>
       <c r="G35" t="n">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="H35" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="I35" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K35" t="n">
         <v>4.6</v>
       </c>
-      <c r="J35" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K35" t="n">
-        <v>3.65</v>
-      </c>
       <c r="L35" t="n">
         <v>1.01</v>
       </c>
@@ -5146,22 +5146,22 @@
         <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="O35" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="P35" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.14</v>
+        <v>1.83</v>
       </c>
       <c r="R35" t="n">
-        <v>1.21</v>
+        <v>1.31</v>
       </c>
       <c r="S35" t="n">
-        <v>3.4</v>
+        <v>2.72</v>
       </c>
       <c r="T35" t="n">
         <v>1.01</v>
@@ -5170,10 +5170,10 @@
         <v>1.01</v>
       </c>
       <c r="V35" t="n">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="W35" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="X35" t="n">
         <v>1000</v>
@@ -5233,7 +5233,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5248,127 +5248,127 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>FK Spartak</t>
+          <t>Vejle</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>FK Backa Topola</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.34</v>
+        <v>4.4</v>
       </c>
       <c r="G36" t="n">
-        <v>3.45</v>
+        <v>5</v>
       </c>
       <c r="H36" t="n">
-        <v>2.54</v>
+        <v>1.82</v>
       </c>
       <c r="I36" t="n">
-        <v>3.25</v>
+        <v>1.88</v>
       </c>
       <c r="J36" t="n">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="K36" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L36" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M36" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N36" t="n">
-        <v>1.81</v>
+        <v>4.4</v>
       </c>
       <c r="O36" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="P36" t="n">
-        <v>1.81</v>
+        <v>2.18</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.96</v>
+        <v>1.7</v>
       </c>
       <c r="R36" t="n">
-        <v>1.08</v>
+        <v>1.47</v>
       </c>
       <c r="S36" t="n">
-        <v>1.96</v>
+        <v>2.84</v>
       </c>
       <c r="T36" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="U36" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="V36" t="n">
-        <v>1.44</v>
+        <v>2.12</v>
       </c>
       <c r="W36" t="n">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="X36" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y36" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z36" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AA36" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AB36" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AC36" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD36" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE36" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AF36" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG36" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI36" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK36" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL36" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM36" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN36" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO36" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5383,127 +5383,127 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Vejle</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Brondby</t>
+          <t>Hapoel Jerusalem</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>4.4</v>
+        <v>1.45</v>
       </c>
       <c r="G37" t="n">
-        <v>5</v>
+        <v>1.59</v>
       </c>
       <c r="H37" t="n">
-        <v>1.82</v>
+        <v>5.9</v>
       </c>
       <c r="I37" t="n">
-        <v>1.88</v>
+        <v>9.4</v>
       </c>
       <c r="J37" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="K37" t="n">
-        <v>4.3</v>
+        <v>6.2</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
       </c>
       <c r="M37" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N37" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="O37" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P37" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="R37" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="S37" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="T37" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="U37" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="V37" t="n">
-        <v>2.12</v>
+        <v>1.11</v>
       </c>
       <c r="W37" t="n">
-        <v>1.26</v>
+        <v>2.62</v>
       </c>
       <c r="X37" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y37" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z37" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AA37" t="n">
         <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC37" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE37" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF37" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG37" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI37" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AK37" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AL37" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM37" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN37" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5518,73 +5518,73 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Hapoel Jerusalem</t>
+          <t>Wisla Plock</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.44</v>
+        <v>2.14</v>
       </c>
       <c r="G38" t="n">
-        <v>1.62</v>
+        <v>2.38</v>
       </c>
       <c r="H38" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="I38" t="n">
-        <v>9.800000000000001</v>
+        <v>4.2</v>
       </c>
       <c r="J38" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="K38" t="n">
-        <v>6.2</v>
+        <v>3.65</v>
       </c>
       <c r="L38" t="n">
         <v>1.01</v>
       </c>
       <c r="M38" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N38" t="n">
-        <v>4.5</v>
+        <v>1.73</v>
       </c>
       <c r="O38" t="n">
-        <v>1.22</v>
+        <v>1.39</v>
       </c>
       <c r="P38" t="n">
-        <v>2.22</v>
+        <v>1.72</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.57</v>
+        <v>2.14</v>
       </c>
       <c r="R38" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="S38" t="n">
-        <v>1.57</v>
+        <v>3.5</v>
       </c>
       <c r="T38" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="U38" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="V38" t="n">
-        <v>1.11</v>
+        <v>1.33</v>
       </c>
       <c r="W38" t="n">
-        <v>2.62</v>
+        <v>1.72</v>
       </c>
       <c r="X38" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Y38" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="Z38" t="n">
         <v>1000</v>
@@ -5593,7 +5593,7 @@
         <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC38" t="n">
         <v>1000</v>
@@ -5611,13 +5611,13 @@
         <v>1000</v>
       </c>
       <c r="AH38" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI38" t="n">
         <v>1000</v>
       </c>
       <c r="AJ38" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AK38" t="n">
         <v>1000</v>
@@ -5638,7 +5638,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,126 +5648,126 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>FK Spartak</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>FK Backa Topola</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="G39" t="n">
-        <v>2.6</v>
+        <v>3.45</v>
       </c>
       <c r="H39" t="n">
-        <v>3.3</v>
+        <v>2.54</v>
       </c>
       <c r="I39" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="J39" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="K39" t="n">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="L39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V39" t="n">
         <v>1.44</v>
       </c>
-      <c r="M39" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N39" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S39" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T39" t="n">
-        <v>2</v>
-      </c>
-      <c r="U39" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V39" t="n">
+      <c r="W39" t="n">
         <v>1.4</v>
       </c>
-      <c r="W39" t="n">
-        <v>1.63</v>
-      </c>
       <c r="X39" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Y39" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z39" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AA39" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB39" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC39" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD39" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE39" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF39" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AG39" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH39" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI39" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ39" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AK39" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL39" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM39" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN39" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AO39" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="40">
@@ -5797,118 +5797,118 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="G40" t="n">
-        <v>3.25</v>
+        <v>2.98</v>
       </c>
       <c r="H40" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="I40" t="n">
         <v>3.05</v>
       </c>
       <c r="J40" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="K40" t="n">
         <v>3.7</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P40" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Q40" t="n">
         <v>1.9</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z40" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AA40" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AB40" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AC40" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD40" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AE40" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AF40" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AG40" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ40" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AK40" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AL40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,132 +5918,132 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>San Antonio Bulo Bulo</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Real Tomayapo</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.43</v>
+        <v>2.48</v>
       </c>
       <c r="G41" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H41" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="I41" t="n">
-        <v>1000</v>
+        <v>3.5</v>
       </c>
       <c r="J41" t="n">
-        <v>4.2</v>
+        <v>3.05</v>
       </c>
       <c r="K41" t="n">
-        <v>1000</v>
+        <v>3.2</v>
       </c>
       <c r="L41" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M41" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N41" t="n">
-        <v>2.56</v>
+        <v>2.76</v>
       </c>
       <c r="O41" t="n">
-        <v>1.11</v>
+        <v>1.48</v>
       </c>
       <c r="P41" t="n">
-        <v>2.56</v>
+        <v>1.59</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.33</v>
+        <v>2.42</v>
       </c>
       <c r="R41" t="n">
-        <v>1.66</v>
+        <v>1.21</v>
       </c>
       <c r="S41" t="n">
-        <v>1.85</v>
+        <v>4.8</v>
       </c>
       <c r="T41" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="U41" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="V41" t="n">
-        <v>1.07</v>
+        <v>1.4</v>
       </c>
       <c r="W41" t="n">
-        <v>2.26</v>
+        <v>1.63</v>
       </c>
       <c r="X41" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA41" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB41" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC41" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD41" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE41" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF41" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG41" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI41" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AK41" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL41" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM41" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN41" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO41" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6058,127 +6058,127 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>San Antonio Bulo Bulo</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Real Tomayapo</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3.25</v>
+        <v>1.43</v>
       </c>
       <c r="G42" t="n">
-        <v>4.3</v>
+        <v>1.8</v>
       </c>
       <c r="H42" t="n">
-        <v>1.95</v>
+        <v>2.26</v>
       </c>
       <c r="I42" t="n">
-        <v>2.36</v>
+        <v>1000</v>
       </c>
       <c r="J42" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="K42" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="P42" t="n">
-        <v>2.84</v>
+        <v>2.56</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6188,132 +6188,132 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.16</v>
+        <v>3.25</v>
       </c>
       <c r="G43" t="n">
-        <v>2.26</v>
+        <v>4.3</v>
       </c>
       <c r="H43" t="n">
-        <v>3.85</v>
+        <v>1.96</v>
       </c>
       <c r="I43" t="n">
-        <v>4.3</v>
+        <v>2.34</v>
       </c>
       <c r="J43" t="n">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="K43" t="n">
-        <v>3.5</v>
+        <v>4.9</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="P43" t="n">
-        <v>1.67</v>
+        <v>2.88</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.28</v>
+        <v>1.42</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6323,132 +6323,132 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.64</v>
+        <v>2.16</v>
       </c>
       <c r="G44" t="n">
-        <v>1.75</v>
+        <v>2.26</v>
       </c>
       <c r="H44" t="n">
-        <v>6</v>
+        <v>3.85</v>
       </c>
       <c r="I44" t="n">
-        <v>7</v>
+        <v>4.3</v>
       </c>
       <c r="J44" t="n">
-        <v>3.8</v>
+        <v>3.15</v>
       </c>
       <c r="K44" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P44" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6463,127 +6463,127 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>5.5</v>
+        <v>1.65</v>
       </c>
       <c r="G45" t="n">
-        <v>5.6</v>
+        <v>1.75</v>
       </c>
       <c r="H45" t="n">
-        <v>1.78</v>
+        <v>6</v>
       </c>
       <c r="I45" t="n">
-        <v>1.79</v>
+        <v>7</v>
       </c>
       <c r="J45" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K45" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M45" t="n">
         <v>1.08</v>
       </c>
       <c r="N45" t="n">
-        <v>3.5</v>
+        <v>1.01</v>
       </c>
       <c r="O45" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P45" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="R45" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="S45" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="T45" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="U45" t="n">
-        <v>1.92</v>
+        <v>1.64</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="X45" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y45" t="n">
-        <v>7.6</v>
+        <v>26</v>
       </c>
       <c r="Z45" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB45" t="n">
         <v>10</v>
       </c>
-      <c r="AA45" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AC45" t="n">
-        <v>8.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="AD45" t="n">
-        <v>10.5</v>
+        <v>36</v>
       </c>
       <c r="AE45" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AF45" t="n">
-        <v>42</v>
+        <v>13.5</v>
       </c>
       <c r="AG45" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AH45" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AI45" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ45" t="n">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="AK45" t="n">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="AL45" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="AM45" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN45" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AO45" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6593,126 +6593,126 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.76</v>
+        <v>5.5</v>
       </c>
       <c r="G46" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H46" t="n">
         <v>1.78</v>
       </c>
-      <c r="H46" t="n">
-        <v>5.4</v>
-      </c>
       <c r="I46" t="n">
-        <v>5.5</v>
+        <v>1.79</v>
       </c>
       <c r="J46" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K46" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N46" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S46" t="n">
         <v>4</v>
       </c>
-      <c r="K46" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N46" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P46" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R46" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S46" t="n">
-        <v>3.7</v>
-      </c>
       <c r="T46" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="U46" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="X46" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>17.5</v>
+        <v>7.6</v>
       </c>
       <c r="Z46" t="n">
-        <v>48</v>
+        <v>9.6</v>
       </c>
       <c r="AA46" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ46" t="n">
         <v>170</v>
       </c>
-      <c r="AB46" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE46" t="n">
+      <c r="AK46" t="n">
         <v>85</v>
       </c>
-      <c r="AF46" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>20</v>
-      </c>
       <c r="AL46" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AM46" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN46" t="n">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="AO46" t="n">
-        <v>120</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="47">
@@ -6760,34 +6760,34 @@
         <v>3.15</v>
       </c>
       <c r="L47" t="n">
-        <v>1.49</v>
+        <v>1.6</v>
       </c>
       <c r="M47" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N47" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="O47" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="P47" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="R47" t="n">
         <v>1.17</v>
       </c>
       <c r="S47" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T47" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U47" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="V47" t="n">
         <v>1.65</v>
@@ -6817,43 +6817,43 @@
         <v>15</v>
       </c>
       <c r="AE47" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AF47" t="n">
         <v>32</v>
       </c>
       <c r="AG47" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH47" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI47" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AJ47" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AK47" t="n">
         <v>85</v>
       </c>
       <c r="AL47" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AM47" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="AN47" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AO47" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6868,255 +6868,795 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>4.8</v>
+        <v>1.04</v>
       </c>
       <c r="G48" t="n">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H48" t="n">
-        <v>1.77</v>
+        <v>1.04</v>
       </c>
       <c r="I48" t="n">
-        <v>1.78</v>
+        <v>110</v>
       </c>
       <c r="J48" t="n">
-        <v>4.2</v>
+        <v>1.02</v>
       </c>
       <c r="K48" t="n">
-        <v>4.3</v>
+        <v>950</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M48" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N48" t="n">
-        <v>4.7</v>
+        <v>1.24</v>
       </c>
       <c r="O48" t="n">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="P48" t="n">
-        <v>2.26</v>
+        <v>1.24</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.75</v>
+        <v>1.42</v>
       </c>
       <c r="R48" t="n">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="S48" t="n">
-        <v>2.92</v>
+        <v>1.42</v>
       </c>
       <c r="T48" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="U48" t="n">
-        <v>2.26</v>
+        <v>1.01</v>
       </c>
       <c r="V48" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W48" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X48" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y48" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z48" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA48" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AB48" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AC48" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD48" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AE48" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AF48" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AG48" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AH48" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI48" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AJ48" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AK48" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL48" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM48" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN48" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO48" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>English Premier League</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G49" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="J49" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K49" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N49" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P49" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U49" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X49" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H50" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I50" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J50" t="n">
+        <v>4</v>
+      </c>
+      <c r="K50" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N50" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U50" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V50" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W50" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="X50" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
           <t>Portuguese Primeira Liga</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>2025-12-08</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>17:30:00</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>Guimaraes</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>Gil Vicente</t>
         </is>
       </c>
-      <c r="F49" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="G49" t="n">
+      <c r="F51" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="G51" t="n">
         <v>2.94</v>
       </c>
-      <c r="H49" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="I49" t="n">
+      <c r="H51" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="I51" t="n">
         <v>3.1</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J51" t="n">
         <v>3</v>
       </c>
-      <c r="K49" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L49" t="n">
+      <c r="K51" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U51" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V51" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>19:15:00</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>America de Cali S.A</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Atletico Nacional Medellin</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L52" t="n">
         <v>0</v>
       </c>
-      <c r="M49" t="n">
+      <c r="M52" t="n">
         <v>0</v>
       </c>
-      <c r="N49" t="n">
+      <c r="N52" t="n">
         <v>0</v>
       </c>
-      <c r="O49" t="n">
+      <c r="O52" t="n">
         <v>0</v>
       </c>
-      <c r="P49" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="R49" t="n">
+      <c r="P52" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R52" t="n">
         <v>0</v>
       </c>
-      <c r="S49" t="n">
+      <c r="S52" t="n">
         <v>0</v>
       </c>
-      <c r="T49" t="n">
+      <c r="T52" t="n">
         <v>0</v>
       </c>
-      <c r="U49" t="n">
+      <c r="U52" t="n">
         <v>0</v>
       </c>
-      <c r="V49" t="n">
+      <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="n">
+      <c r="W52" t="n">
         <v>0</v>
       </c>
-      <c r="X49" t="n">
+      <c r="X52" t="n">
         <v>0</v>
       </c>
-      <c r="Y49" t="n">
+      <c r="Y52" t="n">
         <v>0</v>
       </c>
-      <c r="Z49" t="n">
+      <c r="Z52" t="n">
         <v>0</v>
       </c>
-      <c r="AA49" t="n">
+      <c r="AA52" t="n">
         <v>0</v>
       </c>
-      <c r="AB49" t="n">
+      <c r="AB52" t="n">
         <v>0</v>
       </c>
-      <c r="AC49" t="n">
+      <c r="AC52" t="n">
         <v>0</v>
       </c>
-      <c r="AD49" t="n">
+      <c r="AD52" t="n">
         <v>0</v>
       </c>
-      <c r="AE49" t="n">
+      <c r="AE52" t="n">
         <v>0</v>
       </c>
-      <c r="AF49" t="n">
+      <c r="AF52" t="n">
         <v>0</v>
       </c>
-      <c r="AG49" t="n">
+      <c r="AG52" t="n">
         <v>0</v>
       </c>
-      <c r="AH49" t="n">
+      <c r="AH52" t="n">
         <v>0</v>
       </c>
-      <c r="AI49" t="n">
+      <c r="AI52" t="n">
         <v>0</v>
       </c>
-      <c r="AJ49" t="n">
+      <c r="AJ52" t="n">
         <v>0</v>
       </c>
-      <c r="AK49" t="n">
+      <c r="AK52" t="n">
         <v>0</v>
       </c>
-      <c r="AL49" t="n">
+      <c r="AL52" t="n">
         <v>0</v>
       </c>
-      <c r="AM49" t="n">
+      <c r="AM52" t="n">
         <v>0</v>
       </c>
-      <c r="AN49" t="n">
+      <c r="AN52" t="n">
         <v>0</v>
       </c>
-      <c r="AO49" t="n">
+      <c r="AO52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>19:15:00</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Ind Medellin</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Junior FC Barranquilla</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO53" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO53"/>
+  <dimension ref="A1:AO54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="G3" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H3" t="n">
         <v>1.43</v>
       </c>
       <c r="I3" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="J3" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="K3" t="n">
         <v>5.7</v>
@@ -826,34 +826,34 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O3" t="n">
         <v>1.18</v>
       </c>
       <c r="P3" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q3" t="n">
         <v>1.54</v>
       </c>
       <c r="R3" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S3" t="n">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="T3" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="U3" t="n">
         <v>2.06</v>
       </c>
       <c r="V3" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="W3" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="X3" t="n">
         <v>32</v>
@@ -865,7 +865,7 @@
         <v>12.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AB3" t="n">
         <v>38</v>
@@ -880,25 +880,25 @@
         <v>18</v>
       </c>
       <c r="AF3" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AH3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI3" t="n">
         <v>36</v>
       </c>
       <c r="AJ3" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AK3" t="n">
         <v>120</v>
       </c>
       <c r="AL3" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AM3" t="n">
         <v>120</v>
@@ -907,7 +907,7 @@
         <v>120</v>
       </c>
       <c r="AO3" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="4">
@@ -1210,7 +1210,7 @@
         <v>1.64</v>
       </c>
       <c r="G6" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="H6" t="n">
         <v>5</v>
@@ -1219,7 +1219,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>2.72</v>
+        <v>3.15</v>
       </c>
       <c r="K6" t="n">
         <v>4.8</v>
@@ -1246,7 +1246,7 @@
         <v>1.26</v>
       </c>
       <c r="S6" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="T6" t="n">
         <v>2.02</v>
@@ -1258,7 +1258,7 @@
         <v>1.14</v>
       </c>
       <c r="W6" t="n">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1360,7 +1360,7 @@
         <v>4.8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
@@ -1372,7 +1372,7 @@
         <v>1.02</v>
       </c>
       <c r="P7" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q7" t="n">
         <v>2.24</v>
@@ -1381,7 +1381,7 @@
         <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>2.24</v>
+        <v>1.01</v>
       </c>
       <c r="T7" t="n">
         <v>1.01</v>
@@ -1621,7 +1621,7 @@
         <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J9" t="n">
         <v>2.96</v>
@@ -1660,7 +1660,7 @@
         <v>1.83</v>
       </c>
       <c r="V9" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="W9" t="n">
         <v>1.63</v>
@@ -1756,7 +1756,7 @@
         <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="J10" t="n">
         <v>2.84</v>
@@ -1774,7 +1774,7 @@
         <v>2.44</v>
       </c>
       <c r="O10" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="P10" t="n">
         <v>1.48</v>
@@ -1900,7 +1900,7 @@
         <v>950</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
@@ -1918,7 +1918,7 @@
         <v>1.76</v>
       </c>
       <c r="R11" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="S11" t="n">
         <v>1.76</v>
@@ -2020,7 +2020,7 @@
         <v>1.71</v>
       </c>
       <c r="G12" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="H12" t="n">
         <v>4.5</v>
@@ -2068,7 +2068,7 @@
         <v>1.16</v>
       </c>
       <c r="W12" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="X12" t="n">
         <v>15.5</v>
@@ -2185,7 +2185,7 @@
         <v>1.38</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="R13" t="n">
         <v>1.18</v>
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>AC Monza</t>
+          <t>Padova</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sudtirol</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.57</v>
+        <v>3.3</v>
       </c>
       <c r="G16" t="n">
-        <v>1.62</v>
+        <v>3.65</v>
       </c>
       <c r="H16" t="n">
-        <v>6.8</v>
+        <v>2.52</v>
       </c>
       <c r="I16" t="n">
-        <v>9.199999999999999</v>
+        <v>2.72</v>
       </c>
       <c r="J16" t="n">
-        <v>3.95</v>
+        <v>2.9</v>
       </c>
       <c r="K16" t="n">
-        <v>4.4</v>
+        <v>3.05</v>
       </c>
       <c r="L16" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="N16" t="n">
-        <v>3.2</v>
+        <v>2.66</v>
       </c>
       <c r="O16" t="n">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="P16" t="n">
-        <v>1.73</v>
+        <v>1.55</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.14</v>
+        <v>2.54</v>
       </c>
       <c r="R16" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="S16" t="n">
-        <v>3.95</v>
+        <v>5.1</v>
       </c>
       <c r="T16" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="U16" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="V16" t="n">
-        <v>1.13</v>
+        <v>1.6</v>
       </c>
       <c r="W16" t="n">
-        <v>2.6</v>
+        <v>1.38</v>
       </c>
       <c r="X16" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>24</v>
+        <v>9.4</v>
       </c>
       <c r="Z16" t="n">
-        <v>70</v>
+        <v>18.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>330</v>
+        <v>50</v>
       </c>
       <c r="AB16" t="n">
-        <v>7.2</v>
+        <v>11.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD16" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="AF16" t="n">
-        <v>10.5</v>
+        <v>27</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AH16" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AI16" t="n">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="AJ16" t="n">
-        <v>18.5</v>
+        <v>90</v>
       </c>
       <c r="AK16" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="AL16" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AM16" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="AN16" t="n">
-        <v>12.5</v>
+        <v>85</v>
       </c>
       <c r="AO16" t="n">
-        <v>290</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Mantova</t>
+          <t>AC Monza</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Reggiana</t>
+          <t>Sudtirol</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.28</v>
+        <v>1.57</v>
       </c>
       <c r="G17" t="n">
-        <v>2.46</v>
+        <v>1.62</v>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>6.8</v>
       </c>
       <c r="I17" t="n">
-        <v>3.75</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J17" t="n">
-        <v>3.25</v>
+        <v>3.95</v>
       </c>
       <c r="K17" t="n">
-        <v>3.55</v>
+        <v>4.4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="O17" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="P17" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="R17" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="S17" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="T17" t="n">
-        <v>1.73</v>
+        <v>2.12</v>
       </c>
       <c r="U17" t="n">
-        <v>2.12</v>
+        <v>1.75</v>
       </c>
       <c r="V17" t="n">
-        <v>1.36</v>
+        <v>1.13</v>
       </c>
       <c r="W17" t="n">
-        <v>1.68</v>
+        <v>2.6</v>
       </c>
       <c r="X17" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Z17" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="AA17" t="n">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="AB17" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF17" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC17" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>17</v>
-      </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK17" t="n">
         <v>21</v>
       </c>
-      <c r="AI17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>29</v>
-      </c>
       <c r="AL17" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AM17" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="AN17" t="n">
-        <v>22</v>
+        <v>12.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>44</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,127 +2818,127 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Mantova</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Reggiana</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.62</v>
+        <v>2.32</v>
       </c>
       <c r="G18" t="n">
-        <v>2.66</v>
+        <v>2.46</v>
       </c>
       <c r="H18" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S18" t="n">
         <v>3.4</v>
       </c>
-      <c r="J18" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S18" t="n">
-        <v>5.2</v>
-      </c>
       <c r="T18" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="U18" t="n">
-        <v>1.86</v>
+        <v>2.12</v>
       </c>
       <c r="V18" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="W18" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="X18" t="n">
-        <v>8.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.6</v>
+        <v>14</v>
       </c>
       <c r="Z18" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AA18" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>6.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE18" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG18" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="n">
         <v>21</v>
       </c>
       <c r="AI18" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AJ18" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AK18" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AL18" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AM18" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="AN18" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="AO18" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Padova</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.3</v>
+        <v>2.62</v>
       </c>
       <c r="G19" t="n">
-        <v>3.65</v>
+        <v>2.66</v>
       </c>
       <c r="H19" t="n">
-        <v>2.52</v>
+        <v>3.35</v>
       </c>
       <c r="I19" t="n">
-        <v>2.7</v>
+        <v>3.45</v>
       </c>
       <c r="J19" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="K19" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="M19" t="n">
         <v>1.12</v>
       </c>
       <c r="N19" t="n">
-        <v>2.66</v>
+        <v>2.84</v>
       </c>
       <c r="O19" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P19" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="R19" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="S19" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="T19" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="U19" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="V19" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="W19" t="n">
         <v>1.6</v>
       </c>
-      <c r="W19" t="n">
-        <v>1.38</v>
-      </c>
       <c r="X19" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AA19" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AB19" t="n">
-        <v>11.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="AD19" t="n">
         <v>15</v>
       </c>
       <c r="AE19" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AF19" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="AG19" t="n">
-        <v>19</v>
+        <v>12.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AI19" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ19" t="n">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="AK19" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="AL19" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AM19" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AN19" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AO19" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
@@ -3277,7 +3277,7 @@
         <v>2</v>
       </c>
       <c r="U21" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V21" t="n">
         <v>1.32</v>
@@ -3370,7 +3370,7 @@
         <v>1.27</v>
       </c>
       <c r="G22" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="H22" t="n">
         <v>13.5</v>
@@ -3511,7 +3511,7 @@
         <v>3.3</v>
       </c>
       <c r="I23" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J23" t="n">
         <v>2.92</v>
@@ -3520,7 +3520,7 @@
         <v>3.95</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M23" t="n">
         <v>1.08</v>
@@ -3535,7 +3535,7 @@
         <v>1.72</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="R23" t="n">
         <v>1.27</v>
@@ -3781,10 +3781,10 @@
         <v>3.85</v>
       </c>
       <c r="I25" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="J25" t="n">
-        <v>3.15</v>
+        <v>2.9</v>
       </c>
       <c r="K25" t="n">
         <v>3.8</v>
@@ -3802,7 +3802,7 @@
         <v>1.38</v>
       </c>
       <c r="P25" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q25" t="n">
         <v>2.12</v>
@@ -3811,7 +3811,7 @@
         <v>1.27</v>
       </c>
       <c r="S25" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="T25" t="n">
         <v>1.87</v>
@@ -3820,7 +3820,7 @@
         <v>1.91</v>
       </c>
       <c r="V25" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W25" t="n">
         <v>1.8</v>
@@ -4132,7 +4132,7 @@
         <v>75</v>
       </c>
       <c r="AJ27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK27" t="n">
         <v>30</v>
@@ -4153,7 +4153,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,118 +4168,118 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Sloga Doboj</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Rudar Prijedor</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.04</v>
+        <v>1.68</v>
       </c>
       <c r="G28" t="n">
-        <v>1000</v>
+        <v>1.78</v>
       </c>
       <c r="H28" t="n">
-        <v>1.04</v>
+        <v>5.4</v>
       </c>
       <c r="I28" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="J28" t="n">
-        <v>1.02</v>
+        <v>4</v>
       </c>
       <c r="K28" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="L28" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M28" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>1.34</v>
+        <v>1.95</v>
       </c>
       <c r="O28" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="P28" t="n">
-        <v>1.34</v>
+        <v>1.94</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.74</v>
+        <v>1.92</v>
       </c>
       <c r="R28" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="S28" t="n">
-        <v>2.74</v>
+        <v>3</v>
       </c>
       <c r="T28" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="U28" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="V28" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="W28" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="X28" t="n">
         <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA28" t="n">
         <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD28" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE28" t="n">
         <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG28" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM28" t="n">
         <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4288,7 +4288,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,127 +4303,127 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Gaziantep FK</t>
         </is>
       </c>
       <c r="F29" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+      <c r="I29" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J29" t="n">
+        <v>5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N29" t="n">
         <v>2.66</v>
       </c>
-      <c r="G29" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H29" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N29" t="n">
-        <v>2.8</v>
-      </c>
       <c r="O29" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="T29" t="n">
         <v>1.53</v>
       </c>
-      <c r="P29" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S29" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2.1</v>
-      </c>
       <c r="U29" t="n">
-        <v>1.87</v>
+        <v>2.12</v>
       </c>
       <c r="V29" t="n">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="W29" t="n">
-        <v>1.58</v>
+        <v>2.84</v>
       </c>
       <c r="X29" t="n">
-        <v>8.6</v>
+        <v>34</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.6</v>
+        <v>44</v>
       </c>
       <c r="Z29" t="n">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="AA29" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>8.199999999999999</v>
+        <v>18.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>6.8</v>
+        <v>17.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AE29" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AF29" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH29" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ29" t="n">
         <v>22</v>
       </c>
-      <c r="AI29" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>40</v>
-      </c>
       <c r="AK29" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="AL29" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="AM29" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="AN29" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4438,31 +4438,31 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Corum Belediyespor</t>
+          <t>Sloga Doboj</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Rudar Prijedor</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.34</v>
+        <v>1.04</v>
       </c>
       <c r="G30" t="n">
-        <v>2.8</v>
+        <v>1000</v>
       </c>
       <c r="H30" t="n">
-        <v>2.96</v>
+        <v>1.04</v>
       </c>
       <c r="I30" t="n">
-        <v>3.8</v>
+        <v>1000</v>
       </c>
       <c r="J30" t="n">
-        <v>3.3</v>
+        <v>1.02</v>
       </c>
       <c r="K30" t="n">
-        <v>3.9</v>
+        <v>1000</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
@@ -4471,22 +4471,22 @@
         <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>2.8</v>
+        <v>1.34</v>
       </c>
       <c r="O30" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="P30" t="n">
-        <v>1.9</v>
+        <v>1.34</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.9</v>
+        <v>2.74</v>
       </c>
       <c r="R30" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="S30" t="n">
-        <v>2.84</v>
+        <v>2.74</v>
       </c>
       <c r="T30" t="n">
         <v>1.01</v>
@@ -4495,10 +4495,10 @@
         <v>1.01</v>
       </c>
       <c r="V30" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="W30" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
@@ -4558,7 +4558,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4573,127 +4573,127 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Gaziantep FK</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.51</v>
+        <v>2.68</v>
       </c>
       <c r="G31" t="n">
-        <v>1.54</v>
+        <v>2.7</v>
       </c>
       <c r="H31" t="n">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="I31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X31" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC31" t="n">
         <v>6.8</v>
       </c>
-      <c r="J31" t="n">
-        <v>5</v>
-      </c>
-      <c r="K31" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N31" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P31" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S31" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="U31" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W31" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="X31" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>85</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AD31" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AE31" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AF31" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AG31" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AI31" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AJ31" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="AK31" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="AL31" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="AM31" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4708,55 +4708,55 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Corum Belediyespor</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.69</v>
+        <v>2.34</v>
       </c>
       <c r="G32" t="n">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="H32" t="n">
-        <v>5.7</v>
+        <v>2.96</v>
       </c>
       <c r="I32" t="n">
-        <v>7</v>
+        <v>3.45</v>
       </c>
       <c r="J32" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="K32" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="L32" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>1.04</v>
+        <v>2.78</v>
       </c>
       <c r="O32" t="n">
         <v>1.3</v>
       </c>
       <c r="P32" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.76</v>
+        <v>1.88</v>
       </c>
       <c r="R32" t="n">
         <v>1.29</v>
       </c>
       <c r="S32" t="n">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="T32" t="n">
         <v>1.01</v>
@@ -4765,61 +4765,61 @@
         <v>1.01</v>
       </c>
       <c r="V32" t="n">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="W32" t="n">
-        <v>2.34</v>
+        <v>1.56</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
       </c>
       <c r="Y32" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Z32" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AA32" t="n">
         <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD32" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AE32" t="n">
         <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG32" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH32" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI32" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AK32" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AL32" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM32" t="n">
         <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
         <v>1000</v>
@@ -4897,7 +4897,7 @@
         <v>2.26</v>
       </c>
       <c r="U33" t="n">
-        <v>1.55</v>
+        <v>1.66</v>
       </c>
       <c r="V33" t="n">
         <v>1.12</v>
@@ -5275,7 +5275,7 @@
         <v>4.2</v>
       </c>
       <c r="L36" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M36" t="n">
         <v>1.05</v>
@@ -5680,7 +5680,7 @@
         <v>4.3</v>
       </c>
       <c r="L39" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M39" t="n">
         <v>1.01</v>
@@ -5698,7 +5698,7 @@
         <v>1.96</v>
       </c>
       <c r="R39" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="S39" t="n">
         <v>1.96</v>
@@ -5773,7 +5773,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5788,127 +5788,127 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Botosani</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Rapid Bucharest</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="F40" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G40" t="n">
         <v>2.64</v>
       </c>
-      <c r="G40" t="n">
-        <v>2.98</v>
-      </c>
       <c r="H40" t="n">
-        <v>2.72</v>
+        <v>3.25</v>
       </c>
       <c r="I40" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J40" t="n">
         <v>3.05</v>
       </c>
-      <c r="J40" t="n">
+      <c r="K40" t="n">
         <v>3.2</v>
       </c>
-      <c r="K40" t="n">
-        <v>3.7</v>
-      </c>
       <c r="L40" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M40" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="N40" t="n">
-        <v>1.02</v>
+        <v>2.76</v>
       </c>
       <c r="O40" t="n">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
       <c r="P40" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.9</v>
+        <v>2.42</v>
       </c>
       <c r="R40" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S40" t="n">
-        <v>1.01</v>
+        <v>4.8</v>
       </c>
       <c r="T40" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="U40" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="V40" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="W40" t="n">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="X40" t="n">
-        <v>19</v>
+        <v>11.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="Z40" t="n">
         <v>28</v>
       </c>
       <c r="AA40" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO40" t="n">
         <v>65</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5923,127 +5923,127 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Botosani</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Rapid Bucharest</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.48</v>
+        <v>2.64</v>
       </c>
       <c r="G41" t="n">
-        <v>2.6</v>
+        <v>2.98</v>
       </c>
       <c r="H41" t="n">
-        <v>3.3</v>
+        <v>2.72</v>
       </c>
       <c r="I41" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="J41" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K41" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="L41" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M41" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="N41" t="n">
-        <v>2.76</v>
+        <v>1.81</v>
       </c>
       <c r="O41" t="n">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
       <c r="P41" t="n">
-        <v>1.59</v>
+        <v>1.8</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.42</v>
+        <v>1.9</v>
       </c>
       <c r="R41" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="S41" t="n">
-        <v>4.8</v>
+        <v>1.9</v>
       </c>
       <c r="T41" t="n">
-        <v>2</v>
+        <v>1.02</v>
       </c>
       <c r="U41" t="n">
-        <v>1.84</v>
+        <v>1.02</v>
       </c>
       <c r="V41" t="n">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="W41" t="n">
-        <v>1.63</v>
+        <v>1.51</v>
       </c>
       <c r="X41" t="n">
-        <v>11.5</v>
+        <v>19</v>
       </c>
       <c r="Y41" t="n">
-        <v>10.5</v>
+        <v>16</v>
       </c>
       <c r="Z41" t="n">
         <v>28</v>
       </c>
       <c r="AA41" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AB41" t="n">
-        <v>9.6</v>
+        <v>16</v>
       </c>
       <c r="AC41" t="n">
-        <v>8.4</v>
+        <v>11</v>
       </c>
       <c r="AD41" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AF41" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AG41" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AI41" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ41" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AK41" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AL41" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM41" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN41" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AO41" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6058,55 +6058,55 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>San Antonio Bulo Bulo</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Real Tomayapo</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.43</v>
+        <v>3.25</v>
       </c>
       <c r="G42" t="n">
-        <v>1.8</v>
+        <v>4.3</v>
       </c>
       <c r="H42" t="n">
-        <v>2.26</v>
+        <v>1.95</v>
       </c>
       <c r="I42" t="n">
-        <v>1000</v>
+        <v>2.34</v>
       </c>
       <c r="J42" t="n">
-        <v>2.3</v>
+        <v>3.65</v>
       </c>
       <c r="K42" t="n">
-        <v>1000</v>
+        <v>4.9</v>
       </c>
       <c r="L42" t="n">
         <v>1.01</v>
       </c>
       <c r="M42" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N42" t="n">
-        <v>2.56</v>
+        <v>2.88</v>
       </c>
       <c r="O42" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P42" t="n">
-        <v>2.56</v>
+        <v>2.88</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="R42" t="n">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="S42" t="n">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="T42" t="n">
         <v>1.01</v>
@@ -6115,10 +6115,10 @@
         <v>1.01</v>
       </c>
       <c r="V42" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="W42" t="n">
-        <v>2.26</v>
+        <v>1.3</v>
       </c>
       <c r="X42" t="n">
         <v>1000</v>
@@ -6178,7 +6178,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6193,55 +6193,55 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>MC Alger</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Belouizdad</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.25</v>
+        <v>1.58</v>
       </c>
       <c r="G43" t="n">
-        <v>4.3</v>
+        <v>2.02</v>
       </c>
       <c r="H43" t="n">
-        <v>1.96</v>
+        <v>5.3</v>
       </c>
       <c r="I43" t="n">
-        <v>2.34</v>
+        <v>11.5</v>
       </c>
       <c r="J43" t="n">
-        <v>3.65</v>
+        <v>2.84</v>
       </c>
       <c r="K43" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="L43" t="n">
         <v>1.01</v>
       </c>
       <c r="M43" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N43" t="n">
-        <v>2.88</v>
+        <v>1.33</v>
       </c>
       <c r="O43" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="P43" t="n">
-        <v>2.88</v>
+        <v>1.33</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.42</v>
+        <v>2.48</v>
       </c>
       <c r="R43" t="n">
-        <v>1.75</v>
+        <v>1.08</v>
       </c>
       <c r="S43" t="n">
-        <v>1.94</v>
+        <v>2.48</v>
       </c>
       <c r="T43" t="n">
         <v>1.01</v>
@@ -6250,10 +6250,10 @@
         <v>1.01</v>
       </c>
       <c r="V43" t="n">
-        <v>1.74</v>
+        <v>1.09</v>
       </c>
       <c r="W43" t="n">
-        <v>1.3</v>
+        <v>1.98</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
@@ -6313,7 +6313,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6323,60 +6323,60 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>San Antonio Bulo Bulo</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Real Tomayapo</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.16</v>
+        <v>1.43</v>
       </c>
       <c r="G44" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H44" t="n">
         <v>2.26</v>
       </c>
-      <c r="H44" t="n">
-        <v>3.85</v>
-      </c>
       <c r="I44" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="J44" t="n">
-        <v>3.15</v>
+        <v>2.3</v>
       </c>
       <c r="K44" t="n">
-        <v>3.5</v>
+        <v>1000</v>
       </c>
       <c r="L44" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="M44" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N44" t="n">
-        <v>1.67</v>
+        <v>2.56</v>
       </c>
       <c r="O44" t="n">
-        <v>1.45</v>
+        <v>1.11</v>
       </c>
       <c r="P44" t="n">
-        <v>1.67</v>
+        <v>2.56</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.28</v>
+        <v>1.33</v>
       </c>
       <c r="R44" t="n">
-        <v>1.21</v>
+        <v>1.66</v>
       </c>
       <c r="S44" t="n">
-        <v>3.55</v>
+        <v>1.85</v>
       </c>
       <c r="T44" t="n">
         <v>1.01</v>
@@ -6385,10 +6385,10 @@
         <v>1.01</v>
       </c>
       <c r="V44" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="W44" t="n">
-        <v>1.79</v>
+        <v>2.26</v>
       </c>
       <c r="X44" t="n">
         <v>1000</v>
@@ -6448,7 +6448,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6458,117 +6458,117 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.65</v>
+        <v>2.16</v>
       </c>
       <c r="G45" t="n">
-        <v>1.75</v>
+        <v>2.26</v>
       </c>
       <c r="H45" t="n">
-        <v>6</v>
+        <v>3.85</v>
       </c>
       <c r="I45" t="n">
-        <v>7</v>
+        <v>4.3</v>
       </c>
       <c r="J45" t="n">
-        <v>3.75</v>
+        <v>3.15</v>
       </c>
       <c r="K45" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="L45" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M45" t="n">
         <v>1.08</v>
       </c>
       <c r="N45" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="O45" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="P45" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="R45" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="S45" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="T45" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="U45" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="V45" t="n">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="W45" t="n">
-        <v>2.32</v>
+        <v>1.79</v>
       </c>
       <c r="X45" t="n">
         <v>1000</v>
       </c>
       <c r="Y45" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Z45" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AA45" t="n">
         <v>1000</v>
       </c>
       <c r="AB45" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AC45" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD45" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AE45" t="n">
         <v>1000</v>
       </c>
       <c r="AF45" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG45" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH45" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AI45" t="n">
         <v>1000</v>
       </c>
       <c r="AJ45" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AK45" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AL45" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM45" t="n">
         <v>1000</v>
@@ -6583,7 +6583,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6598,31 +6598,31 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>5.5</v>
+        <v>1.65</v>
       </c>
       <c r="G46" t="n">
-        <v>5.6</v>
+        <v>1.75</v>
       </c>
       <c r="H46" t="n">
-        <v>1.78</v>
+        <v>6</v>
       </c>
       <c r="I46" t="n">
-        <v>1.79</v>
+        <v>7</v>
       </c>
       <c r="J46" t="n">
         <v>3.8</v>
       </c>
       <c r="K46" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="L46" t="n">
         <v>1.01</v>
@@ -6631,94 +6631,94 @@
         <v>1.08</v>
       </c>
       <c r="N46" t="n">
-        <v>3.5</v>
+        <v>1.01</v>
       </c>
       <c r="O46" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P46" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="R46" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="S46" t="n">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="T46" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="U46" t="n">
-        <v>1.91</v>
+        <v>1.64</v>
       </c>
       <c r="V46" t="n">
-        <v>2.26</v>
+        <v>1.16</v>
       </c>
       <c r="W46" t="n">
-        <v>1.21</v>
+        <v>2.34</v>
       </c>
       <c r="X46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC46" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y46" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="AD46" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="AE46" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AF46" t="n">
-        <v>42</v>
+        <v>13.5</v>
       </c>
       <c r="AG46" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AH46" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AI46" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ46" t="n">
-        <v>170</v>
+        <v>25</v>
       </c>
       <c r="AK46" t="n">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="AL46" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AM46" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN46" t="n">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="AO46" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6728,132 +6728,132 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Estudiantes</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3.65</v>
+        <v>5.5</v>
       </c>
       <c r="G47" t="n">
-        <v>4.3</v>
+        <v>5.6</v>
       </c>
       <c r="H47" t="n">
-        <v>2.38</v>
+        <v>1.79</v>
       </c>
       <c r="I47" t="n">
-        <v>2.52</v>
+        <v>1.8</v>
       </c>
       <c r="J47" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="K47" t="n">
-        <v>3.15</v>
+        <v>3.85</v>
       </c>
       <c r="L47" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="M47" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="N47" t="n">
-        <v>2.48</v>
+        <v>3.5</v>
       </c>
       <c r="O47" t="n">
-        <v>1.58</v>
+        <v>1.38</v>
       </c>
       <c r="P47" t="n">
-        <v>1.48</v>
+        <v>1.83</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.68</v>
+        <v>2.16</v>
       </c>
       <c r="R47" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="S47" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="T47" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="U47" t="n">
-        <v>1.7</v>
+        <v>1.92</v>
       </c>
       <c r="V47" t="n">
-        <v>1.65</v>
+        <v>2.24</v>
       </c>
       <c r="W47" t="n">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="X47" t="n">
-        <v>9.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="Z47" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB47" t="n">
         <v>16.5</v>
       </c>
-      <c r="AA47" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AC47" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD47" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE47" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF47" t="n">
         <v>42</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>32</v>
       </c>
       <c r="AG47" t="n">
         <v>22</v>
       </c>
       <c r="AH47" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AI47" t="n">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="AJ47" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="AK47" t="n">
         <v>85</v>
       </c>
       <c r="AL47" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN47" t="n">
         <v>120</v>
       </c>
-      <c r="AM47" t="n">
-        <v>260</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>130</v>
-      </c>
       <c r="AO47" t="n">
-        <v>48</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6868,127 +6868,127 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>Estudiantes</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.04</v>
+        <v>3.65</v>
       </c>
       <c r="G48" t="n">
-        <v>110</v>
+        <v>4.3</v>
       </c>
       <c r="H48" t="n">
-        <v>1.04</v>
+        <v>2.38</v>
       </c>
       <c r="I48" t="n">
-        <v>110</v>
+        <v>2.52</v>
       </c>
       <c r="J48" t="n">
-        <v>1.02</v>
+        <v>2.92</v>
       </c>
       <c r="K48" t="n">
-        <v>950</v>
+        <v>3.15</v>
       </c>
       <c r="L48" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="M48" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N48" t="n">
-        <v>1.24</v>
+        <v>2.48</v>
       </c>
       <c r="O48" t="n">
-        <v>1.42</v>
+        <v>1.58</v>
       </c>
       <c r="P48" t="n">
-        <v>1.24</v>
+        <v>1.48</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.42</v>
+        <v>2.68</v>
       </c>
       <c r="R48" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="S48" t="n">
-        <v>1.42</v>
+        <v>5.5</v>
       </c>
       <c r="T48" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="U48" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="V48" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="W48" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="X48" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y48" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="Z48" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AA48" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB48" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC48" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD48" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE48" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF48" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG48" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AH48" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI48" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ48" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK48" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL48" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM48" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AN48" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AO48" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -7003,127 +7003,127 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>4.6</v>
+        <v>1.04</v>
       </c>
       <c r="G49" t="n">
-        <v>4.8</v>
+        <v>110</v>
       </c>
       <c r="H49" t="n">
-        <v>1.8</v>
+        <v>1.04</v>
       </c>
       <c r="I49" t="n">
-        <v>1.81</v>
+        <v>110</v>
       </c>
       <c r="J49" t="n">
-        <v>4.2</v>
+        <v>1.02</v>
       </c>
       <c r="K49" t="n">
-        <v>4.3</v>
+        <v>950</v>
       </c>
       <c r="L49" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="M49" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N49" t="n">
-        <v>4.4</v>
+        <v>1.28</v>
       </c>
       <c r="O49" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P49" t="n">
         <v>1.28</v>
       </c>
-      <c r="P49" t="n">
-        <v>2.22</v>
-      </c>
       <c r="Q49" t="n">
-        <v>1.78</v>
+        <v>1.42</v>
       </c>
       <c r="R49" t="n">
-        <v>1.47</v>
+        <v>1.14</v>
       </c>
       <c r="S49" t="n">
-        <v>3.05</v>
+        <v>1.42</v>
       </c>
       <c r="T49" t="n">
-        <v>1.73</v>
+        <v>1.01</v>
       </c>
       <c r="U49" t="n">
-        <v>2.3</v>
+        <v>1.01</v>
       </c>
       <c r="V49" t="n">
-        <v>2.26</v>
+        <v>1.01</v>
       </c>
       <c r="W49" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="X49" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Y49" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z49" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AA49" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AB49" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AC49" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD49" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AE49" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AF49" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AG49" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AH49" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI49" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AJ49" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AK49" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL49" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM49" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN49" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO49" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7138,127 +7138,127 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.76</v>
+        <v>5</v>
       </c>
       <c r="G50" t="n">
-        <v>1.78</v>
+        <v>5.1</v>
       </c>
       <c r="H50" t="n">
-        <v>5.4</v>
+        <v>1.74</v>
       </c>
       <c r="I50" t="n">
-        <v>5.5</v>
+        <v>1.75</v>
       </c>
       <c r="J50" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="K50" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="L50" t="n">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="M50" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N50" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="O50" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="P50" t="n">
-        <v>1.94</v>
+        <v>2.26</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.02</v>
+        <v>1.77</v>
       </c>
       <c r="R50" t="n">
-        <v>1.35</v>
+        <v>1.47</v>
       </c>
       <c r="S50" t="n">
-        <v>3.65</v>
+        <v>3</v>
       </c>
       <c r="T50" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="U50" t="n">
-        <v>1.98</v>
+        <v>2.26</v>
       </c>
       <c r="V50" t="n">
-        <v>1.22</v>
+        <v>2.34</v>
       </c>
       <c r="W50" t="n">
-        <v>2.28</v>
+        <v>1.24</v>
       </c>
       <c r="X50" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Y50" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE50" t="n">
         <v>17.5</v>
       </c>
-      <c r="Z50" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>80</v>
-      </c>
       <c r="AF50" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AG50" t="n">
-        <v>9.800000000000001</v>
+        <v>19</v>
       </c>
       <c r="AH50" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AI50" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="AJ50" t="n">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="AK50" t="n">
-        <v>18.5</v>
+        <v>60</v>
       </c>
       <c r="AL50" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AM50" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="AN50" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="AO50" t="n">
-        <v>100</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -7268,132 +7268,132 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Guimaraes</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.84</v>
+        <v>1.76</v>
       </c>
       <c r="G51" t="n">
-        <v>2.94</v>
+        <v>1.77</v>
       </c>
       <c r="H51" t="n">
-        <v>2.94</v>
+        <v>5.4</v>
       </c>
       <c r="I51" t="n">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="J51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K51" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="L51" t="n">
-        <v>1.61</v>
+        <v>1.43</v>
       </c>
       <c r="M51" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N51" t="n">
-        <v>1.53</v>
+        <v>3.75</v>
       </c>
       <c r="O51" t="n">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="P51" t="n">
-        <v>1.52</v>
+        <v>1.94</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.56</v>
+        <v>2.02</v>
       </c>
       <c r="R51" t="n">
-        <v>1.15</v>
+        <v>1.35</v>
       </c>
       <c r="S51" t="n">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="T51" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="U51" t="n">
-        <v>1.01</v>
+        <v>1.99</v>
       </c>
       <c r="V51" t="n">
-        <v>1.48</v>
+        <v>1.22</v>
       </c>
       <c r="W51" t="n">
-        <v>1.52</v>
+        <v>2.28</v>
       </c>
       <c r="X51" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y51" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z51" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA51" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB51" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC51" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD51" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE51" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF51" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AG51" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH51" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI51" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ51" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AK51" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AL51" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM51" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN51" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AO51" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -7403,126 +7403,126 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>America de Cali S.A</t>
+          <t>Guimaraes</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Atletico Nacional Medellin</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.04</v>
+        <v>2.84</v>
       </c>
       <c r="G52" t="n">
-        <v>1000</v>
+        <v>2.94</v>
       </c>
       <c r="H52" t="n">
-        <v>1.04</v>
+        <v>2.94</v>
       </c>
       <c r="I52" t="n">
-        <v>1000</v>
+        <v>3.1</v>
       </c>
       <c r="J52" t="n">
-        <v>1.01</v>
+        <v>3</v>
       </c>
       <c r="K52" t="n">
-        <v>1000</v>
+        <v>3.25</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="P52" t="n">
-        <v>1.24</v>
+        <v>1.52</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.01</v>
+        <v>2.56</v>
       </c>
       <c r="R52" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="T52" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U52" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V52" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="W52" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="X52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y52" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z52" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AA52" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB52" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC52" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD52" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AE52" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AF52" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AG52" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AH52" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI52" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ52" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AK52" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AL52" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AM52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN52" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AO52" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53">
@@ -7543,12 +7543,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Ind Medellin</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Junior FC Barranquilla</t>
+          <t>Atletico Nacional Medellin</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -7564,100 +7564,235 @@
         <v>1000</v>
       </c>
       <c r="J53" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K53" t="n">
         <v>1000</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P53" t="n">
         <v>1.24</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="R53" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="S53" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="T53" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U53" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V53" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W53" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO53" t="n">
-        <v>0</v>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>19:15:00</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Ind Medellin</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Junior FC Barranquilla</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO54"/>
+  <dimension ref="A1:AO55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,16 +691,16 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.25</v>
+        <v>1.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>1.79</v>
+        <v>1.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.08</v>
+        <v>1.36</v>
       </c>
       <c r="R2" t="n">
         <v>1.3</v>
@@ -721,58 +721,58 @@
         <v>2.24</v>
       </c>
       <c r="X2" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="G3" t="n">
-        <v>9.800000000000001</v>
+        <v>17.5</v>
       </c>
       <c r="H3" t="n">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="I3" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="J3" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="K3" t="n">
-        <v>5.7</v>
+        <v>12.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>4.3</v>
+        <v>2.24</v>
       </c>
       <c r="O3" t="n">
         <v>1.18</v>
       </c>
       <c r="P3" t="n">
-        <v>2.44</v>
+        <v>2.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="R3" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
-        <v>2.34</v>
+        <v>2.16</v>
       </c>
       <c r="T3" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U3" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>2.88</v>
+        <v>2.58</v>
       </c>
       <c r="W3" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="X3" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -943,10 +943,10 @@
         <v>8.6</v>
       </c>
       <c r="H4" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="I4" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="J4" t="n">
         <v>3</v>
@@ -985,7 +985,7 @@
         <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.96</v>
+        <v>1.86</v>
       </c>
       <c r="W4" t="n">
         <v>1.13</v>
@@ -1084,7 +1084,7 @@
         <v>14</v>
       </c>
       <c r="J5" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="K5" t="n">
         <v>6.8</v>
@@ -1102,7 +1102,7 @@
         <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q5" t="n">
         <v>1.59</v>
@@ -1114,7 +1114,7 @@
         <v>2.5</v>
       </c>
       <c r="T5" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U5" t="n">
         <v>1.78</v>
@@ -1210,16 +1210,16 @@
         <v>1.64</v>
       </c>
       <c r="G6" t="n">
-        <v>1.82</v>
+        <v>1.97</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>3.15</v>
+        <v>2.72</v>
       </c>
       <c r="K6" t="n">
         <v>4.8</v>
@@ -1231,7 +1231,7 @@
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>1.01</v>
       </c>
       <c r="O6" t="n">
         <v>1.39</v>
@@ -1243,7 +1243,7 @@
         <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="S6" t="n">
         <v>3.9</v>
@@ -1252,13 +1252,13 @@
         <v>2.02</v>
       </c>
       <c r="U6" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
         <v>1.14</v>
       </c>
       <c r="W6" t="n">
-        <v>2.22</v>
+        <v>2.04</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1342,25 +1342,25 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="G7" t="n">
-        <v>2.96</v>
+        <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>2.94</v>
+        <v>1.04</v>
       </c>
       <c r="I7" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>2.66</v>
+        <v>1.02</v>
       </c>
       <c r="K7" t="n">
-        <v>4.8</v>
+        <v>950</v>
       </c>
       <c r="L7" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
@@ -1372,10 +1372,10 @@
         <v>1.02</v>
       </c>
       <c r="P7" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.24</v>
+        <v>1.01</v>
       </c>
       <c r="R7" t="n">
         <v>1.18</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.62</v>
+        <v>2.38</v>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="H8" t="n">
-        <v>2.74</v>
+        <v>2.46</v>
       </c>
       <c r="I8" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="J8" t="n">
-        <v>2.98</v>
+        <v>2.44</v>
       </c>
       <c r="K8" t="n">
-        <v>3.6</v>
+        <v>5.7</v>
       </c>
       <c r="L8" t="n">
         <v>1.39</v>
@@ -1507,13 +1507,13 @@
         <v>1.39</v>
       </c>
       <c r="P8" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="Q8" t="n">
         <v>2.14</v>
       </c>
       <c r="R8" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="S8" t="n">
         <v>3.6</v>
@@ -1522,7 +1522,7 @@
         <v>1.83</v>
       </c>
       <c r="U8" t="n">
-        <v>1.96</v>
+        <v>1.82</v>
       </c>
       <c r="V8" t="n">
         <v>1.46</v>
@@ -1615,16 +1615,16 @@
         <v>2.28</v>
       </c>
       <c r="G9" t="n">
-        <v>2.62</v>
+        <v>2.84</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
         <v>4.3</v>
       </c>
       <c r="J9" t="n">
-        <v>2.96</v>
+        <v>2.68</v>
       </c>
       <c r="K9" t="n">
         <v>3.45</v>
@@ -1636,19 +1636,19 @@
         <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>2.72</v>
+        <v>2.38</v>
       </c>
       <c r="O9" t="n">
         <v>1.46</v>
       </c>
       <c r="P9" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="Q9" t="n">
         <v>2.2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="S9" t="n">
         <v>4.2</v>
@@ -1657,13 +1657,13 @@
         <v>1.98</v>
       </c>
       <c r="U9" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="V9" t="n">
         <v>1.32</v>
       </c>
       <c r="W9" t="n">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="X9" t="n">
         <v>970</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="G10" t="n">
         <v>2.54</v>
@@ -1756,16 +1756,16 @@
         <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="J10" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="K10" t="n">
         <v>3.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="M10" t="n">
         <v>1.12</v>
@@ -1792,22 +1792,22 @@
         <v>2.08</v>
       </c>
       <c r="U10" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="V10" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="W10" t="n">
         <v>1.65</v>
       </c>
       <c r="X10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Z10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA10" t="n">
         <v>120</v>
@@ -1819,34 +1819,34 @@
         <v>7.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AE10" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AF10" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI10" t="n">
         <v>120</v>
       </c>
       <c r="AJ10" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK10" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AL10" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AM10" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AN10" t="n">
         <v>44</v>
@@ -1894,7 +1894,7 @@
         <v>2.06</v>
       </c>
       <c r="J11" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K11" t="n">
         <v>950</v>
@@ -1915,13 +1915,13 @@
         <v>2.06</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R11" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S11" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="T11" t="n">
         <v>1.01</v>
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="G12" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="H12" t="n">
         <v>4.5</v>
@@ -2029,10 +2029,10 @@
         <v>7.2</v>
       </c>
       <c r="J12" t="n">
-        <v>3.45</v>
+        <v>2.76</v>
       </c>
       <c r="K12" t="n">
-        <v>4.6</v>
+        <v>5.8</v>
       </c>
       <c r="L12" t="n">
         <v>1.37</v>
@@ -2044,13 +2044,13 @@
         <v>2.88</v>
       </c>
       <c r="O12" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
         <v>1.72</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="R12" t="n">
         <v>1.28</v>
@@ -2059,34 +2059,34 @@
         <v>3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="U12" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="V12" t="n">
         <v>1.16</v>
       </c>
       <c r="W12" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X12" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Z12" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
         <v>32</v>
@@ -2095,31 +2095,31 @@
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AK12" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AL12" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.24</v>
+        <v>1.64</v>
       </c>
       <c r="G13" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H13" t="n">
         <v>2.88</v>
       </c>
       <c r="I13" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="J13" t="n">
-        <v>2.56</v>
+        <v>2.02</v>
       </c>
       <c r="K13" t="n">
-        <v>4.8</v>
+        <v>950</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2185,13 +2185,13 @@
         <v>1.38</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.48</v>
+        <v>1.01</v>
       </c>
       <c r="R13" t="n">
         <v>1.18</v>
       </c>
       <c r="S13" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="T13" t="n">
         <v>1.01</v>
@@ -2200,7 +2200,7 @@
         <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="W13" t="n">
         <v>1.47</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="G14" t="n">
         <v>2.22</v>
       </c>
       <c r="H14" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="J14" t="n">
         <v>3.25</v>
       </c>
       <c r="K14" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L14" t="n">
         <v>1.38</v>
@@ -2335,64 +2335,64 @@
         <v>1.98</v>
       </c>
       <c r="V14" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="W14" t="n">
         <v>1.81</v>
       </c>
       <c r="X14" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Padova</t>
+          <t>AC Monza</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Sudtirol</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.3</v>
+        <v>1.57</v>
       </c>
       <c r="G16" t="n">
-        <v>3.65</v>
+        <v>1.62</v>
       </c>
       <c r="H16" t="n">
-        <v>2.52</v>
+        <v>6.8</v>
       </c>
       <c r="I16" t="n">
-        <v>2.72</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J16" t="n">
-        <v>2.9</v>
+        <v>3.95</v>
       </c>
       <c r="K16" t="n">
-        <v>3.05</v>
+        <v>4.4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M16" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V16" t="n">
         <v>1.12</v>
       </c>
-      <c r="N16" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S16" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.6</v>
-      </c>
       <c r="W16" t="n">
-        <v>1.38</v>
+        <v>2.6</v>
       </c>
       <c r="X16" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>AC Monza</t>
+          <t>Mantova</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sudtirol</t>
+          <t>Reggiana</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.57</v>
+        <v>2.3</v>
       </c>
       <c r="G17" t="n">
-        <v>1.62</v>
+        <v>2.46</v>
       </c>
       <c r="H17" t="n">
-        <v>6.8</v>
+        <v>3.4</v>
       </c>
       <c r="I17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="X17" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC17" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="J17" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W17" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="X17" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>330</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>11</v>
-      </c>
       <c r="AD17" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AE17" t="n">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="AF17" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>34</v>
       </c>
-      <c r="AI17" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AK17" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AL17" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AM17" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="AN17" t="n">
-        <v>12.5</v>
+        <v>22</v>
       </c>
       <c r="AO17" t="n">
-        <v>290</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,127 +2818,127 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Mantova</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Reggiana</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.32</v>
+        <v>2.62</v>
       </c>
       <c r="G18" t="n">
-        <v>2.46</v>
+        <v>2.66</v>
       </c>
       <c r="H18" t="n">
         <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="J18" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="K18" t="n">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="L18" t="n">
-        <v>1.35</v>
+        <v>1.56</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="N18" t="n">
-        <v>3.55</v>
+        <v>2.84</v>
       </c>
       <c r="O18" t="n">
-        <v>1.32</v>
+        <v>1.53</v>
       </c>
       <c r="P18" t="n">
-        <v>1.87</v>
+        <v>1.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>2</v>
+        <v>2.58</v>
       </c>
       <c r="R18" t="n">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="S18" t="n">
-        <v>3.4</v>
+        <v>5.2</v>
       </c>
       <c r="T18" t="n">
-        <v>1.73</v>
+        <v>2.08</v>
       </c>
       <c r="U18" t="n">
-        <v>2.12</v>
+        <v>1.86</v>
       </c>
       <c r="V18" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="W18" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="X18" t="n">
-        <v>14</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y18" t="n">
-        <v>14</v>
+        <v>9.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AA18" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB18" t="n">
-        <v>10.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE18" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH18" t="n">
         <v>21</v>
       </c>
       <c r="AI18" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AJ18" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AK18" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AL18" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AM18" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AN18" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="AO18" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Padova</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.62</v>
+        <v>3.2</v>
       </c>
       <c r="G19" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N19" t="n">
         <v>2.66</v>
       </c>
-      <c r="H19" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2.84</v>
-      </c>
       <c r="O19" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="P19" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="R19" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="S19" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="T19" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="U19" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="V19" t="n">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="W19" t="n">
-        <v>1.6</v>
+        <v>1.37</v>
       </c>
       <c r="X19" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z19" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AB19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC19" t="n">
         <v>8.199999999999999</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>6.8</v>
       </c>
       <c r="AD19" t="n">
         <v>15</v>
       </c>
       <c r="AE19" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AF19" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AG19" t="n">
-        <v>12.5</v>
+        <v>19</v>
       </c>
       <c r="AH19" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AI19" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ19" t="n">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="AK19" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AL19" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AM19" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="AN19" t="n">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AO19" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
@@ -3256,10 +3256,10 @@
         <v>1.11</v>
       </c>
       <c r="N21" t="n">
-        <v>2.82</v>
+        <v>2.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="P21" t="n">
         <v>1.61</v>
@@ -3274,10 +3274,10 @@
         <v>4.7</v>
       </c>
       <c r="T21" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="U21" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="V21" t="n">
         <v>1.32</v>
@@ -3286,7 +3286,7 @@
         <v>1.74</v>
       </c>
       <c r="X21" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="Y21" t="n">
         <v>12</v>
@@ -3316,13 +3316,13 @@
         <v>11.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI21" t="n">
         <v>85</v>
       </c>
       <c r="AJ21" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AK21" t="n">
         <v>30</v>
@@ -3370,7 +3370,7 @@
         <v>1.27</v>
       </c>
       <c r="G22" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="H22" t="n">
         <v>13.5</v>
@@ -3385,13 +3385,13 @@
         <v>6.8</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>2.16</v>
+        <v>4.3</v>
       </c>
       <c r="O22" t="n">
         <v>1.23</v>
@@ -3403,10 +3403,10 @@
         <v>1.68</v>
       </c>
       <c r="R22" t="n">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="S22" t="n">
-        <v>2.48</v>
+        <v>2.74</v>
       </c>
       <c r="T22" t="n">
         <v>1.01</v>
@@ -3424,7 +3424,7 @@
         <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Z22" t="n">
         <v>1000</v>
@@ -3433,37 +3433,37 @@
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AE22" t="n">
         <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AI22" t="n">
         <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
@@ -3502,31 +3502,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.26</v>
+        <v>2.04</v>
       </c>
       <c r="G23" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="H23" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I23" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="J23" t="n">
         <v>2.92</v>
       </c>
       <c r="K23" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="L23" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="n">
         <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>3.1</v>
+        <v>2.84</v>
       </c>
       <c r="O23" t="n">
         <v>1.39</v>
@@ -3535,13 +3535,13 @@
         <v>1.72</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="R23" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="S23" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="T23" t="n">
         <v>1.84</v>
@@ -3550,64 +3550,64 @@
         <v>1.98</v>
       </c>
       <c r="V23" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="W23" t="n">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="X23" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
         <v>60</v>
       </c>
       <c r="AF23" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ23" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AK23" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AL23" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="G24" t="n">
-        <v>2.54</v>
+        <v>2.7</v>
       </c>
       <c r="H24" t="n">
         <v>3.4</v>
@@ -3670,13 +3670,13 @@
         <v>1.58</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="R24" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="S24" t="n">
-        <v>4.2</v>
+        <v>2.22</v>
       </c>
       <c r="T24" t="n">
         <v>2</v>
@@ -3685,70 +3685,70 @@
         <v>1.83</v>
       </c>
       <c r="V24" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W24" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="X24" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Z24" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AL24" t="n">
         <v>80</v>
       </c>
       <c r="AM24" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Azerbaijan Premier League</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3763,127 +3763,127 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>FC Sabah</t>
+          <t>Panserraikos</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Neftchi Baku</t>
+          <t>Panaitolikos</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.99</v>
+        <v>2.72</v>
       </c>
       <c r="G25" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q25" t="n">
         <v>2.24</v>
       </c>
-      <c r="H25" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I25" t="n">
-        <v>5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N25" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.12</v>
-      </c>
       <c r="R25" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="S25" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="T25" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U25" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V25" t="n">
-        <v>1.26</v>
+        <v>1.48</v>
       </c>
       <c r="W25" t="n">
-        <v>1.8</v>
+        <v>1.49</v>
       </c>
       <c r="X25" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="Y25" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Z25" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="AA25" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="AB25" t="n">
         <v>10</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>21</v>
+        <v>13.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="AF25" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AI25" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AJ25" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AK25" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="AL25" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AM25" t="n">
         <v>160</v>
       </c>
       <c r="AN25" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="AO25" t="n">
-        <v>90</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Azerbaijan Premier League</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Panserraikos</t>
+          <t>FC Sabah</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Panaitolikos</t>
+          <t>Neftchi Baku</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.72</v>
+        <v>1.99</v>
       </c>
       <c r="G26" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N26" t="n">
         <v>3.05</v>
       </c>
-      <c r="H26" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N26" t="n">
-        <v>2.94</v>
-      </c>
       <c r="O26" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="P26" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="R26" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="S26" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="T26" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="U26" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V26" t="n">
-        <v>1.48</v>
+        <v>1.27</v>
       </c>
       <c r="W26" t="n">
-        <v>1.49</v>
+        <v>1.8</v>
       </c>
       <c r="X26" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Z26" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="AA26" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AB26" t="n">
         <v>10</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="AE26" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="AF26" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH26" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AI26" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="AJ26" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL26" t="n">
         <v>55</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>65</v>
       </c>
       <c r="AM26" t="n">
         <v>160</v>
       </c>
       <c r="AN26" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AO26" t="n">
-        <v>42</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
@@ -4102,25 +4102,25 @@
         <v>16</v>
       </c>
       <c r="Z27" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA27" t="n">
         <v>130</v>
       </c>
       <c r="AB27" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE27" t="n">
         <v>80</v>
       </c>
       <c r="AF27" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG27" t="n">
         <v>12.5</v>
@@ -4135,7 +4135,7 @@
         <v>26</v>
       </c>
       <c r="AK27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL27" t="n">
         <v>55</v>
@@ -4153,7 +4153,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,123 +4163,123 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:45:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Kabylie</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>USM Alger</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="G28" t="n">
-        <v>1.78</v>
+        <v>2.04</v>
       </c>
       <c r="H28" t="n">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="I28" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="K28" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="L28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P28" t="n">
         <v>1.4</v>
       </c>
-      <c r="M28" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N28" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.94</v>
-      </c>
       <c r="Q28" t="n">
-        <v>1.92</v>
+        <v>2.4</v>
       </c>
       <c r="R28" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="S28" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.79</v>
+        <v>1.01</v>
       </c>
       <c r="U28" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="V28" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="W28" t="n">
-        <v>2.28</v>
+        <v>1.96</v>
       </c>
       <c r="X28" t="n">
         <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Z28" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
         <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD28" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AE28" t="n">
         <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH28" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI28" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
         <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4288,7 +4288,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,115 +4303,115 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Sloga Doboj</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Gaziantep FK</t>
+          <t>Rudar Prijedor</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.51</v>
+        <v>1.04</v>
       </c>
       <c r="G29" t="n">
-        <v>1.54</v>
+        <v>1000</v>
       </c>
       <c r="H29" t="n">
-        <v>6</v>
+        <v>1.04</v>
       </c>
       <c r="I29" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="J29" t="n">
-        <v>5</v>
+        <v>1.02</v>
       </c>
       <c r="K29" t="n">
-        <v>5.4</v>
+        <v>1000</v>
       </c>
       <c r="L29" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>2.66</v>
+        <v>1.34</v>
       </c>
       <c r="O29" t="n">
-        <v>1.15</v>
+        <v>1.01</v>
       </c>
       <c r="P29" t="n">
-        <v>2.66</v>
+        <v>1.34</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.51</v>
+        <v>2.74</v>
       </c>
       <c r="R29" t="n">
-        <v>1.59</v>
+        <v>1.18</v>
       </c>
       <c r="S29" t="n">
-        <v>2.08</v>
+        <v>2.74</v>
       </c>
       <c r="T29" t="n">
-        <v>1.53</v>
+        <v>1.01</v>
       </c>
       <c r="U29" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="V29" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="W29" t="n">
-        <v>2.84</v>
+        <v>1.01</v>
       </c>
       <c r="X29" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Y29" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="Z29" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AA29" t="n">
         <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AC29" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AD29" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AE29" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH29" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI29" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL29" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM29" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
         <v>1000</v>
@@ -4423,7 +4423,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4438,127 +4438,127 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Sloga Doboj</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Rudar Prijedor</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.04</v>
+        <v>2.66</v>
       </c>
       <c r="G30" t="n">
-        <v>1000</v>
+        <v>2.7</v>
       </c>
       <c r="H30" t="n">
-        <v>1.04</v>
+        <v>3.35</v>
       </c>
       <c r="I30" t="n">
-        <v>1000</v>
+        <v>3.4</v>
       </c>
       <c r="J30" t="n">
-        <v>1.02</v>
+        <v>3</v>
       </c>
       <c r="K30" t="n">
-        <v>1000</v>
+        <v>3.05</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="M30" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="N30" t="n">
-        <v>1.34</v>
+        <v>2.82</v>
       </c>
       <c r="O30" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="P30" t="n">
-        <v>1.34</v>
+        <v>1.58</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="R30" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S30" t="n">
-        <v>2.74</v>
+        <v>5.3</v>
       </c>
       <c r="T30" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="U30" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="V30" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="W30" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="X30" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Z30" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB30" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF30" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG30" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4573,127 +4573,127 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Corum Belediyespor</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.68</v>
+        <v>2.32</v>
       </c>
       <c r="G31" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H31" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J31" t="n">
         <v>3.3</v>
       </c>
-      <c r="I31" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3</v>
-      </c>
       <c r="K31" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="L31" t="n">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="M31" t="n">
-        <v>1.13</v>
+        <v>1.05</v>
       </c>
       <c r="N31" t="n">
-        <v>2.82</v>
+        <v>3.25</v>
       </c>
       <c r="O31" t="n">
-        <v>1.53</v>
+        <v>1.3</v>
       </c>
       <c r="P31" t="n">
-        <v>1.59</v>
+        <v>1.9</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.62</v>
+        <v>1.89</v>
       </c>
       <c r="R31" t="n">
-        <v>1.21</v>
+        <v>1.31</v>
       </c>
       <c r="S31" t="n">
-        <v>5.3</v>
+        <v>2.96</v>
       </c>
       <c r="T31" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="U31" t="n">
-        <v>1.87</v>
+        <v>2.12</v>
       </c>
       <c r="V31" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="W31" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="X31" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="Y31" t="n">
-        <v>9.6</v>
+        <v>15.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AA31" t="n">
         <v>65</v>
       </c>
       <c r="AB31" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AD31" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE31" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG31" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI31" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL31" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="AN31" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="AO31" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4708,127 +4708,127 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Corum Belediyespor</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Gaziantep FK</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.34</v>
+        <v>1.49</v>
       </c>
       <c r="G32" t="n">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="H32" t="n">
-        <v>2.96</v>
+        <v>6</v>
       </c>
       <c r="I32" t="n">
-        <v>3.45</v>
+        <v>7.2</v>
       </c>
       <c r="J32" t="n">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="K32" t="n">
-        <v>3.9</v>
+        <v>5.4</v>
       </c>
       <c r="L32" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M32" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N32" t="n">
-        <v>2.78</v>
+        <v>5.9</v>
       </c>
       <c r="O32" t="n">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="P32" t="n">
-        <v>1.9</v>
+        <v>2.66</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.88</v>
+        <v>1.51</v>
       </c>
       <c r="R32" t="n">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="S32" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W32" t="n">
         <v>2.84</v>
       </c>
-      <c r="T32" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1.56</v>
-      </c>
       <c r="X32" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Y32" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Z32" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA32" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AB32" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD32" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AE32" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF32" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI32" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AK32" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AL32" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AM32" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,132 +4838,132 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="G33" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="H33" t="n">
-        <v>7.2</v>
+        <v>5.4</v>
       </c>
       <c r="I33" t="n">
-        <v>9.199999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="J33" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K33" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L33" t="n">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="M33" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N33" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S33" t="n">
         <v>2.96</v>
       </c>
-      <c r="O33" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S33" t="n">
-        <v>4.3</v>
-      </c>
       <c r="T33" t="n">
-        <v>2.26</v>
+        <v>1.89</v>
       </c>
       <c r="U33" t="n">
-        <v>1.66</v>
+        <v>1.96</v>
       </c>
       <c r="V33" t="n">
-        <v>1.12</v>
+        <v>1.21</v>
       </c>
       <c r="W33" t="n">
-        <v>2.52</v>
+        <v>2.3</v>
       </c>
       <c r="X33" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN33" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y33" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>390</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>200</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>200</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>290</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>14</v>
-      </c>
       <c r="AO33" t="n">
-        <v>380</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,93 +4973,93 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Maccabi Bnei Raina</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Bnei Sakhnin</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.04</v>
+        <v>1.6</v>
       </c>
       <c r="G34" t="n">
-        <v>3.05</v>
+        <v>1.67</v>
       </c>
       <c r="H34" t="n">
-        <v>2.68</v>
+        <v>7.4</v>
       </c>
       <c r="I34" t="n">
-        <v>960</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K34" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="L34" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M34" t="n">
         <v>1.09</v>
       </c>
       <c r="N34" t="n">
-        <v>1.02</v>
+        <v>2.96</v>
       </c>
       <c r="O34" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="P34" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.02</v>
+        <v>2.28</v>
       </c>
       <c r="R34" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="S34" t="n">
-        <v>1.06</v>
+        <v>2.28</v>
       </c>
       <c r="T34" t="n">
-        <v>1.77</v>
+        <v>2.26</v>
       </c>
       <c r="U34" t="n">
-        <v>1.89</v>
+        <v>1.66</v>
       </c>
       <c r="V34" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="W34" t="n">
-        <v>1.01</v>
+        <v>2.5</v>
       </c>
       <c r="X34" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y34" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="Z34" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AA34" t="n">
         <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AC34" t="n">
-        <v>970</v>
+        <v>9.6</v>
       </c>
       <c r="AD34" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AE34" t="n">
         <v>1000</v>
@@ -5068,28 +5068,28 @@
         <v>1000</v>
       </c>
       <c r="AG34" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AH34" t="n">
-        <v>19.5</v>
+        <v>32</v>
       </c>
       <c r="AI34" t="n">
         <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AK34" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL34" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AM34" t="n">
         <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AO34" t="n">
         <v>1000</v>
@@ -5113,73 +5113,73 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>FC Ashdod</t>
+          <t>Maccabi Bnei Raina</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Ironi Tiberias</t>
+          <t>Bnei Sakhnin</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.98</v>
+        <v>1.04</v>
       </c>
       <c r="G35" t="n">
-        <v>2.28</v>
+        <v>3.05</v>
       </c>
       <c r="H35" t="n">
-        <v>3.1</v>
+        <v>2.68</v>
       </c>
       <c r="I35" t="n">
-        <v>4.8</v>
+        <v>960</v>
       </c>
       <c r="J35" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="K35" t="n">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="L35" t="n">
         <v>1.01</v>
       </c>
       <c r="M35" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N35" t="n">
-        <v>1.95</v>
+        <v>1.02</v>
       </c>
       <c r="O35" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="P35" t="n">
-        <v>1.95</v>
+        <v>1.61</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.83</v>
+        <v>1.02</v>
       </c>
       <c r="R35" t="n">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="S35" t="n">
-        <v>2.72</v>
+        <v>1.06</v>
       </c>
       <c r="T35" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="U35" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="V35" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="W35" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="X35" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y35" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z35" t="n">
         <v>1000</v>
@@ -5191,10 +5191,10 @@
         <v>1000</v>
       </c>
       <c r="AC35" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD35" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE35" t="n">
         <v>1000</v>
@@ -5203,22 +5203,22 @@
         <v>1000</v>
       </c>
       <c r="AG35" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH35" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI35" t="n">
         <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AK35" t="n">
         <v>1000</v>
       </c>
       <c r="AL35" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM35" t="n">
         <v>1000</v>
@@ -5233,7 +5233,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,132 +5243,132 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Vejle</t>
+          <t>FC Ashdod</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Brondby</t>
+          <t>Ironi Tiberias</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>4.4</v>
+        <v>1.98</v>
       </c>
       <c r="G36" t="n">
-        <v>5</v>
+        <v>2.28</v>
       </c>
       <c r="H36" t="n">
-        <v>1.82</v>
+        <v>3.2</v>
       </c>
       <c r="I36" t="n">
-        <v>1.88</v>
+        <v>4.8</v>
       </c>
       <c r="J36" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="K36" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="L36" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="M36" t="n">
         <v>1.05</v>
       </c>
       <c r="N36" t="n">
-        <v>4.4</v>
+        <v>3.25</v>
       </c>
       <c r="O36" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="P36" t="n">
-        <v>2.18</v>
+        <v>1.95</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="R36" t="n">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
       <c r="S36" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="T36" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="U36" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="V36" t="n">
-        <v>2.12</v>
+        <v>1.27</v>
       </c>
       <c r="W36" t="n">
-        <v>1.26</v>
+        <v>1.78</v>
       </c>
       <c r="X36" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Y36" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z36" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AA36" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AC36" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD36" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE36" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AG36" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AH36" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI36" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AK36" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL36" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM36" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO36" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5383,127 +5383,127 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Vejle</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Hapoel Jerusalem</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.45</v>
+        <v>4.4</v>
       </c>
       <c r="G37" t="n">
-        <v>1.59</v>
+        <v>5</v>
       </c>
       <c r="H37" t="n">
-        <v>5.9</v>
+        <v>1.82</v>
       </c>
       <c r="I37" t="n">
-        <v>9.4</v>
+        <v>1.88</v>
       </c>
       <c r="J37" t="n">
+        <v>4</v>
+      </c>
+      <c r="K37" t="n">
         <v>4.2</v>
       </c>
-      <c r="K37" t="n">
-        <v>6.2</v>
-      </c>
       <c r="L37" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M37" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="O37" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="P37" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="R37" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S37" t="n">
-        <v>2.4</v>
+        <v>2.84</v>
       </c>
       <c r="T37" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="U37" t="n">
-        <v>1.86</v>
+        <v>2.2</v>
       </c>
       <c r="V37" t="n">
-        <v>1.11</v>
+        <v>2.12</v>
       </c>
       <c r="W37" t="n">
-        <v>2.62</v>
+        <v>1.26</v>
       </c>
       <c r="X37" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Y37" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="Z37" t="n">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="AA37" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AB37" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AC37" t="n">
-        <v>13.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD37" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="AE37" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ37" t="n">
         <v>120</v>
       </c>
-      <c r="AF37" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AK37" t="n">
-        <v>18.5</v>
+        <v>65</v>
       </c>
       <c r="AL37" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AM37" t="n">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AN37" t="n">
-        <v>7.8</v>
+        <v>55</v>
       </c>
       <c r="AO37" t="n">
-        <v>130</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5518,127 +5518,127 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Wisla Plock</t>
+          <t>Hapoel Jerusalem</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.14</v>
+        <v>1.45</v>
       </c>
       <c r="G38" t="n">
-        <v>2.38</v>
+        <v>1.59</v>
       </c>
       <c r="H38" t="n">
-        <v>3.5</v>
+        <v>5.9</v>
       </c>
       <c r="I38" t="n">
-        <v>4.2</v>
+        <v>9.4</v>
       </c>
       <c r="J38" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="K38" t="n">
-        <v>3.65</v>
+        <v>6.2</v>
       </c>
       <c r="L38" t="n">
         <v>1.01</v>
       </c>
       <c r="M38" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N38" t="n">
-        <v>1.73</v>
+        <v>4.1</v>
       </c>
       <c r="O38" t="n">
-        <v>1.39</v>
+        <v>1.21</v>
       </c>
       <c r="P38" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T38" t="n">
         <v>1.72</v>
       </c>
-      <c r="Q38" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S38" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T38" t="n">
-        <v>1.01</v>
-      </c>
       <c r="U38" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="V38" t="n">
-        <v>1.33</v>
+        <v>1.11</v>
       </c>
       <c r="W38" t="n">
-        <v>1.72</v>
+        <v>2.62</v>
       </c>
       <c r="X38" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y38" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z38" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AA38" t="n">
         <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC38" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AD38" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE38" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF38" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG38" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI38" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AK38" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AL38" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM38" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN38" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AO38" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5653,67 +5653,67 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>FK Spartak</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>FK Backa Topola</t>
+          <t>Wisla Plock</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.44</v>
+        <v>2.14</v>
       </c>
       <c r="G39" t="n">
-        <v>3.45</v>
+        <v>2.38</v>
       </c>
       <c r="H39" t="n">
-        <v>2.54</v>
+        <v>3.5</v>
       </c>
       <c r="I39" t="n">
-        <v>3.25</v>
+        <v>4.6</v>
       </c>
       <c r="J39" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="K39" t="n">
-        <v>4.3</v>
+        <v>3.65</v>
       </c>
       <c r="L39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V39" t="n">
         <v>1.33</v>
       </c>
-      <c r="M39" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N39" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="S39" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="T39" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U39" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V39" t="n">
-        <v>1.44</v>
-      </c>
       <c r="W39" t="n">
-        <v>1.4</v>
+        <v>1.72</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
@@ -5773,7 +5773,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,126 +5783,126 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>FK Spartak</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>FK Backa Topola</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.5</v>
+        <v>1.41</v>
       </c>
       <c r="G40" t="n">
-        <v>2.64</v>
+        <v>3.65</v>
       </c>
       <c r="H40" t="n">
-        <v>3.25</v>
+        <v>1.73</v>
       </c>
       <c r="I40" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J40" t="n">
-        <v>3.05</v>
+        <v>2.84</v>
       </c>
       <c r="K40" t="n">
-        <v>3.2</v>
+        <v>1000</v>
       </c>
       <c r="L40" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P40" t="n">
         <v>1.11</v>
       </c>
-      <c r="N40" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P40" t="n">
-        <v>1.6</v>
-      </c>
       <c r="Q40" t="n">
-        <v>2.42</v>
+        <v>1.83</v>
       </c>
       <c r="R40" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="S40" t="n">
-        <v>4.8</v>
+        <v>1.01</v>
       </c>
       <c r="T40" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="U40" t="n">
-        <v>1.86</v>
+        <v>1.01</v>
       </c>
       <c r="V40" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W40" t="n">
-        <v>1.6</v>
+        <v>1.37</v>
       </c>
       <c r="X40" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y40" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z40" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AA40" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC40" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD40" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE40" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF40" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AG40" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH40" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI40" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ40" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AK40" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL40" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM40" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AO40" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="41">
@@ -5932,19 +5932,19 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.64</v>
+        <v>2.38</v>
       </c>
       <c r="G41" t="n">
-        <v>2.98</v>
+        <v>4.2</v>
       </c>
       <c r="H41" t="n">
         <v>2.72</v>
       </c>
       <c r="I41" t="n">
-        <v>3.05</v>
+        <v>3.65</v>
       </c>
       <c r="J41" t="n">
-        <v>3.2</v>
+        <v>2.06</v>
       </c>
       <c r="K41" t="n">
         <v>3.7</v>
@@ -5974,19 +5974,19 @@
         <v>1.9</v>
       </c>
       <c r="T41" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="U41" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="V41" t="n">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="W41" t="n">
-        <v>1.51</v>
+        <v>1.32</v>
       </c>
       <c r="X41" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="Y41" t="n">
         <v>16</v>
@@ -5995,34 +5995,34 @@
         <v>28</v>
       </c>
       <c r="AA41" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB41" t="n">
         <v>16</v>
       </c>
       <c r="AC41" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD41" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AE41" t="n">
         <v>48</v>
       </c>
       <c r="AF41" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AG41" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AH41" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI41" t="n">
         <v>1000</v>
       </c>
       <c r="AJ41" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK41" t="n">
         <v>48</v>
@@ -6043,7 +6043,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6053,126 +6053,126 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="F42" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H42" t="n">
         <v>3.25</v>
       </c>
-      <c r="G42" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1.95</v>
-      </c>
       <c r="I42" t="n">
-        <v>2.34</v>
+        <v>3.5</v>
       </c>
       <c r="J42" t="n">
-        <v>3.65</v>
+        <v>3.1</v>
       </c>
       <c r="K42" t="n">
-        <v>4.9</v>
+        <v>3.35</v>
       </c>
       <c r="L42" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M42" t="n">
-        <v>1.02</v>
+        <v>1.11</v>
       </c>
       <c r="N42" t="n">
-        <v>2.88</v>
+        <v>2.76</v>
       </c>
       <c r="O42" t="n">
-        <v>1.12</v>
+        <v>1.48</v>
       </c>
       <c r="P42" t="n">
-        <v>2.88</v>
+        <v>1.25</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="R42" t="n">
-        <v>1.75</v>
+        <v>1.22</v>
       </c>
       <c r="S42" t="n">
-        <v>1.94</v>
+        <v>4.8</v>
       </c>
       <c r="T42" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="U42" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="V42" t="n">
-        <v>1.74</v>
+        <v>1.4</v>
       </c>
       <c r="W42" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="X42" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA42" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB42" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC42" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD42" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE42" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF42" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG42" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI42" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ42" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AK42" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL42" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM42" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN42" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO42" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="G43" t="n">
         <v>2.02</v>
@@ -6211,13 +6211,13 @@
         <v>5.3</v>
       </c>
       <c r="I43" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="J43" t="n">
         <v>2.84</v>
       </c>
       <c r="K43" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="L43" t="n">
         <v>1.01</v>
@@ -6229,19 +6229,19 @@
         <v>1.33</v>
       </c>
       <c r="O43" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="P43" t="n">
         <v>1.33</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="R43" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="S43" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="T43" t="n">
         <v>1.01</v>
@@ -6250,7 +6250,7 @@
         <v>1.01</v>
       </c>
       <c r="V43" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W43" t="n">
         <v>1.98</v>
@@ -6448,7 +6448,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6458,60 +6458,60 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.16</v>
+        <v>3.25</v>
       </c>
       <c r="G45" t="n">
-        <v>2.26</v>
+        <v>4.3</v>
       </c>
       <c r="H45" t="n">
-        <v>3.85</v>
+        <v>1.96</v>
       </c>
       <c r="I45" t="n">
-        <v>4.3</v>
+        <v>2.34</v>
       </c>
       <c r="J45" t="n">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="K45" t="n">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="L45" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="M45" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N45" t="n">
-        <v>1.67</v>
+        <v>2.88</v>
       </c>
       <c r="O45" t="n">
-        <v>1.45</v>
+        <v>1.12</v>
       </c>
       <c r="P45" t="n">
-        <v>1.67</v>
+        <v>2.88</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.28</v>
+        <v>1.42</v>
       </c>
       <c r="R45" t="n">
-        <v>1.21</v>
+        <v>1.75</v>
       </c>
       <c r="S45" t="n">
-        <v>3.55</v>
+        <v>1.94</v>
       </c>
       <c r="T45" t="n">
         <v>1.01</v>
@@ -6520,10 +6520,10 @@
         <v>1.01</v>
       </c>
       <c r="V45" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="W45" t="n">
         <v>1.3</v>
-      </c>
-      <c r="W45" t="n">
-        <v>1.79</v>
       </c>
       <c r="X45" t="n">
         <v>1000</v>
@@ -6583,7 +6583,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6593,123 +6593,123 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.65</v>
+        <v>2.16</v>
       </c>
       <c r="G46" t="n">
-        <v>1.75</v>
+        <v>2.26</v>
       </c>
       <c r="H46" t="n">
-        <v>6</v>
+        <v>3.85</v>
       </c>
       <c r="I46" t="n">
-        <v>7</v>
+        <v>4.3</v>
       </c>
       <c r="J46" t="n">
-        <v>3.8</v>
+        <v>3.15</v>
       </c>
       <c r="K46" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="L46" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M46" t="n">
         <v>1.08</v>
       </c>
       <c r="N46" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="O46" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="P46" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="R46" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="S46" t="n">
-        <v>3.35</v>
+        <v>2.3</v>
       </c>
       <c r="T46" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="U46" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="V46" t="n">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="W46" t="n">
-        <v>2.34</v>
+        <v>1.79</v>
       </c>
       <c r="X46" t="n">
         <v>1000</v>
       </c>
       <c r="Y46" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Z46" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AA46" t="n">
         <v>1000</v>
       </c>
       <c r="AB46" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AC46" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD46" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AE46" t="n">
         <v>1000</v>
       </c>
       <c r="AF46" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG46" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH46" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AI46" t="n">
         <v>1000</v>
       </c>
       <c r="AJ46" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AK46" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AL46" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM46" t="n">
         <v>1000</v>
       </c>
       <c r="AN46" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AO46" t="n">
         <v>1000</v>
@@ -6718,7 +6718,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6733,31 +6733,31 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>5.5</v>
+        <v>1.65</v>
       </c>
       <c r="G47" t="n">
-        <v>5.6</v>
+        <v>1.75</v>
       </c>
       <c r="H47" t="n">
-        <v>1.79</v>
+        <v>6</v>
       </c>
       <c r="I47" t="n">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="J47" t="n">
         <v>3.8</v>
       </c>
       <c r="K47" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="L47" t="n">
         <v>1.01</v>
@@ -6766,94 +6766,94 @@
         <v>1.08</v>
       </c>
       <c r="N47" t="n">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="O47" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P47" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="R47" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="S47" t="n">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="T47" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="U47" t="n">
-        <v>1.92</v>
+        <v>1.64</v>
       </c>
       <c r="V47" t="n">
-        <v>2.24</v>
+        <v>1.16</v>
       </c>
       <c r="W47" t="n">
-        <v>1.21</v>
+        <v>2.34</v>
       </c>
       <c r="X47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC47" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y47" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="AD47" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="AE47" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AF47" t="n">
-        <v>42</v>
+        <v>13.5</v>
       </c>
       <c r="AG47" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AH47" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AI47" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ47" t="n">
-        <v>170</v>
+        <v>25</v>
       </c>
       <c r="AK47" t="n">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="AL47" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AM47" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN47" t="n">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="AO47" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6863,132 +6863,132 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Estudiantes</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.65</v>
+        <v>5.5</v>
       </c>
       <c r="G48" t="n">
-        <v>4.3</v>
+        <v>5.6</v>
       </c>
       <c r="H48" t="n">
-        <v>2.38</v>
+        <v>1.79</v>
       </c>
       <c r="I48" t="n">
-        <v>2.52</v>
+        <v>1.8</v>
       </c>
       <c r="J48" t="n">
-        <v>2.92</v>
+        <v>3.8</v>
       </c>
       <c r="K48" t="n">
-        <v>3.15</v>
+        <v>3.85</v>
       </c>
       <c r="L48" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="M48" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N48" t="n">
-        <v>2.48</v>
+        <v>3.5</v>
       </c>
       <c r="O48" t="n">
-        <v>1.58</v>
+        <v>1.38</v>
       </c>
       <c r="P48" t="n">
-        <v>1.48</v>
+        <v>1.82</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.68</v>
+        <v>2.18</v>
       </c>
       <c r="R48" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="S48" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="T48" t="n">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="U48" t="n">
-        <v>1.72</v>
+        <v>1.91</v>
       </c>
       <c r="V48" t="n">
-        <v>1.65</v>
+        <v>2.24</v>
       </c>
       <c r="W48" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="X48" t="n">
-        <v>8.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="Z48" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB48" t="n">
         <v>16.5</v>
       </c>
-      <c r="AA48" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AC48" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD48" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE48" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AF48" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AG48" t="n">
         <v>22</v>
       </c>
       <c r="AH48" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AI48" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK48" t="n">
         <v>85</v>
       </c>
-      <c r="AJ48" t="n">
+      <c r="AL48" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN48" t="n">
         <v>120</v>
       </c>
-      <c r="AK48" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>260</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>130</v>
-      </c>
       <c r="AO48" t="n">
-        <v>48</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -7003,127 +7003,127 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>Estudiantes</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.04</v>
+        <v>3.65</v>
       </c>
       <c r="G49" t="n">
-        <v>110</v>
+        <v>4.3</v>
       </c>
       <c r="H49" t="n">
-        <v>1.04</v>
+        <v>2.38</v>
       </c>
       <c r="I49" t="n">
-        <v>110</v>
+        <v>2.52</v>
       </c>
       <c r="J49" t="n">
-        <v>1.02</v>
+        <v>2.92</v>
       </c>
       <c r="K49" t="n">
-        <v>950</v>
+        <v>3.15</v>
       </c>
       <c r="L49" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="M49" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="N49" t="n">
-        <v>1.28</v>
+        <v>2.3</v>
       </c>
       <c r="O49" t="n">
-        <v>1.42</v>
+        <v>1.63</v>
       </c>
       <c r="P49" t="n">
-        <v>1.28</v>
+        <v>1.41</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.42</v>
+        <v>2.96</v>
       </c>
       <c r="R49" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="S49" t="n">
-        <v>1.42</v>
+        <v>6.2</v>
       </c>
       <c r="T49" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="U49" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="V49" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="W49" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="X49" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="Y49" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="Z49" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AA49" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB49" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC49" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD49" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE49" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF49" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG49" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AH49" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI49" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ49" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK49" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL49" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM49" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AN49" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AO49" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7138,127 +7138,127 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>5</v>
+        <v>1.28</v>
       </c>
       <c r="G50" t="n">
-        <v>5.1</v>
+        <v>2.04</v>
       </c>
       <c r="H50" t="n">
-        <v>1.74</v>
+        <v>4.5</v>
       </c>
       <c r="I50" t="n">
-        <v>1.75</v>
+        <v>7</v>
       </c>
       <c r="J50" t="n">
-        <v>4.4</v>
+        <v>1.09</v>
       </c>
       <c r="K50" t="n">
-        <v>4.5</v>
+        <v>950</v>
       </c>
       <c r="L50" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M50" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N50" t="n">
-        <v>4.5</v>
+        <v>1.57</v>
       </c>
       <c r="O50" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="P50" t="n">
-        <v>2.26</v>
+        <v>1.56</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.77</v>
+        <v>2.04</v>
       </c>
       <c r="R50" t="n">
-        <v>1.47</v>
+        <v>1.2</v>
       </c>
       <c r="S50" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="T50" t="n">
-        <v>1.75</v>
+        <v>1.01</v>
       </c>
       <c r="U50" t="n">
-        <v>2.26</v>
+        <v>1.01</v>
       </c>
       <c r="V50" t="n">
-        <v>2.34</v>
+        <v>1.17</v>
       </c>
       <c r="W50" t="n">
-        <v>1.24</v>
+        <v>1.96</v>
       </c>
       <c r="X50" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y50" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="Z50" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA50" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AB50" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AC50" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD50" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AE50" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AF50" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AG50" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AH50" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI50" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AJ50" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AK50" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL50" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM50" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN50" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO50" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -7273,127 +7273,127 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="F51" t="n">
+        <v>5</v>
+      </c>
+      <c r="G51" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="I51" t="n">
         <v>1.76</v>
       </c>
-      <c r="G51" t="n">
+      <c r="J51" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K51" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N51" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Q51" t="n">
         <v>1.77</v>
       </c>
-      <c r="H51" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="I51" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J51" t="n">
-        <v>4</v>
-      </c>
-      <c r="K51" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L51" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M51" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N51" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O51" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P51" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>2.02</v>
-      </c>
       <c r="R51" t="n">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="S51" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="T51" t="n">
-        <v>1.96</v>
+        <v>1.75</v>
       </c>
       <c r="U51" t="n">
-        <v>1.99</v>
+        <v>2.26</v>
       </c>
       <c r="V51" t="n">
-        <v>1.22</v>
+        <v>2.3</v>
       </c>
       <c r="W51" t="n">
-        <v>2.28</v>
+        <v>1.24</v>
       </c>
       <c r="X51" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Y51" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE51" t="n">
         <v>17.5</v>
       </c>
-      <c r="Z51" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>80</v>
-      </c>
       <c r="AF51" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AG51" t="n">
-        <v>9.800000000000001</v>
+        <v>19</v>
       </c>
       <c r="AH51" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AI51" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="AJ51" t="n">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="AK51" t="n">
-        <v>18.5</v>
+        <v>60</v>
       </c>
       <c r="AL51" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AM51" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="AN51" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="AO51" t="n">
-        <v>100</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -7403,132 +7403,132 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Guimaraes</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.84</v>
+        <v>1.76</v>
       </c>
       <c r="G52" t="n">
-        <v>2.94</v>
+        <v>1.77</v>
       </c>
       <c r="H52" t="n">
-        <v>2.94</v>
+        <v>5.4</v>
       </c>
       <c r="I52" t="n">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="J52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K52" t="n">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="L52" t="n">
-        <v>1.61</v>
+        <v>1.43</v>
       </c>
       <c r="M52" t="n">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="N52" t="n">
-        <v>2.22</v>
+        <v>3.75</v>
       </c>
       <c r="O52" t="n">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="P52" t="n">
-        <v>1.52</v>
+        <v>1.94</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.56</v>
+        <v>2.02</v>
       </c>
       <c r="R52" t="n">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="S52" t="n">
-        <v>5.1</v>
+        <v>3.65</v>
       </c>
       <c r="T52" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="U52" t="n">
-        <v>1.01</v>
+        <v>1.99</v>
       </c>
       <c r="V52" t="n">
-        <v>1.47</v>
+        <v>1.22</v>
       </c>
       <c r="W52" t="n">
-        <v>1.51</v>
+        <v>2.28</v>
       </c>
       <c r="X52" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y52" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF52" t="n">
         <v>10</v>
       </c>
-      <c r="Z52" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>22</v>
-      </c>
       <c r="AG52" t="n">
-        <v>16.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH52" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AI52" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ52" t="n">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="AK52" t="n">
-        <v>55</v>
+        <v>18.5</v>
       </c>
       <c r="AL52" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AM52" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN52" t="n">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="AO52" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -7538,81 +7538,81 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>America de Cali S.A</t>
+          <t>Guimaraes</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Atletico Nacional Medellin</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.04</v>
+        <v>2.82</v>
       </c>
       <c r="G53" t="n">
-        <v>1000</v>
+        <v>2.94</v>
       </c>
       <c r="H53" t="n">
-        <v>1.04</v>
+        <v>2.94</v>
       </c>
       <c r="I53" t="n">
-        <v>1000</v>
+        <v>3.1</v>
       </c>
       <c r="J53" t="n">
-        <v>1.02</v>
+        <v>3</v>
       </c>
       <c r="K53" t="n">
-        <v>1000</v>
+        <v>3.25</v>
       </c>
       <c r="L53" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="M53" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N53" t="n">
-        <v>1.25</v>
+        <v>2.54</v>
       </c>
       <c r="O53" t="n">
-        <v>1.36</v>
+        <v>1.56</v>
       </c>
       <c r="P53" t="n">
-        <v>1.24</v>
+        <v>1.52</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.36</v>
+        <v>2.56</v>
       </c>
       <c r="R53" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="S53" t="n">
-        <v>1.36</v>
+        <v>5.3</v>
       </c>
       <c r="T53" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="U53" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="V53" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="W53" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="X53" t="n">
         <v>1000</v>
       </c>
       <c r="Y53" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z53" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AA53" t="n">
         <v>1000</v>
@@ -7621,31 +7621,31 @@
         <v>1000</v>
       </c>
       <c r="AC53" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD53" t="n">
         <v>1000</v>
       </c>
       <c r="AE53" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF53" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AG53" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH53" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI53" t="n">
         <v>1000</v>
       </c>
       <c r="AJ53" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK53" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL53" t="n">
         <v>1000</v>
@@ -7657,7 +7657,7 @@
         <v>1000</v>
       </c>
       <c r="AO53" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54">
@@ -7678,120 +7678,255 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>America de Cali S.A</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Atletico Nacional Medellin</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="G54" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K54" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V54" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>19:15:00</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>Ind Medellin</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>Junior FC Barranquilla</t>
         </is>
       </c>
-      <c r="F54" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N54" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="O54" t="n">
+      <c r="F55" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I55" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N55" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="O55" t="n">
         <v>1.3</v>
       </c>
-      <c r="P54" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="R54" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="S54" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T54" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U54" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V54" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W54" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO54" t="n">
+      <c r="P55" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U55" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V55" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO55" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO55"/>
+  <dimension ref="A1:AO57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="G2" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="H2" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I2" t="n">
         <v>6.4</v>
       </c>
       <c r="J2" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K2" t="n">
         <v>4.1</v>
@@ -691,22 +691,22 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P2" t="n">
-        <v>1.3</v>
+        <v>1.79</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.36</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
         <v>1.3</v>
       </c>
       <c r="S2" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
@@ -718,61 +718,61 @@
         <v>1.2</v>
       </c>
       <c r="W2" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3">
@@ -811,7 +811,7 @@
         <v>1.37</v>
       </c>
       <c r="I3" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="J3" t="n">
         <v>4.7</v>
@@ -826,25 +826,25 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="O3" t="n">
         <v>1.18</v>
       </c>
       <c r="P3" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="R3" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S3" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="T3" t="n">
-        <v>1.75</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
         <v>1.01</v>
@@ -940,13 +940,13 @@
         <v>4.4</v>
       </c>
       <c r="G4" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="H4" t="n">
         <v>1.59</v>
       </c>
       <c r="I4" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="J4" t="n">
         <v>3</v>
@@ -961,13 +961,13 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="O4" t="n">
         <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q4" t="n">
         <v>2.26</v>
@@ -985,7 +985,7 @@
         <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="W4" t="n">
         <v>1.13</v>
@@ -1078,13 +1078,13 @@
         <v>1.36</v>
       </c>
       <c r="H5" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="I5" t="n">
         <v>14</v>
       </c>
       <c r="J5" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="K5" t="n">
         <v>6.8</v>
@@ -1105,7 +1105,7 @@
         <v>2.36</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R5" t="n">
         <v>1.54</v>
@@ -1210,16 +1210,16 @@
         <v>1.64</v>
       </c>
       <c r="G6" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>2.72</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
         <v>4.8</v>
@@ -1231,7 +1231,7 @@
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>1.01</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
         <v>1.39</v>
@@ -1243,22 +1243,22 @@
         <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="S6" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="T6" t="n">
         <v>2.02</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="V6" t="n">
         <v>1.14</v>
       </c>
       <c r="W6" t="n">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1345,22 +1345,22 @@
         <v>2.16</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
+        <v>2.98</v>
       </c>
       <c r="H7" t="n">
-        <v>1.04</v>
+        <v>2.96</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="J7" t="n">
-        <v>1.02</v>
+        <v>2.66</v>
       </c>
       <c r="K7" t="n">
-        <v>950</v>
+        <v>5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
@@ -1372,7 +1372,7 @@
         <v>1.02</v>
       </c>
       <c r="P7" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q7" t="n">
         <v>1.01</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.38</v>
+        <v>2.62</v>
       </c>
       <c r="G8" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="H8" t="n">
-        <v>2.46</v>
+        <v>2.74</v>
       </c>
       <c r="I8" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="J8" t="n">
-        <v>2.44</v>
+        <v>2.96</v>
       </c>
       <c r="K8" t="n">
-        <v>5.7</v>
+        <v>3.6</v>
       </c>
       <c r="L8" t="n">
         <v>1.39</v>
@@ -1507,13 +1507,13 @@
         <v>1.39</v>
       </c>
       <c r="P8" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="Q8" t="n">
         <v>2.14</v>
       </c>
       <c r="R8" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="S8" t="n">
         <v>3.6</v>
@@ -1522,19 +1522,19 @@
         <v>1.83</v>
       </c>
       <c r="U8" t="n">
-        <v>1.82</v>
+        <v>1.96</v>
       </c>
       <c r="V8" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="W8" t="n">
         <v>1.47</v>
       </c>
       <c r="X8" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="Z8" t="n">
         <v>23</v>
@@ -1543,13 +1543,13 @@
         <v>60</v>
       </c>
       <c r="AB8" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AC8" t="n">
         <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AE8" t="n">
         <v>46</v>
@@ -1558,7 +1558,7 @@
         <v>22</v>
       </c>
       <c r="AG8" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AH8" t="n">
         <v>23</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="G9" t="n">
-        <v>2.84</v>
+        <v>2.62</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="I9" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J9" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="K9" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="L9" t="n">
         <v>1.45</v>
@@ -1636,34 +1636,34 @@
         <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>2.38</v>
+        <v>2.72</v>
       </c>
       <c r="O9" t="n">
         <v>1.46</v>
       </c>
       <c r="P9" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R9" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T9" t="n">
         <v>1.98</v>
       </c>
       <c r="U9" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="V9" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="W9" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="X9" t="n">
         <v>970</v>
@@ -1672,16 +1672,16 @@
         <v>970</v>
       </c>
       <c r="Z9" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA9" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB9" t="n">
         <v>9.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD9" t="n">
         <v>970</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="G10" t="n">
         <v>2.54</v>
@@ -1756,16 +1756,16 @@
         <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="K10" t="n">
         <v>3.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="M10" t="n">
         <v>1.12</v>
@@ -1774,7 +1774,7 @@
         <v>2.44</v>
       </c>
       <c r="O10" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="P10" t="n">
         <v>1.48</v>
@@ -1795,7 +1795,7 @@
         <v>1.7</v>
       </c>
       <c r="V10" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W10" t="n">
         <v>1.65</v>
@@ -1804,7 +1804,7 @@
         <v>10</v>
       </c>
       <c r="Y10" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Z10" t="n">
         <v>29</v>
@@ -1825,10 +1825,10 @@
         <v>85</v>
       </c>
       <c r="AF10" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH10" t="n">
         <v>26</v>
@@ -1837,13 +1837,13 @@
         <v>120</v>
       </c>
       <c r="AJ10" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK10" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AL10" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AM10" t="n">
         <v>250</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="G11" t="n">
         <v>6.2</v>
@@ -1891,25 +1891,25 @@
         <v>1.73</v>
       </c>
       <c r="I11" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="J11" t="n">
         <v>3.4</v>
       </c>
       <c r="K11" t="n">
-        <v>950</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
         <v>2.06</v>
       </c>
       <c r="O11" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="P11" t="n">
         <v>2.06</v>
@@ -1918,19 +1918,19 @@
         <v>1.75</v>
       </c>
       <c r="R11" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="S11" t="n">
-        <v>1.78</v>
+        <v>2.64</v>
       </c>
       <c r="T11" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="U11" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="V11" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="W11" t="n">
         <v>1.19</v>
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="G12" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="H12" t="n">
         <v>4.5</v>
@@ -2029,10 +2029,10 @@
         <v>7.2</v>
       </c>
       <c r="J12" t="n">
-        <v>2.76</v>
+        <v>3.45</v>
       </c>
       <c r="K12" t="n">
-        <v>5.8</v>
+        <v>4.7</v>
       </c>
       <c r="L12" t="n">
         <v>1.37</v>
@@ -2041,7 +2041,7 @@
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="O12" t="n">
         <v>1.3</v>
@@ -2050,7 +2050,7 @@
         <v>1.72</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R12" t="n">
         <v>1.28</v>
@@ -2059,34 +2059,34 @@
         <v>3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="U12" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="V12" t="n">
         <v>1.16</v>
       </c>
       <c r="W12" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y12" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD12" t="n">
         <v>32</v>
@@ -2095,31 +2095,31 @@
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AK12" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2152,112 +2152,112 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.64</v>
+        <v>2.46</v>
       </c>
       <c r="G13" t="n">
-        <v>3.1</v>
+        <v>2.78</v>
       </c>
       <c r="H13" t="n">
-        <v>2.88</v>
+        <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="J13" t="n">
-        <v>2.02</v>
+        <v>2.82</v>
       </c>
       <c r="K13" t="n">
-        <v>950</v>
+        <v>3.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N13" t="n">
-        <v>1.38</v>
+        <v>2.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="P13" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.01</v>
+        <v>2.72</v>
       </c>
       <c r="R13" t="n">
         <v>1.18</v>
       </c>
       <c r="S13" t="n">
-        <v>2.46</v>
+        <v>5.1</v>
       </c>
       <c r="T13" t="n">
-        <v>1.01</v>
+        <v>2.14</v>
       </c>
       <c r="U13" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="V13" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="W13" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="G14" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="H14" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I14" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="J14" t="n">
         <v>3.25</v>
       </c>
       <c r="K14" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L14" t="n">
         <v>1.38</v>
@@ -2311,88 +2311,88 @@
         <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O14" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P14" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="Q14" t="n">
         <v>2.12</v>
       </c>
       <c r="R14" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S14" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="T14" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="U14" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V14" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="W14" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="G15" t="n">
         <v>1000</v>
       </c>
       <c r="H15" t="n">
-        <v>1.04</v>
+        <v>1.7</v>
       </c>
       <c r="I15" t="n">
-        <v>970</v>
+        <v>1.97</v>
       </c>
       <c r="J15" t="n">
-        <v>1.01</v>
+        <v>3.4</v>
       </c>
       <c r="K15" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2446,7 +2446,7 @@
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>1.02</v>
+        <v>1.82</v>
       </c>
       <c r="O15" t="n">
         <v>1.32</v>
@@ -2455,13 +2455,13 @@
         <v>1.34</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="R15" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="S15" t="n">
-        <v>1.33</v>
+        <v>1.89</v>
       </c>
       <c r="T15" t="n">
         <v>1.01</v>
@@ -2470,10 +2470,10 @@
         <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="W15" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="G16" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="H16" t="n">
         <v>6.8</v>
       </c>
       <c r="I16" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J16" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K16" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L16" t="n">
         <v>1.37</v>
@@ -2581,13 +2581,13 @@
         <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O16" t="n">
         <v>1.39</v>
       </c>
       <c r="P16" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="Q16" t="n">
         <v>2.14</v>
@@ -2596,73 +2596,73 @@
         <v>1.27</v>
       </c>
       <c r="S16" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T16" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="U16" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="V16" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="W16" t="n">
         <v>2.6</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17">
@@ -2695,19 +2695,19 @@
         <v>2.3</v>
       </c>
       <c r="G17" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I17" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K17" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L17" t="n">
         <v>1.35</v>
@@ -2719,22 +2719,22 @@
         <v>3.55</v>
       </c>
       <c r="O17" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="P17" t="n">
         <v>1.87</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R17" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S17" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="T17" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="U17" t="n">
         <v>2.12</v>
@@ -2743,7 +2743,7 @@
         <v>1.37</v>
       </c>
       <c r="W17" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="X17" t="n">
         <v>14</v>
@@ -2860,7 +2860,7 @@
         <v>1.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="R18" t="n">
         <v>1.22</v>
@@ -2905,7 +2905,7 @@
         <v>50</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG18" t="n">
         <v>12.5</v>
@@ -2962,91 +2962,91 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="G19" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="H19" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="I19" t="n">
-        <v>2.76</v>
+        <v>2.68</v>
       </c>
       <c r="J19" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="K19" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M19" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N19" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="O19" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P19" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="R19" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S19" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="T19" t="n">
         <v>2.04</v>
       </c>
       <c r="U19" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="V19" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="W19" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X19" t="n">
         <v>10.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AA19" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AB19" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="AD19" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AE19" t="n">
         <v>44</v>
       </c>
       <c r="AF19" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AG19" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AH19" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AI19" t="n">
         <v>65</v>
@@ -3058,7 +3058,7 @@
         <v>65</v>
       </c>
       <c r="AL19" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AM19" t="n">
         <v>200</v>
@@ -3067,7 +3067,7 @@
         <v>85</v>
       </c>
       <c r="AO19" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
@@ -3256,10 +3256,10 @@
         <v>1.11</v>
       </c>
       <c r="N21" t="n">
-        <v>2.5</v>
+        <v>2.82</v>
       </c>
       <c r="O21" t="n">
-        <v>1.11</v>
+        <v>1.47</v>
       </c>
       <c r="P21" t="n">
         <v>1.61</v>
@@ -3274,10 +3274,10 @@
         <v>4.7</v>
       </c>
       <c r="T21" t="n">
+        <v>2</v>
+      </c>
+      <c r="U21" t="n">
         <v>1.86</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.73</v>
       </c>
       <c r="V21" t="n">
         <v>1.32</v>
@@ -3286,7 +3286,7 @@
         <v>1.74</v>
       </c>
       <c r="X21" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="Y21" t="n">
         <v>12</v>
@@ -3307,7 +3307,7 @@
         <v>17</v>
       </c>
       <c r="AE21" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AF21" t="n">
         <v>13</v>
@@ -3322,7 +3322,7 @@
         <v>85</v>
       </c>
       <c r="AJ21" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="AK21" t="n">
         <v>30</v>
@@ -3334,7 +3334,7 @@
         <v>170</v>
       </c>
       <c r="AN21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO21" t="n">
         <v>85</v>
@@ -3370,7 +3370,7 @@
         <v>1.27</v>
       </c>
       <c r="G22" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="H22" t="n">
         <v>13.5</v>
@@ -3379,10 +3379,10 @@
         <v>18.5</v>
       </c>
       <c r="J22" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="K22" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L22" t="n">
         <v>1.27</v>
@@ -3391,7 +3391,7 @@
         <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O22" t="n">
         <v>1.23</v>
@@ -3400,7 +3400,7 @@
         <v>2.16</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R22" t="n">
         <v>1.46</v>
@@ -3409,70 +3409,70 @@
         <v>2.74</v>
       </c>
       <c r="T22" t="n">
-        <v>1.01</v>
+        <v>2.22</v>
       </c>
       <c r="U22" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="V22" t="n">
         <v>1.05</v>
       </c>
       <c r="W22" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y22" t="n">
+        <v>48</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>170</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AD22" t="n">
         <v>55</v>
       </c>
-      <c r="Z22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>20</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>75</v>
-      </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AF22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>250</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>10.5</v>
       </c>
-      <c r="AG22" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>50</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AK22" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AL22" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>520</v>
       </c>
     </row>
     <row r="23">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="G23" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H23" t="n">
         <v>3.1</v>
@@ -3520,25 +3520,25 @@
         <v>4.2</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M23" t="n">
         <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>2.84</v>
+        <v>3.15</v>
       </c>
       <c r="O23" t="n">
         <v>1.39</v>
       </c>
       <c r="P23" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="R23" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="S23" t="n">
         <v>3.85</v>
@@ -3547,13 +3547,13 @@
         <v>1.84</v>
       </c>
       <c r="U23" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="W23" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -3562,10 +3562,10 @@
         <v>16.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB23" t="n">
         <v>12.5</v>
@@ -3583,10 +3583,10 @@
         <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI23" t="n">
         <v>80</v>
@@ -3598,7 +3598,7 @@
         <v>38</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM23" t="n">
         <v>1000</v>
@@ -3607,7 +3607,7 @@
         <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="G24" t="n">
-        <v>2.7</v>
+        <v>2.52</v>
       </c>
       <c r="H24" t="n">
         <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="J24" t="n">
         <v>3</v>
@@ -3661,7 +3661,7 @@
         <v>1.11</v>
       </c>
       <c r="N24" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="O24" t="n">
         <v>1.47</v>
@@ -3673,10 +3673,10 @@
         <v>2.2</v>
       </c>
       <c r="R24" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="S24" t="n">
-        <v>2.22</v>
+        <v>4.2</v>
       </c>
       <c r="T24" t="n">
         <v>2</v>
@@ -3688,67 +3688,67 @@
         <v>1.33</v>
       </c>
       <c r="W24" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y24" t="n">
         <v>13</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AK24" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AL24" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Azerbaijan Premier League</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3763,127 +3763,127 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Panserraikos</t>
+          <t>FC Sabah</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Panaitolikos</t>
+          <t>Neftchi Baku</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.72</v>
+        <v>1.99</v>
       </c>
       <c r="G25" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N25" t="n">
         <v>3.05</v>
       </c>
-      <c r="H25" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N25" t="n">
-        <v>2.94</v>
-      </c>
       <c r="O25" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="P25" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="R25" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V25" t="n">
         <v>1.24</v>
       </c>
-      <c r="S25" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.48</v>
-      </c>
       <c r="W25" t="n">
-        <v>1.49</v>
+        <v>1.82</v>
       </c>
       <c r="X25" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Z25" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="AA25" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AB25" t="n">
         <v>10</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="AE25" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="AF25" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AI25" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="AJ25" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL25" t="n">
         <v>55</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>65</v>
       </c>
       <c r="AM25" t="n">
         <v>160</v>
       </c>
       <c r="AN25" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AO25" t="n">
-        <v>42</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Azerbaijan Premier League</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>FC Sabah</t>
+          <t>Panserraikos</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Neftchi Baku</t>
+          <t>Panaitolikos</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.99</v>
+        <v>2.72</v>
       </c>
       <c r="G26" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q26" t="n">
         <v>2.24</v>
       </c>
-      <c r="H26" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I26" t="n">
-        <v>5</v>
-      </c>
-      <c r="J26" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N26" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.12</v>
-      </c>
       <c r="R26" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="S26" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="T26" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U26" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V26" t="n">
-        <v>1.27</v>
+        <v>1.48</v>
       </c>
       <c r="W26" t="n">
-        <v>1.8</v>
+        <v>1.49</v>
       </c>
       <c r="X26" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Y26" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Z26" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AA26" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="AB26" t="n">
         <v>10</v>
       </c>
       <c r="AC26" t="n">
-        <v>9.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AF26" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="AG26" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI26" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AJ26" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AK26" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="AL26" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM26" t="n">
         <v>160</v>
       </c>
       <c r="AN26" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="AO26" t="n">
-        <v>90</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27">
@@ -4087,7 +4087,7 @@
         <v>1.94</v>
       </c>
       <c r="U27" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V27" t="n">
         <v>1.27</v>
@@ -4180,22 +4180,22 @@
         <v>1.82</v>
       </c>
       <c r="G28" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="H28" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="I28" t="n">
         <v>7.8</v>
       </c>
       <c r="J28" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="K28" t="n">
         <v>3.9</v>
       </c>
       <c r="L28" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M28" t="n">
         <v>1.11</v>
@@ -4204,10 +4204,10 @@
         <v>2.2</v>
       </c>
       <c r="O28" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P28" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="Q28" t="n">
         <v>2.4</v>
@@ -4216,7 +4216,7 @@
         <v>1.13</v>
       </c>
       <c r="S28" t="n">
-        <v>2.4</v>
+        <v>1.01</v>
       </c>
       <c r="T28" t="n">
         <v>1.01</v>
@@ -4228,7 +4228,7 @@
         <v>1.16</v>
       </c>
       <c r="W28" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="X28" t="n">
         <v>1000</v>
@@ -4288,7 +4288,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,127 +4303,127 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Sloga Doboj</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Rudar Prijedor</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.04</v>
+        <v>1.68</v>
       </c>
       <c r="G29" t="n">
-        <v>1000</v>
+        <v>1.76</v>
       </c>
       <c r="H29" t="n">
-        <v>1.04</v>
+        <v>5.4</v>
       </c>
       <c r="I29" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="J29" t="n">
-        <v>1.02</v>
+        <v>4</v>
       </c>
       <c r="K29" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M29" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>1.34</v>
+        <v>3.7</v>
       </c>
       <c r="O29" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="P29" t="n">
-        <v>1.34</v>
+        <v>1.94</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.74</v>
+        <v>1.88</v>
       </c>
       <c r="R29" t="n">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="S29" t="n">
-        <v>2.74</v>
+        <v>3.35</v>
       </c>
       <c r="T29" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="U29" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="V29" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="W29" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z29" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AA29" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AB29" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC29" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF29" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH29" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL29" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4438,118 +4438,118 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Gaziantep FK</t>
         </is>
       </c>
       <c r="F30" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+      <c r="I30" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J30" t="n">
+        <v>5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N30" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P30" t="n">
         <v>2.66</v>
       </c>
-      <c r="G30" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H30" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N30" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.58</v>
-      </c>
       <c r="Q30" t="n">
-        <v>2.62</v>
+        <v>1.51</v>
       </c>
       <c r="R30" t="n">
-        <v>1.21</v>
+        <v>1.68</v>
       </c>
       <c r="S30" t="n">
-        <v>5.3</v>
+        <v>2.26</v>
       </c>
       <c r="T30" t="n">
-        <v>2.1</v>
+        <v>1.66</v>
       </c>
       <c r="U30" t="n">
-        <v>1.87</v>
+        <v>2.28</v>
       </c>
       <c r="V30" t="n">
-        <v>1.41</v>
+        <v>1.16</v>
       </c>
       <c r="W30" t="n">
-        <v>1.58</v>
+        <v>2.84</v>
       </c>
       <c r="X30" t="n">
-        <v>8.6</v>
+        <v>36</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.6</v>
+        <v>32</v>
       </c>
       <c r="Z30" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AA30" t="n">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="AB30" t="n">
-        <v>8.199999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>6.8</v>
+        <v>13</v>
       </c>
       <c r="AD30" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AE30" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AF30" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG30" t="n">
         <v>12.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI30" t="n">
         <v>75</v>
       </c>
       <c r="AJ30" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="AK30" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="AL30" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="AM30" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="AN30" t="n">
-        <v>40</v>
+        <v>6.6</v>
       </c>
       <c r="AO30" t="n">
         <v>65</v>
@@ -4558,7 +4558,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4573,79 +4573,79 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Corum Belediyespor</t>
+          <t>Sloga Doboj</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Rudar Prijedor</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.32</v>
+        <v>1.04</v>
       </c>
       <c r="G31" t="n">
-        <v>2.8</v>
+        <v>1000</v>
       </c>
       <c r="H31" t="n">
-        <v>2.96</v>
+        <v>1.04</v>
       </c>
       <c r="I31" t="n">
-        <v>3.8</v>
+        <v>1000</v>
       </c>
       <c r="J31" t="n">
-        <v>3.3</v>
+        <v>1.02</v>
       </c>
       <c r="K31" t="n">
-        <v>3.9</v>
+        <v>1000</v>
       </c>
       <c r="L31" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>3.25</v>
+        <v>1.34</v>
       </c>
       <c r="O31" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="P31" t="n">
-        <v>1.9</v>
+        <v>1.34</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.89</v>
+        <v>2.74</v>
       </c>
       <c r="R31" t="n">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="S31" t="n">
-        <v>2.96</v>
+        <v>2.74</v>
       </c>
       <c r="T31" t="n">
-        <v>1.7</v>
+        <v>1.01</v>
       </c>
       <c r="U31" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="V31" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="W31" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
       </c>
       <c r="Y31" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z31" t="n">
         <v>1000</v>
       </c>
       <c r="AA31" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
         <v>1000</v>
@@ -4666,7 +4666,7 @@
         <v>1000</v>
       </c>
       <c r="AH31" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI31" t="n">
         <v>1000</v>
@@ -4681,10 +4681,10 @@
         <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -4693,7 +4693,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4708,118 +4708,118 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Gaziantep FK</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.49</v>
+        <v>2.66</v>
       </c>
       <c r="G32" t="n">
-        <v>1.55</v>
+        <v>2.7</v>
       </c>
       <c r="H32" t="n">
-        <v>6</v>
+        <v>3.35</v>
       </c>
       <c r="I32" t="n">
-        <v>7.2</v>
+        <v>3.4</v>
       </c>
       <c r="J32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K32" t="n">
-        <v>5.4</v>
+        <v>3.05</v>
       </c>
       <c r="L32" t="n">
-        <v>1.26</v>
+        <v>1.56</v>
       </c>
       <c r="M32" t="n">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="N32" t="n">
-        <v>5.9</v>
+        <v>2.82</v>
       </c>
       <c r="O32" t="n">
-        <v>1.16</v>
+        <v>1.53</v>
       </c>
       <c r="P32" t="n">
-        <v>2.66</v>
+        <v>1.58</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.51</v>
+        <v>2.64</v>
       </c>
       <c r="R32" t="n">
-        <v>1.68</v>
+        <v>1.21</v>
       </c>
       <c r="S32" t="n">
-        <v>2.26</v>
+        <v>5.3</v>
       </c>
       <c r="T32" t="n">
-        <v>1.66</v>
+        <v>2.1</v>
       </c>
       <c r="U32" t="n">
-        <v>2.28</v>
+        <v>1.87</v>
       </c>
       <c r="V32" t="n">
-        <v>1.16</v>
+        <v>1.41</v>
       </c>
       <c r="W32" t="n">
-        <v>2.84</v>
+        <v>1.58</v>
       </c>
       <c r="X32" t="n">
-        <v>36</v>
+        <v>8.6</v>
       </c>
       <c r="Y32" t="n">
-        <v>32</v>
+        <v>9.6</v>
       </c>
       <c r="Z32" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AA32" t="n">
-        <v>180</v>
+        <v>65</v>
       </c>
       <c r="AB32" t="n">
-        <v>13.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC32" t="n">
-        <v>13</v>
+        <v>6.8</v>
       </c>
       <c r="AD32" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AE32" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="AF32" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG32" t="n">
         <v>12.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AI32" t="n">
         <v>75</v>
       </c>
       <c r="AJ32" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="AK32" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="AL32" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AM32" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="AN32" t="n">
-        <v>6.6</v>
+        <v>40</v>
       </c>
       <c r="AO32" t="n">
         <v>65</v>
@@ -4828,7 +4828,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Corum Belediyespor</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.68</v>
+        <v>2.32</v>
       </c>
       <c r="G33" t="n">
-        <v>1.76</v>
+        <v>2.64</v>
       </c>
       <c r="H33" t="n">
-        <v>5.4</v>
+        <v>2.96</v>
       </c>
       <c r="I33" t="n">
-        <v>6.2</v>
+        <v>3.5</v>
       </c>
       <c r="J33" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="K33" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="L33" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V33" t="n">
         <v>1.4</v>
       </c>
-      <c r="M33" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N33" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S33" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.21</v>
-      </c>
       <c r="W33" t="n">
-        <v>2.3</v>
+        <v>1.61</v>
       </c>
       <c r="X33" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y33" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="AA33" t="n">
-        <v>180</v>
+        <v>65</v>
       </c>
       <c r="AB33" t="n">
-        <v>8.4</v>
+        <v>13</v>
       </c>
       <c r="AC33" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD33" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AE33" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AF33" t="n">
-        <v>10.5</v>
+        <v>20</v>
       </c>
       <c r="AG33" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AH33" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI33" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AJ33" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="AK33" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AL33" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AM33" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AN33" t="n">
-        <v>11.5</v>
+        <v>25</v>
       </c>
       <c r="AO33" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34">
@@ -4990,16 +4990,16 @@
         <v>1.6</v>
       </c>
       <c r="G34" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H34" t="n">
         <v>7.4</v>
       </c>
       <c r="I34" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="J34" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="K34" t="n">
         <v>4.2</v>
@@ -5023,10 +5023,10 @@
         <v>2.28</v>
       </c>
       <c r="R34" t="n">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="S34" t="n">
-        <v>2.28</v>
+        <v>4.4</v>
       </c>
       <c r="T34" t="n">
         <v>2.26</v>
@@ -5038,19 +5038,19 @@
         <v>1.12</v>
       </c>
       <c r="W34" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="X34" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y34" t="n">
         <v>21</v>
       </c>
       <c r="Z34" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AA34" t="n">
-        <v>1000</v>
+        <v>410</v>
       </c>
       <c r="AB34" t="n">
         <v>6.4</v>
@@ -5062,10 +5062,10 @@
         <v>34</v>
       </c>
       <c r="AE34" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AF34" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG34" t="n">
         <v>11</v>
@@ -5074,25 +5074,25 @@
         <v>32</v>
       </c>
       <c r="AI34" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AK34" t="n">
         <v>22</v>
       </c>
       <c r="AL34" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM34" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AN34" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AO34" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
     </row>
     <row r="35">
@@ -5161,7 +5161,7 @@
         <v>1.18</v>
       </c>
       <c r="S35" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="T35" t="n">
         <v>1.77</v>
@@ -5260,31 +5260,31 @@
         <v>1.98</v>
       </c>
       <c r="G36" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="H36" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I36" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J36" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K36" t="n">
         <v>4.6</v>
       </c>
       <c r="L36" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M36" t="n">
         <v>1.05</v>
       </c>
       <c r="N36" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="O36" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P36" t="n">
         <v>1.95</v>
@@ -5293,76 +5293,76 @@
         <v>1.83</v>
       </c>
       <c r="R36" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="S36" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="T36" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="U36" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="V36" t="n">
         <v>1.27</v>
       </c>
       <c r="W36" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="X36" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y36" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z36" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA36" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB36" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC36" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD36" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE36" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF36" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG36" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH36" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI36" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK36" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL36" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM36" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN36" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO36" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37">
@@ -5419,7 +5419,7 @@
         <v>4.4</v>
       </c>
       <c r="O37" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P37" t="n">
         <v>2.18</v>
@@ -5539,13 +5539,13 @@
         <v>9.4</v>
       </c>
       <c r="J38" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="K38" t="n">
         <v>6.2</v>
       </c>
       <c r="L38" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M38" t="n">
         <v>1.03</v>
@@ -5560,7 +5560,7 @@
         <v>2.26</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R38" t="n">
         <v>1.5</v>
@@ -5578,7 +5578,7 @@
         <v>1.11</v>
       </c>
       <c r="W38" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="X38" t="n">
         <v>27</v>
@@ -5593,10 +5593,10 @@
         <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AC38" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AD38" t="n">
         <v>34</v>
@@ -5605,10 +5605,10 @@
         <v>120</v>
       </c>
       <c r="AF38" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AG38" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AH38" t="n">
         <v>27</v>
@@ -5617,10 +5617,10 @@
         <v>110</v>
       </c>
       <c r="AJ38" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AK38" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AL38" t="n">
         <v>40</v>
@@ -5671,22 +5671,22 @@
         <v>3.5</v>
       </c>
       <c r="I39" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="J39" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K39" t="n">
         <v>3.65</v>
       </c>
       <c r="L39" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M39" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N39" t="n">
-        <v>1.73</v>
+        <v>3.1</v>
       </c>
       <c r="O39" t="n">
         <v>1.39</v>
@@ -5695,19 +5695,19 @@
         <v>1.72</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.14</v>
+        <v>2.34</v>
       </c>
       <c r="R39" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="S39" t="n">
-        <v>2.14</v>
+        <v>3.95</v>
       </c>
       <c r="T39" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="U39" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="V39" t="n">
         <v>1.33</v>
@@ -5716,58 +5716,58 @@
         <v>1.72</v>
       </c>
       <c r="X39" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z39" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA39" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB39" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD39" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE39" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF39" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG39" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI39" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK39" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL39" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM39" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN39" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AO39" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40">
@@ -5797,118 +5797,118 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.41</v>
+        <v>2.64</v>
       </c>
       <c r="G40" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="H40" t="n">
-        <v>1.73</v>
+        <v>2.5</v>
       </c>
       <c r="I40" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J40" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="K40" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="L40" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M40" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N40" t="n">
-        <v>1.12</v>
+        <v>3.05</v>
       </c>
       <c r="O40" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="P40" t="n">
-        <v>1.11</v>
+        <v>1.81</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="R40" t="n">
-        <v>1.1</v>
+        <v>1.31</v>
       </c>
       <c r="S40" t="n">
-        <v>1.01</v>
+        <v>3.15</v>
       </c>
       <c r="T40" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="U40" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="V40" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="W40" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="X40" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y40" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z40" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA40" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB40" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC40" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD40" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE40" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF40" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG40" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH40" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI40" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK40" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL40" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM40" t="n">
         <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO40" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5923,127 +5923,127 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Botosani</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Rapid Bucharest</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="G41" t="n">
-        <v>4.2</v>
+        <v>2.66</v>
       </c>
       <c r="H41" t="n">
-        <v>2.72</v>
+        <v>3.2</v>
       </c>
       <c r="I41" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="J41" t="n">
-        <v>2.06</v>
+        <v>3.1</v>
       </c>
       <c r="K41" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="L41" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M41" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="N41" t="n">
-        <v>1.81</v>
+        <v>2.76</v>
       </c>
       <c r="O41" t="n">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
       <c r="P41" t="n">
-        <v>1.8</v>
+        <v>1.59</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="R41" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S41" t="n">
-        <v>1.9</v>
+        <v>4.8</v>
       </c>
       <c r="T41" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="U41" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="V41" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W41" t="n">
-        <v>1.32</v>
+        <v>1.6</v>
       </c>
       <c r="X41" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF41" t="n">
         <v>17.5</v>
       </c>
-      <c r="Y41" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE41" t="n">
+      <c r="AG41" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ41" t="n">
         <v>48</v>
       </c>
-      <c r="AF41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>1000</v>
-      </c>
       <c r="AK41" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AL41" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM41" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN41" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO41" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6058,127 +6058,127 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Botosani</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Rapid Bucharest</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.46</v>
+        <v>2.64</v>
       </c>
       <c r="G42" t="n">
-        <v>2.64</v>
+        <v>3</v>
       </c>
       <c r="H42" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3</v>
+      </c>
+      <c r="J42" t="n">
         <v>3.25</v>
       </c>
-      <c r="I42" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J42" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K42" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="L42" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M42" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="N42" t="n">
-        <v>2.76</v>
+        <v>1.81</v>
       </c>
       <c r="O42" t="n">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
       <c r="P42" t="n">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.48</v>
+        <v>1.93</v>
       </c>
       <c r="R42" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="S42" t="n">
-        <v>4.8</v>
+        <v>1.93</v>
       </c>
       <c r="T42" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="U42" t="n">
-        <v>1.86</v>
+        <v>1.01</v>
       </c>
       <c r="V42" t="n">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="W42" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="X42" t="n">
-        <v>11.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="Z42" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AA42" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AB42" t="n">
-        <v>9.4</v>
+        <v>970</v>
       </c>
       <c r="AC42" t="n">
-        <v>8.4</v>
+        <v>11</v>
       </c>
       <c r="AD42" t="n">
         <v>970</v>
       </c>
       <c r="AE42" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AF42" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AG42" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AH42" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AI42" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ42" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AK42" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AL42" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM42" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AO42" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6193,55 +6193,55 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>MC Alger</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Belouizdad</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.6</v>
+        <v>3.25</v>
       </c>
       <c r="G43" t="n">
-        <v>2.02</v>
+        <v>4.3</v>
       </c>
       <c r="H43" t="n">
-        <v>5.3</v>
+        <v>1.98</v>
       </c>
       <c r="I43" t="n">
-        <v>10.5</v>
+        <v>2.3</v>
       </c>
       <c r="J43" t="n">
-        <v>2.84</v>
+        <v>3.65</v>
       </c>
       <c r="K43" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="L43" t="n">
         <v>1.01</v>
       </c>
       <c r="M43" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N43" t="n">
-        <v>1.33</v>
+        <v>2.88</v>
       </c>
       <c r="O43" t="n">
-        <v>1.6</v>
+        <v>1.12</v>
       </c>
       <c r="P43" t="n">
-        <v>1.33</v>
+        <v>2.88</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.56</v>
+        <v>1.38</v>
       </c>
       <c r="R43" t="n">
-        <v>1.13</v>
+        <v>1.77</v>
       </c>
       <c r="S43" t="n">
-        <v>2.56</v>
+        <v>1.39</v>
       </c>
       <c r="T43" t="n">
         <v>1.01</v>
@@ -6250,10 +6250,10 @@
         <v>1.01</v>
       </c>
       <c r="V43" t="n">
-        <v>1.1</v>
+        <v>1.73</v>
       </c>
       <c r="W43" t="n">
-        <v>1.98</v>
+        <v>1.3</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
@@ -6337,7 +6337,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="G44" t="n">
         <v>1.8</v>
@@ -6361,7 +6361,7 @@
         <v>1.01</v>
       </c>
       <c r="N44" t="n">
-        <v>2.56</v>
+        <v>1.01</v>
       </c>
       <c r="O44" t="n">
         <v>1.11</v>
@@ -6370,13 +6370,13 @@
         <v>2.56</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.33</v>
+        <v>1.11</v>
       </c>
       <c r="R44" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S44" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="T44" t="n">
         <v>1.01</v>
@@ -6448,7 +6448,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6463,55 +6463,55 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>MC Alger</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Belouizdad</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3.25</v>
+        <v>1.63</v>
       </c>
       <c r="G45" t="n">
-        <v>4.3</v>
+        <v>2.08</v>
       </c>
       <c r="H45" t="n">
-        <v>1.96</v>
+        <v>5.3</v>
       </c>
       <c r="I45" t="n">
-        <v>2.34</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J45" t="n">
-        <v>3.65</v>
+        <v>2.78</v>
       </c>
       <c r="K45" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="L45" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M45" t="n">
         <v>1.01</v>
       </c>
-      <c r="M45" t="n">
-        <v>1.02</v>
-      </c>
       <c r="N45" t="n">
-        <v>2.88</v>
+        <v>1.33</v>
       </c>
       <c r="O45" t="n">
-        <v>1.12</v>
+        <v>1.6</v>
       </c>
       <c r="P45" t="n">
-        <v>2.88</v>
+        <v>1.33</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.42</v>
+        <v>2.58</v>
       </c>
       <c r="R45" t="n">
-        <v>1.75</v>
+        <v>1.13</v>
       </c>
       <c r="S45" t="n">
-        <v>1.94</v>
+        <v>2.58</v>
       </c>
       <c r="T45" t="n">
         <v>1.01</v>
@@ -6520,10 +6520,10 @@
         <v>1.01</v>
       </c>
       <c r="V45" t="n">
-        <v>1.74</v>
+        <v>1.11</v>
       </c>
       <c r="W45" t="n">
-        <v>1.3</v>
+        <v>1.92</v>
       </c>
       <c r="X45" t="n">
         <v>1000</v>
@@ -6616,7 +6616,7 @@
         <v>3.85</v>
       </c>
       <c r="I46" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J46" t="n">
         <v>3.15</v>
@@ -6628,10 +6628,10 @@
         <v>1.51</v>
       </c>
       <c r="M46" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N46" t="n">
-        <v>1.67</v>
+        <v>2.98</v>
       </c>
       <c r="O46" t="n">
         <v>1.45</v>
@@ -6643,76 +6643,76 @@
         <v>2.28</v>
       </c>
       <c r="R46" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="S46" t="n">
-        <v>2.3</v>
+        <v>4.3</v>
       </c>
       <c r="T46" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="U46" t="n">
-        <v>1.01</v>
+        <v>1.91</v>
       </c>
       <c r="V46" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W46" t="n">
         <v>1.79</v>
       </c>
       <c r="X46" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y46" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA46" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB46" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC46" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD46" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE46" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF46" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG46" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI46" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ46" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK46" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL46" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM46" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN46" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AO46" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47">
@@ -6745,7 +6745,7 @@
         <v>1.65</v>
       </c>
       <c r="G47" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="H47" t="n">
         <v>6</v>
@@ -6754,7 +6754,7 @@
         <v>7</v>
       </c>
       <c r="J47" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K47" t="n">
         <v>4.2</v>
@@ -6766,88 +6766,88 @@
         <v>1.08</v>
       </c>
       <c r="N47" t="n">
-        <v>1.75</v>
+        <v>3.15</v>
       </c>
       <c r="O47" t="n">
         <v>1.37</v>
       </c>
       <c r="P47" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="R47" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="S47" t="n">
-        <v>3.35</v>
+        <v>3.85</v>
       </c>
       <c r="T47" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="U47" t="n">
-        <v>1.64</v>
+        <v>1.78</v>
       </c>
       <c r="V47" t="n">
         <v>1.16</v>
       </c>
       <c r="W47" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="X47" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y47" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="Z47" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AA47" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AB47" t="n">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="AC47" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AD47" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AE47" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF47" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AG47" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AH47" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AI47" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ47" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AK47" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AL47" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AM47" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN47" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AO47" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48">
@@ -6895,7 +6895,7 @@
         <v>3.85</v>
       </c>
       <c r="L48" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M48" t="n">
         <v>1.08</v>
@@ -6907,10 +6907,10 @@
         <v>1.38</v>
       </c>
       <c r="P48" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="R48" t="n">
         <v>1.31</v>
@@ -6922,7 +6922,7 @@
         <v>2.02</v>
       </c>
       <c r="U48" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V48" t="n">
         <v>2.24</v>
@@ -6973,7 +6973,7 @@
         <v>85</v>
       </c>
       <c r="AL48" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AM48" t="n">
         <v>150</v>
@@ -6982,7 +6982,7 @@
         <v>120</v>
       </c>
       <c r="AO48" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49">
@@ -7018,13 +7018,13 @@
         <v>4.3</v>
       </c>
       <c r="H49" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="I49" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="J49" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="K49" t="n">
         <v>3.15</v>
@@ -7036,13 +7036,13 @@
         <v>1.15</v>
       </c>
       <c r="N49" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="O49" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="P49" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="Q49" t="n">
         <v>2.96</v>
@@ -7051,73 +7051,73 @@
         <v>1.15</v>
       </c>
       <c r="S49" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="T49" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="U49" t="n">
         <v>1.66</v>
       </c>
       <c r="V49" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="W49" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="X49" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y49" t="n">
         <v>7</v>
       </c>
       <c r="Z49" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AA49" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB49" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AC49" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="AD49" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AE49" t="n">
         <v>42</v>
       </c>
       <c r="AF49" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AG49" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AH49" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI49" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK49" t="n">
         <v>85</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>75</v>
       </c>
       <c r="AL49" t="n">
         <v>130</v>
       </c>
       <c r="AM49" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="AN49" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AO49" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50">
@@ -7150,7 +7150,7 @@
         <v>1.28</v>
       </c>
       <c r="G50" t="n">
-        <v>2.04</v>
+        <v>3.3</v>
       </c>
       <c r="H50" t="n">
         <v>4.5</v>
@@ -7159,7 +7159,7 @@
         <v>7</v>
       </c>
       <c r="J50" t="n">
-        <v>1.09</v>
+        <v>1.8</v>
       </c>
       <c r="K50" t="n">
         <v>950</v>
@@ -7171,19 +7171,19 @@
         <v>1.01</v>
       </c>
       <c r="N50" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="O50" t="n">
         <v>1.42</v>
       </c>
       <c r="P50" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="Q50" t="n">
         <v>2.04</v>
       </c>
       <c r="R50" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="S50" t="n">
         <v>3.6</v>
@@ -7198,7 +7198,7 @@
         <v>1.17</v>
       </c>
       <c r="W50" t="n">
-        <v>1.96</v>
+        <v>1.43</v>
       </c>
       <c r="X50" t="n">
         <v>1000</v>
@@ -7285,7 +7285,7 @@
         <v>5</v>
       </c>
       <c r="G51" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="H51" t="n">
         <v>1.74</v>
@@ -7300,7 +7300,7 @@
         <v>4.4</v>
       </c>
       <c r="L51" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="M51" t="n">
         <v>1.05</v>
@@ -7318,10 +7318,10 @@
         <v>1.77</v>
       </c>
       <c r="R51" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S51" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="T51" t="n">
         <v>1.75</v>
@@ -7336,10 +7336,10 @@
         <v>1.24</v>
       </c>
       <c r="X51" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y51" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z51" t="n">
         <v>12</v>
@@ -7417,7 +7417,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="G52" t="n">
         <v>1.77</v>
@@ -7456,7 +7456,7 @@
         <v>1.35</v>
       </c>
       <c r="S52" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T52" t="n">
         <v>1.96</v>
@@ -7552,10 +7552,10 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="G53" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="H53" t="n">
         <v>2.94</v>
@@ -7573,7 +7573,7 @@
         <v>1.61</v>
       </c>
       <c r="M53" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N53" t="n">
         <v>2.54</v>
@@ -7582,16 +7582,16 @@
         <v>1.56</v>
       </c>
       <c r="P53" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="R53" t="n">
         <v>1.18</v>
       </c>
       <c r="S53" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="T53" t="n">
         <v>2.1</v>
@@ -7606,7 +7606,7 @@
         <v>1.51</v>
       </c>
       <c r="X53" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Y53" t="n">
         <v>8.800000000000001</v>
@@ -7615,19 +7615,19 @@
         <v>19</v>
       </c>
       <c r="AA53" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB53" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC53" t="n">
         <v>7.6</v>
       </c>
       <c r="AD53" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE53" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AF53" t="n">
         <v>19.5</v>
@@ -7636,28 +7636,28 @@
         <v>14.5</v>
       </c>
       <c r="AH53" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AI53" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ53" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AK53" t="n">
         <v>48</v>
       </c>
       <c r="AL53" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM53" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AN53" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AO53" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54">
@@ -7720,13 +7720,13 @@
         <v>1.63</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R54" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="S54" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T54" t="n">
         <v>1.01</v>
@@ -7822,22 +7822,22 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.19</v>
+        <v>1.94</v>
       </c>
       <c r="G55" t="n">
-        <v>2.24</v>
+        <v>4.9</v>
       </c>
       <c r="H55" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="I55" t="n">
-        <v>6.2</v>
+        <v>5.2</v>
       </c>
       <c r="J55" t="n">
-        <v>2.54</v>
+        <v>1.66</v>
       </c>
       <c r="K55" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="L55" t="n">
         <v>1.01</v>
@@ -7849,19 +7849,19 @@
         <v>1.76</v>
       </c>
       <c r="O55" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P55" t="n">
         <v>1.76</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R55" t="n">
         <v>1.29</v>
       </c>
       <c r="S55" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="T55" t="n">
         <v>1.01</v>
@@ -7870,10 +7870,10 @@
         <v>1.01</v>
       </c>
       <c r="V55" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="W55" t="n">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="X55" t="n">
         <v>1000</v>
@@ -7928,6 +7928,276 @@
       </c>
       <c r="AO55" t="n">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Ecuadorian Serie A</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Emelec</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Macara</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H56" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J56" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K56" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N56" t="n">
+        <v>3</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U56" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="X56" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>21:20:00</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Atletico Bucaramanga</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>4</v>
+      </c>
+      <c r="J57" t="n">
+        <v>3</v>
+      </c>
+      <c r="K57" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N57" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T57" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U57" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V57" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X57" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-08.xlsx
@@ -670,13 +670,13 @@
         <v>1.71</v>
       </c>
       <c r="G2" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="H2" t="n">
         <v>5.6</v>
       </c>
       <c r="I2" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J2" t="n">
         <v>3.7</v>
@@ -691,13 +691,13 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O2" t="n">
         <v>1.37</v>
       </c>
       <c r="P2" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="Q2" t="n">
         <v>2.1</v>
@@ -709,16 +709,16 @@
         <v>3.9</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U2" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="V2" t="n">
         <v>1.2</v>
       </c>
       <c r="W2" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="X2" t="n">
         <v>13.5</v>
@@ -730,7 +730,7 @@
         <v>60</v>
       </c>
       <c r="AA2" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AB2" t="n">
         <v>7.6</v>
@@ -742,7 +742,7 @@
         <v>23</v>
       </c>
       <c r="AE2" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AF2" t="n">
         <v>11</v>
@@ -763,7 +763,7 @@
         <v>21</v>
       </c>
       <c r="AL2" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM2" t="n">
         <v>180</v>
@@ -772,7 +772,7 @@
         <v>13.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3">
@@ -826,19 +826,19 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="O3" t="n">
         <v>1.18</v>
       </c>
       <c r="P3" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="R3" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="S3" t="n">
         <v>2.18</v>
@@ -850,7 +850,7 @@
         <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="W3" t="n">
         <v>1.06</v>
@@ -1075,10 +1075,10 @@
         <v>1.29</v>
       </c>
       <c r="G5" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="H5" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="I5" t="n">
         <v>14</v>
@@ -1087,10 +1087,10 @@
         <v>5.6</v>
       </c>
       <c r="K5" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
@@ -1123,7 +1123,7 @@
         <v>1.07</v>
       </c>
       <c r="W5" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="X5" t="n">
         <v>29</v>
@@ -1207,31 +1207,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="G6" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I6" t="n">
-        <v>8.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K6" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O6" t="n">
         <v>1.39</v>
@@ -1240,7 +1240,7 @@
         <v>1.72</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R6" t="n">
         <v>1.26</v>
@@ -1249,70 +1249,70 @@
         <v>3.55</v>
       </c>
       <c r="T6" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="U6" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="V6" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W6" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7">
@@ -1342,46 +1342,46 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.16</v>
+        <v>2.38</v>
       </c>
       <c r="G7" t="n">
-        <v>2.98</v>
+        <v>2.8</v>
       </c>
       <c r="H7" t="n">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="J7" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N7" t="n">
         <v>2.66</v>
       </c>
-      <c r="K7" t="n">
-        <v>5</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1.01</v>
-      </c>
       <c r="O7" t="n">
-        <v>1.02</v>
+        <v>1.49</v>
       </c>
       <c r="P7" t="n">
-        <v>1.25</v>
+        <v>1.54</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="R7" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S7" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="T7" t="n">
         <v>1.01</v>
@@ -1390,10 +1390,10 @@
         <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="W7" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="G8" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="H8" t="n">
-        <v>2.74</v>
+        <v>2.46</v>
       </c>
       <c r="I8" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J8" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="K8" t="n">
         <v>3.6</v>
@@ -1525,10 +1525,10 @@
         <v>1.96</v>
       </c>
       <c r="V8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W8" t="n">
         <v>1.44</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.47</v>
       </c>
       <c r="X8" t="n">
         <v>970</v>
@@ -1537,10 +1537,10 @@
         <v>970</v>
       </c>
       <c r="Z8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB8" t="n">
         <v>970</v>
@@ -1552,10 +1552,10 @@
         <v>970</v>
       </c>
       <c r="AE8" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AF8" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG8" t="n">
         <v>970</v>
@@ -1567,10 +1567,10 @@
         <v>65</v>
       </c>
       <c r="AJ8" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AK8" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL8" t="n">
         <v>65</v>
@@ -1579,10 +1579,10 @@
         <v>150</v>
       </c>
       <c r="AN8" t="n">
+        <v>48</v>
+      </c>
+      <c r="AO8" t="n">
         <v>42</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>46</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G9" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="H9" t="n">
         <v>3.45</v>
       </c>
       <c r="I9" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J9" t="n">
         <v>2.72</v>
       </c>
       <c r="K9" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L9" t="n">
         <v>1.45</v>
@@ -1663,7 +1663,7 @@
         <v>1.3</v>
       </c>
       <c r="W9" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="X9" t="n">
         <v>970</v>
@@ -1672,10 +1672,10 @@
         <v>970</v>
       </c>
       <c r="Z9" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA9" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB9" t="n">
         <v>9.6</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="G10" t="n">
-        <v>2.54</v>
+        <v>2.34</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="K10" t="n">
         <v>3.4</v>
@@ -1780,13 +1780,13 @@
         <v>1.48</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="R10" t="n">
         <v>1.18</v>
       </c>
       <c r="S10" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="T10" t="n">
         <v>2.08</v>
@@ -1795,22 +1795,22 @@
         <v>1.7</v>
       </c>
       <c r="V10" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W10" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="X10" t="n">
         <v>10</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.5</v>
+        <v>17</v>
       </c>
       <c r="Z10" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="AA10" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
         <v>8.6</v>
@@ -1828,7 +1828,7 @@
         <v>14.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH10" t="n">
         <v>26</v>
@@ -1849,10 +1849,10 @@
         <v>250</v>
       </c>
       <c r="AN10" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AO10" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
         <v>6.2</v>
@@ -1900,16 +1900,16 @@
         <v>5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>2.06</v>
+        <v>3.65</v>
       </c>
       <c r="O11" t="n">
-        <v>1.04</v>
+        <v>1.26</v>
       </c>
       <c r="P11" t="n">
         <v>2.06</v>
@@ -1936,58 +1936,58 @@
         <v>1.19</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ11" t="n">
         <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="12">
@@ -2173,7 +2173,7 @@
         <v>1.51</v>
       </c>
       <c r="M13" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N13" t="n">
         <v>2.4</v>
@@ -2206,7 +2206,7 @@
         <v>1.56</v>
       </c>
       <c r="X13" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Y13" t="n">
         <v>11.5</v>
@@ -2290,7 +2290,7 @@
         <v>2.16</v>
       </c>
       <c r="G14" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="H14" t="n">
         <v>3.8</v>
@@ -2305,7 +2305,7 @@
         <v>3.45</v>
       </c>
       <c r="L14" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
@@ -2335,10 +2335,10 @@
         <v>1.99</v>
       </c>
       <c r="V14" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W14" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X14" t="n">
         <v>14.5</v>
@@ -2386,7 +2386,7 @@
         <v>46</v>
       </c>
       <c r="AM14" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN14" t="n">
         <v>22</v>
@@ -2461,7 +2461,7 @@
         <v>1.29</v>
       </c>
       <c r="S15" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="T15" t="n">
         <v>1.01</v>
@@ -2620,7 +2620,7 @@
         <v>70</v>
       </c>
       <c r="AA16" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="AB16" t="n">
         <v>7.2</v>
@@ -2632,7 +2632,7 @@
         <v>32</v>
       </c>
       <c r="AE16" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AF16" t="n">
         <v>9</v>
@@ -2701,7 +2701,7 @@
         <v>3.45</v>
       </c>
       <c r="I17" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J17" t="n">
         <v>3.25</v>
@@ -2860,7 +2860,7 @@
         <v>1.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="R18" t="n">
         <v>1.22</v>
@@ -2974,7 +2974,7 @@
         <v>2.68</v>
       </c>
       <c r="J19" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="K19" t="n">
         <v>3.1</v>
@@ -2983,10 +2983,10 @@
         <v>1.46</v>
       </c>
       <c r="M19" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="N19" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="O19" t="n">
         <v>1.53</v>
@@ -2998,13 +2998,13 @@
         <v>2.58</v>
       </c>
       <c r="R19" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S19" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="T19" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U19" t="n">
         <v>1.82</v>
@@ -3016,7 +3016,7 @@
         <v>1.38</v>
       </c>
       <c r="X19" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="Y19" t="n">
         <v>8.199999999999999</v>
@@ -3028,16 +3028,16 @@
         <v>42</v>
       </c>
       <c r="AB19" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AC19" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD19" t="n">
         <v>970</v>
       </c>
       <c r="AE19" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AF19" t="n">
         <v>23</v>
@@ -3067,7 +3067,7 @@
         <v>85</v>
       </c>
       <c r="AO19" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
@@ -3241,7 +3241,7 @@
         <v>3.8</v>
       </c>
       <c r="I21" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J21" t="n">
         <v>3.15</v>
@@ -3250,7 +3250,7 @@
         <v>3.3</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="M21" t="n">
         <v>1.11</v>
@@ -3265,7 +3265,7 @@
         <v>1.61</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R21" t="n">
         <v>1.22</v>
@@ -3274,7 +3274,7 @@
         <v>4.7</v>
       </c>
       <c r="T21" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U21" t="n">
         <v>1.86</v>
@@ -3289,7 +3289,7 @@
         <v>10</v>
       </c>
       <c r="Y21" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z21" t="n">
         <v>27</v>
@@ -3334,7 +3334,7 @@
         <v>170</v>
       </c>
       <c r="AN21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO21" t="n">
         <v>85</v>
@@ -3370,7 +3370,7 @@
         <v>1.27</v>
       </c>
       <c r="G22" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="H22" t="n">
         <v>13.5</v>
@@ -3379,7 +3379,7 @@
         <v>18.5</v>
       </c>
       <c r="J22" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="K22" t="n">
         <v>6.6</v>
@@ -3409,16 +3409,16 @@
         <v>2.74</v>
       </c>
       <c r="T22" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U22" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="V22" t="n">
         <v>1.05</v>
       </c>
       <c r="W22" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="X22" t="n">
         <v>25</v>
@@ -3439,7 +3439,7 @@
         <v>16.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AE22" t="n">
         <v>330</v>
@@ -3457,7 +3457,7 @@
         <v>250</v>
       </c>
       <c r="AJ22" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AK22" t="n">
         <v>18.5</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="G23" t="n">
         <v>2.52</v>
       </c>
       <c r="H23" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I23" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="J23" t="n">
         <v>2.92</v>
       </c>
       <c r="K23" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="L23" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="M23" t="n">
         <v>1.08</v>
@@ -3529,13 +3529,13 @@
         <v>3.15</v>
       </c>
       <c r="O23" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P23" t="n">
         <v>1.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R23" t="n">
         <v>1.28</v>
@@ -3550,64 +3550,64 @@
         <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="W23" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AA23" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AB23" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AC23" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE23" t="n">
         <v>60</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG23" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI23" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AJ23" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AK23" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AL23" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO23" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24">
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G24" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="H24" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I24" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
         <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L24" t="n">
         <v>1.45</v>
@@ -3661,22 +3661,22 @@
         <v>1.11</v>
       </c>
       <c r="N24" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="O24" t="n">
         <v>1.47</v>
       </c>
       <c r="P24" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="R24" t="n">
         <v>1.21</v>
       </c>
       <c r="S24" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="T24" t="n">
         <v>2</v>
@@ -3688,7 +3688,7 @@
         <v>1.33</v>
       </c>
       <c r="W24" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="X24" t="n">
         <v>11.5</v>
@@ -3703,10 +3703,10 @@
         <v>100</v>
       </c>
       <c r="AB24" t="n">
-        <v>9.6</v>
+        <v>970</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AD24" t="n">
         <v>970</v>
@@ -3727,10 +3727,10 @@
         <v>95</v>
       </c>
       <c r="AJ24" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AK24" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AL24" t="n">
         <v>70</v>
@@ -3739,7 +3739,7 @@
         <v>200</v>
       </c>
       <c r="AN24" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO24" t="n">
         <v>95</v>
@@ -3772,19 +3772,19 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="G25" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H25" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="I25" t="n">
         <v>5.1</v>
       </c>
       <c r="J25" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K25" t="n">
         <v>3.8</v>
@@ -3793,73 +3793,73 @@
         <v>1.45</v>
       </c>
       <c r="M25" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N25" t="n">
         <v>3.05</v>
       </c>
       <c r="O25" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="P25" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q25" t="n">
         <v>2.12</v>
       </c>
       <c r="R25" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S25" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U25" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="V25" t="n">
         <v>1.24</v>
       </c>
       <c r="W25" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="X25" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y25" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z25" t="n">
         <v>38</v>
       </c>
       <c r="AA25" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB25" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AC25" t="n">
         <v>9.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE25" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AF25" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG25" t="n">
         <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI25" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ25" t="n">
         <v>32</v>
@@ -3877,7 +3877,7 @@
         <v>24</v>
       </c>
       <c r="AO25" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G26" t="n">
         <v>3.05</v>
@@ -3925,25 +3925,25 @@
         <v>3.45</v>
       </c>
       <c r="L26" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M26" t="n">
         <v>1.1</v>
       </c>
       <c r="N26" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="O26" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P26" t="n">
         <v>1.66</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R26" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S26" t="n">
         <v>4.2</v>
@@ -3952,10 +3952,10 @@
         <v>1.89</v>
       </c>
       <c r="U26" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V26" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W26" t="n">
         <v>1.49</v>
@@ -3973,16 +3973,16 @@
         <v>60</v>
       </c>
       <c r="AB26" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD26" t="n">
         <v>15.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF26" t="n">
         <v>19</v>
@@ -3997,7 +3997,7 @@
         <v>60</v>
       </c>
       <c r="AJ26" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK26" t="n">
         <v>38</v>
@@ -4012,7 +4012,7 @@
         <v>40</v>
       </c>
       <c r="AO26" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
@@ -4042,10 +4042,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="G27" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H27" t="n">
         <v>4.2</v>
@@ -4057,10 +4057,10 @@
         <v>3.45</v>
       </c>
       <c r="K27" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L27" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="M27" t="n">
         <v>1.09</v>
@@ -4093,16 +4093,16 @@
         <v>1.27</v>
       </c>
       <c r="W27" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="X27" t="n">
         <v>14</v>
       </c>
       <c r="Y27" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Z27" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AA27" t="n">
         <v>130</v>
@@ -4114,7 +4114,7 @@
         <v>9</v>
       </c>
       <c r="AD27" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AE27" t="n">
         <v>80</v>
@@ -4123,7 +4123,7 @@
         <v>13.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH27" t="n">
         <v>25</v>
@@ -4138,7 +4138,7 @@
         <v>29</v>
       </c>
       <c r="AL27" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM27" t="n">
         <v>170</v>
@@ -4147,7 +4147,7 @@
         <v>22</v>
       </c>
       <c r="AO27" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -4183,13 +4183,13 @@
         <v>2.12</v>
       </c>
       <c r="H28" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I28" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="J28" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="K28" t="n">
         <v>3.9</v>
@@ -4201,85 +4201,85 @@
         <v>1.11</v>
       </c>
       <c r="N28" t="n">
-        <v>2.2</v>
+        <v>2.34</v>
       </c>
       <c r="O28" t="n">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="P28" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="R28" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="S28" t="n">
-        <v>1.01</v>
+        <v>3.45</v>
       </c>
       <c r="T28" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="U28" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="V28" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W28" t="n">
         <v>1.9</v>
       </c>
       <c r="X28" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA28" t="n">
         <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC28" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD28" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE28" t="n">
         <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG28" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH28" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI28" t="n">
         <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM28" t="n">
         <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="G29" t="n">
         <v>1.76</v>
@@ -4339,13 +4339,13 @@
         <v>3.7</v>
       </c>
       <c r="O29" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P29" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R29" t="n">
         <v>1.36</v>
@@ -4357,7 +4357,7 @@
         <v>1.89</v>
       </c>
       <c r="U29" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V29" t="n">
         <v>1.21</v>
@@ -4366,7 +4366,7 @@
         <v>2.3</v>
       </c>
       <c r="X29" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y29" t="n">
         <v>970</v>
@@ -4456,7 +4456,7 @@
         <v>6</v>
       </c>
       <c r="I30" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J30" t="n">
         <v>5</v>
@@ -4552,7 +4552,7 @@
         <v>6.6</v>
       </c>
       <c r="AO30" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31">
@@ -4855,22 +4855,22 @@
         <v>2.32</v>
       </c>
       <c r="G33" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="H33" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="I33" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J33" t="n">
         <v>3.3</v>
       </c>
       <c r="K33" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L33" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="M33" t="n">
         <v>1.06</v>
@@ -4885,25 +4885,25 @@
         <v>1.9</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R33" t="n">
         <v>1.35</v>
       </c>
       <c r="S33" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="T33" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U33" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V33" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W33" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="X33" t="n">
         <v>18</v>
@@ -4921,7 +4921,7 @@
         <v>13</v>
       </c>
       <c r="AC33" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD33" t="n">
         <v>17</v>
@@ -5047,10 +5047,10 @@
         <v>21</v>
       </c>
       <c r="Z34" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AA34" t="n">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="AB34" t="n">
         <v>6.4</v>
@@ -5062,7 +5062,7 @@
         <v>34</v>
       </c>
       <c r="AE34" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AF34" t="n">
         <v>9.800000000000001</v>
@@ -5086,13 +5086,13 @@
         <v>60</v>
       </c>
       <c r="AM34" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AN34" t="n">
         <v>14</v>
       </c>
       <c r="AO34" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
     </row>
     <row r="35">
@@ -5257,13 +5257,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="G36" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="H36" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I36" t="n">
         <v>4.7</v>
@@ -5272,7 +5272,7 @@
         <v>3.5</v>
       </c>
       <c r="K36" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="L36" t="n">
         <v>1.32</v>
@@ -5281,22 +5281,22 @@
         <v>1.05</v>
       </c>
       <c r="N36" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O36" t="n">
         <v>1.28</v>
       </c>
       <c r="P36" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R36" t="n">
         <v>1.37</v>
       </c>
       <c r="S36" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="T36" t="n">
         <v>1.71</v>
@@ -5305,7 +5305,7 @@
         <v>2.12</v>
       </c>
       <c r="V36" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W36" t="n">
         <v>1.81</v>
@@ -5410,7 +5410,7 @@
         <v>4.2</v>
       </c>
       <c r="L37" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M37" t="n">
         <v>1.05</v>
@@ -5419,7 +5419,7 @@
         <v>4.4</v>
       </c>
       <c r="O37" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P37" t="n">
         <v>2.18</v>
@@ -5428,10 +5428,10 @@
         <v>1.73</v>
       </c>
       <c r="R37" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S37" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="T37" t="n">
         <v>1.68</v>
@@ -5578,7 +5578,7 @@
         <v>1.11</v>
       </c>
       <c r="W38" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="X38" t="n">
         <v>27</v>
@@ -5665,13 +5665,13 @@
         <v>2.14</v>
       </c>
       <c r="G39" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="H39" t="n">
         <v>3.5</v>
       </c>
       <c r="I39" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J39" t="n">
         <v>3.4</v>
@@ -5698,25 +5698,25 @@
         <v>2.34</v>
       </c>
       <c r="R39" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S39" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T39" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U39" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="V39" t="n">
         <v>1.33</v>
       </c>
       <c r="W39" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="X39" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y39" t="n">
         <v>15</v>
@@ -5725,7 +5725,7 @@
         <v>32</v>
       </c>
       <c r="AA39" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB39" t="n">
         <v>10.5</v>
@@ -5734,7 +5734,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD39" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AE39" t="n">
         <v>65</v>
@@ -5752,7 +5752,7 @@
         <v>80</v>
       </c>
       <c r="AJ39" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK39" t="n">
         <v>34</v>
@@ -5761,7 +5761,7 @@
         <v>55</v>
       </c>
       <c r="AM39" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN39" t="n">
         <v>28</v>
@@ -5797,13 +5797,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="G40" t="n">
         <v>3.45</v>
       </c>
       <c r="H40" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="I40" t="n">
         <v>3.25</v>
@@ -5812,40 +5812,40 @@
         <v>2.9</v>
       </c>
       <c r="K40" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L40" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O40" t="n">
         <v>1.36</v>
       </c>
-      <c r="M40" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N40" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.33</v>
-      </c>
       <c r="P40" t="n">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="R40" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="S40" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="T40" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="U40" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="V40" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="W40" t="n">
         <v>1.42</v>
@@ -5872,7 +5872,7 @@
         <v>970</v>
       </c>
       <c r="AE40" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AF40" t="n">
         <v>24</v>
@@ -5881,28 +5881,28 @@
         <v>970</v>
       </c>
       <c r="AH40" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI40" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ40" t="n">
         <v>60</v>
       </c>
       <c r="AK40" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN40" t="n">
         <v>42</v>
       </c>
-      <c r="AL40" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN40" t="n">
+      <c r="AO40" t="n">
         <v>38</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="41">
@@ -5938,7 +5938,7 @@
         <v>2.66</v>
       </c>
       <c r="H41" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I41" t="n">
         <v>3.5</v>
@@ -5995,7 +5995,7 @@
         <v>26</v>
       </c>
       <c r="AA41" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AB41" t="n">
         <v>9.6</v>
@@ -6004,19 +6004,19 @@
         <v>7.4</v>
       </c>
       <c r="AD41" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE41" t="n">
         <v>50</v>
       </c>
       <c r="AF41" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG41" t="n">
         <v>970</v>
       </c>
       <c r="AH41" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI41" t="n">
         <v>70</v>
@@ -6037,7 +6037,7 @@
         <v>36</v>
       </c>
       <c r="AO41" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42">
@@ -6070,13 +6070,13 @@
         <v>2.64</v>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="H42" t="n">
         <v>2.66</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J42" t="n">
         <v>3.25</v>
@@ -6085,13 +6085,13 @@
         <v>3.7</v>
       </c>
       <c r="L42" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M42" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N42" t="n">
-        <v>1.81</v>
+        <v>3.35</v>
       </c>
       <c r="O42" t="n">
         <v>1.34</v>
@@ -6103,16 +6103,16 @@
         <v>1.93</v>
       </c>
       <c r="R42" t="n">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="S42" t="n">
-        <v>1.93</v>
+        <v>3.55</v>
       </c>
       <c r="T42" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="U42" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="V42" t="n">
         <v>1.52</v>
@@ -6121,13 +6121,13 @@
         <v>1.53</v>
       </c>
       <c r="X42" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="Y42" t="n">
         <v>970</v>
       </c>
       <c r="Z42" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AA42" t="n">
         <v>65</v>
@@ -6136,43 +6136,43 @@
         <v>970</v>
       </c>
       <c r="AC42" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AD42" t="n">
         <v>970</v>
       </c>
       <c r="AE42" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AF42" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AG42" t="n">
         <v>970</v>
       </c>
       <c r="AH42" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AI42" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ42" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AK42" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AL42" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM42" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN42" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO42" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43">
@@ -6226,13 +6226,13 @@
         <v>1.02</v>
       </c>
       <c r="N43" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="O43" t="n">
         <v>1.12</v>
       </c>
       <c r="P43" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="Q43" t="n">
         <v>1.38</v>
@@ -6250,10 +6250,10 @@
         <v>1.01</v>
       </c>
       <c r="V43" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="W43" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
@@ -6337,25 +6337,25 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="G44" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H44" t="n">
-        <v>2.26</v>
+        <v>4.8</v>
       </c>
       <c r="I44" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="J44" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="K44" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="L44" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="M44" t="n">
         <v>1.01</v>
@@ -6364,85 +6364,85 @@
         <v>1.01</v>
       </c>
       <c r="O44" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P44" t="n">
-        <v>2.56</v>
+        <v>2.8</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.11</v>
+        <v>1.37</v>
       </c>
       <c r="R44" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="S44" t="n">
         <v>1.84</v>
       </c>
       <c r="T44" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="U44" t="n">
-        <v>1.01</v>
+        <v>2.46</v>
       </c>
       <c r="V44" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="W44" t="n">
-        <v>2.26</v>
+        <v>2.66</v>
       </c>
       <c r="X44" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="Y44" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="Z44" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA44" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AB44" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AC44" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AD44" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE44" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF44" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG44" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI44" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ44" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AK44" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL44" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AM44" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN44" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="AO44" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45">
@@ -6472,46 +6472,46 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="G45" t="n">
         <v>2.08</v>
       </c>
       <c r="H45" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="I45" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="J45" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="K45" t="n">
         <v>5.1</v>
       </c>
       <c r="L45" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="M45" t="n">
         <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="O45" t="n">
         <v>1.6</v>
       </c>
       <c r="P45" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="R45" t="n">
         <v>1.13</v>
       </c>
       <c r="S45" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T45" t="n">
         <v>1.01</v>
@@ -6760,22 +6760,22 @@
         <v>4.2</v>
       </c>
       <c r="L47" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M47" t="n">
         <v>1.08</v>
       </c>
       <c r="N47" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O47" t="n">
         <v>1.37</v>
       </c>
       <c r="P47" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q47" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="R47" t="n">
         <v>1.28</v>
@@ -6784,10 +6784,10 @@
         <v>3.85</v>
       </c>
       <c r="T47" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U47" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V47" t="n">
         <v>1.16</v>
@@ -6805,7 +6805,7 @@
         <v>55</v>
       </c>
       <c r="AA47" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AB47" t="n">
         <v>7.6</v>
@@ -6817,7 +6817,7 @@
         <v>32</v>
       </c>
       <c r="AE47" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AF47" t="n">
         <v>970</v>
@@ -6826,7 +6826,7 @@
         <v>970</v>
       </c>
       <c r="AH47" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI47" t="n">
         <v>130</v>
@@ -6847,7 +6847,7 @@
         <v>970</v>
       </c>
       <c r="AO47" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48">
@@ -6907,7 +6907,7 @@
         <v>1.38</v>
       </c>
       <c r="P48" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Q48" t="n">
         <v>2.14</v>
@@ -6922,7 +6922,7 @@
         <v>2.02</v>
       </c>
       <c r="U48" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V48" t="n">
         <v>2.24</v>
@@ -7012,40 +7012,40 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="G49" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="H49" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="I49" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="J49" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="K49" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L49" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="M49" t="n">
         <v>1.15</v>
       </c>
       <c r="N49" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="O49" t="n">
         <v>1.65</v>
       </c>
       <c r="P49" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="R49" t="n">
         <v>1.15</v>
@@ -7060,10 +7060,10 @@
         <v>1.66</v>
       </c>
       <c r="V49" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="W49" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X49" t="n">
         <v>8.800000000000001</v>
@@ -7150,16 +7150,16 @@
         <v>1.28</v>
       </c>
       <c r="G50" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H50" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I50" t="n">
         <v>7</v>
       </c>
       <c r="J50" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="K50" t="n">
         <v>950</v>
@@ -7171,19 +7171,19 @@
         <v>1.01</v>
       </c>
       <c r="N50" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="O50" t="n">
         <v>1.42</v>
       </c>
       <c r="P50" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q50" t="n">
         <v>2.04</v>
       </c>
       <c r="R50" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S50" t="n">
         <v>3.6</v>
@@ -7198,7 +7198,7 @@
         <v>1.17</v>
       </c>
       <c r="W50" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="X50" t="n">
         <v>1000</v>
@@ -7285,7 +7285,7 @@
         <v>5</v>
       </c>
       <c r="G51" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="H51" t="n">
         <v>1.74</v>
@@ -7306,7 +7306,7 @@
         <v>1.05</v>
       </c>
       <c r="N51" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O51" t="n">
         <v>1.27</v>
@@ -7318,10 +7318,10 @@
         <v>1.77</v>
       </c>
       <c r="R51" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="S51" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T51" t="n">
         <v>1.75</v>
@@ -7339,7 +7339,7 @@
         <v>20</v>
       </c>
       <c r="Y51" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="Z51" t="n">
         <v>12</v>
@@ -7387,7 +7387,7 @@
         <v>60</v>
       </c>
       <c r="AO51" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="52">
@@ -7417,7 +7417,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="G52" t="n">
         <v>1.77</v>
@@ -7435,7 +7435,7 @@
         <v>4.1</v>
       </c>
       <c r="L52" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M52" t="n">
         <v>1.07</v>
@@ -7453,7 +7453,7 @@
         <v>2.02</v>
       </c>
       <c r="R52" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S52" t="n">
         <v>3.6</v>
@@ -7462,7 +7462,7 @@
         <v>1.96</v>
       </c>
       <c r="U52" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V52" t="n">
         <v>1.22</v>
@@ -7522,7 +7522,7 @@
         <v>12</v>
       </c>
       <c r="AO52" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53">
@@ -7621,7 +7621,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC53" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD53" t="n">
         <v>14.5</v>
@@ -7636,7 +7636,7 @@
         <v>14.5</v>
       </c>
       <c r="AH53" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI53" t="n">
         <v>90</v>
@@ -7651,10 +7651,10 @@
         <v>75</v>
       </c>
       <c r="AM53" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AN53" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AO53" t="n">
         <v>60</v>
@@ -7690,7 +7690,7 @@
         <v>2.96</v>
       </c>
       <c r="G54" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H54" t="n">
         <v>2.36</v>
@@ -7699,7 +7699,7 @@
         <v>3.1</v>
       </c>
       <c r="J54" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="K54" t="n">
         <v>4.2</v>
@@ -7711,13 +7711,13 @@
         <v>1.01</v>
       </c>
       <c r="N54" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="O54" t="n">
         <v>1.36</v>
       </c>
       <c r="P54" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q54" t="n">
         <v>1.9</v>
@@ -7822,112 +7822,112 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="G55" t="n">
-        <v>4.9</v>
+        <v>2.36</v>
       </c>
       <c r="H55" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="I55" t="n">
-        <v>5.2</v>
+        <v>4.2</v>
       </c>
       <c r="J55" t="n">
-        <v>1.66</v>
+        <v>3.3</v>
       </c>
       <c r="K55" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L55" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M55" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N55" t="n">
-        <v>1.76</v>
+        <v>3.2</v>
       </c>
       <c r="O55" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P55" t="n">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="R55" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="S55" t="n">
-        <v>2.84</v>
+        <v>2.98</v>
       </c>
       <c r="T55" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="U55" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="V55" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="W55" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="X55" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Y55" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z55" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA55" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB55" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC55" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD55" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AE55" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF55" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG55" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH55" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI55" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ55" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK55" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL55" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM55" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN55" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AO55" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56">
@@ -7960,19 +7960,19 @@
         <v>2.3</v>
       </c>
       <c r="G56" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="H56" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="I56" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J56" t="n">
         <v>3.25</v>
       </c>
       <c r="K56" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L56" t="n">
         <v>1.4</v>
@@ -7981,34 +7981,34 @@
         <v>1.08</v>
       </c>
       <c r="N56" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="O56" t="n">
         <v>1.41</v>
       </c>
       <c r="P56" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R56" t="n">
         <v>1.25</v>
       </c>
       <c r="S56" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="T56" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U56" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V56" t="n">
         <v>1.37</v>
       </c>
       <c r="W56" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="X56" t="n">
         <v>13.5</v>
@@ -8020,7 +8020,7 @@
         <v>30</v>
       </c>
       <c r="AA56" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB56" t="n">
         <v>10.5</v>
@@ -8044,10 +8044,10 @@
         <v>24</v>
       </c>
       <c r="AI56" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ56" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AK56" t="n">
         <v>36</v>
@@ -8098,10 +8098,10 @@
         <v>2.74</v>
       </c>
       <c r="H57" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I57" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="J57" t="n">
         <v>3</v>
@@ -8116,31 +8116,31 @@
         <v>1.08</v>
       </c>
       <c r="N57" t="n">
-        <v>2.66</v>
+        <v>2.92</v>
       </c>
       <c r="O57" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P57" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="R57" t="n">
         <v>1.24</v>
       </c>
       <c r="S57" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T57" t="n">
         <v>1.87</v>
       </c>
       <c r="U57" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V57" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="W57" t="n">
         <v>1.58</v>
@@ -8176,7 +8176,7 @@
         <v>14.5</v>
       </c>
       <c r="AH57" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AI57" t="n">
         <v>75</v>
@@ -8188,7 +8188,7 @@
         <v>40</v>
       </c>
       <c r="AL57" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM57" t="n">
         <v>160</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-08.xlsx
@@ -679,7 +679,7 @@
         <v>6.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K2" t="n">
         <v>4.1</v>
@@ -691,13 +691,13 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O2" t="n">
         <v>1.37</v>
       </c>
       <c r="P2" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="Q2" t="n">
         <v>2.1</v>
@@ -709,10 +709,10 @@
         <v>3.9</v>
       </c>
       <c r="T2" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V2" t="n">
         <v>1.2</v>
@@ -820,7 +820,7 @@
         <v>12.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
@@ -937,94 +937,94 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="H4" t="n">
-        <v>1.59</v>
+        <v>1.73</v>
       </c>
       <c r="I4" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="J4" t="n">
         <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>6.8</v>
+        <v>4.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="O4" t="n">
         <v>1.51</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.01</v>
-      </c>
       <c r="P4" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="R4" t="n">
         <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>2.26</v>
+        <v>4.6</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="V4" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="W4" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
@@ -1090,7 +1090,7 @@
         <v>6.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
@@ -1105,7 +1105,7 @@
         <v>2.36</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R5" t="n">
         <v>1.54</v>
@@ -1207,25 +1207,25 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="G6" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H6" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="I6" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K6" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
@@ -1234,13 +1234,13 @@
         <v>3.05</v>
       </c>
       <c r="O6" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P6" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R6" t="n">
         <v>1.26</v>
@@ -1255,7 +1255,7 @@
         <v>1.81</v>
       </c>
       <c r="V6" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W6" t="n">
         <v>2.1</v>
@@ -1264,55 +1264,55 @@
         <v>14.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA6" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AE6" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF6" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG6" t="n">
         <v>12.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI6" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AK6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
         <v>55</v>
       </c>
       <c r="AM6" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN6" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AO6" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7">
@@ -1345,13 +1345,13 @@
         <v>2.38</v>
       </c>
       <c r="G7" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="H7" t="n">
         <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J7" t="n">
         <v>2.92</v>
@@ -1360,7 +1360,7 @@
         <v>3.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="M7" t="n">
         <v>1.09</v>
@@ -1372,10 +1372,10 @@
         <v>1.49</v>
       </c>
       <c r="P7" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="R7" t="n">
         <v>1.2</v>
@@ -1384,70 +1384,70 @@
         <v>4.3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="V7" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W7" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.66</v>
+        <v>2.76</v>
       </c>
       <c r="G8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H8" t="n">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="I8" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="J8" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
         <v>3.6</v>
@@ -1510,7 +1510,7 @@
         <v>1.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="R8" t="n">
         <v>1.26</v>
@@ -1528,7 +1528,7 @@
         <v>1.48</v>
       </c>
       <c r="W8" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="X8" t="n">
         <v>970</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="G10" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -1765,7 +1765,7 @@
         <v>3.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="M10" t="n">
         <v>1.12</v>
@@ -1774,7 +1774,7 @@
         <v>2.44</v>
       </c>
       <c r="O10" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="P10" t="n">
         <v>1.48</v>
@@ -1789,7 +1789,7 @@
         <v>5.3</v>
       </c>
       <c r="T10" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U10" t="n">
         <v>1.7</v>
@@ -1798,22 +1798,22 @@
         <v>1.25</v>
       </c>
       <c r="W10" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="X10" t="n">
         <v>10</v>
       </c>
       <c r="Y10" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AC10" t="n">
         <v>7.6</v>
@@ -1828,7 +1828,7 @@
         <v>14.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AH10" t="n">
         <v>26</v>
@@ -1837,7 +1837,7 @@
         <v>120</v>
       </c>
       <c r="AJ10" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AK10" t="n">
         <v>38</v>
@@ -1849,10 +1849,10 @@
         <v>250</v>
       </c>
       <c r="AN10" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="G11" t="n">
         <v>6.2</v>
@@ -1915,10 +1915,10 @@
         <v>2.06</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R11" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S11" t="n">
         <v>2.64</v>
@@ -1957,7 +1957,7 @@
         <v>970</v>
       </c>
       <c r="AE11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF11" t="n">
         <v>48</v>
@@ -2170,7 +2170,7 @@
         <v>3.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="M13" t="n">
         <v>1.12</v>
@@ -2287,25 +2287,25 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="G14" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H14" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I14" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J14" t="n">
         <v>3.25</v>
       </c>
       <c r="K14" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="L14" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
@@ -2317,7 +2317,7 @@
         <v>1.38</v>
       </c>
       <c r="P14" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="Q14" t="n">
         <v>2.12</v>
@@ -2335,10 +2335,10 @@
         <v>1.99</v>
       </c>
       <c r="V14" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W14" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X14" t="n">
         <v>14.5</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="G15" t="n">
         <v>1000</v>
       </c>
       <c r="H15" t="n">
-        <v>1.7</v>
+        <v>1.19</v>
       </c>
       <c r="I15" t="n">
-        <v>1.97</v>
+        <v>970</v>
       </c>
       <c r="J15" t="n">
-        <v>3.4</v>
+        <v>1.01</v>
       </c>
       <c r="K15" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2446,7 +2446,7 @@
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>1.82</v>
+        <v>1.34</v>
       </c>
       <c r="O15" t="n">
         <v>1.32</v>
@@ -2455,13 +2455,13 @@
         <v>1.34</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="R15" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>1.87</v>
+        <v>1.32</v>
       </c>
       <c r="T15" t="n">
         <v>1.01</v>
@@ -2470,7 +2470,7 @@
         <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="W15" t="n">
         <v>1.18</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="G16" t="n">
         <v>1.61</v>
@@ -2581,13 +2581,13 @@
         <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O16" t="n">
         <v>1.39</v>
       </c>
       <c r="P16" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="Q16" t="n">
         <v>2.14</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="G17" t="n">
         <v>2.44</v>
       </c>
       <c r="H17" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I17" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J17" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K17" t="n">
         <v>3.5</v>
@@ -2725,7 +2725,7 @@
         <v>1.87</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
         <v>1.34</v>
@@ -2872,7 +2872,7 @@
         <v>2.08</v>
       </c>
       <c r="U18" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V18" t="n">
         <v>1.41</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="G19" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H19" t="n">
         <v>2.52</v>
       </c>
       <c r="I19" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="J19" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="K19" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L19" t="n">
         <v>1.46</v>
@@ -2986,7 +2986,7 @@
         <v>1.12</v>
       </c>
       <c r="N19" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="O19" t="n">
         <v>1.53</v>
@@ -3016,7 +3016,7 @@
         <v>1.38</v>
       </c>
       <c r="X19" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y19" t="n">
         <v>8.199999999999999</v>
@@ -3130,7 +3130,7 @@
         <v>1.32</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="R20" t="n">
         <v>1.18</v>
@@ -3235,7 +3235,7 @@
         <v>2.28</v>
       </c>
       <c r="G21" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H21" t="n">
         <v>3.8</v>
@@ -3397,7 +3397,7 @@
         <v>1.23</v>
       </c>
       <c r="P22" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q22" t="n">
         <v>1.69</v>
@@ -3409,7 +3409,7 @@
         <v>2.74</v>
       </c>
       <c r="T22" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U22" t="n">
         <v>1.66</v>
@@ -3505,16 +3505,16 @@
         <v>2.26</v>
       </c>
       <c r="G23" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="H23" t="n">
         <v>3.3</v>
       </c>
       <c r="I23" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="J23" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="K23" t="n">
         <v>3.6</v>
@@ -3535,13 +3535,13 @@
         <v>1.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="R23" t="n">
         <v>1.28</v>
       </c>
       <c r="S23" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T23" t="n">
         <v>1.84</v>
@@ -3550,10 +3550,10 @@
         <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="W23" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="X23" t="n">
         <v>14.5</v>
@@ -3670,7 +3670,7 @@
         <v>1.59</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="R24" t="n">
         <v>1.21</v>
@@ -3697,7 +3697,7 @@
         <v>13</v>
       </c>
       <c r="Z24" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AA24" t="n">
         <v>100</v>
@@ -3784,7 +3784,7 @@
         <v>5.1</v>
       </c>
       <c r="J25" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="K25" t="n">
         <v>3.8</v>
@@ -3811,7 +3811,7 @@
         <v>1.26</v>
       </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="T25" t="n">
         <v>1.89</v>
@@ -3922,7 +3922,7 @@
         <v>3.05</v>
       </c>
       <c r="K26" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L26" t="n">
         <v>1.5</v>
@@ -3931,28 +3931,28 @@
         <v>1.1</v>
       </c>
       <c r="N26" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P26" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="R26" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S26" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="T26" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="U26" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="V26" t="n">
         <v>1.5</v>
@@ -3961,7 +3961,7 @@
         <v>1.49</v>
       </c>
       <c r="X26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y26" t="n">
         <v>10</v>
@@ -3970,7 +3970,7 @@
         <v>970</v>
       </c>
       <c r="AA26" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB26" t="n">
         <v>9.800000000000001</v>
@@ -3982,7 +3982,7 @@
         <v>15.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF26" t="n">
         <v>19</v>
@@ -4000,7 +4000,7 @@
         <v>50</v>
       </c>
       <c r="AK26" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL26" t="n">
         <v>60</v>
@@ -4009,7 +4009,7 @@
         <v>160</v>
       </c>
       <c r="AN26" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AO26" t="n">
         <v>42</v>
@@ -4045,7 +4045,7 @@
         <v>1.97</v>
       </c>
       <c r="G27" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H27" t="n">
         <v>4.2</v>
@@ -4054,10 +4054,10 @@
         <v>4.7</v>
       </c>
       <c r="J27" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="K27" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L27" t="n">
         <v>1.47</v>
@@ -4093,7 +4093,7 @@
         <v>1.27</v>
       </c>
       <c r="W27" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="X27" t="n">
         <v>14</v>
@@ -4126,7 +4126,7 @@
         <v>11</v>
       </c>
       <c r="AH27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI27" t="n">
         <v>75</v>
@@ -4177,31 +4177,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="G28" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="H28" t="n">
         <v>4.5</v>
       </c>
       <c r="I28" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="J28" t="n">
         <v>2.82</v>
       </c>
       <c r="K28" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L28" t="n">
         <v>1.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N28" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="O28" t="n">
         <v>1.56</v>
@@ -4225,10 +4225,10 @@
         <v>1.62</v>
       </c>
       <c r="V28" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W28" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="X28" t="n">
         <v>970</v>
@@ -4237,7 +4237,7 @@
         <v>970</v>
       </c>
       <c r="Z28" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA28" t="n">
         <v>1000</v>
@@ -4249,7 +4249,7 @@
         <v>970</v>
       </c>
       <c r="AD28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE28" t="n">
         <v>1000</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="G29" t="n">
         <v>1.76</v>
@@ -4321,7 +4321,7 @@
         <v>5.4</v>
       </c>
       <c r="I29" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J29" t="n">
         <v>4</v>
@@ -4345,7 +4345,7 @@
         <v>1.93</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="R29" t="n">
         <v>1.36</v>
@@ -4465,7 +4465,7 @@
         <v>5.4</v>
       </c>
       <c r="L30" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M30" t="n">
         <v>1.03</v>
@@ -4720,7 +4720,7 @@
         <v>2.66</v>
       </c>
       <c r="G32" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="H32" t="n">
         <v>3.35</v>
@@ -4729,10 +4729,10 @@
         <v>3.4</v>
       </c>
       <c r="J32" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K32" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L32" t="n">
         <v>1.56</v>
@@ -4759,16 +4759,16 @@
         <v>5.3</v>
       </c>
       <c r="T32" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U32" t="n">
         <v>1.87</v>
       </c>
       <c r="V32" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W32" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X32" t="n">
         <v>8.6</v>
@@ -4819,7 +4819,7 @@
         <v>170</v>
       </c>
       <c r="AN32" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AO32" t="n">
         <v>65</v>
@@ -4855,13 +4855,13 @@
         <v>2.32</v>
       </c>
       <c r="G33" t="n">
-        <v>2.62</v>
+        <v>2.78</v>
       </c>
       <c r="H33" t="n">
         <v>2.98</v>
       </c>
       <c r="I33" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="J33" t="n">
         <v>3.3</v>
@@ -4870,7 +4870,7 @@
         <v>3.85</v>
       </c>
       <c r="L33" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="M33" t="n">
         <v>1.06</v>
@@ -4879,7 +4879,7 @@
         <v>3.6</v>
       </c>
       <c r="O33" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="P33" t="n">
         <v>1.9</v>
@@ -4894,16 +4894,16 @@
         <v>3.3</v>
       </c>
       <c r="T33" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U33" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V33" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W33" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="X33" t="n">
         <v>18</v>
@@ -4990,7 +4990,7 @@
         <v>1.6</v>
       </c>
       <c r="G34" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="H34" t="n">
         <v>7.4</v>
@@ -5038,7 +5038,7 @@
         <v>1.12</v>
       </c>
       <c r="W34" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="X34" t="n">
         <v>13.5</v>
@@ -5065,7 +5065,7 @@
         <v>200</v>
       </c>
       <c r="AF34" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AG34" t="n">
         <v>11</v>
@@ -5077,7 +5077,7 @@
         <v>200</v>
       </c>
       <c r="AJ34" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AK34" t="n">
         <v>22</v>
@@ -5260,10 +5260,10 @@
         <v>1.99</v>
       </c>
       <c r="G36" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H36" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="I36" t="n">
         <v>4.7</v>
@@ -5296,7 +5296,7 @@
         <v>1.37</v>
       </c>
       <c r="S36" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="T36" t="n">
         <v>1.71</v>
@@ -5305,7 +5305,7 @@
         <v>2.12</v>
       </c>
       <c r="V36" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="W36" t="n">
         <v>1.81</v>
@@ -5416,7 +5416,7 @@
         <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O37" t="n">
         <v>1.24</v>
@@ -5428,10 +5428,10 @@
         <v>1.73</v>
       </c>
       <c r="R37" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S37" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T37" t="n">
         <v>1.68</v>
@@ -5485,7 +5485,7 @@
         <v>120</v>
       </c>
       <c r="AK37" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AL37" t="n">
         <v>60</v>
@@ -5530,13 +5530,13 @@
         <v>1.45</v>
       </c>
       <c r="G38" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="H38" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="I38" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="J38" t="n">
         <v>4.4</v>
@@ -5557,7 +5557,7 @@
         <v>1.21</v>
       </c>
       <c r="P38" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q38" t="n">
         <v>1.58</v>
@@ -5569,16 +5569,16 @@
         <v>2.4</v>
       </c>
       <c r="T38" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U38" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V38" t="n">
         <v>1.11</v>
       </c>
       <c r="W38" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="X38" t="n">
         <v>27</v>
@@ -5674,7 +5674,7 @@
         <v>4.2</v>
       </c>
       <c r="J39" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K39" t="n">
         <v>3.65</v>
@@ -5695,7 +5695,7 @@
         <v>1.72</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="R39" t="n">
         <v>1.26</v>
@@ -5704,13 +5704,13 @@
         <v>4</v>
       </c>
       <c r="T39" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="U39" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V39" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W39" t="n">
         <v>1.74</v>
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.5</v>
+        <v>2.66</v>
       </c>
       <c r="G40" t="n">
         <v>3.45</v>
@@ -5821,16 +5821,16 @@
         <v>1.07</v>
       </c>
       <c r="N40" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="O40" t="n">
         <v>1.36</v>
       </c>
       <c r="P40" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="R40" t="n">
         <v>1.28</v>
@@ -5932,10 +5932,10 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="G41" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="H41" t="n">
         <v>3.25</v>
@@ -5962,7 +5962,7 @@
         <v>1.48</v>
       </c>
       <c r="P41" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q41" t="n">
         <v>2.4</v>
@@ -5980,7 +5980,7 @@
         <v>1.86</v>
       </c>
       <c r="V41" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W41" t="n">
         <v>1.6</v>
@@ -5989,7 +5989,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Y41" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Z41" t="n">
         <v>26</v>
@@ -6016,7 +6016,7 @@
         <v>970</v>
       </c>
       <c r="AH41" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AI41" t="n">
         <v>70</v>
@@ -6070,19 +6070,19 @@
         <v>2.64</v>
       </c>
       <c r="G42" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="H42" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="I42" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J42" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K42" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L42" t="n">
         <v>1.36</v>
@@ -6097,16 +6097,16 @@
         <v>1.34</v>
       </c>
       <c r="P42" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="R42" t="n">
         <v>1.31</v>
       </c>
       <c r="S42" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T42" t="n">
         <v>1.76</v>
@@ -6115,7 +6115,7 @@
         <v>2.06</v>
       </c>
       <c r="V42" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="W42" t="n">
         <v>1.53</v>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G43" t="n">
         <v>4.3</v>
@@ -6211,7 +6211,7 @@
         <v>1.98</v>
       </c>
       <c r="I43" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="J43" t="n">
         <v>3.65</v>
@@ -6226,22 +6226,22 @@
         <v>1.02</v>
       </c>
       <c r="N43" t="n">
-        <v>2.84</v>
+        <v>5.7</v>
       </c>
       <c r="O43" t="n">
         <v>1.12</v>
       </c>
       <c r="P43" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="Q43" t="n">
         <v>1.38</v>
       </c>
       <c r="R43" t="n">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="S43" t="n">
-        <v>1.39</v>
+        <v>1.96</v>
       </c>
       <c r="T43" t="n">
         <v>1.01</v>
@@ -6250,7 +6250,7 @@
         <v>1.01</v>
       </c>
       <c r="V43" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="W43" t="n">
         <v>1.32</v>
@@ -6472,100 +6472,100 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="G45" t="n">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="H45" t="n">
         <v>5</v>
       </c>
       <c r="I45" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J45" t="n">
         <v>2.74</v>
       </c>
       <c r="K45" t="n">
-        <v>5.1</v>
+        <v>3.5</v>
       </c>
       <c r="L45" t="n">
         <v>1.55</v>
       </c>
       <c r="M45" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="N45" t="n">
-        <v>1.35</v>
+        <v>2.04</v>
       </c>
       <c r="O45" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="P45" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="R45" t="n">
         <v>1.13</v>
       </c>
       <c r="S45" t="n">
-        <v>2.6</v>
+        <v>1.01</v>
       </c>
       <c r="T45" t="n">
-        <v>1.01</v>
+        <v>2.5</v>
       </c>
       <c r="U45" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="V45" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="W45" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="X45" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="Y45" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA45" t="n">
         <v>1000</v>
       </c>
       <c r="AB45" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AC45" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD45" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AE45" t="n">
         <v>1000</v>
       </c>
       <c r="AF45" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG45" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH45" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AI45" t="n">
         <v>1000</v>
       </c>
       <c r="AJ45" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK45" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL45" t="n">
         <v>1000</v>
@@ -6574,7 +6574,7 @@
         <v>1000</v>
       </c>
       <c r="AN45" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO45" t="n">
         <v>1000</v>
@@ -6619,7 +6619,7 @@
         <v>4.2</v>
       </c>
       <c r="J46" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K46" t="n">
         <v>3.5</v>
@@ -6742,22 +6742,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="G47" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="H47" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="I47" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="J47" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="K47" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L47" t="n">
         <v>1.37</v>
@@ -6772,10 +6772,10 @@
         <v>1.37</v>
       </c>
       <c r="P47" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R47" t="n">
         <v>1.28</v>
@@ -6790,10 +6790,10 @@
         <v>1.79</v>
       </c>
       <c r="V47" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="W47" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="X47" t="n">
         <v>15</v>
@@ -6805,7 +6805,7 @@
         <v>55</v>
       </c>
       <c r="AA47" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AB47" t="n">
         <v>7.6</v>
@@ -6883,7 +6883,7 @@
         <v>5.6</v>
       </c>
       <c r="H48" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="I48" t="n">
         <v>1.8</v>
@@ -6907,7 +6907,7 @@
         <v>1.38</v>
       </c>
       <c r="P48" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q48" t="n">
         <v>2.14</v>
@@ -7015,16 +7015,16 @@
         <v>3.75</v>
       </c>
       <c r="G49" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H49" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="I49" t="n">
         <v>2.5</v>
       </c>
       <c r="J49" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="K49" t="n">
         <v>3.1</v>
@@ -7036,28 +7036,28 @@
         <v>1.15</v>
       </c>
       <c r="N49" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="O49" t="n">
         <v>1.65</v>
       </c>
       <c r="P49" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q49" t="n">
         <v>3</v>
       </c>
       <c r="R49" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="S49" t="n">
         <v>6.4</v>
       </c>
       <c r="T49" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="U49" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="V49" t="n">
         <v>1.67</v>
@@ -7066,22 +7066,22 @@
         <v>1.33</v>
       </c>
       <c r="X49" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="Y49" t="n">
         <v>7</v>
       </c>
       <c r="Z49" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA49" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB49" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AC49" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD49" t="n">
         <v>14</v>
@@ -7090,10 +7090,10 @@
         <v>42</v>
       </c>
       <c r="AF49" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG49" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AH49" t="n">
         <v>29</v>
@@ -7102,10 +7102,10 @@
         <v>80</v>
       </c>
       <c r="AJ49" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AK49" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AL49" t="n">
         <v>130</v>
@@ -7117,7 +7117,7 @@
         <v>150</v>
       </c>
       <c r="AO49" t="n">
-        <v>46</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50">
@@ -7147,31 +7147,31 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.28</v>
+        <v>1.81</v>
       </c>
       <c r="G50" t="n">
-        <v>3.35</v>
+        <v>2.04</v>
       </c>
       <c r="H50" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I50" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="J50" t="n">
-        <v>1.79</v>
+        <v>3.25</v>
       </c>
       <c r="K50" t="n">
-        <v>950</v>
+        <v>3.85</v>
       </c>
       <c r="L50" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M50" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N50" t="n">
-        <v>1.6</v>
+        <v>2.66</v>
       </c>
       <c r="O50" t="n">
         <v>1.42</v>
@@ -7189,70 +7189,70 @@
         <v>3.6</v>
       </c>
       <c r="T50" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="U50" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="V50" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W50" t="n">
-        <v>1.42</v>
+        <v>1.97</v>
       </c>
       <c r="X50" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y50" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z50" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AA50" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AB50" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC50" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD50" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AE50" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF50" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG50" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH50" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI50" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ50" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK50" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL50" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM50" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN50" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO50" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51">
@@ -7291,7 +7291,7 @@
         <v>1.74</v>
       </c>
       <c r="I51" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="J51" t="n">
         <v>4.3</v>
@@ -7318,34 +7318,34 @@
         <v>1.77</v>
       </c>
       <c r="R51" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S51" t="n">
         <v>3</v>
       </c>
       <c r="T51" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U51" t="n">
         <v>2.26</v>
       </c>
       <c r="V51" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="W51" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="X51" t="n">
         <v>20</v>
       </c>
       <c r="Y51" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z51" t="n">
         <v>12</v>
       </c>
       <c r="AA51" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AB51" t="n">
         <v>20</v>
@@ -7387,7 +7387,7 @@
         <v>60</v>
       </c>
       <c r="AO51" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="52">
@@ -7420,7 +7420,7 @@
         <v>1.76</v>
       </c>
       <c r="G52" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="H52" t="n">
         <v>5.4</v>
@@ -7444,22 +7444,22 @@
         <v>3.75</v>
       </c>
       <c r="O52" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P52" t="n">
         <v>1.94</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R52" t="n">
         <v>1.36</v>
       </c>
       <c r="S52" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T52" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="U52" t="n">
         <v>2</v>
@@ -7555,7 +7555,7 @@
         <v>2.84</v>
       </c>
       <c r="G53" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="H53" t="n">
         <v>2.94</v>
@@ -7582,7 +7582,7 @@
         <v>1.56</v>
       </c>
       <c r="P53" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Q53" t="n">
         <v>2.62</v>
@@ -7690,34 +7690,34 @@
         <v>2.96</v>
       </c>
       <c r="G54" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="H54" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I54" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="J54" t="n">
         <v>3.1</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2.28</v>
       </c>
       <c r="K54" t="n">
         <v>4.2</v>
       </c>
       <c r="L54" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M54" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N54" t="n">
-        <v>1.64</v>
+        <v>2.88</v>
       </c>
       <c r="O54" t="n">
         <v>1.36</v>
       </c>
       <c r="P54" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q54" t="n">
         <v>1.9</v>
@@ -7729,70 +7729,70 @@
         <v>3.15</v>
       </c>
       <c r="T54" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="U54" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="V54" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="W54" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="X54" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y54" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z54" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AA54" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB54" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC54" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD54" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE54" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF54" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG54" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH54" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI54" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ54" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK54" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL54" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM54" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN54" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AO54" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55">
@@ -7849,7 +7849,7 @@
         <v>3.2</v>
       </c>
       <c r="O55" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P55" t="n">
         <v>1.84</v>
@@ -7960,22 +7960,22 @@
         <v>2.3</v>
       </c>
       <c r="G56" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="H56" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I56" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J56" t="n">
         <v>3.25</v>
       </c>
       <c r="K56" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L56" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="M56" t="n">
         <v>1.08</v>
@@ -7999,16 +7999,16 @@
         <v>4.1</v>
       </c>
       <c r="T56" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U56" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V56" t="n">
         <v>1.37</v>
       </c>
       <c r="W56" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X56" t="n">
         <v>13.5</v>
@@ -8101,7 +8101,7 @@
         <v>3.05</v>
       </c>
       <c r="I57" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="J57" t="n">
         <v>3</v>
@@ -8110,7 +8110,7 @@
         <v>3.55</v>
       </c>
       <c r="L57" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="M57" t="n">
         <v>1.08</v>
@@ -8125,7 +8125,7 @@
         <v>1.66</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R57" t="n">
         <v>1.24</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-08.xlsx
@@ -697,7 +697,7 @@
         <v>1.37</v>
       </c>
       <c r="P2" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q2" t="n">
         <v>2.1</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="G3" t="n">
         <v>17.5</v>
@@ -817,7 +817,7 @@
         <v>4.7</v>
       </c>
       <c r="K3" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -1015,13 +1015,13 @@
         <v>32</v>
       </c>
       <c r="AF4" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AH4" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI4" t="n">
         <v>75</v>
@@ -1090,7 +1090,7 @@
         <v>6.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
@@ -1219,7 +1219,7 @@
         <v>7.2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
         <v>4</v>
@@ -1237,10 +1237,10 @@
         <v>1.38</v>
       </c>
       <c r="P6" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R6" t="n">
         <v>1.26</v>
@@ -1351,19 +1351,19 @@
         <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="J7" t="n">
-        <v>2.92</v>
+        <v>2.66</v>
       </c>
       <c r="K7" t="n">
         <v>3.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
         <v>2.66</v>
@@ -1372,10 +1372,10 @@
         <v>1.49</v>
       </c>
       <c r="P7" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="R7" t="n">
         <v>1.2</v>
@@ -1384,13 +1384,13 @@
         <v>4.3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="V7" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="W7" t="n">
         <v>1.58</v>
@@ -1510,7 +1510,7 @@
         <v>1.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="R8" t="n">
         <v>1.26</v>
@@ -1753,7 +1753,7 @@
         <v>2.38</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I10" t="n">
         <v>5</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="G11" t="n">
         <v>6.2</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="G12" t="n">
         <v>1.89</v>
@@ -2026,13 +2026,13 @@
         <v>4.5</v>
       </c>
       <c r="I12" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J12" t="n">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L12" t="n">
         <v>1.37</v>
@@ -2044,10 +2044,10 @@
         <v>2.9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P12" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Q12" t="n">
         <v>1.92</v>
@@ -2056,7 +2056,7 @@
         <v>1.28</v>
       </c>
       <c r="S12" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="T12" t="n">
         <v>1.92</v>
@@ -2074,7 +2074,7 @@
         <v>970</v>
       </c>
       <c r="Y12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z12" t="n">
         <v>55</v>
@@ -2107,7 +2107,7 @@
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK12" t="n">
         <v>25</v>
@@ -2170,7 +2170,7 @@
         <v>3.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="M13" t="n">
         <v>1.12</v>
@@ -2305,7 +2305,7 @@
         <v>3.6</v>
       </c>
       <c r="L14" t="n">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
@@ -2446,7 +2446,7 @@
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>1.34</v>
+        <v>1.02</v>
       </c>
       <c r="O15" t="n">
         <v>1.32</v>
@@ -2698,10 +2698,10 @@
         <v>2.44</v>
       </c>
       <c r="H17" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J17" t="n">
         <v>3.2</v>
@@ -2905,7 +2905,7 @@
         <v>50</v>
       </c>
       <c r="AF18" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG18" t="n">
         <v>12.5</v>
@@ -2974,13 +2974,13 @@
         <v>2.7</v>
       </c>
       <c r="J19" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="K19" t="n">
         <v>3.2</v>
       </c>
       <c r="L19" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M19" t="n">
         <v>1.12</v>
@@ -3397,7 +3397,7 @@
         <v>1.23</v>
       </c>
       <c r="P22" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q22" t="n">
         <v>1.69</v>
@@ -3508,7 +3508,7 @@
         <v>2.46</v>
       </c>
       <c r="H23" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I23" t="n">
         <v>3.75</v>
@@ -3520,7 +3520,7 @@
         <v>3.6</v>
       </c>
       <c r="L23" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="M23" t="n">
         <v>1.08</v>
@@ -3535,7 +3535,7 @@
         <v>1.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="R23" t="n">
         <v>1.28</v>
@@ -3544,13 +3544,13 @@
         <v>3.9</v>
       </c>
       <c r="T23" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U23" t="n">
         <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W23" t="n">
         <v>1.7</v>
@@ -3580,7 +3580,7 @@
         <v>60</v>
       </c>
       <c r="AF23" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG23" t="n">
         <v>14</v>
@@ -3655,7 +3655,7 @@
         <v>3.4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="M24" t="n">
         <v>1.11</v>
@@ -3667,7 +3667,7 @@
         <v>1.47</v>
       </c>
       <c r="P24" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="Q24" t="n">
         <v>2.34</v>
@@ -3799,7 +3799,7 @@
         <v>3.05</v>
       </c>
       <c r="O25" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="P25" t="n">
         <v>1.7</v>
@@ -3940,7 +3940,7 @@
         <v>1.64</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R26" t="n">
         <v>1.24</v>
@@ -4315,7 +4315,7 @@
         <v>1.72</v>
       </c>
       <c r="G29" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="H29" t="n">
         <v>5.4</v>
@@ -4345,7 +4345,7 @@
         <v>1.93</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="R29" t="n">
         <v>1.36</v>
@@ -4363,7 +4363,7 @@
         <v>1.21</v>
       </c>
       <c r="W29" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="X29" t="n">
         <v>18</v>
@@ -4381,19 +4381,19 @@
         <v>8.4</v>
       </c>
       <c r="AC29" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD29" t="n">
         <v>27</v>
       </c>
       <c r="AE29" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AF29" t="n">
         <v>10.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>970</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH29" t="n">
         <v>22</v>
@@ -4465,7 +4465,7 @@
         <v>5.4</v>
       </c>
       <c r="L30" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M30" t="n">
         <v>1.03</v>
@@ -4720,10 +4720,10 @@
         <v>2.66</v>
       </c>
       <c r="G32" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="H32" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I32" t="n">
         <v>3.4</v>
@@ -4750,7 +4750,7 @@
         <v>1.58</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="R32" t="n">
         <v>1.21</v>
@@ -4819,7 +4819,7 @@
         <v>170</v>
       </c>
       <c r="AN32" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AO32" t="n">
         <v>65</v>
@@ -4852,25 +4852,25 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G33" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="H33" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J33" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K33" t="n">
         <v>3.85</v>
       </c>
       <c r="L33" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="M33" t="n">
         <v>1.06</v>
@@ -4891,19 +4891,19 @@
         <v>1.35</v>
       </c>
       <c r="S33" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="T33" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U33" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V33" t="n">
         <v>1.4</v>
       </c>
       <c r="W33" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="X33" t="n">
         <v>18</v>
@@ -4912,25 +4912,25 @@
         <v>15.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AA33" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB33" t="n">
         <v>13</v>
       </c>
       <c r="AC33" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD33" t="n">
         <v>17</v>
       </c>
       <c r="AE33" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF33" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG33" t="n">
         <v>14</v>
@@ -4939,7 +4939,7 @@
         <v>21</v>
       </c>
       <c r="AI33" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ33" t="n">
         <v>42</v>
@@ -4957,7 +4957,7 @@
         <v>25</v>
       </c>
       <c r="AO33" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34">
@@ -5260,10 +5260,10 @@
         <v>1.99</v>
       </c>
       <c r="G36" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="H36" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="I36" t="n">
         <v>4.7</v>
@@ -5275,7 +5275,7 @@
         <v>4.1</v>
       </c>
       <c r="L36" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="M36" t="n">
         <v>1.05</v>
@@ -5305,10 +5305,10 @@
         <v>2.12</v>
       </c>
       <c r="V36" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="W36" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="X36" t="n">
         <v>970</v>
@@ -5530,7 +5530,7 @@
         <v>1.45</v>
       </c>
       <c r="G38" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="H38" t="n">
         <v>5.8</v>
@@ -5740,7 +5740,7 @@
         <v>65</v>
       </c>
       <c r="AF39" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG39" t="n">
         <v>13.5</v>
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.66</v>
+        <v>2.5</v>
       </c>
       <c r="G40" t="n">
         <v>3.45</v>
@@ -5845,7 +5845,7 @@
         <v>2</v>
       </c>
       <c r="V40" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="W40" t="n">
         <v>1.42</v>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="G41" t="n">
         <v>2.64</v>
@@ -5980,7 +5980,7 @@
         <v>1.86</v>
       </c>
       <c r="V41" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W41" t="n">
         <v>1.6</v>
@@ -6070,16 +6070,16 @@
         <v>2.64</v>
       </c>
       <c r="G42" t="n">
-        <v>2.96</v>
+        <v>2.86</v>
       </c>
       <c r="H42" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J42" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K42" t="n">
         <v>3.65</v>
@@ -6118,7 +6118,7 @@
         <v>1.5</v>
       </c>
       <c r="W42" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X42" t="n">
         <v>970</v>
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="G43" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="H43" t="n">
         <v>1.98</v>
       </c>
       <c r="I43" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="J43" t="n">
         <v>3.65</v>
@@ -6220,16 +6220,16 @@
         <v>4.8</v>
       </c>
       <c r="L43" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M43" t="n">
         <v>1.02</v>
       </c>
       <c r="N43" t="n">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="O43" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="P43" t="n">
         <v>2.88</v>
@@ -6238,22 +6238,22 @@
         <v>1.38</v>
       </c>
       <c r="R43" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="S43" t="n">
         <v>1.96</v>
       </c>
       <c r="T43" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="U43" t="n">
-        <v>1.01</v>
+        <v>2.74</v>
       </c>
       <c r="V43" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="W43" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
@@ -6337,7 +6337,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="G44" t="n">
         <v>1.6</v>
@@ -6355,7 +6355,7 @@
         <v>6</v>
       </c>
       <c r="L44" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="M44" t="n">
         <v>1.01</v>
@@ -6472,13 +6472,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="G45" t="n">
         <v>1.97</v>
       </c>
       <c r="H45" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I45" t="n">
         <v>8.199999999999999</v>
@@ -6496,10 +6496,10 @@
         <v>1.15</v>
       </c>
       <c r="N45" t="n">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="O45" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="P45" t="n">
         <v>1.4</v>
@@ -6511,13 +6511,13 @@
         <v>1.13</v>
       </c>
       <c r="S45" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="T45" t="n">
         <v>2.5</v>
       </c>
       <c r="U45" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="V45" t="n">
         <v>1.15</v>
@@ -6649,7 +6649,7 @@
         <v>4.3</v>
       </c>
       <c r="T46" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U46" t="n">
         <v>1.91</v>
@@ -6757,7 +6757,7 @@
         <v>4.1</v>
       </c>
       <c r="K47" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L47" t="n">
         <v>1.37</v>
@@ -6772,7 +6772,7 @@
         <v>1.37</v>
       </c>
       <c r="P47" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="Q47" t="n">
         <v>2.06</v>
@@ -6814,7 +6814,7 @@
         <v>970</v>
       </c>
       <c r="AD47" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AE47" t="n">
         <v>130</v>
@@ -6883,10 +6883,10 @@
         <v>5.6</v>
       </c>
       <c r="H48" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="I48" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="J48" t="n">
         <v>3.8</v>
@@ -6901,13 +6901,13 @@
         <v>1.08</v>
       </c>
       <c r="N48" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O48" t="n">
         <v>1.38</v>
       </c>
       <c r="P48" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q48" t="n">
         <v>2.14</v>
@@ -6928,7 +6928,7 @@
         <v>2.24</v>
       </c>
       <c r="W48" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="X48" t="n">
         <v>12.5</v>
@@ -7156,7 +7156,7 @@
         <v>4.7</v>
       </c>
       <c r="I50" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="J50" t="n">
         <v>3.25</v>
@@ -7177,7 +7177,7 @@
         <v>1.42</v>
       </c>
       <c r="P50" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="Q50" t="n">
         <v>2.04</v>
@@ -7195,7 +7195,7 @@
         <v>1.8</v>
       </c>
       <c r="V50" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W50" t="n">
         <v>1.97</v>
@@ -7285,13 +7285,13 @@
         <v>5</v>
       </c>
       <c r="G51" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="H51" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="I51" t="n">
         <v>1.74</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1.75</v>
       </c>
       <c r="J51" t="n">
         <v>4.3</v>
@@ -7318,7 +7318,7 @@
         <v>1.77</v>
       </c>
       <c r="R51" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S51" t="n">
         <v>3</v>
@@ -7327,19 +7327,19 @@
         <v>1.74</v>
       </c>
       <c r="U51" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V51" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="W51" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="X51" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y51" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Z51" t="n">
         <v>12</v>
@@ -7354,7 +7354,7 @@
         <v>9.4</v>
       </c>
       <c r="AD51" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AE51" t="n">
         <v>17.5</v>
@@ -7381,13 +7381,13 @@
         <v>60</v>
       </c>
       <c r="AM51" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN51" t="n">
         <v>60</v>
       </c>
       <c r="AO51" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52">
@@ -7417,7 +7417,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="G52" t="n">
         <v>1.78</v>
@@ -7441,7 +7441,7 @@
         <v>1.07</v>
       </c>
       <c r="N52" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="O52" t="n">
         <v>1.33</v>
@@ -7450,19 +7450,19 @@
         <v>1.94</v>
       </c>
       <c r="Q52" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R52" t="n">
         <v>1.36</v>
       </c>
       <c r="S52" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T52" t="n">
         <v>1.93</v>
       </c>
       <c r="U52" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V52" t="n">
         <v>1.22</v>
@@ -7498,7 +7498,7 @@
         <v>10</v>
       </c>
       <c r="AG52" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH52" t="n">
         <v>21</v>
@@ -7507,7 +7507,7 @@
         <v>80</v>
       </c>
       <c r="AJ52" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK52" t="n">
         <v>18.5</v>
@@ -7552,16 +7552,16 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="G53" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="H53" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="I53" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J53" t="n">
         <v>3</v>
@@ -7576,13 +7576,13 @@
         <v>1.13</v>
       </c>
       <c r="N53" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="O53" t="n">
         <v>1.56</v>
       </c>
       <c r="P53" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q53" t="n">
         <v>2.62</v>
@@ -7639,7 +7639,7 @@
         <v>24</v>
       </c>
       <c r="AI53" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AJ53" t="n">
         <v>60</v>
@@ -7696,7 +7696,7 @@
         <v>2.38</v>
       </c>
       <c r="I54" t="n">
-        <v>2.76</v>
+        <v>2.96</v>
       </c>
       <c r="J54" t="n">
         <v>3.1</v>
@@ -7717,7 +7717,7 @@
         <v>1.36</v>
       </c>
       <c r="P54" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="Q54" t="n">
         <v>1.9</v>
@@ -7849,7 +7849,7 @@
         <v>3.2</v>
       </c>
       <c r="O55" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P55" t="n">
         <v>1.84</v>
@@ -7960,7 +7960,7 @@
         <v>2.3</v>
       </c>
       <c r="G56" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="H56" t="n">
         <v>3.3</v>
@@ -8110,7 +8110,7 @@
         <v>3.55</v>
       </c>
       <c r="L57" t="n">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="M57" t="n">
         <v>1.08</v>
@@ -8131,7 +8131,7 @@
         <v>1.24</v>
       </c>
       <c r="S57" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="T57" t="n">
         <v>1.87</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-08.xlsx
@@ -670,28 +670,28 @@
         <v>1.71</v>
       </c>
       <c r="G2" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="H2" t="n">
         <v>5.6</v>
       </c>
       <c r="I2" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J2" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
         <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O2" t="n">
         <v>1.37</v>
@@ -715,7 +715,7 @@
         <v>1.87</v>
       </c>
       <c r="V2" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W2" t="n">
         <v>2.26</v>
@@ -760,7 +760,7 @@
         <v>970</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL2" t="n">
         <v>42</v>
@@ -769,7 +769,7 @@
         <v>180</v>
       </c>
       <c r="AN2" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AO2" t="n">
         <v>160</v>
@@ -805,31 +805,31 @@
         <v>5.1</v>
       </c>
       <c r="G3" t="n">
-        <v>17.5</v>
+        <v>11.5</v>
       </c>
       <c r="H3" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="I3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="J3" t="n">
         <v>4.7</v>
       </c>
       <c r="K3" t="n">
-        <v>13.5</v>
+        <v>9.4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
         <v>2.34</v>
       </c>
       <c r="O3" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P3" t="n">
         <v>2.34</v>
@@ -850,10 +850,10 @@
         <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>2.6</v>
+        <v>2.74</v>
       </c>
       <c r="W3" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -943,16 +943,16 @@
         <v>7.4</v>
       </c>
       <c r="H4" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="I4" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="J4" t="n">
         <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -961,10 +961,10 @@
         <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="O4" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="P4" t="n">
         <v>1.52</v>
@@ -976,19 +976,19 @@
         <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T4" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="U4" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="V4" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="W4" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="X4" t="n">
         <v>970</v>
@@ -1078,67 +1078,67 @@
         <v>1.35</v>
       </c>
       <c r="H5" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="I5" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J5" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="K5" t="n">
         <v>6.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>2.36</v>
+        <v>2.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="R5" t="n">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
       <c r="S5" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="T5" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="U5" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="V5" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W5" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="X5" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Y5" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Z5" t="n">
         <v>140</v>
       </c>
       <c r="AA5" t="n">
-        <v>570</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC5" t="n">
         <v>16.5</v>
@@ -1150,7 +1150,7 @@
         <v>240</v>
       </c>
       <c r="AF5" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AG5" t="n">
         <v>13.5</v>
@@ -1177,7 +1177,7 @@
         <v>5.8</v>
       </c>
       <c r="AO5" t="n">
-        <v>320</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6">
@@ -1207,25 +1207,25 @@
         </is>
       </c>
       <c r="F6" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G6" t="n">
         <v>1.73</v>
       </c>
-      <c r="G6" t="n">
-        <v>1.9</v>
-      </c>
       <c r="H6" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="I6" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
@@ -1237,7 +1237,7 @@
         <v>1.38</v>
       </c>
       <c r="P6" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q6" t="n">
         <v>2.12</v>
@@ -1252,13 +1252,13 @@
         <v>1.99</v>
       </c>
       <c r="U6" t="n">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
         <v>1.16</v>
       </c>
       <c r="W6" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="X6" t="n">
         <v>14.5</v>
@@ -1270,7 +1270,7 @@
         <v>55</v>
       </c>
       <c r="AA6" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
         <v>8.800000000000001</v>
@@ -1312,7 +1312,7 @@
         <v>18</v>
       </c>
       <c r="AO6" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1345,7 +1345,7 @@
         <v>2.38</v>
       </c>
       <c r="G7" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="H7" t="n">
         <v>3.2</v>
@@ -1372,10 +1372,10 @@
         <v>1.49</v>
       </c>
       <c r="P7" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="R7" t="n">
         <v>1.2</v>
@@ -1384,13 +1384,13 @@
         <v>4.3</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U7" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="V7" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="W7" t="n">
         <v>1.58</v>
@@ -1480,7 +1480,7 @@
         <v>2.76</v>
       </c>
       <c r="G8" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H8" t="n">
         <v>2.58</v>
@@ -1525,10 +1525,10 @@
         <v>1.96</v>
       </c>
       <c r="V8" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="W8" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="X8" t="n">
         <v>970</v>
@@ -1621,7 +1621,7 @@
         <v>3.45</v>
       </c>
       <c r="I9" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J9" t="n">
         <v>2.72</v>
@@ -1642,13 +1642,13 @@
         <v>1.46</v>
       </c>
       <c r="P9" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="Q9" t="n">
         <v>2.24</v>
       </c>
       <c r="R9" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S9" t="n">
         <v>4.1</v>
@@ -1657,7 +1657,7 @@
         <v>1.98</v>
       </c>
       <c r="U9" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V9" t="n">
         <v>1.3</v>
@@ -1696,19 +1696,19 @@
         <v>970</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI9" t="n">
         <v>90</v>
       </c>
       <c r="AJ9" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AK9" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL9" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
@@ -1717,7 +1717,7 @@
         <v>38</v>
       </c>
       <c r="AO9" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
         <v>6.2</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="G12" t="n">
         <v>1.89</v>
       </c>
       <c r="H12" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I12" t="n">
         <v>7</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K12" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L12" t="n">
         <v>1.37</v>
@@ -2044,10 +2044,10 @@
         <v>2.9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P12" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q12" t="n">
         <v>1.92</v>
@@ -2065,7 +2065,7 @@
         <v>1.84</v>
       </c>
       <c r="V12" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="W12" t="n">
         <v>2.12</v>
@@ -2089,7 +2089,7 @@
         <v>970</v>
       </c>
       <c r="AD12" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
@@ -2110,7 +2110,7 @@
         <v>24</v>
       </c>
       <c r="AK12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL12" t="n">
         <v>55</v>
@@ -2170,7 +2170,7 @@
         <v>3.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="M13" t="n">
         <v>1.12</v>
@@ -2209,7 +2209,7 @@
         <v>9.4</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z13" t="n">
         <v>28</v>
@@ -2227,7 +2227,7 @@
         <v>19.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF13" t="n">
         <v>18</v>
@@ -2293,19 +2293,19 @@
         <v>2.26</v>
       </c>
       <c r="H14" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I14" t="n">
         <v>4.2</v>
       </c>
       <c r="J14" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K14" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L14" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="G16" t="n">
         <v>1.61</v>
       </c>
       <c r="H16" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="I16" t="n">
         <v>8.199999999999999</v>
@@ -2611,7 +2611,7 @@
         <v>2.6</v>
       </c>
       <c r="X16" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y16" t="n">
         <v>21</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G17" t="n">
         <v>2.44</v>
@@ -2707,7 +2707,7 @@
         <v>3.2</v>
       </c>
       <c r="K17" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L17" t="n">
         <v>1.35</v>
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="G18" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="H18" t="n">
         <v>3.4</v>
@@ -2845,7 +2845,7 @@
         <v>3.1</v>
       </c>
       <c r="L18" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M18" t="n">
         <v>1.12</v>
@@ -2863,7 +2863,7 @@
         <v>2.58</v>
       </c>
       <c r="R18" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S18" t="n">
         <v>5.2</v>
@@ -2974,13 +2974,13 @@
         <v>2.7</v>
       </c>
       <c r="J19" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="K19" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="L19" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M19" t="n">
         <v>1.12</v>
@@ -3001,7 +3001,7 @@
         <v>1.2</v>
       </c>
       <c r="S19" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="T19" t="n">
         <v>2.06</v>
@@ -3010,7 +3010,7 @@
         <v>1.82</v>
       </c>
       <c r="V19" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="W19" t="n">
         <v>1.38</v>
@@ -3067,7 +3067,7 @@
         <v>85</v>
       </c>
       <c r="AO19" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
@@ -3337,7 +3337,7 @@
         <v>29</v>
       </c>
       <c r="AO21" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
@@ -3370,7 +3370,7 @@
         <v>1.27</v>
       </c>
       <c r="G22" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="H22" t="n">
         <v>13.5</v>
@@ -3379,7 +3379,7 @@
         <v>18.5</v>
       </c>
       <c r="J22" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="K22" t="n">
         <v>6.6</v>
@@ -3409,16 +3409,16 @@
         <v>2.74</v>
       </c>
       <c r="T22" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U22" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="V22" t="n">
         <v>1.05</v>
       </c>
       <c r="W22" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="X22" t="n">
         <v>25</v>
@@ -3505,22 +3505,22 @@
         <v>2.26</v>
       </c>
       <c r="G23" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="H23" t="n">
         <v>3.35</v>
       </c>
       <c r="I23" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J23" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K23" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L23" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="M23" t="n">
         <v>1.08</v>
@@ -3535,7 +3535,7 @@
         <v>1.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R23" t="n">
         <v>1.28</v>
@@ -3553,7 +3553,7 @@
         <v>1.37</v>
       </c>
       <c r="W23" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X23" t="n">
         <v>14.5</v>
@@ -3640,7 +3640,7 @@
         <v>2.26</v>
       </c>
       <c r="G24" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="H24" t="n">
         <v>3.55</v>
@@ -3649,13 +3649,13 @@
         <v>4</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K24" t="n">
         <v>3.4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="M24" t="n">
         <v>1.11</v>
@@ -3670,7 +3670,7 @@
         <v>1.58</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R24" t="n">
         <v>1.21</v>
@@ -3688,7 +3688,7 @@
         <v>1.33</v>
       </c>
       <c r="W24" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="X24" t="n">
         <v>11.5</v>
@@ -3718,7 +3718,7 @@
         <v>970</v>
       </c>
       <c r="AG24" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AH24" t="n">
         <v>26</v>
@@ -3799,19 +3799,19 @@
         <v>3.05</v>
       </c>
       <c r="O25" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="P25" t="n">
         <v>1.7</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R25" t="n">
         <v>1.26</v>
       </c>
       <c r="S25" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="T25" t="n">
         <v>1.89</v>
@@ -3910,13 +3910,13 @@
         <v>2.74</v>
       </c>
       <c r="G26" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
         <v>2.76</v>
       </c>
       <c r="I26" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
         <v>3.05</v>
@@ -3937,7 +3937,7 @@
         <v>1.45</v>
       </c>
       <c r="P26" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q26" t="n">
         <v>2.32</v>
@@ -3958,7 +3958,7 @@
         <v>1.5</v>
       </c>
       <c r="W26" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="X26" t="n">
         <v>12</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="G27" t="n">
         <v>2.1</v>
@@ -4054,10 +4054,10 @@
         <v>4.7</v>
       </c>
       <c r="J27" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K27" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L27" t="n">
         <v>1.47</v>
@@ -4072,7 +4072,7 @@
         <v>1.4</v>
       </c>
       <c r="P27" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q27" t="n">
         <v>2.18</v>
@@ -4141,7 +4141,7 @@
         <v>50</v>
       </c>
       <c r="AM27" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN27" t="n">
         <v>22</v>
@@ -4321,7 +4321,7 @@
         <v>5.4</v>
       </c>
       <c r="I29" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J29" t="n">
         <v>4</v>
@@ -4345,7 +4345,7 @@
         <v>1.93</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="R29" t="n">
         <v>1.36</v>
@@ -4447,10 +4447,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="G30" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="H30" t="n">
         <v>6</v>
@@ -4492,13 +4492,13 @@
         <v>1.66</v>
       </c>
       <c r="U30" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V30" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W30" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="X30" t="n">
         <v>36</v>
@@ -4864,7 +4864,7 @@
         <v>3.5</v>
       </c>
       <c r="J33" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K33" t="n">
         <v>3.85</v>
@@ -4879,7 +4879,7 @@
         <v>3.6</v>
       </c>
       <c r="O33" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="P33" t="n">
         <v>1.9</v>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="G34" t="n">
         <v>1.64</v>
@@ -5002,7 +5002,7 @@
         <v>3.75</v>
       </c>
       <c r="K34" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L34" t="n">
         <v>1.49</v>
@@ -5023,7 +5023,7 @@
         <v>2.28</v>
       </c>
       <c r="R34" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S34" t="n">
         <v>4.4</v>
@@ -5065,7 +5065,7 @@
         <v>200</v>
       </c>
       <c r="AF34" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="AG34" t="n">
         <v>11</v>
@@ -5257,16 +5257,16 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="G36" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="H36" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="I36" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="J36" t="n">
         <v>3.5</v>
@@ -5275,7 +5275,7 @@
         <v>4.1</v>
       </c>
       <c r="L36" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="M36" t="n">
         <v>1.05</v>
@@ -5290,7 +5290,7 @@
         <v>1.96</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R36" t="n">
         <v>1.37</v>
@@ -5302,13 +5302,13 @@
         <v>1.71</v>
       </c>
       <c r="U36" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V36" t="n">
         <v>1.27</v>
       </c>
       <c r="W36" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="X36" t="n">
         <v>970</v>
@@ -5323,7 +5323,7 @@
         <v>95</v>
       </c>
       <c r="AB36" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AC36" t="n">
         <v>10.5</v>
@@ -5341,16 +5341,16 @@
         <v>970</v>
       </c>
       <c r="AH36" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI36" t="n">
         <v>65</v>
       </c>
       <c r="AJ36" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK36" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL36" t="n">
         <v>42</v>
@@ -5362,7 +5362,7 @@
         <v>970</v>
       </c>
       <c r="AO36" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37">
@@ -5533,13 +5533,13 @@
         <v>1.58</v>
       </c>
       <c r="H38" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="I38" t="n">
         <v>9.6</v>
       </c>
       <c r="J38" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="K38" t="n">
         <v>6.2</v>
@@ -5548,7 +5548,7 @@
         <v>1.26</v>
       </c>
       <c r="M38" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N38" t="n">
         <v>4.1</v>
@@ -5560,16 +5560,16 @@
         <v>2.28</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="R38" t="n">
         <v>1.5</v>
       </c>
       <c r="S38" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="T38" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="U38" t="n">
         <v>1.85</v>
@@ -5578,7 +5578,7 @@
         <v>1.11</v>
       </c>
       <c r="W38" t="n">
-        <v>2.66</v>
+        <v>2.54</v>
       </c>
       <c r="X38" t="n">
         <v>27</v>
@@ -5671,7 +5671,7 @@
         <v>3.5</v>
       </c>
       <c r="I39" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J39" t="n">
         <v>3.2</v>
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.5</v>
+        <v>2.66</v>
       </c>
       <c r="G40" t="n">
         <v>3.45</v>
@@ -5845,7 +5845,7 @@
         <v>2</v>
       </c>
       <c r="V40" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="W40" t="n">
         <v>1.42</v>
@@ -5938,7 +5938,7 @@
         <v>2.64</v>
       </c>
       <c r="H41" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I41" t="n">
         <v>3.5</v>
@@ -5947,7 +5947,7 @@
         <v>3.1</v>
       </c>
       <c r="K41" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L41" t="n">
         <v>1.44</v>
@@ -5965,7 +5965,7 @@
         <v>1.6</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R41" t="n">
         <v>1.22</v>
@@ -5986,7 +5986,7 @@
         <v>1.6</v>
       </c>
       <c r="X41" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Y41" t="n">
         <v>10.5</v>
@@ -6010,7 +6010,7 @@
         <v>50</v>
       </c>
       <c r="AF41" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG41" t="n">
         <v>970</v>
@@ -6067,25 +6067,25 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.64</v>
+        <v>2.84</v>
       </c>
       <c r="G42" t="n">
-        <v>2.86</v>
+        <v>3.2</v>
       </c>
       <c r="H42" t="n">
-        <v>2.7</v>
+        <v>2.52</v>
       </c>
       <c r="I42" t="n">
-        <v>3.05</v>
+        <v>2.76</v>
       </c>
       <c r="J42" t="n">
         <v>3.35</v>
       </c>
       <c r="K42" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L42" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="M42" t="n">
         <v>1.08</v>
@@ -6115,13 +6115,13 @@
         <v>2.06</v>
       </c>
       <c r="V42" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="W42" t="n">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="X42" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="Y42" t="n">
         <v>970</v>
@@ -6130,7 +6130,7 @@
         <v>970</v>
       </c>
       <c r="AA42" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AB42" t="n">
         <v>970</v>
@@ -6142,7 +6142,7 @@
         <v>970</v>
       </c>
       <c r="AE42" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF42" t="n">
         <v>970</v>
@@ -6154,25 +6154,25 @@
         <v>970</v>
       </c>
       <c r="AI42" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AJ42" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AK42" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL42" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM42" t="n">
         <v>120</v>
       </c>
       <c r="AN42" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO42" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="G43" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="H43" t="n">
         <v>1.98</v>
       </c>
       <c r="I43" t="n">
-        <v>2.3</v>
+        <v>2.14</v>
       </c>
       <c r="J43" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="K43" t="n">
         <v>4.8</v>
@@ -6235,13 +6235,13 @@
         <v>2.88</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="R43" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="S43" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="T43" t="n">
         <v>1.46</v>
@@ -6250,19 +6250,19 @@
         <v>2.74</v>
       </c>
       <c r="V43" t="n">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
       <c r="W43" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
       </c>
       <c r="Y43" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z43" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA43" t="n">
         <v>1000</v>
@@ -6271,22 +6271,22 @@
         <v>1000</v>
       </c>
       <c r="AC43" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD43" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE43" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF43" t="n">
         <v>1000</v>
       </c>
       <c r="AG43" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI43" t="n">
         <v>1000</v>
@@ -6304,10 +6304,10 @@
         <v>1000</v>
       </c>
       <c r="AN43" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO43" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="44">
@@ -6475,16 +6475,16 @@
         <v>1.79</v>
       </c>
       <c r="G45" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="H45" t="n">
         <v>5.1</v>
       </c>
       <c r="I45" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="J45" t="n">
-        <v>2.74</v>
+        <v>2.96</v>
       </c>
       <c r="K45" t="n">
         <v>3.5</v>
@@ -6523,7 +6523,7 @@
         <v>1.15</v>
       </c>
       <c r="W45" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X45" t="n">
         <v>8.6</v>
@@ -6532,7 +6532,7 @@
         <v>16.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA45" t="n">
         <v>1000</v>
@@ -6541,7 +6541,7 @@
         <v>6.4</v>
       </c>
       <c r="AC45" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD45" t="n">
         <v>36</v>
@@ -6616,13 +6616,13 @@
         <v>3.85</v>
       </c>
       <c r="I46" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J46" t="n">
         <v>3.2</v>
       </c>
       <c r="K46" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L46" t="n">
         <v>1.51</v>
@@ -6772,10 +6772,10 @@
         <v>1.37</v>
       </c>
       <c r="P47" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="R47" t="n">
         <v>1.28</v>
@@ -6877,22 +6877,22 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="G48" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H48" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="I48" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="J48" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K48" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L48" t="n">
         <v>1.45</v>
@@ -6901,10 +6901,10 @@
         <v>1.08</v>
       </c>
       <c r="N48" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O48" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P48" t="n">
         <v>1.82</v>
@@ -6925,10 +6925,10 @@
         <v>1.91</v>
       </c>
       <c r="V48" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="W48" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="X48" t="n">
         <v>12.5</v>
@@ -6946,7 +6946,7 @@
         <v>16.5</v>
       </c>
       <c r="AC48" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD48" t="n">
         <v>10</v>
@@ -7018,10 +7018,10 @@
         <v>4</v>
       </c>
       <c r="H49" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="I49" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="J49" t="n">
         <v>2.96</v>
@@ -7036,7 +7036,7 @@
         <v>1.15</v>
       </c>
       <c r="N49" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="O49" t="n">
         <v>1.65</v>
@@ -7060,7 +7060,7 @@
         <v>1.67</v>
       </c>
       <c r="V49" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="W49" t="n">
         <v>1.33</v>
@@ -7069,7 +7069,7 @@
         <v>7.8</v>
       </c>
       <c r="Y49" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="Z49" t="n">
         <v>13.5</v>
@@ -7084,7 +7084,7 @@
         <v>7.2</v>
       </c>
       <c r="AD49" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE49" t="n">
         <v>42</v>
@@ -7099,10 +7099,10 @@
         <v>29</v>
       </c>
       <c r="AI49" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ49" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK49" t="n">
         <v>1000</v>
@@ -7117,7 +7117,7 @@
         <v>150</v>
       </c>
       <c r="AO49" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50">
@@ -7156,7 +7156,7 @@
         <v>4.7</v>
       </c>
       <c r="I50" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="J50" t="n">
         <v>3.25</v>
@@ -7195,7 +7195,7 @@
         <v>1.8</v>
       </c>
       <c r="V50" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W50" t="n">
         <v>1.97</v>
@@ -7282,16 +7282,16 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="G51" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="H51" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="I51" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="J51" t="n">
         <v>4.3</v>
@@ -7309,7 +7309,7 @@
         <v>4.4</v>
       </c>
       <c r="O51" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P51" t="n">
         <v>2.24</v>
@@ -7318,10 +7318,10 @@
         <v>1.77</v>
       </c>
       <c r="R51" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="S51" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="T51" t="n">
         <v>1.74</v>
@@ -7330,13 +7330,13 @@
         <v>2.28</v>
       </c>
       <c r="V51" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="W51" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="X51" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y51" t="n">
         <v>9.4</v>
@@ -7348,16 +7348,16 @@
         <v>19</v>
       </c>
       <c r="AB51" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC51" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD51" t="n">
         <v>9.4</v>
       </c>
       <c r="AE51" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF51" t="n">
         <v>40</v>
@@ -7387,7 +7387,7 @@
         <v>60</v>
       </c>
       <c r="AO51" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="52">
@@ -7420,13 +7420,13 @@
         <v>1.77</v>
       </c>
       <c r="G52" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="H52" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I52" t="n">
         <v>5.4</v>
-      </c>
-      <c r="I52" t="n">
-        <v>5.5</v>
       </c>
       <c r="J52" t="n">
         <v>4</v>
@@ -7441,16 +7441,16 @@
         <v>1.07</v>
       </c>
       <c r="N52" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="O52" t="n">
         <v>1.33</v>
       </c>
       <c r="P52" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="R52" t="n">
         <v>1.36</v>
@@ -7459,16 +7459,16 @@
         <v>3.6</v>
       </c>
       <c r="T52" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="U52" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="V52" t="n">
         <v>1.22</v>
       </c>
       <c r="W52" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="X52" t="n">
         <v>14</v>
@@ -7483,7 +7483,7 @@
         <v>140</v>
       </c>
       <c r="AB52" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC52" t="n">
         <v>8.6</v>
@@ -7552,10 +7552,10 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="G53" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="H53" t="n">
         <v>2.88</v>
@@ -7564,7 +7564,7 @@
         <v>3.05</v>
       </c>
       <c r="J53" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K53" t="n">
         <v>3.25</v>
@@ -7588,7 +7588,7 @@
         <v>2.62</v>
       </c>
       <c r="R53" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S53" t="n">
         <v>5.5</v>
@@ -7702,10 +7702,10 @@
         <v>3.1</v>
       </c>
       <c r="K54" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="L54" t="n">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="M54" t="n">
         <v>1.07</v>
@@ -7717,7 +7717,7 @@
         <v>1.36</v>
       </c>
       <c r="P54" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="Q54" t="n">
         <v>1.9</v>
@@ -7735,10 +7735,10 @@
         <v>2</v>
       </c>
       <c r="V54" t="n">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="W54" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X54" t="n">
         <v>970</v>
@@ -7822,13 +7822,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="G55" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H55" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I55" t="n">
         <v>4.2</v>
@@ -7852,7 +7852,7 @@
         <v>1.3</v>
       </c>
       <c r="P55" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q55" t="n">
         <v>1.84</v>
@@ -7873,7 +7873,7 @@
         <v>1.32</v>
       </c>
       <c r="W55" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="X55" t="n">
         <v>18</v>
@@ -7960,22 +7960,22 @@
         <v>2.3</v>
       </c>
       <c r="G56" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="H56" t="n">
         <v>3.3</v>
       </c>
       <c r="I56" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J56" t="n">
         <v>3.25</v>
       </c>
       <c r="K56" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L56" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="M56" t="n">
         <v>1.08</v>
@@ -7996,10 +7996,10 @@
         <v>1.25</v>
       </c>
       <c r="S56" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="T56" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U56" t="n">
         <v>1.92</v>
@@ -8035,7 +8035,7 @@
         <v>60</v>
       </c>
       <c r="AF56" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AG56" t="n">
         <v>14</v>
@@ -8044,7 +8044,7 @@
         <v>24</v>
       </c>
       <c r="AI56" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ56" t="n">
         <v>42</v>
@@ -8059,7 +8059,7 @@
         <v>160</v>
       </c>
       <c r="AN56" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO56" t="n">
         <v>70</v>
@@ -8110,7 +8110,7 @@
         <v>3.55</v>
       </c>
       <c r="L57" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="M57" t="n">
         <v>1.08</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-08.xlsx
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="G2" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="H2" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I2" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K2" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
@@ -694,7 +694,7 @@
         <v>3.35</v>
       </c>
       <c r="O2" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P2" t="n">
         <v>1.8</v>
@@ -718,7 +718,7 @@
         <v>1.19</v>
       </c>
       <c r="W2" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="X2" t="n">
         <v>13.5</v>
@@ -736,7 +736,7 @@
         <v>7.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD2" t="n">
         <v>23</v>
@@ -751,7 +751,7 @@
         <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI2" t="n">
         <v>120</v>
@@ -769,7 +769,7 @@
         <v>180</v>
       </c>
       <c r="AN2" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AO2" t="n">
         <v>160</v>
@@ -805,22 +805,22 @@
         <v>5.1</v>
       </c>
       <c r="G3" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="H3" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="I3" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="J3" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="K3" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.12</v>
+        <v>1.28</v>
       </c>
       <c r="M3" t="n">
         <v>1.02</v>
@@ -841,19 +841,19 @@
         <v>1.53</v>
       </c>
       <c r="S3" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="U3" t="n">
         <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>2.74</v>
+        <v>2.5</v>
       </c>
       <c r="W3" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -937,58 +937,58 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="G4" t="n">
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="I4" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="P4" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="Q4" t="n">
         <v>2.34</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S4" t="n">
         <v>4.7</v>
       </c>
       <c r="T4" t="n">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="U4" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="W4" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="X4" t="n">
         <v>970</v>
@@ -1024,7 +1024,7 @@
         <v>34</v>
       </c>
       <c r="AI4" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
@@ -1078,7 +1078,7 @@
         <v>1.35</v>
       </c>
       <c r="H5" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="I5" t="n">
         <v>16</v>
@@ -1108,16 +1108,16 @@
         <v>1.66</v>
       </c>
       <c r="R5" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="S5" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="T5" t="n">
         <v>2.12</v>
       </c>
       <c r="U5" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="V5" t="n">
         <v>1.06</v>
@@ -1153,7 +1153,7 @@
         <v>9.6</v>
       </c>
       <c r="AG5" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
         <v>38</v>
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="G6" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H6" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="I6" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="J6" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="K6" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L6" t="n">
         <v>1.44</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="O6" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P6" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S6" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="T6" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="V6" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W6" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="X6" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="Z6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AE6" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AF6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG6" t="n">
         <v>12</v>
       </c>
-      <c r="AG6" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH6" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AI6" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AJ6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK6" t="n">
         <v>24</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>26</v>
       </c>
       <c r="AL6" t="n">
         <v>55</v>
       </c>
       <c r="AM6" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AN6" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7">
@@ -1348,16 +1348,16 @@
         <v>2.7</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I7" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="J7" t="n">
-        <v>2.66</v>
+        <v>2.88</v>
       </c>
       <c r="K7" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L7" t="n">
         <v>1.45</v>
@@ -1366,16 +1366,16 @@
         <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="O7" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="P7" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="R7" t="n">
         <v>1.2</v>
@@ -1384,13 +1384,13 @@
         <v>4.3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U7" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="V7" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="W7" t="n">
         <v>1.58</v>
@@ -1408,13 +1408,13 @@
         <v>90</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC7" t="n">
         <v>8.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="n">
         <v>65</v>
@@ -1426,7 +1426,7 @@
         <v>15</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI7" t="n">
         <v>90</v>
@@ -1480,7 +1480,7 @@
         <v>2.76</v>
       </c>
       <c r="G8" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H8" t="n">
         <v>2.58</v>
@@ -1528,7 +1528,7 @@
         <v>1.49</v>
       </c>
       <c r="W8" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="X8" t="n">
         <v>970</v>
@@ -1624,7 +1624,7 @@
         <v>4.4</v>
       </c>
       <c r="J9" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="K9" t="n">
         <v>3.7</v>
@@ -1660,7 +1660,7 @@
         <v>1.84</v>
       </c>
       <c r="V9" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W9" t="n">
         <v>1.61</v>
@@ -1750,34 +1750,34 @@
         <v>2.08</v>
       </c>
       <c r="G10" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="H10" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J10" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="K10" t="n">
         <v>3.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="M10" t="n">
         <v>1.12</v>
       </c>
       <c r="N10" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="O10" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="P10" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="Q10" t="n">
         <v>2.58</v>
@@ -1789,10 +1789,10 @@
         <v>5.3</v>
       </c>
       <c r="T10" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U10" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="V10" t="n">
         <v>1.25</v>
@@ -1807,7 +1807,7 @@
         <v>12.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA10" t="n">
         <v>140</v>
@@ -1819,13 +1819,13 @@
         <v>7.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE10" t="n">
         <v>85</v>
       </c>
       <c r="AF10" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AG10" t="n">
         <v>12.5</v>
@@ -1840,10 +1840,10 @@
         <v>32</v>
       </c>
       <c r="AK10" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AL10" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM10" t="n">
         <v>250</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G11" t="n">
         <v>6.2</v>
@@ -1891,22 +1891,22 @@
         <v>1.73</v>
       </c>
       <c r="I11" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="J11" t="n">
         <v>3.4</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L11" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="O11" t="n">
         <v>1.26</v>
@@ -1915,10 +1915,10 @@
         <v>2.06</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R11" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S11" t="n">
         <v>2.64</v>
@@ -1957,13 +1957,13 @@
         <v>970</v>
       </c>
       <c r="AE11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>46</v>
+      </c>
+      <c r="AG11" t="n">
         <v>23</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>48</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>24</v>
       </c>
       <c r="AH11" t="n">
         <v>23</v>
@@ -1981,7 +1981,7 @@
         <v>75</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN11" t="n">
         <v>75</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="G12" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="H12" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I12" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K12" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="L12" t="n">
         <v>1.37</v>
@@ -2050,7 +2050,7 @@
         <v>1.74</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R12" t="n">
         <v>1.28</v>
@@ -2068,7 +2068,7 @@
         <v>1.19</v>
       </c>
       <c r="W12" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="X12" t="n">
         <v>970</v>
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G14" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H14" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I14" t="n">
         <v>4.2</v>
@@ -2302,10 +2302,10 @@
         <v>3.3</v>
       </c>
       <c r="K14" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
@@ -2317,13 +2317,13 @@
         <v>1.38</v>
       </c>
       <c r="P14" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R14" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S14" t="n">
         <v>3.95</v>
@@ -2332,13 +2332,13 @@
         <v>1.87</v>
       </c>
       <c r="U14" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
         <v>1.31</v>
       </c>
       <c r="W14" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X14" t="n">
         <v>14.5</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.04</v>
+        <v>4.3</v>
       </c>
       <c r="G15" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="H15" t="n">
-        <v>1.19</v>
+        <v>1.75</v>
       </c>
       <c r="I15" t="n">
-        <v>970</v>
+        <v>1.88</v>
       </c>
       <c r="J15" t="n">
-        <v>1.01</v>
+        <v>3.75</v>
       </c>
       <c r="K15" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2446,22 +2446,22 @@
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>1.02</v>
+        <v>1.82</v>
       </c>
       <c r="O15" t="n">
         <v>1.32</v>
       </c>
       <c r="P15" t="n">
-        <v>1.34</v>
+        <v>1.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.32</v>
+        <v>1.87</v>
       </c>
       <c r="R15" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="S15" t="n">
-        <v>1.32</v>
+        <v>1.89</v>
       </c>
       <c r="T15" t="n">
         <v>1.01</v>
@@ -2470,10 +2470,10 @@
         <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="W15" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="G16" t="n">
         <v>1.61</v>
@@ -2566,10 +2566,10 @@
         <v>7.2</v>
       </c>
       <c r="I16" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="J16" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
         <v>4.3</v>
@@ -2581,19 +2581,19 @@
         <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O16" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P16" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R16" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S16" t="n">
         <v>4</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G17" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I17" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="J17" t="n">
         <v>3.2</v>
@@ -2713,19 +2713,19 @@
         <v>1.35</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O17" t="n">
         <v>1.34</v>
       </c>
       <c r="P17" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R17" t="n">
         <v>1.34</v>
@@ -2734,16 +2734,16 @@
         <v>3.55</v>
       </c>
       <c r="T17" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U17" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V17" t="n">
         <v>1.37</v>
       </c>
       <c r="W17" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="X17" t="n">
         <v>14</v>
@@ -2761,7 +2761,7 @@
         <v>10.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD17" t="n">
         <v>16</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G18" t="n">
         <v>2.64</v>
@@ -2839,10 +2839,10 @@
         <v>3.45</v>
       </c>
       <c r="J18" t="n">
+        <v>3</v>
+      </c>
+      <c r="K18" t="n">
         <v>3.05</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.1</v>
       </c>
       <c r="L18" t="n">
         <v>1.57</v>
@@ -2851,7 +2851,7 @@
         <v>1.12</v>
       </c>
       <c r="N18" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="O18" t="n">
         <v>1.53</v>
@@ -2866,16 +2866,16 @@
         <v>1.21</v>
       </c>
       <c r="S18" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="T18" t="n">
         <v>2.08</v>
       </c>
       <c r="U18" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V18" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W18" t="n">
         <v>1.6</v>
@@ -2884,7 +2884,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z18" t="n">
         <v>21</v>
@@ -2911,10 +2911,10 @@
         <v>12.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI18" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ18" t="n">
         <v>38</v>
@@ -2962,64 +2962,64 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="G19" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="H19" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="I19" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="J19" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="K19" t="n">
         <v>3.05</v>
       </c>
       <c r="L19" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M19" t="n">
         <v>1.12</v>
       </c>
       <c r="N19" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="O19" t="n">
         <v>1.53</v>
       </c>
       <c r="P19" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q19" t="n">
         <v>2.58</v>
       </c>
       <c r="R19" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S19" t="n">
         <v>5.2</v>
       </c>
       <c r="T19" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U19" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V19" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="W19" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X19" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Z19" t="n">
         <v>970</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G21" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="H21" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="I21" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J21" t="n">
         <v>3.15</v>
@@ -3250,28 +3250,28 @@
         <v>3.3</v>
       </c>
       <c r="L21" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M21" t="n">
         <v>1.11</v>
       </c>
       <c r="N21" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="O21" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P21" t="n">
         <v>1.61</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R21" t="n">
         <v>1.22</v>
       </c>
       <c r="S21" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T21" t="n">
         <v>2.02</v>
@@ -3280,22 +3280,22 @@
         <v>1.86</v>
       </c>
       <c r="V21" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W21" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="X21" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y21" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z21" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AA21" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB21" t="n">
         <v>7.8</v>
@@ -3304,10 +3304,10 @@
         <v>7.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF21" t="n">
         <v>13</v>
@@ -3322,10 +3322,10 @@
         <v>85</v>
       </c>
       <c r="AJ21" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AK21" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL21" t="n">
         <v>60</v>
@@ -3334,7 +3334,7 @@
         <v>170</v>
       </c>
       <c r="AN21" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AO21" t="n">
         <v>80</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="G22" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="H22" t="n">
         <v>13.5</v>
       </c>
       <c r="I22" t="n">
-        <v>18.5</v>
+        <v>14</v>
       </c>
       <c r="J22" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="K22" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L22" t="n">
         <v>1.27</v>
@@ -3391,43 +3391,43 @@
         <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O22" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P22" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T22" t="n">
         <v>2.16</v>
       </c>
-      <c r="Q22" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.2</v>
-      </c>
       <c r="U22" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V22" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="W22" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="X22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y22" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="Z22" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AA22" t="n">
         <v>1000</v>
@@ -3436,25 +3436,25 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC22" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AD22" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AE22" t="n">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="AF22" t="n">
         <v>9</v>
       </c>
       <c r="AG22" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AI22" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="AJ22" t="n">
         <v>12</v>
@@ -3466,13 +3466,13 @@
         <v>55</v>
       </c>
       <c r="AM22" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AN22" t="n">
         <v>6.4</v>
       </c>
       <c r="AO22" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23">
@@ -3505,19 +3505,19 @@
         <v>2.26</v>
       </c>
       <c r="G23" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="H23" t="n">
         <v>3.35</v>
       </c>
       <c r="I23" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J23" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K23" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L23" t="n">
         <v>1.45</v>
@@ -3535,7 +3535,7 @@
         <v>1.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="R23" t="n">
         <v>1.28</v>
@@ -3553,7 +3553,7 @@
         <v>1.37</v>
       </c>
       <c r="W23" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="X23" t="n">
         <v>14.5</v>
@@ -3640,7 +3640,7 @@
         <v>2.26</v>
       </c>
       <c r="G24" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="H24" t="n">
         <v>3.55</v>
@@ -3649,13 +3649,13 @@
         <v>4</v>
       </c>
       <c r="J24" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L24" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="M24" t="n">
         <v>1.11</v>
@@ -3688,7 +3688,7 @@
         <v>1.33</v>
       </c>
       <c r="W24" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="X24" t="n">
         <v>11.5</v>
@@ -3775,7 +3775,7 @@
         <v>1.95</v>
       </c>
       <c r="G25" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H25" t="n">
         <v>4</v>
@@ -3784,7 +3784,7 @@
         <v>5.1</v>
       </c>
       <c r="J25" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="K25" t="n">
         <v>3.8</v>
@@ -3799,7 +3799,7 @@
         <v>3.05</v>
       </c>
       <c r="O25" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="P25" t="n">
         <v>1.7</v>
@@ -3823,7 +3823,7 @@
         <v>1.24</v>
       </c>
       <c r="W25" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X25" t="n">
         <v>14</v>
@@ -3913,16 +3913,16 @@
         <v>3</v>
       </c>
       <c r="H26" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J26" t="n">
         <v>3.05</v>
       </c>
       <c r="K26" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L26" t="n">
         <v>1.5</v>
@@ -3955,7 +3955,7 @@
         <v>1.92</v>
       </c>
       <c r="V26" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="W26" t="n">
         <v>1.5</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="G27" t="n">
         <v>2.1</v>
@@ -4054,10 +4054,10 @@
         <v>4.7</v>
       </c>
       <c r="J27" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K27" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L27" t="n">
         <v>1.47</v>
@@ -4075,7 +4075,7 @@
         <v>1.73</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="R27" t="n">
         <v>1.27</v>
@@ -4087,13 +4087,13 @@
         <v>1.94</v>
       </c>
       <c r="U27" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V27" t="n">
         <v>1.27</v>
       </c>
       <c r="W27" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="X27" t="n">
         <v>14</v>
@@ -4177,58 +4177,58 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="G28" t="n">
-        <v>2.04</v>
+        <v>2.34</v>
       </c>
       <c r="H28" t="n">
-        <v>4.5</v>
+        <v>3.85</v>
       </c>
       <c r="I28" t="n">
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
       <c r="J28" t="n">
-        <v>2.82</v>
+        <v>1.09</v>
       </c>
       <c r="K28" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L28" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="M28" t="n">
         <v>1.13</v>
       </c>
       <c r="N28" t="n">
-        <v>2.36</v>
+        <v>1.85</v>
       </c>
       <c r="O28" t="n">
-        <v>1.56</v>
+        <v>1.71</v>
       </c>
       <c r="P28" t="n">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.44</v>
+        <v>2.96</v>
       </c>
       <c r="R28" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="S28" t="n">
         <v>3.45</v>
       </c>
       <c r="T28" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="U28" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="V28" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W28" t="n">
-        <v>1.96</v>
+        <v>1.74</v>
       </c>
       <c r="X28" t="n">
         <v>970</v>
@@ -4237,7 +4237,7 @@
         <v>970</v>
       </c>
       <c r="Z28" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AA28" t="n">
         <v>1000</v>
@@ -4249,7 +4249,7 @@
         <v>970</v>
       </c>
       <c r="AD28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE28" t="n">
         <v>1000</v>
@@ -4267,19 +4267,19 @@
         <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AK28" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
         <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="G30" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="H30" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="I30" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J30" t="n">
         <v>5</v>
       </c>
       <c r="K30" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L30" t="n">
         <v>1.26</v>
@@ -4495,10 +4495,10 @@
         <v>2.3</v>
       </c>
       <c r="V30" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W30" t="n">
-        <v>2.86</v>
+        <v>2.74</v>
       </c>
       <c r="X30" t="n">
         <v>36</v>
@@ -4534,7 +4534,7 @@
         <v>20</v>
       </c>
       <c r="AI30" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ30" t="n">
         <v>16</v>
@@ -4750,7 +4750,7 @@
         <v>1.58</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="R32" t="n">
         <v>1.21</v>
@@ -4759,7 +4759,7 @@
         <v>5.3</v>
       </c>
       <c r="T32" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U32" t="n">
         <v>1.87</v>
@@ -4855,7 +4855,7 @@
         <v>2.3</v>
       </c>
       <c r="G33" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="H33" t="n">
         <v>3</v>
@@ -4885,25 +4885,25 @@
         <v>1.9</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R33" t="n">
         <v>1.35</v>
       </c>
       <c r="S33" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T33" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U33" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V33" t="n">
         <v>1.4</v>
       </c>
       <c r="W33" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="X33" t="n">
         <v>18</v>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="G34" t="n">
         <v>1.64</v>
@@ -4996,7 +4996,7 @@
         <v>7.4</v>
       </c>
       <c r="I34" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J34" t="n">
         <v>3.75</v>
@@ -5029,7 +5029,7 @@
         <v>4.4</v>
       </c>
       <c r="T34" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="U34" t="n">
         <v>1.66</v>
@@ -5257,19 +5257,19 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="G36" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="H36" t="n">
         <v>3.7</v>
       </c>
       <c r="I36" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="J36" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="K36" t="n">
         <v>4.1</v>
@@ -5281,10 +5281,10 @@
         <v>1.05</v>
       </c>
       <c r="N36" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O36" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P36" t="n">
         <v>1.96</v>
@@ -5305,10 +5305,10 @@
         <v>2.1</v>
       </c>
       <c r="V36" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W36" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="X36" t="n">
         <v>970</v>
@@ -5530,7 +5530,7 @@
         <v>1.45</v>
       </c>
       <c r="G38" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="H38" t="n">
         <v>5.9</v>
@@ -5560,7 +5560,7 @@
         <v>2.28</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R38" t="n">
         <v>1.5</v>
@@ -5572,13 +5572,13 @@
         <v>1.8</v>
       </c>
       <c r="U38" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V38" t="n">
         <v>1.11</v>
       </c>
       <c r="W38" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="X38" t="n">
         <v>27</v>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G39" t="n">
         <v>2.34</v>
@@ -5674,7 +5674,7 @@
         <v>4.1</v>
       </c>
       <c r="J39" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K39" t="n">
         <v>3.65</v>
@@ -5704,7 +5704,7 @@
         <v>4</v>
       </c>
       <c r="T39" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U39" t="n">
         <v>1.94</v>
@@ -5722,16 +5722,16 @@
         <v>15</v>
       </c>
       <c r="Z39" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AA39" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AB39" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC39" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD39" t="n">
         <v>19.5</v>
@@ -5743,13 +5743,13 @@
         <v>16</v>
       </c>
       <c r="AG39" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH39" t="n">
         <v>24</v>
       </c>
       <c r="AI39" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ39" t="n">
         <v>36</v>
@@ -5797,13 +5797,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="G40" t="n">
         <v>3.45</v>
       </c>
       <c r="H40" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="I40" t="n">
         <v>3.25</v>
@@ -5812,10 +5812,10 @@
         <v>2.9</v>
       </c>
       <c r="K40" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L40" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="M40" t="n">
         <v>1.07</v>
@@ -5830,7 +5830,7 @@
         <v>1.83</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="R40" t="n">
         <v>1.28</v>
@@ -5845,10 +5845,10 @@
         <v>2</v>
       </c>
       <c r="V40" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W40" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X40" t="n">
         <v>970</v>
@@ -5872,7 +5872,7 @@
         <v>970</v>
       </c>
       <c r="AE40" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF40" t="n">
         <v>24</v>
@@ -5899,7 +5899,7 @@
         <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AO40" t="n">
         <v>38</v>
@@ -5932,19 +5932,19 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="G41" t="n">
         <v>2.64</v>
       </c>
       <c r="H41" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I41" t="n">
         <v>3.5</v>
       </c>
       <c r="J41" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K41" t="n">
         <v>3.25</v>
@@ -6076,13 +6076,13 @@
         <v>2.52</v>
       </c>
       <c r="I42" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="J42" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="K42" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L42" t="n">
         <v>1.42</v>
@@ -6115,7 +6115,7 @@
         <v>2.06</v>
       </c>
       <c r="V42" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="W42" t="n">
         <v>1.46</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="G43" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="H43" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="I43" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="J43" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="K43" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L43" t="n">
         <v>1.2</v>
@@ -6241,19 +6241,19 @@
         <v>1.76</v>
       </c>
       <c r="S43" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="T43" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="U43" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="V43" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="W43" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
@@ -6271,7 +6271,7 @@
         <v>1000</v>
       </c>
       <c r="AC43" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD43" t="n">
         <v>14.5</v>
@@ -6283,10 +6283,10 @@
         <v>1000</v>
       </c>
       <c r="AG43" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AH43" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI43" t="n">
         <v>1000</v>
@@ -6304,10 +6304,10 @@
         <v>1000</v>
       </c>
       <c r="AN43" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO43" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="44">
@@ -6337,7 +6337,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="G44" t="n">
         <v>1.6</v>
@@ -6346,16 +6346,16 @@
         <v>4.8</v>
       </c>
       <c r="I44" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="J44" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="K44" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L44" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="M44" t="n">
         <v>1.01</v>
@@ -6364,7 +6364,7 @@
         <v>1.01</v>
       </c>
       <c r="O44" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P44" t="n">
         <v>2.8</v>
@@ -6376,34 +6376,34 @@
         <v>1.8</v>
       </c>
       <c r="S44" t="n">
-        <v>1.84</v>
+        <v>1.96</v>
       </c>
       <c r="T44" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="U44" t="n">
         <v>2.46</v>
       </c>
       <c r="V44" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="W44" t="n">
         <v>2.66</v>
       </c>
       <c r="X44" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Y44" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Z44" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AA44" t="n">
         <v>170</v>
       </c>
       <c r="AB44" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC44" t="n">
         <v>16.5</v>
@@ -6415,7 +6415,7 @@
         <v>75</v>
       </c>
       <c r="AF44" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG44" t="n">
         <v>13.5</v>
@@ -6472,49 +6472,49 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="G45" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="H45" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="I45" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="J45" t="n">
         <v>2.96</v>
       </c>
       <c r="K45" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L45" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="M45" t="n">
         <v>1.15</v>
       </c>
       <c r="N45" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="O45" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="P45" t="n">
         <v>1.4</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="R45" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="S45" t="n">
-        <v>1.02</v>
+        <v>3.45</v>
       </c>
       <c r="T45" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="U45" t="n">
         <v>1.53</v>
@@ -6523,13 +6523,13 @@
         <v>1.15</v>
       </c>
       <c r="W45" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="X45" t="n">
         <v>8.6</v>
       </c>
       <c r="Y45" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Z45" t="n">
         <v>60</v>
@@ -6544,7 +6544,7 @@
         <v>9.6</v>
       </c>
       <c r="AD45" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AE45" t="n">
         <v>1000</v>
@@ -6562,7 +6562,7 @@
         <v>1000</v>
       </c>
       <c r="AJ45" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK45" t="n">
         <v>38</v>
@@ -6574,7 +6574,7 @@
         <v>1000</v>
       </c>
       <c r="AN45" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO45" t="n">
         <v>1000</v>
@@ -6613,7 +6613,7 @@
         <v>2.26</v>
       </c>
       <c r="H46" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="I46" t="n">
         <v>4.3</v>
@@ -6622,7 +6622,7 @@
         <v>3.2</v>
       </c>
       <c r="K46" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L46" t="n">
         <v>1.51</v>
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="G47" t="n">
         <v>1.72</v>
@@ -6757,7 +6757,7 @@
         <v>4.1</v>
       </c>
       <c r="K47" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L47" t="n">
         <v>1.37</v>
@@ -6775,7 +6775,7 @@
         <v>1.77</v>
       </c>
       <c r="Q47" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="R47" t="n">
         <v>1.28</v>
@@ -6790,13 +6790,13 @@
         <v>1.79</v>
       </c>
       <c r="V47" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W47" t="n">
         <v>2.4</v>
       </c>
       <c r="X47" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Y47" t="n">
         <v>970</v>
@@ -6877,16 +6877,16 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="G48" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="H48" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="I48" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="J48" t="n">
         <v>3.7</v>
@@ -6910,7 +6910,7 @@
         <v>1.82</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="R48" t="n">
         <v>1.31</v>
@@ -6922,19 +6922,19 @@
         <v>2.02</v>
       </c>
       <c r="U48" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="V48" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="W48" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="X48" t="n">
         <v>12.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="Z48" t="n">
         <v>9.6</v>
@@ -6976,7 +6976,7 @@
         <v>90</v>
       </c>
       <c r="AM48" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN48" t="n">
         <v>120</v>
@@ -7015,19 +7015,19 @@
         <v>3.75</v>
       </c>
       <c r="G49" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H49" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="I49" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="J49" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="K49" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L49" t="n">
         <v>1.65</v>
@@ -7036,7 +7036,7 @@
         <v>1.15</v>
       </c>
       <c r="N49" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="O49" t="n">
         <v>1.65</v>
@@ -7060,13 +7060,13 @@
         <v>1.67</v>
       </c>
       <c r="V49" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="W49" t="n">
         <v>1.33</v>
       </c>
       <c r="X49" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Y49" t="n">
         <v>6.8</v>
@@ -7075,13 +7075,13 @@
         <v>13.5</v>
       </c>
       <c r="AA49" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AB49" t="n">
         <v>9.6</v>
       </c>
       <c r="AC49" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD49" t="n">
         <v>13.5</v>
@@ -7090,10 +7090,10 @@
         <v>42</v>
       </c>
       <c r="AF49" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AG49" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AH49" t="n">
         <v>29</v>
@@ -7117,7 +7117,7 @@
         <v>150</v>
       </c>
       <c r="AO49" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50">
@@ -7147,22 +7147,22 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="G50" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="H50" t="n">
         <v>4.7</v>
       </c>
       <c r="I50" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J50" t="n">
         <v>3.25</v>
       </c>
       <c r="K50" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L50" t="n">
         <v>1.41</v>
@@ -7177,10 +7177,10 @@
         <v>1.42</v>
       </c>
       <c r="P50" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R50" t="n">
         <v>1.23</v>
@@ -7189,16 +7189,16 @@
         <v>3.6</v>
       </c>
       <c r="T50" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U50" t="n">
         <v>1.8</v>
       </c>
       <c r="V50" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="W50" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="X50" t="n">
         <v>13.5</v>
@@ -7210,10 +7210,10 @@
         <v>48</v>
       </c>
       <c r="AA50" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AB50" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC50" t="n">
         <v>9.6</v>
@@ -7240,13 +7240,13 @@
         <v>27</v>
       </c>
       <c r="AK50" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL50" t="n">
         <v>60</v>
       </c>
       <c r="AM50" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AN50" t="n">
         <v>22</v>
@@ -7288,10 +7288,10 @@
         <v>5.2</v>
       </c>
       <c r="H51" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="I51" t="n">
         <v>1.74</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1.75</v>
       </c>
       <c r="J51" t="n">
         <v>4.3</v>
@@ -7306,7 +7306,7 @@
         <v>1.05</v>
       </c>
       <c r="N51" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O51" t="n">
         <v>1.26</v>
@@ -7318,25 +7318,25 @@
         <v>1.77</v>
       </c>
       <c r="R51" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="S51" t="n">
         <v>2.96</v>
       </c>
       <c r="T51" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U51" t="n">
         <v>2.28</v>
       </c>
       <c r="V51" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="W51" t="n">
         <v>1.23</v>
       </c>
       <c r="X51" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y51" t="n">
         <v>9.4</v>
@@ -7351,13 +7351,13 @@
         <v>21</v>
       </c>
       <c r="AC51" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD51" t="n">
         <v>9.4</v>
       </c>
       <c r="AE51" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF51" t="n">
         <v>40</v>
@@ -7423,10 +7423,10 @@
         <v>1.79</v>
       </c>
       <c r="H52" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I52" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J52" t="n">
         <v>4</v>
@@ -7441,13 +7441,13 @@
         <v>1.07</v>
       </c>
       <c r="N52" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O52" t="n">
         <v>1.33</v>
       </c>
       <c r="P52" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="Q52" t="n">
         <v>1.98</v>
@@ -7456,16 +7456,16 @@
         <v>1.36</v>
       </c>
       <c r="S52" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T52" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U52" t="n">
         <v>2.02</v>
       </c>
       <c r="V52" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W52" t="n">
         <v>2.26</v>
@@ -7489,13 +7489,13 @@
         <v>8.6</v>
       </c>
       <c r="AD52" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE52" t="n">
         <v>80</v>
       </c>
       <c r="AF52" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG52" t="n">
         <v>9.6</v>
@@ -7690,16 +7690,16 @@
         <v>2.96</v>
       </c>
       <c r="G54" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="H54" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I54" t="n">
-        <v>2.96</v>
+        <v>2.8</v>
       </c>
       <c r="J54" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K54" t="n">
         <v>3.95</v>
@@ -7711,34 +7711,34 @@
         <v>1.07</v>
       </c>
       <c r="N54" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="O54" t="n">
         <v>1.36</v>
       </c>
       <c r="P54" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="R54" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="S54" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="T54" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U54" t="n">
         <v>2</v>
       </c>
       <c r="V54" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="W54" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="X54" t="n">
         <v>970</v>
@@ -7822,76 +7822,76 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="G55" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="H55" t="n">
         <v>3.6</v>
       </c>
       <c r="I55" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J55" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K55" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="L55" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="M55" t="n">
         <v>1.06</v>
       </c>
       <c r="N55" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="O55" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P55" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="R55" t="n">
         <v>1.33</v>
       </c>
       <c r="S55" t="n">
-        <v>2.98</v>
+        <v>3.4</v>
       </c>
       <c r="T55" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="U55" t="n">
         <v>2.02</v>
       </c>
       <c r="V55" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W55" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="X55" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Y55" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z55" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA55" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB55" t="n">
         <v>11.5</v>
       </c>
       <c r="AC55" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD55" t="n">
         <v>19.5</v>
@@ -7912,7 +7912,7 @@
         <v>70</v>
       </c>
       <c r="AJ55" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AK55" t="n">
         <v>27</v>
@@ -7924,10 +7924,10 @@
         <v>120</v>
       </c>
       <c r="AN55" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO55" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56">
@@ -7981,7 +7981,7 @@
         <v>1.08</v>
       </c>
       <c r="N56" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="O56" t="n">
         <v>1.41</v>
@@ -7990,16 +7990,16 @@
         <v>1.67</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R56" t="n">
         <v>1.25</v>
       </c>
       <c r="S56" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T56" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U56" t="n">
         <v>1.92</v>
@@ -8035,7 +8035,7 @@
         <v>60</v>
       </c>
       <c r="AF56" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG56" t="n">
         <v>14</v>
@@ -8044,7 +8044,7 @@
         <v>24</v>
       </c>
       <c r="AI56" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ56" t="n">
         <v>42</v>
@@ -8092,16 +8092,16 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G57" t="n">
         <v>2.74</v>
       </c>
       <c r="H57" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I57" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="J57" t="n">
         <v>3</v>
@@ -8110,13 +8110,13 @@
         <v>3.55</v>
       </c>
       <c r="L57" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M57" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N57" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="O57" t="n">
         <v>1.41</v>
@@ -8131,19 +8131,19 @@
         <v>1.24</v>
       </c>
       <c r="S57" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T57" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U57" t="n">
         <v>1.91</v>
       </c>
       <c r="V57" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="W57" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X57" t="n">
         <v>13</v>
@@ -8188,7 +8188,7 @@
         <v>40</v>
       </c>
       <c r="AL57" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM57" t="n">
         <v>160</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-08.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="G2" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="H2" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="I2" t="n">
         <v>6.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K2" t="n">
         <v>3.9</v>
@@ -715,10 +715,10 @@
         <v>1.87</v>
       </c>
       <c r="V2" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W2" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="X2" t="n">
         <v>13.5</v>
@@ -727,7 +727,7 @@
         <v>970</v>
       </c>
       <c r="Z2" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AA2" t="n">
         <v>200</v>
@@ -802,46 +802,46 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="G3" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="H3" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="I3" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="J3" t="n">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="K3" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="L3" t="n">
         <v>1.29</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O3" t="n">
         <v>1.19</v>
       </c>
       <c r="P3" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R3" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="S3" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T3" t="n">
         <v>1.81</v>
@@ -850,25 +850,25 @@
         <v>2.12</v>
       </c>
       <c r="V3" t="n">
-        <v>2.8</v>
+        <v>2.96</v>
       </c>
       <c r="W3" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="X3" t="n">
         <v>32</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z3" t="n">
         <v>13</v>
       </c>
       <c r="AA3" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AB3" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AC3" t="n">
         <v>14.5</v>
@@ -877,7 +877,7 @@
         <v>12.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
@@ -889,7 +889,7 @@
         <v>25</v>
       </c>
       <c r="AI3" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="H4" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="J4" t="n">
         <v>3.55</v>
       </c>
       <c r="K4" t="n">
-        <v>950</v>
+        <v>44</v>
       </c>
       <c r="L4" t="n">
         <v>1.3</v>
@@ -985,10 +985,10 @@
         <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1078,7 +1078,7 @@
         <v>5.8</v>
       </c>
       <c r="H5" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="I5" t="n">
         <v>2.06</v>
@@ -1087,7 +1087,7 @@
         <v>3.15</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L5" t="n">
         <v>1.45</v>
@@ -1114,10 +1114,10 @@
         <v>4.7</v>
       </c>
       <c r="T5" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="U5" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V5" t="n">
         <v>1.95</v>
@@ -1129,7 +1129,7 @@
         <v>970</v>
       </c>
       <c r="Y5" t="n">
-        <v>970</v>
+        <v>7.2</v>
       </c>
       <c r="Z5" t="n">
         <v>970</v>
@@ -1141,7 +1141,7 @@
         <v>970</v>
       </c>
       <c r="AC5" t="n">
-        <v>970</v>
+        <v>9.4</v>
       </c>
       <c r="AD5" t="n">
         <v>970</v>
@@ -1150,13 +1150,13 @@
         <v>32</v>
       </c>
       <c r="AF5" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AH5" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI5" t="n">
         <v>70</v>
@@ -1207,67 +1207,67 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="H6" t="n">
         <v>13</v>
       </c>
       <c r="I6" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="J6" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="K6" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P6" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="R6" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S6" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="T6" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U6" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="V6" t="n">
         <v>1.06</v>
       </c>
       <c r="W6" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="X6" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Y6" t="n">
         <v>46</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
@@ -1300,7 +1300,7 @@
         <v>11.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AL6" t="n">
         <v>48</v>
@@ -1312,7 +1312,7 @@
         <v>5.8</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="G7" t="n">
         <v>1.7</v>
@@ -1351,10 +1351,10 @@
         <v>6.4</v>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="J7" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
         <v>4.2</v>
@@ -1381,16 +1381,16 @@
         <v>1.28</v>
       </c>
       <c r="S7" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="T7" t="n">
         <v>2.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="V7" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="W7" t="n">
         <v>2.42</v>
@@ -1411,7 +1411,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD7" t="n">
         <v>32</v>
@@ -1423,7 +1423,7 @@
         <v>11</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH7" t="n">
         <v>30</v>
@@ -1435,7 +1435,7 @@
         <v>20</v>
       </c>
       <c r="AK7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL7" t="n">
         <v>55</v>
@@ -1444,7 +1444,7 @@
         <v>210</v>
       </c>
       <c r="AN7" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AO7" t="n">
         <v>210</v>
@@ -1486,10 +1486,10 @@
         <v>3.45</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J8" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="K8" t="n">
         <v>3.7</v>
@@ -1621,7 +1621,7 @@
         <v>3.25</v>
       </c>
       <c r="I9" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J9" t="n">
         <v>2.88</v>
@@ -1669,7 +1669,7 @@
         <v>11.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
         <v>28</v>
@@ -1696,19 +1696,19 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI9" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AJ9" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AK9" t="n">
         <v>42</v>
       </c>
       <c r="AL9" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM9" t="n">
         <v>200</v>
@@ -1717,7 +1717,7 @@
         <v>44</v>
       </c>
       <c r="AO9" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
@@ -1747,28 +1747,28 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="G10" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H10" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="I10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J10" t="n">
         <v>3.05</v>
       </c>
-      <c r="J10" t="n">
-        <v>3</v>
-      </c>
       <c r="K10" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L10" t="n">
         <v>1.39</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
         <v>3.05</v>
@@ -1780,7 +1780,7 @@
         <v>1.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="R10" t="n">
         <v>1.26</v>
@@ -1795,10 +1795,10 @@
         <v>1.96</v>
       </c>
       <c r="V10" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="W10" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="X10" t="n">
         <v>970</v>
@@ -1807,7 +1807,7 @@
         <v>12</v>
       </c>
       <c r="Z10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA10" t="n">
         <v>55</v>
@@ -1816,13 +1816,13 @@
         <v>970</v>
       </c>
       <c r="AC10" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD10" t="n">
         <v>970</v>
       </c>
       <c r="AE10" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF10" t="n">
         <v>24</v>
@@ -1834,13 +1834,13 @@
         <v>23</v>
       </c>
       <c r="AI10" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ10" t="n">
         <v>65</v>
       </c>
       <c r="AK10" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AL10" t="n">
         <v>65</v>
@@ -1852,7 +1852,7 @@
         <v>48</v>
       </c>
       <c r="AO10" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -1933,13 +1933,13 @@
         <v>1.25</v>
       </c>
       <c r="W11" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="X11" t="n">
         <v>10</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z11" t="n">
         <v>32</v>
@@ -1975,16 +1975,16 @@
         <v>32</v>
       </c>
       <c r="AK11" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL11" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM11" t="n">
         <v>250</v>
       </c>
       <c r="AN11" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AO11" t="n">
         <v>150</v>
@@ -2017,64 +2017,64 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="G12" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="H12" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="I12" t="n">
         <v>1.9</v>
       </c>
       <c r="J12" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="K12" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="O12" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="P12" t="n">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="R12" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="S12" t="n">
-        <v>2.62</v>
+        <v>2.84</v>
       </c>
       <c r="T12" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="U12" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="V12" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="W12" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="X12" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="Y12" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="Z12" t="n">
         <v>970</v>
@@ -2083,16 +2083,16 @@
         <v>24</v>
       </c>
       <c r="AB12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE12" t="n">
         <v>23</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>22</v>
       </c>
       <c r="AF12" t="n">
         <v>48</v>
@@ -2101,25 +2101,25 @@
         <v>24</v>
       </c>
       <c r="AH12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI12" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AJ12" t="n">
         <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AL12" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM12" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AN12" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AO12" t="n">
         <v>970</v>
@@ -2161,7 +2161,7 @@
         <v>4.6</v>
       </c>
       <c r="I13" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J13" t="n">
         <v>3.4</v>
@@ -2200,7 +2200,7 @@
         <v>1.84</v>
       </c>
       <c r="V13" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W13" t="n">
         <v>2.08</v>
@@ -2209,7 +2209,7 @@
         <v>970</v>
       </c>
       <c r="Y13" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="Z13" t="n">
         <v>55</v>
@@ -2305,7 +2305,7 @@
         <v>3.2</v>
       </c>
       <c r="L14" t="n">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="M14" t="n">
         <v>1.12</v>
@@ -2320,7 +2320,7 @@
         <v>1.47</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="R14" t="n">
         <v>1.18</v>
@@ -2347,7 +2347,7 @@
         <v>11</v>
       </c>
       <c r="Z14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA14" t="n">
         <v>95</v>
@@ -2434,7 +2434,7 @@
         <v>4.2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K15" t="n">
         <v>3.4</v>
@@ -2476,7 +2476,7 @@
         <v>1.8</v>
       </c>
       <c r="X15" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y15" t="n">
         <v>13.5</v>
@@ -2491,13 +2491,13 @@
         <v>9</v>
       </c>
       <c r="AC15" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD15" t="n">
         <v>17</v>
       </c>
       <c r="AE15" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF15" t="n">
         <v>14</v>
@@ -2527,7 +2527,7 @@
         <v>22</v>
       </c>
       <c r="AO15" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16">
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="G16" t="n">
         <v>5.8</v>
       </c>
       <c r="H16" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="I16" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="J16" t="n">
         <v>3.8</v>
       </c>
       <c r="K16" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2584,7 +2584,7 @@
         <v>1.82</v>
       </c>
       <c r="O16" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="P16" t="n">
         <v>1.8</v>
@@ -2605,7 +2605,7 @@
         <v>1.01</v>
       </c>
       <c r="V16" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="W16" t="n">
         <v>1.22</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="G17" t="n">
         <v>1.62</v>
@@ -2710,7 +2710,7 @@
         <v>4.3</v>
       </c>
       <c r="L17" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="M17" t="n">
         <v>1.08</v>
@@ -2752,7 +2752,7 @@
         <v>21</v>
       </c>
       <c r="Z17" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AA17" t="n">
         <v>330</v>
@@ -2764,7 +2764,7 @@
         <v>9.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE17" t="n">
         <v>170</v>
@@ -2776,7 +2776,7 @@
         <v>11</v>
       </c>
       <c r="AH17" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AI17" t="n">
         <v>160</v>
@@ -2788,7 +2788,7 @@
         <v>21</v>
       </c>
       <c r="AL17" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM17" t="n">
         <v>240</v>
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="G18" t="n">
         <v>2.42</v>
       </c>
       <c r="H18" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I18" t="n">
         <v>3.65</v>
@@ -2842,7 +2842,7 @@
         <v>3.25</v>
       </c>
       <c r="K18" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="L18" t="n">
         <v>1.4</v>
@@ -2869,7 +2869,7 @@
         <v>3.55</v>
       </c>
       <c r="T18" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U18" t="n">
         <v>2.14</v>
@@ -2914,7 +2914,7 @@
         <v>20</v>
       </c>
       <c r="AI18" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ18" t="n">
         <v>34</v>
@@ -2974,10 +2974,10 @@
         <v>3.45</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K19" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L19" t="n">
         <v>1.57</v>
@@ -2986,10 +2986,10 @@
         <v>1.12</v>
       </c>
       <c r="N19" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="O19" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="P19" t="n">
         <v>1.62</v>
@@ -2998,10 +2998,10 @@
         <v>2.54</v>
       </c>
       <c r="R19" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S19" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="T19" t="n">
         <v>2.06</v>
@@ -3019,7 +3019,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="Y19" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z19" t="n">
         <v>21</v>
@@ -3064,7 +3064,7 @@
         <v>160</v>
       </c>
       <c r="AN19" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO19" t="n">
         <v>60</v>
@@ -3100,22 +3100,22 @@
         <v>3.5</v>
       </c>
       <c r="G20" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H20" t="n">
         <v>2.46</v>
       </c>
       <c r="I20" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="J20" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="K20" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="L20" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="M20" t="n">
         <v>1.13</v>
@@ -3130,7 +3130,7 @@
         <v>1.57</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="R20" t="n">
         <v>1.21</v>
@@ -3145,7 +3145,7 @@
         <v>1.83</v>
       </c>
       <c r="V20" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W20" t="n">
         <v>1.36</v>
@@ -3160,10 +3160,10 @@
         <v>970</v>
       </c>
       <c r="AA20" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB20" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AC20" t="n">
         <v>7.2</v>
@@ -3172,19 +3172,19 @@
         <v>13</v>
       </c>
       <c r="AE20" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AF20" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AG20" t="n">
         <v>970</v>
       </c>
       <c r="AH20" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AI20" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ20" t="n">
         <v>90</v>
@@ -3202,7 +3202,7 @@
         <v>85</v>
       </c>
       <c r="AO20" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
@@ -3232,67 +3232,67 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="G21" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="H21" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="I21" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="J21" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="K21" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L21" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M21" t="n">
         <v>1.09</v>
       </c>
       <c r="N21" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="O21" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P21" t="n">
         <v>1.62</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="R21" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S21" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="T21" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U21" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V21" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W21" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="X21" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y21" t="n">
         <v>16.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA21" t="n">
         <v>1000</v>
@@ -3316,7 +3316,7 @@
         <v>13</v>
       </c>
       <c r="AH21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI21" t="n">
         <v>1000</v>
@@ -3367,13 +3367,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G22" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="H22" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I22" t="n">
         <v>3.9</v>
@@ -3400,7 +3400,7 @@
         <v>1.61</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="R22" t="n">
         <v>1.22</v>
@@ -3418,10 +3418,10 @@
         <v>1.34</v>
       </c>
       <c r="W22" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="X22" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -3430,13 +3430,13 @@
         <v>25</v>
       </c>
       <c r="AA22" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AB22" t="n">
         <v>7.8</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD22" t="n">
         <v>16.5</v>
@@ -3466,10 +3466,10 @@
         <v>60</v>
       </c>
       <c r="AM22" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN22" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AO22" t="n">
         <v>75</v>
@@ -3520,7 +3520,7 @@
         <v>6.2</v>
       </c>
       <c r="L23" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="M23" t="n">
         <v>1.04</v>
@@ -3532,7 +3532,7 @@
         <v>1.25</v>
       </c>
       <c r="P23" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q23" t="n">
         <v>1.71</v>
@@ -3544,10 +3544,10 @@
         <v>2.8</v>
       </c>
       <c r="T23" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U23" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="V23" t="n">
         <v>1.07</v>
@@ -3637,31 +3637,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="G24" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="H24" t="n">
         <v>3.35</v>
       </c>
       <c r="I24" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="J24" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K24" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="M24" t="n">
         <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O24" t="n">
         <v>1.38</v>
@@ -3670,7 +3670,7 @@
         <v>1.75</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R24" t="n">
         <v>1.28</v>
@@ -3685,10 +3685,10 @@
         <v>2</v>
       </c>
       <c r="V24" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="W24" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="X24" t="n">
         <v>14.5</v>
@@ -3697,10 +3697,10 @@
         <v>14.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA24" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AB24" t="n">
         <v>11</v>
@@ -3712,7 +3712,7 @@
         <v>18</v>
       </c>
       <c r="AE24" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF24" t="n">
         <v>17.5</v>
@@ -3742,7 +3742,7 @@
         <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G25" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="H25" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J25" t="n">
         <v>3</v>
@@ -3790,7 +3790,7 @@
         <v>3.4</v>
       </c>
       <c r="L25" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="M25" t="n">
         <v>1.11</v>
@@ -3805,7 +3805,7 @@
         <v>1.59</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="R25" t="n">
         <v>1.21</v>
@@ -3823,7 +3823,7 @@
         <v>1.33</v>
       </c>
       <c r="W25" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="X25" t="n">
         <v>11.5</v>
@@ -3850,7 +3850,7 @@
         <v>70</v>
       </c>
       <c r="AF25" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AG25" t="n">
         <v>14.5</v>
@@ -3862,10 +3862,10 @@
         <v>95</v>
       </c>
       <c r="AJ25" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK25" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL25" t="n">
         <v>70</v>
@@ -3874,7 +3874,7 @@
         <v>200</v>
       </c>
       <c r="AN25" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO25" t="n">
         <v>95</v>
@@ -3931,16 +3931,16 @@
         <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O26" t="n">
         <v>1.39</v>
       </c>
       <c r="P26" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R26" t="n">
         <v>1.26</v>
@@ -4048,13 +4048,13 @@
         <v>3.05</v>
       </c>
       <c r="H27" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="I27" t="n">
         <v>3.05</v>
       </c>
       <c r="J27" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K27" t="n">
         <v>3.35</v>
@@ -4075,19 +4075,19 @@
         <v>1.65</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R27" t="n">
         <v>1.24</v>
       </c>
       <c r="S27" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T27" t="n">
         <v>1.92</v>
       </c>
       <c r="U27" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V27" t="n">
         <v>1.48</v>
@@ -4195,7 +4195,7 @@
         <v>3.8</v>
       </c>
       <c r="L28" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M28" t="n">
         <v>1.07</v>
@@ -4225,7 +4225,7 @@
         <v>2.06</v>
       </c>
       <c r="V28" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W28" t="n">
         <v>1.45</v>
@@ -4312,25 +4312,25 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G29" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H29" t="n">
         <v>4.1</v>
       </c>
       <c r="I29" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J29" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K29" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L29" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="M29" t="n">
         <v>1.09</v>
@@ -4345,25 +4345,25 @@
         <v>1.75</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.4</v>
+        <v>2.16</v>
       </c>
       <c r="R29" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="S29" t="n">
         <v>4</v>
       </c>
       <c r="T29" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="U29" t="n">
         <v>1.95</v>
       </c>
       <c r="V29" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W29" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="X29" t="n">
         <v>12</v>
@@ -4402,10 +4402,10 @@
         <v>70</v>
       </c>
       <c r="AJ29" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AK29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL29" t="n">
         <v>50</v>
@@ -4414,7 +4414,7 @@
         <v>160</v>
       </c>
       <c r="AN29" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AO29" t="n">
         <v>75</v>
@@ -4447,100 +4447,100 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="G30" t="n">
-        <v>2.32</v>
+        <v>2.52</v>
       </c>
       <c r="H30" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="I30" t="n">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="J30" t="n">
-        <v>2.62</v>
+        <v>2.48</v>
       </c>
       <c r="K30" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L30" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="M30" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>2.22</v>
+        <v>2.06</v>
       </c>
       <c r="O30" t="n">
-        <v>1.61</v>
+        <v>1.01</v>
       </c>
       <c r="P30" t="n">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.86</v>
+        <v>2.68</v>
       </c>
       <c r="R30" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="S30" t="n">
-        <v>5.7</v>
+        <v>2.68</v>
       </c>
       <c r="T30" t="n">
-        <v>2.26</v>
+        <v>1.01</v>
       </c>
       <c r="U30" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="V30" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="W30" t="n">
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="X30" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z30" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD30" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AE30" t="n">
         <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH30" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AI30" t="n">
         <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AL30" t="n">
         <v>1000</v>
@@ -4549,7 +4549,7 @@
         <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="G31" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="H31" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="I31" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="J31" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K31" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L31" t="n">
         <v>1.4</v>
@@ -4612,10 +4612,10 @@
         <v>1.32</v>
       </c>
       <c r="P31" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="R31" t="n">
         <v>1.36</v>
@@ -4633,7 +4633,7 @@
         <v>1.21</v>
       </c>
       <c r="W31" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="X31" t="n">
         <v>18</v>
@@ -4642,7 +4642,7 @@
         <v>970</v>
       </c>
       <c r="Z31" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AA31" t="n">
         <v>180</v>
@@ -4654,10 +4654,10 @@
         <v>9</v>
       </c>
       <c r="AD31" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AE31" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF31" t="n">
         <v>10.5</v>
@@ -4666,7 +4666,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH31" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AI31" t="n">
         <v>80</v>
@@ -4678,7 +4678,7 @@
         <v>23</v>
       </c>
       <c r="AL31" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="AM31" t="n">
         <v>150</v>
@@ -4723,10 +4723,10 @@
         <v>1.56</v>
       </c>
       <c r="H32" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I32" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J32" t="n">
         <v>5</v>
@@ -4741,7 +4741,7 @@
         <v>1.03</v>
       </c>
       <c r="N32" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O32" t="n">
         <v>1.16</v>
@@ -4756,13 +4756,13 @@
         <v>1.68</v>
       </c>
       <c r="S32" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="T32" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="U32" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V32" t="n">
         <v>1.18</v>
@@ -4813,7 +4813,7 @@
         <v>18</v>
       </c>
       <c r="AL32" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AM32" t="n">
         <v>80</v>
@@ -4852,100 +4852,100 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.04</v>
+        <v>1.8</v>
       </c>
       <c r="G33" t="n">
-        <v>1000</v>
+        <v>1.99</v>
       </c>
       <c r="H33" t="n">
-        <v>1.04</v>
+        <v>4.9</v>
       </c>
       <c r="I33" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="J33" t="n">
-        <v>1.02</v>
+        <v>3</v>
       </c>
       <c r="K33" t="n">
-        <v>1000</v>
+        <v>3.8</v>
       </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M33" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N33" t="n">
-        <v>1.34</v>
+        <v>2.66</v>
       </c>
       <c r="O33" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="P33" t="n">
-        <v>1.34</v>
+        <v>1.58</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.74</v>
+        <v>2.18</v>
       </c>
       <c r="R33" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S33" t="n">
-        <v>2.74</v>
+        <v>4.2</v>
       </c>
       <c r="T33" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="U33" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="V33" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="W33" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="X33" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y33" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z33" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AA33" t="n">
         <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AC33" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD33" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AE33" t="n">
         <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG33" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH33" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI33" t="n">
         <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK33" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL33" t="n">
         <v>1000</v>
@@ -4954,7 +4954,7 @@
         <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AO33" t="n">
         <v>1000</v>
@@ -4987,16 +4987,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="G34" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="H34" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I34" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J34" t="n">
         <v>3</v>
@@ -5020,7 +5020,7 @@
         <v>1.59</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="R34" t="n">
         <v>1.21</v>
@@ -5038,13 +5038,13 @@
         <v>1.41</v>
       </c>
       <c r="W34" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X34" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Y34" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z34" t="n">
         <v>20</v>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G35" t="n">
         <v>2.58</v>
@@ -5131,13 +5131,13 @@
         <v>3</v>
       </c>
       <c r="I35" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J35" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K35" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L35" t="n">
         <v>1.33</v>
@@ -5146,31 +5146,31 @@
         <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O35" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P35" t="n">
         <v>1.91</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R35" t="n">
         <v>1.35</v>
       </c>
       <c r="S35" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T35" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U35" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V35" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W35" t="n">
         <v>1.63</v>
@@ -5191,7 +5191,7 @@
         <v>13</v>
       </c>
       <c r="AC35" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD35" t="n">
         <v>17</v>
@@ -5260,16 +5260,16 @@
         <v>1.59</v>
       </c>
       <c r="G36" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="H36" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="I36" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J36" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K36" t="n">
         <v>4.1</v>
@@ -5281,16 +5281,16 @@
         <v>1.09</v>
       </c>
       <c r="N36" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="O36" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P36" t="n">
         <v>1.66</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R36" t="n">
         <v>1.24</v>
@@ -5302,13 +5302,13 @@
         <v>2.3</v>
       </c>
       <c r="U36" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="V36" t="n">
         <v>1.13</v>
       </c>
       <c r="W36" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="X36" t="n">
         <v>13.5</v>
@@ -5335,7 +5335,7 @@
         <v>200</v>
       </c>
       <c r="AF36" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AG36" t="n">
         <v>11</v>
@@ -5359,7 +5359,7 @@
         <v>290</v>
       </c>
       <c r="AN36" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO36" t="n">
         <v>380</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="G38" t="n">
         <v>2.24</v>
@@ -5554,25 +5554,25 @@
         <v>3.4</v>
       </c>
       <c r="O38" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="P38" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="R38" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S38" t="n">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="T38" t="n">
         <v>1.71</v>
       </c>
       <c r="U38" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V38" t="n">
         <v>1.29</v>
@@ -5662,16 +5662,16 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="G39" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H39" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="I39" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="J39" t="n">
         <v>4</v>
@@ -5692,13 +5692,13 @@
         <v>1.24</v>
       </c>
       <c r="P39" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q39" t="n">
         <v>1.73</v>
       </c>
       <c r="R39" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S39" t="n">
         <v>2.8</v>
@@ -5710,10 +5710,10 @@
         <v>2.2</v>
       </c>
       <c r="V39" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="W39" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="X39" t="n">
         <v>23</v>
@@ -5755,7 +5755,7 @@
         <v>120</v>
       </c>
       <c r="AK39" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL39" t="n">
         <v>60</v>
@@ -5797,22 +5797,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="G40" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="H40" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I40" t="n">
         <v>9.6</v>
       </c>
       <c r="J40" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K40" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L40" t="n">
         <v>1.26</v>
@@ -5824,7 +5824,7 @@
         <v>4.1</v>
       </c>
       <c r="O40" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P40" t="n">
         <v>2.28</v>
@@ -5833,13 +5833,13 @@
         <v>1.55</v>
       </c>
       <c r="R40" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S40" t="n">
         <v>2.36</v>
       </c>
       <c r="T40" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U40" t="n">
         <v>1.86</v>
@@ -5848,7 +5848,7 @@
         <v>1.11</v>
       </c>
       <c r="W40" t="n">
-        <v>2.52</v>
+        <v>2.78</v>
       </c>
       <c r="X40" t="n">
         <v>27</v>
@@ -5902,7 +5902,7 @@
         <v>7.8</v>
       </c>
       <c r="AO40" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41">
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="G41" t="n">
         <v>2.32</v>
@@ -5947,10 +5947,10 @@
         <v>3.2</v>
       </c>
       <c r="K41" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L41" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="M41" t="n">
         <v>1.09</v>
@@ -5959,7 +5959,7 @@
         <v>3.1</v>
       </c>
       <c r="O41" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P41" t="n">
         <v>1.72</v>
@@ -5977,19 +5977,19 @@
         <v>1.89</v>
       </c>
       <c r="U41" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V41" t="n">
         <v>1.33</v>
       </c>
       <c r="W41" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X41" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z41" t="n">
         <v>28</v>
@@ -6004,19 +6004,19 @@
         <v>9</v>
       </c>
       <c r="AD41" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AE41" t="n">
         <v>65</v>
       </c>
       <c r="AF41" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AG41" t="n">
         <v>12</v>
       </c>
       <c r="AH41" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI41" t="n">
         <v>75</v>
@@ -6028,16 +6028,16 @@
         <v>34</v>
       </c>
       <c r="AL41" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM41" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN41" t="n">
         <v>28</v>
       </c>
       <c r="AO41" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42">
@@ -6067,22 +6067,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="G42" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H42" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I42" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J42" t="n">
         <v>4.1</v>
       </c>
       <c r="K42" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="L42" t="n">
         <v>1.21</v>
@@ -6097,25 +6097,25 @@
         <v>1.15</v>
       </c>
       <c r="P42" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="R42" t="n">
         <v>1.7</v>
       </c>
       <c r="S42" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="T42" t="n">
         <v>1.53</v>
       </c>
       <c r="U42" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="V42" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W42" t="n">
         <v>2.14</v>
@@ -6205,55 +6205,55 @@
         <v>2.72</v>
       </c>
       <c r="G43" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="H43" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="I43" t="n">
-        <v>3.25</v>
+        <v>2.94</v>
       </c>
       <c r="J43" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="K43" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L43" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="M43" t="n">
         <v>1.08</v>
       </c>
       <c r="N43" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="O43" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P43" t="n">
         <v>1.83</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R43" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S43" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T43" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U43" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V43" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="W43" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X43" t="n">
         <v>970</v>
@@ -6292,22 +6292,22 @@
         <v>60</v>
       </c>
       <c r="AJ43" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK43" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL43" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM43" t="n">
         <v>1000</v>
       </c>
       <c r="AN43" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AO43" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44">
@@ -6337,49 +6337,49 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="G44" t="n">
         <v>2.64</v>
       </c>
       <c r="H44" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K44" t="n">
         <v>3.15</v>
       </c>
-      <c r="I44" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J44" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K44" t="n">
-        <v>3.25</v>
-      </c>
       <c r="L44" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M44" t="n">
         <v>1.11</v>
       </c>
       <c r="N44" t="n">
-        <v>2.46</v>
+        <v>2.78</v>
       </c>
       <c r="O44" t="n">
-        <v>1.11</v>
+        <v>1.48</v>
       </c>
       <c r="P44" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="R44" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S44" t="n">
         <v>4.8</v>
       </c>
       <c r="T44" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="U44" t="n">
         <v>1.86</v>
@@ -6391,10 +6391,10 @@
         <v>1.6</v>
       </c>
       <c r="X44" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="Y44" t="n">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="Z44" t="n">
         <v>26</v>
@@ -6403,46 +6403,46 @@
         <v>70</v>
       </c>
       <c r="AB44" t="n">
-        <v>12.5</v>
+        <v>8.4</v>
       </c>
       <c r="AC44" t="n">
         <v>7.2</v>
       </c>
       <c r="AD44" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AE44" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF44" t="n">
         <v>970</v>
       </c>
       <c r="AG44" t="n">
-        <v>18.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI44" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AJ44" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AK44" t="n">
         <v>40</v>
       </c>
       <c r="AL44" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM44" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN44" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO44" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45">
@@ -6472,22 +6472,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="G45" t="n">
         <v>3.2</v>
       </c>
       <c r="H45" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I45" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="J45" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K45" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L45" t="n">
         <v>1.36</v>
@@ -6496,19 +6496,19 @@
         <v>1.08</v>
       </c>
       <c r="N45" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O45" t="n">
         <v>1.34</v>
       </c>
       <c r="P45" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q45" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R45" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S45" t="n">
         <v>3.6</v>
@@ -6517,7 +6517,7 @@
         <v>1.76</v>
       </c>
       <c r="U45" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V45" t="n">
         <v>1.57</v>
@@ -6616,16 +6616,16 @@
         <v>2.04</v>
       </c>
       <c r="I46" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="J46" t="n">
         <v>4</v>
       </c>
       <c r="K46" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L46" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="M46" t="n">
         <v>1.02</v>
@@ -6655,7 +6655,7 @@
         <v>2.78</v>
       </c>
       <c r="V46" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="W46" t="n">
         <v>1.39</v>
@@ -6760,7 +6760,7 @@
         <v>6.4</v>
       </c>
       <c r="L47" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="M47" t="n">
         <v>1.01</v>
@@ -6781,7 +6781,7 @@
         <v>1.97</v>
       </c>
       <c r="S47" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="T47" t="n">
         <v>1.48</v>
@@ -6826,7 +6826,7 @@
         <v>12</v>
       </c>
       <c r="AH47" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AI47" t="n">
         <v>1000</v>
@@ -6877,10 +6877,10 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="G48" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="H48" t="n">
         <v>6.2</v>
@@ -6889,49 +6889,49 @@
         <v>7.6</v>
       </c>
       <c r="J48" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="K48" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L48" t="n">
-        <v>1.54</v>
+        <v>1.65</v>
       </c>
       <c r="M48" t="n">
         <v>1.15</v>
       </c>
       <c r="N48" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="O48" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P48" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="R48" t="n">
         <v>1.14</v>
       </c>
       <c r="S48" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="T48" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="U48" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="V48" t="n">
         <v>1.15</v>
       </c>
       <c r="W48" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="X48" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Y48" t="n">
         <v>15</v>
@@ -6946,7 +6946,7 @@
         <v>6.4</v>
       </c>
       <c r="AC48" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD48" t="n">
         <v>1000</v>
@@ -7024,10 +7024,10 @@
         <v>4.3</v>
       </c>
       <c r="J49" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K49" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L49" t="n">
         <v>1.51</v>
@@ -7081,7 +7081,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AC49" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD49" t="n">
         <v>17</v>
@@ -7150,10 +7150,10 @@
         <v>1.65</v>
       </c>
       <c r="G50" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="H50" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="I50" t="n">
         <v>6.6</v>
@@ -7165,7 +7165,7 @@
         <v>4.3</v>
       </c>
       <c r="L50" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="M50" t="n">
         <v>1.08</v>
@@ -7189,7 +7189,7 @@
         <v>3.85</v>
       </c>
       <c r="T50" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U50" t="n">
         <v>1.79</v>
@@ -7219,7 +7219,7 @@
         <v>970</v>
       </c>
       <c r="AD50" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AE50" t="n">
         <v>130</v>
@@ -7282,16 +7282,16 @@
         </is>
       </c>
       <c r="F51" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="G51" t="n">
         <v>5.4</v>
-      </c>
-      <c r="G51" t="n">
-        <v>5.5</v>
       </c>
       <c r="H51" t="n">
         <v>1.83</v>
       </c>
       <c r="I51" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="J51" t="n">
         <v>3.7</v>
@@ -7300,13 +7300,13 @@
         <v>3.75</v>
       </c>
       <c r="L51" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M51" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N51" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O51" t="n">
         <v>1.4</v>
@@ -7324,22 +7324,22 @@
         <v>4.1</v>
       </c>
       <c r="T51" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U51" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V51" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="W51" t="n">
         <v>1.22</v>
       </c>
       <c r="X51" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y51" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="Z51" t="n">
         <v>9.6</v>
@@ -7348,7 +7348,7 @@
         <v>19</v>
       </c>
       <c r="AB51" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC51" t="n">
         <v>8</v>
@@ -7417,16 +7417,16 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="G52" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="H52" t="n">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="I52" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="J52" t="n">
         <v>2.92</v>
@@ -7447,7 +7447,7 @@
         <v>1.65</v>
       </c>
       <c r="P52" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="Q52" t="n">
         <v>3</v>
@@ -7462,13 +7462,13 @@
         <v>2.32</v>
       </c>
       <c r="U52" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="V52" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="W52" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X52" t="n">
         <v>7.6</v>
@@ -7477,10 +7477,10 @@
         <v>6.8</v>
       </c>
       <c r="Z52" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA52" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="AB52" t="n">
         <v>9.6</v>
@@ -7495,19 +7495,19 @@
         <v>42</v>
       </c>
       <c r="AF52" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AG52" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH52" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="AI52" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ52" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AK52" t="n">
         <v>1000</v>
@@ -7516,13 +7516,13 @@
         <v>130</v>
       </c>
       <c r="AM52" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AN52" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AO52" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53">
@@ -7576,22 +7576,22 @@
         <v>1.08</v>
       </c>
       <c r="N53" t="n">
-        <v>2.66</v>
+        <v>2.94</v>
       </c>
       <c r="O53" t="n">
         <v>1.42</v>
       </c>
       <c r="P53" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="Q53" t="n">
         <v>2.06</v>
       </c>
       <c r="R53" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S53" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="T53" t="n">
         <v>2</v>
@@ -7687,16 +7687,16 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="G54" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="H54" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="I54" t="n">
         <v>1.72</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1.73</v>
       </c>
       <c r="J54" t="n">
         <v>4.3</v>
@@ -7720,46 +7720,46 @@
         <v>2.26</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="R54" t="n">
         <v>1.48</v>
       </c>
       <c r="S54" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="T54" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="U54" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V54" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="W54" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X54" t="n">
         <v>19</v>
       </c>
       <c r="Y54" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z54" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA54" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AB54" t="n">
         <v>21</v>
       </c>
       <c r="AC54" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD54" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AE54" t="n">
         <v>16.5</v>
@@ -7768,7 +7768,7 @@
         <v>42</v>
       </c>
       <c r="AG54" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AH54" t="n">
         <v>18</v>
@@ -7780,7 +7780,7 @@
         <v>130</v>
       </c>
       <c r="AK54" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AL54" t="n">
         <v>60</v>
@@ -7792,7 +7792,7 @@
         <v>60</v>
       </c>
       <c r="AO54" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55">
@@ -7825,13 +7825,13 @@
         <v>1.77</v>
       </c>
       <c r="G55" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="H55" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I55" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J55" t="n">
         <v>4</v>
@@ -7870,10 +7870,10 @@
         <v>2.02</v>
       </c>
       <c r="V55" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W55" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="X55" t="n">
         <v>14</v>
@@ -7957,13 +7957,13 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="G56" t="n">
         <v>2.98</v>
       </c>
       <c r="H56" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="I56" t="n">
         <v>3.05</v>
@@ -7996,13 +7996,13 @@
         <v>1.19</v>
       </c>
       <c r="S56" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="T56" t="n">
         <v>2.1</v>
       </c>
       <c r="U56" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="V56" t="n">
         <v>1.48</v>
@@ -8092,25 +8092,25 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.84</v>
+        <v>3.15</v>
       </c>
       <c r="G57" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="H57" t="n">
-        <v>2.46</v>
+        <v>2.16</v>
       </c>
       <c r="I57" t="n">
-        <v>2.86</v>
+        <v>2.52</v>
       </c>
       <c r="J57" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K57" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L57" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M57" t="n">
         <v>1.07</v>
@@ -8134,28 +8134,28 @@
         <v>3.35</v>
       </c>
       <c r="T57" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U57" t="n">
         <v>2.02</v>
       </c>
       <c r="V57" t="n">
-        <v>1.54</v>
+        <v>1.65</v>
       </c>
       <c r="W57" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="X57" t="n">
         <v>970</v>
       </c>
       <c r="Y57" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z57" t="n">
         <v>970</v>
       </c>
-      <c r="Z57" t="n">
-        <v>20</v>
-      </c>
       <c r="AA57" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AB57" t="n">
         <v>970</v>
@@ -8179,7 +8179,7 @@
         <v>22</v>
       </c>
       <c r="AI57" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ57" t="n">
         <v>65</v>
@@ -8188,16 +8188,16 @@
         <v>46</v>
       </c>
       <c r="AL57" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM57" t="n">
         <v>130</v>
       </c>
       <c r="AN57" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AO57" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58">
@@ -8227,31 +8227,31 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G58" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="H58" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I58" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J58" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K58" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L58" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="M58" t="n">
         <v>1.07</v>
       </c>
       <c r="N58" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O58" t="n">
         <v>1.32</v>
@@ -8269,7 +8269,7 @@
         <v>3.4</v>
       </c>
       <c r="T58" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U58" t="n">
         <v>2.02</v>
@@ -8278,40 +8278,40 @@
         <v>1.33</v>
       </c>
       <c r="W58" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="X58" t="n">
         <v>16</v>
       </c>
       <c r="Y58" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z58" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AA58" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AB58" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC58" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD58" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE58" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF58" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AG58" t="n">
         <v>13</v>
       </c>
       <c r="AH58" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AI58" t="n">
         <v>70</v>
@@ -8320,7 +8320,7 @@
         <v>27</v>
       </c>
       <c r="AK58" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL58" t="n">
         <v>46</v>
@@ -8332,7 +8332,7 @@
         <v>17.5</v>
       </c>
       <c r="AO58" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59">
@@ -8362,10 +8362,10 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.04</v>
+        <v>1.15</v>
       </c>
       <c r="G59" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="H59" t="n">
         <v>1.04</v>
@@ -8374,7 +8374,7 @@
         <v>1000</v>
       </c>
       <c r="J59" t="n">
-        <v>7.6</v>
+        <v>1.02</v>
       </c>
       <c r="K59" t="n">
         <v>950</v>
@@ -8386,22 +8386,22 @@
         <v>1.01</v>
       </c>
       <c r="N59" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="O59" t="n">
         <v>1.07</v>
       </c>
       <c r="P59" t="n">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="Q59" t="n">
         <v>1.08</v>
       </c>
       <c r="R59" t="n">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="S59" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="T59" t="n">
         <v>1.01</v>
@@ -8509,13 +8509,13 @@
         <v>3.8</v>
       </c>
       <c r="J60" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="K60" t="n">
         <v>3.55</v>
       </c>
       <c r="L60" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="M60" t="n">
         <v>1.08</v>
@@ -8548,7 +8548,7 @@
         <v>1.37</v>
       </c>
       <c r="W60" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X60" t="n">
         <v>13.5</v>
@@ -8671,7 +8671,7 @@
         <v>1.24</v>
       </c>
       <c r="S61" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="T61" t="n">
         <v>1.88</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-08.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="G2" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="H2" t="n">
         <v>5.6</v>
       </c>
       <c r="I2" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L2" t="n">
         <v>1.45</v>
@@ -709,22 +709,22 @@
         <v>3.95</v>
       </c>
       <c r="T2" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V2" t="n">
         <v>1.2</v>
       </c>
       <c r="W2" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="X2" t="n">
         <v>13.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="Z2" t="n">
         <v>50</v>
@@ -739,10 +739,10 @@
         <v>9.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="AE2" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="AF2" t="n">
         <v>11</v>
@@ -754,19 +754,19 @@
         <v>26</v>
       </c>
       <c r="AI2" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="AJ2" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AK2" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="AL2" t="n">
-        <v>42</v>
+        <v>290</v>
       </c>
       <c r="AM2" t="n">
-        <v>180</v>
+        <v>580</v>
       </c>
       <c r="AN2" t="n">
         <v>15.5</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="G3" t="n">
         <v>5.5</v>
       </c>
       <c r="H3" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="I3" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="J3" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K3" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,22 +826,22 @@
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="O3" t="n">
         <v>1.07</v>
       </c>
       <c r="P3" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="R3" t="n">
         <v>1.24</v>
       </c>
       <c r="S3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T3" t="n">
         <v>1.01</v>
@@ -850,10 +850,10 @@
         <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="W3" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -871,7 +871,7 @@
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -940,10 +940,10 @@
         <v>6.6</v>
       </c>
       <c r="G4" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="I4" t="n">
         <v>1.5</v>
@@ -952,7 +952,7 @@
         <v>5.3</v>
       </c>
       <c r="K4" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="L4" t="n">
         <v>1.28</v>
@@ -979,7 +979,7 @@
         <v>2.42</v>
       </c>
       <c r="T4" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U4" t="n">
         <v>2.1</v>
@@ -988,16 +988,16 @@
         <v>3</v>
       </c>
       <c r="W4" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="X4" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Y4" t="n">
         <v>12.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA4" t="n">
         <v>16.5</v>
@@ -1006,40 +1006,40 @@
         <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AH4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO4" t="n">
         <v>6.8</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.23</v>
+        <v>1.47</v>
       </c>
       <c r="G5" t="n">
-        <v>44</v>
+        <v>2.1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.01</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
         <v>44</v>
@@ -1120,10 +1120,10 @@
         <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="W5" t="n">
-        <v>1.02</v>
+        <v>1.9</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1141,7 +1141,7 @@
         <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1210,10 +1210,10 @@
         <v>4.7</v>
       </c>
       <c r="G6" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="H6" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="I6" t="n">
         <v>2.02</v>
@@ -1222,7 +1222,7 @@
         <v>3.15</v>
       </c>
       <c r="K6" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L6" t="n">
         <v>1.45</v>
@@ -1231,46 +1231,46 @@
         <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="O6" t="n">
         <v>1.48</v>
       </c>
       <c r="P6" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="R6" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S6" t="n">
         <v>4.7</v>
       </c>
       <c r="T6" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="U6" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="V6" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="W6" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="X6" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="Y6" t="n">
         <v>7.2</v>
       </c>
       <c r="Z6" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AA6" t="n">
-        <v>25</v>
+        <v>900</v>
       </c>
       <c r="AB6" t="n">
         <v>970</v>
@@ -1282,19 +1282,19 @@
         <v>970</v>
       </c>
       <c r="AE6" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AF6" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG6" t="n">
         <v>48</v>
       </c>
-      <c r="AG6" t="n">
-        <v>27</v>
-      </c>
       <c r="AH6" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AI6" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="G7" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="H7" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="I7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J7" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="K7" t="n">
         <v>7.4</v>
@@ -1384,16 +1384,16 @@
         <v>2.56</v>
       </c>
       <c r="T7" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="U7" t="n">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="V7" t="n">
         <v>1.06</v>
       </c>
       <c r="W7" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="X7" t="n">
         <v>29</v>
@@ -1411,28 +1411,28 @@
         <v>10.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="AE7" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AG7" t="n">
         <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AI7" t="n">
         <v>230</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK7" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         <v>5.8</v>
       </c>
       <c r="AO7" t="n">
-        <v>510</v>
+        <v>610</v>
       </c>
     </row>
     <row r="8">
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="G8" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="H8" t="n">
         <v>6.6</v>
@@ -1489,10 +1489,10 @@
         <v>8</v>
       </c>
       <c r="J8" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
         <v>1.44</v>
@@ -1504,85 +1504,85 @@
         <v>3.15</v>
       </c>
       <c r="O8" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P8" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="R8" t="n">
         <v>1.28</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="T8" t="n">
         <v>2.04</v>
       </c>
       <c r="U8" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="V8" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W8" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="X8" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
         <v>23</v>
       </c>
       <c r="Z8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA8" t="n">
         <v>260</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AE8" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AF8" t="n">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG8" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH8" t="n">
         <v>30</v>
       </c>
       <c r="AI8" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ8" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM8" t="n">
-        <v>210</v>
+        <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO8" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9">
@@ -1618,13 +1618,13 @@
         <v>2.64</v>
       </c>
       <c r="H9" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="J9" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="K9" t="n">
         <v>3.5</v>
@@ -1636,7 +1636,7 @@
         <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>2.72</v>
+        <v>2.86</v>
       </c>
       <c r="O9" t="n">
         <v>1.46</v>
@@ -1651,7 +1651,7 @@
         <v>1.22</v>
       </c>
       <c r="S9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T9" t="n">
         <v>1.98</v>
@@ -1660,64 +1660,64 @@
         <v>1.84</v>
       </c>
       <c r="V9" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W9" t="n">
         <v>1.61</v>
       </c>
       <c r="X9" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="Y9" t="n">
         <v>970</v>
       </c>
       <c r="Z9" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="AA9" t="n">
-        <v>95</v>
+        <v>900</v>
       </c>
       <c r="AB9" t="n">
         <v>9.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.6</v>
+        <v>14</v>
       </c>
       <c r="AD9" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AE9" t="n">
-        <v>70</v>
+        <v>380</v>
       </c>
       <c r="AF9" t="n">
         <v>970</v>
       </c>
       <c r="AG9" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AH9" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="AI9" t="n">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="AJ9" t="n">
-        <v>42</v>
+        <v>900</v>
       </c>
       <c r="AK9" t="n">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AL9" t="n">
-        <v>65</v>
+        <v>290</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AO9" t="n">
-        <v>85</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G10" t="n">
         <v>2.7</v>
@@ -1762,7 +1762,7 @@
         <v>2.88</v>
       </c>
       <c r="K10" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="L10" t="n">
         <v>1.45</v>
@@ -1789,13 +1789,13 @@
         <v>4.3</v>
       </c>
       <c r="T10" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U10" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V10" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W10" t="n">
         <v>1.58</v>
@@ -1810,7 +1810,7 @@
         <v>25</v>
       </c>
       <c r="AA10" t="n">
-        <v>90</v>
+        <v>900</v>
       </c>
       <c r="AB10" t="n">
         <v>9.800000000000001</v>
@@ -1834,16 +1834,16 @@
         <v>22</v>
       </c>
       <c r="AI10" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="AJ10" t="n">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AK10" t="n">
         <v>42</v>
       </c>
       <c r="AL10" t="n">
-        <v>65</v>
+        <v>400</v>
       </c>
       <c r="AM10" t="n">
         <v>200</v>
@@ -1852,7 +1852,7 @@
         <v>44</v>
       </c>
       <c r="AO10" t="n">
-        <v>75</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11">
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="G11" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H11" t="n">
         <v>2.56</v>
@@ -1900,7 +1900,7 @@
         <v>3.55</v>
       </c>
       <c r="L11" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
@@ -1942,46 +1942,46 @@
         <v>12</v>
       </c>
       <c r="Z11" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB11" t="n">
         <v>21</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>970</v>
       </c>
       <c r="AC11" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>970</v>
+        <v>28</v>
       </c>
       <c r="AE11" t="n">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="AF11" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="AG11" t="n">
         <v>970</v>
       </c>
       <c r="AH11" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="AI11" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="AJ11" t="n">
-        <v>65</v>
+        <v>900</v>
       </c>
       <c r="AK11" t="n">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="AL11" t="n">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="AM11" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="AN11" t="n">
         <v>48</v>
@@ -2032,10 +2032,10 @@
         <v>2.94</v>
       </c>
       <c r="K12" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L12" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M12" t="n">
         <v>1.12</v>
@@ -2047,7 +2047,7 @@
         <v>1.58</v>
       </c>
       <c r="P12" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="Q12" t="n">
         <v>2.58</v>
@@ -2065,7 +2065,7 @@
         <v>1.71</v>
       </c>
       <c r="V12" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W12" t="n">
         <v>1.74</v>
@@ -2077,10 +2077,10 @@
         <v>12</v>
       </c>
       <c r="Z12" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AA12" t="n">
-        <v>140</v>
+        <v>900</v>
       </c>
       <c r="AB12" t="n">
         <v>8</v>
@@ -2089,7 +2089,7 @@
         <v>7.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE12" t="n">
         <v>85</v>
@@ -2104,25 +2104,25 @@
         <v>26</v>
       </c>
       <c r="AI12" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="AJ12" t="n">
         <v>32</v>
       </c>
       <c r="AK12" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="AL12" t="n">
-        <v>65</v>
+        <v>480</v>
       </c>
       <c r="AM12" t="n">
         <v>250</v>
       </c>
       <c r="AN12" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="AO12" t="n">
-        <v>150</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13">
@@ -2152,58 +2152,58 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="G13" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="H13" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="I13" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="J13" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K13" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P13" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="R13" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S13" t="n">
         <v>2.84</v>
       </c>
       <c r="T13" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="U13" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V13" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="W13" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="X13" t="n">
         <v>970</v>
@@ -2212,52 +2212,52 @@
         <v>11</v>
       </c>
       <c r="Z13" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AA13" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="AB13" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AC13" t="n">
         <v>11</v>
       </c>
       <c r="AD13" t="n">
-        <v>12.5</v>
+        <v>40</v>
       </c>
       <c r="AE13" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="AF13" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="AH13" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="AI13" t="n">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="AJ13" t="n">
         <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="AL13" t="n">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="AM13" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN13" t="n">
-        <v>90</v>
+        <v>310</v>
       </c>
       <c r="AO13" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="G14" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H14" t="n">
-        <v>4.6</v>
+        <v>5.4</v>
       </c>
       <c r="I14" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="J14" t="n">
         <v>3.4</v>
       </c>
       <c r="K14" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
         <v>1.37</v>
@@ -2317,7 +2317,7 @@
         <v>1.32</v>
       </c>
       <c r="P14" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q14" t="n">
         <v>1.94</v>
@@ -2329,67 +2329,67 @@
         <v>3.4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U14" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="V14" t="n">
         <v>1.2</v>
       </c>
       <c r="W14" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="X14" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="Y14" t="n">
         <v>970</v>
       </c>
       <c r="Z14" t="n">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>480</v>
       </c>
       <c r="AF14" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AH14" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AJ14" t="n">
-        <v>24</v>
+        <v>900</v>
       </c>
       <c r="AK14" t="n">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="AL14" t="n">
-        <v>55</v>
+        <v>290</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>970</v>
+        <v>85</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2455,7 +2455,7 @@
         <v>1.47</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="R15" t="n">
         <v>1.18</v>
@@ -2482,7 +2482,7 @@
         <v>11</v>
       </c>
       <c r="Z15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA15" t="n">
         <v>95</v>
@@ -2497,10 +2497,10 @@
         <v>19.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AF15" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AG15" t="n">
         <v>15.5</v>
@@ -2509,7 +2509,7 @@
         <v>28</v>
       </c>
       <c r="AI15" t="n">
-        <v>100</v>
+        <v>480</v>
       </c>
       <c r="AJ15" t="n">
         <v>50</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G16" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="H16" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I16" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K16" t="n">
         <v>3.35</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.45</v>
       </c>
       <c r="L16" t="n">
         <v>1.46</v>
@@ -2587,7 +2587,7 @@
         <v>1.38</v>
       </c>
       <c r="P16" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="Q16" t="n">
         <v>2.14</v>
@@ -2599,7 +2599,7 @@
         <v>4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U16" t="n">
         <v>2</v>
@@ -2608,7 +2608,7 @@
         <v>1.32</v>
       </c>
       <c r="W16" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="X16" t="n">
         <v>12.5</v>
@@ -2632,10 +2632,10 @@
         <v>17</v>
       </c>
       <c r="AE16" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AF16" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AG16" t="n">
         <v>11.5</v>
@@ -2644,7 +2644,7 @@
         <v>20</v>
       </c>
       <c r="AI16" t="n">
-        <v>65</v>
+        <v>380</v>
       </c>
       <c r="AJ16" t="n">
         <v>30</v>
@@ -2653,13 +2653,13 @@
         <v>27</v>
       </c>
       <c r="AL16" t="n">
-        <v>44</v>
+        <v>290</v>
       </c>
       <c r="AM16" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AO16" t="n">
         <v>65</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="G17" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="H17" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="I17" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="J17" t="n">
         <v>3.75</v>
@@ -2731,19 +2731,19 @@
         <v>1.29</v>
       </c>
       <c r="S17" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="T17" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U17" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V17" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="W17" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2761,7 +2761,7 @@
         <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD17" t="n">
         <v>1000</v>
@@ -2791,13 +2791,13 @@
         <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN17" t="n">
         <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18">
@@ -2836,25 +2836,25 @@
         <v>2.48</v>
       </c>
       <c r="I18" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="J18" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
         <v>3.05</v>
       </c>
       <c r="L18" t="n">
-        <v>1.56</v>
+        <v>1.46</v>
       </c>
       <c r="M18" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="N18" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="O18" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="P18" t="n">
         <v>1.57</v>
@@ -2869,70 +2869,70 @@
         <v>5.4</v>
       </c>
       <c r="T18" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U18" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="V18" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W18" t="n">
         <v>1.36</v>
       </c>
       <c r="X18" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
       </c>
       <c r="Z18" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AA18" t="n">
-        <v>42</v>
+        <v>230</v>
       </c>
       <c r="AB18" t="n">
         <v>10.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="AF18" t="n">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="AG18" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="AH18" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="AI18" t="n">
-        <v>65</v>
+        <v>480</v>
       </c>
       <c r="AJ18" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="AK18" t="n">
-        <v>60</v>
+        <v>450</v>
       </c>
       <c r="AL18" t="n">
-        <v>95</v>
+        <v>480</v>
       </c>
       <c r="AM18" t="n">
         <v>200</v>
       </c>
       <c r="AN18" t="n">
-        <v>85</v>
+        <v>230</v>
       </c>
       <c r="AO18" t="n">
-        <v>38</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19">
@@ -2965,7 +2965,7 @@
         <v>1.59</v>
       </c>
       <c r="G19" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="H19" t="n">
         <v>7</v>
@@ -2986,10 +2986,10 @@
         <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O19" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P19" t="n">
         <v>1.77</v>
@@ -3004,16 +3004,16 @@
         <v>4.1</v>
       </c>
       <c r="T19" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="U19" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="V19" t="n">
         <v>1.14</v>
       </c>
       <c r="W19" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="X19" t="n">
         <v>15</v>
@@ -3022,7 +3022,7 @@
         <v>21</v>
       </c>
       <c r="Z19" t="n">
-        <v>65</v>
+        <v>520</v>
       </c>
       <c r="AA19" t="n">
         <v>330</v>
@@ -3034,7 +3034,7 @@
         <v>9.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="AE19" t="n">
         <v>170</v>
@@ -3046,7 +3046,7 @@
         <v>11</v>
       </c>
       <c r="AH19" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AI19" t="n">
         <v>160</v>
@@ -3058,10 +3058,10 @@
         <v>21</v>
       </c>
       <c r="AL19" t="n">
-        <v>50</v>
+        <v>370</v>
       </c>
       <c r="AM19" t="n">
-        <v>240</v>
+        <v>580</v>
       </c>
       <c r="AN19" t="n">
         <v>12.5</v>
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G20" t="n">
         <v>2.4</v>
       </c>
       <c r="H20" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I20" t="n">
         <v>3.75</v>
@@ -3112,7 +3112,7 @@
         <v>3.3</v>
       </c>
       <c r="K20" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L20" t="n">
         <v>1.42</v>
@@ -3127,7 +3127,7 @@
         <v>1.34</v>
       </c>
       <c r="P20" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="Q20" t="n">
         <v>2.02</v>
@@ -3136,22 +3136,22 @@
         <v>1.35</v>
       </c>
       <c r="S20" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T20" t="n">
         <v>1.77</v>
       </c>
       <c r="U20" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="V20" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W20" t="n">
         <v>1.71</v>
       </c>
       <c r="X20" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y20" t="n">
         <v>14</v>
@@ -3160,13 +3160,13 @@
         <v>27</v>
       </c>
       <c r="AA20" t="n">
-        <v>70</v>
+        <v>470</v>
       </c>
       <c r="AB20" t="n">
         <v>10.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD20" t="n">
         <v>16</v>
@@ -3181,10 +3181,10 @@
         <v>12.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AJ20" t="n">
         <v>34</v>
@@ -3196,7 +3196,7 @@
         <v>44</v>
       </c>
       <c r="AM20" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="AN20" t="n">
         <v>22</v>
@@ -3256,22 +3256,22 @@
         <v>1.12</v>
       </c>
       <c r="N21" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="O21" t="n">
         <v>1.5</v>
       </c>
       <c r="P21" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="Q21" t="n">
         <v>2.54</v>
       </c>
       <c r="R21" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S21" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="T21" t="n">
         <v>2.06</v>
@@ -3286,10 +3286,10 @@
         <v>1.6</v>
       </c>
       <c r="X21" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="Y21" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z21" t="n">
         <v>21</v>
@@ -3337,7 +3337,7 @@
         <v>36</v>
       </c>
       <c r="AO21" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="G22" t="n">
         <v>2.14</v>
       </c>
       <c r="H22" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I22" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="J22" t="n">
         <v>3.15</v>
@@ -3391,7 +3391,7 @@
         <v>1.09</v>
       </c>
       <c r="N22" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="O22" t="n">
         <v>1.39</v>
@@ -3400,7 +3400,7 @@
         <v>1.66</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R22" t="n">
         <v>1.24</v>
@@ -3415,13 +3415,13 @@
         <v>1.82</v>
       </c>
       <c r="V22" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W22" t="n">
         <v>1.88</v>
       </c>
       <c r="X22" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y22" t="n">
         <v>14.5</v>
@@ -3442,34 +3442,34 @@
         <v>21</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AF22" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG22" t="n">
         <v>11.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AJ22" t="n">
         <v>26</v>
       </c>
       <c r="AK22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="G23" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="H23" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I23" t="n">
         <v>3.9</v>
@@ -3517,7 +3517,7 @@
         <v>3.15</v>
       </c>
       <c r="K23" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L23" t="n">
         <v>1.54</v>
@@ -3553,7 +3553,7 @@
         <v>1.34</v>
       </c>
       <c r="W23" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="X23" t="n">
         <v>9.800000000000001</v>
@@ -3574,10 +3574,10 @@
         <v>7.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>16.5</v>
+        <v>30</v>
       </c>
       <c r="AE23" t="n">
-        <v>70</v>
+        <v>470</v>
       </c>
       <c r="AF23" t="n">
         <v>13</v>
@@ -3598,7 +3598,7 @@
         <v>32</v>
       </c>
       <c r="AL23" t="n">
-        <v>55</v>
+        <v>370</v>
       </c>
       <c r="AM23" t="n">
         <v>170</v>
@@ -3607,7 +3607,7 @@
         <v>30</v>
       </c>
       <c r="AO23" t="n">
-        <v>75</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24">
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="G24" t="n">
         <v>1.35</v>
@@ -3649,100 +3649,100 @@
         <v>14</v>
       </c>
       <c r="J24" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="K24" t="n">
         <v>6.2</v>
       </c>
       <c r="L24" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>4.3</v>
+        <v>2.32</v>
       </c>
       <c r="O24" t="n">
         <v>1.25</v>
       </c>
       <c r="P24" t="n">
-        <v>2.16</v>
+        <v>1.92</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="R24" t="n">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="S24" t="n">
-        <v>2.8</v>
+        <v>2.32</v>
       </c>
       <c r="T24" t="n">
-        <v>2.16</v>
+        <v>1.04</v>
       </c>
       <c r="U24" t="n">
-        <v>1.71</v>
+        <v>1.04</v>
       </c>
       <c r="V24" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W24" t="n">
         <v>3.85</v>
       </c>
       <c r="X24" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="Y24" t="n">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="Z24" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
         <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>9.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AC24" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="AD24" t="n">
-        <v>55</v>
+        <v>300</v>
       </c>
       <c r="AE24" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>8.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AG24" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AH24" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AI24" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AK24" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AL24" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="AM24" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>6.2</v>
+        <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>430</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -3775,52 +3775,52 @@
         <v>2.32</v>
       </c>
       <c r="G25" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="H25" t="n">
         <v>3.25</v>
       </c>
       <c r="I25" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J25" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K25" t="n">
         <v>3.55</v>
       </c>
       <c r="L25" t="n">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="M25" t="n">
         <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O25" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P25" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="R25" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S25" t="n">
         <v>3.9</v>
       </c>
       <c r="T25" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V25" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W25" t="n">
         <v>1.67</v>
@@ -3835,7 +3835,7 @@
         <v>29</v>
       </c>
       <c r="AA25" t="n">
-        <v>80</v>
+        <v>900</v>
       </c>
       <c r="AB25" t="n">
         <v>11</v>
@@ -3853,31 +3853,31 @@
         <v>17.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH25" t="n">
         <v>23</v>
       </c>
       <c r="AI25" t="n">
-        <v>70</v>
+        <v>380</v>
       </c>
       <c r="AJ25" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="AL25" t="n">
-        <v>55</v>
+        <v>300</v>
       </c>
       <c r="AM25" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN25" t="n">
         <v>29</v>
       </c>
       <c r="AO25" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
@@ -3910,13 +3910,13 @@
         <v>2.28</v>
       </c>
       <c r="G26" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="H26" t="n">
         <v>3.55</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J26" t="n">
         <v>3.1</v>
@@ -3958,31 +3958,31 @@
         <v>1.33</v>
       </c>
       <c r="W26" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="X26" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="Y26" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="AA26" t="n">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="AB26" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AC26" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AD26" t="n">
         <v>20</v>
       </c>
       <c r="AE26" t="n">
-        <v>70</v>
+        <v>380</v>
       </c>
       <c r="AF26" t="n">
         <v>16</v>
@@ -3991,28 +3991,28 @@
         <v>14.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="AI26" t="n">
-        <v>95</v>
+        <v>400</v>
       </c>
       <c r="AJ26" t="n">
-        <v>34</v>
+        <v>900</v>
       </c>
       <c r="AK26" t="n">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="AL26" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="AM26" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN26" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AO26" t="n">
-        <v>95</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27">
@@ -4072,10 +4072,10 @@
         <v>1.39</v>
       </c>
       <c r="P27" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R27" t="n">
         <v>1.26</v>
@@ -4102,7 +4102,7 @@
         <v>16.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AA27" t="n">
         <v>130</v>
@@ -4117,37 +4117,37 @@
         <v>22</v>
       </c>
       <c r="AE27" t="n">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="AF27" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH27" t="n">
         <v>25</v>
       </c>
       <c r="AI27" t="n">
-        <v>90</v>
+        <v>380</v>
       </c>
       <c r="AJ27" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AK27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL27" t="n">
         <v>55</v>
       </c>
       <c r="AM27" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="AN27" t="n">
         <v>23</v>
       </c>
       <c r="AO27" t="n">
-        <v>100</v>
+        <v>480</v>
       </c>
     </row>
     <row r="28">
@@ -4180,10 +4180,10 @@
         <v>2.78</v>
       </c>
       <c r="G28" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="H28" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="I28" t="n">
         <v>3.05</v>
@@ -4204,10 +4204,10 @@
         <v>2.9</v>
       </c>
       <c r="O28" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P28" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q28" t="n">
         <v>2.34</v>
@@ -4219,31 +4219,31 @@
         <v>4.5</v>
       </c>
       <c r="T28" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U28" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="V28" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="W28" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X28" t="n">
         <v>12</v>
       </c>
       <c r="Y28" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z28" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AA28" t="n">
         <v>55</v>
       </c>
       <c r="AB28" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC28" t="n">
         <v>7.4</v>
@@ -4252,31 +4252,31 @@
         <v>15.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AF28" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH28" t="n">
         <v>23</v>
       </c>
       <c r="AI28" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AJ28" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AK28" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AL28" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AM28" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="AN28" t="n">
         <v>42</v>
@@ -4330,7 +4330,7 @@
         <v>3.75</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M29" t="n">
         <v>1.07</v>
@@ -4366,10 +4366,10 @@
         <v>1.45</v>
       </c>
       <c r="X29" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Z29" t="n">
         <v>22</v>
@@ -4378,7 +4378,7 @@
         <v>48</v>
       </c>
       <c r="AB29" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AC29" t="n">
         <v>9.4</v>
@@ -4396,13 +4396,13 @@
         <v>16</v>
       </c>
       <c r="AH29" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AI29" t="n">
         <v>55</v>
       </c>
       <c r="AJ29" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AK29" t="n">
         <v>42</v>
@@ -4411,7 +4411,7 @@
         <v>60</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN29" t="n">
         <v>40</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="G30" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="H30" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I30" t="n">
         <v>4.1</v>
       </c>
-      <c r="I30" t="n">
-        <v>4.5</v>
-      </c>
       <c r="J30" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K30" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L30" t="n">
         <v>1.47</v>
@@ -4474,85 +4474,85 @@
         <v>3.2</v>
       </c>
       <c r="O30" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P30" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R30" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T30" t="n">
         <v>1.92</v>
       </c>
       <c r="U30" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V30" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="W30" t="n">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="X30" t="n">
         <v>12</v>
       </c>
       <c r="Y30" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AA30" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AB30" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC30" t="n">
         <v>8</v>
       </c>
       <c r="AD30" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AE30" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="AF30" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH30" t="n">
         <v>21</v>
       </c>
       <c r="AI30" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO30" t="n">
         <v>70</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>970</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>75</v>
       </c>
     </row>
     <row r="31">
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="G31" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H31" t="n">
         <v>4.4</v>
       </c>
       <c r="I31" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J31" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="K31" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
@@ -4606,10 +4606,10 @@
         <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O31" t="n">
-        <v>1.02</v>
+        <v>1.64</v>
       </c>
       <c r="P31" t="n">
         <v>1.32</v>
@@ -4624,7 +4624,7 @@
         <v>2.68</v>
       </c>
       <c r="T31" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U31" t="n">
         <v>1.01</v>
@@ -4633,7 +4633,7 @@
         <v>1.17</v>
       </c>
       <c r="W31" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -4720,7 +4720,7 @@
         <v>1.75</v>
       </c>
       <c r="G32" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="H32" t="n">
         <v>5.5</v>
@@ -4750,7 +4750,7 @@
         <v>1.92</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R32" t="n">
         <v>1.36</v>
@@ -4771,10 +4771,10 @@
         <v>2.28</v>
       </c>
       <c r="X32" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="Z32" t="n">
         <v>55</v>
@@ -4786,7 +4786,7 @@
         <v>8.6</v>
       </c>
       <c r="AC32" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD32" t="n">
         <v>24</v>
@@ -4816,13 +4816,13 @@
         <v>44</v>
       </c>
       <c r="AM32" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="AN32" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AO32" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33">
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="G33" t="n">
         <v>1.56</v>
@@ -4861,10 +4861,10 @@
         <v>6.2</v>
       </c>
       <c r="I33" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J33" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="K33" t="n">
         <v>5.2</v>
@@ -4876,37 +4876,37 @@
         <v>1.03</v>
       </c>
       <c r="N33" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O33" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P33" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="R33" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="S33" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="T33" t="n">
         <v>1.69</v>
       </c>
       <c r="U33" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V33" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W33" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="X33" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Y33" t="n">
         <v>32</v>
@@ -4915,7 +4915,7 @@
         <v>60</v>
       </c>
       <c r="AA33" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AB33" t="n">
         <v>13.5</v>
@@ -4927,16 +4927,16 @@
         <v>24</v>
       </c>
       <c r="AE33" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF33" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI33" t="n">
         <v>65</v>
@@ -4945,19 +4945,19 @@
         <v>15.5</v>
       </c>
       <c r="AK33" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AL33" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM33" t="n">
         <v>80</v>
       </c>
       <c r="AN33" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="AO33" t="n">
-        <v>55</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34">
@@ -4996,10 +4996,10 @@
         <v>4.9</v>
       </c>
       <c r="I34" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="J34" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K34" t="n">
         <v>3.8</v>
@@ -5035,16 +5035,16 @@
         <v>1.71</v>
       </c>
       <c r="V34" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="W34" t="n">
         <v>2.02</v>
       </c>
       <c r="X34" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z34" t="n">
         <v>50</v>
@@ -5053,13 +5053,13 @@
         <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AC34" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AD34" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AE34" t="n">
         <v>1000</v>
@@ -5068,28 +5068,28 @@
         <v>11</v>
       </c>
       <c r="AG34" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AI34" t="n">
         <v>1000</v>
       </c>
       <c r="AJ34" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK34" t="n">
         <v>27</v>
       </c>
-      <c r="AK34" t="n">
-        <v>28</v>
-      </c>
       <c r="AL34" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AM34" t="n">
         <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AO34" t="n">
         <v>1000</v>
@@ -5128,10 +5128,10 @@
         <v>2.68</v>
       </c>
       <c r="H35" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I35" t="n">
         <v>3.4</v>
-      </c>
-      <c r="I35" t="n">
-        <v>3.45</v>
       </c>
       <c r="J35" t="n">
         <v>3</v>
@@ -5146,7 +5146,7 @@
         <v>1.13</v>
       </c>
       <c r="N35" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="O35" t="n">
         <v>1.53</v>
@@ -5179,7 +5179,7 @@
         <v>8.4</v>
       </c>
       <c r="Y35" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z35" t="n">
         <v>20</v>
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="G36" t="n">
         <v>2.58</v>
@@ -5266,10 +5266,10 @@
         <v>3</v>
       </c>
       <c r="I36" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J36" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K36" t="n">
         <v>3.8</v>
@@ -5281,19 +5281,19 @@
         <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O36" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P36" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="Q36" t="n">
         <v>1.9</v>
       </c>
       <c r="R36" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S36" t="n">
         <v>3.3</v>
@@ -5302,10 +5302,10 @@
         <v>1.76</v>
       </c>
       <c r="U36" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V36" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W36" t="n">
         <v>1.63</v>
@@ -5314,13 +5314,13 @@
         <v>18</v>
       </c>
       <c r="Y36" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z36" t="n">
         <v>28</v>
       </c>
       <c r="AA36" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB36" t="n">
         <v>13</v>
@@ -5332,7 +5332,7 @@
         <v>17</v>
       </c>
       <c r="AE36" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF36" t="n">
         <v>19.5</v>
@@ -5353,16 +5353,16 @@
         <v>32</v>
       </c>
       <c r="AL36" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM36" t="n">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="AN36" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AO36" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37">
@@ -5395,16 +5395,16 @@
         <v>1.6</v>
       </c>
       <c r="G37" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="H37" t="n">
         <v>7.6</v>
       </c>
       <c r="I37" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J37" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K37" t="n">
         <v>4.1</v>
@@ -5425,7 +5425,7 @@
         <v>1.66</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="R37" t="n">
         <v>1.24</v>
@@ -5440,19 +5440,19 @@
         <v>1.67</v>
       </c>
       <c r="V37" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="W37" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="X37" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Y37" t="n">
         <v>20</v>
       </c>
       <c r="Z37" t="n">
-        <v>70</v>
+        <v>520</v>
       </c>
       <c r="AA37" t="n">
         <v>390</v>
@@ -5464,7 +5464,7 @@
         <v>9.4</v>
       </c>
       <c r="AD37" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="AE37" t="n">
         <v>200</v>
@@ -5476,7 +5476,7 @@
         <v>11</v>
       </c>
       <c r="AH37" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="n">
         <v>200</v>
@@ -5491,7 +5491,7 @@
         <v>60</v>
       </c>
       <c r="AM37" t="n">
-        <v>280</v>
+        <v>580</v>
       </c>
       <c r="AN37" t="n">
         <v>13.5</v>
@@ -5530,7 +5530,7 @@
         <v>1.64</v>
       </c>
       <c r="G38" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H38" t="n">
         <v>2.68</v>
@@ -5554,7 +5554,7 @@
         <v>1.24</v>
       </c>
       <c r="O38" t="n">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="P38" t="n">
         <v>1.24</v>
@@ -5569,7 +5569,7 @@
         <v>1.05</v>
       </c>
       <c r="T38" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U38" t="n">
         <v>1.89</v>
@@ -5578,7 +5578,7 @@
         <v>1.13</v>
       </c>
       <c r="W38" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="X38" t="n">
         <v>970</v>
@@ -5662,16 +5662,16 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="H39" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I39" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="J39" t="n">
         <v>3.3</v>
@@ -5689,7 +5689,7 @@
         <v>3.4</v>
       </c>
       <c r="O39" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P39" t="n">
         <v>1.99</v>
@@ -5710,10 +5710,10 @@
         <v>2.12</v>
       </c>
       <c r="V39" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="W39" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="X39" t="n">
         <v>970</v>
@@ -5722,22 +5722,22 @@
         <v>970</v>
       </c>
       <c r="Z39" t="n">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="AA39" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB39" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AC39" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AD39" t="n">
         <v>970</v>
       </c>
       <c r="AE39" t="n">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="AF39" t="n">
         <v>970</v>
@@ -5746,28 +5746,28 @@
         <v>970</v>
       </c>
       <c r="AH39" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="AI39" t="n">
-        <v>65</v>
+        <v>260</v>
       </c>
       <c r="AJ39" t="n">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="AK39" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="AL39" t="n">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AM39" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="AN39" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AO39" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40">
@@ -5797,22 +5797,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="G40" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H40" t="n">
         <v>1.81</v>
       </c>
       <c r="I40" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="J40" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K40" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L40" t="n">
         <v>1.33</v>
@@ -5821,37 +5821,37 @@
         <v>1.05</v>
       </c>
       <c r="N40" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O40" t="n">
         <v>1.24</v>
       </c>
       <c r="P40" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="R40" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S40" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T40" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="U40" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V40" t="n">
         <v>2.2</v>
       </c>
-      <c r="V40" t="n">
-        <v>2.16</v>
-      </c>
       <c r="W40" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X40" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y40" t="n">
         <v>11</v>
@@ -5872,7 +5872,7 @@
         <v>11</v>
       </c>
       <c r="AE40" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AF40" t="n">
         <v>40</v>
@@ -5884,25 +5884,25 @@
         <v>18.5</v>
       </c>
       <c r="AI40" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AJ40" t="n">
         <v>120</v>
       </c>
       <c r="AK40" t="n">
-        <v>55</v>
+        <v>330</v>
       </c>
       <c r="AL40" t="n">
         <v>60</v>
       </c>
       <c r="AM40" t="n">
-        <v>85</v>
+        <v>330</v>
       </c>
       <c r="AN40" t="n">
         <v>55</v>
       </c>
       <c r="AO40" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -5935,16 +5935,16 @@
         <v>1.46</v>
       </c>
       <c r="G41" t="n">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="H41" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="I41" t="n">
         <v>9.6</v>
       </c>
       <c r="J41" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="K41" t="n">
         <v>6</v>
@@ -5983,52 +5983,52 @@
         <v>1.11</v>
       </c>
       <c r="W41" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="X41" t="n">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="Y41" t="n">
+        <v>85</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>200</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>25</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>85</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>290</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>260</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>180</v>
+      </c>
+      <c r="AK41" t="n">
         <v>34</v>
       </c>
-      <c r="Z41" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>970</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>970</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>970</v>
-      </c>
       <c r="AL41" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AM41" t="n">
         <v>130</v>
@@ -6067,22 +6067,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G42" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="H42" t="n">
         <v>3.6</v>
       </c>
       <c r="I42" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J42" t="n">
         <v>3.3</v>
       </c>
       <c r="K42" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L42" t="n">
         <v>1.47</v>
@@ -6118,7 +6118,7 @@
         <v>1.33</v>
       </c>
       <c r="W42" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="X42" t="n">
         <v>12.5</v>
@@ -6127,7 +6127,7 @@
         <v>13</v>
       </c>
       <c r="Z42" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AA42" t="n">
         <v>85</v>
@@ -6154,7 +6154,7 @@
         <v>21</v>
       </c>
       <c r="AI42" t="n">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="AJ42" t="n">
         <v>36</v>
@@ -6166,13 +6166,13 @@
         <v>50</v>
       </c>
       <c r="AM42" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="AN42" t="n">
         <v>28</v>
       </c>
       <c r="AO42" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43">
@@ -6229,7 +6229,7 @@
         <v>6</v>
       </c>
       <c r="O43" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P43" t="n">
         <v>2.74</v>
@@ -6238,16 +6238,16 @@
         <v>1.4</v>
       </c>
       <c r="R43" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="S43" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="T43" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U43" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="V43" t="n">
         <v>1.25</v>
@@ -6256,58 +6256,58 @@
         <v>2.16</v>
       </c>
       <c r="X43" t="n">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="Y43" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="Z43" t="n">
-        <v>50</v>
+        <v>230</v>
       </c>
       <c r="AA43" t="n">
         <v>110</v>
       </c>
       <c r="AB43" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="AC43" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="AD43" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AE43" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="AF43" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="AG43" t="n">
         <v>13.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AI43" t="n">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="AJ43" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="AK43" t="n">
         <v>20</v>
       </c>
       <c r="AL43" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AM43" t="n">
-        <v>70</v>
+        <v>580</v>
       </c>
       <c r="AN43" t="n">
         <v>8</v>
       </c>
       <c r="AO43" t="n">
-        <v>38</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44">
@@ -6340,16 +6340,16 @@
         <v>2.76</v>
       </c>
       <c r="G44" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H44" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="I44" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="J44" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="K44" t="n">
         <v>3.65</v>
@@ -6385,64 +6385,64 @@
         <v>1.98</v>
       </c>
       <c r="V44" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="W44" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X44" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="Y44" t="n">
         <v>970</v>
       </c>
       <c r="Z44" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AA44" t="n">
-        <v>55</v>
+        <v>900</v>
       </c>
       <c r="AB44" t="n">
         <v>970</v>
       </c>
       <c r="AC44" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AD44" t="n">
         <v>970</v>
       </c>
       <c r="AE44" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AF44" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="AG44" t="n">
         <v>970</v>
       </c>
       <c r="AH44" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="AI44" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>260</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>70</v>
+      </c>
+      <c r="AO44" t="n">
         <v>60</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>46</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>40</v>
       </c>
     </row>
     <row r="45">
@@ -6472,16 +6472,16 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="G45" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="H45" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I45" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="J45" t="n">
         <v>3.1</v>
@@ -6496,16 +6496,16 @@
         <v>1.11</v>
       </c>
       <c r="N45" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="O45" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P45" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="R45" t="n">
         <v>1.22</v>
@@ -6520,64 +6520,64 @@
         <v>1.87</v>
       </c>
       <c r="V45" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W45" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="X45" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="Y45" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="AA45" t="n">
-        <v>65</v>
+        <v>530</v>
       </c>
       <c r="AB45" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC45" t="n">
         <v>7.2</v>
       </c>
       <c r="AD45" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>230</v>
+      </c>
+      <c r="AF45" t="n">
         <v>15</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>970</v>
       </c>
       <c r="AG45" t="n">
         <v>12.5</v>
       </c>
       <c r="AH45" t="n">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="AI45" t="n">
-        <v>70</v>
+        <v>380</v>
       </c>
       <c r="AJ45" t="n">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="AK45" t="n">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="AL45" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="AM45" t="n">
-        <v>190</v>
+        <v>580</v>
       </c>
       <c r="AN45" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AO45" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46">
@@ -6607,10 +6607,10 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="G46" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H46" t="n">
         <v>2.52</v>
@@ -6658,7 +6658,7 @@
         <v>1.57</v>
       </c>
       <c r="W46" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X46" t="n">
         <v>16</v>
@@ -6670,7 +6670,7 @@
         <v>22</v>
       </c>
       <c r="AA46" t="n">
-        <v>50</v>
+        <v>280</v>
       </c>
       <c r="AB46" t="n">
         <v>14</v>
@@ -6682,10 +6682,10 @@
         <v>15</v>
       </c>
       <c r="AE46" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AF46" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="AG46" t="n">
         <v>16</v>
@@ -6694,25 +6694,25 @@
         <v>21</v>
       </c>
       <c r="AI46" t="n">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="AJ46" t="n">
+        <v>280</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>170</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN46" t="n">
         <v>60</v>
       </c>
-      <c r="AK46" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>34</v>
-      </c>
       <c r="AO46" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47">
@@ -6742,16 +6742,16 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="G47" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H47" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="I47" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="J47" t="n">
         <v>4</v>
@@ -6790,7 +6790,7 @@
         <v>2.78</v>
       </c>
       <c r="V47" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="W47" t="n">
         <v>1.4</v>
@@ -6799,7 +6799,7 @@
         <v>1000</v>
       </c>
       <c r="Y47" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z47" t="n">
         <v>22</v>
@@ -6808,7 +6808,7 @@
         <v>32</v>
       </c>
       <c r="AB47" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AC47" t="n">
         <v>13.5</v>
@@ -6826,22 +6826,22 @@
         <v>19</v>
       </c>
       <c r="AH47" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="AI47" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AJ47" t="n">
         <v>1000</v>
       </c>
       <c r="AK47" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL47" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM47" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN47" t="n">
         <v>21</v>
@@ -6883,7 +6883,7 @@
         <v>1.56</v>
       </c>
       <c r="H48" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I48" t="n">
         <v>7.4</v>
@@ -6913,7 +6913,7 @@
         <v>1.31</v>
       </c>
       <c r="R48" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="S48" t="n">
         <v>1.83</v>
@@ -6934,10 +6934,10 @@
         <v>60</v>
       </c>
       <c r="Y48" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="Z48" t="n">
-        <v>70</v>
+        <v>470</v>
       </c>
       <c r="AA48" t="n">
         <v>170</v>
@@ -6949,10 +6949,10 @@
         <v>16.5</v>
       </c>
       <c r="AD48" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE48" t="n">
-        <v>65</v>
+        <v>420</v>
       </c>
       <c r="AF48" t="n">
         <v>16.5</v>
@@ -6961,28 +6961,28 @@
         <v>12</v>
       </c>
       <c r="AH48" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AI48" t="n">
         <v>1000</v>
       </c>
       <c r="AJ48" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AK48" t="n">
         <v>14.5</v>
       </c>
       <c r="AL48" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="AM48" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="AN48" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="AO48" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49">
@@ -7012,88 +7012,88 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="G49" t="n">
-        <v>1.97</v>
+        <v>1.74</v>
       </c>
       <c r="H49" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="I49" t="n">
-        <v>7.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J49" t="n">
-        <v>2.92</v>
+        <v>3.25</v>
       </c>
       <c r="K49" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="L49" t="n">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="M49" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="R49" t="n">
         <v>1.15</v>
-      </c>
-      <c r="N49" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="O49" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P49" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="R49" t="n">
-        <v>1.14</v>
       </c>
       <c r="S49" t="n">
         <v>6</v>
       </c>
       <c r="T49" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="U49" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="V49" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="W49" t="n">
-        <v>2.02</v>
+        <v>2.34</v>
       </c>
       <c r="X49" t="n">
         <v>8.4</v>
       </c>
       <c r="Y49" t="n">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA49" t="n">
         <v>1000</v>
       </c>
       <c r="AB49" t="n">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="AC49" t="n">
         <v>9.4</v>
       </c>
       <c r="AD49" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AE49" t="n">
         <v>1000</v>
       </c>
       <c r="AF49" t="n">
-        <v>11</v>
+        <v>8.6</v>
       </c>
       <c r="AG49" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH49" t="n">
         <v>42</v>
@@ -7102,10 +7102,10 @@
         <v>1000</v>
       </c>
       <c r="AJ49" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AK49" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="AL49" t="n">
         <v>1000</v>
@@ -7114,7 +7114,7 @@
         <v>1000</v>
       </c>
       <c r="AN49" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AO49" t="n">
         <v>1000</v>
@@ -7147,13 +7147,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="G50" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="H50" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I50" t="n">
         <v>4.3</v>
@@ -7171,16 +7171,16 @@
         <v>1.1</v>
       </c>
       <c r="N50" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O50" t="n">
         <v>1.45</v>
       </c>
       <c r="P50" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R50" t="n">
         <v>1.25</v>
@@ -7189,16 +7189,16 @@
         <v>4.5</v>
       </c>
       <c r="T50" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U50" t="n">
         <v>1.92</v>
       </c>
       <c r="V50" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W50" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X50" t="n">
         <v>11</v>
@@ -7207,13 +7207,13 @@
         <v>12.5</v>
       </c>
       <c r="Z50" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AA50" t="n">
         <v>110</v>
       </c>
       <c r="AB50" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC50" t="n">
         <v>7.2</v>
@@ -7222,31 +7222,31 @@
         <v>17</v>
       </c>
       <c r="AE50" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AF50" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AG50" t="n">
         <v>11</v>
       </c>
       <c r="AH50" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="AI50" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AJ50" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AK50" t="n">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="AL50" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="AM50" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="AN50" t="n">
         <v>25</v>
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="G51" t="n">
         <v>1.72</v>
@@ -7291,13 +7291,13 @@
         <v>5.4</v>
       </c>
       <c r="I51" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J51" t="n">
         <v>4.1</v>
       </c>
       <c r="K51" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L51" t="n">
         <v>1.44</v>
@@ -7312,10 +7312,10 @@
         <v>1.37</v>
       </c>
       <c r="P51" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R51" t="n">
         <v>1.29</v>
@@ -7327,22 +7327,22 @@
         <v>2.02</v>
       </c>
       <c r="U51" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V51" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W51" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="X51" t="n">
         <v>13.5</v>
       </c>
       <c r="Y51" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="Z51" t="n">
-        <v>55</v>
+        <v>270</v>
       </c>
       <c r="AA51" t="n">
         <v>230</v>
@@ -7351,43 +7351,43 @@
         <v>7.6</v>
       </c>
       <c r="AC51" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AD51" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="AE51" t="n">
-        <v>130</v>
+        <v>480</v>
       </c>
       <c r="AF51" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AG51" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AH51" t="n">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="AI51" t="n">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="AJ51" t="n">
         <v>970</v>
       </c>
       <c r="AK51" t="n">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="AL51" t="n">
-        <v>46</v>
+        <v>300</v>
       </c>
       <c r="AM51" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN51" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AO51" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="52">
@@ -7423,10 +7423,10 @@
         <v>5.5</v>
       </c>
       <c r="H52" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="I52" t="n">
         <v>1.83</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1.84</v>
       </c>
       <c r="J52" t="n">
         <v>3.7</v>
@@ -7441,7 +7441,7 @@
         <v>1.09</v>
       </c>
       <c r="N52" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O52" t="n">
         <v>1.4</v>
@@ -7453,7 +7453,7 @@
         <v>2.24</v>
       </c>
       <c r="R52" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S52" t="n">
         <v>4.1</v>
@@ -7465,13 +7465,13 @@
         <v>1.9</v>
       </c>
       <c r="V52" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="W52" t="n">
         <v>1.22</v>
       </c>
       <c r="X52" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y52" t="n">
         <v>7.4</v>
@@ -7483,7 +7483,7 @@
         <v>19</v>
       </c>
       <c r="AB52" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC52" t="n">
         <v>8</v>
@@ -7561,10 +7561,10 @@
         <v>2.48</v>
       </c>
       <c r="I53" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="J53" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="K53" t="n">
         <v>3</v>
@@ -7579,46 +7579,46 @@
         <v>2.42</v>
       </c>
       <c r="O53" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="P53" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="Q53" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="R53" t="n">
         <v>1.16</v>
       </c>
       <c r="S53" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="T53" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="U53" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="V53" t="n">
         <v>1.63</v>
       </c>
       <c r="W53" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X53" t="n">
         <v>7.4</v>
       </c>
       <c r="Y53" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="Z53" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AA53" t="n">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="AB53" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC53" t="n">
         <v>7</v>
@@ -7630,7 +7630,7 @@
         <v>42</v>
       </c>
       <c r="AF53" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG53" t="n">
         <v>19</v>
@@ -7639,13 +7639,13 @@
         <v>28</v>
       </c>
       <c r="AI53" t="n">
-        <v>80</v>
+        <v>480</v>
       </c>
       <c r="AJ53" t="n">
         <v>1000</v>
       </c>
       <c r="AK53" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AL53" t="n">
         <v>130</v>
@@ -7657,7 +7657,7 @@
         <v>130</v>
       </c>
       <c r="AO53" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54">
@@ -7711,7 +7711,7 @@
         <v>1.08</v>
       </c>
       <c r="N54" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="O54" t="n">
         <v>1.42</v>
@@ -7744,13 +7744,13 @@
         <v>13.5</v>
       </c>
       <c r="Y54" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="Z54" t="n">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="AA54" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AB54" t="n">
         <v>8.6</v>
@@ -7759,37 +7759,37 @@
         <v>9.6</v>
       </c>
       <c r="AD54" t="n">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="AE54" t="n">
-        <v>110</v>
+        <v>480</v>
       </c>
       <c r="AF54" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="AG54" t="n">
         <v>13</v>
       </c>
       <c r="AH54" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AI54" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="AJ54" t="n">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="AK54" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="AL54" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="AM54" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN54" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="AO54" t="n">
         <v>150</v>
@@ -7822,22 +7822,22 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="G55" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="H55" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="I55" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="J55" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K55" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L55" t="n">
         <v>1.35</v>
@@ -7846,13 +7846,13 @@
         <v>1.05</v>
       </c>
       <c r="N55" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O55" t="n">
         <v>1.25</v>
       </c>
       <c r="P55" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q55" t="n">
         <v>1.76</v>
@@ -7864,25 +7864,25 @@
         <v>2.92</v>
       </c>
       <c r="T55" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U55" t="n">
         <v>2.22</v>
       </c>
       <c r="V55" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="W55" t="n">
         <v>1.22</v>
       </c>
       <c r="X55" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y55" t="n">
         <v>9.4</v>
       </c>
       <c r="Z55" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA55" t="n">
         <v>17.5</v>
@@ -7903,16 +7903,16 @@
         <v>42</v>
       </c>
       <c r="AG55" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AH55" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI55" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ55" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AK55" t="n">
         <v>65</v>
@@ -7927,7 +7927,7 @@
         <v>60</v>
       </c>
       <c r="AO55" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="56">
@@ -7957,22 +7957,22 @@
         </is>
       </c>
       <c r="F56" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G56" t="n">
         <v>1.78</v>
       </c>
-      <c r="G56" t="n">
-        <v>1.79</v>
-      </c>
       <c r="H56" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I56" t="n">
         <v>5.5</v>
       </c>
       <c r="J56" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K56" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L56" t="n">
         <v>1.42</v>
@@ -7981,34 +7981,34 @@
         <v>1.07</v>
       </c>
       <c r="N56" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O56" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P56" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="R56" t="n">
         <v>1.36</v>
       </c>
       <c r="S56" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T56" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="U56" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V56" t="n">
         <v>1.22</v>
       </c>
       <c r="W56" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="X56" t="n">
         <v>14</v>
@@ -8023,7 +8023,7 @@
         <v>140</v>
       </c>
       <c r="AB56" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC56" t="n">
         <v>8.6</v>
@@ -8041,7 +8041,7 @@
         <v>9.6</v>
       </c>
       <c r="AH56" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI56" t="n">
         <v>80</v>
@@ -8050,16 +8050,16 @@
         <v>19</v>
       </c>
       <c r="AK56" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL56" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM56" t="n">
         <v>120</v>
       </c>
       <c r="AN56" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO56" t="n">
         <v>90</v>
@@ -8098,10 +8098,10 @@
         <v>2.98</v>
       </c>
       <c r="H57" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="I57" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="J57" t="n">
         <v>3.05</v>
@@ -8113,16 +8113,16 @@
         <v>1.61</v>
       </c>
       <c r="M57" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="N57" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="O57" t="n">
         <v>1.56</v>
       </c>
       <c r="P57" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q57" t="n">
         <v>2.64</v>
@@ -8134,31 +8134,31 @@
         <v>5.7</v>
       </c>
       <c r="T57" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="U57" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="V57" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W57" t="n">
         <v>1.5</v>
       </c>
       <c r="X57" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y57" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Z57" t="n">
         <v>18.5</v>
       </c>
       <c r="AA57" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AB57" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC57" t="n">
         <v>7</v>
@@ -8167,10 +8167,10 @@
         <v>14.5</v>
       </c>
       <c r="AE57" t="n">
-        <v>46</v>
+        <v>290</v>
       </c>
       <c r="AF57" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG57" t="n">
         <v>14.5</v>
@@ -8179,25 +8179,25 @@
         <v>24</v>
       </c>
       <c r="AI57" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AJ57" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AK57" t="n">
-        <v>48</v>
+        <v>440</v>
       </c>
       <c r="AL57" t="n">
-        <v>75</v>
+        <v>480</v>
       </c>
       <c r="AM57" t="n">
         <v>220</v>
       </c>
       <c r="AN57" t="n">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="AO57" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58">
@@ -8233,16 +8233,16 @@
         <v>3.7</v>
       </c>
       <c r="H58" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="I58" t="n">
         <v>2.52</v>
       </c>
       <c r="J58" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K58" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="L58" t="n">
         <v>1.37</v>
@@ -8254,7 +8254,7 @@
         <v>3.2</v>
       </c>
       <c r="O58" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P58" t="n">
         <v>1.78</v>
@@ -8281,58 +8281,58 @@
         <v>1.37</v>
       </c>
       <c r="X58" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="Y58" t="n">
         <v>11</v>
       </c>
       <c r="Z58" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AA58" t="n">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="AB58" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AC58" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD58" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AE58" t="n">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="AF58" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="AG58" t="n">
         <v>970</v>
       </c>
       <c r="AH58" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="AI58" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="AJ58" t="n">
-        <v>65</v>
+        <v>530</v>
       </c>
       <c r="AK58" t="n">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="AL58" t="n">
+        <v>300</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>90</v>
+      </c>
+      <c r="AO58" t="n">
         <v>60</v>
-      </c>
-      <c r="AM58" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN58" t="n">
-        <v>44</v>
-      </c>
-      <c r="AO58" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="59">
@@ -8362,112 +8362,112 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G59" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="H59" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I59" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J59" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K59" t="n">
         <v>3.95</v>
       </c>
-      <c r="J59" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K59" t="n">
-        <v>4.1</v>
-      </c>
       <c r="L59" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="M59" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N59" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="O59" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="P59" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q59" t="n">
         <v>1.87</v>
       </c>
-      <c r="Q59" t="n">
-        <v>1.94</v>
-      </c>
       <c r="R59" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="S59" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="T59" t="n">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="U59" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="V59" t="n">
         <v>1.34</v>
       </c>
       <c r="W59" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="X59" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y59" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="Z59" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AA59" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB59" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC59" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD59" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="AE59" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AF59" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG59" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH59" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AI59" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="AJ59" t="n">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="AK59" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL59" t="n">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="AM59" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="AN59" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AO59" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60">
@@ -8497,55 +8497,55 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="G60" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="H60" t="n">
-        <v>1.04</v>
+        <v>6</v>
       </c>
       <c r="I60" t="n">
         <v>1000</v>
       </c>
       <c r="J60" t="n">
-        <v>1.02</v>
+        <v>3.7</v>
       </c>
       <c r="K60" t="n">
         <v>950</v>
       </c>
       <c r="L60" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="M60" t="n">
         <v>1.01</v>
       </c>
       <c r="N60" t="n">
-        <v>1.01</v>
+        <v>4.4</v>
       </c>
       <c r="O60" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="P60" t="n">
-        <v>1.25</v>
+        <v>4.4</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="R60" t="n">
-        <v>1.52</v>
+        <v>2.04</v>
       </c>
       <c r="S60" t="n">
         <v>1.56</v>
       </c>
       <c r="T60" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U60" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V60" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="W60" t="n">
         <v>1.01</v>
@@ -8599,7 +8599,7 @@
         <v>1000</v>
       </c>
       <c r="AN60" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO60" t="n">
         <v>1000</v>
@@ -8662,7 +8662,7 @@
         <v>1.41</v>
       </c>
       <c r="P61" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q61" t="n">
         <v>2.2</v>
@@ -8767,46 +8767,46 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.38</v>
+        <v>2.16</v>
       </c>
       <c r="G62" t="n">
-        <v>2.74</v>
+        <v>2.42</v>
       </c>
       <c r="H62" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="I62" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="J62" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K62" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="L62" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="M62" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N62" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="O62" t="n">
         <v>1.41</v>
       </c>
       <c r="P62" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="R62" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S62" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T62" t="n">
         <v>1.88</v>
@@ -8815,64 +8815,64 @@
         <v>1.91</v>
       </c>
       <c r="V62" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="W62" t="n">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="X62" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y62" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z62" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA62" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI62" t="n">
         <v>80</v>
       </c>
-      <c r="AB62" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC62" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE62" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF62" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG62" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH62" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI62" t="n">
-        <v>75</v>
-      </c>
       <c r="AJ62" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AK62" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL62" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM62" t="n">
         <v>160</v>
       </c>
       <c r="AN62" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AO62" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-08.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="G2" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="H2" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L2" t="n">
         <v>1.45</v>
@@ -691,34 +691,34 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P2" t="n">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="S2" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="T2" t="n">
         <v>2</v>
       </c>
       <c r="U2" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="V2" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W2" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="X2" t="n">
         <v>13.5</v>
@@ -727,7 +727,7 @@
         <v>32</v>
       </c>
       <c r="Z2" t="n">
-        <v>50</v>
+        <v>270</v>
       </c>
       <c r="AA2" t="n">
         <v>200</v>
@@ -736,22 +736,22 @@
         <v>7.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="AE2" t="n">
-        <v>250</v>
+        <v>480</v>
       </c>
       <c r="AF2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG2" t="n">
         <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI2" t="n">
         <v>290</v>
@@ -763,16 +763,16 @@
         <v>38</v>
       </c>
       <c r="AL2" t="n">
-        <v>290</v>
+        <v>110</v>
       </c>
       <c r="AM2" t="n">
         <v>580</v>
       </c>
       <c r="AN2" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3">
@@ -802,79 +802,79 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="G3" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="H3" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="I3" t="n">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="J3" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N3" t="n">
         <v>3.25</v>
       </c>
-      <c r="K3" t="n">
-        <v>5</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.65</v>
-      </c>
       <c r="O3" t="n">
-        <v>1.07</v>
+        <v>1.37</v>
       </c>
       <c r="P3" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="R3" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="S3" t="n">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.95</v>
       </c>
       <c r="V3" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="W3" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB3" t="n">
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -886,10 +886,10 @@
         <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -898,7 +898,7 @@
         <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -961,7 +961,7 @@
         <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O4" t="n">
         <v>1.19</v>
@@ -970,13 +970,13 @@
         <v>2.58</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="R4" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S4" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="T4" t="n">
         <v>1.77</v>
@@ -991,34 +991,34 @@
         <v>1.16</v>
       </c>
       <c r="X4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA4" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="AC4" t="n">
         <v>13</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE4" t="n">
         <v>14</v>
       </c>
       <c r="AF4" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AH4" t="n">
         <v>24</v>
@@ -1030,7 +1030,7 @@
         <v>210</v>
       </c>
       <c r="AK4" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AL4" t="n">
         <v>80</v>
@@ -1039,10 +1039,10 @@
         <v>100</v>
       </c>
       <c r="AN4" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AO4" t="n">
-        <v>6.8</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="5">
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.47</v>
+        <v>1.61</v>
       </c>
       <c r="G5" t="n">
         <v>2.1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
         <v>44</v>
@@ -1087,7 +1087,7 @@
         <v>3.55</v>
       </c>
       <c r="K5" t="n">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="L5" t="n">
         <v>1.3</v>
@@ -1096,10 +1096,10 @@
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="P5" t="n">
         <v>1.6</v>
@@ -1114,13 +1114,13 @@
         <v>1.7</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="W5" t="n">
         <v>1.9</v>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="G6" t="n">
         <v>6.2</v>
       </c>
       <c r="H6" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="I6" t="n">
         <v>2.02</v>
@@ -1222,16 +1222,16 @@
         <v>3.15</v>
       </c>
       <c r="K6" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M6" t="n">
         <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="O6" t="n">
         <v>1.48</v>
@@ -1240,19 +1240,19 @@
         <v>1.57</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R6" t="n">
         <v>1.2</v>
       </c>
       <c r="S6" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="T6" t="n">
         <v>2.12</v>
       </c>
       <c r="U6" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="V6" t="n">
         <v>1.98</v>
@@ -1261,10 +1261,10 @@
         <v>1.2</v>
       </c>
       <c r="X6" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.2</v>
+        <v>13.5</v>
       </c>
       <c r="Z6" t="n">
         <v>40</v>
@@ -1276,7 +1276,7 @@
         <v>970</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.4</v>
+        <v>40</v>
       </c>
       <c r="AD6" t="n">
         <v>970</v>
@@ -1312,7 +1312,7 @@
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>25</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7">
@@ -1348,22 +1348,22 @@
         <v>1.28</v>
       </c>
       <c r="H7" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="I7" t="n">
         <v>18</v>
       </c>
       <c r="J7" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="K7" t="n">
         <v>7.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
         <v>4.8</v>
@@ -1378,10 +1378,10 @@
         <v>1.62</v>
       </c>
       <c r="R7" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="S7" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="T7" t="n">
         <v>2.26</v>
@@ -1390,61 +1390,61 @@
         <v>1.76</v>
       </c>
       <c r="V7" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W7" t="n">
         <v>4.5</v>
       </c>
       <c r="X7" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="Y7" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="Z7" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AD7" t="n">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="AE7" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="AF7" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
         <v>75</v>
       </c>
       <c r="AI7" t="n">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AK7" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>48</v>
+        <v>250</v>
       </c>
       <c r="AM7" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.8</v>
+        <v>4.7</v>
       </c>
       <c r="AO7" t="n">
         <v>610</v>
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G8" t="n">
         <v>1.64</v>
       </c>
-      <c r="G8" t="n">
-        <v>1.65</v>
-      </c>
       <c r="H8" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I8" t="n">
         <v>8</v>
@@ -1492,67 +1492,67 @@
         <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="O8" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P8" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="R8" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S8" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="T8" t="n">
         <v>2.04</v>
       </c>
       <c r="U8" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="V8" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W8" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="X8" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z8" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AA8" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AB8" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE8" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="AF8" t="n">
         <v>8.800000000000001</v>
@@ -1561,25 +1561,25 @@
         <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="AI8" t="n">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="AJ8" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL8" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AM8" t="n">
         <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO8" t="n">
         <v>190</v>
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="G9" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I9" t="n">
         <v>4.2</v>
       </c>
       <c r="J9" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="K9" t="n">
         <v>3.5</v>
@@ -1636,22 +1636,22 @@
         <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>2.86</v>
+        <v>2.36</v>
       </c>
       <c r="O9" t="n">
-        <v>1.46</v>
+        <v>1.09</v>
       </c>
       <c r="P9" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="R9" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="S9" t="n">
-        <v>4.2</v>
+        <v>3.55</v>
       </c>
       <c r="T9" t="n">
         <v>1.98</v>
@@ -1660,13 +1660,13 @@
         <v>1.84</v>
       </c>
       <c r="V9" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W9" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="X9" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="Y9" t="n">
         <v>970</v>
@@ -1678,13 +1678,13 @@
         <v>900</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.6</v>
+        <v>970</v>
       </c>
       <c r="AC9" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="AD9" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AE9" t="n">
         <v>380</v>
@@ -1693,10 +1693,10 @@
         <v>970</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AH9" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI9" t="n">
         <v>400</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="G10" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="H10" t="n">
         <v>3.25</v>
@@ -1759,46 +1759,46 @@
         <v>3.8</v>
       </c>
       <c r="J10" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N10" t="n">
         <v>2.88</v>
       </c>
-      <c r="K10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.68</v>
-      </c>
       <c r="O10" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="P10" t="n">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.36</v>
+        <v>2.1</v>
       </c>
       <c r="R10" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="S10" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="T10" t="n">
-        <v>1.99</v>
+        <v>1.91</v>
       </c>
       <c r="U10" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="V10" t="n">
         <v>1.36</v>
       </c>
       <c r="W10" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="X10" t="n">
         <v>11</v>
@@ -1807,7 +1807,7 @@
         <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AA10" t="n">
         <v>900</v>
@@ -1819,19 +1819,19 @@
         <v>8.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AE10" t="n">
-        <v>65</v>
+        <v>370</v>
       </c>
       <c r="AF10" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
         <v>400</v>
@@ -1840,16 +1840,16 @@
         <v>110</v>
       </c>
       <c r="AK10" t="n">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AL10" t="n">
         <v>400</v>
       </c>
       <c r="AM10" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="AN10" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AO10" t="n">
         <v>170</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="G11" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H11" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="I11" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="J11" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K11" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L11" t="n">
         <v>1.39</v>
@@ -1915,7 +1915,7 @@
         <v>1.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="R11" t="n">
         <v>1.26</v>
@@ -1924,37 +1924,37 @@
         <v>3.6</v>
       </c>
       <c r="T11" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U11" t="n">
         <v>1.96</v>
       </c>
       <c r="V11" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="W11" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="X11" t="n">
         <v>970</v>
       </c>
       <c r="Y11" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="Z11" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AA11" t="n">
         <v>900</v>
       </c>
       <c r="AB11" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="AD11" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AE11" t="n">
         <v>120</v>
@@ -1966,7 +1966,7 @@
         <v>970</v>
       </c>
       <c r="AH11" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI11" t="n">
         <v>300</v>
@@ -1984,10 +1984,10 @@
         <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AO11" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="G12" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J12" t="n">
         <v>2.94</v>
@@ -2065,13 +2065,13 @@
         <v>1.71</v>
       </c>
       <c r="V12" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="W12" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="X12" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y12" t="n">
         <v>12</v>
@@ -2083,7 +2083,7 @@
         <v>900</v>
       </c>
       <c r="AB12" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="AC12" t="n">
         <v>7.6</v>
@@ -2092,7 +2092,7 @@
         <v>20</v>
       </c>
       <c r="AE12" t="n">
-        <v>85</v>
+        <v>210</v>
       </c>
       <c r="AF12" t="n">
         <v>13</v>
@@ -2101,16 +2101,16 @@
         <v>12.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="AI12" t="n">
         <v>290</v>
       </c>
       <c r="AJ12" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AK12" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AL12" t="n">
         <v>480</v>
@@ -2119,7 +2119,7 @@
         <v>250</v>
       </c>
       <c r="AN12" t="n">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="AO12" t="n">
         <v>360</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="G13" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="H13" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="I13" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="J13" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K13" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L13" t="n">
         <v>1.31</v>
@@ -2185,7 +2185,7 @@
         <v>2.02</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="R13" t="n">
         <v>1.39</v>
@@ -2200,10 +2200,10 @@
         <v>2.04</v>
       </c>
       <c r="V13" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="W13" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="X13" t="n">
         <v>970</v>
@@ -2212,7 +2212,7 @@
         <v>11</v>
       </c>
       <c r="Z13" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="AA13" t="n">
         <v>50</v>
@@ -2233,10 +2233,10 @@
         <v>120</v>
       </c>
       <c r="AG13" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AH13" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AI13" t="n">
         <v>150</v>
@@ -2257,7 +2257,7 @@
         <v>310</v>
       </c>
       <c r="AO13" t="n">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="G14" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H14" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="I14" t="n">
         <v>6.8</v>
       </c>
       <c r="J14" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L14" t="n">
         <v>1.37</v>
@@ -2320,7 +2320,7 @@
         <v>1.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="R14" t="n">
         <v>1.28</v>
@@ -2329,16 +2329,16 @@
         <v>3.4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U14" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="V14" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="W14" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="X14" t="n">
         <v>90</v>
@@ -2353,10 +2353,10 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>16.5</v>
+        <v>29</v>
       </c>
       <c r="AC14" t="n">
-        <v>16.5</v>
+        <v>42</v>
       </c>
       <c r="AD14" t="n">
         <v>65</v>
@@ -2365,10 +2365,10 @@
         <v>480</v>
       </c>
       <c r="AF14" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AG14" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="AH14" t="n">
         <v>65</v>
@@ -2377,7 +2377,7 @@
         <v>380</v>
       </c>
       <c r="AJ14" t="n">
-        <v>900</v>
+        <v>970</v>
       </c>
       <c r="AK14" t="n">
         <v>70</v>
@@ -2425,13 +2425,13 @@
         <v>2.46</v>
       </c>
       <c r="G15" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I15" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J15" t="n">
         <v>2.82</v>
@@ -2470,22 +2470,22 @@
         <v>1.72</v>
       </c>
       <c r="V15" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W15" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="X15" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="Y15" t="n">
         <v>11</v>
       </c>
       <c r="Z15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA15" t="n">
-        <v>95</v>
+        <v>900</v>
       </c>
       <c r="AB15" t="n">
         <v>8.800000000000001</v>
@@ -2494,10 +2494,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD15" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="AF15" t="n">
         <v>16</v>
@@ -2506,7 +2506,7 @@
         <v>15.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI15" t="n">
         <v>480</v>
@@ -2515,7 +2515,7 @@
         <v>50</v>
       </c>
       <c r="AK15" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL15" t="n">
         <v>80</v>
@@ -2557,40 +2557,40 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="G16" t="n">
-        <v>2.26</v>
+        <v>2.14</v>
       </c>
       <c r="H16" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="I16" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K16" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="L16" t="n">
         <v>1.46</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O16" t="n">
         <v>1.38</v>
       </c>
       <c r="P16" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R16" t="n">
         <v>1.3</v>
@@ -2599,70 +2599,70 @@
         <v>4</v>
       </c>
       <c r="T16" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W16" t="n">
         <v>1.87</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.79</v>
       </c>
       <c r="X16" t="n">
         <v>12.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AA16" t="n">
-        <v>85</v>
+        <v>270</v>
       </c>
       <c r="AB16" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>130</v>
+        <v>370</v>
       </c>
       <c r="AF16" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AG16" t="n">
         <v>11.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI16" t="n">
         <v>380</v>
       </c>
       <c r="AJ16" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AK16" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL16" t="n">
-        <v>290</v>
+        <v>44</v>
       </c>
       <c r="AM16" t="n">
         <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>65</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17">
@@ -2692,58 +2692,58 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G17" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="H17" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="I17" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="J17" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K17" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>1.82</v>
+        <v>3.35</v>
       </c>
       <c r="O17" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="P17" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.87</v>
+        <v>2.1</v>
       </c>
       <c r="R17" t="n">
         <v>1.29</v>
       </c>
       <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U17" t="n">
         <v>1.88</v>
       </c>
-      <c r="T17" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.04</v>
-      </c>
       <c r="V17" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="W17" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2782,7 +2782,7 @@
         <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AK17" t="n">
         <v>1000</v>
@@ -2845,7 +2845,7 @@
         <v>3.05</v>
       </c>
       <c r="L18" t="n">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="M18" t="n">
         <v>1.12</v>
@@ -2896,10 +2896,10 @@
         <v>10.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE18" t="n">
         <v>150</v>
@@ -2911,13 +2911,13 @@
         <v>30</v>
       </c>
       <c r="AH18" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI18" t="n">
         <v>480</v>
       </c>
       <c r="AJ18" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AK18" t="n">
         <v>450</v>
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="G19" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="H19" t="n">
         <v>7</v>
       </c>
       <c r="I19" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="J19" t="n">
         <v>4</v>
@@ -2986,43 +2986,43 @@
         <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O19" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P19" t="n">
         <v>1.77</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R19" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S19" t="n">
         <v>4.1</v>
       </c>
       <c r="T19" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="U19" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="V19" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="W19" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="X19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y19" t="n">
         <v>21</v>
       </c>
       <c r="Z19" t="n">
-        <v>520</v>
+        <v>160</v>
       </c>
       <c r="AA19" t="n">
         <v>330</v>
@@ -3031,22 +3031,22 @@
         <v>7.2</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="AE19" t="n">
         <v>170</v>
       </c>
       <c r="AF19" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AG19" t="n">
         <v>11</v>
       </c>
       <c r="AH19" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="AI19" t="n">
         <v>160</v>
@@ -3058,7 +3058,7 @@
         <v>21</v>
       </c>
       <c r="AL19" t="n">
-        <v>370</v>
+        <v>50</v>
       </c>
       <c r="AM19" t="n">
         <v>580</v>
@@ -3067,7 +3067,7 @@
         <v>12.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20">
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="G20" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H20" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I20" t="n">
         <v>3.75</v>
@@ -3142,19 +3142,19 @@
         <v>1.77</v>
       </c>
       <c r="U20" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V20" t="n">
         <v>1.36</v>
       </c>
       <c r="W20" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X20" t="n">
         <v>13.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z20" t="n">
         <v>27</v>
@@ -3172,28 +3172,28 @@
         <v>16</v>
       </c>
       <c r="AE20" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF20" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG20" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH20" t="n">
         <v>17.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="AJ20" t="n">
         <v>34</v>
       </c>
       <c r="AK20" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AL20" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="AM20" t="n">
         <v>580</v>
@@ -3259,13 +3259,13 @@
         <v>2.84</v>
       </c>
       <c r="O21" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P21" t="n">
         <v>1.61</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="R21" t="n">
         <v>1.22</v>
@@ -3277,7 +3277,7 @@
         <v>2.06</v>
       </c>
       <c r="U21" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="V21" t="n">
         <v>1.4</v>
@@ -3319,7 +3319,7 @@
         <v>21</v>
       </c>
       <c r="AI21" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ21" t="n">
         <v>38</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="G22" t="n">
         <v>2.14</v>
@@ -3376,7 +3376,7 @@
         <v>4.3</v>
       </c>
       <c r="I22" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="J22" t="n">
         <v>3.15</v>
@@ -3409,7 +3409,7 @@
         <v>4.1</v>
       </c>
       <c r="T22" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U22" t="n">
         <v>1.82</v>
@@ -3427,7 +3427,7 @@
         <v>14.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA22" t="n">
         <v>1000</v>
@@ -3526,19 +3526,19 @@
         <v>1.12</v>
       </c>
       <c r="N23" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="O23" t="n">
         <v>1.48</v>
       </c>
       <c r="P23" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q23" t="n">
         <v>2.46</v>
       </c>
       <c r="R23" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S23" t="n">
         <v>4.8</v>
@@ -3547,7 +3547,7 @@
         <v>2.02</v>
       </c>
       <c r="U23" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V23" t="n">
         <v>1.34</v>
@@ -3568,16 +3568,16 @@
         <v>80</v>
       </c>
       <c r="AB23" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC23" t="n">
         <v>7.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>30</v>
+        <v>16.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>470</v>
+        <v>150</v>
       </c>
       <c r="AF23" t="n">
         <v>13</v>
@@ -3589,7 +3589,7 @@
         <v>25</v>
       </c>
       <c r="AI23" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ23" t="n">
         <v>34</v>
@@ -3649,40 +3649,40 @@
         <v>14</v>
       </c>
       <c r="J24" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="K24" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M24" t="n">
         <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>2.32</v>
+        <v>4.3</v>
       </c>
       <c r="O24" t="n">
         <v>1.25</v>
       </c>
       <c r="P24" t="n">
-        <v>1.92</v>
+        <v>2.14</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="R24" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="S24" t="n">
-        <v>2.32</v>
+        <v>2.8</v>
       </c>
       <c r="T24" t="n">
-        <v>1.04</v>
+        <v>2.16</v>
       </c>
       <c r="U24" t="n">
-        <v>1.04</v>
+        <v>1.72</v>
       </c>
       <c r="V24" t="n">
         <v>1.08</v>
@@ -3691,58 +3691,58 @@
         <v>3.85</v>
       </c>
       <c r="X24" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="Y24" t="n">
         <v>110</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AA24" t="n">
         <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>970</v>
+        <v>8.4</v>
       </c>
       <c r="AC24" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="AD24" t="n">
         <v>300</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AF24" t="n">
-        <v>970</v>
+        <v>8.4</v>
       </c>
       <c r="AG24" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AJ24" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AK24" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AL24" t="n">
-        <v>250</v>
+        <v>46</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN24" t="n">
-        <v>29</v>
+        <v>5.9</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
     </row>
     <row r="25">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="G25" t="n">
         <v>2.48</v>
@@ -3781,13 +3781,13 @@
         <v>3.25</v>
       </c>
       <c r="I25" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K25" t="n">
         <v>3.5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.55</v>
       </c>
       <c r="L25" t="n">
         <v>1.46</v>
@@ -3826,46 +3826,46 @@
         <v>1.67</v>
       </c>
       <c r="X25" t="n">
-        <v>14.5</v>
+        <v>22</v>
       </c>
       <c r="Y25" t="n">
-        <v>14.5</v>
+        <v>25</v>
       </c>
       <c r="Z25" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="AA25" t="n">
         <v>900</v>
       </c>
       <c r="AB25" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.199999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AE25" t="n">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="AF25" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AH25" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="AI25" t="n">
         <v>380</v>
       </c>
       <c r="AJ25" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="AK25" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AL25" t="n">
         <v>300</v>
@@ -3874,7 +3874,7 @@
         <v>580</v>
       </c>
       <c r="AN25" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="AO25" t="n">
         <v>110</v>
@@ -3910,7 +3910,7 @@
         <v>2.28</v>
       </c>
       <c r="G26" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="H26" t="n">
         <v>3.55</v>
@@ -3919,13 +3919,13 @@
         <v>4.1</v>
       </c>
       <c r="J26" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K26" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L26" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="M26" t="n">
         <v>1.11</v>
@@ -3940,7 +3940,7 @@
         <v>1.59</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R26" t="n">
         <v>1.21</v>
@@ -3961,7 +3961,7 @@
         <v>1.69</v>
       </c>
       <c r="X26" t="n">
-        <v>21</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y26" t="n">
         <v>12.5</v>
@@ -3979,16 +3979,16 @@
         <v>14</v>
       </c>
       <c r="AD26" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AE26" t="n">
         <v>380</v>
       </c>
       <c r="AF26" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="AG26" t="n">
-        <v>14.5</v>
+        <v>25</v>
       </c>
       <c r="AH26" t="n">
         <v>65</v>
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="G27" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H27" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I27" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="J27" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K27" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L27" t="n">
         <v>1.46</v>
@@ -4072,7 +4072,7 @@
         <v>1.39</v>
       </c>
       <c r="P27" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q27" t="n">
         <v>2.16</v>
@@ -4093,13 +4093,13 @@
         <v>1.25</v>
       </c>
       <c r="W27" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="X27" t="n">
         <v>14</v>
       </c>
       <c r="Y27" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z27" t="n">
         <v>85</v>
@@ -4177,16 +4177,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="G28" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I28" t="n">
         <v>2.94</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3.05</v>
       </c>
       <c r="J28" t="n">
         <v>3.15</v>
@@ -4207,7 +4207,7 @@
         <v>1.44</v>
       </c>
       <c r="P28" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q28" t="n">
         <v>2.34</v>
@@ -4219,28 +4219,28 @@
         <v>4.5</v>
       </c>
       <c r="T28" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="U28" t="n">
         <v>1.93</v>
       </c>
       <c r="V28" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="W28" t="n">
         <v>1.51</v>
       </c>
       <c r="X28" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Y28" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="Z28" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="AA28" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AB28" t="n">
         <v>9.4</v>
@@ -4249,25 +4249,25 @@
         <v>7.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE28" t="n">
         <v>100</v>
       </c>
       <c r="AF28" t="n">
-        <v>18.5</v>
+        <v>36</v>
       </c>
       <c r="AG28" t="n">
         <v>13</v>
       </c>
       <c r="AH28" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AI28" t="n">
         <v>150</v>
       </c>
       <c r="AJ28" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AK28" t="n">
         <v>95</v>
@@ -4279,10 +4279,10 @@
         <v>580</v>
       </c>
       <c r="AN28" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AO28" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29">
@@ -4450,7 +4450,7 @@
         <v>2.16</v>
       </c>
       <c r="G30" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H30" t="n">
         <v>3.9</v>
@@ -4471,7 +4471,7 @@
         <v>1.09</v>
       </c>
       <c r="N30" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O30" t="n">
         <v>1.41</v>
@@ -4492,7 +4492,7 @@
         <v>1.92</v>
       </c>
       <c r="U30" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="V30" t="n">
         <v>1.32</v>
@@ -4510,7 +4510,7 @@
         <v>28</v>
       </c>
       <c r="AA30" t="n">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="AB30" t="n">
         <v>8.800000000000001</v>
@@ -4537,13 +4537,13 @@
         <v>160</v>
       </c>
       <c r="AJ30" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="AK30" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AL30" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM30" t="n">
         <v>580</v>
@@ -4552,7 +4552,7 @@
         <v>22</v>
       </c>
       <c r="AO30" t="n">
-        <v>70</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31">
@@ -4582,58 +4582,58 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G31" t="n">
-        <v>2.36</v>
+        <v>2.62</v>
       </c>
       <c r="H31" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="I31" t="n">
         <v>6.8</v>
       </c>
       <c r="J31" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="K31" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="M31" t="n">
         <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="O31" t="n">
         <v>1.64</v>
       </c>
       <c r="P31" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="R31" t="n">
         <v>1.12</v>
       </c>
       <c r="S31" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="T31" t="n">
         <v>1.05</v>
       </c>
       <c r="U31" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V31" t="n">
         <v>1.17</v>
       </c>
       <c r="W31" t="n">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -4723,16 +4723,16 @@
         <v>1.79</v>
       </c>
       <c r="H32" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I32" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J32" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K32" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L32" t="n">
         <v>1.4</v>
@@ -4744,13 +4744,13 @@
         <v>3.7</v>
       </c>
       <c r="O32" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P32" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="R32" t="n">
         <v>1.36</v>
@@ -4762,7 +4762,7 @@
         <v>1.89</v>
       </c>
       <c r="U32" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V32" t="n">
         <v>1.21</v>
@@ -4771,58 +4771,58 @@
         <v>2.28</v>
       </c>
       <c r="X32" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="Y32" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="Z32" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AA32" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AB32" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC32" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD32" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE32" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AF32" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG32" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH32" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI32" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AJ32" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AK32" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AL32" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AM32" t="n">
-        <v>580</v>
+        <v>130</v>
       </c>
       <c r="AN32" t="n">
         <v>12</v>
       </c>
       <c r="AO32" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33">
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G33" t="n">
         <v>1.53</v>
       </c>
-      <c r="G33" t="n">
-        <v>1.56</v>
-      </c>
       <c r="H33" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="I33" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J33" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="K33" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L33" t="n">
         <v>1.26</v>
@@ -4882,52 +4882,52 @@
         <v>1.17</v>
       </c>
       <c r="P33" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="Q33" t="n">
         <v>1.52</v>
       </c>
       <c r="R33" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="S33" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="T33" t="n">
         <v>1.69</v>
       </c>
       <c r="U33" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V33" t="n">
         <v>1.17</v>
       </c>
       <c r="W33" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="X33" t="n">
         <v>27</v>
       </c>
       <c r="Y33" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="Z33" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AA33" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="AB33" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC33" t="n">
         <v>12</v>
       </c>
       <c r="AD33" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE33" t="n">
-        <v>75</v>
+        <v>510</v>
       </c>
       <c r="AF33" t="n">
         <v>11.5</v>
@@ -4936,13 +4936,13 @@
         <v>10.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AJ33" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK33" t="n">
         <v>14</v>
@@ -4954,10 +4954,10 @@
         <v>80</v>
       </c>
       <c r="AN33" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AO33" t="n">
-        <v>170</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34">
@@ -5005,7 +5005,7 @@
         <v>3.8</v>
       </c>
       <c r="L34" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M34" t="n">
         <v>1.1</v>
@@ -5122,10 +5122,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="G35" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="H35" t="n">
         <v>3.35</v>
@@ -5143,16 +5143,16 @@
         <v>1.56</v>
       </c>
       <c r="M35" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="N35" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="O35" t="n">
         <v>1.53</v>
       </c>
       <c r="P35" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q35" t="n">
         <v>2.62</v>
@@ -5161,7 +5161,7 @@
         <v>1.21</v>
       </c>
       <c r="S35" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="T35" t="n">
         <v>2.08</v>
@@ -5173,10 +5173,10 @@
         <v>1.41</v>
       </c>
       <c r="W35" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="X35" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y35" t="n">
         <v>9.6</v>
@@ -5188,7 +5188,7 @@
         <v>65</v>
       </c>
       <c r="AB35" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC35" t="n">
         <v>6.8</v>
@@ -5218,10 +5218,10 @@
         <v>36</v>
       </c>
       <c r="AL35" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM35" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN35" t="n">
         <v>38</v>
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="G36" t="n">
         <v>2.58</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="I36" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J36" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K36" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L36" t="n">
         <v>1.33</v>
@@ -5287,10 +5287,10 @@
         <v>1.3</v>
       </c>
       <c r="P36" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R36" t="n">
         <v>1.36</v>
@@ -5305,16 +5305,16 @@
         <v>2.16</v>
       </c>
       <c r="V36" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="W36" t="n">
         <v>1.63</v>
       </c>
       <c r="X36" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z36" t="n">
         <v>28</v>
@@ -5329,7 +5329,7 @@
         <v>9.6</v>
       </c>
       <c r="AD36" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE36" t="n">
         <v>44</v>
@@ -5338,16 +5338,16 @@
         <v>19.5</v>
       </c>
       <c r="AG36" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI36" t="n">
         <v>60</v>
       </c>
       <c r="AJ36" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK36" t="n">
         <v>32</v>
@@ -5392,19 +5392,19 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="G37" t="n">
         <v>1.63</v>
       </c>
       <c r="H37" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="I37" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="J37" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K37" t="n">
         <v>4.1</v>
@@ -5416,31 +5416,31 @@
         <v>1.09</v>
       </c>
       <c r="N37" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="O37" t="n">
         <v>1.45</v>
       </c>
       <c r="P37" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="Q37" t="n">
         <v>2.36</v>
       </c>
       <c r="R37" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S37" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="T37" t="n">
         <v>2.3</v>
       </c>
       <c r="U37" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="V37" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W37" t="n">
         <v>2.58</v>
@@ -5452,10 +5452,10 @@
         <v>20</v>
       </c>
       <c r="Z37" t="n">
-        <v>520</v>
+        <v>75</v>
       </c>
       <c r="AA37" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="AB37" t="n">
         <v>6.4</v>
@@ -5464,19 +5464,19 @@
         <v>9.4</v>
       </c>
       <c r="AD37" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>210</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH37" t="n">
         <v>85</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>200</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>80</v>
       </c>
       <c r="AI37" t="n">
         <v>200</v>
@@ -5497,7 +5497,7 @@
         <v>13.5</v>
       </c>
       <c r="AO37" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="38">
@@ -5551,13 +5551,13 @@
         <v>1.09</v>
       </c>
       <c r="N38" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="O38" t="n">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="P38" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q38" t="n">
         <v>1.38</v>
@@ -5566,10 +5566,10 @@
         <v>1.18</v>
       </c>
       <c r="S38" t="n">
-        <v>1.05</v>
+        <v>2.14</v>
       </c>
       <c r="T38" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U38" t="n">
         <v>1.89</v>
@@ -5665,16 +5665,16 @@
         <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="H39" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I39" t="n">
         <v>4.2</v>
       </c>
       <c r="J39" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K39" t="n">
         <v>4.1</v>
@@ -5686,22 +5686,22 @@
         <v>1.06</v>
       </c>
       <c r="N39" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O39" t="n">
         <v>1.29</v>
       </c>
       <c r="P39" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="R39" t="n">
         <v>1.38</v>
       </c>
       <c r="S39" t="n">
-        <v>2.94</v>
+        <v>3.1</v>
       </c>
       <c r="T39" t="n">
         <v>1.71</v>
@@ -5713,7 +5713,7 @@
         <v>1.31</v>
       </c>
       <c r="W39" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="X39" t="n">
         <v>970</v>
@@ -5725,7 +5725,7 @@
         <v>90</v>
       </c>
       <c r="AA39" t="n">
-        <v>90</v>
+        <v>900</v>
       </c>
       <c r="AB39" t="n">
         <v>18</v>
@@ -5743,7 +5743,7 @@
         <v>970</v>
       </c>
       <c r="AG39" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AH39" t="n">
         <v>60</v>
@@ -5755,7 +5755,7 @@
         <v>900</v>
       </c>
       <c r="AK39" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AL39" t="n">
         <v>85</v>
@@ -5767,7 +5767,7 @@
         <v>55</v>
       </c>
       <c r="AO39" t="n">
-        <v>55</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40">
@@ -5800,13 +5800,13 @@
         <v>4.6</v>
       </c>
       <c r="G40" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H40" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="I40" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="J40" t="n">
         <v>4.1</v>
@@ -5833,7 +5833,7 @@
         <v>1.71</v>
       </c>
       <c r="R40" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S40" t="n">
         <v>2.8</v>
@@ -5845,10 +5845,10 @@
         <v>2.26</v>
       </c>
       <c r="V40" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="W40" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X40" t="n">
         <v>22</v>
@@ -5875,7 +5875,7 @@
         <v>18.5</v>
       </c>
       <c r="AF40" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AG40" t="n">
         <v>19.5</v>
@@ -5902,7 +5902,7 @@
         <v>55</v>
       </c>
       <c r="AO40" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="41">
@@ -5932,10 +5932,10 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="G41" t="n">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="H41" t="n">
         <v>6.8</v>
@@ -5944,7 +5944,7 @@
         <v>9.6</v>
       </c>
       <c r="J41" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="K41" t="n">
         <v>6</v>
@@ -5980,10 +5980,10 @@
         <v>1.86</v>
       </c>
       <c r="V41" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="W41" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="X41" t="n">
         <v>90</v>
@@ -6001,7 +6001,7 @@
         <v>22</v>
       </c>
       <c r="AC41" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="AD41" t="n">
         <v>85</v>
@@ -6010,7 +6010,7 @@
         <v>290</v>
       </c>
       <c r="AF41" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AG41" t="n">
         <v>40</v>
@@ -6022,7 +6022,7 @@
         <v>260</v>
       </c>
       <c r="AJ41" t="n">
-        <v>180</v>
+        <v>900</v>
       </c>
       <c r="AK41" t="n">
         <v>34</v>
@@ -6034,7 +6034,7 @@
         <v>130</v>
       </c>
       <c r="AN41" t="n">
-        <v>7.8</v>
+        <v>15</v>
       </c>
       <c r="AO41" t="n">
         <v>140</v>
@@ -6070,7 +6070,7 @@
         <v>2.18</v>
       </c>
       <c r="G42" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="H42" t="n">
         <v>3.6</v>
@@ -6079,7 +6079,7 @@
         <v>4</v>
       </c>
       <c r="J42" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K42" t="n">
         <v>3.55</v>
@@ -6094,13 +6094,13 @@
         <v>3.1</v>
       </c>
       <c r="O42" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P42" t="n">
         <v>1.72</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R42" t="n">
         <v>1.26</v>
@@ -6109,16 +6109,16 @@
         <v>4</v>
       </c>
       <c r="T42" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U42" t="n">
         <v>1.96</v>
       </c>
       <c r="V42" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W42" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X42" t="n">
         <v>12.5</v>
@@ -6130,22 +6130,22 @@
         <v>65</v>
       </c>
       <c r="AA42" t="n">
-        <v>85</v>
+        <v>260</v>
       </c>
       <c r="AB42" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC42" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AD42" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AF42" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG42" t="n">
         <v>12</v>
@@ -6157,19 +6157,19 @@
         <v>170</v>
       </c>
       <c r="AJ42" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AK42" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL42" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM42" t="n">
         <v>580</v>
       </c>
       <c r="AN42" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AO42" t="n">
         <v>160</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="G43" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="H43" t="n">
         <v>4.2</v>
       </c>
       <c r="I43" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J43" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K43" t="n">
         <v>4.9</v>
@@ -6232,16 +6232,16 @@
         <v>1.16</v>
       </c>
       <c r="P43" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="R43" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="S43" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T43" t="n">
         <v>1.54</v>
@@ -6250,10 +6250,10 @@
         <v>2.52</v>
       </c>
       <c r="V43" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W43" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="X43" t="n">
         <v>95</v>
@@ -6265,13 +6265,13 @@
         <v>230</v>
       </c>
       <c r="AA43" t="n">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="AB43" t="n">
         <v>30</v>
       </c>
       <c r="AC43" t="n">
-        <v>16.5</v>
+        <v>42</v>
       </c>
       <c r="AD43" t="n">
         <v>42</v>
@@ -6283,19 +6283,19 @@
         <v>34</v>
       </c>
       <c r="AG43" t="n">
-        <v>13.5</v>
+        <v>610</v>
       </c>
       <c r="AH43" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI43" t="n">
         <v>160</v>
       </c>
       <c r="AJ43" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="AK43" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="AL43" t="n">
         <v>60</v>
@@ -6304,7 +6304,7 @@
         <v>580</v>
       </c>
       <c r="AN43" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AO43" t="n">
         <v>270</v>
@@ -6337,19 +6337,19 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.76</v>
+        <v>2.68</v>
       </c>
       <c r="G44" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="H44" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="I44" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="J44" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="K44" t="n">
         <v>3.65</v>
@@ -6388,10 +6388,10 @@
         <v>1.52</v>
       </c>
       <c r="W44" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="X44" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="Y44" t="n">
         <v>970</v>
@@ -6415,13 +6415,13 @@
         <v>95</v>
       </c>
       <c r="AF44" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AG44" t="n">
         <v>970</v>
       </c>
       <c r="AH44" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="AI44" t="n">
         <v>170</v>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G45" t="n">
         <v>2.56</v>
@@ -6481,7 +6481,7 @@
         <v>3.4</v>
       </c>
       <c r="I45" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J45" t="n">
         <v>3.1</v>
@@ -6490,7 +6490,7 @@
         <v>3.15</v>
       </c>
       <c r="L45" t="n">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="M45" t="n">
         <v>1.11</v>
@@ -6499,10 +6499,10 @@
         <v>2.84</v>
       </c>
       <c r="O45" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P45" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q45" t="n">
         <v>2.44</v>
@@ -6526,7 +6526,7 @@
         <v>1.64</v>
       </c>
       <c r="X45" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y45" t="n">
         <v>10.5</v>
@@ -6547,7 +6547,7 @@
         <v>15.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="AF45" t="n">
         <v>15</v>
@@ -6607,13 +6607,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="G46" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H46" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="I46" t="n">
         <v>2.8</v>
@@ -6622,10 +6622,10 @@
         <v>3.2</v>
       </c>
       <c r="K46" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L46" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M46" t="n">
         <v>1.08</v>
@@ -6637,19 +6637,19 @@
         <v>1.34</v>
       </c>
       <c r="P46" t="n">
-        <v>1.83</v>
+        <v>1.32</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.04</v>
+        <v>1.34</v>
       </c>
       <c r="R46" t="n">
         <v>1.32</v>
       </c>
       <c r="S46" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T46" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U46" t="n">
         <v>2.08</v>
@@ -6667,7 +6667,7 @@
         <v>13</v>
       </c>
       <c r="Z46" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA46" t="n">
         <v>280</v>
@@ -6742,19 +6742,19 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="G47" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H47" t="n">
         <v>2.04</v>
       </c>
       <c r="I47" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="J47" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K47" t="n">
         <v>4.4</v>
@@ -6775,79 +6775,79 @@
         <v>2.88</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="R47" t="n">
         <v>1.78</v>
       </c>
       <c r="S47" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="T47" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="U47" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="V47" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="W47" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="X47" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Y47" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Z47" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AA47" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB47" t="n">
         <v>1000</v>
       </c>
       <c r="AC47" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AD47" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE47" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AF47" t="n">
         <v>1000</v>
       </c>
       <c r="AG47" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AH47" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI47" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AJ47" t="n">
         <v>1000</v>
       </c>
       <c r="AK47" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL47" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM47" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN47" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO47" t="n">
-        <v>9.6</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48">
@@ -6913,7 +6913,7 @@
         <v>1.31</v>
       </c>
       <c r="R48" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="S48" t="n">
         <v>1.83</v>
@@ -6925,52 +6925,52 @@
         <v>2.58</v>
       </c>
       <c r="V48" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W48" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="X48" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="Y48" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="Z48" t="n">
         <v>470</v>
       </c>
       <c r="AA48" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AB48" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AC48" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AD48" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="AE48" t="n">
         <v>420</v>
       </c>
       <c r="AF48" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AG48" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH48" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AI48" t="n">
         <v>1000</v>
       </c>
       <c r="AJ48" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AK48" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AL48" t="n">
         <v>46</v>
@@ -6979,10 +6979,10 @@
         <v>250</v>
       </c>
       <c r="AN48" t="n">
-        <v>4.2</v>
+        <v>29</v>
       </c>
       <c r="AO48" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="49">
@@ -7015,7 +7015,7 @@
         <v>1.65</v>
       </c>
       <c r="G49" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="H49" t="n">
         <v>7.2</v>
@@ -7024,13 +7024,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="J49" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K49" t="n">
         <v>3.7</v>
       </c>
       <c r="L49" t="n">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="M49" t="n">
         <v>1.13</v>
@@ -7063,13 +7063,13 @@
         <v>1.12</v>
       </c>
       <c r="W49" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="X49" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="Y49" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="Z49" t="n">
         <v>1000</v>
@@ -7081,10 +7081,10 @@
         <v>5.4</v>
       </c>
       <c r="AC49" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD49" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="AE49" t="n">
         <v>1000</v>
@@ -7096,7 +7096,7 @@
         <v>12.5</v>
       </c>
       <c r="AH49" t="n">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AI49" t="n">
         <v>1000</v>
@@ -7147,16 +7147,16 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="G50" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H50" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I50" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J50" t="n">
         <v>3.15</v>
@@ -7177,7 +7177,7 @@
         <v>1.45</v>
       </c>
       <c r="P50" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q50" t="n">
         <v>2.3</v>
@@ -7192,13 +7192,13 @@
         <v>1.95</v>
       </c>
       <c r="U50" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="V50" t="n">
         <v>1.31</v>
       </c>
       <c r="W50" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X50" t="n">
         <v>11</v>
@@ -7210,7 +7210,7 @@
         <v>65</v>
       </c>
       <c r="AA50" t="n">
-        <v>110</v>
+        <v>290</v>
       </c>
       <c r="AB50" t="n">
         <v>8</v>
@@ -7219,13 +7219,13 @@
         <v>7.2</v>
       </c>
       <c r="AD50" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AE50" t="n">
         <v>150</v>
       </c>
       <c r="AF50" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AG50" t="n">
         <v>11</v>
@@ -7240,7 +7240,7 @@
         <v>80</v>
       </c>
       <c r="AK50" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AL50" t="n">
         <v>130</v>
@@ -7249,7 +7249,7 @@
         <v>580</v>
       </c>
       <c r="AN50" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AO50" t="n">
         <v>75</v>
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="G51" t="n">
         <v>1.72</v>
@@ -7291,7 +7291,7 @@
         <v>5.4</v>
       </c>
       <c r="I51" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J51" t="n">
         <v>4.1</v>
@@ -7312,16 +7312,16 @@
         <v>1.37</v>
       </c>
       <c r="P51" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R51" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S51" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="T51" t="n">
         <v>2.02</v>
@@ -7336,10 +7336,10 @@
         <v>2.38</v>
       </c>
       <c r="X51" t="n">
-        <v>13.5</v>
+        <v>25</v>
       </c>
       <c r="Y51" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="Z51" t="n">
         <v>270</v>
@@ -7351,7 +7351,7 @@
         <v>7.6</v>
       </c>
       <c r="AC51" t="n">
-        <v>14</v>
+        <v>9.6</v>
       </c>
       <c r="AD51" t="n">
         <v>65</v>
@@ -7360,7 +7360,7 @@
         <v>480</v>
       </c>
       <c r="AF51" t="n">
-        <v>18</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG51" t="n">
         <v>20</v>
@@ -7372,7 +7372,7 @@
         <v>290</v>
       </c>
       <c r="AJ51" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AK51" t="n">
         <v>70</v>
@@ -7384,7 +7384,7 @@
         <v>580</v>
       </c>
       <c r="AN51" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AO51" t="n">
         <v>180</v>
@@ -7453,16 +7453,16 @@
         <v>2.24</v>
       </c>
       <c r="R52" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S52" t="n">
         <v>4.1</v>
       </c>
       <c r="T52" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U52" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V52" t="n">
         <v>2.2</v>
@@ -7471,13 +7471,13 @@
         <v>1.22</v>
       </c>
       <c r="X52" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y52" t="n">
         <v>7.4</v>
       </c>
       <c r="Z52" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AA52" t="n">
         <v>19</v>
@@ -7516,7 +7516,7 @@
         <v>90</v>
       </c>
       <c r="AM52" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN52" t="n">
         <v>120</v>
@@ -7576,25 +7576,25 @@
         <v>1.15</v>
       </c>
       <c r="N53" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="O53" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="P53" t="n">
         <v>1.43</v>
       </c>
       <c r="Q53" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="R53" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="S53" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="T53" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="U53" t="n">
         <v>1.67</v>
@@ -7615,7 +7615,7 @@
         <v>14.5</v>
       </c>
       <c r="AA53" t="n">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="AB53" t="n">
         <v>9.199999999999999</v>
@@ -7624,40 +7624,40 @@
         <v>7</v>
       </c>
       <c r="AD53" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE53" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AF53" t="n">
         <v>25</v>
       </c>
       <c r="AG53" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AH53" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AI53" t="n">
         <v>480</v>
       </c>
       <c r="AJ53" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AK53" t="n">
         <v>190</v>
       </c>
       <c r="AL53" t="n">
-        <v>130</v>
+        <v>350</v>
       </c>
       <c r="AM53" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AN53" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AO53" t="n">
-        <v>140</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54">
@@ -7687,76 +7687,76 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="G54" t="n">
-        <v>1.97</v>
+        <v>2.18</v>
       </c>
       <c r="H54" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I54" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="J54" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K54" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L54" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="M54" t="n">
         <v>1.08</v>
       </c>
       <c r="N54" t="n">
-        <v>2.92</v>
+        <v>2.24</v>
       </c>
       <c r="O54" t="n">
         <v>1.42</v>
       </c>
       <c r="P54" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="Q54" t="n">
         <v>2.06</v>
       </c>
       <c r="R54" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S54" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="T54" t="n">
-        <v>2</v>
+        <v>1.05</v>
       </c>
       <c r="U54" t="n">
-        <v>1.8</v>
+        <v>1.04</v>
       </c>
       <c r="V54" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="W54" t="n">
-        <v>2.04</v>
+        <v>1.84</v>
       </c>
       <c r="X54" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="Y54" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="Z54" t="n">
         <v>140</v>
       </c>
       <c r="AA54" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AB54" t="n">
-        <v>8.6</v>
+        <v>970</v>
       </c>
       <c r="AC54" t="n">
-        <v>9.6</v>
+        <v>42</v>
       </c>
       <c r="AD54" t="n">
         <v>65</v>
@@ -7765,10 +7765,10 @@
         <v>480</v>
       </c>
       <c r="AF54" t="n">
-        <v>27</v>
+        <v>970</v>
       </c>
       <c r="AG54" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AH54" t="n">
         <v>65</v>
@@ -7780,7 +7780,7 @@
         <v>110</v>
       </c>
       <c r="AK54" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AL54" t="n">
         <v>300</v>
@@ -7789,10 +7789,10 @@
         <v>580</v>
       </c>
       <c r="AN54" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AO54" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="55">
@@ -7864,10 +7864,10 @@
         <v>2.92</v>
       </c>
       <c r="T55" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U55" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V55" t="n">
         <v>2.42</v>
@@ -7876,10 +7876,10 @@
         <v>1.22</v>
       </c>
       <c r="X55" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y55" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Z55" t="n">
         <v>10.5</v>
@@ -7888,7 +7888,7 @@
         <v>17.5</v>
       </c>
       <c r="AB55" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC55" t="n">
         <v>9.800000000000001</v>
@@ -7912,7 +7912,7 @@
         <v>28</v>
       </c>
       <c r="AJ55" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AK55" t="n">
         <v>65</v>
@@ -7921,7 +7921,7 @@
         <v>65</v>
       </c>
       <c r="AM55" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN55" t="n">
         <v>60</v>
@@ -7957,22 +7957,22 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="G56" t="n">
         <v>1.78</v>
       </c>
       <c r="H56" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I56" t="n">
         <v>5.5</v>
       </c>
       <c r="J56" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K56" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L56" t="n">
         <v>1.42</v>
@@ -7987,22 +7987,22 @@
         <v>1.33</v>
       </c>
       <c r="P56" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="R56" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S56" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T56" t="n">
         <v>1.91</v>
       </c>
       <c r="U56" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V56" t="n">
         <v>1.22</v>
@@ -8011,7 +8011,7 @@
         <v>2.28</v>
       </c>
       <c r="X56" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y56" t="n">
         <v>17.5</v>
@@ -8035,19 +8035,19 @@
         <v>75</v>
       </c>
       <c r="AF56" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG56" t="n">
         <v>9.6</v>
       </c>
       <c r="AH56" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI56" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ56" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AK56" t="n">
         <v>18.5</v>
@@ -8092,109 +8092,109 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.9</v>
+        <v>2.78</v>
       </c>
       <c r="G57" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="H57" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="I57" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="J57" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K57" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L57" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="M57" t="n">
         <v>1.12</v>
       </c>
       <c r="N57" t="n">
-        <v>2.66</v>
+        <v>2.84</v>
       </c>
       <c r="O57" t="n">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="P57" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="R57" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="S57" t="n">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
       <c r="T57" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="U57" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="V57" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="W57" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="X57" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB57" t="n">
         <v>8.800000000000001</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>8.6</v>
       </c>
       <c r="AC57" t="n">
         <v>7</v>
       </c>
       <c r="AD57" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE57" t="n">
-        <v>290</v>
+        <v>44</v>
       </c>
       <c r="AF57" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AG57" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH57" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI57" t="n">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="AJ57" t="n">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="AK57" t="n">
-        <v>440</v>
+        <v>40</v>
       </c>
       <c r="AL57" t="n">
-        <v>480</v>
+        <v>65</v>
       </c>
       <c r="AM57" t="n">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="AN57" t="n">
-        <v>210</v>
+        <v>48</v>
       </c>
       <c r="AO57" t="n">
         <v>140</v>
@@ -8233,7 +8233,7 @@
         <v>3.7</v>
       </c>
       <c r="H58" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="I58" t="n">
         <v>2.52</v>
@@ -8242,7 +8242,7 @@
         <v>3.15</v>
       </c>
       <c r="K58" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L58" t="n">
         <v>1.37</v>
@@ -8251,16 +8251,16 @@
         <v>1.08</v>
       </c>
       <c r="N58" t="n">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="O58" t="n">
         <v>1.36</v>
       </c>
       <c r="P58" t="n">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="R58" t="n">
         <v>1.3</v>
@@ -8269,10 +8269,10 @@
         <v>3.35</v>
       </c>
       <c r="T58" t="n">
-        <v>1.8</v>
+        <v>1.04</v>
       </c>
       <c r="U58" t="n">
-        <v>2</v>
+        <v>1.04</v>
       </c>
       <c r="V58" t="n">
         <v>1.65</v>
@@ -8299,7 +8299,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD58" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AE58" t="n">
         <v>110</v>
@@ -8362,82 +8362,82 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="G59" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="H59" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="I59" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J59" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="K59" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="L59" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="M59" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N59" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O59" t="n">
         <v>1.29</v>
       </c>
       <c r="P59" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="R59" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S59" t="n">
         <v>3.15</v>
       </c>
       <c r="T59" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="U59" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="V59" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="W59" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="X59" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y59" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="Z59" t="n">
         <v>26</v>
       </c>
       <c r="AA59" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AB59" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC59" t="n">
-        <v>9.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AD59" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE59" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF59" t="n">
         <v>15</v>
@@ -8446,7 +8446,7 @@
         <v>11.5</v>
       </c>
       <c r="AH59" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI59" t="n">
         <v>150</v>
@@ -8455,7 +8455,7 @@
         <v>75</v>
       </c>
       <c r="AK59" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL59" t="n">
         <v>100</v>
@@ -8464,10 +8464,10 @@
         <v>580</v>
       </c>
       <c r="AN59" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AO59" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60">
@@ -8497,22 +8497,22 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="G60" t="n">
         <v>1.29</v>
       </c>
       <c r="H60" t="n">
-        <v>6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I60" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="J60" t="n">
-        <v>3.7</v>
+        <v>6.4</v>
       </c>
       <c r="K60" t="n">
-        <v>950</v>
+        <v>9</v>
       </c>
       <c r="L60" t="n">
         <v>1.14</v>
@@ -8521,34 +8521,34 @@
         <v>1.01</v>
       </c>
       <c r="N60" t="n">
-        <v>4.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O60" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="P60" t="n">
         <v>4.4</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="R60" t="n">
-        <v>2.04</v>
+        <v>2.46</v>
       </c>
       <c r="S60" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="T60" t="n">
-        <v>1.04</v>
+        <v>1.65</v>
       </c>
       <c r="U60" t="n">
-        <v>1.04</v>
+        <v>2.16</v>
       </c>
       <c r="V60" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="W60" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="X60" t="n">
         <v>1000</v>
@@ -8557,49 +8557,49 @@
         <v>1000</v>
       </c>
       <c r="Z60" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AA60" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="AB60" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC60" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AD60" t="n">
         <v>1000</v>
       </c>
       <c r="AE60" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AF60" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG60" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH60" t="n">
         <v>1000</v>
       </c>
       <c r="AI60" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ60" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AK60" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AL60" t="n">
         <v>1000</v>
       </c>
       <c r="AM60" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN60" t="n">
-        <v>29</v>
+        <v>2.86</v>
       </c>
       <c r="AO60" t="n">
         <v>1000</v>
@@ -8635,34 +8635,34 @@
         <v>2.3</v>
       </c>
       <c r="G61" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="H61" t="n">
         <v>3.3</v>
       </c>
       <c r="I61" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J61" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K61" t="n">
         <v>3.6</v>
       </c>
       <c r="L61" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M61" t="n">
         <v>1.08</v>
       </c>
       <c r="N61" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O61" t="n">
         <v>1.41</v>
       </c>
       <c r="P61" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q61" t="n">
         <v>2.2</v>
@@ -8674,16 +8674,16 @@
         <v>4.1</v>
       </c>
       <c r="T61" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U61" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V61" t="n">
         <v>1.38</v>
       </c>
       <c r="W61" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="X61" t="n">
         <v>13.5</v>
@@ -8767,58 +8767,58 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="G62" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="H62" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I62" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J62" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K62" t="n">
         <v>3.75</v>
       </c>
       <c r="L62" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="M62" t="n">
         <v>1.08</v>
       </c>
       <c r="N62" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="O62" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P62" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="R62" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S62" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T62" t="n">
         <v>1.88</v>
       </c>
       <c r="U62" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="V62" t="n">
         <v>1.34</v>
       </c>
       <c r="W62" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="X62" t="n">
         <v>14</v>
@@ -8848,28 +8848,28 @@
         <v>15</v>
       </c>
       <c r="AG62" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH62" t="n">
         <v>22</v>
       </c>
       <c r="AI62" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ62" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AK62" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AL62" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AM62" t="n">
         <v>160</v>
       </c>
       <c r="AN62" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AO62" t="n">
         <v>60</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-08.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="G2" t="n">
         <v>1.76</v>
       </c>
       <c r="H2" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="I2" t="n">
         <v>6.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K2" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L2" t="n">
         <v>1.45</v>
@@ -691,28 +691,28 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
         <v>1.89</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="R2" t="n">
         <v>1.32</v>
       </c>
       <c r="S2" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="U2" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V2" t="n">
         <v>1.19</v>
@@ -721,58 +721,58 @@
         <v>2.3</v>
       </c>
       <c r="X2" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="n">
-        <v>32</v>
+        <v>18.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>270</v>
+        <v>46</v>
       </c>
       <c r="AA2" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AB2" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AC2" t="n">
         <v>8.6</v>
       </c>
       <c r="AD2" t="n">
+        <v>65</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH2" t="n">
         <v>23</v>
       </c>
-      <c r="AE2" t="n">
-        <v>480</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>27</v>
-      </c>
       <c r="AI2" t="n">
-        <v>290</v>
+        <v>95</v>
       </c>
       <c r="AJ2" t="n">
-        <v>34</v>
+        <v>17.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="AL2" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="AM2" t="n">
-        <v>580</v>
+        <v>140</v>
       </c>
       <c r="AN2" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>600</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G3" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="I3" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="J3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
         <v>3.75</v>
@@ -826,43 +826,43 @@
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="P3" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R3" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="S3" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="T3" t="n">
         <v>1.86</v>
       </c>
       <c r="U3" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V3" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="W3" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="X3" t="n">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="Y3" t="n">
         <v>29</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA3" t="n">
         <v>900</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO3" t="n">
         <v>55</v>
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>6.6</v>
+        <v>5.5</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="H4" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="I4" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="J4" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O4" t="n">
         <v>1.19</v>
@@ -970,25 +970,25 @@
         <v>2.58</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="R4" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="S4" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="T4" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>3</v>
+        <v>2.68</v>
       </c>
       <c r="W4" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="X4" t="n">
         <v>26</v>
@@ -997,16 +997,16 @@
         <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AC4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD4" t="n">
         <v>10.5</v>
@@ -1015,34 +1015,34 @@
         <v>14</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI4" t="n">
         <v>27</v>
       </c>
-      <c r="AH4" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ4" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AK4" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AL4" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="AM4" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN4" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AO4" t="n">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="5">
@@ -1072,64 +1072,64 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.61</v>
+        <v>1.44</v>
       </c>
       <c r="G5" t="n">
-        <v>2.1</v>
+        <v>1.52</v>
       </c>
       <c r="H5" t="n">
         <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="J5" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>7</v>
+        <v>5.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.07</v>
+        <v>1.35</v>
       </c>
       <c r="P5" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.7</v>
+        <v>2.02</v>
       </c>
       <c r="R5" t="n">
-        <v>1.1</v>
+        <v>1.26</v>
       </c>
       <c r="S5" t="n">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="T5" t="n">
-        <v>1.04</v>
+        <v>2.24</v>
       </c>
       <c r="U5" t="n">
-        <v>1.04</v>
+        <v>1.54</v>
       </c>
       <c r="V5" t="n">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="W5" t="n">
-        <v>1.9</v>
+        <v>2.92</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1138,43 +1138,43 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="G6" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="H6" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="I6" t="n">
         <v>2.02</v>
@@ -1222,40 +1222,40 @@
         <v>3.15</v>
       </c>
       <c r="K6" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L6" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="M6" t="n">
         <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="O6" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P6" t="n">
         <v>1.57</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="R6" t="n">
         <v>1.2</v>
       </c>
       <c r="S6" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T6" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="U6" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="V6" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="W6" t="n">
         <v>1.2</v>
@@ -1264,10 +1264,10 @@
         <v>970</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.5</v>
+        <v>29</v>
       </c>
       <c r="Z6" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AA6" t="n">
         <v>900</v>
@@ -1276,7 +1276,7 @@
         <v>970</v>
       </c>
       <c r="AC6" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AD6" t="n">
         <v>970</v>
@@ -1366,13 +1366,13 @@
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O7" t="n">
         <v>1.21</v>
       </c>
       <c r="P7" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q7" t="n">
         <v>1.62</v>
@@ -1381,7 +1381,7 @@
         <v>1.54</v>
       </c>
       <c r="S7" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="T7" t="n">
         <v>2.26</v>
@@ -1477,25 +1477,25 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="G8" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="H8" t="n">
         <v>6.8</v>
       </c>
       <c r="I8" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K8" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
@@ -1519,28 +1519,28 @@
         <v>3.7</v>
       </c>
       <c r="T8" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U8" t="n">
         <v>1.78</v>
       </c>
       <c r="V8" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="W8" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="X8" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y8" t="n">
         <v>22</v>
       </c>
       <c r="Z8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA8" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AB8" t="n">
         <v>7.2</v>
@@ -1549,10 +1549,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE8" t="n">
-        <v>290</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="n">
         <v>8.800000000000001</v>
@@ -1561,10 +1561,10 @@
         <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="AI8" t="n">
-        <v>290</v>
+        <v>130</v>
       </c>
       <c r="AJ8" t="n">
         <v>15.5</v>
@@ -1579,7 +1579,7 @@
         <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO8" t="n">
         <v>190</v>
@@ -1612,46 +1612,46 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="G9" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="H9" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="J9" t="n">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L9" t="n">
         <v>1.45</v>
       </c>
       <c r="M9" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>2.36</v>
+        <v>2.72</v>
       </c>
       <c r="O9" t="n">
-        <v>1.09</v>
+        <v>1.46</v>
       </c>
       <c r="P9" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.16</v>
+        <v>2.38</v>
       </c>
       <c r="R9" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S9" t="n">
-        <v>3.55</v>
+        <v>4.7</v>
       </c>
       <c r="T9" t="n">
         <v>1.98</v>
@@ -1660,13 +1660,13 @@
         <v>1.84</v>
       </c>
       <c r="V9" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W9" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="X9" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="Y9" t="n">
         <v>970</v>
@@ -1678,10 +1678,10 @@
         <v>900</v>
       </c>
       <c r="AB9" t="n">
-        <v>970</v>
+        <v>8.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD9" t="n">
         <v>970</v>
@@ -1702,7 +1702,7 @@
         <v>400</v>
       </c>
       <c r="AJ9" t="n">
-        <v>900</v>
+        <v>160</v>
       </c>
       <c r="AK9" t="n">
         <v>85</v>
@@ -1714,10 +1714,10 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="AO9" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G10" t="n">
         <v>2.64</v>
@@ -1759,28 +1759,28 @@
         <v>3.8</v>
       </c>
       <c r="J10" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L10" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="M10" t="n">
         <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="O10" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P10" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="R10" t="n">
         <v>1.22</v>
@@ -1789,7 +1789,7 @@
         <v>4.5</v>
       </c>
       <c r="T10" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="U10" t="n">
         <v>1.89</v>
@@ -1798,7 +1798,7 @@
         <v>1.36</v>
       </c>
       <c r="W10" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="X10" t="n">
         <v>11</v>
@@ -1810,19 +1810,19 @@
         <v>46</v>
       </c>
       <c r="AA10" t="n">
-        <v>900</v>
+        <v>190</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD10" t="n">
         <v>16</v>
       </c>
       <c r="AE10" t="n">
-        <v>370</v>
+        <v>55</v>
       </c>
       <c r="AF10" t="n">
         <v>15.5</v>
@@ -1882,55 +1882,55 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="G11" t="n">
         <v>3.25</v>
       </c>
       <c r="H11" t="n">
-        <v>2.64</v>
+        <v>2.54</v>
       </c>
       <c r="I11" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J11" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K11" t="n">
         <v>3.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P11" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="R11" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S11" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="T11" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="U11" t="n">
-        <v>1.96</v>
+        <v>1.82</v>
       </c>
       <c r="V11" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="W11" t="n">
         <v>1.45</v>
@@ -1942,10 +1942,10 @@
         <v>22</v>
       </c>
       <c r="Z11" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="AA11" t="n">
-        <v>900</v>
+        <v>320</v>
       </c>
       <c r="AB11" t="n">
         <v>24</v>
@@ -1972,7 +1972,7 @@
         <v>300</v>
       </c>
       <c r="AJ11" t="n">
-        <v>900</v>
+        <v>320</v>
       </c>
       <c r="AK11" t="n">
         <v>120</v>
@@ -1984,10 +1984,10 @@
         <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>50</v>
+        <v>600</v>
       </c>
       <c r="AO11" t="n">
-        <v>36</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12">
@@ -2020,61 +2020,61 @@
         <v>2.12</v>
       </c>
       <c r="G12" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I12" t="n">
         <v>4.8</v>
       </c>
       <c r="J12" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="K12" t="n">
         <v>3.35</v>
       </c>
       <c r="L12" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="M12" t="n">
         <v>1.12</v>
       </c>
       <c r="N12" t="n">
-        <v>2.48</v>
+        <v>2.28</v>
       </c>
       <c r="O12" t="n">
         <v>1.58</v>
       </c>
       <c r="P12" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="R12" t="n">
         <v>1.18</v>
       </c>
       <c r="S12" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="T12" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="U12" t="n">
-        <v>1.71</v>
+        <v>1.05</v>
       </c>
       <c r="V12" t="n">
         <v>1.29</v>
       </c>
       <c r="W12" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="X12" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Y12" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z12" t="n">
         <v>80</v>
@@ -2089,7 +2089,7 @@
         <v>7.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AE12" t="n">
         <v>210</v>
@@ -2101,13 +2101,13 @@
         <v>12.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="AI12" t="n">
         <v>290</v>
       </c>
       <c r="AJ12" t="n">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="AK12" t="n">
         <v>70</v>
@@ -2119,10 +2119,10 @@
         <v>250</v>
       </c>
       <c r="AN12" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AO12" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13">
@@ -2152,82 +2152,82 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="G13" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="H13" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="I13" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J13" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K13" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L13" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O13" t="n">
         <v>1.28</v>
       </c>
       <c r="P13" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="R13" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S13" t="n">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="T13" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U13" t="n">
         <v>2.04</v>
       </c>
       <c r="V13" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="W13" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="X13" t="n">
         <v>970</v>
       </c>
       <c r="Y13" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="Z13" t="n">
         <v>40</v>
       </c>
       <c r="AA13" t="n">
-        <v>50</v>
+        <v>900</v>
       </c>
       <c r="AB13" t="n">
         <v>32</v>
       </c>
       <c r="AC13" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AD13" t="n">
         <v>40</v>
       </c>
       <c r="AE13" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AF13" t="n">
         <v>120</v>
@@ -2254,7 +2254,7 @@
         <v>580</v>
       </c>
       <c r="AN13" t="n">
-        <v>310</v>
+        <v>600</v>
       </c>
       <c r="AO13" t="n">
         <v>55</v>
@@ -2287,37 +2287,37 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="G14" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H14" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="I14" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J14" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K14" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L14" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="P14" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q14" t="n">
         <v>2.06</v>
@@ -2326,25 +2326,25 @@
         <v>1.28</v>
       </c>
       <c r="S14" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="T14" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="U14" t="n">
         <v>1.84</v>
       </c>
       <c r="V14" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W14" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="X14" t="n">
         <v>90</v>
       </c>
       <c r="Y14" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="Z14" t="n">
         <v>140</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="G15" t="n">
         <v>2.76</v>
@@ -2431,58 +2431,58 @@
         <v>3.25</v>
       </c>
       <c r="I15" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J15" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="K15" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L15" t="n">
         <v>1.51</v>
       </c>
       <c r="M15" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N15" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="O15" t="n">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="P15" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.72</v>
+        <v>2.48</v>
       </c>
       <c r="R15" t="n">
         <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="T15" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="U15" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="V15" t="n">
         <v>1.37</v>
       </c>
       <c r="W15" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="X15" t="n">
         <v>9.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AA15" t="n">
         <v>900</v>
@@ -2494,40 +2494,40 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD15" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AE15" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AF15" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG15" t="n">
         <v>15.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="AI15" t="n">
         <v>480</v>
       </c>
       <c r="AJ15" t="n">
-        <v>50</v>
+        <v>230</v>
       </c>
       <c r="AK15" t="n">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="AL15" t="n">
-        <v>80</v>
+        <v>480</v>
       </c>
       <c r="AM15" t="n">
         <v>230</v>
       </c>
       <c r="AN15" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="AO15" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
     </row>
     <row r="16">
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="G16" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="H16" t="n">
         <v>4.3</v>
       </c>
       <c r="I16" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J16" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K16" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L16" t="n">
         <v>1.46</v>
@@ -2581,46 +2581,46 @@
         <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P16" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="R16" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T16" t="n">
         <v>1.88</v>
       </c>
       <c r="U16" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V16" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W16" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="X16" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y16" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z16" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA16" t="n">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="AB16" t="n">
         <v>8.6</v>
@@ -2629,40 +2629,40 @@
         <v>7.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE16" t="n">
-        <v>370</v>
+        <v>60</v>
       </c>
       <c r="AF16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG16" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH16" t="n">
         <v>19</v>
       </c>
       <c r="AI16" t="n">
-        <v>380</v>
+        <v>70</v>
       </c>
       <c r="AJ16" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AK16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL16" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="AM16" t="n">
-        <v>580</v>
+        <v>130</v>
       </c>
       <c r="AN16" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AO16" t="n">
-        <v>260</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
@@ -2695,22 +2695,22 @@
         <v>4.3</v>
       </c>
       <c r="G17" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="H17" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="I17" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="J17" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K17" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="M17" t="n">
         <v>1.07</v>
@@ -2725,16 +2725,16 @@
         <v>1.85</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R17" t="n">
         <v>1.29</v>
       </c>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="T17" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U17" t="n">
         <v>1.88</v>
@@ -2797,7 +2797,7 @@
         <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
@@ -2830,10 +2830,10 @@
         <v>3.6</v>
       </c>
       <c r="G18" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H18" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I18" t="n">
         <v>2.56</v>
@@ -2845,40 +2845,40 @@
         <v>3.05</v>
       </c>
       <c r="L18" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="M18" t="n">
         <v>1.12</v>
       </c>
       <c r="N18" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="O18" t="n">
         <v>1.53</v>
       </c>
       <c r="P18" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="R18" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S18" t="n">
         <v>5.4</v>
       </c>
       <c r="T18" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="U18" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V18" t="n">
         <v>1.64</v>
       </c>
       <c r="W18" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X18" t="n">
         <v>9</v>
@@ -2887,7 +2887,7 @@
         <v>8</v>
       </c>
       <c r="Z18" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="AA18" t="n">
         <v>230</v>
@@ -2905,7 +2905,7 @@
         <v>150</v>
       </c>
       <c r="AF18" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AG18" t="n">
         <v>30</v>
@@ -2929,10 +2929,10 @@
         <v>200</v>
       </c>
       <c r="AN18" t="n">
-        <v>230</v>
+        <v>600</v>
       </c>
       <c r="AO18" t="n">
-        <v>120</v>
+        <v>600</v>
       </c>
     </row>
     <row r="19">
@@ -2971,16 +2971,16 @@
         <v>7</v>
       </c>
       <c r="I19" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="J19" t="n">
         <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L19" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M19" t="n">
         <v>1.08</v>
@@ -2989,7 +2989,7 @@
         <v>3.25</v>
       </c>
       <c r="O19" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P19" t="n">
         <v>1.77</v>
@@ -2998,7 +2998,7 @@
         <v>2.18</v>
       </c>
       <c r="R19" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S19" t="n">
         <v>4.1</v>
@@ -3010,7 +3010,7 @@
         <v>1.76</v>
       </c>
       <c r="V19" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W19" t="n">
         <v>2.58</v>
@@ -3028,7 +3028,7 @@
         <v>330</v>
       </c>
       <c r="AB19" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AC19" t="n">
         <v>9.199999999999999</v>
@@ -3127,7 +3127,7 @@
         <v>1.34</v>
       </c>
       <c r="P20" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="Q20" t="n">
         <v>2.02</v>
@@ -3142,7 +3142,7 @@
         <v>1.77</v>
       </c>
       <c r="U20" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="V20" t="n">
         <v>1.36</v>
@@ -3154,7 +3154,7 @@
         <v>13.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z20" t="n">
         <v>27</v>
@@ -3166,7 +3166,7 @@
         <v>10.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD20" t="n">
         <v>16</v>
@@ -3199,10 +3199,10 @@
         <v>580</v>
       </c>
       <c r="AN20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO20" t="n">
-        <v>44</v>
+        <v>600</v>
       </c>
     </row>
     <row r="21">
@@ -3235,7 +3235,7 @@
         <v>2.62</v>
       </c>
       <c r="G21" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="H21" t="n">
         <v>3.4</v>
@@ -3250,7 +3250,7 @@
         <v>3.1</v>
       </c>
       <c r="L21" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="M21" t="n">
         <v>1.12</v>
@@ -3277,7 +3277,7 @@
         <v>2.06</v>
       </c>
       <c r="U21" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V21" t="n">
         <v>1.4</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="G22" t="n">
         <v>2.14</v>
@@ -3394,13 +3394,13 @@
         <v>2.94</v>
       </c>
       <c r="O22" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P22" t="n">
         <v>1.66</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R22" t="n">
         <v>1.24</v>
@@ -3412,10 +3412,10 @@
         <v>1.96</v>
       </c>
       <c r="U22" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V22" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W22" t="n">
         <v>1.88</v>
@@ -3436,7 +3436,7 @@
         <v>7.8</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD22" t="n">
         <v>21</v>
@@ -3520,7 +3520,7 @@
         <v>3.2</v>
       </c>
       <c r="L23" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="M23" t="n">
         <v>1.12</v>
@@ -3529,19 +3529,19 @@
         <v>2.84</v>
       </c>
       <c r="O23" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P23" t="n">
         <v>1.63</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="R23" t="n">
         <v>1.23</v>
       </c>
       <c r="S23" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="T23" t="n">
         <v>2.02</v>
@@ -3574,7 +3574,7 @@
         <v>7.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE23" t="n">
         <v>150</v>
@@ -3670,7 +3670,7 @@
         <v>2.14</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R24" t="n">
         <v>1.45</v>
@@ -3694,7 +3694,7 @@
         <v>21</v>
       </c>
       <c r="Y24" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="Z24" t="n">
         <v>150</v>
@@ -3712,7 +3712,7 @@
         <v>300</v>
       </c>
       <c r="AE24" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AF24" t="n">
         <v>8.4</v>
@@ -3733,16 +3733,16 @@
         <v>16</v>
       </c>
       <c r="AL24" t="n">
-        <v>46</v>
+        <v>250</v>
       </c>
       <c r="AM24" t="n">
         <v>240</v>
       </c>
       <c r="AN24" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AO24" t="n">
-        <v>440</v>
+        <v>430</v>
       </c>
     </row>
     <row r="25">
@@ -3784,7 +3784,7 @@
         <v>3.55</v>
       </c>
       <c r="J25" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K25" t="n">
         <v>3.5</v>
@@ -3796,7 +3796,7 @@
         <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O25" t="n">
         <v>1.37</v>
@@ -3805,25 +3805,25 @@
         <v>1.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R25" t="n">
         <v>1.29</v>
       </c>
       <c r="S25" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="T25" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U25" t="n">
         <v>2.02</v>
       </c>
       <c r="V25" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W25" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X25" t="n">
         <v>22</v>
@@ -3841,7 +3841,7 @@
         <v>18</v>
       </c>
       <c r="AC25" t="n">
-        <v>13.5</v>
+        <v>8</v>
       </c>
       <c r="AD25" t="n">
         <v>970</v>
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G26" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="H26" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I26" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J26" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K26" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L26" t="n">
         <v>1.44</v>
@@ -3931,7 +3931,7 @@
         <v>1.11</v>
       </c>
       <c r="N26" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="O26" t="n">
         <v>1.48</v>
@@ -3940,7 +3940,7 @@
         <v>1.59</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="R26" t="n">
         <v>1.21</v>
@@ -3955,7 +3955,7 @@
         <v>1.83</v>
       </c>
       <c r="V26" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W26" t="n">
         <v>1.69</v>
@@ -3964,7 +3964,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Y26" t="n">
-        <v>12.5</v>
+        <v>24</v>
       </c>
       <c r="Z26" t="n">
         <v>85</v>
@@ -3973,10 +3973,10 @@
         <v>900</v>
       </c>
       <c r="AB26" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>14</v>
+        <v>7.8</v>
       </c>
       <c r="AD26" t="n">
         <v>970</v>
@@ -4078,10 +4078,10 @@
         <v>2.16</v>
       </c>
       <c r="R27" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T27" t="n">
         <v>1.91</v>
@@ -4180,7 +4180,7 @@
         <v>2.82</v>
       </c>
       <c r="G28" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="H28" t="n">
         <v>2.9</v>
@@ -4189,7 +4189,7 @@
         <v>2.94</v>
       </c>
       <c r="J28" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K28" t="n">
         <v>3.25</v>
@@ -4216,13 +4216,13 @@
         <v>1.24</v>
       </c>
       <c r="S28" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T28" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U28" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V28" t="n">
         <v>1.51</v>
@@ -4237,7 +4237,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Z28" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="AA28" t="n">
         <v>130</v>
@@ -4279,7 +4279,7 @@
         <v>580</v>
       </c>
       <c r="AN28" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AO28" t="n">
         <v>48</v>
@@ -4315,16 +4315,16 @@
         <v>2.76</v>
       </c>
       <c r="G29" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H29" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="I29" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="J29" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K29" t="n">
         <v>3.75</v>
@@ -4333,13 +4333,13 @@
         <v>1.33</v>
       </c>
       <c r="M29" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N29" t="n">
         <v>3.4</v>
       </c>
       <c r="O29" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="P29" t="n">
         <v>1.84</v>
@@ -4351,25 +4351,25 @@
         <v>1.32</v>
       </c>
       <c r="S29" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="T29" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="U29" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V29" t="n">
         <v>1.54</v>
       </c>
       <c r="W29" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="X29" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z29" t="n">
         <v>22</v>
@@ -4378,7 +4378,7 @@
         <v>48</v>
       </c>
       <c r="AB29" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC29" t="n">
         <v>9.4</v>
@@ -4396,13 +4396,13 @@
         <v>16</v>
       </c>
       <c r="AH29" t="n">
-        <v>18.5</v>
+        <v>34</v>
       </c>
       <c r="AI29" t="n">
         <v>55</v>
       </c>
       <c r="AJ29" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="AK29" t="n">
         <v>42</v>
@@ -4450,7 +4450,7 @@
         <v>2.16</v>
       </c>
       <c r="G30" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H30" t="n">
         <v>3.9</v>
@@ -4471,7 +4471,7 @@
         <v>1.09</v>
       </c>
       <c r="N30" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O30" t="n">
         <v>1.41</v>
@@ -4480,19 +4480,19 @@
         <v>1.76</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R30" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S30" t="n">
         <v>4.2</v>
       </c>
       <c r="T30" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U30" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V30" t="n">
         <v>1.32</v>
@@ -4540,7 +4540,7 @@
         <v>85</v>
       </c>
       <c r="AK30" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="AL30" t="n">
         <v>50</v>
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="G31" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="H31" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="I31" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J31" t="n">
         <v>2.58</v>
       </c>
       <c r="K31" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L31" t="n">
         <v>1.54</v>
@@ -4609,31 +4609,31 @@
         <v>2.12</v>
       </c>
       <c r="O31" t="n">
-        <v>1.64</v>
+        <v>1.35</v>
       </c>
       <c r="P31" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="R31" t="n">
         <v>1.12</v>
       </c>
       <c r="S31" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="T31" t="n">
         <v>1.05</v>
       </c>
       <c r="U31" t="n">
-        <v>1.04</v>
+        <v>1.51</v>
       </c>
       <c r="V31" t="n">
         <v>1.17</v>
       </c>
       <c r="W31" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -4717,13 +4717,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="G32" t="n">
         <v>1.79</v>
       </c>
       <c r="H32" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I32" t="n">
         <v>5.8</v>
@@ -4744,7 +4744,7 @@
         <v>3.7</v>
       </c>
       <c r="O32" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P32" t="n">
         <v>1.94</v>
@@ -4756,7 +4756,7 @@
         <v>1.36</v>
       </c>
       <c r="S32" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="T32" t="n">
         <v>1.89</v>
@@ -4768,7 +4768,7 @@
         <v>1.21</v>
       </c>
       <c r="W32" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="X32" t="n">
         <v>14</v>
@@ -4780,7 +4780,7 @@
         <v>42</v>
       </c>
       <c r="AA32" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB32" t="n">
         <v>8.4</v>
@@ -4789,7 +4789,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD32" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE32" t="n">
         <v>80</v>
@@ -4900,16 +4900,16 @@
         <v>2.32</v>
       </c>
       <c r="V33" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W33" t="n">
         <v>2.88</v>
       </c>
       <c r="X33" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="Y33" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="Z33" t="n">
         <v>65</v>
@@ -4927,19 +4927,19 @@
         <v>25</v>
       </c>
       <c r="AE33" t="n">
-        <v>510</v>
+        <v>170</v>
       </c>
       <c r="AF33" t="n">
         <v>11.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH33" t="n">
         <v>19.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="AJ33" t="n">
         <v>15</v>
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="G34" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="H34" t="n">
         <v>4.9</v>
@@ -5023,13 +5023,13 @@
         <v>2.34</v>
       </c>
       <c r="R34" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S34" t="n">
         <v>4.2</v>
       </c>
       <c r="T34" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="U34" t="n">
         <v>1.71</v>
@@ -5038,7 +5038,7 @@
         <v>1.19</v>
       </c>
       <c r="W34" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="X34" t="n">
         <v>10.5</v>
@@ -5155,16 +5155,16 @@
         <v>1.6</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="R35" t="n">
         <v>1.21</v>
       </c>
       <c r="S35" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="T35" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U35" t="n">
         <v>1.87</v>
@@ -5263,7 +5263,7 @@
         <v>2.58</v>
       </c>
       <c r="H36" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="I36" t="n">
         <v>3.25</v>
@@ -5290,19 +5290,19 @@
         <v>1.95</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="R36" t="n">
         <v>1.36</v>
       </c>
       <c r="S36" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T36" t="n">
         <v>1.76</v>
       </c>
       <c r="U36" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V36" t="n">
         <v>1.44</v>
@@ -5311,7 +5311,7 @@
         <v>1.63</v>
       </c>
       <c r="X36" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y36" t="n">
         <v>15.5</v>
@@ -5347,7 +5347,7 @@
         <v>60</v>
       </c>
       <c r="AJ36" t="n">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="AK36" t="n">
         <v>32</v>
@@ -5407,7 +5407,7 @@
         <v>3.85</v>
       </c>
       <c r="K37" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L37" t="n">
         <v>1.5</v>
@@ -5437,7 +5437,7 @@
         <v>2.3</v>
       </c>
       <c r="U37" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="V37" t="n">
         <v>1.13</v>
@@ -5527,22 +5527,22 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.64</v>
+        <v>1.87</v>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H38" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="I38" t="n">
-        <v>980</v>
+        <v>5.5</v>
       </c>
       <c r="J38" t="n">
         <v>3.15</v>
       </c>
       <c r="K38" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L38" t="n">
         <v>1.01</v>
@@ -5560,7 +5560,7 @@
         <v>1.25</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="R38" t="n">
         <v>1.18</v>
@@ -5575,7 +5575,7 @@
         <v>1.89</v>
       </c>
       <c r="V38" t="n">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="W38" t="n">
         <v>1.5</v>
@@ -5674,31 +5674,31 @@
         <v>4.2</v>
       </c>
       <c r="J39" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K39" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L39" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="M39" t="n">
         <v>1.06</v>
       </c>
       <c r="N39" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="O39" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P39" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q39" t="n">
         <v>1.83</v>
       </c>
       <c r="R39" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S39" t="n">
         <v>3.1</v>
@@ -5707,7 +5707,7 @@
         <v>1.71</v>
       </c>
       <c r="U39" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V39" t="n">
         <v>1.31</v>
@@ -5827,13 +5827,13 @@
         <v>1.24</v>
       </c>
       <c r="P40" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q40" t="n">
         <v>1.71</v>
       </c>
       <c r="R40" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="S40" t="n">
         <v>2.8</v>
@@ -5845,61 +5845,61 @@
         <v>2.26</v>
       </c>
       <c r="V40" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="W40" t="n">
         <v>1.27</v>
       </c>
       <c r="X40" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y40" t="n">
         <v>11</v>
       </c>
       <c r="Z40" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB40" t="n">
         <v>20</v>
       </c>
       <c r="AC40" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD40" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE40" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF40" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="AG40" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AH40" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI40" t="n">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="AJ40" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK40" t="n">
-        <v>330</v>
+        <v>55</v>
       </c>
       <c r="AL40" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM40" t="n">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="AN40" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AO40" t="n">
         <v>9.6</v>
@@ -5941,49 +5941,49 @@
         <v>6.8</v>
       </c>
       <c r="I41" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="J41" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="K41" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="L41" t="n">
         <v>1.26</v>
       </c>
       <c r="M41" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N41" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="O41" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P41" t="n">
         <v>2.28</v>
       </c>
       <c r="Q41" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R41" t="n">
         <v>1.55</v>
       </c>
-      <c r="R41" t="n">
-        <v>1.51</v>
-      </c>
       <c r="S41" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="T41" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U41" t="n">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="V41" t="n">
         <v>1.13</v>
       </c>
       <c r="W41" t="n">
-        <v>2.8</v>
+        <v>2.96</v>
       </c>
       <c r="X41" t="n">
         <v>90</v>
@@ -5998,7 +5998,7 @@
         <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AC41" t="n">
         <v>42</v>
@@ -6016,16 +6016,16 @@
         <v>40</v>
       </c>
       <c r="AH41" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AI41" t="n">
         <v>260</v>
       </c>
       <c r="AJ41" t="n">
-        <v>900</v>
+        <v>180</v>
       </c>
       <c r="AK41" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AL41" t="n">
         <v>100</v>
@@ -6034,7 +6034,7 @@
         <v>130</v>
       </c>
       <c r="AN41" t="n">
-        <v>15</v>
+        <v>6.6</v>
       </c>
       <c r="AO41" t="n">
         <v>140</v>
@@ -6067,22 +6067,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="G42" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H42" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J42" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K42" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L42" t="n">
         <v>1.47</v>
@@ -6091,7 +6091,7 @@
         <v>1.09</v>
       </c>
       <c r="N42" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O42" t="n">
         <v>1.4</v>
@@ -6109,16 +6109,16 @@
         <v>4</v>
       </c>
       <c r="T42" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U42" t="n">
         <v>1.96</v>
       </c>
       <c r="V42" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W42" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="X42" t="n">
         <v>12.5</v>
@@ -6133,7 +6133,7 @@
         <v>260</v>
       </c>
       <c r="AB42" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC42" t="n">
         <v>7.8</v>
@@ -6160,7 +6160,7 @@
         <v>80</v>
       </c>
       <c r="AK42" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="AL42" t="n">
         <v>48</v>
@@ -6169,7 +6169,7 @@
         <v>580</v>
       </c>
       <c r="AN42" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO42" t="n">
         <v>160</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="G43" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="H43" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I43" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J43" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K43" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="L43" t="n">
         <v>1.21</v>
@@ -6238,7 +6238,7 @@
         <v>1.48</v>
       </c>
       <c r="R43" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S43" t="n">
         <v>2.2</v>
@@ -6250,10 +6250,10 @@
         <v>2.52</v>
       </c>
       <c r="V43" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W43" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X43" t="n">
         <v>95</v>
@@ -6268,34 +6268,34 @@
         <v>330</v>
       </c>
       <c r="AB43" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AC43" t="n">
         <v>42</v>
       </c>
       <c r="AD43" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AE43" t="n">
         <v>200</v>
       </c>
       <c r="AF43" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AG43" t="n">
-        <v>610</v>
+        <v>970</v>
       </c>
       <c r="AH43" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="AI43" t="n">
         <v>160</v>
       </c>
       <c r="AJ43" t="n">
-        <v>75</v>
+        <v>970</v>
       </c>
       <c r="AK43" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AL43" t="n">
         <v>60</v>
@@ -6304,7 +6304,7 @@
         <v>580</v>
       </c>
       <c r="AN43" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="AO43" t="n">
         <v>270</v>
@@ -6337,31 +6337,31 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="G44" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H44" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="I44" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="J44" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K44" t="n">
         <v>3.65</v>
       </c>
       <c r="L44" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="M44" t="n">
         <v>1.08</v>
       </c>
       <c r="N44" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="O44" t="n">
         <v>1.37</v>
@@ -6373,7 +6373,7 @@
         <v>2.1</v>
       </c>
       <c r="R44" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S44" t="n">
         <v>3.45</v>
@@ -6472,40 +6472,40 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="G45" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="H45" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I45" t="n">
         <v>3.55</v>
       </c>
       <c r="J45" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K45" t="n">
         <v>3.15</v>
       </c>
       <c r="L45" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="M45" t="n">
         <v>1.11</v>
       </c>
       <c r="N45" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="O45" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P45" t="n">
         <v>1.62</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="R45" t="n">
         <v>1.22</v>
@@ -6520,22 +6520,22 @@
         <v>1.87</v>
       </c>
       <c r="V45" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W45" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="X45" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Y45" t="n">
         <v>10.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="AA45" t="n">
-        <v>530</v>
+        <v>70</v>
       </c>
       <c r="AB45" t="n">
         <v>8.199999999999999</v>
@@ -6544,40 +6544,40 @@
         <v>7.2</v>
       </c>
       <c r="AD45" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE45" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="AF45" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG45" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH45" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO45" t="n">
         <v>65</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>380</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>170</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>300</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>42</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>160</v>
       </c>
     </row>
     <row r="46">
@@ -6607,22 +6607,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="G46" t="n">
         <v>3.15</v>
       </c>
       <c r="H46" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="I46" t="n">
         <v>2.8</v>
       </c>
       <c r="J46" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K46" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L46" t="n">
         <v>1.43</v>
@@ -6637,10 +6637,10 @@
         <v>1.34</v>
       </c>
       <c r="P46" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.34</v>
+        <v>1.98</v>
       </c>
       <c r="R46" t="n">
         <v>1.32</v>
@@ -6742,22 +6742,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G47" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H47" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="I47" t="n">
         <v>2.18</v>
       </c>
       <c r="J47" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K47" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L47" t="n">
         <v>1.23</v>
@@ -6766,7 +6766,7 @@
         <v>1.02</v>
       </c>
       <c r="N47" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="O47" t="n">
         <v>1.14</v>
@@ -6778,7 +6778,7 @@
         <v>1.45</v>
       </c>
       <c r="R47" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="S47" t="n">
         <v>2.08</v>
@@ -6787,19 +6787,19 @@
         <v>1.43</v>
       </c>
       <c r="U47" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="V47" t="n">
         <v>1.84</v>
       </c>
       <c r="W47" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X47" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="Y47" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Z47" t="n">
         <v>1000</v>
@@ -6811,13 +6811,13 @@
         <v>1000</v>
       </c>
       <c r="AC47" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD47" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AE47" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AF47" t="n">
         <v>1000</v>
@@ -6826,28 +6826,28 @@
         <v>1000</v>
       </c>
       <c r="AH47" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI47" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AJ47" t="n">
         <v>1000</v>
       </c>
       <c r="AK47" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AL47" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM47" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN47" t="n">
         <v>1000</v>
       </c>
       <c r="AO47" t="n">
-        <v>85</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="48">
@@ -6895,7 +6895,7 @@
         <v>6.4</v>
       </c>
       <c r="L48" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="M48" t="n">
         <v>1.01</v>
@@ -7012,31 +7012,31 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="G49" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="H49" t="n">
         <v>7.2</v>
       </c>
       <c r="I49" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="J49" t="n">
         <v>3.2</v>
       </c>
       <c r="K49" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L49" t="n">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="M49" t="n">
         <v>1.13</v>
       </c>
       <c r="N49" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="O49" t="n">
         <v>1.62</v>
@@ -7045,10 +7045,10 @@
         <v>1.43</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="R49" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="S49" t="n">
         <v>6</v>
@@ -7057,19 +7057,19 @@
         <v>2.58</v>
       </c>
       <c r="U49" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="V49" t="n">
         <v>1.12</v>
       </c>
       <c r="W49" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="X49" t="n">
         <v>8</v>
       </c>
       <c r="Y49" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z49" t="n">
         <v>1000</v>
@@ -7081,7 +7081,7 @@
         <v>5.4</v>
       </c>
       <c r="AC49" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD49" t="n">
         <v>110</v>
@@ -7102,7 +7102,7 @@
         <v>1000</v>
       </c>
       <c r="AJ49" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AK49" t="n">
         <v>70</v>
@@ -7114,7 +7114,7 @@
         <v>1000</v>
       </c>
       <c r="AN49" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AO49" t="n">
         <v>1000</v>
@@ -7153,7 +7153,7 @@
         <v>2.26</v>
       </c>
       <c r="H50" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I50" t="n">
         <v>4.2</v>
@@ -7189,10 +7189,10 @@
         <v>4.5</v>
       </c>
       <c r="T50" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U50" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="V50" t="n">
         <v>1.31</v>
@@ -7219,13 +7219,13 @@
         <v>7.2</v>
       </c>
       <c r="AD50" t="n">
-        <v>17.5</v>
+        <v>32</v>
       </c>
       <c r="AE50" t="n">
         <v>150</v>
       </c>
       <c r="AF50" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG50" t="n">
         <v>11</v>
@@ -7240,7 +7240,7 @@
         <v>80</v>
       </c>
       <c r="AK50" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AL50" t="n">
         <v>130</v>
@@ -7249,7 +7249,7 @@
         <v>580</v>
       </c>
       <c r="AN50" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AO50" t="n">
         <v>75</v>
@@ -7282,19 +7282,19 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="G51" t="n">
         <v>1.72</v>
       </c>
       <c r="H51" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="I51" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J51" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K51" t="n">
         <v>4.3</v>
@@ -7315,7 +7315,7 @@
         <v>1.78</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R51" t="n">
         <v>1.28</v>
@@ -7330,7 +7330,7 @@
         <v>1.8</v>
       </c>
       <c r="V51" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W51" t="n">
         <v>2.38</v>
@@ -7339,7 +7339,7 @@
         <v>25</v>
       </c>
       <c r="Y51" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Z51" t="n">
         <v>270</v>
@@ -7348,7 +7348,7 @@
         <v>230</v>
       </c>
       <c r="AB51" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC51" t="n">
         <v>9.6</v>
@@ -7432,7 +7432,7 @@
         <v>3.7</v>
       </c>
       <c r="K52" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L52" t="n">
         <v>1.46</v>
@@ -7444,7 +7444,7 @@
         <v>3.4</v>
       </c>
       <c r="O52" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P52" t="n">
         <v>1.78</v>
@@ -7516,7 +7516,7 @@
         <v>90</v>
       </c>
       <c r="AM52" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN52" t="n">
         <v>120</v>
@@ -7561,10 +7561,10 @@
         <v>2.48</v>
       </c>
       <c r="I53" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="J53" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="K53" t="n">
         <v>3</v>
@@ -7573,22 +7573,22 @@
         <v>1.64</v>
       </c>
       <c r="M53" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="N53" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="O53" t="n">
         <v>1.7</v>
       </c>
       <c r="P53" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="Q53" t="n">
         <v>3.15</v>
       </c>
       <c r="R53" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="S53" t="n">
         <v>7</v>
@@ -7597,10 +7597,10 @@
         <v>2.38</v>
       </c>
       <c r="U53" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="V53" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="W53" t="n">
         <v>1.35</v>
@@ -7615,10 +7615,10 @@
         <v>14.5</v>
       </c>
       <c r="AA53" t="n">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="AB53" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC53" t="n">
         <v>7</v>
@@ -7633,7 +7633,7 @@
         <v>25</v>
       </c>
       <c r="AG53" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH53" t="n">
         <v>30</v>
@@ -7687,46 +7687,46 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="G54" t="n">
-        <v>2.18</v>
+        <v>1.97</v>
       </c>
       <c r="H54" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="I54" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J54" t="n">
         <v>3.35</v>
       </c>
       <c r="K54" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="L54" t="n">
         <v>1.01</v>
       </c>
       <c r="M54" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N54" t="n">
-        <v>2.24</v>
+        <v>2.56</v>
       </c>
       <c r="O54" t="n">
         <v>1.42</v>
       </c>
       <c r="P54" t="n">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R54" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="S54" t="n">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="T54" t="n">
         <v>1.05</v>
@@ -7738,7 +7738,7 @@
         <v>1.18</v>
       </c>
       <c r="W54" t="n">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="X54" t="n">
         <v>970</v>
@@ -7852,22 +7852,22 @@
         <v>1.25</v>
       </c>
       <c r="P55" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R55" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S55" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="T55" t="n">
         <v>1.79</v>
       </c>
       <c r="U55" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V55" t="n">
         <v>2.42</v>
@@ -7891,7 +7891,7 @@
         <v>22</v>
       </c>
       <c r="AC55" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD55" t="n">
         <v>9.6</v>
@@ -7921,10 +7921,10 @@
         <v>65</v>
       </c>
       <c r="AM55" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN55" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AO55" t="n">
         <v>8.6</v>
@@ -7969,7 +7969,7 @@
         <v>5.5</v>
       </c>
       <c r="J56" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K56" t="n">
         <v>4.1</v>
@@ -7981,10 +7981,10 @@
         <v>1.07</v>
       </c>
       <c r="N56" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O56" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P56" t="n">
         <v>2</v>
@@ -7993,13 +7993,13 @@
         <v>1.98</v>
       </c>
       <c r="R56" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S56" t="n">
         <v>3.55</v>
       </c>
       <c r="T56" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U56" t="n">
         <v>2.02</v>
@@ -8095,10 +8095,10 @@
         <v>2.78</v>
       </c>
       <c r="G57" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="H57" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="I57" t="n">
         <v>3.1</v>
@@ -8116,10 +8116,10 @@
         <v>1.12</v>
       </c>
       <c r="N57" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="O57" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="P57" t="n">
         <v>1.59</v>
@@ -8128,25 +8128,25 @@
         <v>2.62</v>
       </c>
       <c r="R57" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S57" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="T57" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U57" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V57" t="n">
         <v>1.47</v>
       </c>
       <c r="W57" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="X57" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="Y57" t="n">
         <v>9.199999999999999</v>
@@ -8158,7 +8158,7 @@
         <v>55</v>
       </c>
       <c r="AB57" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC57" t="n">
         <v>7</v>
@@ -8173,13 +8173,13 @@
         <v>17.5</v>
       </c>
       <c r="AG57" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH57" t="n">
         <v>22</v>
       </c>
       <c r="AI57" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AJ57" t="n">
         <v>55</v>
@@ -8197,7 +8197,7 @@
         <v>48</v>
       </c>
       <c r="AO57" t="n">
-        <v>140</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58">
@@ -8227,22 +8227,22 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>3.15</v>
+        <v>2.9</v>
       </c>
       <c r="G58" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="H58" t="n">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="I58" t="n">
-        <v>2.52</v>
+        <v>2.84</v>
       </c>
       <c r="J58" t="n">
         <v>3.15</v>
       </c>
       <c r="K58" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L58" t="n">
         <v>1.37</v>
@@ -8251,22 +8251,22 @@
         <v>1.08</v>
       </c>
       <c r="N58" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="O58" t="n">
         <v>1.36</v>
       </c>
       <c r="P58" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="R58" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S58" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="T58" t="n">
         <v>1.04</v>
@@ -8275,19 +8275,19 @@
         <v>1.04</v>
       </c>
       <c r="V58" t="n">
-        <v>1.65</v>
+        <v>1.54</v>
       </c>
       <c r="W58" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="X58" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Y58" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="Z58" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AA58" t="n">
         <v>170</v>
@@ -8296,7 +8296,7 @@
         <v>26</v>
       </c>
       <c r="AC58" t="n">
-        <v>9.199999999999999</v>
+        <v>14</v>
       </c>
       <c r="AD58" t="n">
         <v>970</v>
@@ -8365,19 +8365,19 @@
         <v>2.16</v>
       </c>
       <c r="G59" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="H59" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I59" t="n">
         <v>4.1</v>
       </c>
       <c r="J59" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K59" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L59" t="n">
         <v>1.39</v>
@@ -8392,16 +8392,16 @@
         <v>1.29</v>
       </c>
       <c r="P59" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="R59" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="S59" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T59" t="n">
         <v>1.7</v>
@@ -8413,16 +8413,16 @@
         <v>1.32</v>
       </c>
       <c r="W59" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="X59" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y59" t="n">
         <v>17</v>
       </c>
       <c r="Z59" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA59" t="n">
         <v>170</v>
@@ -8461,10 +8461,10 @@
         <v>100</v>
       </c>
       <c r="AM59" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN59" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AO59" t="n">
         <v>42</v>
@@ -8497,13 +8497,13 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="G60" t="n">
         <v>1.29</v>
       </c>
       <c r="H60" t="n">
-        <v>9.199999999999999</v>
+        <v>6</v>
       </c>
       <c r="I60" t="n">
         <v>14.5</v>
@@ -8512,7 +8512,7 @@
         <v>6.4</v>
       </c>
       <c r="K60" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L60" t="n">
         <v>1.14</v>
@@ -8521,7 +8521,7 @@
         <v>1.01</v>
       </c>
       <c r="N60" t="n">
-        <v>8.800000000000001</v>
+        <v>3.45</v>
       </c>
       <c r="O60" t="n">
         <v>1.08</v>
@@ -8539,10 +8539,10 @@
         <v>1.64</v>
       </c>
       <c r="T60" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U60" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V60" t="n">
         <v>1.07</v>
@@ -8560,7 +8560,7 @@
         <v>170</v>
       </c>
       <c r="AA60" t="n">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="AB60" t="n">
         <v>21</v>
@@ -8569,13 +8569,13 @@
         <v>22</v>
       </c>
       <c r="AD60" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AE60" t="n">
         <v>170</v>
       </c>
       <c r="AF60" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG60" t="n">
         <v>14</v>
@@ -8584,7 +8584,7 @@
         <v>1000</v>
       </c>
       <c r="AI60" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ60" t="n">
         <v>13</v>
@@ -8593,13 +8593,13 @@
         <v>14.5</v>
       </c>
       <c r="AL60" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AM60" t="n">
         <v>110</v>
       </c>
       <c r="AN60" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="AO60" t="n">
         <v>1000</v>
@@ -8638,10 +8638,10 @@
         <v>2.54</v>
       </c>
       <c r="H61" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I61" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J61" t="n">
         <v>3.3</v>
@@ -8653,10 +8653,10 @@
         <v>1.48</v>
       </c>
       <c r="M61" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N61" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="O61" t="n">
         <v>1.41</v>
@@ -8668,7 +8668,7 @@
         <v>2.2</v>
       </c>
       <c r="R61" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S61" t="n">
         <v>4.1</v>
@@ -8686,19 +8686,19 @@
         <v>1.66</v>
       </c>
       <c r="X61" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Y61" t="n">
         <v>13.5</v>
       </c>
       <c r="Z61" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA61" t="n">
         <v>85</v>
       </c>
       <c r="AB61" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC61" t="n">
         <v>9</v>
@@ -8710,34 +8710,34 @@
         <v>60</v>
       </c>
       <c r="AF61" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AG61" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH61" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI61" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ61" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK61" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL61" t="n">
         <v>60</v>
       </c>
       <c r="AM61" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN61" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AO61" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62">
@@ -8836,7 +8836,7 @@
         <v>8.6</v>
       </c>
       <c r="AC62" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD62" t="n">
         <v>16.5</v>
@@ -8845,25 +8845,25 @@
         <v>60</v>
       </c>
       <c r="AF62" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG62" t="n">
         <v>13</v>
       </c>
       <c r="AH62" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI62" t="n">
         <v>75</v>
       </c>
       <c r="AJ62" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK62" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AL62" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM62" t="n">
         <v>160</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-08.xlsx
@@ -670,7 +670,7 @@
         <v>1.73</v>
       </c>
       <c r="G2" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="H2" t="n">
         <v>5.7</v>
@@ -697,28 +697,28 @@
         <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="R2" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T2" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V2" t="n">
         <v>1.19</v>
       </c>
       <c r="W2" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="X2" t="n">
         <v>13</v>
@@ -730,7 +730,7 @@
         <v>46</v>
       </c>
       <c r="AA2" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AB2" t="n">
         <v>7.8</v>
@@ -739,7 +739,7 @@
         <v>8.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="AE2" t="n">
         <v>90</v>
@@ -754,10 +754,10 @@
         <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>95</v>
+        <v>290</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AK2" t="n">
         <v>19</v>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="G3" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="H3" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="I3" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
         <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L3" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O3" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="P3" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R3" t="n">
         <v>1.31</v>
       </c>
       <c r="S3" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="T3" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="U3" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="V3" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="W3" t="n">
         <v>1.24</v>
       </c>
       <c r="X3" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z3" t="n">
         <v>22</v>
       </c>
-      <c r="Y3" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z3" t="n">
+      <c r="AA3" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB3" t="n">
         <v>25</v>
       </c>
-      <c r="AA3" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1000</v>
-      </c>
       <c r="AC3" t="n">
-        <v>14</v>
+        <v>8.4</v>
       </c>
       <c r="AD3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>85</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>36</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO3" t="n">
         <v>40</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>210</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>460</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>600</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="G4" t="n">
         <v>6.4</v>
@@ -946,22 +946,22 @@
         <v>1.53</v>
       </c>
       <c r="I4" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="J4" t="n">
         <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L4" t="n">
         <v>1.29</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="O4" t="n">
         <v>1.19</v>
@@ -970,28 +970,28 @@
         <v>2.58</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="R4" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="S4" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="T4" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="V4" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="W4" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="X4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y4" t="n">
         <v>11</v>
@@ -1000,28 +1000,28 @@
         <v>11.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AB4" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="AC4" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD4" t="n">
         <v>10.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG4" t="n">
         <v>24</v>
       </c>
       <c r="AH4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
         <v>27</v>
@@ -1033,16 +1033,16 @@
         <v>75</v>
       </c>
       <c r="AL4" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="AM4" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
         <v>65</v>
       </c>
       <c r="AO4" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="5">
@@ -1072,64 +1072,64 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="G5" t="n">
-        <v>1.52</v>
+        <v>1.36</v>
       </c>
       <c r="H5" t="n">
+        <v>10</v>
+      </c>
+      <c r="I5" t="n">
+        <v>21</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N5" t="n">
         <v>3.5</v>
       </c>
-      <c r="I5" t="n">
-        <v>14</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3</v>
-      </c>
       <c r="O5" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>1.7</v>
+        <v>1.86</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.02</v>
+        <v>1.82</v>
       </c>
       <c r="R5" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="S5" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="T5" t="n">
-        <v>2.24</v>
+        <v>1.04</v>
       </c>
       <c r="U5" t="n">
-        <v>1.54</v>
+        <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="W5" t="n">
-        <v>2.92</v>
+        <v>3.55</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1138,43 +1138,43 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AD5" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AG5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>11.5</v>
       </c>
-      <c r="AH5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>13</v>
-      </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>460</v>
+        <v>150</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,55 +1207,55 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="H6" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="I6" t="n">
         <v>2.02</v>
       </c>
       <c r="J6" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="M6" t="n">
         <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="O6" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="P6" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S6" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="T6" t="n">
         <v>2.08</v>
       </c>
       <c r="U6" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="V6" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="W6" t="n">
         <v>1.2</v>
@@ -1264,13 +1264,13 @@
         <v>970</v>
       </c>
       <c r="Y6" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="Z6" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AA6" t="n">
-        <v>900</v>
+        <v>46</v>
       </c>
       <c r="AB6" t="n">
         <v>970</v>
@@ -1279,10 +1279,10 @@
         <v>42</v>
       </c>
       <c r="AD6" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AE6" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AF6" t="n">
         <v>120</v>
@@ -1348,25 +1348,25 @@
         <v>1.28</v>
       </c>
       <c r="H7" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J7" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="K7" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O7" t="n">
         <v>1.21</v>
@@ -1375,79 +1375,79 @@
         <v>2.34</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="R7" t="n">
         <v>1.54</v>
       </c>
       <c r="S7" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="T7" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="U7" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="V7" t="n">
         <v>1.05</v>
       </c>
       <c r="W7" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="X7" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="Y7" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="Z7" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AD7" t="n">
         <v>300</v>
       </c>
       <c r="AE7" t="n">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AI7" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK7" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL7" t="n">
         <v>250</v>
       </c>
       <c r="AM7" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="AN7" t="n">
         <v>4.7</v>
       </c>
       <c r="AO7" t="n">
-        <v>610</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1495,34 +1495,34 @@
         <v>4.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P8" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="R8" t="n">
         <v>1.29</v>
       </c>
       <c r="S8" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="T8" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="U8" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V8" t="n">
         <v>1.16</v>
@@ -1531,19 +1531,19 @@
         <v>2.54</v>
       </c>
       <c r="X8" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA8" t="n">
         <v>230</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AC8" t="n">
         <v>9.800000000000001</v>
@@ -1558,7 +1558,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH8" t="n">
         <v>27</v>
@@ -1573,7 +1573,7 @@
         <v>19</v>
       </c>
       <c r="AL8" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AM8" t="n">
         <v>580</v>
@@ -1582,7 +1582,7 @@
         <v>11.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9">
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="G9" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="H9" t="n">
         <v>3.4</v>
@@ -1627,49 +1627,49 @@
         <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L9" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="M9" t="n">
         <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="O9" t="n">
         <v>1.46</v>
       </c>
       <c r="P9" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R9" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S9" t="n">
         <v>4.7</v>
       </c>
       <c r="T9" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="U9" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V9" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W9" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="X9" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y9" t="n">
         <v>21</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>970</v>
       </c>
       <c r="Z9" t="n">
         <v>120</v>
@@ -1678,25 +1678,25 @@
         <v>900</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.4</v>
+        <v>16.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AE9" t="n">
         <v>380</v>
       </c>
       <c r="AF9" t="n">
-        <v>970</v>
+        <v>28</v>
       </c>
       <c r="AG9" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AH9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI9" t="n">
         <v>400</v>
@@ -1747,58 +1747,58 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="G10" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J10" t="n">
         <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L10" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M10" t="n">
         <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="O10" t="n">
         <v>1.44</v>
       </c>
       <c r="P10" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="R10" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S10" t="n">
         <v>4.5</v>
       </c>
       <c r="T10" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U10" t="n">
         <v>1.89</v>
       </c>
       <c r="V10" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W10" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="X10" t="n">
         <v>11</v>
@@ -1807,22 +1807,22 @@
         <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AA10" t="n">
-        <v>190</v>
+        <v>900</v>
       </c>
       <c r="AB10" t="n">
         <v>9.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="AD10" t="n">
         <v>16</v>
       </c>
       <c r="AE10" t="n">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="AF10" t="n">
         <v>15.5</v>
@@ -1837,7 +1837,7 @@
         <v>400</v>
       </c>
       <c r="AJ10" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="AK10" t="n">
         <v>110</v>
@@ -1885,10 +1885,10 @@
         <v>2.8</v>
       </c>
       <c r="G11" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H11" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I11" t="n">
         <v>2.9</v>
@@ -1900,43 +1900,43 @@
         <v>3.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P11" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.02</v>
+        <v>2.22</v>
       </c>
       <c r="R11" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S11" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="U11" t="n">
-        <v>1.82</v>
+        <v>1.94</v>
       </c>
       <c r="V11" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="W11" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="X11" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="Y11" t="n">
         <v>22</v>
@@ -1945,16 +1945,16 @@
         <v>46</v>
       </c>
       <c r="AA11" t="n">
-        <v>320</v>
+        <v>900</v>
       </c>
       <c r="AB11" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AC11" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>970</v>
+        <v>28</v>
       </c>
       <c r="AE11" t="n">
         <v>120</v>
@@ -1963,19 +1963,19 @@
         <v>50</v>
       </c>
       <c r="AG11" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="AH11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI11" t="n">
         <v>300</v>
       </c>
       <c r="AJ11" t="n">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="AK11" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AL11" t="n">
         <v>300</v>
@@ -2020,58 +2020,58 @@
         <v>2.12</v>
       </c>
       <c r="G12" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="H12" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J12" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K12" t="n">
         <v>3.35</v>
       </c>
       <c r="L12" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="M12" t="n">
         <v>1.12</v>
       </c>
       <c r="N12" t="n">
-        <v>2.28</v>
+        <v>2.54</v>
       </c>
       <c r="O12" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="P12" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="R12" t="n">
         <v>1.18</v>
       </c>
       <c r="S12" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="T12" t="n">
         <v>2.16</v>
       </c>
       <c r="U12" t="n">
-        <v>1.05</v>
+        <v>1.72</v>
       </c>
       <c r="V12" t="n">
         <v>1.29</v>
       </c>
       <c r="W12" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="X12" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Y12" t="n">
         <v>11.5</v>
@@ -2089,7 +2089,7 @@
         <v>7.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AE12" t="n">
         <v>210</v>
@@ -2101,13 +2101,13 @@
         <v>12.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="AI12" t="n">
         <v>290</v>
       </c>
       <c r="AJ12" t="n">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="AK12" t="n">
         <v>70</v>
@@ -2119,7 +2119,7 @@
         <v>250</v>
       </c>
       <c r="AN12" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="AO12" t="n">
         <v>600</v>
@@ -2152,79 +2152,79 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="G13" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="H13" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="I13" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="J13" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K13" t="n">
         <v>4.3</v>
       </c>
       <c r="L13" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="R13" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S13" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="T13" t="n">
         <v>1.78</v>
       </c>
       <c r="U13" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V13" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="W13" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="X13" t="n">
         <v>970</v>
       </c>
       <c r="Y13" t="n">
-        <v>29</v>
+        <v>16.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AA13" t="n">
         <v>900</v>
       </c>
       <c r="AB13" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AC13" t="n">
         <v>14</v>
       </c>
       <c r="AD13" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="AE13" t="n">
         <v>70</v>
@@ -2287,61 +2287,61 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="G14" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="H14" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I14" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="J14" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K14" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L14" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O14" t="n">
         <v>1.37</v>
       </c>
       <c r="P14" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="R14" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S14" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T14" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="U14" t="n">
         <v>1.84</v>
       </c>
       <c r="V14" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W14" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="X14" t="n">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="Y14" t="n">
         <v>36</v>
@@ -2365,13 +2365,13 @@
         <v>480</v>
       </c>
       <c r="AF14" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AG14" t="n">
         <v>40</v>
       </c>
       <c r="AH14" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI14" t="n">
         <v>380</v>
@@ -2389,7 +2389,7 @@
         <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2422,64 +2422,64 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="G15" t="n">
         <v>2.76</v>
       </c>
       <c r="H15" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J15" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="K15" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.51</v>
+        <v>1.62</v>
       </c>
       <c r="M15" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N15" t="n">
         <v>2.46</v>
       </c>
       <c r="O15" t="n">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="P15" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.48</v>
+        <v>2.72</v>
       </c>
       <c r="R15" t="n">
         <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="T15" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="U15" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="V15" t="n">
         <v>1.37</v>
       </c>
       <c r="W15" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X15" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y15" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="Z15" t="n">
         <v>24</v>
@@ -2488,22 +2488,22 @@
         <v>900</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AE15" t="n">
         <v>160</v>
       </c>
       <c r="AF15" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG15" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH15" t="n">
         <v>65</v>
@@ -2512,19 +2512,19 @@
         <v>480</v>
       </c>
       <c r="AJ15" t="n">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="AK15" t="n">
         <v>150</v>
       </c>
       <c r="AL15" t="n">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="AM15" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="AN15" t="n">
-        <v>140</v>
+        <v>600</v>
       </c>
       <c r="AO15" t="n">
         <v>600</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="G16" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H16" t="n">
         <v>4.3</v>
@@ -2581,16 +2581,16 @@
         <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O16" t="n">
         <v>1.37</v>
       </c>
       <c r="P16" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R16" t="n">
         <v>1.31</v>
@@ -2605,16 +2605,16 @@
         <v>2.04</v>
       </c>
       <c r="V16" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W16" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="X16" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z16" t="n">
         <v>30</v>
@@ -2656,10 +2656,10 @@
         <v>110</v>
       </c>
       <c r="AM16" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AO16" t="n">
         <v>70</v>
@@ -2692,31 +2692,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="G17" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H17" t="n">
         <v>1.91</v>
       </c>
       <c r="I17" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="J17" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K17" t="n">
         <v>3.85</v>
       </c>
       <c r="L17" t="n">
-        <v>1.05</v>
+        <v>1.47</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O17" t="n">
         <v>1.39</v>
@@ -2725,25 +2725,25 @@
         <v>1.85</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R17" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S17" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="T17" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U17" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="V17" t="n">
         <v>2.04</v>
       </c>
       <c r="W17" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2761,13 +2761,13 @@
         <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD17" t="n">
         <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF17" t="n">
         <v>1000</v>
@@ -2797,7 +2797,7 @@
         <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G18" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H18" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="I18" t="n">
         <v>2.56</v>
@@ -2845,34 +2845,34 @@
         <v>3.05</v>
       </c>
       <c r="L18" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="M18" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N18" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="O18" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="P18" t="n">
         <v>1.58</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="R18" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S18" t="n">
         <v>5.4</v>
       </c>
       <c r="T18" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U18" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="V18" t="n">
         <v>1.64</v>
@@ -2881,13 +2881,13 @@
         <v>1.37</v>
       </c>
       <c r="X18" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y18" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Z18" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="AA18" t="n">
         <v>230</v>
@@ -2902,16 +2902,16 @@
         <v>12.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="AF18" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AG18" t="n">
         <v>30</v>
       </c>
       <c r="AH18" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AI18" t="n">
         <v>480</v>
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="G19" t="n">
         <v>1.63</v>
       </c>
       <c r="H19" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="I19" t="n">
         <v>7.8</v>
@@ -2977,37 +2977,37 @@
         <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L19" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="M19" t="n">
         <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O19" t="n">
         <v>1.41</v>
       </c>
       <c r="P19" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="R19" t="n">
         <v>1.28</v>
       </c>
       <c r="S19" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="T19" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="U19" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="V19" t="n">
         <v>1.15</v>
@@ -3016,46 +3016,46 @@
         <v>2.58</v>
       </c>
       <c r="X19" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z19" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="AA19" t="n">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="AB19" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AC19" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE19" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AF19" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH19" t="n">
         <v>28</v>
       </c>
       <c r="AI19" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL19" t="n">
         <v>50</v>
@@ -3067,7 +3067,7 @@
         <v>12.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20">
@@ -3097,67 +3097,67 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="G20" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="H20" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="I20" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J20" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K20" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L20" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M20" t="n">
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O20" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P20" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R20" t="n">
         <v>1.35</v>
       </c>
       <c r="S20" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T20" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="U20" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V20" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="W20" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="X20" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y20" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y20" t="n">
-        <v>14</v>
-      </c>
       <c r="Z20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA20" t="n">
         <v>470</v>
@@ -3166,13 +3166,13 @@
         <v>10.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c r="AF20" t="n">
         <v>16</v>
@@ -3181,7 +3181,7 @@
         <v>12</v>
       </c>
       <c r="AH20" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI20" t="n">
         <v>260</v>
@@ -3190,7 +3190,7 @@
         <v>34</v>
       </c>
       <c r="AK20" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="AL20" t="n">
         <v>110</v>
@@ -3199,10 +3199,10 @@
         <v>580</v>
       </c>
       <c r="AN20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO20" t="n">
-        <v>600</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21">
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G21" t="n">
         <v>2.62</v>
-      </c>
-      <c r="G21" t="n">
-        <v>2.66</v>
       </c>
       <c r="H21" t="n">
         <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J21" t="n">
         <v>3.05</v>
@@ -3250,22 +3250,22 @@
         <v>3.1</v>
       </c>
       <c r="L21" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="M21" t="n">
         <v>1.12</v>
       </c>
       <c r="N21" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="O21" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="P21" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="R21" t="n">
         <v>1.22</v>
@@ -3277,19 +3277,19 @@
         <v>2.06</v>
       </c>
       <c r="U21" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V21" t="n">
         <v>1.4</v>
       </c>
       <c r="W21" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X21" t="n">
         <v>9</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Z21" t="n">
         <v>21</v>
@@ -3310,7 +3310,7 @@
         <v>50</v>
       </c>
       <c r="AF21" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AG21" t="n">
         <v>12.5</v>
@@ -3325,7 +3325,7 @@
         <v>38</v>
       </c>
       <c r="AK21" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL21" t="n">
         <v>60</v>
@@ -3367,67 +3367,67 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G22" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="H22" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I22" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="J22" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K22" t="n">
         <v>3.65</v>
       </c>
       <c r="L22" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="M22" t="n">
         <v>1.09</v>
       </c>
       <c r="N22" t="n">
-        <v>2.94</v>
+        <v>3.1</v>
       </c>
       <c r="O22" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P22" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="R22" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S22" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T22" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U22" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="V22" t="n">
         <v>1.24</v>
       </c>
       <c r="W22" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="X22" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y22" t="n">
         <v>14.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="AA22" t="n">
         <v>1000</v>
@@ -3436,16 +3436,16 @@
         <v>7.8</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE22" t="n">
         <v>200</v>
       </c>
       <c r="AF22" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG22" t="n">
         <v>11.5</v>
@@ -3457,19 +3457,19 @@
         <v>380</v>
       </c>
       <c r="AJ22" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="AK22" t="n">
         <v>26</v>
       </c>
       <c r="AL22" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3520,43 +3520,43 @@
         <v>3.2</v>
       </c>
       <c r="L23" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="M23" t="n">
         <v>1.12</v>
       </c>
       <c r="N23" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="O23" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="P23" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="R23" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S23" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="T23" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="U23" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="V23" t="n">
         <v>1.34</v>
       </c>
       <c r="W23" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X23" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Y23" t="n">
         <v>11</v>
@@ -3568,13 +3568,13 @@
         <v>80</v>
       </c>
       <c r="AB23" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC23" t="n">
         <v>7.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="AE23" t="n">
         <v>150</v>
@@ -3586,7 +3586,7 @@
         <v>11.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI23" t="n">
         <v>80</v>
@@ -3607,7 +3607,7 @@
         <v>30</v>
       </c>
       <c r="AO23" t="n">
-        <v>300</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
@@ -3655,34 +3655,34 @@
         <v>6</v>
       </c>
       <c r="L24" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M24" t="n">
         <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O24" t="n">
         <v>1.25</v>
       </c>
       <c r="P24" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="Q24" t="n">
         <v>1.72</v>
       </c>
       <c r="R24" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S24" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="T24" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="U24" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="V24" t="n">
         <v>1.08</v>
@@ -3697,7 +3697,7 @@
         <v>95</v>
       </c>
       <c r="Z24" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AA24" t="n">
         <v>1000</v>
@@ -3706,7 +3706,7 @@
         <v>8.4</v>
       </c>
       <c r="AC24" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD24" t="n">
         <v>300</v>
@@ -3715,19 +3715,19 @@
         <v>280</v>
       </c>
       <c r="AF24" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG24" t="n">
         <v>11.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI24" t="n">
         <v>220</v>
       </c>
       <c r="AJ24" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK24" t="n">
         <v>16</v>
@@ -3739,10 +3739,10 @@
         <v>240</v>
       </c>
       <c r="AN24" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AO24" t="n">
-        <v>430</v>
+        <v>480</v>
       </c>
     </row>
     <row r="25">
@@ -3775,10 +3775,10 @@
         <v>2.36</v>
       </c>
       <c r="G25" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="H25" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I25" t="n">
         <v>3.55</v>
@@ -3790,43 +3790,43 @@
         <v>3.5</v>
       </c>
       <c r="L25" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="M25" t="n">
         <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O25" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P25" t="n">
         <v>1.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="R25" t="n">
         <v>1.29</v>
       </c>
       <c r="S25" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="U25" t="n">
         <v>2.02</v>
       </c>
       <c r="V25" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W25" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="X25" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Y25" t="n">
         <v>25</v>
@@ -3841,7 +3841,7 @@
         <v>18</v>
       </c>
       <c r="AC25" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AD25" t="n">
         <v>970</v>
@@ -3874,10 +3874,10 @@
         <v>580</v>
       </c>
       <c r="AN25" t="n">
-        <v>70</v>
+        <v>600</v>
       </c>
       <c r="AO25" t="n">
-        <v>110</v>
+        <v>600</v>
       </c>
     </row>
     <row r="26">
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G26" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H26" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I26" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J26" t="n">
         <v>3.1</v>
@@ -3925,31 +3925,31 @@
         <v>3.25</v>
       </c>
       <c r="L26" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="M26" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N26" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="O26" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="P26" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.44</v>
+        <v>2.58</v>
       </c>
       <c r="R26" t="n">
         <v>1.21</v>
       </c>
       <c r="S26" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="T26" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U26" t="n">
         <v>1.83</v>
@@ -3961,7 +3961,7 @@
         <v>1.69</v>
       </c>
       <c r="X26" t="n">
-        <v>9.800000000000001</v>
+        <v>16.5</v>
       </c>
       <c r="Y26" t="n">
         <v>24</v>
@@ -3973,10 +3973,10 @@
         <v>900</v>
       </c>
       <c r="AB26" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AD26" t="n">
         <v>970</v>
@@ -4012,7 +4012,7 @@
         <v>70</v>
       </c>
       <c r="AO26" t="n">
-        <v>180</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27">
@@ -4042,79 +4042,79 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
         <v>2.16</v>
       </c>
       <c r="H27" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="J27" t="n">
         <v>3.15</v>
       </c>
       <c r="K27" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L27" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="O27" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="P27" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="R27" t="n">
         <v>1.25</v>
       </c>
       <c r="S27" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T27" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="U27" t="n">
         <v>1.87</v>
       </c>
       <c r="V27" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W27" t="n">
         <v>1.86</v>
       </c>
       <c r="X27" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z27" t="n">
         <v>85</v>
       </c>
       <c r="AA27" t="n">
-        <v>130</v>
+        <v>900</v>
       </c>
       <c r="AB27" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD27" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE27" t="n">
         <v>380</v>
@@ -4123,19 +4123,19 @@
         <v>12.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH27" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI27" t="n">
         <v>380</v>
       </c>
       <c r="AJ27" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="AK27" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="AL27" t="n">
         <v>55</v>
@@ -4147,7 +4147,7 @@
         <v>23</v>
       </c>
       <c r="AO27" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
     </row>
     <row r="28">
@@ -4183,46 +4183,46 @@
         <v>2.94</v>
       </c>
       <c r="H28" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="I28" t="n">
         <v>2.94</v>
       </c>
       <c r="J28" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K28" t="n">
         <v>3.25</v>
       </c>
       <c r="L28" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M28" t="n">
         <v>1.1</v>
       </c>
       <c r="N28" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="O28" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P28" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R28" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S28" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="T28" t="n">
         <v>1.94</v>
       </c>
       <c r="U28" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V28" t="n">
         <v>1.51</v>
@@ -4237,7 +4237,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Z28" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AA28" t="n">
         <v>130</v>
@@ -4261,7 +4261,7 @@
         <v>13</v>
       </c>
       <c r="AH28" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="AI28" t="n">
         <v>150</v>
@@ -4282,7 +4282,7 @@
         <v>44</v>
       </c>
       <c r="AO28" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29">
@@ -4312,31 +4312,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="G29" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H29" t="n">
-        <v>2.46</v>
+        <v>2.62</v>
       </c>
       <c r="I29" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="J29" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K29" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="L29" t="n">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="M29" t="n">
         <v>1.08</v>
       </c>
       <c r="N29" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O29" t="n">
         <v>1.35</v>
@@ -4345,55 +4345,55 @@
         <v>1.84</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="R29" t="n">
         <v>1.32</v>
       </c>
       <c r="S29" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="T29" t="n">
         <v>1.79</v>
       </c>
       <c r="U29" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V29" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="W29" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="X29" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y29" t="n">
         <v>11</v>
       </c>
       <c r="Z29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA29" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AB29" t="n">
         <v>11.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD29" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AF29" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AG29" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AH29" t="n">
         <v>34</v>
@@ -4405,7 +4405,7 @@
         <v>200</v>
       </c>
       <c r="AK29" t="n">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="AL29" t="n">
         <v>60</v>
@@ -4414,10 +4414,10 @@
         <v>580</v>
       </c>
       <c r="AN29" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AO29" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30">
@@ -4450,7 +4450,7 @@
         <v>2.16</v>
       </c>
       <c r="G30" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="H30" t="n">
         <v>3.9</v>
@@ -4465,13 +4465,13 @@
         <v>3.55</v>
       </c>
       <c r="L30" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="M30" t="n">
         <v>1.09</v>
       </c>
       <c r="N30" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O30" t="n">
         <v>1.41</v>
@@ -4480,40 +4480,40 @@
         <v>1.76</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R30" t="n">
         <v>1.28</v>
       </c>
       <c r="S30" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T30" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="U30" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V30" t="n">
         <v>1.32</v>
       </c>
       <c r="W30" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="X30" t="n">
         <v>12</v>
       </c>
       <c r="Y30" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA30" t="n">
-        <v>270</v>
+        <v>85</v>
       </c>
       <c r="AB30" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC30" t="n">
         <v>8</v>
@@ -4525,7 +4525,7 @@
         <v>130</v>
       </c>
       <c r="AF30" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG30" t="n">
         <v>11.5</v>
@@ -4540,10 +4540,10 @@
         <v>85</v>
       </c>
       <c r="AK30" t="n">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="AL30" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AM30" t="n">
         <v>580</v>
@@ -4552,7 +4552,7 @@
         <v>22</v>
       </c>
       <c r="AO30" t="n">
-        <v>230</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31">
@@ -4582,46 +4582,46 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="G31" t="n">
-        <v>2.56</v>
+        <v>2.2</v>
       </c>
       <c r="H31" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I31" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J31" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="K31" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="L31" t="n">
-        <v>1.54</v>
+        <v>1.68</v>
       </c>
       <c r="M31" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="N31" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="O31" t="n">
-        <v>1.35</v>
+        <v>1.66</v>
       </c>
       <c r="P31" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.64</v>
+        <v>3.05</v>
       </c>
       <c r="R31" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S31" t="n">
-        <v>2.64</v>
+        <v>1.05</v>
       </c>
       <c r="T31" t="n">
         <v>1.05</v>
@@ -4630,10 +4630,10 @@
         <v>1.51</v>
       </c>
       <c r="V31" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W31" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -4651,7 +4651,7 @@
         <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD31" t="n">
         <v>1000</v>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="G32" t="n">
         <v>1.79</v>
@@ -4726,7 +4726,7 @@
         <v>5.5</v>
       </c>
       <c r="I32" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="J32" t="n">
         <v>3.85</v>
@@ -4735,28 +4735,28 @@
         <v>3.95</v>
       </c>
       <c r="L32" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M32" t="n">
         <v>1.07</v>
       </c>
       <c r="N32" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="O32" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P32" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R32" t="n">
         <v>1.36</v>
       </c>
       <c r="S32" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="T32" t="n">
         <v>1.89</v>
@@ -4768,7 +4768,7 @@
         <v>1.21</v>
       </c>
       <c r="W32" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="X32" t="n">
         <v>14</v>
@@ -4780,10 +4780,10 @@
         <v>42</v>
       </c>
       <c r="AA32" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB32" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC32" t="n">
         <v>8.800000000000001</v>
@@ -4795,16 +4795,16 @@
         <v>80</v>
       </c>
       <c r="AF32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG32" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AH32" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI32" t="n">
-        <v>85</v>
+        <v>210</v>
       </c>
       <c r="AJ32" t="n">
         <v>18</v>
@@ -4816,7 +4816,7 @@
         <v>38</v>
       </c>
       <c r="AM32" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN32" t="n">
         <v>12</v>
@@ -4870,7 +4870,7 @@
         <v>5.3</v>
       </c>
       <c r="L33" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M33" t="n">
         <v>1.03</v>
@@ -4882,7 +4882,7 @@
         <v>1.17</v>
       </c>
       <c r="P33" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="Q33" t="n">
         <v>1.52</v>
@@ -4897,7 +4897,7 @@
         <v>1.69</v>
       </c>
       <c r="U33" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="V33" t="n">
         <v>1.16</v>
@@ -4906,10 +4906,10 @@
         <v>2.88</v>
       </c>
       <c r="X33" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="Y33" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="Z33" t="n">
         <v>65</v>
@@ -4990,58 +4990,58 @@
         <v>1.85</v>
       </c>
       <c r="G34" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="H34" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="I34" t="n">
         <v>6.2</v>
       </c>
       <c r="J34" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K34" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L34" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="M34" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N34" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="O34" t="n">
         <v>1.47</v>
       </c>
       <c r="P34" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="R34" t="n">
         <v>1.21</v>
       </c>
       <c r="S34" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="T34" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="U34" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="V34" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W34" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="X34" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y34" t="n">
         <v>15</v>
@@ -5053,10 +5053,10 @@
         <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AC34" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD34" t="n">
         <v>24</v>
@@ -5065,7 +5065,7 @@
         <v>1000</v>
       </c>
       <c r="AF34" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG34" t="n">
         <v>11.5</v>
@@ -5077,10 +5077,10 @@
         <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK34" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="AL34" t="n">
         <v>400</v>
@@ -5089,7 +5089,7 @@
         <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO34" t="n">
         <v>1000</v>
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="G35" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="H35" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I35" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J35" t="n">
         <v>3</v>
@@ -5140,16 +5140,16 @@
         <v>3.05</v>
       </c>
       <c r="L35" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M35" t="n">
         <v>1.12</v>
       </c>
       <c r="N35" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="O35" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="P35" t="n">
         <v>1.6</v>
@@ -5158,22 +5158,22 @@
         <v>2.6</v>
       </c>
       <c r="R35" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S35" t="n">
         <v>5.3</v>
       </c>
       <c r="T35" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U35" t="n">
         <v>1.87</v>
       </c>
       <c r="V35" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W35" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="X35" t="n">
         <v>8.800000000000001</v>
@@ -5218,7 +5218,7 @@
         <v>36</v>
       </c>
       <c r="AL35" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM35" t="n">
         <v>160</v>
@@ -5257,85 +5257,85 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G36" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H36" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I36" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J36" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K36" t="n">
         <v>3.75</v>
       </c>
       <c r="L36" t="n">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="M36" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N36" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="O36" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P36" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R36" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S36" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T36" t="n">
         <v>1.76</v>
       </c>
       <c r="U36" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V36" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W36" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X36" t="n">
         <v>18</v>
       </c>
       <c r="Y36" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z36" t="n">
         <v>28</v>
       </c>
       <c r="AA36" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AB36" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD36" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE36" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF36" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG36" t="n">
         <v>13.5</v>
@@ -5344,13 +5344,13 @@
         <v>20</v>
       </c>
       <c r="AI36" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AJ36" t="n">
         <v>110</v>
       </c>
       <c r="AK36" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL36" t="n">
         <v>46</v>
@@ -5362,7 +5362,7 @@
         <v>21</v>
       </c>
       <c r="AO36" t="n">
-        <v>40</v>
+        <v>600</v>
       </c>
     </row>
     <row r="37">
@@ -5392,13 +5392,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="G37" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="H37" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="I37" t="n">
         <v>8.4</v>
@@ -5407,43 +5407,43 @@
         <v>3.85</v>
       </c>
       <c r="K37" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L37" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M37" t="n">
         <v>1.09</v>
       </c>
       <c r="N37" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O37" t="n">
         <v>1.45</v>
       </c>
       <c r="P37" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q37" t="n">
         <v>2.36</v>
       </c>
       <c r="R37" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S37" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T37" t="n">
         <v>2.3</v>
       </c>
       <c r="U37" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="V37" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W37" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="X37" t="n">
         <v>11.5</v>
@@ -5455,7 +5455,7 @@
         <v>75</v>
       </c>
       <c r="AA37" t="n">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="AB37" t="n">
         <v>6.4</v>
@@ -5467,7 +5467,7 @@
         <v>34</v>
       </c>
       <c r="AE37" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AF37" t="n">
         <v>8.199999999999999</v>
@@ -5476,7 +5476,7 @@
         <v>10.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="AI37" t="n">
         <v>200</v>
@@ -5497,7 +5497,7 @@
         <v>13.5</v>
       </c>
       <c r="AO37" t="n">
-        <v>390</v>
+        <v>330</v>
       </c>
     </row>
     <row r="38">
@@ -5527,13 +5527,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="G38" t="n">
         <v>3.05</v>
       </c>
       <c r="H38" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="I38" t="n">
         <v>5.5</v>
@@ -5542,7 +5542,7 @@
         <v>3.15</v>
       </c>
       <c r="K38" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L38" t="n">
         <v>1.01</v>
@@ -5560,7 +5560,7 @@
         <v>1.25</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="R38" t="n">
         <v>1.18</v>
@@ -5623,7 +5623,7 @@
         <v>1000</v>
       </c>
       <c r="AL38" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AM38" t="n">
         <v>1000</v>
@@ -5668,55 +5668,55 @@
         <v>2.16</v>
       </c>
       <c r="H39" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I39" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J39" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K39" t="n">
         <v>4</v>
       </c>
       <c r="L39" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M39" t="n">
         <v>1.06</v>
       </c>
       <c r="N39" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="O39" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P39" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R39" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="S39" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="T39" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="U39" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V39" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W39" t="n">
         <v>1.86</v>
       </c>
       <c r="X39" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="Y39" t="n">
         <v>970</v>
@@ -5815,34 +5815,34 @@
         <v>4.3</v>
       </c>
       <c r="L40" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M40" t="n">
         <v>1.05</v>
       </c>
       <c r="N40" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O40" t="n">
         <v>1.24</v>
       </c>
       <c r="P40" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="R40" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S40" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="T40" t="n">
         <v>1.7</v>
       </c>
       <c r="U40" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V40" t="n">
         <v>2.18</v>
@@ -5851,7 +5851,7 @@
         <v>1.27</v>
       </c>
       <c r="X40" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y40" t="n">
         <v>11</v>
@@ -5869,13 +5869,13 @@
         <v>9.4</v>
       </c>
       <c r="AD40" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE40" t="n">
         <v>18</v>
       </c>
       <c r="AF40" t="n">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="AG40" t="n">
         <v>18</v>
@@ -5899,7 +5899,7 @@
         <v>80</v>
       </c>
       <c r="AN40" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO40" t="n">
         <v>9.6</v>
@@ -5932,10 +5932,10 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="G41" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H41" t="n">
         <v>6.8</v>
@@ -5944,34 +5944,34 @@
         <v>8.4</v>
       </c>
       <c r="J41" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="K41" t="n">
         <v>5.4</v>
       </c>
       <c r="L41" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="M41" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N41" t="n">
         <v>4.7</v>
       </c>
       <c r="O41" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P41" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="R41" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="S41" t="n">
-        <v>2.42</v>
+        <v>2.62</v>
       </c>
       <c r="T41" t="n">
         <v>1.83</v>
@@ -5983,7 +5983,7 @@
         <v>1.13</v>
       </c>
       <c r="W41" t="n">
-        <v>2.96</v>
+        <v>2.84</v>
       </c>
       <c r="X41" t="n">
         <v>90</v>
@@ -5998,7 +5998,7 @@
         <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AC41" t="n">
         <v>42</v>
@@ -6034,7 +6034,7 @@
         <v>130</v>
       </c>
       <c r="AN41" t="n">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="AO41" t="n">
         <v>140</v>
@@ -6067,46 +6067,46 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="G42" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="H42" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="I42" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="J42" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K42" t="n">
         <v>3.45</v>
       </c>
       <c r="L42" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M42" t="n">
         <v>1.09</v>
       </c>
       <c r="N42" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="O42" t="n">
         <v>1.4</v>
       </c>
       <c r="P42" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="Q42" t="n">
         <v>2.2</v>
       </c>
       <c r="R42" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S42" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T42" t="n">
         <v>1.9</v>
@@ -6115,10 +6115,10 @@
         <v>1.96</v>
       </c>
       <c r="V42" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W42" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="X42" t="n">
         <v>12.5</v>
@@ -6133,7 +6133,7 @@
         <v>260</v>
       </c>
       <c r="AB42" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC42" t="n">
         <v>7.8</v>
@@ -6142,19 +6142,19 @@
         <v>16.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>160</v>
+        <v>370</v>
       </c>
       <c r="AF42" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH42" t="n">
         <v>21</v>
       </c>
       <c r="AI42" t="n">
-        <v>170</v>
+        <v>380</v>
       </c>
       <c r="AJ42" t="n">
         <v>80</v>
@@ -6163,13 +6163,13 @@
         <v>70</v>
       </c>
       <c r="AL42" t="n">
-        <v>48</v>
+        <v>290</v>
       </c>
       <c r="AM42" t="n">
         <v>580</v>
       </c>
       <c r="AN42" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO42" t="n">
         <v>160</v>
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="G43" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="H43" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I43" t="n">
         <v>5</v>
@@ -6217,10 +6217,10 @@
         <v>4.1</v>
       </c>
       <c r="K43" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L43" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="M43" t="n">
         <v>1.02</v>
@@ -6232,28 +6232,28 @@
         <v>1.16</v>
       </c>
       <c r="P43" t="n">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R43" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="S43" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="T43" t="n">
         <v>1.54</v>
       </c>
       <c r="U43" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="V43" t="n">
         <v>1.25</v>
       </c>
       <c r="W43" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="X43" t="n">
         <v>95</v>
@@ -6301,7 +6301,7 @@
         <v>60</v>
       </c>
       <c r="AM43" t="n">
-        <v>580</v>
+        <v>260</v>
       </c>
       <c r="AN43" t="n">
         <v>28</v>
@@ -6337,31 +6337,31 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="G44" t="n">
         <v>3.15</v>
       </c>
       <c r="H44" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I44" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="J44" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K44" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L44" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M44" t="n">
         <v>1.08</v>
       </c>
       <c r="N44" t="n">
-        <v>2.86</v>
+        <v>3.25</v>
       </c>
       <c r="O44" t="n">
         <v>1.37</v>
@@ -6373,10 +6373,10 @@
         <v>2.1</v>
       </c>
       <c r="R44" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S44" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="T44" t="n">
         <v>1.8</v>
@@ -6385,13 +6385,13 @@
         <v>1.98</v>
       </c>
       <c r="V44" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="W44" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X44" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="Y44" t="n">
         <v>970</v>
@@ -6400,13 +6400,13 @@
         <v>970</v>
       </c>
       <c r="AA44" t="n">
-        <v>900</v>
+        <v>130</v>
       </c>
       <c r="AB44" t="n">
         <v>970</v>
       </c>
       <c r="AC44" t="n">
-        <v>14</v>
+        <v>7.8</v>
       </c>
       <c r="AD44" t="n">
         <v>970</v>
@@ -6415,25 +6415,25 @@
         <v>95</v>
       </c>
       <c r="AF44" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AG44" t="n">
         <v>970</v>
       </c>
       <c r="AH44" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AI44" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AJ44" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="AK44" t="n">
         <v>110</v>
       </c>
       <c r="AL44" t="n">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="AM44" t="n">
         <v>1000</v>
@@ -6475,7 +6475,7 @@
         <v>2.52</v>
       </c>
       <c r="G45" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H45" t="n">
         <v>3.35</v>
@@ -6490,22 +6490,22 @@
         <v>3.15</v>
       </c>
       <c r="L45" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="M45" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N45" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="O45" t="n">
         <v>1.5</v>
       </c>
       <c r="P45" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="R45" t="n">
         <v>1.22</v>
@@ -6571,7 +6571,7 @@
         <v>60</v>
       </c>
       <c r="AM45" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="AN45" t="n">
         <v>38</v>
@@ -6610,49 +6610,49 @@
         <v>2.94</v>
       </c>
       <c r="G46" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H46" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="I46" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="J46" t="n">
         <v>3.25</v>
       </c>
       <c r="K46" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L46" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M46" t="n">
         <v>1.08</v>
       </c>
       <c r="N46" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O46" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P46" t="n">
-        <v>1.37</v>
+        <v>1.84</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="R46" t="n">
         <v>1.32</v>
       </c>
       <c r="S46" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T46" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U46" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V46" t="n">
         <v>1.57</v>
@@ -6661,43 +6661,43 @@
         <v>1.47</v>
       </c>
       <c r="X46" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="Y46" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="Z46" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AA46" t="n">
-        <v>280</v>
+        <v>900</v>
       </c>
       <c r="AB46" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AC46" t="n">
-        <v>9.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD46" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AE46" t="n">
         <v>95</v>
       </c>
       <c r="AF46" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AG46" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AH46" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="AI46" t="n">
         <v>170</v>
       </c>
       <c r="AJ46" t="n">
-        <v>280</v>
+        <v>900</v>
       </c>
       <c r="AK46" t="n">
         <v>90</v>
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="G47" t="n">
         <v>3.65</v>
@@ -6751,55 +6751,55 @@
         <v>2.06</v>
       </c>
       <c r="I47" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="J47" t="n">
         <v>3.95</v>
       </c>
       <c r="K47" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L47" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="M47" t="n">
         <v>1.02</v>
       </c>
       <c r="N47" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="O47" t="n">
         <v>1.14</v>
       </c>
       <c r="P47" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="Q47" t="n">
         <v>1.45</v>
       </c>
       <c r="R47" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="S47" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="T47" t="n">
         <v>1.43</v>
       </c>
       <c r="U47" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="V47" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="W47" t="n">
         <v>1.37</v>
       </c>
       <c r="X47" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="Y47" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="Z47" t="n">
         <v>1000</v>
@@ -6811,7 +6811,7 @@
         <v>1000</v>
       </c>
       <c r="AC47" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD47" t="n">
         <v>27</v>
@@ -6829,7 +6829,7 @@
         <v>32</v>
       </c>
       <c r="AI47" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AJ47" t="n">
         <v>1000</v>
@@ -6895,7 +6895,7 @@
         <v>6.4</v>
       </c>
       <c r="L48" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M48" t="n">
         <v>1.01</v>
@@ -6910,7 +6910,7 @@
         <v>3.35</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="R48" t="n">
         <v>1.97</v>
@@ -7012,67 +7012,67 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="G49" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="H49" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="I49" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="J49" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K49" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L49" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="M49" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="V49" t="n">
         <v>1.13</v>
       </c>
-      <c r="N49" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O49" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P49" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R49" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S49" t="n">
-        <v>6</v>
-      </c>
-      <c r="T49" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="U49" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V49" t="n">
-        <v>1.12</v>
-      </c>
       <c r="W49" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="X49" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Y49" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z49" t="n">
-        <v>1000</v>
+        <v>490</v>
       </c>
       <c r="AA49" t="n">
         <v>1000</v>
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="G50" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="H50" t="n">
         <v>3.95</v>
@@ -7165,40 +7165,40 @@
         <v>3.3</v>
       </c>
       <c r="L50" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="M50" t="n">
         <v>1.1</v>
       </c>
       <c r="N50" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O50" t="n">
         <v>1.45</v>
       </c>
       <c r="P50" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="R50" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S50" t="n">
         <v>4.5</v>
       </c>
       <c r="T50" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U50" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V50" t="n">
         <v>1.31</v>
       </c>
       <c r="W50" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X50" t="n">
         <v>11</v>
@@ -7207,7 +7207,7 @@
         <v>12.5</v>
       </c>
       <c r="Z50" t="n">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="AA50" t="n">
         <v>290</v>
@@ -7219,7 +7219,7 @@
         <v>7.2</v>
       </c>
       <c r="AD50" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="AE50" t="n">
         <v>150</v>
@@ -7282,13 +7282,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="G51" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="H51" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I51" t="n">
         <v>6.6</v>
@@ -7297,43 +7297,43 @@
         <v>4</v>
       </c>
       <c r="K51" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L51" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M51" t="n">
         <v>1.08</v>
       </c>
       <c r="N51" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O51" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P51" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U51" t="n">
         <v>1.78</v>
       </c>
-      <c r="Q51" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R51" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S51" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="T51" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U51" t="n">
-        <v>1.8</v>
-      </c>
       <c r="V51" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W51" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="X51" t="n">
         <v>25</v>
@@ -7351,7 +7351,7 @@
         <v>7.4</v>
       </c>
       <c r="AC51" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD51" t="n">
         <v>65</v>
@@ -7417,25 +7417,25 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="G52" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="H52" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="I52" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="J52" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K52" t="n">
         <v>3.8</v>
       </c>
       <c r="L52" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M52" t="n">
         <v>1.09</v>
@@ -7444,10 +7444,10 @@
         <v>3.4</v>
       </c>
       <c r="O52" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P52" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q52" t="n">
         <v>2.24</v>
@@ -7459,16 +7459,16 @@
         <v>4.1</v>
       </c>
       <c r="T52" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U52" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="V52" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="W52" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="X52" t="n">
         <v>12</v>
@@ -7480,7 +7480,7 @@
         <v>9.4</v>
       </c>
       <c r="AA52" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB52" t="n">
         <v>16</v>
@@ -7495,7 +7495,7 @@
         <v>21</v>
       </c>
       <c r="AF52" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AG52" t="n">
         <v>22</v>
@@ -7552,34 +7552,34 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="G53" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="H53" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="I53" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="J53" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="K53" t="n">
         <v>3</v>
       </c>
       <c r="L53" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="M53" t="n">
         <v>1.16</v>
       </c>
       <c r="N53" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="O53" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="P53" t="n">
         <v>1.42</v>
@@ -7591,43 +7591,43 @@
         <v>1.14</v>
       </c>
       <c r="S53" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="T53" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="U53" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="V53" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="W53" t="n">
         <v>1.35</v>
       </c>
       <c r="X53" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC53" t="n">
         <v>7.4</v>
       </c>
-      <c r="Y53" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>230</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>7</v>
-      </c>
       <c r="AD53" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AE53" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AF53" t="n">
         <v>25</v>
@@ -7636,10 +7636,10 @@
         <v>24</v>
       </c>
       <c r="AH53" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AI53" t="n">
-        <v>480</v>
+        <v>230</v>
       </c>
       <c r="AJ53" t="n">
         <v>260</v>
@@ -7648,16 +7648,16 @@
         <v>190</v>
       </c>
       <c r="AL53" t="n">
-        <v>350</v>
+        <v>260</v>
       </c>
       <c r="AM53" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AN53" t="n">
         <v>140</v>
       </c>
       <c r="AO53" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54">
@@ -7687,46 +7687,46 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="G54" t="n">
         <v>1.97</v>
       </c>
       <c r="H54" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="I54" t="n">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="J54" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="K54" t="n">
         <v>3.7</v>
       </c>
       <c r="L54" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M54" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N54" t="n">
-        <v>2.56</v>
+        <v>3.1</v>
       </c>
       <c r="O54" t="n">
         <v>1.42</v>
       </c>
       <c r="P54" t="n">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="R54" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="S54" t="n">
-        <v>3.35</v>
+        <v>4.1</v>
       </c>
       <c r="T54" t="n">
         <v>1.05</v>
@@ -7735,7 +7735,7 @@
         <v>1.04</v>
       </c>
       <c r="V54" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W54" t="n">
         <v>2.02</v>
@@ -7855,19 +7855,19 @@
         <v>2.26</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R55" t="n">
         <v>1.5</v>
       </c>
       <c r="S55" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="T55" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U55" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V55" t="n">
         <v>2.42</v>
@@ -7885,7 +7885,7 @@
         <v>10.5</v>
       </c>
       <c r="AA55" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AB55" t="n">
         <v>22</v>
@@ -7897,7 +7897,7 @@
         <v>9.6</v>
       </c>
       <c r="AE55" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF55" t="n">
         <v>42</v>
@@ -7957,25 +7957,25 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="G56" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="H56" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I56" t="n">
         <v>5.3</v>
       </c>
-      <c r="I56" t="n">
-        <v>5.5</v>
-      </c>
       <c r="J56" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K56" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L56" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M56" t="n">
         <v>1.07</v>
@@ -7987,16 +7987,16 @@
         <v>1.34</v>
       </c>
       <c r="P56" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R56" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S56" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T56" t="n">
         <v>1.92</v>
@@ -8005,10 +8005,10 @@
         <v>2.02</v>
       </c>
       <c r="V56" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W56" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="X56" t="n">
         <v>13.5</v>
@@ -8017,7 +8017,7 @@
         <v>17.5</v>
       </c>
       <c r="Z56" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AA56" t="n">
         <v>140</v>
@@ -8026,7 +8026,7 @@
         <v>8.4</v>
       </c>
       <c r="AC56" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD56" t="n">
         <v>20</v>
@@ -8041,13 +8041,13 @@
         <v>9.6</v>
       </c>
       <c r="AH56" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI56" t="n">
         <v>75</v>
       </c>
       <c r="AJ56" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AK56" t="n">
         <v>18.5</v>
@@ -8059,7 +8059,7 @@
         <v>120</v>
       </c>
       <c r="AN56" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AO56" t="n">
         <v>90</v>
@@ -8092,25 +8092,25 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="G57" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="H57" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="I57" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J57" t="n">
         <v>3.1</v>
       </c>
       <c r="K57" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L57" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="M57" t="n">
         <v>1.12</v>
@@ -8119,37 +8119,37 @@
         <v>2.78</v>
       </c>
       <c r="O57" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="P57" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="R57" t="n">
         <v>1.21</v>
       </c>
       <c r="S57" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="T57" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="U57" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="V57" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W57" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="X57" t="n">
         <v>8.6</v>
       </c>
       <c r="Y57" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Z57" t="n">
         <v>18</v>
@@ -8173,10 +8173,10 @@
         <v>17.5</v>
       </c>
       <c r="AG57" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH57" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI57" t="n">
         <v>70</v>
@@ -8185,10 +8185,10 @@
         <v>55</v>
       </c>
       <c r="AK57" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AL57" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM57" t="n">
         <v>170</v>
@@ -8227,16 +8227,16 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="G58" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H58" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="I58" t="n">
-        <v>2.84</v>
+        <v>2.72</v>
       </c>
       <c r="J58" t="n">
         <v>3.15</v>
@@ -8245,28 +8245,28 @@
         <v>3.5</v>
       </c>
       <c r="L58" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="M58" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N58" t="n">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="O58" t="n">
         <v>1.36</v>
       </c>
       <c r="P58" t="n">
-        <v>1.71</v>
+        <v>1.9</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="R58" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="S58" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="T58" t="n">
         <v>1.04</v>
@@ -8275,10 +8275,10 @@
         <v>1.04</v>
       </c>
       <c r="V58" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="W58" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="X58" t="n">
         <v>27</v>
@@ -8293,7 +8293,7 @@
         <v>170</v>
       </c>
       <c r="AB58" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AC58" t="n">
         <v>14</v>
@@ -8362,112 +8362,112 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="G59" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="H59" t="n">
         <v>3.75</v>
       </c>
       <c r="I59" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="J59" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K59" t="n">
         <v>3.55</v>
       </c>
       <c r="L59" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M59" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N59" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="O59" t="n">
         <v>1.29</v>
       </c>
       <c r="P59" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="R59" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S59" t="n">
         <v>3.2</v>
       </c>
       <c r="T59" t="n">
-        <v>1.7</v>
+        <v>1.04</v>
       </c>
       <c r="U59" t="n">
-        <v>2.14</v>
+        <v>1.04</v>
       </c>
       <c r="V59" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="W59" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="X59" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="Y59" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Z59" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AA59" t="n">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="AB59" t="n">
         <v>11</v>
       </c>
       <c r="AC59" t="n">
-        <v>7.8</v>
+        <v>16</v>
       </c>
       <c r="AD59" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE59" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AF59" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG59" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH59" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AI59" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AJ59" t="n">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="AK59" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL59" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AM59" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="AN59" t="n">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="AO59" t="n">
-        <v>42</v>
+        <v>230</v>
       </c>
     </row>
     <row r="60">
@@ -8506,49 +8506,49 @@
         <v>6</v>
       </c>
       <c r="I60" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="J60" t="n">
-        <v>6.4</v>
+        <v>3.7</v>
       </c>
       <c r="K60" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="L60" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="M60" t="n">
         <v>1.01</v>
       </c>
       <c r="N60" t="n">
-        <v>3.45</v>
+        <v>1.1</v>
       </c>
       <c r="O60" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="P60" t="n">
         <v>4.4</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="R60" t="n">
         <v>2.46</v>
       </c>
       <c r="S60" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="T60" t="n">
-        <v>1.66</v>
+        <v>1.04</v>
       </c>
       <c r="U60" t="n">
-        <v>2.18</v>
+        <v>1.87</v>
       </c>
       <c r="V60" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W60" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="X60" t="n">
         <v>1000</v>
@@ -8566,25 +8566,25 @@
         <v>21</v>
       </c>
       <c r="AC60" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AD60" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AE60" t="n">
         <v>170</v>
       </c>
       <c r="AF60" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG60" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH60" t="n">
         <v>1000</v>
       </c>
       <c r="AI60" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ60" t="n">
         <v>13</v>
@@ -8593,13 +8593,13 @@
         <v>14.5</v>
       </c>
       <c r="AL60" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AM60" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN60" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="AO60" t="n">
         <v>1000</v>
@@ -8632,55 +8632,55 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G61" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="H61" t="n">
         <v>3.25</v>
       </c>
       <c r="I61" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J61" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K61" t="n">
         <v>3.6</v>
       </c>
       <c r="L61" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M61" t="n">
         <v>1.09</v>
       </c>
       <c r="N61" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O61" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P61" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="R61" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S61" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T61" t="n">
         <v>1.89</v>
       </c>
       <c r="U61" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V61" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W61" t="n">
         <v>1.66</v>
@@ -8689,13 +8689,13 @@
         <v>12</v>
       </c>
       <c r="Y61" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z61" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA61" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AB61" t="n">
         <v>10</v>
@@ -8704,16 +8704,16 @@
         <v>9</v>
       </c>
       <c r="AD61" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE61" t="n">
         <v>60</v>
       </c>
       <c r="AF61" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG61" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH61" t="n">
         <v>21</v>
@@ -8722,19 +8722,19 @@
         <v>65</v>
       </c>
       <c r="AJ61" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AK61" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL61" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM61" t="n">
         <v>150</v>
       </c>
       <c r="AN61" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AO61" t="n">
         <v>65</v>
@@ -8767,7 +8767,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="G62" t="n">
         <v>2.36</v>
@@ -8785,13 +8785,13 @@
         <v>3.75</v>
       </c>
       <c r="L62" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M62" t="n">
         <v>1.08</v>
       </c>
       <c r="N62" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="O62" t="n">
         <v>1.4</v>
@@ -8800,13 +8800,13 @@
         <v>1.72</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R62" t="n">
         <v>1.27</v>
       </c>
       <c r="S62" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T62" t="n">
         <v>1.88</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-08.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="G2" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="H2" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="I2" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="K2" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="L2" t="n">
         <v>1.45</v>
@@ -691,7 +691,7 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -700,52 +700,52 @@
         <v>1.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S2" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U2" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V2" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="W2" t="n">
-        <v>2.32</v>
+        <v>2.46</v>
       </c>
       <c r="X2" t="n">
         <v>13</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AA2" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="AB2" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AE2" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AG2" t="n">
         <v>9.800000000000001</v>
@@ -754,25 +754,25 @@
         <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>290</v>
+        <v>120</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL2" t="n">
         <v>40</v>
       </c>
       <c r="AM2" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN2" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AO2" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3">
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="G3" t="n">
-        <v>5.2</v>
+        <v>4.2</v>
       </c>
       <c r="H3" t="n">
-        <v>1.86</v>
+        <v>2.1</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K3" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="L3" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
@@ -832,64 +832,64 @@
         <v>1.38</v>
       </c>
       <c r="P3" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R3" t="n">
         <v>1.31</v>
       </c>
       <c r="S3" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T3" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="U3" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>2.02</v>
+        <v>1.81</v>
       </c>
       <c r="W3" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="X3" t="n">
-        <v>19.5</v>
+        <v>13</v>
       </c>
       <c r="Y3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z3" t="n">
         <v>14</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>22</v>
       </c>
       <c r="AA3" t="n">
         <v>48</v>
       </c>
       <c r="AB3" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE3" t="n">
         <v>44</v>
       </c>
       <c r="AF3" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AH3" t="n">
         <v>38</v>
       </c>
       <c r="AI3" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="G4" t="n">
         <v>6.4</v>
       </c>
       <c r="H4" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="I4" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="J4" t="n">
         <v>5</v>
@@ -961,16 +961,16 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P4" t="n">
         <v>2.58</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="R4" t="n">
         <v>1.63</v>
@@ -982,19 +982,19 @@
         <v>1.73</v>
       </c>
       <c r="U4" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V4" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="W4" t="n">
         <v>1.19</v>
       </c>
       <c r="X4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y4" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z4" t="n">
         <v>11.5</v>
@@ -1003,7 +1003,7 @@
         <v>15</v>
       </c>
       <c r="AB4" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AC4" t="n">
         <v>12.5</v>
@@ -1018,7 +1018,7 @@
         <v>60</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH4" t="n">
         <v>21</v>
@@ -1030,10 +1030,10 @@
         <v>180</v>
       </c>
       <c r="AK4" t="n">
-        <v>75</v>
+        <v>970</v>
       </c>
       <c r="AL4" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>65</v>
       </c>
       <c r="AO4" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="5">
@@ -1072,64 +1072,64 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="G5" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I5" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J5" t="n">
         <v>4.8</v>
       </c>
       <c r="K5" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
         <v>3.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="P5" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="R5" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S5" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="T5" t="n">
-        <v>1.04</v>
+        <v>2.36</v>
       </c>
       <c r="U5" t="n">
-        <v>1.04</v>
+        <v>1.64</v>
       </c>
       <c r="V5" t="n">
         <v>1.06</v>
       </c>
       <c r="W5" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="X5" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1138,10 +1138,10 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1153,10 +1153,10 @@
         <v>7.4</v>
       </c>
       <c r="AG5" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1168,7 +1168,7 @@
         <v>18.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>150</v>
+        <v>460</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="H6" t="n">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="I6" t="n">
         <v>2.02</v>
@@ -1222,7 +1222,7 @@
         <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L6" t="n">
         <v>1.55</v>
@@ -1231,13 +1231,13 @@
         <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="O6" t="n">
         <v>1.48</v>
       </c>
       <c r="P6" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="Q6" t="n">
         <v>2.5</v>
@@ -1246,7 +1246,7 @@
         <v>1.21</v>
       </c>
       <c r="S6" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T6" t="n">
         <v>2.08</v>
@@ -1258,19 +1258,19 @@
         <v>1.98</v>
       </c>
       <c r="W6" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="X6" t="n">
         <v>970</v>
       </c>
       <c r="Y6" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="Z6" t="n">
         <v>40</v>
       </c>
       <c r="AA6" t="n">
-        <v>46</v>
+        <v>900</v>
       </c>
       <c r="AB6" t="n">
         <v>970</v>
@@ -1282,7 +1282,7 @@
         <v>40</v>
       </c>
       <c r="AE6" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AF6" t="n">
         <v>120</v>
@@ -1294,7 +1294,7 @@
         <v>80</v>
       </c>
       <c r="AI6" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
@@ -1345,19 +1345,19 @@
         <v>1.24</v>
       </c>
       <c r="G7" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="H7" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="I7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J7" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="K7" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="L7" t="n">
         <v>1.32</v>
@@ -1366,16 +1366,16 @@
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O7" t="n">
         <v>1.21</v>
       </c>
       <c r="P7" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R7" t="n">
         <v>1.54</v>
@@ -1399,7 +1399,7 @@
         <v>42</v>
       </c>
       <c r="Y7" t="n">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="Z7" t="n">
         <v>190</v>
@@ -1408,16 +1408,16 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC7" t="n">
         <v>15.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="AE7" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="AF7" t="n">
         <v>7.6</v>
@@ -1426,7 +1426,7 @@
         <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AI7" t="n">
         <v>260</v>
@@ -1444,7 +1444,7 @@
         <v>280</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="G8" t="n">
         <v>1.65</v>
       </c>
       <c r="H8" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="I8" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="J8" t="n">
         <v>4.1</v>
@@ -1501,28 +1501,28 @@
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O8" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P8" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R8" t="n">
         <v>1.29</v>
       </c>
       <c r="S8" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="T8" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U8" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V8" t="n">
         <v>1.16</v>
@@ -1549,7 +1549,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD8" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE8" t="n">
         <v>130</v>
@@ -1573,13 +1573,13 @@
         <v>19</v>
       </c>
       <c r="AL8" t="n">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="AM8" t="n">
-        <v>580</v>
+        <v>190</v>
       </c>
       <c r="AN8" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO8" t="n">
         <v>180</v>
@@ -1615,10 +1615,10 @@
         <v>2.32</v>
       </c>
       <c r="G9" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I9" t="n">
         <v>3.95</v>
@@ -1627,7 +1627,7 @@
         <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="L9" t="n">
         <v>1.53</v>
@@ -1642,7 +1642,7 @@
         <v>1.46</v>
       </c>
       <c r="P9" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="Q9" t="n">
         <v>2.4</v>
@@ -1657,13 +1657,13 @@
         <v>1.97</v>
       </c>
       <c r="U9" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="V9" t="n">
         <v>1.34</v>
       </c>
       <c r="W9" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="X9" t="n">
         <v>18.5</v>
@@ -1681,7 +1681,7 @@
         <v>16.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD9" t="n">
         <v>55</v>
@@ -1693,7 +1693,7 @@
         <v>28</v>
       </c>
       <c r="AG9" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AH9" t="n">
         <v>55</v>
@@ -1756,46 +1756,46 @@
         <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="K10" t="n">
         <v>3.3</v>
       </c>
       <c r="L10" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="P10" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="R10" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S10" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="T10" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="U10" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="V10" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W10" t="n">
         <v>1.62</v>
@@ -1807,7 +1807,7 @@
         <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA10" t="n">
         <v>900</v>
@@ -1822,7 +1822,7 @@
         <v>16</v>
       </c>
       <c r="AE10" t="n">
-        <v>160</v>
+        <v>370</v>
       </c>
       <c r="AF10" t="n">
         <v>15.5</v>
@@ -1837,7 +1837,7 @@
         <v>400</v>
       </c>
       <c r="AJ10" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="AK10" t="n">
         <v>110</v>
@@ -1849,10 +1849,10 @@
         <v>170</v>
       </c>
       <c r="AN10" t="n">
-        <v>34</v>
+        <v>600</v>
       </c>
       <c r="AO10" t="n">
-        <v>170</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11">
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="G11" t="n">
         <v>3.2</v>
       </c>
       <c r="H11" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="I11" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="J11" t="n">
         <v>3.15</v>
@@ -1906,52 +1906,52 @@
         <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P11" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="R11" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S11" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="U11" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V11" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="W11" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="X11" t="n">
         <v>22</v>
       </c>
       <c r="Y11" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AA11" t="n">
         <v>900</v>
       </c>
       <c r="AB11" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AC11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD11" t="n">
         <v>28</v>
@@ -1972,10 +1972,10 @@
         <v>300</v>
       </c>
       <c r="AJ11" t="n">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="AK11" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AL11" t="n">
         <v>300</v>
@@ -2017,109 +2017,109 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="G12" t="n">
-        <v>2.3</v>
+        <v>2.54</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K12" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L12" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="M12" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N12" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.6</v>
       </c>
       <c r="P12" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="R12" t="n">
         <v>1.18</v>
       </c>
       <c r="S12" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="T12" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="U12" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="V12" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="W12" t="n">
-        <v>1.77</v>
+        <v>1.66</v>
       </c>
       <c r="X12" t="n">
         <v>8.6</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z12" t="n">
         <v>80</v>
       </c>
       <c r="AA12" t="n">
-        <v>900</v>
+        <v>310</v>
       </c>
       <c r="AB12" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="AF12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG12" t="n">
         <v>13</v>
       </c>
-      <c r="AG12" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI12" t="n">
-        <v>290</v>
+        <v>340</v>
       </c>
       <c r="AJ12" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AK12" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AL12" t="n">
-        <v>480</v>
+        <v>170</v>
       </c>
       <c r="AM12" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="AN12" t="n">
-        <v>90</v>
+        <v>600</v>
       </c>
       <c r="AO12" t="n">
         <v>600</v>
@@ -2155,13 +2155,13 @@
         <v>4.7</v>
       </c>
       <c r="G13" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="H13" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="I13" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="J13" t="n">
         <v>3.85</v>
@@ -2176,34 +2176,34 @@
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O13" t="n">
         <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R13" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S13" t="n">
         <v>3.2</v>
       </c>
       <c r="T13" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U13" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V13" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="W13" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="X13" t="n">
         <v>970</v>
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="G14" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="H14" t="n">
         <v>5.3</v>
@@ -2299,7 +2299,7 @@
         <v>6.2</v>
       </c>
       <c r="J14" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K14" t="n">
         <v>3.85</v>
@@ -2308,7 +2308,7 @@
         <v>1.46</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N14" t="n">
         <v>3.3</v>
@@ -2317,10 +2317,10 @@
         <v>1.37</v>
       </c>
       <c r="P14" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R14" t="n">
         <v>1.29</v>
@@ -2329,22 +2329,22 @@
         <v>3.9</v>
       </c>
       <c r="T14" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="U14" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V14" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W14" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y14" t="n">
         <v>28</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>36</v>
       </c>
       <c r="Z14" t="n">
         <v>140</v>
@@ -2353,10 +2353,10 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>29</v>
+        <v>16.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>42</v>
+        <v>8.4</v>
       </c>
       <c r="AD14" t="n">
         <v>65</v>
@@ -2368,16 +2368,16 @@
         <v>11</v>
       </c>
       <c r="AG14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH14" t="n">
         <v>40</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>60</v>
       </c>
       <c r="AI14" t="n">
         <v>380</v>
       </c>
       <c r="AJ14" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AK14" t="n">
         <v>70</v>
@@ -2389,7 +2389,7 @@
         <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2425,7 +2425,7 @@
         <v>2.46</v>
       </c>
       <c r="G15" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="H15" t="n">
         <v>3.3</v>
@@ -2434,79 +2434,79 @@
         <v>3.75</v>
       </c>
       <c r="J15" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="K15" t="n">
         <v>3.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="M15" t="n">
         <v>1.13</v>
       </c>
       <c r="N15" t="n">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="O15" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="P15" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="R15" t="n">
         <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="T15" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="U15" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="V15" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W15" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="X15" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="Z15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA15" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="AB15" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC15" t="n">
         <v>7.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE15" t="n">
         <v>160</v>
       </c>
       <c r="AF15" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AI15" t="n">
         <v>480</v>
@@ -2518,10 +2518,10 @@
         <v>150</v>
       </c>
       <c r="AL15" t="n">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="AM15" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="AN15" t="n">
         <v>600</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G16" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H16" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I16" t="n">
         <v>4.3</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4.5</v>
       </c>
       <c r="J16" t="n">
         <v>3.4</v>
       </c>
       <c r="K16" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L16" t="n">
         <v>1.46</v>
@@ -2605,22 +2605,22 @@
         <v>2.04</v>
       </c>
       <c r="V16" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W16" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="X16" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y16" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z16" t="n">
         <v>30</v>
       </c>
       <c r="AA16" t="n">
-        <v>100</v>
+        <v>970</v>
       </c>
       <c r="AB16" t="n">
         <v>8.6</v>
@@ -2647,22 +2647,22 @@
         <v>70</v>
       </c>
       <c r="AJ16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK16" t="n">
         <v>24</v>
       </c>
       <c r="AL16" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AM16" t="n">
         <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AO16" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
@@ -2698,16 +2698,16 @@
         <v>4.8</v>
       </c>
       <c r="H17" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="I17" t="n">
         <v>1.96</v>
       </c>
       <c r="J17" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K17" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L17" t="n">
         <v>1.47</v>
@@ -2734,16 +2734,16 @@
         <v>4.1</v>
       </c>
       <c r="T17" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U17" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V17" t="n">
         <v>2.04</v>
       </c>
       <c r="W17" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2776,7 +2776,7 @@
         <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI17" t="n">
         <v>1000</v>
@@ -2794,10 +2794,10 @@
         <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO17" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="G18" t="n">
         <v>3.75</v>
@@ -2857,19 +2857,19 @@
         <v>1.54</v>
       </c>
       <c r="P18" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="R18" t="n">
         <v>1.2</v>
       </c>
       <c r="S18" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="T18" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U18" t="n">
         <v>1.83</v>
@@ -2881,19 +2881,19 @@
         <v>1.37</v>
       </c>
       <c r="X18" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Y18" t="n">
         <v>7.8</v>
       </c>
       <c r="Z18" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="AB18" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC18" t="n">
         <v>7.2</v>
@@ -2905,22 +2905,22 @@
         <v>38</v>
       </c>
       <c r="AF18" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AG18" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="AH18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI18" t="n">
-        <v>480</v>
+        <v>70</v>
       </c>
       <c r="AJ18" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AK18" t="n">
-        <v>450</v>
+        <v>95</v>
       </c>
       <c r="AL18" t="n">
         <v>480</v>
@@ -2929,10 +2929,10 @@
         <v>200</v>
       </c>
       <c r="AN18" t="n">
-        <v>600</v>
+        <v>230</v>
       </c>
       <c r="AO18" t="n">
-        <v>600</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19">
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="G19" t="n">
         <v>1.63</v>
       </c>
       <c r="H19" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="I19" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J19" t="n">
         <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L19" t="n">
         <v>1.48</v>
@@ -2989,13 +2989,13 @@
         <v>3.3</v>
       </c>
       <c r="O19" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P19" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R19" t="n">
         <v>1.28</v>
@@ -3028,7 +3028,7 @@
         <v>280</v>
       </c>
       <c r="AB19" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC19" t="n">
         <v>9.199999999999999</v>
@@ -3037,13 +3037,13 @@
         <v>29</v>
       </c>
       <c r="AE19" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AF19" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AG19" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH19" t="n">
         <v>28</v>
@@ -3067,7 +3067,7 @@
         <v>12.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20">
@@ -3106,7 +3106,7 @@
         <v>3.45</v>
       </c>
       <c r="I20" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J20" t="n">
         <v>3.25</v>
@@ -3115,13 +3115,13 @@
         <v>3.35</v>
       </c>
       <c r="L20" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M20" t="n">
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O20" t="n">
         <v>1.35</v>
@@ -3130,19 +3130,19 @@
         <v>1.89</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R20" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S20" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T20" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U20" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V20" t="n">
         <v>1.38</v>
@@ -3157,7 +3157,7 @@
         <v>13.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA20" t="n">
         <v>470</v>
@@ -3166,10 +3166,10 @@
         <v>10.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE20" t="n">
         <v>190</v>
@@ -3181,7 +3181,7 @@
         <v>12</v>
       </c>
       <c r="AH20" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI20" t="n">
         <v>260</v>
@@ -3202,7 +3202,7 @@
         <v>22</v>
       </c>
       <c r="AO20" t="n">
-        <v>48</v>
+        <v>600</v>
       </c>
     </row>
     <row r="21">
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="G21" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="H21" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I21" t="n">
         <v>3.4</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3.5</v>
       </c>
       <c r="J21" t="n">
         <v>3.05</v>
@@ -3259,7 +3259,7 @@
         <v>2.92</v>
       </c>
       <c r="O21" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="P21" t="n">
         <v>1.62</v>
@@ -3274,22 +3274,22 @@
         <v>5.2</v>
       </c>
       <c r="T21" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U21" t="n">
         <v>1.89</v>
       </c>
       <c r="V21" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W21" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="X21" t="n">
         <v>9</v>
       </c>
       <c r="Y21" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z21" t="n">
         <v>21</v>
@@ -3298,7 +3298,7 @@
         <v>65</v>
       </c>
       <c r="AB21" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC21" t="n">
         <v>6.8</v>
@@ -3319,7 +3319,7 @@
         <v>21</v>
       </c>
       <c r="AI21" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ21" t="n">
         <v>38</v>
@@ -3331,7 +3331,7 @@
         <v>60</v>
       </c>
       <c r="AM21" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN21" t="n">
         <v>36</v>
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G22" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="H22" t="n">
         <v>4.4</v>
@@ -3379,7 +3379,7 @@
         <v>5.2</v>
       </c>
       <c r="J22" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K22" t="n">
         <v>3.65</v>
@@ -3394,16 +3394,16 @@
         <v>3.1</v>
       </c>
       <c r="O22" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P22" t="n">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="Q22" t="n">
         <v>2.22</v>
       </c>
       <c r="R22" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S22" t="n">
         <v>4.2</v>
@@ -3412,13 +3412,13 @@
         <v>1.98</v>
       </c>
       <c r="U22" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V22" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W22" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="X22" t="n">
         <v>11.5</v>
@@ -3427,7 +3427,7 @@
         <v>14.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AA22" t="n">
         <v>1000</v>
@@ -3448,7 +3448,7 @@
         <v>12</v>
       </c>
       <c r="AG22" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH22" t="n">
         <v>23</v>
@@ -3457,13 +3457,13 @@
         <v>380</v>
       </c>
       <c r="AJ22" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AK22" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AL22" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
@@ -3526,13 +3526,13 @@
         <v>1.12</v>
       </c>
       <c r="N23" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="O23" t="n">
         <v>1.51</v>
       </c>
       <c r="P23" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="Q23" t="n">
         <v>2.52</v>
@@ -3547,7 +3547,7 @@
         <v>2.1</v>
       </c>
       <c r="U23" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="V23" t="n">
         <v>1.34</v>
@@ -3565,7 +3565,7 @@
         <v>25</v>
       </c>
       <c r="AA23" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB23" t="n">
         <v>7.8</v>
@@ -3574,10 +3574,10 @@
         <v>7.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="AE23" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="AF23" t="n">
         <v>13</v>
@@ -3586,7 +3586,7 @@
         <v>11.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI23" t="n">
         <v>80</v>
@@ -3598,10 +3598,10 @@
         <v>32</v>
       </c>
       <c r="AL23" t="n">
-        <v>370</v>
+        <v>60</v>
       </c>
       <c r="AM23" t="n">
-        <v>170</v>
+        <v>580</v>
       </c>
       <c r="AN23" t="n">
         <v>30</v>
@@ -3643,16 +3643,16 @@
         <v>1.35</v>
       </c>
       <c r="H24" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="I24" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="J24" t="n">
         <v>5.4</v>
       </c>
       <c r="K24" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L24" t="n">
         <v>1.34</v>
@@ -3670,34 +3670,34 @@
         <v>2.2</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="R24" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S24" t="n">
         <v>2.84</v>
       </c>
       <c r="T24" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="U24" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="V24" t="n">
         <v>1.08</v>
       </c>
       <c r="W24" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="X24" t="n">
         <v>21</v>
       </c>
       <c r="Y24" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="Z24" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AA24" t="n">
         <v>1000</v>
@@ -3706,25 +3706,25 @@
         <v>8.4</v>
       </c>
       <c r="AC24" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD24" t="n">
         <v>300</v>
       </c>
       <c r="AE24" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="AF24" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AG24" t="n">
         <v>11.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="AI24" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AJ24" t="n">
         <v>10.5</v>
@@ -3736,13 +3736,13 @@
         <v>250</v>
       </c>
       <c r="AM24" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AN24" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AO24" t="n">
-        <v>480</v>
+        <v>390</v>
       </c>
     </row>
     <row r="25">
@@ -3775,7 +3775,7 @@
         <v>2.36</v>
       </c>
       <c r="G25" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="H25" t="n">
         <v>3.3</v>
@@ -3784,46 +3784,46 @@
         <v>3.55</v>
       </c>
       <c r="J25" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K25" t="n">
         <v>3.5</v>
       </c>
       <c r="L25" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M25" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N25" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O25" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P25" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="R25" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T25" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="U25" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V25" t="n">
         <v>1.4</v>
       </c>
       <c r="W25" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="X25" t="n">
         <v>26</v>
@@ -3841,7 +3841,7 @@
         <v>18</v>
       </c>
       <c r="AC25" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD25" t="n">
         <v>970</v>
@@ -3862,7 +3862,7 @@
         <v>380</v>
       </c>
       <c r="AJ25" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AK25" t="n">
         <v>110</v>
@@ -3907,13 +3907,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G26" t="n">
         <v>2.46</v>
       </c>
       <c r="H26" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I26" t="n">
         <v>3.9</v>
@@ -3931,7 +3931,7 @@
         <v>1.12</v>
       </c>
       <c r="N26" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="O26" t="n">
         <v>1.51</v>
@@ -3961,10 +3961,10 @@
         <v>1.69</v>
       </c>
       <c r="X26" t="n">
-        <v>16.5</v>
+        <v>12</v>
       </c>
       <c r="Y26" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Z26" t="n">
         <v>85</v>
@@ -3973,22 +3973,22 @@
         <v>900</v>
       </c>
       <c r="AB26" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC26" t="n">
         <v>7</v>
       </c>
       <c r="AD26" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AE26" t="n">
         <v>380</v>
       </c>
       <c r="AF26" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AG26" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AH26" t="n">
         <v>65</v>
@@ -3997,7 +3997,7 @@
         <v>400</v>
       </c>
       <c r="AJ26" t="n">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="AK26" t="n">
         <v>110</v>
@@ -4009,7 +4009,7 @@
         <v>580</v>
       </c>
       <c r="AN26" t="n">
-        <v>70</v>
+        <v>600</v>
       </c>
       <c r="AO26" t="n">
         <v>600</v>
@@ -4045,22 +4045,22 @@
         <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I27" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J27" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K27" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L27" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M27" t="n">
         <v>1.09</v>
@@ -4072,7 +4072,7 @@
         <v>1.42</v>
       </c>
       <c r="P27" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q27" t="n">
         <v>2.24</v>
@@ -4093,28 +4093,28 @@
         <v>1.27</v>
       </c>
       <c r="W27" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="X27" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y27" t="n">
         <v>13.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="AA27" t="n">
         <v>900</v>
       </c>
       <c r="AB27" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AE27" t="n">
         <v>380</v>
@@ -4123,10 +4123,10 @@
         <v>12.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI27" t="n">
         <v>380</v>
@@ -4138,13 +4138,13 @@
         <v>48</v>
       </c>
       <c r="AL27" t="n">
-        <v>55</v>
+        <v>300</v>
       </c>
       <c r="AM27" t="n">
         <v>580</v>
       </c>
       <c r="AN27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO27" t="n">
         <v>600</v>
@@ -4207,10 +4207,10 @@
         <v>1.45</v>
       </c>
       <c r="P28" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="R28" t="n">
         <v>1.25</v>
@@ -4219,10 +4219,10 @@
         <v>4.5</v>
       </c>
       <c r="T28" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U28" t="n">
         <v>1.94</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.95</v>
       </c>
       <c r="V28" t="n">
         <v>1.51</v>
@@ -4234,7 +4234,7 @@
         <v>10.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z28" t="n">
         <v>970</v>
@@ -4261,7 +4261,7 @@
         <v>13</v>
       </c>
       <c r="AH28" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI28" t="n">
         <v>150</v>
@@ -4312,16 +4312,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="G29" t="n">
         <v>3.1</v>
       </c>
       <c r="H29" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="I29" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="J29" t="n">
         <v>3.15</v>
@@ -4339,34 +4339,34 @@
         <v>3.5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P29" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R29" t="n">
         <v>1.32</v>
       </c>
       <c r="S29" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T29" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="U29" t="n">
         <v>2.1</v>
       </c>
       <c r="V29" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="W29" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X29" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y29" t="n">
         <v>11</v>
@@ -4375,10 +4375,10 @@
         <v>21</v>
       </c>
       <c r="AA29" t="n">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="AB29" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC29" t="n">
         <v>9.199999999999999</v>
@@ -4387,10 +4387,10 @@
         <v>14.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="AF29" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="AG29" t="n">
         <v>13.5</v>
@@ -4414,7 +4414,7 @@
         <v>580</v>
       </c>
       <c r="AN29" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AO29" t="n">
         <v>42</v>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="G30" t="n">
         <v>2.2</v>
@@ -4474,22 +4474,22 @@
         <v>3.3</v>
       </c>
       <c r="O30" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P30" t="n">
         <v>1.76</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R30" t="n">
         <v>1.28</v>
       </c>
       <c r="S30" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T30" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="U30" t="n">
         <v>1.97</v>
@@ -4510,13 +4510,13 @@
         <v>27</v>
       </c>
       <c r="AA30" t="n">
-        <v>85</v>
+        <v>270</v>
       </c>
       <c r="AB30" t="n">
         <v>8.6</v>
       </c>
       <c r="AC30" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD30" t="n">
         <v>16</v>
@@ -4549,10 +4549,10 @@
         <v>580</v>
       </c>
       <c r="AN30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO30" t="n">
-        <v>65</v>
+        <v>600</v>
       </c>
     </row>
     <row r="31">
@@ -4582,31 +4582,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="G31" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H31" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I31" t="n">
         <v>6.8</v>
       </c>
       <c r="J31" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="K31" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="L31" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="M31" t="n">
         <v>1.15</v>
       </c>
       <c r="N31" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="O31" t="n">
         <v>1.66</v>
@@ -4627,13 +4627,13 @@
         <v>1.05</v>
       </c>
       <c r="U31" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="V31" t="n">
         <v>1.18</v>
       </c>
       <c r="W31" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -4651,7 +4651,7 @@
         <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AD31" t="n">
         <v>1000</v>
@@ -4717,64 +4717,64 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="G32" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="H32" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="I32" t="n">
         <v>5.6</v>
       </c>
       <c r="J32" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K32" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L32" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M32" t="n">
         <v>1.07</v>
       </c>
       <c r="N32" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O32" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P32" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R32" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="S32" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="T32" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="U32" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V32" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W32" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="X32" t="n">
         <v>14</v>
       </c>
       <c r="Y32" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="Z32" t="n">
         <v>42</v>
@@ -4789,19 +4789,19 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD32" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="AE32" t="n">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="AF32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG32" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AH32" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI32" t="n">
         <v>210</v>
@@ -4813,7 +4813,7 @@
         <v>19</v>
       </c>
       <c r="AL32" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM32" t="n">
         <v>580</v>
@@ -4822,7 +4822,7 @@
         <v>12</v>
       </c>
       <c r="AO32" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
@@ -4852,10 +4852,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="G33" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="H33" t="n">
         <v>6.6</v>
@@ -4864,10 +4864,10 @@
         <v>7</v>
       </c>
       <c r="J33" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K33" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L33" t="n">
         <v>1.27</v>
@@ -4894,22 +4894,22 @@
         <v>2.32</v>
       </c>
       <c r="T33" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U33" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="V33" t="n">
         <v>1.16</v>
       </c>
       <c r="W33" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="X33" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="Y33" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="Z33" t="n">
         <v>65</v>
@@ -4924,10 +4924,10 @@
         <v>12</v>
       </c>
       <c r="AD33" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="AE33" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="AF33" t="n">
         <v>11.5</v>
@@ -4939,7 +4939,7 @@
         <v>19.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ33" t="n">
         <v>15</v>
@@ -4990,37 +4990,37 @@
         <v>1.85</v>
       </c>
       <c r="G34" t="n">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="H34" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="I34" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="J34" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K34" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L34" t="n">
         <v>1.54</v>
       </c>
       <c r="M34" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="O34" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="P34" t="n">
         <v>1.59</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="R34" t="n">
         <v>1.21</v>
@@ -5029,43 +5029,43 @@
         <v>4.8</v>
       </c>
       <c r="T34" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U34" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="V34" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="W34" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="X34" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AA34" t="n">
         <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC34" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD34" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="AE34" t="n">
         <v>1000</v>
       </c>
       <c r="AF34" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG34" t="n">
         <v>11.5</v>
@@ -5077,19 +5077,19 @@
         <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK34" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="AL34" t="n">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="AM34" t="n">
         <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO34" t="n">
         <v>1000</v>
@@ -5122,10 +5122,10 @@
         </is>
       </c>
       <c r="F35" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G35" t="n">
         <v>2.64</v>
-      </c>
-      <c r="G35" t="n">
-        <v>2.66</v>
       </c>
       <c r="H35" t="n">
         <v>3.4</v>
@@ -5140,13 +5140,13 @@
         <v>3.05</v>
       </c>
       <c r="L35" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="M35" t="n">
         <v>1.12</v>
       </c>
       <c r="N35" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="O35" t="n">
         <v>1.52</v>
@@ -5155,10 +5155,10 @@
         <v>1.6</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="R35" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S35" t="n">
         <v>5.3</v>
@@ -5167,7 +5167,7 @@
         <v>2.08</v>
       </c>
       <c r="U35" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V35" t="n">
         <v>1.4</v>
@@ -5176,10 +5176,10 @@
         <v>1.6</v>
       </c>
       <c r="X35" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Y35" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z35" t="n">
         <v>20</v>
@@ -5188,7 +5188,7 @@
         <v>65</v>
       </c>
       <c r="AB35" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AC35" t="n">
         <v>6.8</v>
@@ -5200,7 +5200,7 @@
         <v>50</v>
       </c>
       <c r="AF35" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG35" t="n">
         <v>12.5</v>
@@ -5221,7 +5221,7 @@
         <v>65</v>
       </c>
       <c r="AM35" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN35" t="n">
         <v>38</v>
@@ -5263,7 +5263,7 @@
         <v>2.56</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I36" t="n">
         <v>3.3</v>
@@ -5284,7 +5284,7 @@
         <v>3.8</v>
       </c>
       <c r="O36" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P36" t="n">
         <v>1.98</v>
@@ -5296,13 +5296,13 @@
         <v>1.37</v>
       </c>
       <c r="S36" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T36" t="n">
         <v>1.76</v>
       </c>
       <c r="U36" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V36" t="n">
         <v>1.43</v>
@@ -5320,19 +5320,19 @@
         <v>28</v>
       </c>
       <c r="AA36" t="n">
-        <v>160</v>
+        <v>470</v>
       </c>
       <c r="AB36" t="n">
         <v>12.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD36" t="n">
         <v>16</v>
       </c>
       <c r="AE36" t="n">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AF36" t="n">
         <v>19</v>
@@ -5356,10 +5356,10 @@
         <v>46</v>
       </c>
       <c r="AM36" t="n">
-        <v>330</v>
+        <v>580</v>
       </c>
       <c r="AN36" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="AO36" t="n">
         <v>600</v>
@@ -5398,22 +5398,22 @@
         <v>1.62</v>
       </c>
       <c r="H37" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="I37" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J37" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K37" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L37" t="n">
         <v>1.51</v>
       </c>
       <c r="M37" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N37" t="n">
         <v>3.1</v>
@@ -5425,19 +5425,19 @@
         <v>1.69</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R37" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S37" t="n">
         <v>4.7</v>
       </c>
       <c r="T37" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="U37" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="V37" t="n">
         <v>1.14</v>
@@ -5527,112 +5527,112 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.89</v>
+        <v>2.68</v>
       </c>
       <c r="G38" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H38" t="n">
         <v>3.05</v>
       </c>
-      <c r="H38" t="n">
-        <v>2.66</v>
-      </c>
       <c r="I38" t="n">
-        <v>5.5</v>
+        <v>3.15</v>
       </c>
       <c r="J38" t="n">
         <v>3.15</v>
       </c>
       <c r="K38" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="L38" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M38" t="n">
         <v>1.09</v>
       </c>
       <c r="N38" t="n">
-        <v>1.25</v>
+        <v>3.25</v>
       </c>
       <c r="O38" t="n">
-        <v>1.09</v>
+        <v>1.38</v>
       </c>
       <c r="P38" t="n">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.38</v>
+        <v>2.2</v>
       </c>
       <c r="R38" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="S38" t="n">
-        <v>2.14</v>
+        <v>4.2</v>
       </c>
       <c r="T38" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="U38" t="n">
-        <v>1.89</v>
+        <v>2.06</v>
       </c>
       <c r="V38" t="n">
-        <v>1.22</v>
+        <v>1.46</v>
       </c>
       <c r="W38" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="X38" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="Y38" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z38" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AA38" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB38" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>970</v>
+        <v>7.2</v>
       </c>
       <c r="AD38" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF38" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG38" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH38" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI38" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK38" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL38" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM38" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN38" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO38" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39">
@@ -5662,22 +5662,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G39" t="n">
         <v>2.16</v>
       </c>
       <c r="H39" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I39" t="n">
         <v>4.1</v>
       </c>
       <c r="J39" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K39" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L39" t="n">
         <v>1.37</v>
@@ -5686,37 +5686,37 @@
         <v>1.06</v>
       </c>
       <c r="N39" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O39" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P39" t="n">
         <v>2.08</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="R39" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S39" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T39" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="U39" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V39" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W39" t="n">
         <v>1.86</v>
       </c>
       <c r="X39" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="Y39" t="n">
         <v>970</v>
@@ -5767,7 +5767,7 @@
         <v>55</v>
       </c>
       <c r="AO39" t="n">
-        <v>230</v>
+        <v>600</v>
       </c>
     </row>
     <row r="40">
@@ -5803,7 +5803,7 @@
         <v>4.7</v>
       </c>
       <c r="H40" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="I40" t="n">
         <v>1.84</v>
@@ -5815,13 +5815,13 @@
         <v>4.3</v>
       </c>
       <c r="L40" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M40" t="n">
         <v>1.05</v>
       </c>
       <c r="N40" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O40" t="n">
         <v>1.24</v>
@@ -5830,7 +5830,7 @@
         <v>2.28</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R40" t="n">
         <v>1.5</v>
@@ -5839,7 +5839,7 @@
         <v>2.92</v>
       </c>
       <c r="T40" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U40" t="n">
         <v>2.28</v>
@@ -5851,7 +5851,7 @@
         <v>1.27</v>
       </c>
       <c r="X40" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y40" t="n">
         <v>11</v>
@@ -5866,25 +5866,25 @@
         <v>20</v>
       </c>
       <c r="AC40" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD40" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AE40" t="n">
         <v>18</v>
       </c>
       <c r="AF40" t="n">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="AG40" t="n">
         <v>18</v>
       </c>
       <c r="AH40" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI40" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AJ40" t="n">
         <v>110</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="G41" t="n">
         <v>1.53</v>
       </c>
       <c r="H41" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="I41" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J41" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="K41" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L41" t="n">
         <v>1.32</v>
@@ -5956,25 +5956,25 @@
         <v>1.04</v>
       </c>
       <c r="N41" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O41" t="n">
         <v>1.22</v>
       </c>
       <c r="P41" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="R41" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="S41" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="T41" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U41" t="n">
         <v>2.02</v>
@@ -5983,7 +5983,7 @@
         <v>1.13</v>
       </c>
       <c r="W41" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="X41" t="n">
         <v>90</v>
@@ -5998,10 +5998,10 @@
         <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="AC41" t="n">
-        <v>42</v>
+        <v>11.5</v>
       </c>
       <c r="AD41" t="n">
         <v>85</v>
@@ -6025,7 +6025,7 @@
         <v>180</v>
       </c>
       <c r="AK41" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AL41" t="n">
         <v>100</v>
@@ -6034,7 +6034,7 @@
         <v>130</v>
       </c>
       <c r="AN41" t="n">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="AO41" t="n">
         <v>140</v>
@@ -6067,22 +6067,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="G42" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H42" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I42" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J42" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K42" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L42" t="n">
         <v>1.48</v>
@@ -6094,22 +6094,22 @@
         <v>3.25</v>
       </c>
       <c r="O42" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P42" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R42" t="n">
         <v>1.28</v>
       </c>
       <c r="S42" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T42" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="U42" t="n">
         <v>1.96</v>
@@ -6118,7 +6118,7 @@
         <v>1.33</v>
       </c>
       <c r="W42" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X42" t="n">
         <v>12.5</v>
@@ -6133,13 +6133,13 @@
         <v>260</v>
       </c>
       <c r="AB42" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC42" t="n">
         <v>7.8</v>
       </c>
       <c r="AD42" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE42" t="n">
         <v>370</v>
@@ -6172,7 +6172,7 @@
         <v>23</v>
       </c>
       <c r="AO42" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
     </row>
     <row r="43">
@@ -6226,10 +6226,10 @@
         <v>1.02</v>
       </c>
       <c r="N43" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O43" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P43" t="n">
         <v>2.76</v>
@@ -6238,7 +6238,7 @@
         <v>1.5</v>
       </c>
       <c r="R43" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="S43" t="n">
         <v>2.22</v>
@@ -6247,13 +6247,13 @@
         <v>1.54</v>
       </c>
       <c r="U43" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="V43" t="n">
         <v>1.25</v>
       </c>
       <c r="W43" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="X43" t="n">
         <v>95</v>
@@ -6301,13 +6301,13 @@
         <v>60</v>
       </c>
       <c r="AM43" t="n">
-        <v>260</v>
+        <v>580</v>
       </c>
       <c r="AN43" t="n">
         <v>28</v>
       </c>
       <c r="AO43" t="n">
-        <v>270</v>
+        <v>600</v>
       </c>
     </row>
     <row r="44">
@@ -6337,55 +6337,55 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="G44" t="n">
         <v>3.15</v>
       </c>
       <c r="H44" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="I44" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="J44" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K44" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L44" t="n">
         <v>1.46</v>
       </c>
       <c r="M44" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N44" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O44" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P44" t="n">
         <v>1.83</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="R44" t="n">
         <v>1.29</v>
       </c>
       <c r="S44" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T44" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="U44" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V44" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="W44" t="n">
         <v>1.47</v>
@@ -6394,19 +6394,19 @@
         <v>22</v>
       </c>
       <c r="Y44" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="Z44" t="n">
         <v>970</v>
       </c>
       <c r="AA44" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB44" t="n">
         <v>970</v>
       </c>
       <c r="AC44" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD44" t="n">
         <v>970</v>
@@ -6415,7 +6415,7 @@
         <v>95</v>
       </c>
       <c r="AF44" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AG44" t="n">
         <v>970</v>
@@ -6424,7 +6424,7 @@
         <v>42</v>
       </c>
       <c r="AI44" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AJ44" t="n">
         <v>200</v>
@@ -6433,16 +6433,16 @@
         <v>110</v>
       </c>
       <c r="AL44" t="n">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="AM44" t="n">
         <v>1000</v>
       </c>
       <c r="AN44" t="n">
-        <v>70</v>
+        <v>600</v>
       </c>
       <c r="AO44" t="n">
-        <v>60</v>
+        <v>600</v>
       </c>
     </row>
     <row r="45">
@@ -6472,16 +6472,16 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G45" t="n">
         <v>2.6</v>
       </c>
       <c r="H45" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I45" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J45" t="n">
         <v>3.05</v>
@@ -6493,7 +6493,7 @@
         <v>1.55</v>
       </c>
       <c r="M45" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N45" t="n">
         <v>2.88</v>
@@ -6505,19 +6505,19 @@
         <v>1.61</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="R45" t="n">
         <v>1.22</v>
       </c>
       <c r="S45" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T45" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U45" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V45" t="n">
         <v>1.4</v>
@@ -6526,7 +6526,7 @@
         <v>1.62</v>
       </c>
       <c r="X45" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Y45" t="n">
         <v>10.5</v>
@@ -6556,7 +6556,7 @@
         <v>12</v>
       </c>
       <c r="AH45" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="AI45" t="n">
         <v>75</v>
@@ -6616,13 +6616,13 @@
         <v>2.62</v>
       </c>
       <c r="I46" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="J46" t="n">
         <v>3.25</v>
       </c>
       <c r="K46" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L46" t="n">
         <v>1.45</v>
@@ -6631,7 +6631,7 @@
         <v>1.08</v>
       </c>
       <c r="N46" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O46" t="n">
         <v>1.35</v>
@@ -6649,10 +6649,10 @@
         <v>3.7</v>
       </c>
       <c r="T46" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U46" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V46" t="n">
         <v>1.57</v>
@@ -6676,7 +6676,7 @@
         <v>970</v>
       </c>
       <c r="AC46" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD46" t="n">
         <v>970</v>
@@ -6697,7 +6697,7 @@
         <v>170</v>
       </c>
       <c r="AJ46" t="n">
-        <v>900</v>
+        <v>280</v>
       </c>
       <c r="AK46" t="n">
         <v>90</v>
@@ -6709,10 +6709,10 @@
         <v>580</v>
       </c>
       <c r="AN46" t="n">
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="AO46" t="n">
-        <v>60</v>
+        <v>600</v>
       </c>
     </row>
     <row r="47">
@@ -6745,19 +6745,19 @@
         <v>3.45</v>
       </c>
       <c r="G47" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="H47" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="I47" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="J47" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K47" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L47" t="n">
         <v>1.25</v>
@@ -6775,25 +6775,25 @@
         <v>3</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="R47" t="n">
         <v>1.83</v>
       </c>
       <c r="S47" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="T47" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="U47" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="V47" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="W47" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X47" t="n">
         <v>1000</v>
@@ -6811,7 +6811,7 @@
         <v>1000</v>
       </c>
       <c r="AC47" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD47" t="n">
         <v>27</v>
@@ -6844,10 +6844,10 @@
         <v>580</v>
       </c>
       <c r="AN47" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO47" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="48">
@@ -6877,55 +6877,55 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="G48" t="n">
         <v>1.56</v>
       </c>
       <c r="H48" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="I48" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="J48" t="n">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="K48" t="n">
         <v>6.4</v>
       </c>
       <c r="L48" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="M48" t="n">
         <v>1.01</v>
       </c>
       <c r="N48" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O48" t="n">
         <v>1.1</v>
       </c>
       <c r="P48" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="R48" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="S48" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T48" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="U48" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="V48" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="W48" t="n">
         <v>2.78</v>
@@ -6934,52 +6934,52 @@
         <v>250</v>
       </c>
       <c r="Y48" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="Z48" t="n">
         <v>470</v>
       </c>
       <c r="AA48" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AB48" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AC48" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AD48" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="AE48" t="n">
-        <v>420</v>
+        <v>160</v>
       </c>
       <c r="AF48" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AG48" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AI48" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ48" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AK48" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AL48" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="AM48" t="n">
         <v>250</v>
       </c>
       <c r="AN48" t="n">
-        <v>29</v>
+        <v>4.2</v>
       </c>
       <c r="AO48" t="n">
         <v>1000</v>
@@ -7012,52 +7012,52 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="G49" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="H49" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="I49" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J49" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K49" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L49" t="n">
         <v>1.67</v>
       </c>
       <c r="M49" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="N49" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="O49" t="n">
         <v>1.64</v>
       </c>
       <c r="P49" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q49" t="n">
         <v>2.92</v>
       </c>
       <c r="R49" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="S49" t="n">
-        <v>1.05</v>
+        <v>6.4</v>
       </c>
       <c r="T49" t="n">
-        <v>1.04</v>
+        <v>2.62</v>
       </c>
       <c r="U49" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="V49" t="n">
         <v>1.13</v>
@@ -7066,43 +7066,43 @@
         <v>2.28</v>
       </c>
       <c r="X49" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Y49" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z49" t="n">
-        <v>490</v>
+        <v>1000</v>
       </c>
       <c r="AA49" t="n">
         <v>1000</v>
       </c>
       <c r="AB49" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AC49" t="n">
         <v>9</v>
       </c>
       <c r="AD49" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AE49" t="n">
         <v>1000</v>
       </c>
       <c r="AF49" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AG49" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH49" t="n">
-        <v>110</v>
+        <v>350</v>
       </c>
       <c r="AI49" t="n">
         <v>1000</v>
       </c>
       <c r="AJ49" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AK49" t="n">
         <v>70</v>
@@ -7114,7 +7114,7 @@
         <v>1000</v>
       </c>
       <c r="AN49" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AO49" t="n">
         <v>1000</v>
@@ -7150,7 +7150,7 @@
         <v>2.2</v>
       </c>
       <c r="G50" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H50" t="n">
         <v>3.95</v>
@@ -7171,13 +7171,13 @@
         <v>1.1</v>
       </c>
       <c r="N50" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O50" t="n">
         <v>1.45</v>
       </c>
       <c r="P50" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q50" t="n">
         <v>2.36</v>
@@ -7189,16 +7189,16 @@
         <v>4.5</v>
       </c>
       <c r="T50" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U50" t="n">
         <v>1.94</v>
-      </c>
-      <c r="U50" t="n">
-        <v>1.93</v>
       </c>
       <c r="V50" t="n">
         <v>1.31</v>
       </c>
       <c r="W50" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X50" t="n">
         <v>11</v>
@@ -7234,7 +7234,7 @@
         <v>38</v>
       </c>
       <c r="AI50" t="n">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="AJ50" t="n">
         <v>80</v>
@@ -7252,7 +7252,7 @@
         <v>28</v>
       </c>
       <c r="AO50" t="n">
-        <v>75</v>
+        <v>600</v>
       </c>
     </row>
     <row r="51">
@@ -7288,10 +7288,10 @@
         <v>1.71</v>
       </c>
       <c r="H51" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="I51" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J51" t="n">
         <v>4</v>
@@ -7306,7 +7306,7 @@
         <v>1.08</v>
       </c>
       <c r="N51" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O51" t="n">
         <v>1.39</v>
@@ -7324,16 +7324,16 @@
         <v>4</v>
       </c>
       <c r="T51" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U51" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V51" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W51" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="X51" t="n">
         <v>25</v>
@@ -7360,10 +7360,10 @@
         <v>480</v>
       </c>
       <c r="AF51" t="n">
-        <v>9.800000000000001</v>
+        <v>18</v>
       </c>
       <c r="AG51" t="n">
-        <v>20</v>
+        <v>10.5</v>
       </c>
       <c r="AH51" t="n">
         <v>85</v>
@@ -7417,43 +7417,43 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="G52" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H52" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="I52" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="J52" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K52" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L52" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M52" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N52" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O52" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P52" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="R52" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S52" t="n">
         <v>4.1</v>
@@ -7465,25 +7465,25 @@
         <v>1.89</v>
       </c>
       <c r="V52" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="W52" t="n">
         <v>1.21</v>
       </c>
       <c r="X52" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y52" t="n">
         <v>7.4</v>
       </c>
       <c r="Z52" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA52" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AB52" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC52" t="n">
         <v>8</v>
@@ -7492,7 +7492,7 @@
         <v>10.5</v>
       </c>
       <c r="AE52" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AF52" t="n">
         <v>40</v>
@@ -7513,7 +7513,7 @@
         <v>85</v>
       </c>
       <c r="AL52" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AM52" t="n">
         <v>150</v>
@@ -7522,7 +7522,7 @@
         <v>120</v>
       </c>
       <c r="AO52" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="53">
@@ -7564,13 +7564,13 @@
         <v>2.6</v>
       </c>
       <c r="J53" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="K53" t="n">
         <v>3</v>
       </c>
       <c r="L53" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="M53" t="n">
         <v>1.16</v>
@@ -7579,7 +7579,7 @@
         <v>2.36</v>
       </c>
       <c r="O53" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="P53" t="n">
         <v>1.42</v>
@@ -7594,7 +7594,7 @@
         <v>6.8</v>
       </c>
       <c r="T53" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="U53" t="n">
         <v>1.62</v>
@@ -7606,7 +7606,7 @@
         <v>1.35</v>
       </c>
       <c r="X53" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="Y53" t="n">
         <v>7.2</v>
@@ -7690,16 +7690,16 @@
         <v>1.78</v>
       </c>
       <c r="G54" t="n">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="H54" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="I54" t="n">
-        <v>7.6</v>
+        <v>6.2</v>
       </c>
       <c r="J54" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="K54" t="n">
         <v>3.7</v>
@@ -7717,7 +7717,7 @@
         <v>1.42</v>
       </c>
       <c r="P54" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="Q54" t="n">
         <v>2.22</v>
@@ -7738,7 +7738,7 @@
         <v>1.2</v>
       </c>
       <c r="W54" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="X54" t="n">
         <v>970</v>
@@ -7828,10 +7828,10 @@
         <v>5.5</v>
       </c>
       <c r="H55" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I55" t="n">
         <v>1.69</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1.7</v>
       </c>
       <c r="J55" t="n">
         <v>4.4</v>
@@ -7840,46 +7840,46 @@
         <v>4.5</v>
       </c>
       <c r="L55" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M55" t="n">
         <v>1.05</v>
       </c>
       <c r="N55" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="O55" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P55" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="R55" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S55" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="T55" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U55" t="n">
         <v>2.24</v>
       </c>
       <c r="V55" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="W55" t="n">
         <v>1.22</v>
       </c>
       <c r="X55" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y55" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z55" t="n">
         <v>10.5</v>
@@ -7903,7 +7903,7 @@
         <v>42</v>
       </c>
       <c r="AG55" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH55" t="n">
         <v>18.5</v>
@@ -7915,7 +7915,7 @@
         <v>130</v>
       </c>
       <c r="AK55" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL55" t="n">
         <v>65</v>
@@ -7927,7 +7927,7 @@
         <v>65</v>
       </c>
       <c r="AO55" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="56">
@@ -7960,7 +7960,7 @@
         <v>1.79</v>
       </c>
       <c r="G56" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="H56" t="n">
         <v>5.2</v>
@@ -7969,40 +7969,40 @@
         <v>5.3</v>
       </c>
       <c r="J56" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K56" t="n">
         <v>4</v>
       </c>
       <c r="L56" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M56" t="n">
         <v>1.07</v>
       </c>
       <c r="N56" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O56" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P56" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="R56" t="n">
         <v>1.37</v>
       </c>
       <c r="S56" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T56" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="U56" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V56" t="n">
         <v>1.23</v>
@@ -8014,7 +8014,7 @@
         <v>13.5</v>
       </c>
       <c r="Y56" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Z56" t="n">
         <v>38</v>
@@ -8026,7 +8026,7 @@
         <v>8.4</v>
       </c>
       <c r="AC56" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD56" t="n">
         <v>20</v>
@@ -8050,7 +8050,7 @@
         <v>19</v>
       </c>
       <c r="AK56" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AL56" t="n">
         <v>36</v>
@@ -8062,7 +8062,7 @@
         <v>12</v>
       </c>
       <c r="AO56" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57">
@@ -8092,22 +8092,22 @@
         </is>
       </c>
       <c r="F57" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="G57" t="n">
+        <v>3</v>
+      </c>
+      <c r="H57" t="n">
         <v>2.84</v>
       </c>
-      <c r="G57" t="n">
+      <c r="I57" t="n">
         <v>2.92</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3.05</v>
       </c>
       <c r="J57" t="n">
         <v>3.1</v>
       </c>
       <c r="K57" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L57" t="n">
         <v>1.59</v>
@@ -8119,13 +8119,13 @@
         <v>2.78</v>
       </c>
       <c r="O57" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="P57" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="R57" t="n">
         <v>1.21</v>
@@ -8137,34 +8137,34 @@
         <v>2.1</v>
       </c>
       <c r="U57" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V57" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="W57" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="X57" t="n">
         <v>8.6</v>
       </c>
       <c r="Y57" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="Z57" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA57" t="n">
         <v>55</v>
       </c>
       <c r="AB57" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC57" t="n">
         <v>7</v>
       </c>
       <c r="AD57" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE57" t="n">
         <v>44</v>
@@ -8173,7 +8173,7 @@
         <v>17.5</v>
       </c>
       <c r="AG57" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH57" t="n">
         <v>23</v>
@@ -8194,10 +8194,10 @@
         <v>170</v>
       </c>
       <c r="AN57" t="n">
+        <v>50</v>
+      </c>
+      <c r="AO57" t="n">
         <v>48</v>
-      </c>
-      <c r="AO57" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="58">
@@ -8227,19 +8227,19 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="G58" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="H58" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="I58" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="J58" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K58" t="n">
         <v>3.5</v>
@@ -8254,16 +8254,16 @@
         <v>3.2</v>
       </c>
       <c r="O58" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P58" t="n">
         <v>1.9</v>
       </c>
       <c r="Q58" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="R58" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S58" t="n">
         <v>3.75</v>
@@ -8275,13 +8275,13 @@
         <v>1.04</v>
       </c>
       <c r="V58" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="W58" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="X58" t="n">
-        <v>27</v>
+        <v>970</v>
       </c>
       <c r="Y58" t="n">
         <v>970</v>
@@ -8296,7 +8296,7 @@
         <v>970</v>
       </c>
       <c r="AC58" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="AD58" t="n">
         <v>970</v>
@@ -8311,7 +8311,7 @@
         <v>970</v>
       </c>
       <c r="AH58" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="AI58" t="n">
         <v>200</v>
@@ -8362,10 +8362,10 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G59" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H59" t="n">
         <v>3.75</v>
@@ -8392,7 +8392,7 @@
         <v>1.29</v>
       </c>
       <c r="P59" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q59" t="n">
         <v>1.89</v>
@@ -8416,13 +8416,13 @@
         <v>1.78</v>
       </c>
       <c r="X59" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="Y59" t="n">
         <v>15.5</v>
       </c>
       <c r="Z59" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA59" t="n">
         <v>75</v>
@@ -8431,13 +8431,13 @@
         <v>11</v>
       </c>
       <c r="AC59" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD59" t="n">
         <v>16</v>
       </c>
-      <c r="AD59" t="n">
-        <v>17</v>
-      </c>
       <c r="AE59" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AF59" t="n">
         <v>14</v>
@@ -8446,7 +8446,7 @@
         <v>11</v>
       </c>
       <c r="AH59" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AI59" t="n">
         <v>60</v>
@@ -8500,31 +8500,31 @@
         <v>1.22</v>
       </c>
       <c r="G60" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="H60" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I60" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="J60" t="n">
-        <v>3.7</v>
+        <v>7.2</v>
       </c>
       <c r="K60" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="L60" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="M60" t="n">
         <v>1.01</v>
       </c>
       <c r="N60" t="n">
-        <v>1.1</v>
+        <v>10</v>
       </c>
       <c r="O60" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="P60" t="n">
         <v>4.4</v>
@@ -8536,19 +8536,19 @@
         <v>2.46</v>
       </c>
       <c r="S60" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="T60" t="n">
-        <v>1.04</v>
+        <v>1.65</v>
       </c>
       <c r="U60" t="n">
-        <v>1.87</v>
+        <v>2.18</v>
       </c>
       <c r="V60" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W60" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="X60" t="n">
         <v>1000</v>
@@ -8569,7 +8569,7 @@
         <v>23</v>
       </c>
       <c r="AD60" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AE60" t="n">
         <v>170</v>
@@ -8581,10 +8581,10 @@
         <v>14.5</v>
       </c>
       <c r="AH60" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI60" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ60" t="n">
         <v>13</v>
@@ -8593,10 +8593,10 @@
         <v>14.5</v>
       </c>
       <c r="AL60" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM60" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN60" t="n">
         <v>2.86</v>
@@ -8638,13 +8638,13 @@
         <v>2.5</v>
       </c>
       <c r="H61" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I61" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="J61" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K61" t="n">
         <v>3.6</v>
@@ -8662,19 +8662,19 @@
         <v>1.42</v>
       </c>
       <c r="P61" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R61" t="n">
         <v>1.25</v>
       </c>
       <c r="S61" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T61" t="n">
-        <v>1.89</v>
+        <v>2.06</v>
       </c>
       <c r="U61" t="n">
         <v>1.92</v>
@@ -8686,16 +8686,16 @@
         <v>1.66</v>
       </c>
       <c r="X61" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Y61" t="n">
         <v>13</v>
       </c>
       <c r="Z61" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AA61" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB61" t="n">
         <v>10</v>
@@ -8704,40 +8704,40 @@
         <v>9</v>
       </c>
       <c r="AD61" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE61" t="n">
         <v>60</v>
       </c>
       <c r="AF61" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AG61" t="n">
         <v>14.5</v>
       </c>
       <c r="AH61" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AI61" t="n">
         <v>65</v>
       </c>
       <c r="AJ61" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK61" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AL61" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM61" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN61" t="n">
         <v>34</v>
       </c>
       <c r="AO61" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62">
@@ -8767,22 +8767,22 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G62" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H62" t="n">
         <v>3.4</v>
       </c>
       <c r="I62" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="J62" t="n">
         <v>3.25</v>
       </c>
       <c r="K62" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L62" t="n">
         <v>1.47</v>
@@ -8794,40 +8794,40 @@
         <v>3.15</v>
       </c>
       <c r="O62" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="P62" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R62" t="n">
         <v>1.27</v>
       </c>
       <c r="S62" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="T62" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U62" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V62" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="W62" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X62" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y62" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z62" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA62" t="n">
         <v>75</v>
@@ -8866,10 +8866,10 @@
         <v>46</v>
       </c>
       <c r="AM62" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN62" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AO62" t="n">
         <v>60</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-08.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="G2" t="n">
         <v>1.68</v>
@@ -679,13 +679,13 @@
         <v>6.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
         <v>4.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
@@ -694,22 +694,22 @@
         <v>3.65</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P2" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q2" t="n">
         <v>2.06</v>
       </c>
       <c r="R2" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="T2" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U2" t="n">
         <v>1.9</v>
@@ -718,10 +718,10 @@
         <v>1.17</v>
       </c>
       <c r="W2" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y2" t="n">
         <v>19.5</v>
@@ -730,49 +730,49 @@
         <v>55</v>
       </c>
       <c r="AA2" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="AB2" t="n">
         <v>7.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
         <v>25</v>
       </c>
       <c r="AE2" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH2" t="n">
         <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AK2" t="n">
         <v>18.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM2" t="n">
-        <v>580</v>
+        <v>160</v>
       </c>
       <c r="AN2" t="n">
         <v>11</v>
       </c>
       <c r="AO2" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3">
@@ -802,70 +802,70 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="G3" t="n">
         <v>4.2</v>
       </c>
       <c r="H3" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I3" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J3" t="n">
         <v>3.3</v>
       </c>
       <c r="K3" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="O3" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="R3" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="S3" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="V3" t="n">
         <v>1.81</v>
       </c>
       <c r="W3" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="X3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA3" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="AB3" t="n">
         <v>14</v>
@@ -877,19 +877,19 @@
         <v>11.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AH3" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K4" t="n">
         <v>5.6</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5.5</v>
       </c>
       <c r="L4" t="n">
         <v>1.29</v>
@@ -961,55 +961,55 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="O4" t="n">
         <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R4" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="S4" t="n">
         <v>2.48</v>
       </c>
       <c r="T4" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="U4" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V4" t="n">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="W4" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="X4" t="n">
         <v>28</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA4" t="n">
         <v>15</v>
       </c>
       <c r="AB4" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="AC4" t="n">
         <v>12.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
         <v>15</v>
@@ -1018,7 +1018,7 @@
         <v>60</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH4" t="n">
         <v>21</v>
@@ -1027,19 +1027,19 @@
         <v>27</v>
       </c>
       <c r="AJ4" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>970</v>
+        <v>80</v>
       </c>
       <c r="AL4" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>65</v>
+        <v>600</v>
       </c>
       <c r="AO4" t="n">
         <v>6.4</v>
@@ -1072,64 +1072,64 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="G5" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="H5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="J5" t="n">
         <v>4.8</v>
       </c>
       <c r="K5" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M5" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.07</v>
       </c>
-      <c r="N5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.06</v>
-      </c>
       <c r="W5" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="X5" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y5" t="n">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1138,25 +1138,25 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AC5" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AG5" t="n">
         <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1165,16 +1165,16 @@
         <v>11.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
-        <v>460</v>
+        <v>95</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,58 +1207,58 @@
         </is>
       </c>
       <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
         <v>4.9</v>
       </c>
-      <c r="G6" t="n">
-        <v>5.7</v>
-      </c>
       <c r="H6" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="I6" t="n">
-        <v>2.02</v>
+        <v>2.24</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K6" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="M6" t="n">
         <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="O6" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P6" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="Q6" t="n">
         <v>2.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S6" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="T6" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U6" t="n">
         <v>1.76</v>
       </c>
       <c r="V6" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="W6" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="X6" t="n">
         <v>970</v>
@@ -1270,19 +1270,19 @@
         <v>40</v>
       </c>
       <c r="AA6" t="n">
-        <v>900</v>
+        <v>36</v>
       </c>
       <c r="AB6" t="n">
         <v>970</v>
       </c>
       <c r="AC6" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD6" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AE6" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AF6" t="n">
         <v>120</v>
@@ -1294,7 +1294,7 @@
         <v>80</v>
       </c>
       <c r="AI6" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
@@ -1348,16 +1348,16 @@
         <v>1.27</v>
       </c>
       <c r="H7" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="I7" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="J7" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="K7" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="L7" t="n">
         <v>1.32</v>
@@ -1366,28 +1366,28 @@
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O7" t="n">
         <v>1.21</v>
       </c>
       <c r="P7" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="Q7" t="n">
         <v>1.65</v>
       </c>
       <c r="R7" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S7" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="T7" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="U7" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V7" t="n">
         <v>1.05</v>
@@ -1396,58 +1396,58 @@
         <v>4.7</v>
       </c>
       <c r="X7" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="Y7" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="Z7" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>920</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="AE7" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="AF7" t="n">
         <v>7.6</v>
       </c>
       <c r="AG7" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AI7" t="n">
         <v>260</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AK7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL7" t="n">
-        <v>250</v>
+        <v>46</v>
       </c>
       <c r="AM7" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8">
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="G8" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H8" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="I8" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="J8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K8" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="P8" t="n">
         <v>1.79</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R8" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S8" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T8" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="U8" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="V8" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="W8" t="n">
-        <v>2.54</v>
+        <v>2.66</v>
       </c>
       <c r="X8" t="n">
         <v>12.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z8" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AA8" t="n">
-        <v>230</v>
+        <v>290</v>
       </c>
       <c r="AB8" t="n">
         <v>7</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AE8" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AG8" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH8" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AI8" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AJ8" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL8" t="n">
         <v>46</v>
       </c>
       <c r="AM8" t="n">
-        <v>190</v>
+        <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AO8" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9">
@@ -1612,34 +1612,34 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G9" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H9" t="n">
         <v>3.45</v>
       </c>
       <c r="I9" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L9" t="n">
         <v>1.53</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
         <v>2.78</v>
       </c>
       <c r="O9" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="P9" t="n">
         <v>1.63</v>
@@ -1654,16 +1654,16 @@
         <v>4.7</v>
       </c>
       <c r="T9" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="U9" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="V9" t="n">
         <v>1.34</v>
       </c>
       <c r="W9" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="X9" t="n">
         <v>18.5</v>
@@ -1678,13 +1678,13 @@
         <v>900</v>
       </c>
       <c r="AB9" t="n">
-        <v>16.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC9" t="n">
         <v>12.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AE9" t="n">
         <v>380</v>
@@ -1693,7 +1693,7 @@
         <v>28</v>
       </c>
       <c r="AG9" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AH9" t="n">
         <v>55</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="G10" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="H10" t="n">
         <v>3.3</v>
@@ -1759,10 +1759,10 @@
         <v>3.8</v>
       </c>
       <c r="J10" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="K10" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L10" t="n">
         <v>1.53</v>
@@ -1771,16 +1771,16 @@
         <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="O10" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P10" t="n">
         <v>1.61</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="R10" t="n">
         <v>1.22</v>
@@ -1795,7 +1795,7 @@
         <v>1.86</v>
       </c>
       <c r="V10" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W10" t="n">
         <v>1.62</v>
@@ -1807,13 +1807,13 @@
         <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA10" t="n">
         <v>900</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC10" t="n">
         <v>7.4</v>
@@ -1822,7 +1822,7 @@
         <v>16</v>
       </c>
       <c r="AE10" t="n">
-        <v>370</v>
+        <v>160</v>
       </c>
       <c r="AF10" t="n">
         <v>15.5</v>
@@ -1837,7 +1837,7 @@
         <v>400</v>
       </c>
       <c r="AJ10" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AK10" t="n">
         <v>110</v>
@@ -1849,7 +1849,7 @@
         <v>170</v>
       </c>
       <c r="AN10" t="n">
-        <v>600</v>
+        <v>48</v>
       </c>
       <c r="AO10" t="n">
         <v>600</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="G11" t="n">
         <v>3.2</v>
       </c>
       <c r="H11" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="I11" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="J11" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K11" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="L11" t="n">
         <v>1.49</v>
@@ -1906,10 +1906,10 @@
         <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="P11" t="n">
         <v>1.73</v>
@@ -1945,16 +1945,16 @@
         <v>38</v>
       </c>
       <c r="AA11" t="n">
-        <v>900</v>
+        <v>320</v>
       </c>
       <c r="AB11" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AC11" t="n">
         <v>13</v>
       </c>
       <c r="AD11" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AE11" t="n">
         <v>120</v>
@@ -1963,7 +1963,7 @@
         <v>50</v>
       </c>
       <c r="AG11" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AH11" t="n">
         <v>55</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="G12" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="I12" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J12" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L12" t="n">
         <v>1.61</v>
@@ -2041,16 +2041,16 @@
         <v>1.13</v>
       </c>
       <c r="N12" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="O12" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="P12" t="n">
         <v>1.49</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="R12" t="n">
         <v>1.18</v>
@@ -2059,16 +2059,16 @@
         <v>5.6</v>
       </c>
       <c r="T12" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U12" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="V12" t="n">
         <v>1.33</v>
       </c>
       <c r="W12" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="X12" t="n">
         <v>8.6</v>
@@ -2077,25 +2077,25 @@
         <v>10.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AA12" t="n">
-        <v>310</v>
+        <v>900</v>
       </c>
       <c r="AB12" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC12" t="n">
         <v>7.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE12" t="n">
         <v>250</v>
       </c>
       <c r="AF12" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG12" t="n">
         <v>13</v>
@@ -2110,7 +2110,7 @@
         <v>110</v>
       </c>
       <c r="AK12" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AL12" t="n">
         <v>170</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="G13" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="H13" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="I13" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="J13" t="n">
         <v>3.85</v>
@@ -2185,25 +2185,25 @@
         <v>2.12</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R13" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S13" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T13" t="n">
         <v>1.79</v>
       </c>
       <c r="U13" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V13" t="n">
         <v>2.2</v>
       </c>
       <c r="W13" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="X13" t="n">
         <v>970</v>
@@ -2233,7 +2233,7 @@
         <v>120</v>
       </c>
       <c r="AG13" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AH13" t="n">
         <v>60</v>
@@ -2287,28 +2287,28 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="G14" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="H14" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I14" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K14" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L14" t="n">
         <v>1.46</v>
       </c>
       <c r="M14" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
         <v>3.3</v>
@@ -2320,19 +2320,19 @@
         <v>1.78</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R14" t="n">
         <v>1.29</v>
       </c>
       <c r="S14" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U14" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="V14" t="n">
         <v>1.19</v>
@@ -2341,10 +2341,10 @@
         <v>2.16</v>
       </c>
       <c r="X14" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="Z14" t="n">
         <v>140</v>
@@ -2353,19 +2353,19 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>16.5</v>
+        <v>7.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="AE14" t="n">
         <v>480</v>
       </c>
       <c r="AF14" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AG14" t="n">
         <v>23</v>
@@ -2377,7 +2377,7 @@
         <v>380</v>
       </c>
       <c r="AJ14" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK14" t="n">
         <v>70</v>
@@ -2389,7 +2389,7 @@
         <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2443,7 +2443,7 @@
         <v>1.61</v>
       </c>
       <c r="M15" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="N15" t="n">
         <v>2.58</v>
@@ -2455,7 +2455,7 @@
         <v>1.52</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="R15" t="n">
         <v>1.18</v>
@@ -2473,7 +2473,7 @@
         <v>1.36</v>
       </c>
       <c r="W15" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X15" t="n">
         <v>8.6</v>
@@ -2482,10 +2482,10 @@
         <v>10</v>
       </c>
       <c r="Z15" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AA15" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AB15" t="n">
         <v>8</v>
@@ -2512,19 +2512,19 @@
         <v>480</v>
       </c>
       <c r="AJ15" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="AK15" t="n">
         <v>150</v>
       </c>
       <c r="AL15" t="n">
-        <v>480</v>
+        <v>250</v>
       </c>
       <c r="AM15" t="n">
         <v>210</v>
       </c>
       <c r="AN15" t="n">
-        <v>600</v>
+        <v>140</v>
       </c>
       <c r="AO15" t="n">
         <v>600</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="G16" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="H16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" t="n">
         <v>4.2</v>
       </c>
-      <c r="I16" t="n">
-        <v>4.3</v>
-      </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K16" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L16" t="n">
         <v>1.46</v>
@@ -2581,34 +2581,34 @@
         <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O16" t="n">
         <v>1.37</v>
       </c>
       <c r="P16" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Q16" t="n">
         <v>2.14</v>
       </c>
       <c r="R16" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S16" t="n">
         <v>3.95</v>
       </c>
       <c r="T16" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U16" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="V16" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W16" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="X16" t="n">
         <v>12</v>
@@ -2617,49 +2617,49 @@
         <v>14</v>
       </c>
       <c r="Z16" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA16" t="n">
-        <v>970</v>
+        <v>95</v>
       </c>
       <c r="AB16" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE16" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF16" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG16" t="n">
         <v>10.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ16" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AK16" t="n">
         <v>24</v>
       </c>
       <c r="AL16" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="AM16" t="n">
-        <v>580</v>
+        <v>120</v>
       </c>
       <c r="AN16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="n">
         <v>60</v>
@@ -2692,112 +2692,112 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="G17" t="n">
         <v>4.8</v>
       </c>
       <c r="H17" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="I17" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="J17" t="n">
         <v>3.65</v>
       </c>
       <c r="K17" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L17" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="M17" t="n">
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="O17" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="P17" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="R17" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="S17" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="T17" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="U17" t="n">
-        <v>1.89</v>
+        <v>1.97</v>
       </c>
       <c r="V17" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="W17" t="n">
         <v>1.27</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AC17" t="n">
-        <v>14</v>
+        <v>8.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK17" t="n">
         <v>70</v>
       </c>
-      <c r="AF17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>330</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM17" t="n">
-        <v>580</v>
+        <v>140</v>
       </c>
       <c r="AN17" t="n">
-        <v>600</v>
+        <v>80</v>
       </c>
       <c r="AO17" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -2836,7 +2836,7 @@
         <v>2.48</v>
       </c>
       <c r="I18" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="J18" t="n">
         <v>3</v>
@@ -2851,46 +2851,46 @@
         <v>1.13</v>
       </c>
       <c r="N18" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="O18" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="P18" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="R18" t="n">
         <v>1.2</v>
       </c>
       <c r="S18" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="T18" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U18" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="V18" t="n">
         <v>1.64</v>
       </c>
       <c r="W18" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X18" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Y18" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Z18" t="n">
         <v>14.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AB18" t="n">
         <v>10</v>
@@ -2917,7 +2917,7 @@
         <v>70</v>
       </c>
       <c r="AJ18" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="AK18" t="n">
         <v>95</v>
@@ -2929,7 +2929,7 @@
         <v>200</v>
       </c>
       <c r="AN18" t="n">
-        <v>230</v>
+        <v>600</v>
       </c>
       <c r="AO18" t="n">
         <v>40</v>
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="G19" t="n">
         <v>1.63</v>
       </c>
       <c r="H19" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="I19" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="J19" t="n">
         <v>4</v>
@@ -2983,10 +2983,10 @@
         <v>1.48</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N19" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O19" t="n">
         <v>1.42</v>
@@ -3007,7 +3007,7 @@
         <v>2.24</v>
       </c>
       <c r="U19" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V19" t="n">
         <v>1.15</v>
@@ -3016,16 +3016,16 @@
         <v>2.58</v>
       </c>
       <c r="X19" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z19" t="n">
         <v>60</v>
       </c>
       <c r="AA19" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AB19" t="n">
         <v>6.6</v>
@@ -3034,7 +3034,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="AE19" t="n">
         <v>140</v>
@@ -3061,13 +3061,13 @@
         <v>50</v>
       </c>
       <c r="AM19" t="n">
-        <v>580</v>
+        <v>220</v>
       </c>
       <c r="AN19" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO19" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20">
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G20" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="H20" t="n">
         <v>3.45</v>
@@ -3112,7 +3112,7 @@
         <v>3.25</v>
       </c>
       <c r="K20" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L20" t="n">
         <v>1.45</v>
@@ -3121,16 +3121,16 @@
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O20" t="n">
         <v>1.35</v>
       </c>
       <c r="P20" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R20" t="n">
         <v>1.34</v>
@@ -3139,7 +3139,7 @@
         <v>3.75</v>
       </c>
       <c r="T20" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="U20" t="n">
         <v>2.16</v>
@@ -3148,22 +3148,22 @@
         <v>1.38</v>
       </c>
       <c r="W20" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="X20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y20" t="n">
         <v>13</v>
       </c>
-      <c r="Y20" t="n">
-        <v>13.5</v>
-      </c>
       <c r="Z20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA20" t="n">
-        <v>470</v>
+        <v>65</v>
       </c>
       <c r="AB20" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC20" t="n">
         <v>7.4</v>
@@ -3172,37 +3172,37 @@
         <v>14.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>190</v>
+        <v>42</v>
       </c>
       <c r="AF20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH20" t="n">
         <v>17</v>
       </c>
       <c r="AI20" t="n">
-        <v>260</v>
+        <v>55</v>
       </c>
       <c r="AJ20" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK20" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="AL20" t="n">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="AM20" t="n">
-        <v>580</v>
+        <v>330</v>
       </c>
       <c r="AN20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO20" t="n">
-        <v>600</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21">
@@ -3235,19 +3235,19 @@
         <v>2.64</v>
       </c>
       <c r="G21" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="H21" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J21" t="n">
+        <v>3</v>
+      </c>
+      <c r="K21" t="n">
         <v>3.05</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.1</v>
       </c>
       <c r="L21" t="n">
         <v>1.58</v>
@@ -3274,13 +3274,13 @@
         <v>5.2</v>
       </c>
       <c r="T21" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U21" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V21" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W21" t="n">
         <v>1.6</v>
@@ -3289,7 +3289,7 @@
         <v>9</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Z21" t="n">
         <v>21</v>
@@ -3319,7 +3319,7 @@
         <v>21</v>
       </c>
       <c r="AI21" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ21" t="n">
         <v>38</v>
@@ -3367,112 +3367,112 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.9</v>
+        <v>2.46</v>
       </c>
       <c r="G22" t="n">
-        <v>2.04</v>
+        <v>2.84</v>
       </c>
       <c r="H22" t="n">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="I22" t="n">
-        <v>5.2</v>
+        <v>3.7</v>
       </c>
       <c r="J22" t="n">
-        <v>3.25</v>
+        <v>2.82</v>
       </c>
       <c r="K22" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="L22" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="M22" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N22" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="O22" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P22" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R22" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="S22" t="n">
         <v>4.2</v>
       </c>
       <c r="T22" t="n">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="U22" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="V22" t="n">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="W22" t="n">
-        <v>1.96</v>
+        <v>1.56</v>
       </c>
       <c r="X22" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y22" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="Z22" t="n">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AB22" t="n">
-        <v>7.8</v>
+        <v>10</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AE22" t="n">
         <v>200</v>
       </c>
       <c r="AF22" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="AJ22" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="AK22" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AL22" t="n">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23">
@@ -3505,19 +3505,19 @@
         <v>2.34</v>
       </c>
       <c r="G23" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H23" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I23" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K23" t="n">
         <v>3.15</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.2</v>
       </c>
       <c r="L23" t="n">
         <v>1.56</v>
@@ -3532,31 +3532,31 @@
         <v>1.51</v>
       </c>
       <c r="P23" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="R23" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S23" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="T23" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="U23" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="V23" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W23" t="n">
         <v>1.72</v>
       </c>
       <c r="X23" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y23" t="n">
         <v>11</v>
@@ -3574,10 +3574,10 @@
         <v>7.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="AF23" t="n">
         <v>13</v>
@@ -3586,7 +3586,7 @@
         <v>11.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI23" t="n">
         <v>80</v>
@@ -3598,7 +3598,7 @@
         <v>32</v>
       </c>
       <c r="AL23" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM23" t="n">
         <v>580</v>
@@ -3640,19 +3640,19 @@
         <v>1.32</v>
       </c>
       <c r="G24" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="H24" t="n">
         <v>12</v>
       </c>
       <c r="I24" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="J24" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K24" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L24" t="n">
         <v>1.34</v>
@@ -3661,13 +3661,13 @@
         <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O24" t="n">
         <v>1.25</v>
       </c>
       <c r="P24" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q24" t="n">
         <v>1.74</v>
@@ -3676,28 +3676,28 @@
         <v>1.47</v>
       </c>
       <c r="S24" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="T24" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="U24" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="V24" t="n">
         <v>1.08</v>
       </c>
       <c r="W24" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="X24" t="n">
         <v>21</v>
       </c>
       <c r="Y24" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="Z24" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AA24" t="n">
         <v>1000</v>
@@ -3709,37 +3709,37 @@
         <v>13</v>
       </c>
       <c r="AD24" t="n">
-        <v>300</v>
+        <v>48</v>
       </c>
       <c r="AE24" t="n">
         <v>260</v>
       </c>
       <c r="AF24" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG24" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AI24" t="n">
         <v>210</v>
       </c>
       <c r="AJ24" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AK24" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL24" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="AM24" t="n">
         <v>230</v>
       </c>
       <c r="AN24" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AO24" t="n">
         <v>390</v>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G25" t="n">
         <v>2.48</v>
@@ -3787,7 +3787,7 @@
         <v>3.25</v>
       </c>
       <c r="K25" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L25" t="n">
         <v>1.49</v>
@@ -3796,31 +3796,31 @@
         <v>1.09</v>
       </c>
       <c r="N25" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O25" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P25" t="n">
         <v>1.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R25" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S25" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T25" t="n">
         <v>1.89</v>
       </c>
       <c r="U25" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W25" t="n">
         <v>1.67</v>
@@ -3862,7 +3862,7 @@
         <v>380</v>
       </c>
       <c r="AJ25" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AK25" t="n">
         <v>110</v>
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="G26" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="H26" t="n">
         <v>3.6</v>
@@ -3919,40 +3919,40 @@
         <v>3.9</v>
       </c>
       <c r="J26" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K26" t="n">
         <v>3.25</v>
       </c>
       <c r="L26" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="M26" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N26" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="O26" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="P26" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="R26" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S26" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="T26" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="U26" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="V26" t="n">
         <v>1.34</v>
@@ -3961,10 +3961,10 @@
         <v>1.69</v>
       </c>
       <c r="X26" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Z26" t="n">
         <v>85</v>
@@ -3973,13 +3973,13 @@
         <v>900</v>
       </c>
       <c r="AB26" t="n">
-        <v>12.5</v>
+        <v>7.8</v>
       </c>
       <c r="AC26" t="n">
         <v>7</v>
       </c>
       <c r="AD26" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AE26" t="n">
         <v>380</v>
@@ -3988,28 +3988,28 @@
         <v>30</v>
       </c>
       <c r="AG26" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="AI26" t="n">
         <v>400</v>
       </c>
       <c r="AJ26" t="n">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="AK26" t="n">
         <v>110</v>
       </c>
       <c r="AL26" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="AM26" t="n">
         <v>580</v>
       </c>
       <c r="AN26" t="n">
-        <v>600</v>
+        <v>70</v>
       </c>
       <c r="AO26" t="n">
         <v>600</v>
@@ -4042,112 +4042,112 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="G27" t="n">
-        <v>2.18</v>
+        <v>2.7</v>
       </c>
       <c r="H27" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>4.8</v>
+        <v>3.45</v>
       </c>
       <c r="J27" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K27" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L27" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M27" t="n">
         <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="O27" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P27" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="R27" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S27" t="n">
         <v>4.2</v>
       </c>
       <c r="T27" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U27" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="V27" t="n">
-        <v>1.27</v>
+        <v>1.41</v>
       </c>
       <c r="W27" t="n">
-        <v>1.84</v>
+        <v>1.6</v>
       </c>
       <c r="X27" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y27" t="n">
         <v>11</v>
       </c>
-      <c r="Y27" t="n">
-        <v>13.5</v>
-      </c>
       <c r="Z27" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AA27" t="n">
-        <v>900</v>
+        <v>310</v>
       </c>
       <c r="AB27" t="n">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="AC27" t="n">
         <v>7.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="AE27" t="n">
         <v>380</v>
       </c>
       <c r="AF27" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG27" t="n">
         <v>12.5</v>
       </c>
-      <c r="AG27" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AH27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI27" t="n">
         <v>380</v>
       </c>
       <c r="AJ27" t="n">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="AK27" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AL27" t="n">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="AM27" t="n">
         <v>580</v>
       </c>
       <c r="AN27" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AO27" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
     </row>
     <row r="28">
@@ -4177,43 +4177,43 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="G28" t="n">
         <v>2.94</v>
       </c>
       <c r="H28" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="I28" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K28" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L28" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M28" t="n">
         <v>1.1</v>
       </c>
       <c r="N28" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O28" t="n">
         <v>1.45</v>
       </c>
       <c r="P28" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q28" t="n">
         <v>2.34</v>
       </c>
       <c r="R28" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S28" t="n">
         <v>4.5</v>
@@ -4237,7 +4237,7 @@
         <v>9.6</v>
       </c>
       <c r="Z28" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AA28" t="n">
         <v>130</v>
@@ -4246,7 +4246,7 @@
         <v>9.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD28" t="n">
         <v>13.5</v>
@@ -4261,10 +4261,10 @@
         <v>13</v>
       </c>
       <c r="AH28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI28" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AJ28" t="n">
         <v>200</v>
@@ -4273,16 +4273,16 @@
         <v>95</v>
       </c>
       <c r="AL28" t="n">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="AM28" t="n">
         <v>580</v>
       </c>
       <c r="AN28" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AO28" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29">
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="G29" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H29" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="I29" t="n">
         <v>2.82</v>
       </c>
       <c r="J29" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K29" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="L29" t="n">
         <v>1.43</v>
@@ -4342,7 +4342,7 @@
         <v>1.34</v>
       </c>
       <c r="P29" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="Q29" t="n">
         <v>2.02</v>
@@ -4354,16 +4354,16 @@
         <v>3.6</v>
       </c>
       <c r="T29" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="U29" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="V29" t="n">
         <v>1.55</v>
       </c>
       <c r="W29" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="X29" t="n">
         <v>13.5</v>
@@ -4378,7 +4378,7 @@
         <v>120</v>
       </c>
       <c r="AB29" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC29" t="n">
         <v>9.199999999999999</v>
@@ -4396,28 +4396,28 @@
         <v>13.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="AI29" t="n">
         <v>55</v>
       </c>
       <c r="AJ29" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="AK29" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AL29" t="n">
         <v>60</v>
       </c>
       <c r="AM29" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>46</v>
+        <v>600</v>
       </c>
       <c r="AO29" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
@@ -4447,25 +4447,25 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G30" t="n">
         <v>2.2</v>
       </c>
       <c r="H30" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I30" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J30" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K30" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L30" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M30" t="n">
         <v>1.09</v>
@@ -4480,19 +4480,19 @@
         <v>1.76</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R30" t="n">
         <v>1.28</v>
       </c>
       <c r="S30" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T30" t="n">
         <v>1.94</v>
       </c>
       <c r="U30" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="V30" t="n">
         <v>1.32</v>
@@ -4501,58 +4501,58 @@
         <v>1.83</v>
       </c>
       <c r="X30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z30" t="n">
         <v>27</v>
       </c>
       <c r="AA30" t="n">
-        <v>270</v>
+        <v>85</v>
       </c>
       <c r="AB30" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC30" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AE30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM30" t="n">
         <v>130</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>580</v>
       </c>
       <c r="AN30" t="n">
         <v>21</v>
       </c>
       <c r="AO30" t="n">
-        <v>600</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31">
@@ -4585,19 +4585,19 @@
         <v>2.08</v>
       </c>
       <c r="G31" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="H31" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="I31" t="n">
         <v>6.8</v>
       </c>
       <c r="J31" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="K31" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="L31" t="n">
         <v>1.69</v>
@@ -4606,13 +4606,13 @@
         <v>1.15</v>
       </c>
       <c r="N31" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="O31" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="P31" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q31" t="n">
         <v>3.05</v>
@@ -4621,19 +4621,19 @@
         <v>1.13</v>
       </c>
       <c r="S31" t="n">
-        <v>1.05</v>
+        <v>3.15</v>
       </c>
       <c r="T31" t="n">
-        <v>1.05</v>
+        <v>2.14</v>
       </c>
       <c r="U31" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="V31" t="n">
         <v>1.18</v>
       </c>
       <c r="W31" t="n">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -4651,7 +4651,7 @@
         <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD31" t="n">
         <v>1000</v>
@@ -4717,64 +4717,64 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="G32" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="H32" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I32" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J32" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K32" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L32" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M32" t="n">
         <v>1.07</v>
       </c>
       <c r="N32" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O32" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P32" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q32" t="n">
         <v>1.99</v>
       </c>
-      <c r="Q32" t="n">
-        <v>1.95</v>
-      </c>
       <c r="R32" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S32" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="T32" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="U32" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V32" t="n">
         <v>1.22</v>
       </c>
       <c r="W32" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="X32" t="n">
         <v>14</v>
       </c>
       <c r="Y32" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z32" t="n">
         <v>42</v>
@@ -4783,46 +4783,46 @@
         <v>140</v>
       </c>
       <c r="AB32" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC32" t="n">
         <v>8.6</v>
       </c>
-      <c r="AC32" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AD32" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="AE32" t="n">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="AF32" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG32" t="n">
         <v>9.6</v>
       </c>
       <c r="AH32" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI32" t="n">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="AJ32" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK32" t="n">
         <v>19</v>
       </c>
       <c r="AL32" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM32" t="n">
-        <v>580</v>
+        <v>120</v>
       </c>
       <c r="AN32" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AO32" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33">
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G33" t="n">
         <v>1.49</v>
       </c>
-      <c r="G33" t="n">
-        <v>1.52</v>
-      </c>
       <c r="H33" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="I33" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="J33" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="K33" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="L33" t="n">
         <v>1.27</v>
@@ -4876,73 +4876,73 @@
         <v>1.03</v>
       </c>
       <c r="N33" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O33" t="n">
         <v>1.17</v>
       </c>
       <c r="P33" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="R33" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="S33" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="T33" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U33" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V33" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W33" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="X33" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y33" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="Z33" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AA33" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AB33" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC33" t="n">
         <v>12.5</v>
       </c>
-      <c r="AC33" t="n">
-        <v>12</v>
-      </c>
       <c r="AD33" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="AE33" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AF33" t="n">
         <v>11.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH33" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI33" t="n">
         <v>70</v>
       </c>
       <c r="AJ33" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK33" t="n">
         <v>14</v>
@@ -4951,13 +4951,13 @@
         <v>25</v>
       </c>
       <c r="AM33" t="n">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="AN33" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AO33" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34">
@@ -4987,76 +4987,76 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="G34" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="H34" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="I34" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J34" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K34" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="L34" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="M34" t="n">
         <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="O34" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P34" t="n">
         <v>1.59</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="R34" t="n">
         <v>1.21</v>
       </c>
       <c r="S34" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="T34" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="U34" t="n">
         <v>1.71</v>
       </c>
       <c r="V34" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="W34" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="X34" t="n">
         <v>10.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z34" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AA34" t="n">
         <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AC34" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD34" t="n">
         <v>65</v>
@@ -5065,7 +5065,7 @@
         <v>1000</v>
       </c>
       <c r="AF34" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AG34" t="n">
         <v>11.5</v>
@@ -5077,7 +5077,7 @@
         <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK34" t="n">
         <v>25</v>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G35" t="n">
         <v>2.64</v>
@@ -5146,16 +5146,16 @@
         <v>1.12</v>
       </c>
       <c r="N35" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="O35" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P35" t="n">
         <v>1.6</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="R35" t="n">
         <v>1.21</v>
@@ -5164,10 +5164,10 @@
         <v>5.3</v>
       </c>
       <c r="T35" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U35" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V35" t="n">
         <v>1.4</v>
@@ -5182,16 +5182,16 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Z35" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA35" t="n">
         <v>65</v>
       </c>
       <c r="AB35" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC35" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AD35" t="n">
         <v>15</v>
@@ -5218,16 +5218,16 @@
         <v>36</v>
       </c>
       <c r="AL35" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM35" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN35" t="n">
         <v>38</v>
       </c>
       <c r="AO35" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36">
@@ -5269,31 +5269,31 @@
         <v>3.3</v>
       </c>
       <c r="J36" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K36" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L36" t="n">
         <v>1.43</v>
       </c>
       <c r="M36" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O36" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P36" t="n">
         <v>1.98</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R36" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S36" t="n">
         <v>3.35</v>
@@ -5302,7 +5302,7 @@
         <v>1.76</v>
       </c>
       <c r="U36" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V36" t="n">
         <v>1.43</v>
@@ -5311,58 +5311,58 @@
         <v>1.64</v>
       </c>
       <c r="X36" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Y36" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Z36" t="n">
         <v>28</v>
       </c>
       <c r="AA36" t="n">
-        <v>470</v>
+        <v>60</v>
       </c>
       <c r="AB36" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC36" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="AD36" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE36" t="n">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="AF36" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH36" t="n">
         <v>19</v>
       </c>
-      <c r="AG36" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>20</v>
-      </c>
       <c r="AI36" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AJ36" t="n">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="AK36" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AL36" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AM36" t="n">
-        <v>580</v>
+        <v>90</v>
       </c>
       <c r="AN36" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AO36" t="n">
-        <v>600</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37">
@@ -5392,25 +5392,25 @@
         </is>
       </c>
       <c r="F37" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G37" t="n">
         <v>1.6</v>
       </c>
-      <c r="G37" t="n">
-        <v>1.62</v>
-      </c>
       <c r="H37" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="I37" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J37" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K37" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L37" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M37" t="n">
         <v>1.1</v>
@@ -5419,43 +5419,43 @@
         <v>3.1</v>
       </c>
       <c r="O37" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P37" t="n">
         <v>1.69</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="R37" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S37" t="n">
         <v>4.7</v>
       </c>
       <c r="T37" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="U37" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="V37" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W37" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="X37" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y37" t="n">
         <v>20</v>
       </c>
       <c r="Z37" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AA37" t="n">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="AB37" t="n">
         <v>6.4</v>
@@ -5464,13 +5464,13 @@
         <v>9.4</v>
       </c>
       <c r="AD37" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AE37" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AF37" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AG37" t="n">
         <v>10.5</v>
@@ -5479,25 +5479,25 @@
         <v>32</v>
       </c>
       <c r="AI37" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AJ37" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK37" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL37" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM37" t="n">
-        <v>580</v>
+        <v>320</v>
       </c>
       <c r="AN37" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO37" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38">
@@ -5527,25 +5527,25 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="G38" t="n">
-        <v>2.72</v>
+        <v>2.88</v>
       </c>
       <c r="H38" t="n">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="I38" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J38" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K38" t="n">
         <v>3.35</v>
       </c>
       <c r="L38" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="M38" t="n">
         <v>1.09</v>
@@ -5566,31 +5566,31 @@
         <v>1.27</v>
       </c>
       <c r="S38" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T38" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="U38" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="V38" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W38" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="X38" t="n">
         <v>11</v>
       </c>
       <c r="Y38" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z38" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA38" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AB38" t="n">
         <v>10.5</v>
@@ -5605,34 +5605,34 @@
         <v>38</v>
       </c>
       <c r="AF38" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="AG38" t="n">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="AH38" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI38" t="n">
         <v>60</v>
       </c>
       <c r="AJ38" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AK38" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL38" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM38" t="n">
         <v>130</v>
       </c>
       <c r="AN38" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO38" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39">
@@ -5689,13 +5689,13 @@
         <v>4.2</v>
       </c>
       <c r="O39" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="P39" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="R39" t="n">
         <v>1.42</v>
@@ -5713,7 +5713,7 @@
         <v>1.33</v>
       </c>
       <c r="W39" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X39" t="n">
         <v>970</v>
@@ -5752,7 +5752,7 @@
         <v>260</v>
       </c>
       <c r="AJ39" t="n">
-        <v>900</v>
+        <v>110</v>
       </c>
       <c r="AK39" t="n">
         <v>70</v>
@@ -5764,7 +5764,7 @@
         <v>580</v>
       </c>
       <c r="AN39" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AO39" t="n">
         <v>600</v>
@@ -5800,7 +5800,7 @@
         <v>4.6</v>
       </c>
       <c r="G40" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="H40" t="n">
         <v>1.81</v>
@@ -5827,28 +5827,28 @@
         <v>1.24</v>
       </c>
       <c r="P40" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="R40" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S40" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="T40" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U40" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V40" t="n">
         <v>2.18</v>
       </c>
       <c r="W40" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="X40" t="n">
         <v>19.5</v>
@@ -5863,31 +5863,31 @@
         <v>20</v>
       </c>
       <c r="AB40" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC40" t="n">
         <v>9</v>
       </c>
       <c r="AD40" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE40" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF40" t="n">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="AG40" t="n">
         <v>18</v>
       </c>
       <c r="AH40" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AI40" t="n">
         <v>32</v>
       </c>
       <c r="AJ40" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="n">
         <v>55</v>
@@ -5902,7 +5902,7 @@
         <v>48</v>
       </c>
       <c r="AO40" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="41">
@@ -5935,13 +5935,13 @@
         <v>1.47</v>
       </c>
       <c r="G41" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="H41" t="n">
         <v>7.2</v>
       </c>
       <c r="I41" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="J41" t="n">
         <v>4.7</v>
@@ -5962,13 +5962,13 @@
         <v>1.22</v>
       </c>
       <c r="P41" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R41" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S41" t="n">
         <v>2.66</v>
@@ -5983,7 +5983,7 @@
         <v>1.13</v>
       </c>
       <c r="W41" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="X41" t="n">
         <v>90</v>
@@ -6034,7 +6034,7 @@
         <v>130</v>
       </c>
       <c r="AN41" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AO41" t="n">
         <v>140</v>
@@ -6070,22 +6070,22 @@
         <v>2.14</v>
       </c>
       <c r="G42" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H42" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I42" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J42" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K42" t="n">
         <v>3.5</v>
       </c>
       <c r="L42" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M42" t="n">
         <v>1.09</v>
@@ -6097,28 +6097,28 @@
         <v>1.41</v>
       </c>
       <c r="P42" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="Q42" t="n">
         <v>2.24</v>
       </c>
       <c r="R42" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S42" t="n">
         <v>4.2</v>
       </c>
       <c r="T42" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U42" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V42" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W42" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="X42" t="n">
         <v>12.5</v>
@@ -6139,7 +6139,7 @@
         <v>7.8</v>
       </c>
       <c r="AD42" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE42" t="n">
         <v>370</v>
@@ -6157,7 +6157,7 @@
         <v>380</v>
       </c>
       <c r="AJ42" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="AK42" t="n">
         <v>70</v>
@@ -6208,16 +6208,16 @@
         <v>1.85</v>
       </c>
       <c r="H43" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I43" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J43" t="n">
         <v>4.1</v>
       </c>
       <c r="K43" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L43" t="n">
         <v>1.27</v>
@@ -6229,25 +6229,25 @@
         <v>6.2</v>
       </c>
       <c r="O43" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P43" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R43" t="n">
         <v>1.74</v>
       </c>
       <c r="S43" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="T43" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="U43" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="V43" t="n">
         <v>1.25</v>
@@ -6289,7 +6289,7 @@
         <v>60</v>
       </c>
       <c r="AI43" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AJ43" t="n">
         <v>970</v>
@@ -6343,7 +6343,7 @@
         <v>3.15</v>
       </c>
       <c r="H44" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="I44" t="n">
         <v>2.88</v>
@@ -6361,10 +6361,10 @@
         <v>1.09</v>
       </c>
       <c r="N44" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O44" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="P44" t="n">
         <v>1.83</v>
@@ -6379,16 +6379,16 @@
         <v>3.9</v>
       </c>
       <c r="T44" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U44" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V44" t="n">
         <v>1.53</v>
       </c>
       <c r="W44" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="X44" t="n">
         <v>22</v>
@@ -6427,7 +6427,7 @@
         <v>170</v>
       </c>
       <c r="AJ44" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="AK44" t="n">
         <v>110</v>
@@ -6472,40 +6472,40 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="G45" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="H45" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I45" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J45" t="n">
         <v>3.05</v>
       </c>
       <c r="K45" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L45" t="n">
         <v>1.55</v>
       </c>
       <c r="M45" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N45" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="O45" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="P45" t="n">
         <v>1.61</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="R45" t="n">
         <v>1.22</v>
@@ -6514,7 +6514,7 @@
         <v>5.1</v>
       </c>
       <c r="T45" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U45" t="n">
         <v>1.88</v>
@@ -6523,7 +6523,7 @@
         <v>1.4</v>
       </c>
       <c r="W45" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="X45" t="n">
         <v>9.4</v>
@@ -6541,7 +6541,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AC45" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD45" t="n">
         <v>15</v>
@@ -6607,22 +6607,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="G46" t="n">
         <v>3.1</v>
       </c>
       <c r="H46" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="I46" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="J46" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K46" t="n">
         <v>3.25</v>
-      </c>
-      <c r="K46" t="n">
-        <v>3.45</v>
       </c>
       <c r="L46" t="n">
         <v>1.45</v>
@@ -6634,34 +6634,34 @@
         <v>3.55</v>
       </c>
       <c r="O46" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P46" t="n">
         <v>1.84</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R46" t="n">
         <v>1.32</v>
       </c>
       <c r="S46" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T46" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U46" t="n">
         <v>2.08</v>
       </c>
       <c r="V46" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="W46" t="n">
         <v>1.47</v>
       </c>
       <c r="X46" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Y46" t="n">
         <v>970</v>
@@ -6697,7 +6697,7 @@
         <v>170</v>
       </c>
       <c r="AJ46" t="n">
-        <v>280</v>
+        <v>900</v>
       </c>
       <c r="AK46" t="n">
         <v>90</v>
@@ -6745,7 +6745,7 @@
         <v>3.45</v>
       </c>
       <c r="G47" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H47" t="n">
         <v>2.04</v>
@@ -6760,46 +6760,46 @@
         <v>4.3</v>
       </c>
       <c r="L47" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M47" t="n">
         <v>1.02</v>
       </c>
       <c r="N47" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="O47" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P47" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="R47" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="S47" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="T47" t="n">
         <v>1.47</v>
       </c>
       <c r="U47" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="V47" t="n">
         <v>1.89</v>
       </c>
       <c r="W47" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X47" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="Y47" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Z47" t="n">
         <v>1000</v>
@@ -6808,13 +6808,13 @@
         <v>1000</v>
       </c>
       <c r="AB47" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AC47" t="n">
         <v>11.5</v>
       </c>
       <c r="AD47" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AE47" t="n">
         <v>21</v>
@@ -6823,13 +6823,13 @@
         <v>1000</v>
       </c>
       <c r="AG47" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AH47" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AI47" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AJ47" t="n">
         <v>1000</v>
@@ -6841,13 +6841,13 @@
         <v>85</v>
       </c>
       <c r="AM47" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN47" t="n">
         <v>600</v>
       </c>
       <c r="AO47" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
@@ -6886,13 +6886,13 @@
         <v>5.7</v>
       </c>
       <c r="I48" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J48" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="K48" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L48" t="n">
         <v>1.2</v>
@@ -6919,7 +6919,7 @@
         <v>1.85</v>
       </c>
       <c r="T48" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="U48" t="n">
         <v>2.62</v>
@@ -6940,7 +6940,7 @@
         <v>470</v>
       </c>
       <c r="AA48" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AB48" t="n">
         <v>19.5</v>
@@ -6961,7 +6961,7 @@
         <v>12.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI48" t="n">
         <v>160</v>
@@ -7012,31 +7012,31 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="G49" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="H49" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="I49" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J49" t="n">
         <v>3.2</v>
       </c>
       <c r="K49" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="L49" t="n">
         <v>1.67</v>
       </c>
       <c r="M49" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N49" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="O49" t="n">
         <v>1.64</v>
@@ -7045,7 +7045,7 @@
         <v>1.44</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="R49" t="n">
         <v>1.14</v>
@@ -7057,22 +7057,22 @@
         <v>2.62</v>
       </c>
       <c r="U49" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="V49" t="n">
         <v>1.13</v>
       </c>
       <c r="W49" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="X49" t="n">
         <v>8</v>
       </c>
       <c r="Y49" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>1000</v>
+        <v>490</v>
       </c>
       <c r="AA49" t="n">
         <v>1000</v>
@@ -7096,7 +7096,7 @@
         <v>12</v>
       </c>
       <c r="AH49" t="n">
-        <v>350</v>
+        <v>110</v>
       </c>
       <c r="AI49" t="n">
         <v>1000</v>
@@ -7114,7 +7114,7 @@
         <v>1000</v>
       </c>
       <c r="AN49" t="n">
-        <v>24</v>
+        <v>600</v>
       </c>
       <c r="AO49" t="n">
         <v>1000</v>
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G50" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="H50" t="n">
         <v>3.95</v>
@@ -7159,7 +7159,7 @@
         <v>4.2</v>
       </c>
       <c r="J50" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K50" t="n">
         <v>3.3</v>
@@ -7168,49 +7168,49 @@
         <v>1.53</v>
       </c>
       <c r="M50" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N50" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O50" t="n">
         <v>1.45</v>
       </c>
       <c r="P50" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="R50" t="n">
         <v>1.26</v>
       </c>
       <c r="S50" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T50" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U50" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="V50" t="n">
         <v>1.31</v>
       </c>
       <c r="W50" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X50" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y50" t="n">
         <v>12.5</v>
       </c>
       <c r="Z50" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AA50" t="n">
-        <v>290</v>
+        <v>85</v>
       </c>
       <c r="AB50" t="n">
         <v>8</v>
@@ -7219,40 +7219,40 @@
         <v>7.2</v>
       </c>
       <c r="AD50" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE50" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AF50" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG50" t="n">
         <v>11</v>
       </c>
       <c r="AH50" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="AI50" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ50" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="AK50" t="n">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="AL50" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="AM50" t="n">
         <v>580</v>
       </c>
       <c r="AN50" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AO50" t="n">
-        <v>600</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51">
@@ -7285,10 +7285,10 @@
         <v>1.69</v>
       </c>
       <c r="G51" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="H51" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="I51" t="n">
         <v>6.4</v>
@@ -7300,7 +7300,7 @@
         <v>4.2</v>
       </c>
       <c r="L51" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M51" t="n">
         <v>1.08</v>
@@ -7312,22 +7312,22 @@
         <v>1.39</v>
       </c>
       <c r="P51" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R51" t="n">
         <v>1.29</v>
       </c>
       <c r="S51" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T51" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U51" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="V51" t="n">
         <v>1.19</v>
@@ -7351,7 +7351,7 @@
         <v>7.4</v>
       </c>
       <c r="AC51" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD51" t="n">
         <v>65</v>
@@ -7360,13 +7360,13 @@
         <v>480</v>
       </c>
       <c r="AF51" t="n">
-        <v>18</v>
+        <v>9.6</v>
       </c>
       <c r="AG51" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH51" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AI51" t="n">
         <v>290</v>
@@ -7420,10 +7420,10 @@
         <v>5.6</v>
       </c>
       <c r="G52" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="H52" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="I52" t="n">
         <v>1.79</v>
@@ -7435,10 +7435,10 @@
         <v>3.85</v>
       </c>
       <c r="L52" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M52" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N52" t="n">
         <v>3.45</v>
@@ -7447,16 +7447,16 @@
         <v>1.39</v>
       </c>
       <c r="P52" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R52" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S52" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T52" t="n">
         <v>2.06</v>
@@ -7474,7 +7474,7 @@
         <v>12.5</v>
       </c>
       <c r="Y52" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="Z52" t="n">
         <v>9.199999999999999</v>
@@ -7486,16 +7486,16 @@
         <v>16.5</v>
       </c>
       <c r="AC52" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD52" t="n">
         <v>10.5</v>
       </c>
       <c r="AE52" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AF52" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AG52" t="n">
         <v>22</v>
@@ -7504,16 +7504,16 @@
         <v>23</v>
       </c>
       <c r="AI52" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ52" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AK52" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AL52" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AM52" t="n">
         <v>150</v>
@@ -7552,16 +7552,16 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="G53" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="H53" t="n">
         <v>2.52</v>
       </c>
       <c r="I53" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="J53" t="n">
         <v>2.88</v>
@@ -7570,34 +7570,34 @@
         <v>3</v>
       </c>
       <c r="L53" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="M53" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="N53" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="O53" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="P53" t="n">
         <v>1.42</v>
       </c>
       <c r="Q53" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="R53" t="n">
         <v>1.14</v>
       </c>
       <c r="S53" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="T53" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="U53" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="V53" t="n">
         <v>1.63</v>
@@ -7609,55 +7609,55 @@
         <v>7</v>
       </c>
       <c r="Y53" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="Z53" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AA53" t="n">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="AB53" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC53" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AD53" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AE53" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AF53" t="n">
         <v>25</v>
       </c>
       <c r="AG53" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AH53" t="n">
         <v>50</v>
       </c>
       <c r="AI53" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="AJ53" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AK53" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AL53" t="n">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="AM53" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AN53" t="n">
-        <v>140</v>
+        <v>600</v>
       </c>
       <c r="AO53" t="n">
-        <v>130</v>
+        <v>600</v>
       </c>
     </row>
     <row r="54">
@@ -7687,19 +7687,19 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="G54" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="H54" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="I54" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J54" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K54" t="n">
         <v>3.7</v>
@@ -7720,28 +7720,28 @@
         <v>1.7</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R54" t="n">
         <v>1.25</v>
       </c>
       <c r="S54" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T54" t="n">
-        <v>1.05</v>
+        <v>2</v>
       </c>
       <c r="U54" t="n">
-        <v>1.04</v>
+        <v>1.79</v>
       </c>
       <c r="V54" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W54" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="X54" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="Y54" t="n">
         <v>970</v>
@@ -7753,10 +7753,10 @@
         <v>1000</v>
       </c>
       <c r="AB54" t="n">
-        <v>970</v>
+        <v>7.4</v>
       </c>
       <c r="AC54" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD54" t="n">
         <v>65</v>
@@ -7765,10 +7765,10 @@
         <v>480</v>
       </c>
       <c r="AF54" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AG54" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AH54" t="n">
         <v>65</v>
@@ -7789,7 +7789,7 @@
         <v>580</v>
       </c>
       <c r="AN54" t="n">
-        <v>55</v>
+        <v>600</v>
       </c>
       <c r="AO54" t="n">
         <v>1000</v>
@@ -7828,10 +7828,10 @@
         <v>5.5</v>
       </c>
       <c r="H55" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="I55" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="J55" t="n">
         <v>4.4</v>
@@ -7846,7 +7846,7 @@
         <v>1.05</v>
       </c>
       <c r="N55" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O55" t="n">
         <v>1.24</v>
@@ -7855,22 +7855,22 @@
         <v>2.32</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R55" t="n">
         <v>1.52</v>
       </c>
       <c r="S55" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="T55" t="n">
         <v>1.77</v>
       </c>
       <c r="U55" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V55" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="W55" t="n">
         <v>1.22</v>
@@ -7879,7 +7879,7 @@
         <v>20</v>
       </c>
       <c r="Y55" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z55" t="n">
         <v>10.5</v>
@@ -7888,22 +7888,22 @@
         <v>17</v>
       </c>
       <c r="AB55" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC55" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD55" t="n">
         <v>9.6</v>
       </c>
       <c r="AE55" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF55" t="n">
         <v>42</v>
       </c>
       <c r="AG55" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH55" t="n">
         <v>18.5</v>
@@ -7915,16 +7915,16 @@
         <v>130</v>
       </c>
       <c r="AK55" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL55" t="n">
         <v>60</v>
       </c>
-      <c r="AL55" t="n">
-        <v>65</v>
-      </c>
       <c r="AM55" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AN55" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AO55" t="n">
         <v>8.199999999999999</v>
@@ -7960,7 +7960,7 @@
         <v>1.79</v>
       </c>
       <c r="G56" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="H56" t="n">
         <v>5.2</v>
@@ -7993,7 +7993,7 @@
         <v>1.97</v>
       </c>
       <c r="R56" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S56" t="n">
         <v>3.55</v>
@@ -8011,25 +8011,25 @@
         <v>2.24</v>
       </c>
       <c r="X56" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y56" t="n">
         <v>18</v>
       </c>
       <c r="Z56" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AA56" t="n">
         <v>140</v>
       </c>
       <c r="AB56" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC56" t="n">
         <v>8.6</v>
       </c>
       <c r="AD56" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE56" t="n">
         <v>75</v>
@@ -8047,7 +8047,7 @@
         <v>75</v>
       </c>
       <c r="AJ56" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AK56" t="n">
         <v>19</v>
@@ -8056,10 +8056,10 @@
         <v>36</v>
       </c>
       <c r="AM56" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN56" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO56" t="n">
         <v>85</v>
@@ -8092,13 +8092,13 @@
         </is>
       </c>
       <c r="F57" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G57" t="n">
         <v>2.96</v>
       </c>
-      <c r="G57" t="n">
-        <v>3</v>
-      </c>
       <c r="H57" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="I57" t="n">
         <v>2.92</v>
@@ -8110,43 +8110,43 @@
         <v>3.2</v>
       </c>
       <c r="L57" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="M57" t="n">
         <v>1.12</v>
       </c>
       <c r="N57" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="O57" t="n">
         <v>1.53</v>
       </c>
       <c r="P57" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="R57" t="n">
         <v>1.21</v>
       </c>
       <c r="S57" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="T57" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U57" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="V57" t="n">
         <v>1.52</v>
       </c>
       <c r="W57" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X57" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y57" t="n">
         <v>8.6</v>
@@ -8158,7 +8158,7 @@
         <v>55</v>
       </c>
       <c r="AB57" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AC57" t="n">
         <v>7</v>
@@ -8167,19 +8167,19 @@
         <v>13.5</v>
       </c>
       <c r="AE57" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF57" t="n">
         <v>17.5</v>
       </c>
       <c r="AG57" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH57" t="n">
         <v>23</v>
       </c>
       <c r="AI57" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ57" t="n">
         <v>55</v>
@@ -8197,7 +8197,7 @@
         <v>50</v>
       </c>
       <c r="AO57" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58">
@@ -8233,7 +8233,7 @@
         <v>3.3</v>
       </c>
       <c r="H58" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="I58" t="n">
         <v>2.78</v>
@@ -8245,10 +8245,10 @@
         <v>3.5</v>
       </c>
       <c r="L58" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M58" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N58" t="n">
         <v>3.2</v>
@@ -8263,25 +8263,25 @@
         <v>2.06</v>
       </c>
       <c r="R58" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="S58" t="n">
         <v>3.75</v>
       </c>
       <c r="T58" t="n">
-        <v>1.04</v>
+        <v>1.76</v>
       </c>
       <c r="U58" t="n">
-        <v>1.04</v>
+        <v>2.04</v>
       </c>
       <c r="V58" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="W58" t="n">
         <v>1.43</v>
       </c>
       <c r="X58" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="Y58" t="n">
         <v>970</v>
@@ -8296,7 +8296,7 @@
         <v>970</v>
       </c>
       <c r="AC58" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="AD58" t="n">
         <v>970</v>
@@ -8311,7 +8311,7 @@
         <v>970</v>
       </c>
       <c r="AH58" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AI58" t="n">
         <v>200</v>
@@ -8380,34 +8380,34 @@
         <v>3.55</v>
       </c>
       <c r="L59" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M59" t="n">
         <v>1.06</v>
       </c>
       <c r="N59" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O59" t="n">
         <v>1.29</v>
       </c>
       <c r="P59" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="R59" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S59" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="T59" t="n">
-        <v>1.04</v>
+        <v>1.67</v>
       </c>
       <c r="U59" t="n">
-        <v>1.04</v>
+        <v>2.18</v>
       </c>
       <c r="V59" t="n">
         <v>1.35</v>
@@ -8419,25 +8419,25 @@
         <v>16</v>
       </c>
       <c r="Y59" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z59" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AA59" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AB59" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC59" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AD59" t="n">
         <v>16</v>
       </c>
       <c r="AE59" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AF59" t="n">
         <v>14</v>
@@ -8446,7 +8446,7 @@
         <v>11</v>
       </c>
       <c r="AH59" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI59" t="n">
         <v>60</v>
@@ -8458,16 +8458,16 @@
         <v>24</v>
       </c>
       <c r="AL59" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO59" t="n">
         <v>40</v>
-      </c>
-      <c r="AM59" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN59" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO59" t="n">
-        <v>230</v>
       </c>
     </row>
     <row r="60">
@@ -8515,7 +8515,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="L60" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="M60" t="n">
         <v>1.01</v>
@@ -8536,7 +8536,7 @@
         <v>2.46</v>
       </c>
       <c r="S60" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="T60" t="n">
         <v>1.65</v>
@@ -8581,7 +8581,7 @@
         <v>14.5</v>
       </c>
       <c r="AH60" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI60" t="n">
         <v>120</v>
@@ -8593,7 +8593,7 @@
         <v>14.5</v>
       </c>
       <c r="AL60" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AM60" t="n">
         <v>110</v>
@@ -8635,7 +8635,7 @@
         <v>2.32</v>
       </c>
       <c r="G61" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H61" t="n">
         <v>3.2</v>
@@ -8656,7 +8656,7 @@
         <v>1.09</v>
       </c>
       <c r="N61" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="O61" t="n">
         <v>1.42</v>
@@ -8671,7 +8671,7 @@
         <v>1.25</v>
       </c>
       <c r="S61" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T61" t="n">
         <v>2.06</v>
@@ -8689,7 +8689,7 @@
         <v>13.5</v>
       </c>
       <c r="Y61" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Z61" t="n">
         <v>24</v>
@@ -8728,7 +8728,7 @@
         <v>36</v>
       </c>
       <c r="AL61" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM61" t="n">
         <v>160</v>
@@ -8767,43 +8767,43 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="G62" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="H62" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I62" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J62" t="n">
         <v>3.25</v>
       </c>
       <c r="K62" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L62" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M62" t="n">
         <v>1.08</v>
       </c>
       <c r="N62" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="O62" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P62" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R62" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S62" t="n">
         <v>3.95</v>
@@ -8854,13 +8854,13 @@
         <v>21</v>
       </c>
       <c r="AI62" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ62" t="n">
         <v>34</v>
       </c>
       <c r="AK62" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL62" t="n">
         <v>46</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-08.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-08.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.65</v>
+        <v>1.77</v>
       </c>
       <c r="G2" t="n">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="H2" t="n">
         <v>6.4</v>
       </c>
       <c r="I2" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="K2" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.44</v>
+        <v>1.99</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>3.65</v>
+        <v>2.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.35</v>
+        <v>1.61</v>
       </c>
       <c r="P2" t="n">
-        <v>1.89</v>
+        <v>1.48</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.06</v>
+        <v>2.98</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="S2" t="n">
-        <v>3.75</v>
+        <v>6.6</v>
       </c>
       <c r="T2" t="n">
-        <v>2.06</v>
+        <v>2.58</v>
       </c>
       <c r="U2" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="V2" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W2" t="n">
-        <v>2.48</v>
+        <v>2.28</v>
       </c>
       <c r="X2" t="n">
-        <v>14</v>
+        <v>8.6</v>
       </c>
       <c r="Y2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>990</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>19.5</v>
       </c>
-      <c r="Z2" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>220</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD2" t="n">
+      <c r="AK2" t="n">
+        <v>340</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN2" t="n">
         <v>25</v>
       </c>
-      <c r="AE2" t="n">
-        <v>220</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>11</v>
-      </c>
       <c r="AO2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.85</v>
+        <v>1.94</v>
       </c>
       <c r="G3" t="n">
-        <v>4.2</v>
+        <v>1.97</v>
       </c>
       <c r="H3" t="n">
-        <v>2.12</v>
+        <v>4.9</v>
       </c>
       <c r="I3" t="n">
-        <v>2.2</v>
+        <v>5.1</v>
       </c>
       <c r="J3" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K3" t="n">
         <v>3.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.25</v>
+        <v>6.6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.16</v>
       </c>
       <c r="P3" t="n">
-        <v>1.77</v>
+        <v>2.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.24</v>
+        <v>1.76</v>
       </c>
       <c r="R3" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.91</v>
+        <v>1.37</v>
       </c>
       <c r="U3" t="n">
-        <v>1.94</v>
+        <v>3.4</v>
       </c>
       <c r="V3" t="n">
-        <v>1.81</v>
+        <v>1.24</v>
       </c>
       <c r="W3" t="n">
-        <v>1.31</v>
+        <v>2.02</v>
       </c>
       <c r="X3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AH3" t="n">
         <v>12</v>
       </c>
-      <c r="Y3" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>20</v>
-      </c>
       <c r="AI3" t="n">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO3" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>17.5</v>
       </c>
       <c r="G4" t="n">
-        <v>6.8</v>
+        <v>44</v>
       </c>
       <c r="H4" t="n">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="I4" t="n">
-        <v>1.55</v>
+        <v>1.23</v>
       </c>
       <c r="J4" t="n">
-        <v>5.1</v>
+        <v>6.6</v>
       </c>
       <c r="K4" t="n">
-        <v>5.6</v>
+        <v>10</v>
       </c>
       <c r="L4" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>5.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O4" t="n">
-        <v>1.2</v>
+        <v>1.12</v>
       </c>
       <c r="P4" t="n">
-        <v>2.6</v>
+        <v>2.78</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.58</v>
+        <v>1.51</v>
       </c>
       <c r="R4" t="n">
-        <v>1.64</v>
+        <v>1.54</v>
       </c>
       <c r="S4" t="n">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="T4" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="U4" t="n">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="V4" t="n">
-        <v>2.8</v>
+        <v>5.3</v>
       </c>
       <c r="W4" t="n">
-        <v>1.17</v>
+        <v>1.05</v>
       </c>
       <c r="X4" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>11</v>
+        <v>6.6</v>
       </c>
       <c r="AA4" t="n">
-        <v>15</v>
+        <v>9.6</v>
       </c>
       <c r="AB4" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE4" t="n">
         <v>12.5</v>
       </c>
-      <c r="AD4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>15</v>
-      </c>
       <c r="AF4" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AI4" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="AL4" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN4" t="n">
-        <v>600</v>
+        <v>260</v>
       </c>
       <c r="AO4" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="5">
@@ -1072,109 +1072,109 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="G5" t="n">
-        <v>1.4</v>
+        <v>1.69</v>
       </c>
       <c r="H5" t="n">
-        <v>11</v>
+        <v>6.8</v>
       </c>
       <c r="I5" t="n">
-        <v>14.5</v>
+        <v>7.8</v>
       </c>
       <c r="J5" t="n">
-        <v>4.8</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
-        <v>5.9</v>
+        <v>3.85</v>
       </c>
       <c r="L5" t="n">
         <v>1.43</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="N5" t="n">
-        <v>3.75</v>
+        <v>2.74</v>
       </c>
       <c r="O5" t="n">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="P5" t="n">
-        <v>1.81</v>
+        <v>1.57</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.93</v>
+        <v>2.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="S5" t="n">
-        <v>3.45</v>
+        <v>5.4</v>
       </c>
       <c r="T5" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="U5" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="V5" t="n">
-        <v>1.07</v>
+        <v>1.16</v>
       </c>
       <c r="W5" t="n">
-        <v>3.35</v>
+        <v>2.46</v>
       </c>
       <c r="X5" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Y5" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>7</v>
+        <v>8.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>14.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11.5</v>
+        <v>17.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AL5" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>8.199999999999999</v>
+        <v>18</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="G6" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="H6" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="I6" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="J6" t="n">
         <v>3.15</v>
@@ -1225,67 +1225,67 @@
         <v>3.4</v>
       </c>
       <c r="L6" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S6" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U6" t="n">
         <v>1.56</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.76</v>
-      </c>
       <c r="V6" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="W6" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X6" t="n">
-        <v>970</v>
+        <v>8</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.5</v>
+        <v>6.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AA6" t="n">
-        <v>36</v>
+        <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AC6" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AE6" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AG6" t="n">
         <v>48</v>
@@ -1312,7 +1312,7 @@
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="G7" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H7" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="I7" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="J7" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="K7" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O7" t="n">
         <v>1.21</v>
       </c>
       <c r="P7" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="Q7" t="n">
         <v>1.65</v>
       </c>
       <c r="R7" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="S7" t="n">
         <v>2.7</v>
       </c>
       <c r="T7" t="n">
-        <v>2.24</v>
+        <v>2.5</v>
       </c>
       <c r="U7" t="n">
-        <v>1.7</v>
+        <v>1.04</v>
       </c>
       <c r="V7" t="n">
         <v>1.05</v>
       </c>
       <c r="W7" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="X7" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Y7" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="Z7" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AA7" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AE7" t="n">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AG7" t="n">
         <v>10.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AI7" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AK7" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM7" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="AO7" t="n">
-        <v>460</v>
+        <v>590</v>
       </c>
     </row>
     <row r="8">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="G8" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="H8" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="I8" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="J8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K8" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L8" t="n">
         <v>1.45</v>
@@ -1501,16 +1501,16 @@
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="P8" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R8" t="n">
         <v>1.3</v>
@@ -1519,28 +1519,28 @@
         <v>3.9</v>
       </c>
       <c r="T8" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U8" t="n">
         <v>1.73</v>
       </c>
       <c r="V8" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W8" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="X8" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z8" t="n">
         <v>65</v>
       </c>
       <c r="AA8" t="n">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="AB8" t="n">
         <v>7</v>
@@ -1549,10 +1549,10 @@
         <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE8" t="n">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c r="AF8" t="n">
         <v>8.4</v>
@@ -1564,7 +1564,7 @@
         <v>29</v>
       </c>
       <c r="AI8" t="n">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c r="AJ8" t="n">
         <v>14.5</v>
@@ -1573,16 +1573,16 @@
         <v>18.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="AM8" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN8" t="n">
         <v>11</v>
       </c>
       <c r="AO8" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9">
@@ -1615,16 +1615,16 @@
         <v>2.3</v>
       </c>
       <c r="G9" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="H9" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K9" t="n">
         <v>3.4</v>
@@ -1633,10 +1633,10 @@
         <v>1.53</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="O9" t="n">
         <v>1.48</v>
@@ -1645,31 +1645,31 @@
         <v>1.63</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="R9" t="n">
         <v>1.22</v>
       </c>
       <c r="S9" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T9" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U9" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V9" t="n">
         <v>1.34</v>
       </c>
       <c r="W9" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="X9" t="n">
-        <v>18.5</v>
+        <v>10</v>
       </c>
       <c r="Y9" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Z9" t="n">
         <v>120</v>
@@ -1693,10 +1693,10 @@
         <v>28</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI9" t="n">
         <v>400</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G10" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I10" t="n">
         <v>3.8</v>
       </c>
       <c r="J10" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="K10" t="n">
         <v>3.25</v>
@@ -1771,19 +1771,19 @@
         <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="O10" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P10" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="R10" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S10" t="n">
         <v>4.8</v>
@@ -1792,16 +1792,16 @@
         <v>1.98</v>
       </c>
       <c r="U10" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="V10" t="n">
         <v>1.37</v>
       </c>
       <c r="W10" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="X10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y10" t="n">
         <v>11</v>
@@ -1810,7 +1810,7 @@
         <v>38</v>
       </c>
       <c r="AA10" t="n">
-        <v>900</v>
+        <v>190</v>
       </c>
       <c r="AB10" t="n">
         <v>9.800000000000001</v>
@@ -1834,7 +1834,7 @@
         <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="AJ10" t="n">
         <v>60</v>
@@ -1849,7 +1849,7 @@
         <v>170</v>
       </c>
       <c r="AN10" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AO10" t="n">
         <v>600</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.84</v>
+        <v>2.48</v>
       </c>
       <c r="G11" t="n">
-        <v>3.2</v>
+        <v>2.66</v>
       </c>
       <c r="H11" t="n">
-        <v>2.62</v>
+        <v>3.15</v>
       </c>
       <c r="I11" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K11" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L11" t="n">
         <v>1.49</v>
@@ -1909,76 +1909,76 @@
         <v>3.15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P11" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R11" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T11" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="U11" t="n">
         <v>1.96</v>
       </c>
       <c r="V11" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="W11" t="n">
-        <v>1.46</v>
+        <v>1.6</v>
       </c>
       <c r="X11" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z11" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AA11" t="n">
-        <v>320</v>
+        <v>900</v>
       </c>
       <c r="AB11" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AC11" t="n">
-        <v>13</v>
+        <v>7.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AE11" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AF11" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AG11" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AH11" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI11" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="AJ11" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="AK11" t="n">
         <v>120</v>
       </c>
       <c r="AL11" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="AM11" t="n">
         <v>580</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="G12" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="H12" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I12" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="J12" t="n">
         <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L12" t="n">
         <v>1.61</v>
@@ -2050,25 +2050,25 @@
         <v>1.49</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="R12" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S12" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="T12" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U12" t="n">
         <v>1.72</v>
       </c>
       <c r="V12" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W12" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="X12" t="n">
         <v>8.6</v>
@@ -2080,10 +2080,10 @@
         <v>40</v>
       </c>
       <c r="AA12" t="n">
-        <v>900</v>
+        <v>310</v>
       </c>
       <c r="AB12" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC12" t="n">
         <v>7.4</v>
@@ -2095,7 +2095,7 @@
         <v>250</v>
       </c>
       <c r="AF12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG12" t="n">
         <v>13</v>
@@ -2107,7 +2107,7 @@
         <v>340</v>
       </c>
       <c r="AJ12" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="AK12" t="n">
         <v>70</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="G13" t="n">
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="H13" t="n">
-        <v>1.8</v>
+        <v>1.99</v>
       </c>
       <c r="I13" t="n">
-        <v>1.83</v>
+        <v>2.06</v>
       </c>
       <c r="J13" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K13" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L13" t="n">
         <v>1.4</v>
@@ -2176,88 +2176,88 @@
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P13" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="R13" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S13" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="T13" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="U13" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="V13" t="n">
-        <v>2.2</v>
+        <v>1.94</v>
       </c>
       <c r="W13" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="X13" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="Y13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG13" t="n">
         <v>16.5</v>
       </c>
-      <c r="Z13" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD13" t="n">
+      <c r="AH13" t="n">
         <v>17</v>
       </c>
-      <c r="AE13" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG13" t="n">
+      <c r="AI13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN13" t="n">
         <v>42</v>
       </c>
-      <c r="AH13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>330</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>330</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>600</v>
-      </c>
       <c r="AO13" t="n">
-        <v>55</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="14">
@@ -2287,112 +2287,112 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.77</v>
+        <v>1.97</v>
       </c>
       <c r="G14" t="n">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="H14" t="n">
-        <v>5.4</v>
+        <v>4.6</v>
       </c>
       <c r="I14" t="n">
-        <v>6.4</v>
+        <v>5.1</v>
       </c>
       <c r="J14" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="K14" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="L14" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="P14" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="R14" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="S14" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T14" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="U14" t="n">
         <v>1.83</v>
       </c>
       <c r="V14" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="W14" t="n">
-        <v>2.16</v>
+        <v>1.99</v>
       </c>
       <c r="X14" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="Z14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA14" t="n">
         <v>140</v>
       </c>
-      <c r="AA14" t="n">
-        <v>1000</v>
-      </c>
       <c r="AB14" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="AE14" t="n">
-        <v>480</v>
+        <v>75</v>
       </c>
       <c r="AF14" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AG14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH14" t="n">
         <v>23</v>
       </c>
-      <c r="AH14" t="n">
-        <v>40</v>
-      </c>
       <c r="AI14" t="n">
-        <v>380</v>
+        <v>95</v>
       </c>
       <c r="AJ14" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AK14" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="AL14" t="n">
-        <v>290</v>
+        <v>50</v>
       </c>
       <c r="AM14" t="n">
-        <v>580</v>
+        <v>170</v>
       </c>
       <c r="AN14" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.46</v>
+        <v>2.3</v>
       </c>
       <c r="G15" t="n">
-        <v>2.74</v>
+        <v>2.56</v>
       </c>
       <c r="H15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K15" t="n">
         <v>3.3</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.2</v>
       </c>
       <c r="L15" t="n">
         <v>1.61</v>
@@ -2449,76 +2449,76 @@
         <v>2.58</v>
       </c>
       <c r="O15" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="P15" t="n">
         <v>1.52</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="R15" t="n">
         <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="T15" t="n">
         <v>2.08</v>
       </c>
       <c r="U15" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V15" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W15" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="X15" t="n">
         <v>8.6</v>
       </c>
       <c r="Y15" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="Z15" t="n">
         <v>34</v>
       </c>
       <c r="AA15" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="AB15" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AC15" t="n">
         <v>7.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AE15" t="n">
         <v>160</v>
       </c>
       <c r="AF15" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AI15" t="n">
         <v>480</v>
       </c>
       <c r="AJ15" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="AK15" t="n">
         <v>150</v>
       </c>
       <c r="AL15" t="n">
-        <v>250</v>
+        <v>480</v>
       </c>
       <c r="AM15" t="n">
         <v>210</v>
@@ -2557,94 +2557,94 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="G16" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="I16" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K16" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="L16" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="M16" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="O16" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="P16" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T16" t="n">
         <v>1.82</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="U16" t="n">
         <v>2.14</v>
       </c>
-      <c r="R16" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.08</v>
-      </c>
       <c r="V16" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="W16" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="X16" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z16" t="n">
         <v>28</v>
       </c>
       <c r="AA16" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB16" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AF16" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG16" t="n">
         <v>10.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AI16" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ16" t="n">
         <v>28</v>
@@ -2653,16 +2653,16 @@
         <v>24</v>
       </c>
       <c r="AL16" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM16" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN16" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="G17" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H17" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="I17" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="J17" t="n">
         <v>3.65</v>
       </c>
       <c r="K17" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L17" t="n">
         <v>1.44</v>
@@ -2716,58 +2716,58 @@
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="O17" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P17" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="R17" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S17" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="T17" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U17" t="n">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="V17" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="W17" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="X17" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y17" t="n">
-        <v>14.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z17" t="n">
         <v>11.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AB17" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD17" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AE17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF17" t="n">
         <v>34</v>
@@ -2776,10 +2776,10 @@
         <v>18.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ17" t="n">
         <v>120</v>
@@ -2797,7 +2797,7 @@
         <v>80</v>
       </c>
       <c r="AO17" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="18">
@@ -2830,16 +2830,16 @@
         <v>3.6</v>
       </c>
       <c r="G18" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H18" t="n">
         <v>2.48</v>
       </c>
       <c r="I18" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K18" t="n">
         <v>3.05</v>
@@ -2848,7 +2848,7 @@
         <v>1.59</v>
       </c>
       <c r="M18" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N18" t="n">
         <v>2.72</v>
@@ -2857,13 +2857,13 @@
         <v>1.56</v>
       </c>
       <c r="P18" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="R18" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S18" t="n">
         <v>5.6</v>
@@ -2872,7 +2872,7 @@
         <v>2.14</v>
       </c>
       <c r="U18" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V18" t="n">
         <v>1.64</v>
@@ -2881,58 +2881,58 @@
         <v>1.36</v>
       </c>
       <c r="X18" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y18" t="n">
         <v>7.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA18" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="AB18" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD18" t="n">
         <v>12.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF18" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH18" t="n">
         <v>23</v>
       </c>
       <c r="AI18" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ18" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AK18" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="AL18" t="n">
-        <v>480</v>
+        <v>85</v>
       </c>
       <c r="AM18" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN18" t="n">
-        <v>600</v>
+        <v>230</v>
       </c>
       <c r="AO18" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="G19" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="H19" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="I19" t="n">
         <v>7.8</v>
@@ -2998,22 +2998,22 @@
         <v>2.22</v>
       </c>
       <c r="R19" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S19" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T19" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="U19" t="n">
         <v>1.75</v>
       </c>
       <c r="V19" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W19" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="X19" t="n">
         <v>11.5</v>
@@ -3025,25 +3025,25 @@
         <v>60</v>
       </c>
       <c r="AA19" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AB19" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC19" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AE19" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AF19" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AG19" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH19" t="n">
         <v>28</v>
@@ -3055,13 +3055,13 @@
         <v>15</v>
       </c>
       <c r="AK19" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL19" t="n">
         <v>50</v>
       </c>
       <c r="AM19" t="n">
-        <v>220</v>
+        <v>580</v>
       </c>
       <c r="AN19" t="n">
         <v>12</v>
@@ -3097,61 +3097,61 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="G20" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="H20" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I20" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J20" t="n">
         <v>3.25</v>
       </c>
       <c r="K20" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L20" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M20" t="n">
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="O20" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="P20" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="S20" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="T20" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="U20" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="V20" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W20" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="X20" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y20" t="n">
         <v>13</v>
@@ -3163,19 +3163,19 @@
         <v>65</v>
       </c>
       <c r="AB20" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC20" t="n">
         <v>7.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE20" t="n">
         <v>42</v>
       </c>
       <c r="AF20" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG20" t="n">
         <v>11.5</v>
@@ -3187,22 +3187,22 @@
         <v>55</v>
       </c>
       <c r="AJ20" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AK20" t="n">
         <v>26</v>
       </c>
       <c r="AL20" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM20" t="n">
-        <v>330</v>
+        <v>95</v>
       </c>
       <c r="AN20" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AO20" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G21" t="n">
         <v>2.64</v>
       </c>
-      <c r="G21" t="n">
-        <v>2.66</v>
-      </c>
       <c r="H21" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I21" t="n">
         <v>3.4</v>
       </c>
-      <c r="I21" t="n">
-        <v>3.45</v>
-      </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K21" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L21" t="n">
         <v>1.58</v>
@@ -3256,13 +3256,13 @@
         <v>1.12</v>
       </c>
       <c r="N21" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="O21" t="n">
         <v>1.5</v>
       </c>
       <c r="P21" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="Q21" t="n">
         <v>2.56</v>
@@ -3274,52 +3274,52 @@
         <v>5.2</v>
       </c>
       <c r="T21" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U21" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V21" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W21" t="n">
         <v>1.6</v>
       </c>
       <c r="X21" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y21" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="Z21" t="n">
         <v>21</v>
       </c>
       <c r="AA21" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB21" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AF21" t="n">
         <v>14.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI21" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ21" t="n">
         <v>38</v>
@@ -3334,10 +3334,10 @@
         <v>150</v>
       </c>
       <c r="AN21" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AO21" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22">
@@ -3367,19 +3367,19 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="G22" t="n">
-        <v>2.84</v>
+        <v>2.5</v>
       </c>
       <c r="H22" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I22" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J22" t="n">
-        <v>2.82</v>
+        <v>2.96</v>
       </c>
       <c r="K22" t="n">
         <v>3.35</v>
@@ -3394,70 +3394,70 @@
         <v>2.96</v>
       </c>
       <c r="O22" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P22" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R22" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S22" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T22" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U22" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="V22" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="W22" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="X22" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y22" t="n">
         <v>12</v>
       </c>
       <c r="Z22" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AA22" t="n">
-        <v>290</v>
+        <v>190</v>
       </c>
       <c r="AB22" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AC22" t="n">
         <v>7.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE22" t="n">
         <v>200</v>
       </c>
       <c r="AF22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG22" t="n">
         <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI22" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="AJ22" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AK22" t="n">
         <v>50</v>
@@ -3469,7 +3469,7 @@
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AO22" t="n">
         <v>600</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G23" t="n">
         <v>2.34</v>
       </c>
-      <c r="G23" t="n">
-        <v>2.38</v>
-      </c>
       <c r="H23" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I23" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
         <v>3.1</v>
@@ -3520,22 +3520,22 @@
         <v>3.15</v>
       </c>
       <c r="L23" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="M23" t="n">
         <v>1.12</v>
       </c>
       <c r="N23" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="O23" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="P23" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="R23" t="n">
         <v>1.23</v>
@@ -3544,19 +3544,19 @@
         <v>5</v>
       </c>
       <c r="T23" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U23" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V23" t="n">
         <v>1.33</v>
       </c>
       <c r="W23" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="X23" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Y23" t="n">
         <v>11</v>
@@ -3601,10 +3601,10 @@
         <v>55</v>
       </c>
       <c r="AM23" t="n">
-        <v>580</v>
+        <v>160</v>
       </c>
       <c r="AN23" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AO23" t="n">
         <v>75</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="G24" t="n">
         <v>1.36</v>
@@ -3646,13 +3646,13 @@
         <v>12</v>
       </c>
       <c r="I24" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="J24" t="n">
         <v>5.5</v>
       </c>
       <c r="K24" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L24" t="n">
         <v>1.34</v>
@@ -3661,19 +3661,19 @@
         <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O24" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P24" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="R24" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S24" t="n">
         <v>2.88</v>
@@ -3688,19 +3688,19 @@
         <v>1.08</v>
       </c>
       <c r="W24" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="X24" t="n">
         <v>21</v>
       </c>
       <c r="Y24" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="Z24" t="n">
         <v>140</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AB24" t="n">
         <v>8.4</v>
@@ -3709,10 +3709,10 @@
         <v>13</v>
       </c>
       <c r="AD24" t="n">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="AE24" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AF24" t="n">
         <v>8.199999999999999</v>
@@ -3724,7 +3724,7 @@
         <v>34</v>
       </c>
       <c r="AI24" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AJ24" t="n">
         <v>11</v>
@@ -3736,13 +3736,13 @@
         <v>120</v>
       </c>
       <c r="AM24" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AN24" t="n">
         <v>5.9</v>
       </c>
       <c r="AO24" t="n">
-        <v>390</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25">
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G25" t="n">
         <v>2.48</v>
       </c>
       <c r="H25" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I25" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J25" t="n">
         <v>3.25</v>
       </c>
       <c r="K25" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L25" t="n">
         <v>1.49</v>
@@ -3796,31 +3796,31 @@
         <v>1.09</v>
       </c>
       <c r="N25" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O25" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P25" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R25" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S25" t="n">
         <v>4.2</v>
       </c>
       <c r="T25" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="U25" t="n">
         <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W25" t="n">
         <v>1.67</v>
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="G26" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="H26" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I26" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J26" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K26" t="n">
         <v>3.05</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.25</v>
       </c>
       <c r="L26" t="n">
         <v>1.56</v>
@@ -3931,40 +3931,40 @@
         <v>1.11</v>
       </c>
       <c r="N26" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="O26" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="P26" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="R26" t="n">
         <v>1.22</v>
       </c>
       <c r="S26" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="T26" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U26" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V26" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W26" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="X26" t="n">
         <v>12.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Z26" t="n">
         <v>85</v>
@@ -3973,13 +3973,13 @@
         <v>900</v>
       </c>
       <c r="AB26" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC26" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AE26" t="n">
         <v>380</v>
@@ -3991,7 +3991,7 @@
         <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI26" t="n">
         <v>400</v>
@@ -4006,7 +4006,7 @@
         <v>150</v>
       </c>
       <c r="AM26" t="n">
-        <v>580</v>
+        <v>160</v>
       </c>
       <c r="AN26" t="n">
         <v>70</v>
@@ -4045,37 +4045,37 @@
         <v>2.4</v>
       </c>
       <c r="G27" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I27" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J27" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K27" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L27" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M27" t="n">
         <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="O27" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="P27" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="R27" t="n">
         <v>1.26</v>
@@ -4084,16 +4084,16 @@
         <v>4.2</v>
       </c>
       <c r="T27" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U27" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V27" t="n">
         <v>1.41</v>
       </c>
       <c r="W27" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="X27" t="n">
         <v>11.5</v>
@@ -4102,13 +4102,13 @@
         <v>11</v>
       </c>
       <c r="Z27" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AA27" t="n">
-        <v>310</v>
+        <v>200</v>
       </c>
       <c r="AB27" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC27" t="n">
         <v>7.8</v>
@@ -4126,28 +4126,28 @@
         <v>12.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AI27" t="n">
         <v>380</v>
       </c>
       <c r="AJ27" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AK27" t="n">
         <v>50</v>
       </c>
       <c r="AL27" t="n">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AM27" t="n">
         <v>580</v>
       </c>
       <c r="AN27" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AO27" t="n">
-        <v>480</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28">
@@ -4177,73 +4177,73 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="G28" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="H28" t="n">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J28" t="n">
         <v>3.1</v>
       </c>
       <c r="K28" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L28" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M28" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N28" t="n">
         <v>3</v>
       </c>
       <c r="O28" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P28" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="R28" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S28" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="T28" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U28" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="V28" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="W28" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X28" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z28" t="n">
         <v>19</v>
       </c>
       <c r="AA28" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="AB28" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC28" t="n">
         <v>7.2</v>
@@ -4252,37 +4252,37 @@
         <v>13.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AF28" t="n">
-        <v>36</v>
+        <v>17.5</v>
       </c>
       <c r="AG28" t="n">
         <v>13</v>
       </c>
       <c r="AH28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI28" t="n">
         <v>60</v>
       </c>
       <c r="AJ28" t="n">
-        <v>200</v>
+        <v>46</v>
       </c>
       <c r="AK28" t="n">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AL28" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="AM28" t="n">
         <v>580</v>
       </c>
       <c r="AN28" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AO28" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29">
@@ -4312,55 +4312,55 @@
         </is>
       </c>
       <c r="F29" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I29" t="n">
         <v>2.8</v>
       </c>
-      <c r="G29" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2.82</v>
-      </c>
       <c r="J29" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K29" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="L29" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M29" t="n">
         <v>1.08</v>
       </c>
       <c r="N29" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O29" t="n">
         <v>1.34</v>
       </c>
       <c r="P29" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Q29" t="n">
         <v>2.02</v>
       </c>
       <c r="R29" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S29" t="n">
         <v>3.6</v>
       </c>
       <c r="T29" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="U29" t="n">
         <v>2.06</v>
       </c>
       <c r="V29" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W29" t="n">
         <v>1.47</v>
@@ -4372,22 +4372,22 @@
         <v>11</v>
       </c>
       <c r="Z29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA29" t="n">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="AB29" t="n">
         <v>12</v>
       </c>
       <c r="AC29" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD29" t="n">
         <v>14.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AF29" t="n">
         <v>21</v>
@@ -4402,22 +4402,22 @@
         <v>55</v>
       </c>
       <c r="AJ29" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="AK29" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AL29" t="n">
         <v>60</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN29" t="n">
-        <v>600</v>
+        <v>46</v>
       </c>
       <c r="AO29" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30">
@@ -4447,79 +4447,79 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="G30" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H30" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I30" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J30" t="n">
         <v>3.3</v>
       </c>
       <c r="K30" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L30" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="M30" t="n">
         <v>1.09</v>
       </c>
       <c r="N30" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O30" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="P30" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="R30" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="S30" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="T30" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="U30" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="V30" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="W30" t="n">
         <v>1.83</v>
       </c>
       <c r="X30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z30" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AA30" t="n">
-        <v>85</v>
+        <v>270</v>
       </c>
       <c r="AB30" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC30" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE30" t="n">
         <v>55</v>
@@ -4531,7 +4531,7 @@
         <v>11</v>
       </c>
       <c r="AH30" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI30" t="n">
         <v>70</v>
@@ -4546,10 +4546,10 @@
         <v>46</v>
       </c>
       <c r="AM30" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN30" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AO30" t="n">
         <v>65</v>
@@ -4585,55 +4585,55 @@
         <v>2.08</v>
       </c>
       <c r="G31" t="n">
-        <v>2.34</v>
+        <v>2.2</v>
       </c>
       <c r="H31" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="I31" t="n">
-        <v>6.8</v>
+        <v>5.2</v>
       </c>
       <c r="J31" t="n">
-        <v>2.64</v>
+        <v>3</v>
       </c>
       <c r="K31" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="L31" t="n">
-        <v>1.69</v>
+        <v>1.63</v>
       </c>
       <c r="M31" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="N31" t="n">
-        <v>2.26</v>
+        <v>2.56</v>
       </c>
       <c r="O31" t="n">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="P31" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.05</v>
+        <v>2.72</v>
       </c>
       <c r="R31" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="S31" t="n">
-        <v>3.15</v>
+        <v>5.4</v>
       </c>
       <c r="T31" t="n">
-        <v>2.14</v>
+        <v>1.05</v>
       </c>
       <c r="U31" t="n">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="V31" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="W31" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -4651,7 +4651,7 @@
         <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AD31" t="n">
         <v>1000</v>
@@ -4717,52 +4717,52 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G32" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="H32" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I32" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="J32" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K32" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L32" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M32" t="n">
         <v>1.07</v>
       </c>
       <c r="N32" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="O32" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="P32" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="R32" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="S32" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T32" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="U32" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V32" t="n">
         <v>1.22</v>
@@ -4771,22 +4771,22 @@
         <v>2.22</v>
       </c>
       <c r="X32" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y32" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA32" t="n">
         <v>140</v>
       </c>
       <c r="AB32" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC32" t="n">
         <v>8.4</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>8.6</v>
       </c>
       <c r="AD32" t="n">
         <v>21</v>
@@ -4804,7 +4804,7 @@
         <v>21</v>
       </c>
       <c r="AI32" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AJ32" t="n">
         <v>19</v>
@@ -4816,13 +4816,13 @@
         <v>38</v>
       </c>
       <c r="AM32" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="AN32" t="n">
         <v>12.5</v>
       </c>
       <c r="AO32" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33">
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="G33" t="n">
         <v>1.47</v>
       </c>
-      <c r="G33" t="n">
-        <v>1.49</v>
-      </c>
       <c r="H33" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="I33" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="J33" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="K33" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="L33" t="n">
         <v>1.27</v>
@@ -4882,64 +4882,64 @@
         <v>1.17</v>
       </c>
       <c r="P33" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="R33" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="S33" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U33" t="n">
         <v>2.28</v>
       </c>
-      <c r="T33" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U33" t="n">
-        <v>2.36</v>
-      </c>
       <c r="V33" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W33" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="X33" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y33" t="n">
         <v>50</v>
       </c>
       <c r="Z33" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="AA33" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="AB33" t="n">
-        <v>28</v>
+        <v>12.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AD33" t="n">
         <v>28</v>
       </c>
       <c r="AE33" t="n">
-        <v>85</v>
+        <v>510</v>
       </c>
       <c r="AF33" t="n">
         <v>11.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH33" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI33" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ33" t="n">
         <v>14</v>
@@ -4948,16 +4948,16 @@
         <v>14</v>
       </c>
       <c r="AL33" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM33" t="n">
-        <v>330</v>
+        <v>90</v>
       </c>
       <c r="AN33" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AO33" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
     </row>
     <row r="34">
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G34" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="H34" t="n">
         <v>5.3</v>
@@ -4999,46 +4999,46 @@
         <v>6.8</v>
       </c>
       <c r="J34" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K34" t="n">
         <v>3.85</v>
       </c>
       <c r="L34" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="M34" t="n">
         <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>2.68</v>
+        <v>2.88</v>
       </c>
       <c r="O34" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P34" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="R34" t="n">
         <v>1.21</v>
       </c>
       <c r="S34" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="T34" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="U34" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="V34" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W34" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X34" t="n">
         <v>10.5</v>
@@ -5053,13 +5053,13 @@
         <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AC34" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD34" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AE34" t="n">
         <v>1000</v>
@@ -5077,7 +5077,7 @@
         <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK34" t="n">
         <v>25</v>
@@ -5125,52 +5125,52 @@
         <v>2.62</v>
       </c>
       <c r="G35" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="H35" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I35" t="n">
         <v>3.45</v>
       </c>
       <c r="J35" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K35" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L35" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="M35" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N35" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="O35" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="P35" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="R35" t="n">
         <v>1.21</v>
       </c>
       <c r="S35" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="T35" t="n">
         <v>2.1</v>
       </c>
       <c r="U35" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="V35" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W35" t="n">
         <v>1.6</v>
@@ -5179,7 +5179,7 @@
         <v>8.6</v>
       </c>
       <c r="Y35" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Z35" t="n">
         <v>21</v>
@@ -5188,7 +5188,7 @@
         <v>65</v>
       </c>
       <c r="AB35" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC35" t="n">
         <v>6.6</v>
@@ -5218,10 +5218,10 @@
         <v>36</v>
       </c>
       <c r="AL35" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM35" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN35" t="n">
         <v>38</v>
@@ -5257,43 +5257,43 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.38</v>
+        <v>2.64</v>
       </c>
       <c r="G36" t="n">
-        <v>2.56</v>
+        <v>2.82</v>
       </c>
       <c r="H36" t="n">
-        <v>3.05</v>
+        <v>2.74</v>
       </c>
       <c r="I36" t="n">
-        <v>3.3</v>
+        <v>2.96</v>
       </c>
       <c r="J36" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K36" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L36" t="n">
         <v>1.43</v>
       </c>
       <c r="M36" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N36" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="O36" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P36" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="Q36" t="n">
         <v>1.92</v>
       </c>
       <c r="R36" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S36" t="n">
         <v>3.35</v>
@@ -5305,64 +5305,64 @@
         <v>2.16</v>
       </c>
       <c r="V36" t="n">
-        <v>1.43</v>
+        <v>1.51</v>
       </c>
       <c r="W36" t="n">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
       <c r="X36" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y36" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Z36" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AA36" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AB36" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD36" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AF36" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AG36" t="n">
         <v>11.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI36" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AJ36" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AK36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL36" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM36" t="n">
         <v>90</v>
       </c>
       <c r="AN36" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AO36" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
@@ -5392,25 +5392,25 @@
         </is>
       </c>
       <c r="F37" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G37" t="n">
         <v>1.57</v>
       </c>
-      <c r="G37" t="n">
-        <v>1.6</v>
-      </c>
       <c r="H37" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="I37" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="J37" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K37" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L37" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="M37" t="n">
         <v>1.1</v>
@@ -5422,79 +5422,79 @@
         <v>1.46</v>
       </c>
       <c r="P37" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="R37" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S37" t="n">
         <v>4.7</v>
       </c>
       <c r="T37" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="U37" t="n">
         <v>1.68</v>
       </c>
       <c r="V37" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W37" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="X37" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y37" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z37" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AA37" t="n">
         <v>340</v>
       </c>
       <c r="AB37" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AC37" t="n">
         <v>9.4</v>
       </c>
       <c r="AD37" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AE37" t="n">
         <v>180</v>
       </c>
       <c r="AF37" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AG37" t="n">
         <v>10.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AI37" t="n">
         <v>190</v>
       </c>
       <c r="AJ37" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK37" t="n">
         <v>21</v>
       </c>
       <c r="AL37" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM37" t="n">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="AN37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO37" t="n">
         <v>320</v>
@@ -5527,13 +5527,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="G38" t="n">
         <v>2.88</v>
       </c>
       <c r="H38" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="I38" t="n">
         <v>3.1</v>
@@ -5542,7 +5542,7 @@
         <v>3.25</v>
       </c>
       <c r="K38" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L38" t="n">
         <v>1.49</v>
@@ -5551,13 +5551,13 @@
         <v>1.09</v>
       </c>
       <c r="N38" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="O38" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P38" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="Q38" t="n">
         <v>2.2</v>
@@ -5587,7 +5587,7 @@
         <v>11</v>
       </c>
       <c r="Z38" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA38" t="n">
         <v>65</v>
@@ -5608,7 +5608,7 @@
         <v>23</v>
       </c>
       <c r="AG38" t="n">
-        <v>230</v>
+        <v>19</v>
       </c>
       <c r="AH38" t="n">
         <v>19.5</v>
@@ -5617,7 +5617,7 @@
         <v>60</v>
       </c>
       <c r="AJ38" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK38" t="n">
         <v>34</v>
@@ -5662,10 +5662,10 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H39" t="n">
         <v>3.65</v>
@@ -5677,7 +5677,7 @@
         <v>3.7</v>
       </c>
       <c r="K39" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L39" t="n">
         <v>1.37</v>
@@ -5692,34 +5692,34 @@
         <v>1.26</v>
       </c>
       <c r="P39" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="R39" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S39" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T39" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U39" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V39" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W39" t="n">
         <v>1.87</v>
       </c>
       <c r="X39" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="Y39" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="Z39" t="n">
         <v>90</v>
@@ -5728,10 +5728,10 @@
         <v>900</v>
       </c>
       <c r="AB39" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD39" t="n">
         <v>970</v>
@@ -5743,16 +5743,16 @@
         <v>970</v>
       </c>
       <c r="AG39" t="n">
-        <v>40</v>
+        <v>16.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="AI39" t="n">
         <v>260</v>
       </c>
       <c r="AJ39" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AK39" t="n">
         <v>70</v>
@@ -5761,10 +5761,10 @@
         <v>85</v>
       </c>
       <c r="AM39" t="n">
-        <v>580</v>
+        <v>330</v>
       </c>
       <c r="AN39" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AO39" t="n">
         <v>600</v>
@@ -5797,16 +5797,16 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="G40" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H40" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="I40" t="n">
         <v>1.81</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1.84</v>
       </c>
       <c r="J40" t="n">
         <v>4.1</v>
@@ -5821,61 +5821,61 @@
         <v>1.05</v>
       </c>
       <c r="N40" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O40" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P40" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q40" t="n">
         <v>1.72</v>
       </c>
       <c r="R40" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S40" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="T40" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U40" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="V40" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="W40" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X40" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Y40" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA40" t="n">
         <v>20</v>
       </c>
       <c r="AB40" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC40" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AD40" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AE40" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF40" t="n">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="AG40" t="n">
         <v>18</v>
@@ -5887,7 +5887,7 @@
         <v>32</v>
       </c>
       <c r="AJ40" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AK40" t="n">
         <v>55</v>
@@ -5902,7 +5902,7 @@
         <v>48</v>
       </c>
       <c r="AO40" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="41">
@@ -5932,55 +5932,55 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="G41" t="n">
         <v>1.52</v>
       </c>
       <c r="H41" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="I41" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J41" t="n">
         <v>4.7</v>
       </c>
       <c r="K41" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L41" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M41" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N41" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O41" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P41" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="R41" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="S41" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="T41" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="U41" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="V41" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W41" t="n">
         <v>2.92</v>
@@ -5998,7 +5998,7 @@
         <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC41" t="n">
         <v>11.5</v>
@@ -6022,7 +6022,7 @@
         <v>260</v>
       </c>
       <c r="AJ41" t="n">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="AK41" t="n">
         <v>34</v>
@@ -6034,10 +6034,10 @@
         <v>130</v>
       </c>
       <c r="AN41" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AO41" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42">
@@ -6067,10 +6067,10 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="G42" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="H42" t="n">
         <v>3.9</v>
@@ -6079,16 +6079,16 @@
         <v>4.1</v>
       </c>
       <c r="J42" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K42" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L42" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M42" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N42" t="n">
         <v>3.25</v>
@@ -6097,43 +6097,43 @@
         <v>1.41</v>
       </c>
       <c r="P42" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R42" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S42" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T42" t="n">
         <v>1.93</v>
       </c>
       <c r="U42" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="V42" t="n">
         <v>1.32</v>
       </c>
       <c r="W42" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X42" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y42" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y42" t="n">
-        <v>13</v>
-      </c>
       <c r="Z42" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AA42" t="n">
         <v>260</v>
       </c>
       <c r="AB42" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC42" t="n">
         <v>7.8</v>
@@ -6142,13 +6142,13 @@
         <v>17</v>
       </c>
       <c r="AE42" t="n">
-        <v>370</v>
+        <v>160</v>
       </c>
       <c r="AF42" t="n">
         <v>13.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH42" t="n">
         <v>21</v>
@@ -6157,19 +6157,19 @@
         <v>380</v>
       </c>
       <c r="AJ42" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK42" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="AL42" t="n">
-        <v>290</v>
+        <v>75</v>
       </c>
       <c r="AM42" t="n">
         <v>580</v>
       </c>
       <c r="AN42" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO42" t="n">
         <v>600</v>
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="G43" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="H43" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I43" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J43" t="n">
         <v>4.1</v>
@@ -6220,40 +6220,40 @@
         <v>4.7</v>
       </c>
       <c r="L43" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M43" t="n">
         <v>1.02</v>
       </c>
       <c r="N43" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="O43" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P43" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="R43" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="S43" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T43" t="n">
         <v>1.53</v>
       </c>
       <c r="U43" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="V43" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W43" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="X43" t="n">
         <v>95</v>
@@ -6271,28 +6271,28 @@
         <v>970</v>
       </c>
       <c r="AC43" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AD43" t="n">
         <v>42</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>970</v>
       </c>
       <c r="AE43" t="n">
         <v>200</v>
       </c>
       <c r="AF43" t="n">
-        <v>970</v>
+        <v>28</v>
       </c>
       <c r="AG43" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AH43" t="n">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="AI43" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AJ43" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AK43" t="n">
         <v>970</v>
@@ -6301,10 +6301,10 @@
         <v>60</v>
       </c>
       <c r="AM43" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN43" t="n">
-        <v>28</v>
+        <v>11.5</v>
       </c>
       <c r="AO43" t="n">
         <v>600</v>
@@ -6343,10 +6343,10 @@
         <v>3.15</v>
       </c>
       <c r="H44" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="I44" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="J44" t="n">
         <v>3.15</v>
@@ -6364,13 +6364,13 @@
         <v>3.25</v>
       </c>
       <c r="O44" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P44" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R44" t="n">
         <v>1.29</v>
@@ -6379,7 +6379,7 @@
         <v>3.9</v>
       </c>
       <c r="T44" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U44" t="n">
         <v>2</v>
@@ -6400,7 +6400,7 @@
         <v>970</v>
       </c>
       <c r="AA44" t="n">
-        <v>140</v>
+        <v>900</v>
       </c>
       <c r="AB44" t="n">
         <v>970</v>
@@ -6472,13 +6472,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G45" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="H45" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I45" t="n">
         <v>3.45</v>
@@ -6487,16 +6487,16 @@
         <v>3.05</v>
       </c>
       <c r="K45" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L45" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="M45" t="n">
         <v>1.12</v>
       </c>
       <c r="N45" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="O45" t="n">
         <v>1.51</v>
@@ -6511,25 +6511,25 @@
         <v>1.22</v>
       </c>
       <c r="S45" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="T45" t="n">
         <v>2.06</v>
       </c>
       <c r="U45" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V45" t="n">
         <v>1.4</v>
       </c>
       <c r="W45" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="X45" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y45" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z45" t="n">
         <v>22</v>
@@ -6556,16 +6556,16 @@
         <v>12</v>
       </c>
       <c r="AH45" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI45" t="n">
         <v>75</v>
       </c>
       <c r="AJ45" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK45" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL45" t="n">
         <v>60</v>
@@ -6607,34 +6607,34 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="G46" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J46" t="n">
         <v>3.1</v>
       </c>
-      <c r="H46" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I46" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="J46" t="n">
+      <c r="K46" t="n">
         <v>3.2</v>
       </c>
-      <c r="K46" t="n">
-        <v>3.25</v>
-      </c>
       <c r="L46" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M46" t="n">
         <v>1.08</v>
       </c>
       <c r="N46" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O46" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P46" t="n">
         <v>1.84</v>
@@ -6643,61 +6643,61 @@
         <v>2.1</v>
       </c>
       <c r="R46" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S46" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T46" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U46" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V46" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="W46" t="n">
         <v>1.47</v>
       </c>
       <c r="X46" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="Y46" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="Z46" t="n">
         <v>970</v>
       </c>
       <c r="AA46" t="n">
-        <v>900</v>
+        <v>280</v>
       </c>
       <c r="AB46" t="n">
         <v>970</v>
       </c>
       <c r="AC46" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD46" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AE46" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AF46" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="AG46" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AH46" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="AI46" t="n">
         <v>170</v>
       </c>
       <c r="AJ46" t="n">
-        <v>900</v>
+        <v>280</v>
       </c>
       <c r="AK46" t="n">
         <v>90</v>
@@ -6742,22 +6742,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G47" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H47" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="I47" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="J47" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K47" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L47" t="n">
         <v>1.24</v>
@@ -6769,85 +6769,85 @@
         <v>7.2</v>
       </c>
       <c r="O47" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P47" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="R47" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S47" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="T47" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="U47" t="n">
-        <v>2.96</v>
+        <v>2.78</v>
       </c>
       <c r="V47" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="W47" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="X47" t="n">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="Y47" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="Z47" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA47" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB47" t="n">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="AC47" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD47" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE47" t="n">
         <v>21</v>
       </c>
       <c r="AF47" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AG47" t="n">
-        <v>36</v>
+        <v>18.5</v>
       </c>
       <c r="AH47" t="n">
-        <v>25</v>
+        <v>15.5</v>
       </c>
       <c r="AI47" t="n">
         <v>27</v>
       </c>
       <c r="AJ47" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AK47" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="AL47" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AM47" t="n">
         <v>200</v>
       </c>
       <c r="AN47" t="n">
-        <v>600</v>
+        <v>19.5</v>
       </c>
       <c r="AO47" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="48">
@@ -6877,112 +6877,112 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="G48" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="H48" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="I48" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J48" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="K48" t="n">
         <v>6.2</v>
       </c>
       <c r="L48" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M48" t="n">
         <v>1.01</v>
       </c>
       <c r="N48" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O48" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="P48" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="Q48" t="n">
         <v>1.35</v>
       </c>
       <c r="R48" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="S48" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="T48" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="U48" t="n">
-        <v>2.62</v>
+        <v>2.84</v>
       </c>
       <c r="V48" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W48" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="X48" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="Y48" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="Z48" t="n">
         <v>470</v>
       </c>
       <c r="AA48" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AB48" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AC48" t="n">
         <v>16.5</v>
       </c>
       <c r="AD48" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="AE48" t="n">
-        <v>160</v>
+        <v>420</v>
       </c>
       <c r="AF48" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG48" t="n">
         <v>12.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI48" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ48" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AK48" t="n">
         <v>14.5</v>
       </c>
       <c r="AL48" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="AM48" t="n">
         <v>250</v>
       </c>
       <c r="AN48" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="AO48" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49">
@@ -7012,64 +7012,64 @@
         </is>
       </c>
       <c r="F49" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H49" t="n">
+        <v>6.8</v>
+      </c